--- a/output/錯誤型態彙整.xlsx
+++ b/output/錯誤型態彙整.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="322">
   <si>
     <t>45A</t>
   </si>
@@ -187,13 +187,7 @@
     <t xml:space="preserve"> TERMS OF PRICE FOB KAOHSIUNGCOUNTRY OF ORIGIN TAIWANSANGRADE NONF2200QUANTITY 16 MTUNIT PRICE USD179000MT </t>
   </si>
   <si>
-    <t xml:space="preserve"> CARBON FIBER YARNTC35 TC3548K A GRADEQTY259200KGS UPRICEUSD143KGS AMOUNTUSD37065600PRICE TERM CIF SHANGHAICHINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RESINA EPOXI NPEL128 19200 KGCIF BRAZILSANTA CATARINA INCOTERMS 2010 AS PER PROFORMA INVOICE NO PO 071529 PI PF1005C </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PRODUCT 1 POLYPROPYLENE HOMOPOLYMERGRADE YUNSOX 2020SQUANTITY 250 MTSUNIT PRICE USD 1320 PER MT PER PO 470984201PACKING 25 KG BAGINCO TERM FOB ANY PORT IN TAIWAN </t>
+    <t xml:space="preserve"> TERMS OF SALE CIF NHAVA SHEVA PORT INDIAGLACIAL ACRYLIC ACID TOTAL 1 FCL 1600 MTS 1 FCL 1600MTS IS EQUAL TO 80 DRUMS X 200 KGSAS PER SALES CONTRACT NO 12D1B001 DATED 28092021 </t>
   </si>
   <si>
     <t xml:space="preserve"> TERMS OF SALE CIF NHAVA SHEVA PORT INDIA288 MT OF PHTHALIC ANHYDRIDE AT USD 1230 PER MTAS PER PROFORMA INVOICE NO NP1A63 DATED 26OCT2021 </t>
@@ -229,6 +223,96 @@
     <t xml:space="preserve"> COUNTRY OF ORIGIN TAIWANPRICE TERMS CIF BUSAN DETAILS AS PER OFFER NO HC2111118YJ2021112DESCRIPTION TPN1QUANTITIES 9000KGUNIT PRICE USD 415KGTOATL VALUE USD 37350 </t>
   </si>
   <si>
+    <t xml:space="preserve"> 20 MT DOAAT USD 230000MTTOTAL AMOUNT  USD 4600000TYPE OF GOODS LIQUIDHS NO   29171210CONTRACT NO  NL1A31COUNTRY OF ORIGIN TAIWANSHIPPING TERMS  CIF TANJUNG PRIOK JAKARTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CIF PORT KLANG MALAYSIA2000 MT 2 ETHYL HEXANOL AT USD 2080MT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY BPA BISPHENOLAQUANTITY 510MTSCONTRACT NO 4500299594TOTAL VALUE USD142800000PRICE TERM CIF YANTAI PORT CHINA INCOTERMS 2010 EDITIONS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18000 KGS OF POLYACETAL POM FM090AS PER PO NO194418 DATED 13102021CIF PORT KLANG MALAYSIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FOB ANY PORT IN TAIWANEVA 7350M PRIME GRADE 50MT AT USD350500MT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 MTS CAUSTIC SODA FLAKEAS PER PROFORMA INVOICE NO AOK3963CIF MANILA PHILIPPINES NORTH PORT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY DIETHYLENE GLYCOL DEG A GRADEQUANTITY 100000MTS5PCTUNIT PRICE USD89500MTPRICE TERM CFR QUANZHOU CHINAPACKING IN BULKORIGIN TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLYESTER RESIN PET RESIN BOTTLE GRADE 3802 PRIMARY FORMAS PER SALES CONTRACT NO NB435 DATED 03112021TERMS CIF NHAVA SHEVA PORTINDIAINCOTERMS 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLYESTER FILM PO NAKNMPRICE TERMS CIF SHEKOUCHINAWITH CONTAINER SHIPMENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TERMS OF PRICE FOB MAILIAO TAIWAN COUNTRY OF ORIGIN TAIWAN HS NO 2905310000 MONOETHYLENE GLYCOL FIBER GRADE PACKING IN BULK 3500000MT USD 74000MT USD 259000000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY DIETHYLENE GLYCOL DEGQUANTITY 1000MTS 5PCTUNIT PRICE USD895MTTOTAL AMOUNT USD 89500000 5PCTPACKING IN BULKORIGIN TAIWANCFR DONGGUAN CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RESIN NPEL 128 QTY 38400 KGS AT USD 4880 PER KGCIF JEDDAH </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10000000 KGS EVA 7470M AT USD451KGHS CODE 39013000CIF MERSINCOUNTRY OF ORIGIN TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FOB ANY PORT IN TAIWANPP 1040F FORMOSA 50MT AT USD135000MT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLYESTER RESIN PET RESIN BOTTLE GRADE 3802 PRIMARY FORMAS PER SALES CONTRACT NO NB434 DATED 03112021TERMS CIF MUNDRA INDIAINCOTERMS 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITYNAN YA RELEASE FILMPET L130CQUANTITY480RLUNIT PRICEUSD25200RLPRICE TERMCIF SHEKOU OR YANTIANCHINATOTAL VALUEUSD12096000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1PP SYNTHETIC PAPER BJE OF5 200UM X 1101MM2240M 86920KGSUNIT PRICEUSD372KG2PP SYNTHETIC PAPER BCD 04E 02MM X1100MM X2490M 42167KGSUNIT PRICEUSD246KGSHIPPING MARK LKI12121TW      XINGANGCHINAGOODS ORIGINTAIWANPACKINGSTANDARD EXPORT PACKINGPRICE TERMCIF XINGANG CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QTY 14364 KGSNYLON 6 FILAMENT YARN 170D24F SEMI DULL RAW WHITE ON CHEESEAS PER PO NO 5V11013 DT 01112021TERMS OF SALE CIF NHAVA SHEVA SEAPORT INDIA INCOTERMS 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY75MTSUNIT PRICEUSD138000MTPRICE TERMCIF SHANGHAICHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1EVA 7350MQUANTITY 150 MTUNIT PRICE USD3435MT FOB TAIWANUNDER SALES CONTRACT H0FP08DETAILS ARE AS PER THE APPLICANTS SHIPPING INSTRUCTIONTRADE TERM FOB ANY PORT TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 TAIRILIN BRAND POLYETHYLENE TEREPHTHALATE FILM LH8Q5YTYPE75UM1020MM4000M30RLCNY2400KG128520KGCNY308448002 TAIRILIN BRAND POLYETHYLENE TEREPHTHALATE FILM CH885YTYPE75UM844MM4100M70RL75UM1040MM4100M20RLCNY2100KG34385KGCNY722085003 TAIRILIN BRAND POLYETHYLENE TEREPHTHALATE FILM HY21TYPE75UM1000MM1000M40RLCNY430M240000M2CNY172000004 TAIRILIN BRAND POLYETHYLENE TEREPHTHALATE FILM CH885YTYPE50UM1550MM4100M20RL50UM1040MM4100M20RLCNY2150KG14868KGCNY31966200AMOUNT CNY152219500 CIF NINGBOGOODS ORIGIN TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY 1600MT UNIT PRICE USD140000MTPRICE TERM CIF QINGYUAN PORT CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1560 MTS1 FCL OF METHACRYLIC ACIDRNMAKE FORMOSA PLASTICS CORPORATIONRNAT USD 310000 PER MT CIF NHAVA SHEVA PORT INDIARNAS PER PROFORMA INVOICE DTD 29102021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY LLDPEQUANTITY 200MTUNIT PRICE USD128000MTPRICE TERM FOB ANY PORT IN TAIWANORIGIN TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 BUTANEDIOL HSN SAC NO 29053910 AS PER PO NO 2414070211DATED 26102021 AND PO NO 2414070244 DATED 26102021TERMS CIFCHENNAI SEA PORTINDIA INCOTERMS2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CFR ANY JAPANESE PORTPP 3307UNC1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 1 X 40 FCL CONSISTING OF 24 MTS OF PC AC3610 AT USD4150MT USD9960000INCOTERMS 2010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 COMMODITY POLYPROPYLENE GRADE K10112 QUANTITY 4800 MTS 5PCT3 UNIT PRICE USD139500MT4 TOTAL AMOUNT USD6696000 5PCT5 TRADE TERMS CIF HAIPHONG PORT VIETNAM INCOTERMS 20206 PACKING IN EXPORT PACKING STANDARD7 ORIGIN TAIWAN8 OTHER TERMS AND CONDITIONS AS PER CONTRACT NO 202111160MTHNDATE 05112021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NO  DESCRIPTION OF GOODS    QTY UNIT1 LAMINATE FR4 046MM 22 SIZE 1092X1245MM TG150 NP155F       1400 SHEETS2 LAMINATE FR4 150MM HH SIZE 617X1245MM TG150 NP155FR      720 SHEETS3 LAMINATE FR4 150MM HH SIZE 681X1245MM TG150 NP155FR      720 SHEETS4 LAMINATE FR4 035MM 22 SIZE 940X1245MM HSINK NP175FBH      3300 SHEETS5 LAMINATE FR4 150MM HH SIZE 617X1245MM TG150 NP155FR      720 SHEETS6 LAMINATE FR4 150MM HH SIZE 681X1245MM TG150 NP155FR      720 SHEETS7 LAMINATE FR4 035MM 22 SIZE 940X1245MM HSINK NP175FBH      3600 SHEETSALL DETAILS AS PER PO 1341157903 AND 13411579041 PREPREG7628 RC43 SIZE 1250MMX150M NP140B   1 ROLLS2 PREPREG7628 RC49 SIZE 1250MMX150M TG150 NP155FB 5 ROLLS3 PREPREG2116 RC60 SIZE 1250MMX200M HSINKNP175FBH 26 ROLLS4 PREPREG7628 RC52 SIZE 1250MMX150M HSINKNP175FBH 94 ROLLS5 PREPREG7628 RC43 SIZE 1250MMX150M NP140B   6 ROLLS6 PREPREG2116HR RC60 SIZE 1250MMX200M NP155FB  3 ROLLS7 PREPREG7628 RC49 SIZE 1250MMX150M TG150 NP155FB 2 ROLLS8 PREPREG7628 RC49 SIZE 1250MMX150M TG170NP175FB 14 ROLLS9 PREPREG2116 RC60 SIZE 1250MMX200M HSINKNP175FBH 25 ROLLS10 PREPREG7628 RC52 SIZE 1250MMX150M HSINKNP175FBH 76 ROLLSALL DETAILS AS PER PO 1341158305 AND 1341158306CIF LAEMCHABANG DELIVERY TO ICD LATKRABANG THAILAND </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IMPACT MODIFIERM61UNIT PRICEUSD236000MTQUANTITY2200MTPACKINGNET 20KGS IN PAPER BAGPRICE TERMCIF SHANGHAICHINAPROCESSING AIDP201UNIT PRICEUSD266000MTQUANTITY2200MTPACKINGNET 25KGS IN PAPER BAGPRICE TERMCIF SHANGHAICHINA </t>
+  </si>
+  <si>
     <t>FORMOSA CHEMICALS AND FIBRE</t>
   </si>
   <si>
@@ -262,7 +346,7 @@
     <t>['PURIFIED ISOPHTHALIC ACID']</t>
   </si>
   <si>
-    <t>['PLASTIC RESIN', ' FM090 ']</t>
+    <t>[' FM090 ', 'PLASTIC RESIN']</t>
   </si>
   <si>
     <t>['NYLON 6 FILAMENT YARN']</t>
@@ -271,7 +355,7 @@
     <t>['PROPYLENE']</t>
   </si>
   <si>
-    <t>['ETHYLENEPROPYLENE COPOLYMER', 'POLYPROPYLENE RESIN']</t>
+    <t>['POLYPROPYLENE RESIN', 'ETHYLENEPROPYLENE COPOLYMER']</t>
   </si>
   <si>
     <t>['POLYETHYLENE', 'PHTHALATE']</t>
@@ -316,13 +400,13 @@
     <t>['ETHYLENEPROPYLENE COPOLYMER']</t>
   </si>
   <si>
-    <t>['RAW MATERIALS', ' PA ']</t>
+    <t>[' PA ', 'RAW MATERIALS']</t>
   </si>
   <si>
     <t>[' HDPE ']</t>
   </si>
   <si>
-    <t>['PA', 'ESO']</t>
+    <t>['ESO', 'PA']</t>
   </si>
   <si>
     <t>['HDPE', 'PACK']</t>
@@ -340,10 +424,10 @@
     <t>[' FM270 ', ' RESIN ']</t>
   </si>
   <si>
-    <t>['ABS RESIN', 'COVERING', 'AE8000', 'ANC100']</t>
-  </si>
-  <si>
-    <t>['SAN RESIN', 'COVERING']</t>
+    <t>['ANC100', 'AE8000', 'ABS RESIN', 'COVERING']</t>
+  </si>
+  <si>
+    <t>['COVERING', 'SAN RESIN']</t>
   </si>
   <si>
     <t>['COPPER FOIL']</t>
@@ -352,10 +436,7 @@
     <t>['SAN']</t>
   </si>
   <si>
-    <t>['CARBON FIBER YARN']</t>
-  </si>
-  <si>
-    <t>['SAN', 'INA', 'NPEL', 'RESIN']</t>
+    <t>['ACRYLIC ACID']</t>
   </si>
   <si>
     <t>['PHTHALIC ANHYDRIDE']</t>
@@ -364,10 +445,10 @@
     <t>['PVC CLEAR RIGID SHEET AND ANOTHER ITEMS']</t>
   </si>
   <si>
-    <t>['PACK', 'LCO']</t>
-  </si>
-  <si>
-    <t>['TOTM', 'PTA']</t>
+    <t>['LCO', 'PACK']</t>
+  </si>
+  <si>
+    <t>['PTA', 'TOTM']</t>
   </si>
   <si>
     <t>['PACK']</t>
@@ -376,7 +457,55 @@
     <t>['POLYESTER', 'TAIRILIN']</t>
   </si>
   <si>
-    <t>['TPN1', 'SAN']</t>
+    <t>['SAN', 'TPN1']</t>
+  </si>
+  <si>
+    <t>['PP', 'DOA']</t>
+  </si>
+  <si>
+    <t>['CIF PORT KLANG MALAYSIA2000']</t>
+  </si>
+  <si>
+    <t>['FM090']</t>
+  </si>
+  <si>
+    <t>['POLYESTER RESIN']</t>
+  </si>
+  <si>
+    <t>['POLYESTER FILM']</t>
+  </si>
+  <si>
+    <t>['MONOETHYLENE GLYCOL']</t>
+  </si>
+  <si>
+    <t>['NPEL 128', ' RESIN ']</t>
+  </si>
+  <si>
+    <t>['NAN YA RELEASE FILM']</t>
+  </si>
+  <si>
+    <t>['PP', 'EVA']</t>
+  </si>
+  <si>
+    <t>['METHACRYLIC ACID']</t>
+  </si>
+  <si>
+    <t>['TAIWANORIGIN']</t>
+  </si>
+  <si>
+    <t>['PORTINDIA INCOTERMS2020']</t>
+  </si>
+  <si>
+    <t>['PA']</t>
+  </si>
+  <si>
+    <t>['PLASTIC RESIN']</t>
+  </si>
+  <si>
+    <t>['PREPREG', 'LAMINATE']</t>
+  </si>
+  <si>
+    <t>['PACK', 'INA']</t>
   </si>
   <si>
     <t>rule</t>
@@ -484,10 +613,7 @@
     <t>SAN</t>
   </si>
   <si>
-    <t>CARBON FIBER YARN</t>
-  </si>
-  <si>
-    <t>RESIN</t>
+    <t>ACRYLIC ACID</t>
   </si>
   <si>
     <t>PHTHALIC ANHYDRIDE</t>
@@ -508,6 +634,42 @@
     <t>TPN1</t>
   </si>
   <si>
+    <t>DOA</t>
+  </si>
+  <si>
+    <t>CIF PORT KLANG MALAYSIA2000</t>
+  </si>
+  <si>
+    <t>FM090</t>
+  </si>
+  <si>
+    <t>POLYESTER RESIN</t>
+  </si>
+  <si>
+    <t>POLYESTER FILM</t>
+  </si>
+  <si>
+    <t>MONOETHYLENE GLYCOL</t>
+  </si>
+  <si>
+    <t>NPEL 128</t>
+  </si>
+  <si>
+    <t>NAN YA RELEASE FILM</t>
+  </si>
+  <si>
+    <t>METHACRYLIC ACID</t>
+  </si>
+  <si>
+    <t>TAIWANORIGIN</t>
+  </si>
+  <si>
+    <t>PORTINDIA INCOTERMS2020</t>
+  </si>
+  <si>
+    <t>LAMINATE</t>
+  </si>
+  <si>
     <t>4A</t>
   </si>
   <si>
@@ -553,13 +715,25 @@
     <t>42</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>2R</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2P</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2M</t>
   </si>
   <si>
     <t>['11']</t>
@@ -574,7 +748,7 @@
     <t>['48']</t>
   </si>
   <si>
-    <t>['11', '1P']</t>
+    <t>['1P', '11']</t>
   </si>
   <si>
     <t>['45']</t>
@@ -619,13 +793,13 @@
     <t>['4A']</t>
   </si>
   <si>
-    <t>['18', '11']</t>
+    <t>['11', '18']</t>
   </si>
   <si>
     <t>['18']</t>
   </si>
   <si>
-    <t>['11', '24']</t>
+    <t>['24', '11']</t>
   </si>
   <si>
     <t>['18', '12']</t>
@@ -634,10 +808,10 @@
     <t>['1P', '18']</t>
   </si>
   <si>
-    <t>['4A', '17', '4A', '61']</t>
-  </si>
-  <si>
-    <t>['4A', '17']</t>
+    <t>['61', '4A', '4A', '17']</t>
+  </si>
+  <si>
+    <t>['17', '4A']</t>
   </si>
   <si>
     <t>['2N']</t>
@@ -646,25 +820,49 @@
     <t>['12']</t>
   </si>
   <si>
-    <t>['2P', '27', '2R', '18']</t>
-  </si>
-  <si>
     <t>['27']</t>
   </si>
   <si>
     <t>['23']</t>
   </si>
   <si>
-    <t>['12', '61']</t>
-  </si>
-  <si>
-    <t>['27', '48']</t>
+    <t>['61', '12']</t>
+  </si>
+  <si>
+    <t>['48', '27']</t>
   </si>
   <si>
     <t>['42', '25']</t>
   </si>
   <si>
-    <t>['2R', '2P']</t>
+    <t>['2P', '2R']</t>
+  </si>
+  <si>
+    <t>['21', '27']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['2A']</t>
+  </si>
+  <si>
+    <t>['2R', '18']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['21', '2P']</t>
+  </si>
+  <si>
+    <t>['1A']</t>
+  </si>
+  <si>
+    <t>['2M', '23']</t>
+  </si>
+  <si>
+    <t>['12', '27']</t>
   </si>
   <si>
     <t>4</t>
@@ -685,18 +883,15 @@
     <t>62</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2P</t>
-  </si>
-  <si>
-    <t>2M</t>
-  </si>
-  <si>
     <t>2N</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
     <t>0927.xls</t>
   </si>
   <si>
@@ -764,6 +959,27 @@
   </si>
   <si>
     <t>1105.xls</t>
+  </si>
+  <si>
+    <t>1108.xls</t>
+  </si>
+  <si>
+    <t>1109.xls</t>
+  </si>
+  <si>
+    <t>1113.xls</t>
+  </si>
+  <si>
+    <t>1116.xls</t>
+  </si>
+  <si>
+    <t>1117.xls</t>
+  </si>
+  <si>
+    <t>1118.xls</t>
+  </si>
+  <si>
+    <t>1119.xls</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1167,31 +1383,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="I2" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="J2" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="K2" t="s">
-        <v>227</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1202,31 +1418,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="I3" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="K3" t="s">
-        <v>227</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1237,31 +1453,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="I4" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J4" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="K4" t="s">
-        <v>228</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1272,31 +1488,31 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="I5" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J5" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="K5" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1307,31 +1523,31 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="I6" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J6" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="K6" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1342,31 +1558,31 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="G7" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="I7" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="J7" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="K7" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1377,31 +1593,31 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="H8" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="I8" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="J8" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="K8" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1412,31 +1628,31 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="I9" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J9" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="K9" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1447,31 +1663,31 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="H10" t="s">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="I10" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J10" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="K10" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1482,31 +1698,31 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="H11" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="I11" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J11" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="K11" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1517,31 +1733,31 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="G12" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="H12" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="I12" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J12" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="K12" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1552,31 +1768,31 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="I13" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="J13" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="K13" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1587,31 +1803,31 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="H14" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="I14" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J14" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="K14" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1622,31 +1838,31 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="H15" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="I15" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="J15" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="K15" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1657,31 +1873,31 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="H16" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="I16" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="K16" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1692,31 +1908,31 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="H17" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="I17" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J17" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="K17" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1727,31 +1943,31 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="H18" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="I18" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="K18" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1762,31 +1978,31 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="H19" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="I19" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J19" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="K19" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1797,31 +2013,31 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="H20" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="I20" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="J20" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="K20" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1832,31 +2048,31 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="H21" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="I21" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J21" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="K21" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1867,31 +2083,31 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="H22" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="I22" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="K22" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1902,31 +2118,31 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F23" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="H23" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="K23" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1937,31 +2153,31 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F24" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="H24" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J24" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1972,31 +2188,31 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="H25" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J25" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2007,31 +2223,31 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="H26" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="I26" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="K26" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2042,31 +2258,31 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="H27" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J27" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2077,31 +2293,31 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="H28" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="I28" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2112,31 +2328,31 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="G29" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="H29" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="I29" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J29" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="K29" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2147,31 +2363,31 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="G30" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="H30" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="I30" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J30" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="K30" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2182,31 +2398,31 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="H31" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2217,31 +2433,31 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="G32" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="H32" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="I32" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="J32" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="K32" t="s">
-        <v>239</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2252,31 +2468,31 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="G33" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="H33" t="s">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="I33" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J33" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="K33" t="s">
-        <v>240</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2287,31 +2503,31 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F34" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="H34" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="I34" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J34" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="K34" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2322,31 +2538,31 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F35" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="G35" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="H35" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="I35" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J35" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="K35" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2357,31 +2573,31 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="H36" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="I36" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="J36" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s">
-        <v>242</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2392,31 +2608,31 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="G37" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="H37" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="I37" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J37" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="K37" t="s">
-        <v>242</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2427,31 +2643,31 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="G38" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="H38" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="I38" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="J38" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K38" t="s">
-        <v>242</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2462,31 +2678,31 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F39" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="G39" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="H39" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="I39" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J39" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="K39" t="s">
-        <v>242</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2497,31 +2713,31 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F40" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="G40" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="H40" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="I40" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J40" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K40" t="s">
-        <v>242</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2532,31 +2748,31 @@
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="G41" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="H41" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="I41" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J41" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="K41" t="s">
-        <v>243</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2567,31 +2783,31 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F42" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="G42" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="H42" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="I42" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J42" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="K42" t="s">
-        <v>243</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2602,31 +2818,31 @@
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="G43" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="H43" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="I43" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J43" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="K43" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2637,31 +2853,31 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="G44" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="H44" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="I44" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J44" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="K44" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2672,31 +2888,31 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="G45" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="H45" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="I45" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="J45" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="K45" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2707,31 +2923,31 @@
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F46" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="G46" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="H46" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="I46" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="J46" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="K46" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2742,31 +2958,31 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F47" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="G47" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="H47" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="I47" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J47" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="K47" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2777,521 +2993,1536 @@
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F48" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="G48" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="H48" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="I48" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="J48" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="K48" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="B49" t="s">
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F49" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="G49" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="H49" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="I49" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J49" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="K49" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B50" t="s">
         <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F50" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="G50" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="H50" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="I50" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="J50" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="K50" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F51" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="G51" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="H51" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="I51" t="s">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="J51" t="s">
         <v>219</v>
       </c>
       <c r="K51" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="B52" t="s">
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F52" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G52" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="H52" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="I52" t="s">
-        <v>220</v>
+        <v>285</v>
       </c>
       <c r="J52" t="s">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="K52" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F53" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="G53" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="H53" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="I53" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="J53" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="K53" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>924</v>
+        <v>894</v>
       </c>
       <c r="B54" t="s">
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F54" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="G54" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="H54" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="I54" t="s">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="J54" t="s">
         <v>219</v>
       </c>
       <c r="K54" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="B55" t="s">
         <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F55" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="G55" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="H55" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="I55" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J55" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="K55" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B56" t="s">
         <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E56" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F56" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="G56" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="H56" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="I56" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="J56" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="K56" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="B57" t="s">
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F57" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="G57" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="H57" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="I57" t="s">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="J57" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K57" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>978</v>
+        <v>962</v>
       </c>
       <c r="B58" t="s">
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F58" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="G58" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="H58" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="I58" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="J58" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="K58" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="B59" t="s">
         <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F59" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G59" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="H59" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="I59" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J59" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="K59" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>1005</v>
+        <v>985</v>
       </c>
       <c r="B60" t="s">
         <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F60" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="G60" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="H60" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="I60" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="J60" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="K60" t="s">
-        <v>249</v>
+        <v>314</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>1019</v>
+        <v>998</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F61" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="G61" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="H61" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="I61" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="J61" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="K61" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>1028</v>
+        <v>1004</v>
       </c>
       <c r="B62" t="s">
         <v>70</v>
       </c>
       <c r="C62" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" t="s">
+        <v>165</v>
+      </c>
+      <c r="F62" t="s">
+        <v>207</v>
+      </c>
+      <c r="G62" t="s">
+        <v>230</v>
+      </c>
+      <c r="H62" t="s">
+        <v>252</v>
+      </c>
+      <c r="I62" t="s">
+        <v>284</v>
+      </c>
+      <c r="J62" t="s">
+        <v>284</v>
+      </c>
+      <c r="K62" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" t="s">
+        <v>164</v>
+      </c>
+      <c r="F63" t="s">
+        <v>183</v>
+      </c>
+      <c r="G63" t="s">
+        <v>228</v>
+      </c>
+      <c r="H63" t="s">
+        <v>254</v>
+      </c>
+      <c r="I63" t="s">
+        <v>284</v>
+      </c>
+      <c r="J63" t="s">
+        <v>237</v>
+      </c>
+      <c r="K63" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1">
+        <v>1045</v>
+      </c>
+      <c r="B64" t="s">
         <v>72</v>
       </c>
-      <c r="D62" t="s">
-        <v>120</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="C64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" t="s">
+        <v>164</v>
+      </c>
+      <c r="F64" t="s">
+        <v>208</v>
+      </c>
+      <c r="G64" t="s">
+        <v>220</v>
+      </c>
+      <c r="H64" t="s">
+        <v>240</v>
+      </c>
+      <c r="I64" t="s">
+        <v>285</v>
+      </c>
+      <c r="J64" t="s">
+        <v>234</v>
+      </c>
+      <c r="K64" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1">
+        <v>1056</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F65" t="s">
+        <v>193</v>
+      </c>
+      <c r="G65" t="s">
+        <v>227</v>
+      </c>
+      <c r="H65" t="s">
+        <v>254</v>
+      </c>
+      <c r="I65" t="s">
+        <v>285</v>
+      </c>
+      <c r="J65" t="s">
+        <v>285</v>
+      </c>
+      <c r="K65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1">
+        <v>1064</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" t="s">
+        <v>164</v>
+      </c>
+      <c r="F66" t="s">
+        <v>175</v>
+      </c>
+      <c r="G66" t="s">
+        <v>234</v>
+      </c>
+      <c r="H66" t="s">
+        <v>242</v>
+      </c>
+      <c r="I66" t="s">
+        <v>285</v>
+      </c>
+      <c r="J66" t="s">
+        <v>285</v>
+      </c>
+      <c r="K66" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1">
+        <v>1069</v>
+      </c>
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" t="s">
+        <v>164</v>
+      </c>
+      <c r="F67" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67" t="s">
+        <v>229</v>
+      </c>
+      <c r="H67" t="s">
+        <v>246</v>
+      </c>
+      <c r="I67" t="s">
+        <v>284</v>
+      </c>
+      <c r="J67" t="s">
+        <v>284</v>
+      </c>
+      <c r="K67" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1">
+        <v>1070</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" t="s">
+        <v>164</v>
+      </c>
+      <c r="F68" t="s">
+        <v>209</v>
+      </c>
+      <c r="G68" t="s">
+        <v>236</v>
+      </c>
+      <c r="H68" t="s">
+        <v>275</v>
+      </c>
+      <c r="I68" t="s">
+        <v>284</v>
+      </c>
+      <c r="J68" t="s">
+        <v>233</v>
+      </c>
+      <c r="K68" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1">
+        <v>1083</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" t="s">
+        <v>164</v>
+      </c>
+      <c r="F69" t="s">
+        <v>210</v>
+      </c>
+      <c r="G69" t="s">
+        <v>226</v>
+      </c>
+      <c r="H69" t="s">
+        <v>257</v>
+      </c>
+      <c r="I69" t="s">
+        <v>284</v>
+      </c>
+      <c r="J69" t="s">
+        <v>236</v>
+      </c>
+      <c r="K69" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1">
+        <v>1087</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70" t="s">
+        <v>211</v>
+      </c>
+      <c r="G70" t="s">
+        <v>236</v>
+      </c>
+      <c r="H70" t="s">
+        <v>276</v>
+      </c>
+      <c r="I70" t="s">
+        <v>284</v>
+      </c>
+      <c r="J70" t="s">
+        <v>229</v>
+      </c>
+      <c r="K70" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
+        <v>1091</v>
+      </c>
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71" t="s">
+        <v>187</v>
+      </c>
+      <c r="G71" t="s">
+        <v>229</v>
+      </c>
+      <c r="H71" t="s">
+        <v>246</v>
+      </c>
+      <c r="I71" t="s">
+        <v>284</v>
+      </c>
+      <c r="J71" t="s">
+        <v>284</v>
+      </c>
+      <c r="K71" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
+        <v>1093</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" t="s">
+        <v>164</v>
+      </c>
+      <c r="F72" t="s">
+        <v>212</v>
+      </c>
+      <c r="G72" t="s">
+        <v>225</v>
+      </c>
+      <c r="H72" t="s">
+        <v>277</v>
+      </c>
+      <c r="I72" t="s">
+        <v>286</v>
+      </c>
+      <c r="J72" t="s">
+        <v>227</v>
+      </c>
+      <c r="K72" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>1095</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" t="s">
         <v>121</v>
       </c>
-      <c r="F62" t="s">
+      <c r="E73" t="s">
+        <v>164</v>
+      </c>
+      <c r="F73" t="s">
+        <v>182</v>
+      </c>
+      <c r="G73" t="s">
+        <v>227</v>
+      </c>
+      <c r="H73" t="s">
+        <v>254</v>
+      </c>
+      <c r="I73" t="s">
+        <v>285</v>
+      </c>
+      <c r="J73" t="s">
+        <v>285</v>
+      </c>
+      <c r="K73" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
+        <v>1103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" t="s">
+        <v>175</v>
+      </c>
+      <c r="G74" t="s">
+        <v>220</v>
+      </c>
+      <c r="H74" t="s">
+        <v>242</v>
+      </c>
+      <c r="I74" t="s">
+        <v>285</v>
+      </c>
+      <c r="J74" t="s">
+        <v>285</v>
+      </c>
+      <c r="K74" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1">
+        <v>1110</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" t="s">
+        <v>209</v>
+      </c>
+      <c r="G75" t="s">
+        <v>236</v>
+      </c>
+      <c r="H75" t="s">
+        <v>275</v>
+      </c>
+      <c r="I75" t="s">
+        <v>284</v>
+      </c>
+      <c r="J75" t="s">
+        <v>233</v>
+      </c>
+      <c r="K75" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1">
+        <v>1124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" t="s">
+        <v>164</v>
+      </c>
+      <c r="F76" t="s">
+        <v>213</v>
+      </c>
+      <c r="G76" t="s">
+        <v>223</v>
+      </c>
+      <c r="H76" t="s">
+        <v>278</v>
+      </c>
+      <c r="I76" t="s">
+        <v>284</v>
+      </c>
+      <c r="J76" t="s">
+        <v>290</v>
+      </c>
+      <c r="K76" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
+        <v>1125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" t="s">
+        <v>184</v>
+      </c>
+      <c r="G77" t="s">
+        <v>219</v>
+      </c>
+      <c r="H77" t="s">
+        <v>241</v>
+      </c>
+      <c r="I77" t="s">
+        <v>284</v>
+      </c>
+      <c r="J77" t="s">
+        <v>231</v>
+      </c>
+      <c r="K77" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
+        <v>1130</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" t="s">
+        <v>171</v>
+      </c>
+      <c r="G78" t="s">
+        <v>222</v>
+      </c>
+      <c r="H78" t="s">
+        <v>245</v>
+      </c>
+      <c r="I78" t="s">
+        <v>283</v>
+      </c>
+      <c r="J78" t="s">
+        <v>287</v>
+      </c>
+      <c r="K78" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1">
+        <v>1146</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" t="s">
+        <v>164</v>
+      </c>
+      <c r="F79" t="s">
+        <v>173</v>
+      </c>
+      <c r="G79" t="s">
+        <v>220</v>
+      </c>
+      <c r="H79" t="s">
+        <v>258</v>
+      </c>
+      <c r="I79" t="s">
+        <v>285</v>
+      </c>
+      <c r="J79" t="s">
+        <v>285</v>
+      </c>
+      <c r="K79" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1">
+        <v>1163</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" t="s">
+        <v>164</v>
+      </c>
+      <c r="F80" t="s">
+        <v>193</v>
+      </c>
+      <c r="G80" t="s">
+        <v>227</v>
+      </c>
+      <c r="H80" t="s">
+        <v>279</v>
+      </c>
+      <c r="I80" t="s">
+        <v>285</v>
+      </c>
+      <c r="J80" t="s">
+        <v>285</v>
+      </c>
+      <c r="K80" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1">
+        <v>1165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" t="s">
+        <v>164</v>
+      </c>
+      <c r="F81" t="s">
+        <v>174</v>
+      </c>
+      <c r="G81" t="s">
+        <v>223</v>
+      </c>
+      <c r="H81" t="s">
+        <v>255</v>
+      </c>
+      <c r="I81" t="s">
+        <v>284</v>
+      </c>
+      <c r="J81" t="s">
+        <v>236</v>
+      </c>
+      <c r="K81" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1">
+        <v>1177</v>
+      </c>
+      <c r="B82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" t="s">
+        <v>127</v>
+      </c>
+      <c r="E82" t="s">
+        <v>164</v>
+      </c>
+      <c r="F82" t="s">
+        <v>173</v>
+      </c>
+      <c r="G82" t="s">
+        <v>220</v>
+      </c>
+      <c r="H82" t="s">
+        <v>258</v>
+      </c>
+      <c r="I82" t="s">
+        <v>285</v>
+      </c>
+      <c r="J82" t="s">
+        <v>285</v>
+      </c>
+      <c r="K82" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1">
+        <v>1183</v>
+      </c>
+      <c r="B83" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" t="s">
+        <v>157</v>
+      </c>
+      <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
+        <v>214</v>
+      </c>
+      <c r="G83" t="s">
+        <v>226</v>
+      </c>
+      <c r="H83" t="s">
+        <v>280</v>
+      </c>
+      <c r="I83" t="s">
+        <v>285</v>
+      </c>
+      <c r="J83" t="s">
+        <v>291</v>
+      </c>
+      <c r="K83" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1">
+        <v>1184</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" t="s">
+        <v>157</v>
+      </c>
+      <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
+        <v>214</v>
+      </c>
+      <c r="G84" t="s">
+        <v>226</v>
+      </c>
+      <c r="H84" t="s">
+        <v>280</v>
+      </c>
+      <c r="I84" t="s">
+        <v>285</v>
+      </c>
+      <c r="J84" t="s">
+        <v>291</v>
+      </c>
+      <c r="K84" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1">
+        <v>1196</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" t="s">
+        <v>101</v>
+      </c>
+      <c r="D85" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" t="s">
+        <v>165</v>
+      </c>
+      <c r="F85" t="s">
+        <v>215</v>
+      </c>
+      <c r="G85" t="s">
+        <v>227</v>
+      </c>
+      <c r="H85" t="s">
+        <v>252</v>
+      </c>
+      <c r="I85" t="s">
+        <v>285</v>
+      </c>
+      <c r="J85" t="s">
+        <v>285</v>
+      </c>
+      <c r="K85" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1">
+        <v>1209</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" t="s">
+        <v>159</v>
+      </c>
+      <c r="E86" t="s">
+        <v>165</v>
+      </c>
+      <c r="F86" t="s">
+        <v>216</v>
+      </c>
+      <c r="G86" t="s">
+        <v>237</v>
+      </c>
+      <c r="H86" t="s">
+        <v>252</v>
+      </c>
+      <c r="I86" t="s">
+        <v>284</v>
+      </c>
+      <c r="J86" t="s">
+        <v>284</v>
+      </c>
+      <c r="K86" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1">
+        <v>1225</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" t="s">
+        <v>175</v>
+      </c>
+      <c r="G87" t="s">
+        <v>238</v>
+      </c>
+      <c r="H87" t="s">
+        <v>240</v>
+      </c>
+      <c r="I87" t="s">
+        <v>284</v>
+      </c>
+      <c r="J87" t="s">
+        <v>284</v>
+      </c>
+      <c r="K87" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1">
+        <v>1226</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" t="s">
+        <v>161</v>
+      </c>
+      <c r="E88" t="s">
+        <v>164</v>
+      </c>
+      <c r="F88" t="s">
+        <v>170</v>
+      </c>
+      <c r="G88" t="s">
+        <v>218</v>
+      </c>
+      <c r="H88" t="s">
+        <v>240</v>
+      </c>
+      <c r="I88" t="s">
+        <v>283</v>
+      </c>
+      <c r="J88" t="s">
+        <v>283</v>
+      </c>
+      <c r="K88" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1">
+        <v>1235</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" t="s">
+        <v>164</v>
+      </c>
+      <c r="F89" t="s">
+        <v>177</v>
+      </c>
+      <c r="G89" t="s">
+        <v>218</v>
+      </c>
+      <c r="H89" t="s">
+        <v>246</v>
+      </c>
+      <c r="I89" t="s">
+        <v>283</v>
+      </c>
+      <c r="J89" t="s">
+        <v>283</v>
+      </c>
+      <c r="K89" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1">
+        <v>1236</v>
+      </c>
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90" t="s">
+        <v>162</v>
+      </c>
+      <c r="E90" t="s">
+        <v>164</v>
+      </c>
+      <c r="F90" t="s">
+        <v>217</v>
+      </c>
+      <c r="G90" t="s">
+        <v>239</v>
+      </c>
+      <c r="H90" t="s">
+        <v>281</v>
+      </c>
+      <c r="I90" t="s">
+        <v>284</v>
+      </c>
+      <c r="J90" t="s">
+        <v>219</v>
+      </c>
+      <c r="K90" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1">
+        <v>1237</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" t="s">
+        <v>101</v>
+      </c>
+      <c r="D91" t="s">
         <v>163</v>
       </c>
-      <c r="G62" t="s">
-        <v>179</v>
-      </c>
-      <c r="H62" t="s">
-        <v>216</v>
-      </c>
-      <c r="I62" t="s">
-        <v>218</v>
-      </c>
-      <c r="J62" t="s">
-        <v>224</v>
-      </c>
-      <c r="K62" t="s">
-        <v>249</v>
+      <c r="E91" t="s">
+        <v>164</v>
+      </c>
+      <c r="F91" t="s">
+        <v>202</v>
+      </c>
+      <c r="G91" t="s">
+        <v>234</v>
+      </c>
+      <c r="H91" t="s">
+        <v>282</v>
+      </c>
+      <c r="I91" t="s">
+        <v>285</v>
+      </c>
+      <c r="J91" t="s">
+        <v>221</v>
+      </c>
+      <c r="K91" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/output/錯誤型態彙整.xlsx
+++ b/output/錯誤型態彙整.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="436">
   <si>
     <t>45A</t>
   </si>
@@ -46,43 +46,112 @@
     <t>from</t>
   </si>
   <si>
-    <t xml:space="preserve"> PS ABSDETAILS AS PER SHIPPING INSTRUCTIONCFR CALLAOAQABASAN SALVADORANTIGUOCUSCATLANACAJUTLAPANAMA CITYPUERTO CORTESVILANUEVAMANILA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PEPA SYNTHETIC PAPERFOB TAIWANAS PER SALES CONFIRMATION REFNO SC 13A705 DATED 15JUL21PSCC CODE 39269099 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PP AS PER APPLICANTS SHIPPING INSTRUCTIONSFOB OR AS PER APPLICANTS SHIPPING INSTRUCTIONS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PURIFIED ISOPHTHALIC ACIDQTY100 MT PRICEUSD 1120 MTAS PER SALES CONTRACT NOSAE11 DATED 24SEP2021INCOTERMS 2020 CIF NHAVA SHEVA INDIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 1 X 20 FCL CONSISTING OF 20 MTS OF POM FM090 AT USD2450MT USD4900000 HS CODE 39071000INCOTERMS 2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QTY 14364 KGSNYLON 6 FILAMENT YARN 170D24F SEMI DULL RAW WHITE ON CHEESEAS PER PO NO 5V09272 DT 27092021TERMS OF SALE CIF NHAVA SHEVA SEAPORT INDIA INCOTERMS 2020 </t>
+    <t xml:space="preserve"> NBUTANOLQUANTITY 300000000KG5UNIT PRICE USD 20KGTOTAL AMOUNT USD600000000FOB MAILIAO TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PVC SHEETCIF VIETNAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HSCODE 2905391000 COMMODITY DESCRIPTION  QUANTITY  UNIT PRICE  AMOUNT 14 BUTANEDIOL  1000MT  USD 3700 USD 3700000 TOTAL    1000MT    USD 3700000PRICE TERM CIF ULSAN PORT SOUTH KOREACOUNTRY OF ORIGIN TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMODITY POLYPROPYLENE RESIN GRADE   QUANTITY  UNIT PRICE       KGS  USDKG B1101   48000   130 TOTAL AMOUNT USD6240000 ORIGIN  TAIWAN MAKER  FORMOSA CHEMICALS AND FIBRE CORP TRADE TERM CIF ANY PORT IN HOCHIMINH CITY VIETNAM   INCOTERMS 2020 PACKING IN STANDARD EXPORT PACKING </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GLASS FABRICSCIF JAPANESE PORTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32000 KGS EPOXIDIZED SOYBEAN OILESBO 132 IN DRUMAT USD 170KGTOTAL AMOUNT  USD 5440000TYPE OF GOODS EPOXIDIZED SOYBEAN OILQUALITY OF GOODS IN GOOD QUALITYPO NO   POTUIM21IX212COUNTRY OF ORIGIN TAIWANSHIPPING TERMS  CIF TANJUNG PERAK SURABAYA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PVC SHEETQUANTITY ALLOWANCE 10 PERCENT MORE OR LESSCIF TOKYO JAPAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY   QUANTITY  UNIT PRICE  AMOUNT       CIF SHANGHAI CHINANYLON 6 FILAMENT YARN280D14F AA GRADE 70000KGS USD345KG USD2415000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BISPHENOLA 900MT USD325000MTPRICE TERMCIF GAOLAN CHINATOTAL AMOUNTUSD292500000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DESCRIPTION QUANTITY UNIT PRICE TOTAL AMOUNT   MT  USDMT  USDPOLYOXYMETHYLENEPOM FORMOCONFM130  4000  242000  9680000SUBTOTAL  4000    9680000CIF XIAMEN CHINA AS PER CONTRACT NOZ0ES18TOTAL AMOUNTUSD9680000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FOB ANY SEAPORT IN TAIWANEVA 7350M VIRGIN RESIN 25MT AT USD257000MT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TAIRILIN BRAND PET CHIPS B GRADEJNNC7 57000KGSFCA ANY TAIWANESE PORT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY LLDPE 3470QUANTITY 100MTSUNIT PRICE USD124000MTORIGIN TAIWANPRICE TERM FOB ANY PORT IN TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TERMS OF SALE CIF NHAVA SHEVA PORT INDIA14 BUTANEDIOL QTY 96000 KG USD 456000AS PER PURCHASE ORDER NO 6201837195 DATED 09092021AND PROFORMA INVOICE NO 219274 DATED 22082021HS CODE 29053910 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CIF INCOTERM 2020 NHAVA SHEVA SEAPORTINDIA40 MT OF PURIFIED ISOPHTHALIC ACID AT USD 112500 PER MTAS PER BENEFICIARYS PROFORMA INVOICE NOSAE16 DATED 27SEPT2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TERMS OF PRICE FOB OR FCA TAIWANCOUNTRY OF ORIGIN TAIWAN BUYER ATHLETA PROFORMA INVOICE NOATHB1145001145T00 ATHB114500PP1145T00PPFABRICS ORDER </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BASE OIL 500NPRICING 1600MT 5 ICIS PRICING GII 500NFOB NE ASIA MEAN USD67MTPACKING IN BULKTHE ICIS PRICING QUOTATIONS ARE THE AVERAGE OF 2 LATESTEFFECTIVE WEEKS PRECEDING THE BILL OF LADING DATE AS PUBLISHEDIN THE ICIS PRICING BASE OLLS ASIA PACIFIC REPORT THE WEEKDEFINITION IS FROM SUNDAY 0000 HRS TO THE COMING SATURDAY2359 HRS THE EFFECTIVE WEEK IN PRICING MEANS THERE IS ICISQUOTATION PUBLLSHED DURING THIS WEEK THE WEEK WHERE BILLOF LADING DATE LIES IN IS EXCLUDED ANY PUBLISHED CORRECTIONTO ANY OF THE RELEVANT QUOTATIONS SHALL BE TAKEN INTO ACCOUNTFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3 DECIMALPLACESFOB MAILIAO TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PURIFIED ISOPHTHALIC ACID   240 MTSCIF NHAVA SHEVA PORT INDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60000 KG OF PURIFIED ISOPHTHALIC ACIDCIF NHAVA SHEVA INDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EPOXIDIZED SOYABEAN OIL ESO132X QUANTITY 18MTALL OTHER DETAILS ARE AS PER BENEFICIARYS PROFORMA INVOICENONE91209 DATED 15 SEPTEMBER 2021CIF JEBEL ALI PORT UAE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PURIFIED ISOPHTHALIC ACIDCFR ANY PORT IN CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACETO NITRILE ASSAY MIN 99 PCT MIN MAKE FORMOSA PLASTICSCORPORATION QTY 255000 KGS AT THE RATE USD 390 KG AS PERINDENT NO PA13845 DT 27092021 AND PO NO 1570420023 DT24092021 CIF VIZAG INDIA BY SEA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACETO NITRILE ASSAY MIN 99 PCT MIN MAKE FORMOSA PLASTICSCORPORATION QTY 170000 KGS AT THE RATE USD 395 KG AS PERINDENT NO PA13844 DT 27092021 AND PO NO 1530422166 DT23092021 CIF VIZAG INDIA BY SEA </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITY AND  QUANTITY UNIT PRICE  TOTAL AMOUNTDESCRIPTION  COPOLYMER   20800  130000  27040000PROPYLENE GRADE K8009TOTAL    20800     27040000CIF HAIPHONG PORT VIETNAM AS INCOTERMS 2010PACKING IN EXPORTPACKING STANDARDORIGIN TAIWANALL OTHER DETAILS ARE AS PER CONTRACT NO 202109131MTHN DATEON 29092021 </t>
   </si>
   <si>
+    <t xml:space="preserve"> 140000MT 5 PCT OF BASE OIL 150N300MT 5 PCT OF BASE OIL 500NPRICE CLAUSE PRICE IN USD PER NET METRIC TON MT ON FOBMAILIAO TAIWAN BASIS ACCORDING TO THE FOLLOWING PRICINGFORMULABASE OIL 150N ICIS PRICING GII 150N FOB NE ASIA MEAN MINUSUSD3800MTBASE OIL 500N ICIS PRICING GII 500N FOB NE ASIA MEAN MINUSUSD3800MTTHE ICIS PRICING QUOTATIONS ARE THE AVERAGE OF 2 LATESTEFFECTIVES WEEKS PRECEDING THE BILL OF LADING DATE AS PUBLISHEDIN THE ICIS PRICING BASE OIL ASIA PACIFIC REPORTTHE WEEK DEFINITION IS FROM SUNDAY 0000 HRS TO THE COMINGSATURDAY 2359 HRS THE EFFECTIVE WEEK IN PRICING MEANS THERE ISICIS QUOTATION PUBLISHED DURING THIS WEEKTHE WEEK WHERE BILL OF LADING DATE LIES IN IS EXCLUDEDANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNTFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3 DECIMAL PLACESDELIVERY TERM FOB MAILIAO TAIWANPACKING IN BULK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54 MT OF EPOXIDIZED SOYBEAN OIL ESO132 AT USD1660MTRNTRADE TERMSCIF CAT LAI PORT HOCHIMINH CITY VIETNAM </t>
+  </si>
+  <si>
     <t xml:space="preserve"> POLYPROPYLENE RESIN YUNGSON 300516 MT AT USD1340MTTRADE TERM CIF HONG KONGFOR SHIPMENT TO HONG KONGETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3040C25 MT AT USD1345MTTRADE TERM CIF DONGGUAN CHINAFOR SHIPMENT TO DONGGUAN CHINA </t>
   </si>
   <si>
+    <t xml:space="preserve"> GLASS EPOXY COPPER CLAD LAMINATE PROF INV DATE 09082021 PO NO PO202200660INCO TERMS 2010CIFNHAVA SHEVA SEA PORT INDIA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> POLYETHYLENE TEREPHTHALATE FILM PRICE TERMS CIF SHEKOUCHINA </t>
   </si>
   <si>
-    <t xml:space="preserve"> PP1202F 1575 MT AT USD1250MTPP2020S 225 MT AT USD1260MTFOB ANY TAIWAN PORT </t>
+    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 1 X 20 FCL CONSISTING OF 16 MTS OF PPCO 3015 AT USD1300MT USD2080000 HS CODE 39021040INCOTERMS 2010TERMS CIF HAIPHONG VIETNAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TAIRILIN BRAND PET CHIPS B GRADEJNNC 1710000KGSFCA ANY TAIWANESE PORT </t>
   </si>
   <si>
     <t xml:space="preserve"> TAIRILIN BRAND POLYESTER FILM B GRADE 913UM  230000 KGS 1519UM  290000 KGS EDGE CUT  70000 KGSTAIRILIN BRAND POLYETHYLENE TEREPHTHALATE FILM P TYPE INSIDE CORONA TREATMENT 6 INCH CORE A GRADE BP216 25UM  4659 KGS PLATE FILM100PCT RECYCLED POSTCONSUMER POLYESTER P TYPE INSIDE CORONA TREATMENT 6 INCH CORE A GRADE YP216 122350UM 23963 KGSCIF SHANGHAI PORTCHINA </t>
   </si>
   <si>
+    <t xml:space="preserve"> 25 MTS POLYPROPYLENE RESIN GRADE NO K1023CIF LAEMCHABANG THAILAND </t>
+  </si>
+  <si>
     <t xml:space="preserve"> PRODUCT POLYPROPYLENEGRADE S1005QUANTITY 3000000 MTUNIT PRICE USD 12500000MTFOB ANY PORT IN TAIWANPACKAGING IN 25 KG BAGSORIGIN TAIWANPRODUCT POLYPROPYLENEGRADE K1035QUANTITY100MTUNIT PRICE USD 12700000MTFOB ANY PORT IN TAIWANPACKAGING IN 25 KG BAGSORIGIN TAIWAN </t>
   </si>
   <si>
-    <t xml:space="preserve"> CIF CAT LAI HO CHI MINH PORT VIETNAMPOLYOXYMETHYLENEFORMOCON FM090 QTY600MT UPUSD2530MTPACKINGIN 25KGS PAPER BAG </t>
+    <t xml:space="preserve"> 2 ETHYL HEXANOL 2EH QUANTITY 2000 MT 1 ISO TANK AT RATE USD 232000 PER MT INCOTERMS 2020CIF MUNDRA PORTINDIAAS PER APPLICANT PONO202122EIPLIMPWRR59B DATED 29092021 AND AS PER PROFORMA INVOICE NO NK1975 DATED 28092021 OF THE BENEFICIARY </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CIF NHAVA SHEVA INDIAPURIFIED ISOPHTHALIC ACID 200 MT </t>
   </si>
   <si>
     <t xml:space="preserve"> EPOXY RESIN NPEL127HBENEFICIARY MUST CERTIFY ON INVOICES THAT THE GOODS AND ALLOTHER DETAILS ARE EXACTLY AS PER APPLICANTS PURCHASE ORDERNOO12000954 AND BENEFICIARY PI NUMBER PF0922INCO TERMS 2020 CIF DAMMAM SAUDI ARABIA </t>
@@ -91,63 +160,147 @@
     <t xml:space="preserve"> EPOXY RESIN NPEL127HBENEFICIARY MUST CERTIFY ON INVOICES THAT THE GOODS AND ALLOTHER DETAILS ARE EXACTLY AS PER APPLICANTS PURCHASE ORDERNOO12000953 AND BENEFICIARY PI NUMBER PF0922INCO TERMS 2020 CIF DAMMAM SAUDI ARABIA </t>
   </si>
   <si>
+    <t xml:space="preserve"> PP 3307UNC1CFR ANY JAPANESE PORT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLYPROPYLENE RESIN GRADE NOK1000QUANTITY39395MT UNIT PRICEUSD118000MTPACKINGIN 25KG BAGSORIGINTAIWANPRICE TERM CIF NINGBOCHINA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> OTHERS </t>
   </si>
   <si>
+    <t xml:space="preserve"> GLASS FABRICSNCIF JAPANESE PORT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PURIFIED ISOPHTHALIC ACID  40 MTSCIF NHAVA SHEVA INDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TERMS OF SALE CIF NHAVA SHEVA PORT INDIAPURIFIED ISOPHTHALIC ACID TOTAL 2 FCL 4000 MTS 1FCL 2000 MTS IS EQUAL TO 40 BAG X 500 KGSAS PER SALES CONTRACT NO SAE14 DATED 25092021 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> GLASS FABRICSCIF JAPANESE MAIN PORT </t>
   </si>
   <si>
-    <t xml:space="preserve"> EVA 7350M 45 MT AT USD3105MTFOB ANY TAIWANESE PORT </t>
+    <t xml:space="preserve"> POLYPROPYLENE RESIN GRADE NOB1101QUANTITY 500MTSUNIT PRICE USD127000MTCONTRACT NO S9031TOTAL AMOUNT USD63500000PRICE TERM CIF QINGDAO PORT CHINAPACKING 25KGSBAG </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DESCRIPTION QUANTITY UNIT PRICE TOTAL AMOUNT   MT USDMT  USDPOLYOXYMETHYLENEPOM FORMOCONR6   4000  253000  10120000SUBTOTAL  4000     10120000CIF HUANGPUCHINA AS PER CONTRACT NOZ0EO03FM090  2000  251000  5020000FM270  2000  251000  5020000SUBTOTAL  4000     10040000CIF XIAMENCHINA AS PER CONTRACT NOZ0EO04TOTAL AMOUNTUSD20160000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1GROUP II 150N BASE OIL 150NQUANTITY 800MT 10PCTPRICINGUNIT PRICE EQUALS ICIS PRICING GII 150N FOB NE ASIAMEANMINUS 33 USDMT2GROUP II 500N BASE OIL 500NQUANTITY 700MT 10PCTPRICINGUNIT PRICE EQUALS ICIS PRICING GII 500N FOB NE ASIAMEANMINUS 38 USDMT3GROUP II 150N BASE OIL 150NQUANTITY 1000MT 10PCTPRICINGUNIT PRICE EQUALS ICIS PRICING GII 150N FOB NE ASIAMEANMINUS 33 USDMT4GROUP II 500N BASE OIL 500NQUANTITY 500MT 10PCTPRICINGUNIT PRICE EQUALS ICIS PRICING GII 500N FOB NE ASIAMEANMINUS 38 USDMTPACKING IN BULKORIGIN TAIWANTHE ICIS PRICING QUOTATIONS ARE THE AVERAGE OF 2 LATEST EFFECTIVEWEEKS PRECEDING THE BL DATE AS PUBLISHED IN THE ICIS PRICINGBASE OILASIA PACIFIC REPORTTHE WEEK DEFINITION IS FROM SUNDAY 0000 HRS TO THE COMINGSATURDAY 2359 HRS THE EFFECTIVE WEEK IN PRICING MEANS THERE ISICIS QUOTATION PUBLISHED DURING THIS WEEK THE WEEK WHERE BLDATE LIES IN IS EXCLUDED IN CASE THERE IS NO ICIS QUOTATIONPUBLISHED DURING THIS WEEK THEN THE LATEST EFFECTIVE ICISQUOTATION IS APPLICABLEANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNTPRICE TERMS FOB MAILIAO TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PURIFIED ISOPHTHALIC ACIDAS PER SPECIFICATIONS IN PURCHASE ORDER NO MCF240392707TERMS OF DELIVERY CIF NHAVA SHEVA PORT INDIA INCOTERMS 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 BUNTANEDIOL QTY 6000 MT AT THE RATE USD 460000MTSAS PER PO NO7540000391 DATED 06OCT2021INCOTERMS 2020 CIF NHAVA SHEVA INDIA </t>
   </si>
   <si>
     <t xml:space="preserve"> 1 COMMODITY POLYPROPYLENE GRADE K10112 QUANTITY 4800 MTS 3 UNIT PRICE USD133000MT4 TOTAL AMOUNT USD6384000 5 TRADE TERMS CIF HAIPHONG PORT VIETNAM 6 PACKING IN EXPORT PACKING STANDARD7 ORIGIN TAIWAN8 OTHER TERMS AND CONDITIONS AS PER CONTRACT NO 202110137MTHNDATE 06102021 </t>
   </si>
   <si>
+    <t xml:space="preserve"> PVC SHEETCIF HAIPHONGVIETNAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITYBASE OIL 150NQUANTITY500 MT 5PCTPRICE IN USD PER METRIC TONMT ON FOB MAILIAO BASISACCORDING PRICING FORMULA LISTED BELOWBASE OIL 150NICIS PRICING GII 150N FOB NE ASIA MEAN MINUSUSD1500MTTHE ICIS PRICING QUOTATIONS ARE THE AVERAGE OF 2 LATEST EFFECTIVEWEEKS PRECEDING THE BILL OF LADING DATE AS PUBLISHED IN THE ICISPRICING BASE OILS ASIA PACIFIC REPORT THE EFFECTIVE WEEK MEANSTHERE IS ICIS QUOTATION PUBLISHED DURING THIS WEEK THE QUOTATIONOF THE WEEK WHERE BILL OF LADING LIES IN IS EXCLUDED THE WEEK ISFROM SUNDAY 0000 HRS TO SATURDAY 2359 HRSANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNTFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3 DECIMAL PLACESCOMMODITYBASE OIL 500NQUANTITY1000 MT 5PCTPRICE IN USD PER METRIC TONMT ON FOB MAILIAO BASISACCORDING PRICING FORMULA LISTED BELOWBASE OIL 500NICIS PRICING GII 500N FOB NE ASIA MEAN MINUSUSD1500MTTHE ICIS PRICING QUOTATIONS ARE THE AVERAGE OF 2 LATEST EFFECTIVEWEEKS PRECEDING THE BILL OF LADING DATE AS PUBLISHED IN THE ICISPRICING BASE OILS ASIA PACIFIC REPORT THE EFFECTIVE WEEK MEANSTHERE IS ICIS QUOTATION PUBLISHED DURING THIS WEEK THE QUOTATIONOF THE WEEK WHERE BILL OF LADING LIES IN IS EXCLUDED THE WEEK ISFROM SUNDAY 0000 HRS TO SATURDAY 2359 HRSANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNTFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3 DECIMAL PLACES </t>
+  </si>
+  <si>
     <t xml:space="preserve"> TAIRILIN BRAND POLYETHYLENE TEREPHTHALATE FILM H TYPEINSIDE CORONA TREATMENT 6 INCH CORE A GRADE  BH216 125UM 208320 KGSCIF SHANGHAI PORT CHINA </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 1 X 20 FCL CONSISTING OF 20 MTS OF POM FM090 AT USD2510MT USD5020000INCOTERMS 2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMODITY BPA BISPHENOLAQUANTITY 510MTSCONTRACT NO 4500294162TOTAL VALUE USD183600000PRICE TERM CIF YANTAI PORT CHINA INCOTERMS 2010 EDITIONS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PP SYNTHETIC PAPER BJE OF5 200UM X 1101MM X 2240M QTY86920KGSUNIT PRICEUSD365KGSHIPPING MARK LKI11321TW     XINGANGCHINAGOODS ORIGINTAIWANPACKINGSTANDARD EXPORT PACKINGPRICE TERMCIF XINGANG CHINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COPPER CLAD LAMINATEAS PER PROFORMA INVOICE NOTDPI211004 DATE 04OCT2021 </t>
+    <t xml:space="preserve"> PRICE TERM C I F HAIPHONG VIETNAMQTY 20000 KGS OF POLYOXYMETHYLENE POM FORMOCON FM090UNIT PRICE USD266 PER KGHS CODE 39071000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EPOXIDIZED SOYABEAN OIL ESO132XQUANTITY 36MTALL OTHER DETAILS AS PER BENEFICIARYS PROFORMA INVOICE NONE91225 DATED 28092021SHIPMENT TERMS CIF JEBEL ALI SEAPORT DUBAI UAE INVOICE TOCERTIFY THE SAME </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CIF TIANJIN PORT CHINADESCRIPTIONPURIFIED ISOPHTHALIC ACIDPIAQUANTITY120MTUNIT PRICEUSD1050AMOUNTUSD126000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PURIFIED ISOPHTHALIC ACIDCFR  ANY PORT IN CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CIF LONG BEACH OR LOS ANGELES CALIFORNIA USA5118 SHEETS OF COPPER CLAD LAMINATE MATERIALSCERTIFYING THAT MERCHANDISE HAS BEEN MARKED IN ACCORDANCE WITHAPPLICABLE CUSTOMS REGULATIONS AND IS IN ACCORDANCE WITH PURCHASEORDER NUMBER FCT91328 AND INDICATING FOB VALUE FREIGHT CHARGESAND INSURANCE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRADE TERM CFR ANY PORT IN CHINAPURIFIED ISOPHTHALIC ACID </t>
   </si>
   <si>
     <t xml:space="preserve"> POLYESTER STAPLE FIBER QUANTITY 23000 KGS 4D X 51MM LOW MELT USD 156 PER KG CFR KARACHI AS PER BENEFICIARYS PROFORMA INVOICE REF NO NA178 DATED 13102021 </t>
   </si>
   <si>
+    <t xml:space="preserve"> BASE OIL 150NPRICING 1400MT 5 ICIS PRICING GII 150N FOB NE ASIAMEANUSD62MTPACKING IN BULKPRICING CLAUSE REFER TO FIELD 47AFOB MAILIAO TAIWAN </t>
+  </si>
+  <si>
     <t xml:space="preserve"> COMMODITY DIETHYLENE GLYCOL DEGQUANTITY 1000MTS 5PCTUNIT PRICE USD960MTTOTAL AMOUNT USD 96000000 5PCTPACKING IN BULKORIGIN TAIWANCFR DONGGUAN CHINA </t>
   </si>
   <si>
+    <t xml:space="preserve"> CIF NHAVA SHEVA INDIAPURIFIED ISOPHTHALIC ACID  14000MT </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY2500MTSUNIT PRICE USD133000MTTRADE TERM CIF WUHAN PORTCHINA </t>
   </si>
   <si>
     <t xml:space="preserve"> 1COMMODITY ETHYLENEPROPYLENE COPOLYMERSPP COPOLYMER YUNGSOX3015QUANTITY 128000MTUNIT PRICE USD131500MTAMOUNTUSD16832000TRADE TERM CIF RONGQICHINAPACKING 25KG BAG WITHOUT PALLET </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1 LLDPE 3490QUANTITY 75 MTUNIT PRICE USD1350MT FOB TAIWANUNDER SALES CONTRACT H0FQ182 EVA 7350MQUANTITY 150 MTUNIT PRICE USD3505MT FOB TAIWANUNDER SALES CONTRACT NO H0FQ19TRADE TERM FOB ANY PORT TAIWAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RAW MATERIALS FOR PAINT INDUSTRIES 5400 MTS PHTALIC ANHYDRIDE PA AT THE RATE OF USD 1140MT AS PER PROFORMA INVOICE NO NP1A49 DATED 20211015 ISSUED BY THE BENEFICIARY INCOTERMS 2020 CFR CHATTOGRAM SEAPORT BANGLADESH </t>
-  </si>
-  <si>
     <t xml:space="preserve"> POLYESTER STAPLE FIBER 4D X 51MM LOW MELT QUANTITY 23000 KGS USD 156 PER KG CFR KARACHI PORT PAKISTAN DETAILS AS PER BENEFICIARYS PROFORMA INVOICE NONA179 DATED 13102021 </t>
   </si>
   <si>
+    <t xml:space="preserve"> CIF ROTTERDAM NETHERLANDSPURIFIED ISOPHTHALIC ACID </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLYESTER FILM PO NAKNQPRICE TERMS CIF HAIPHONG VIETNAMWITH CONTAINER SHIPMENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DESCRIPTION QUANTITY UNIT PRICE TOTAL AMOUNT   MT USDMT  USDPOLYOXYMETHYLENEPOM FORMOCONFM130  1800  255000  4590000SUBTOTAL  1800    4590000CIF HUANGPUCHINA AS PER CONTRACT NO Z0EO20TOTAL AMOUNTUSD4590000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BASE OIL 380N 800MT 5 PCT AT 1203 USDMTBASE OIL 380N 300MT 5 PCT AT ICIS PRICING GII 500NFOB NE ASIA MEAN 78 USDMTPACKING IN BULKFOB MAILIAO TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FOB ANY SEAPORT IN TAIWANEVA 7350M VIRGIN RESIN 50MT AT USD350500MT </t>
+  </si>
+  <si>
     <t xml:space="preserve"> POLYETHYLENE TEREPHTHALATE FILM SC NAKNP DATED 2021930INCOTERMS 2010TERMS CIF HAIPHONG VIETNAM </t>
   </si>
   <si>
+    <t xml:space="preserve"> EPOXIDIZED SOYBEAN OILESO132XQUANTITY 1600 MTSAT THE RATE OF USD 203500 PER MTSPECIFICATIONS AND FURTHER DETAILS ARE AS PERINDENT NO 2170821 DATED OCT 15 2021ISSUED BY TRANS CONTINENTAL AGENCIESKARACHI PAKISTANCFR KARACHI SEAPORT PAKISTAN INCOTERMS 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 88 MTS CAUSTIC SODA FLAKEAS PER PROFORMA INVOICE NO AOK3482DATED OCTOBER 21 2021PSCC CODE 5226200INCOTERMS 2010CIF  MANILA SOUTH HARBOR PHILIPPINES </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1600 MT EPOXIDIZED SOYBEAN OIL ESO132X AT THE RATE OF USD 202000 PER MTCFR KARACHI PORT PAKISTAN AS PERINDENT NO 2169421 DATED 14102021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PLASTIC RESIN CIF SEMARANG INDONESIA1 5 X 20 FCL CONSISTING OF 80 MTS OF PPCO 3015 AT USD1365MT USD10920000 HS CODE 3902100090INCOTERMS 2010 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> COMMODITY HDPE 8010QUANTITY225MTSUNIT PRICEUSD121000MTPRICE TERM FOB ANY PORT OF TAIWANGOODS ORIGIN TAIWANPACKING 25KG PER BAG BY MANUFACTURERMANUFACTURERFORMOSA </t>
   </si>
   <si>
     <t xml:space="preserve"> CFR KARACHI SEAPORT PAKISTAN INCOTERMS 20201 QTY 6400 MTONS EPOXIDIZED SOYABEAN OIL ESO132X FOR PVCSYNTHETIC LEATHER INDUSTRY AT USD 202000 PER MTONCOMPLETE DETAILS AS PER INDENT NO 2170421 DATED15OCTOBER2021 OF MS TRANSCONTINENTAL AGENCIES KARACHIPAKISTAN </t>
   </si>
   <si>
+    <t xml:space="preserve"> POLYPROPYLENE RESIN GRADE NOT1002QUANTITY 25MTSUNIT PRICE USD137500MTCONTRACT NO SA020TOTAL AMOUNT USD3437500PRICE TERM CIF QINGDAO PORT CHINAPACKING 25KGSBAG </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PURIFIED ISOPHTHALIC ACIDPIAQUANTITY 80MTUNIT PRICE USD105000MTAMOUNT USD8400000CIF SHANGHAI CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DESCRIPTION PURIFIED ISOPHTHALIC ACIDPIAQUANTITY 120MT AMOUNT USD12600000 CIF SHANGHAI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMODITY POLYPROPYLENE RESIN GRADE   QUANTITY  UNIT PRICE       KGS  USDKG T2502   24000   136 TOTAL AMOUNT USD3264000 ORIGIN  TAIWAN MAKER  FORMOSA CHEMICALS AND FIBRE CORP TRADE TERM CIF ANY PORT IN HOCHIMINH CITY VIETNAM   INCOTERMS 2020 PACKING IN STANDARD EXPORT PACKING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LLDPE 3470 240 MTS USD 1240MT H0FR25 INCOTERMS 2010TERMS FOB ANY TAIWAN PORT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY 2ETHYL HEXANOL2EHQUANTITY 100MTS 5PCTUNIT PRICE USD2100MTTOTAL AMOUNT USD21000000 5PCTPACKING IN ISOTANKORIGIN TAIWANCIF BANGKOK THAILAND </t>
+  </si>
+  <si>
     <t xml:space="preserve"> PRODUCT POLYPROPYLENEGRADE K1011QUANTITY400MTUNIT PRICE USD 13000000MTFOBANY PORT IN TAIWANPACKAGING IN 25 KG BAGSORIGIN TAIWANPRODUCT POLYPROPYLENEGRADE K1035QUANTITY200MTUNIT PRICE USD 13000000MTFOBANY PORT IN TAIWANPACKAGING IN 25 KG BAGSORIGIN TAIWANPRODUCT POLYPROPYLENEGRADE K1035QUANTITY48MTUNIT PRICE USD 13300000MTFOBANY PORT IN TAIWANPACKAGING IN 25 KG BAGSORIGIN TAIWANPRODUCT POLYPROPYLENEGRADE K1035QUANTITY300MTUNIT PRICE USD 18100000MTCFRPUERTO QUETZAL GUATEMALAPACKAGING IN 25 KG BAGSORIGIN TAIWANPRODUCT POLYPROPYLENEGRADE K1108QUANTITY600MTUNIT PRICE USD 13000000MTFOBANY PORT IN TAIWANPACKAGING IN 25 KG BAGSORIGIN TAIWANPRODUCT POLYPROPYLENEGRADE S1003QUANTITY 1280000 MTUNIT PRICE USD 13000000MTFOBANY PORT IN TAIWANPACKAGING IN 25 KG BAGSORIGIN TAIWANPRODUCT POLYPROPYLENEGRADE S1005QUANTITY600MTUNIT PRICE USD 12700000MTFOBANY PORT IN TAIWANPACKAGING IN 25 KG BAGSORIGIN TAIWAN </t>
   </si>
   <si>
@@ -157,24 +310,21 @@
     <t xml:space="preserve"> GLASS EPOXY COPPER CLAD LAMINATESAS PER PROFORMA INVOICE NOIMP21220107 DT 26082021HS CODE 74091900TRADE TERMSCIP BANGALORE ICDINDIAAS PER INCOTERM 2010 </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITY PP SYNTHETIC PAPER BCD 04E 02MM X 1100MM X 2490MUNIT PRICE USD236KGQUANTITY 4358296 KGSPRICE TERM CIF XINGANG PORTCONTRACT NO LKI10921TWSHIPPING MARK   LKI10921TW     XINGANGCHINATOTAL AMOUNT USD10285579GOODS ORIGIN TAIWAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COPPER CLAD LAMINATEAS PER PROFORMA INVOICE NO TDPI211019 DATE 19OCT2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 LLDPE 3490 16 MTS USD 1280MT H0FQ042 LLDPE 3490 96 MTS USD 1330MT H0FQ163 EVA 7350M 25 MTS USD 3505MT H0FQ124 EVA 7350M 15 MTS USD 3500MT H0FQ225 EVA 7470M 5 MTS USD 3925MT H0FQ14INCOTERMS 2010TERMS FOB ANY TAIWAN PORT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FOB ANY PORT IN TAIWANEVA 7470M PRIME VIRGIN 15MT AT USD320500MT </t>
+    <t xml:space="preserve"> BISPHENOLAQUNATITY600MTUNIT PRICEUSD2500MTTOTAL AMOUNTUSD150000000CIF GAOLANCHINACONTRACT NO1RA5809 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TAIRILIN BRAND PET CHIPS B GRADEJNNC7 760000 KGSJNNCB 190000 KGSTAIRILIN BRAND PET CHIPS B GRADE950000 KGSTAIRILIN BRAND PET CHIPS B GRADE950000 KGSCIF SHANGHAI PORT CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1600 MT OF EPOXIDIZED SOYBEAN OILAT THE RATE OF USD 203000 PER MTCFR KARACHI SEA PORT PAKISTAN DETAIL AS PER BENEFICIARYS PROFORMA INVOICE NO 2167321 DATED 12102021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32MTS OF PVC SUSPENSION S65 AT USD1660MTTOTAL AMOUNT USD5312000PACKING 25KGS IN PP WOVEN BAG WITHOUT PALLETCIF CAT LAI PORT VIETNAM </t>
   </si>
   <si>
     <t xml:space="preserve"> CIF TOKYOJAPANPOLYETHYLENE TEREPHTHALATE PET RESINDETAILS AS FOLLOWS  CURRENCY USD UNIT MTCOMMODITY   UNIT PRICE QUANTITY  AMOUNTPET RESIN TYPE 3802  1075  315 33862500      TOTAL QUANTITY TOTAL AMOUNT        315 33862500 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 20 MT POLYACETAL RESIN FORMOCON FM270 AT THE RATE OFUSD3095 PER MT CFR KEAMARI PORT KARACHIAS PER INDENT NO21105621 DATED 25102021OF MS TRANSCONTINENTAL AGENCIES KARACHI PAKISTAN </t>
-  </si>
-  <si>
     <t xml:space="preserve"> COVERING 100 PERCENT OF INVOICE VALUE OF GOODS ANDOR SERVICESDESCRIBED ASABS RESINS REF PO 45680358GRADE NO AE8000 21 MTGRADE NO ANC100 BLACK 2 MTGRADE NO AC2501AF 1 MTCIF VANCOUVER CANADA INCOTERMS 2020 </t>
   </si>
   <si>
@@ -184,7 +334,10 @@
     <t xml:space="preserve"> COPPER FOILCIF JAPANESE MAIN PORT </t>
   </si>
   <si>
-    <t xml:space="preserve"> TERMS OF PRICE FOB KAOHSIUNGCOUNTRY OF ORIGIN TAIWANSANGRADE NONF2200QUANTITY 16 MTUNIT PRICE USD179000MT </t>
+    <t xml:space="preserve"> DESCRIPTION PURIFIED ISOPHTHALIC ACIDPIAQUANTITY80MT UNIT PRICE USD105000MTCIF HONGWAN PORT OF ZHUHAI CHINA      TOTAL AMOUNTUSD8400000PRICE TERMCIF HONGWAN PORT ZHUHAI CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32000 KGS OF EPOXYDIZED SOYBEAN OIL ESBO 132 IN DRUMAT USD 181KGIN GOOD QUALITYCONTRACTORDER NO POTUIM21X239CIF SURABAYAORIGIN COUNTRY TAIWAN </t>
   </si>
   <si>
     <t xml:space="preserve"> TERMS OF SALE CIF NHAVA SHEVA PORT INDIAGLACIAL ACRYLIC ACID TOTAL 1 FCL 1600 MTS 1 FCL 1600MTS IS EQUAL TO 80 DRUMS X 200 KGSAS PER SALES CONTRACT NO 12D1B001 DATED 28092021 </t>
@@ -193,34 +346,64 @@
     <t xml:space="preserve"> TERMS OF SALE CIF NHAVA SHEVA PORT INDIA288 MT OF PHTHALIC ANHYDRIDE AT USD 1230 PER MTAS PER PROFORMA INVOICE NO NP1A63 DATED 26OCT2021 </t>
   </si>
   <si>
+    <t xml:space="preserve"> DESCRIPTION   QUANTITY UNIT PRICE  AMOUNT     MT USDMT  USDPOLYOXYMETHYLENE POM FORMOCONFM090LMD    12000  2710  32520000TTL    12000    32520000CIF XIAMENCHINA AS PER CONTRACT NOY0EA54TOTAL AMOUNT USD32520000PACKING25KGSBAG </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY PURIFIED ISOPHTHALIC ACIDQTY 200000KGUNIT PRICE 105KGTOTAL AMOUNT USD21000000PRICE TERM CIF NINGBO CHINA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> COUNTRY OF ORIGIN TAIWANPRICE TERMS CIF SOUTH KOREA ANY PORTNANYA PRODUCTSPVC CLEAR RIGID SHEET AND ANOTHER ITEMSINVOICE NO PI20211026 </t>
   </si>
   <si>
-    <t xml:space="preserve"> PP 1040F  QTY 2475 MT AT USD1230MTFOB ANY TAIWANESE PORT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PP SYNTHETIC PAPERBCP 015MM X 935MM X 1500M X 40RQUANTITY 10 PCT MORE OR LESS IS ACCEPTABLEGOODS OF SAMPLE FILMS ARE ACCEPTABLEORIGINTAIWANCIF YOKOHAMA JAPAN </t>
+    <t xml:space="preserve"> COPPER CLAD LAMINATE AND PREPREGCIF PASIR GUDANGMALAYSIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRODUCT PROCESS OIL 70NPRICING 200MT 5PCTAT ICIS PRICING GII 150N FOB NE ASIA MEAN 0 USDMTPACKING IN FLEXIBAGTHE PRICING WEEK OF THE LOADING MONTH M IS THE WEEK OFPREVIOUS ONE MONTH M1 THAT 20TH DATE LIES INFOR INSTANCE THE PRICING WEEK FOR 2020FEBRUARYSLIFTING IS THE WEEK OF JANUARY 20TH 2020IN CASE THERE IS NO ICIS QUOTATION PUBLISHED IN THE PRICINGWEEK THEN THE LATEST EFFECTIVE ICIS QUOTATION PRECEDINGTHE PRICING WEEK IS AUTOMATICALLY APPLIEDTHE WEEK DEFINITION IS FROM SUNDAY 0000 HRS TO THE COMINGSATURDAY 2359 HRSANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONSSHALL BE TAKEN INTO ACCOUNTFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3 DECIMAL PLACESTRADE TERMFCA ANY PORT IN TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2ETHYL HEXANOLRNOTHERS AS PER OUR PO NO 8600011532RNCIF PENANG PORT MALAYSIA INCOTERMS 2020 </t>
   </si>
   <si>
     <t xml:space="preserve"> COUNTRY OF ORIGIN TAIWANPRICE TERMS CIF SOUTH KOREA ANY PORTNANYA PRODUCTSPVC CLEAR RIGID SHEET AND ANOTHER ITEMSINVOICE NO PI20211029 </t>
   </si>
   <si>
+    <t xml:space="preserve"> 48000 KGS OF EPOXYDIZED SOYBEAN OIL ESBO 132 IN DRUMAT USD 184KGIN GOOD QUALITYCONTRACTORDER NO POTUIM21X249CIF JAKARTAORIGIN COUNTRY TAIWAN </t>
+  </si>
+  <si>
     <t xml:space="preserve"> QUANTITY 1000000MT 5PCT AT USD199000MTISO NONYL ALCOHOLPACKING IN BULKSPECIFIC GRAVITY MAX 0839FOB MAILIAO TAIWAN </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITY TOTMQUANTITY 42MT 5PCT2FCLUNIT PRICE USD2480MTTOTAL AMOUNT USD 10416000 5PCT CIF HAI PHONG PORTVIETNAMORIGIN TAIWANTOLERANCE 5PCT OF TOTAL QUANTITY AND AMOUNT ARE ACCEPTABLE </t>
   </si>
   <si>
+    <t xml:space="preserve"> COMMODITY NBUTANOLQUANTITY 300000 MTPACKING IN BULKFOB MAILIAOTAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMODITY POLYPROPYLENE RESIN GRADE   QUANTITY  UNIT PRICE       KGS  USDKG B1101   48000   1435 TOTAL AMOUNT USD68880 ORIGIN  TAIWAN MAKER  FORMOSA CHEMICALS AND FIBRE CORP TRADE TERM CIF ANY PORT IN HOCHIMINH CITY VIETNAM   INCOTERMS 2020 PACKING IN STANDARD EXPORT PACKING </t>
+  </si>
+  <si>
     <t xml:space="preserve"> SHIPMENT TERMSCIFJEBEL ALI UAEPRODUCT 1 PVC GRADE S65DQUANTITY 72 MTSUNIT PRICE USD 1940 PER MT PER VINMAR PO 471009901PACKING 25 KGS BAG WITH PALLET </t>
   </si>
   <si>
+    <t xml:space="preserve"> BISPHENOLAQTY 15000 KGS AT USD 365 PER KGSCIF JEBEL ALI UAE </t>
+  </si>
+  <si>
     <t xml:space="preserve"> CONTRACT 013522RN1X40FCL HQRN22000 KG TAIRILIN 7DX64MM HOLLOW CONJUGATE POLYESTER FIBERRNNONSILICONE SLICK TYPE 128 USDKGRN1X40FCL HQRN4000 KG TAIRILIN 2DX32MM HOLLOW CONJUGATE POLYESTER FIBERRNSILICONE TYPE 150 USDKGRN14000 KG TAIRILIN 7DX64MM HOLLOW CONJUGATE POLYESTER FIBERRNSILICONE TYPE 128 USDKGRN4000 KG TAIRILIN 7DX64MM HOLLOW CONJUGATE POLYESTER FIBERRNNONSILICONE SLICK TYPE 128 USDKGRNF O B ANY PORT IN TAIWAN </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 1 X 20 FCL CONSISTING OF 20 MTS OF POM FM090 AT USD2760MT USD5520000INCOTERMS 2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COUNTRY OF ORIGIN TAIWANPRICE TERMS CIF BUSAN DETAILS AS PER OFFER NO HC2111118YJ2021112DESCRIPTION TPN1QUANTITIES 9000KGUNIT PRICE USD 415KGTOATL VALUE USD 37350 </t>
+    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 1 X 20 FCL CONSISTING OF 16 MTS OF PP 5090T AT USD1550MT USD2480000 HS CODE 39021040INCOTERMS 2010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMODITY EPOXIDIZED SOYBEAN OIL ESO132X QUANTITY 32 MTS 5PCT UNIT PRICE USD184000MT AMOUNT USD5888000 5PCT ORIGIN TAIWAN PACKING 200KGS NET IN RECYCLED IRON DRUM WITHOUT PALLET MARKINGEPOXIDIZED SOYBEAN OIL ESO132XNW 200KGSMADE IN TAIWAN TRADE TERM CIF CAT LAI PORT HOCHIMINH CITY VIETNAMINCOTERMS 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUANTITY 10 PERCENTAGE MORE OR LESS ALLOWEDSYNTHETIC PAPERNP347 142800KGSCIF NAGOYA JAPAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BASE OIL 150N 2125 MT 5 AT SELLERS OPTIONBASE OIL 500N 2475MT 5 AT SELLERS OPTIONTOTAL AMOUNT USD41465625 10DELIVERY TERM FOB MAILIAO TAIWANPACKING IN BULKPRICE CLAUSE PRICE IN USD PER NET METRIC TON MT ON FOBMAILIAO BASIS ACCORDING TO THE FOLLOWING PRICING FORMULABASE OIL 150N ICIS PRICING GII 150N FOB NE ASIA MEAN PLUS 10USD MTBASE OIL 500N ICIS PRICING GII 500N FOB NE ASIA MEAN MINUS 20USD MTTHE ICIS PRICING QUOTATIONS ARE THE AVERAGE OF 2 LATESTEFFECTIVES WEEKSPRECEDING THE BILL OF LADING DATE AS PUBLISHED IN THE ICISPRICING BASE OILASIA PACIFIC REPORTTHE WEEK DEFINITION IS FROM SUNDAY 0000 HRS TO THE COMINGSATURDAY 2359 HRS THE EFFECTIVE WEEK IN PRICING MEANS THERE ISICIS QUOTATION PUBLISHED DURING THIS WEEKTHE WEEK WHERE BILL OF LADING DATE LIES IN IS EXCLUDEDANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNTFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3 DECIMAL PLACES </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1PRODUCT BASE OIL 150NQUANTITY 1485MT MORE OR LESS 5 IS ALLOWEDUNIT PRICE ICIS PRICING GII 150N FOB NE ASIA MEAN 500 USDMT2 PRODUCT BASE OIL 500NQUANTITY 1815MT MORE OR LESS 5 ISALLOWEDUNIT PRICE ICIS PRICING GII 500N FOB NE ASIA MEAN 2500 USDMTTERMS OF PRICE FOB MAILIAO TAIWANTHE ICIS PRICING QUOTATIONS ARE THE AVERAGE OF 2 LATESTEFFECTIVE WEEKS PRECEDING THE BILL OF LADING DATE AS PUBLISHEDIN THE ICIS PRICING BASE OIL ASIA PACIFIC REPORT THEQUOTATION OF THE WEEK WHERE BL DATE LIES IN SHALL BE EXCLUDEDTHE EFFECTIVE WEEK MEANS THERE IS ICIS QUOTATION PUBLISHEDDURING THIS WEEK THE WEEK IS FROM SUNDAY 0000 HRS TO SATURDAY2359 HRSANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNT FINAL UNIT PRICE SHALL BECALCULATEDROUNDED TO 3 DECIMAL PLACES </t>
   </si>
   <si>
     <t xml:space="preserve"> 20 MT DOAAT USD 230000MTTOTAL AMOUNT  USD 4600000TYPE OF GOODS LIQUIDHS NO   29171210CONTRACT NO  NL1A31COUNTRY OF ORIGIN TAIWANSHIPPING TERMS  CIF TANJUNG PRIOK JAKARTA </t>
@@ -229,15 +412,21 @@
     <t xml:space="preserve"> CIF PORT KLANG MALAYSIA2000 MT 2 ETHYL HEXANOL AT USD 2080MT </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITY BPA BISPHENOLAQUANTITY 510MTSCONTRACT NO 4500299594TOTAL VALUE USD142800000PRICE TERM CIF YANTAI PORT CHINA INCOTERMS 2010 EDITIONS </t>
+    <t xml:space="preserve"> DESCRIPTION QUANTITY UNIT PRICE TOTAL AMOUNT   MT USDMT  USDPOLYOXYMETHYLENEPOM FORMOCONFM270  2000  270000  5400000SUBTOTAL  2000    5400000CIF SHANGHAICHINA AS PER CONTRACT NO Z0EO25FM270  4000  270000  10800000SUBTOTAL  4000    10800000CIF XIAMENCHINA AS PER CONTRACT NO Z0EO26FM270  4000  270000  10800000SUBTOTAL  4000    10800000CIF HUANGPUCHINA AS PER CONTRACT NO Z0EO27FM090LMD  2000  271000  5420000SUBTOTAL  2000     5420000CIF HUANGPUCHINA AS PER CONTRACT NO Y0EA53TOTAL AMOUNTUSD32420000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PURIFIED ISOPHTHALIC ACID 180 MTSCIF NHAVA SHEVA PORT INDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUANTITY 1500 MTONSBISPHENOLAAT THE RATE OF USD 3800 PER MTONPACKING 750 KG NET PER BAGOTHER DETAILS ARE STRICTLY AS PER BENEFICIARYSSALES CONFIRMATION NO 1RB5811 DATED OCT 22 2021CFR KARACHI PORT PAKISTAN INCOTERMS 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUANTITY 96MT OF 1 4BUTANEDIOL AT USD 5000 PER MT AND OTHERDETAILS ARE AS PER PURCHASE ORDER NO 2000005621 DATED 22102021AND PROFORMA INVOICE NO 21B339 DATED 25102021TERMS OF DELIVERY CIF NHAVA SHEVA SEAPORT INDIA INCOTERMS 2020 </t>
   </si>
   <si>
     <t xml:space="preserve"> 18000 KGS OF POLYACETAL POM FM090AS PER PO NO194418 DATED 13102021CIF PORT KLANG MALAYSIA </t>
   </si>
   <si>
-    <t xml:space="preserve"> FOB ANY PORT IN TAIWANEVA 7350M PRIME GRADE 50MT AT USD350500MT </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 22 MTS CAUSTIC SODA FLAKEAS PER PROFORMA INVOICE NO AOK3963CIF MANILA PHILIPPINES NORTH PORT </t>
   </si>
   <si>
@@ -247,6 +436,12 @@
     <t xml:space="preserve"> POLYESTER RESIN PET RESIN BOTTLE GRADE 3802 PRIMARY FORMAS PER SALES CONTRACT NO NB435 DATED 03112021TERMS CIF NHAVA SHEVA PORTINDIAINCOTERMS 2020 </t>
   </si>
   <si>
+    <t xml:space="preserve"> DESCRIPTION QUANTITYMT UNIT PRICEUSDMT  AMOUNTUSDPOLYOXYMETHYLENE POM FORMOCONR6   2000  2720   5440000SUBTTL  2000      5440000CIF HUANGPUCHINA AS PER CONTRACT NOZ0EN15POLYOXYMETHYLENE POM FORMOCONFM270  3600  2710   9756000SUBTTL  3600      9756000CIF XIAMENCHINA AS PER CONTRACT NOZ0EN16TOTAL AMOUNT USD15196000PACKING 25KGSBAG </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLYESTER FILM PO NBKNBPRICE TERMS CIF HAIPHONG VIETNAMWITH CONTAINER SHIPMENT </t>
+  </si>
+  <si>
     <t xml:space="preserve"> POLYESTER FILM PO NAKNMPRICE TERMS CIF SHEKOUCHINAWITH CONTAINER SHIPMENT </t>
   </si>
   <si>
@@ -259,28 +454,31 @@
     <t xml:space="preserve"> RESIN NPEL 128 QTY 38400 KGS AT USD 4880 PER KGCIF JEDDAH </t>
   </si>
   <si>
-    <t xml:space="preserve"> 10000000 KGS EVA 7470M AT USD451KGHS CODE 39013000CIF MERSINCOUNTRY OF ORIGIN TAIWAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FOB ANY PORT IN TAIWANPP 1040F FORMOSA 50MT AT USD135000MT </t>
+    <t xml:space="preserve"> PP 3317P NC1 12000 KGS AT USD415 PER KGAS PER PO NO21100181CIF ANY CHINA PORT </t>
   </si>
   <si>
     <t xml:space="preserve"> POLYESTER RESIN PET RESIN BOTTLE GRADE 3802 PRIMARY FORMAS PER SALES CONTRACT NO NB434 DATED 03112021TERMS CIF MUNDRA INDIAINCOTERMS 2020 </t>
   </si>
   <si>
+    <t xml:space="preserve"> CIF JAPAN MAIN PORT OR AIRPORTGLASS FABRICS </t>
+  </si>
+  <si>
     <t xml:space="preserve"> COMMODITYNAN YA RELEASE FILMPET L130CQUANTITY480RLUNIT PRICEUSD25200RLPRICE TERMCIF SHEKOU OR YANTIANCHINATOTAL VALUEUSD12096000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1PP SYNTHETIC PAPER BJE OF5 200UM X 1101MM2240M 86920KGSUNIT PRICEUSD372KG2PP SYNTHETIC PAPER BCD 04E 02MM X1100MM X2490M 42167KGSUNIT PRICEUSD246KGSHIPPING MARK LKI12121TW      XINGANGCHINAGOODS ORIGINTAIWANPACKINGSTANDARD EXPORT PACKINGPRICE TERMCIF XINGANG CHINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QTY 14364 KGSNYLON 6 FILAMENT YARN 170D24F SEMI DULL RAW WHITE ON CHEESEAS PER PO NO 5V11013 DT 01112021TERMS OF SALE CIF NHAVA SHEVA SEAPORT INDIA INCOTERMS 2020 </t>
+    <t xml:space="preserve"> COMMODITYBASE OIL 500NQUANTITYA55000MT 5PCTQUANTITYB110000MT 5PCTORIGINTAIWANPACKINGIN BULKPRICE TERMFOB MAILIAOTAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TERMS OF PRICE CIF HAIPHONG VIETNAMCOUNTRY OF ORIGIN TAIWAN50MT OF LLDPE 3470 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TERMS OF PRICE CIF HAIPHONG VIETNAMCOUNTRY OF ORIGIN TAIWAN100MT OF LLDPE 3470 </t>
   </si>
   <si>
     <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY75MTSUNIT PRICEUSD138000MTPRICE TERMCIF SHANGHAICHINA </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1EVA 7350MQUANTITY 150 MTUNIT PRICE USD3435MT FOB TAIWANUNDER SALES CONTRACT H0FP08DETAILS ARE AS PER THE APPLICANTS SHIPPING INSTRUCTIONTRADE TERM FOB ANY PORT TAIWAN </t>
+    <t xml:space="preserve"> TERMS OF SALE CIF NHAVA SHEVA PORT INDIA14 BUTANEDIOL QTY 48000 KG USD 237600AS PER PURCHASE ORDER NO 6201837623 DATED 10112021AND PROFORMA INVOICE NO 21B351 DATED 10112021HS CODE 29053910 </t>
   </si>
   <si>
     <t xml:space="preserve"> 1 TAIRILIN BRAND POLYETHYLENE TEREPHTHALATE FILM LH8Q5YTYPE75UM1020MM4000M30RLCNY2400KG128520KGCNY308448002 TAIRILIN BRAND POLYETHYLENE TEREPHTHALATE FILM CH885YTYPE75UM844MM4100M70RL75UM1040MM4100M20RLCNY2100KG34385KGCNY722085003 TAIRILIN BRAND POLYETHYLENE TEREPHTHALATE FILM HY21TYPE75UM1000MM1000M40RLCNY430M240000M2CNY172000004 TAIRILIN BRAND POLYETHYLENE TEREPHTHALATE FILM CH885YTYPE50UM1550MM4100M20RL50UM1040MM4100M20RLCNY2150KG14868KGCNY31966200AMOUNT CNY152219500 CIF NINGBOGOODS ORIGIN TAIWAN </t>
@@ -289,21 +487,30 @@
     <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY 1600MT UNIT PRICE USD140000MTPRICE TERM CIF QINGYUAN PORT CHINA </t>
   </si>
   <si>
+    <t xml:space="preserve"> PARCEL A COMMODITYBASE OIL 150NQUANTITY500MTS 5 PCTPRICE FORMULA ICIS PRICING GII 150N FOB NE ASIA MEAN PLUSUSD1000MTPARCEL B COMMODITYBASE OIL 500NQUANTITY500MTS 5 PCTPRICE FORMULA ICIS PRICING GII 500N FOB NE ASIA MEAN MINUSUSD2000MTPACKING  IN BULKPRICE TERM FOB MAILIAO TAIWANTHE ICIS PRICING QUOTATIONS ARE THE AVERAGE OF 2 LATEST EFFECTIVEWEEKS PRECEDING THE BL DATE AS PUBLISHED IN THE ICIS PRICINGBASE OILS ASIA PACIFIC REPORT THE EFFECTIVE WEEK MEANS THEREIS ICIS QUOTATION PUBLISHED DURING THIS WEEK THE QUOTATION OFTHE WEEK WHERE BL DATE LIES IN IS EXCLUDED THE WEEK IS FROMSUNDAY 0000HRS TO SATURDAY 2359HRSANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNT FINAL UNIT PRICE SHALL BECALCULATEDROUNDED TO 3 DECIMAL PLACES </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITYBASE OIL 150NAQUANTITY450MT 5PCTBQUANTITY900MT 5PCTORIGINTAIWANPACKINGIN BULKPRICE TERM FOB MAILIAO TAIWAN </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1560 MTS1 FCL OF METHACRYLIC ACIDRNMAKE FORMOSA PLASTICS CORPORATIONRNAT USD 310000 PER MT CIF NHAVA SHEVA PORT INDIARNAS PER PROFORMA INVOICE DTD 29102021 </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITY LLDPEQUANTITY 200MTUNIT PRICE USD128000MTPRICE TERM FOB ANY PORT IN TAIWANORIGIN TAIWAN </t>
   </si>
   <si>
+    <t xml:space="preserve"> QUANTITY 10 PERCENTAGE MORE OR LESS ALLOWEDSYNTHETIC PAPERNP350 145470KGSCIF NAGOYA JAPAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DESCRIPTION QUANTITY UNIT PRICE TOTAL AMOUNT   MT USDMT  USDPOLYOXYMETHYLENEPOM FORMOCONFM270  2000  271000  5420000SUBTOTAL  2000    5420000CIF HUANGPUCHINA AS PER CONTRACT NO Z0EN03FM130  2000  271000  5420000SUBTOTAL  2000    5420000CIF HUANGPUCHINA AS PER CONTRACT NO Z0EN12TOTAL AMOUNTUSD10840000 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 14 BUTANEDIOL HSN SAC NO 29053910 AS PER PO NO 2414070211DATED 26102021 AND PO NO 2414070244 DATED 26102021TERMS CIFCHENNAI SEA PORTINDIA INCOTERMS2020 </t>
   </si>
   <si>
     <t xml:space="preserve"> CFR ANY JAPANESE PORTPP 3307UNC1 </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 1 X 40 FCL CONSISTING OF 24 MTS OF PC AC3610 AT USD4150MT USD9960000INCOTERMS 2010 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 COMMODITY POLYPROPYLENE GRADE K10112 QUANTITY 4800 MTS 5PCT3 UNIT PRICE USD139500MT4 TOTAL AMOUNT USD6696000 5PCT5 TRADE TERMS CIF HAIPHONG PORT VIETNAM INCOTERMS 20206 PACKING IN EXPORT PACKING STANDARD7 ORIGIN TAIWAN8 OTHER TERMS AND CONDITIONS AS PER CONTRACT NO 202111160MTHNDATE 05112021 </t>
   </si>
   <si>
@@ -313,13 +520,16 @@
     <t xml:space="preserve"> IMPACT MODIFIERM61UNIT PRICEUSD236000MTQUANTITY2200MTPACKINGNET 20KGS IN PAPER BAGPRICE TERMCIF SHANGHAICHINAPROCESSING AIDP201UNIT PRICEUSD266000MTQUANTITY2200MTPACKINGNET 25KGS IN PAPER BAGPRICE TERMCIF SHANGHAICHINA </t>
   </si>
   <si>
+    <t>FORMOSA PLASTICS</t>
+  </si>
+  <si>
+    <t>NAN YA PLASTICS</t>
+  </si>
+  <si>
     <t>FORMOSA CHEMICALS AND FIBRE</t>
   </si>
   <si>
-    <t>NAN YA PLASTICS</t>
-  </si>
-  <si>
-    <t>FORMOSA PLASTICS</t>
+    <t>FORMOSA PETROCHEMICAL</t>
   </si>
   <si>
     <t>NANYA PLASTICS CORPORATION</t>
@@ -334,147 +544,201 @@
     <t xml:space="preserve"> CONTRACT 013522RN1X40FCL HQRN22000 KG TAIRILIN</t>
   </si>
   <si>
-    <t>[' PS ']</t>
+    <t>['TAIWAN']</t>
+  </si>
+  <si>
+    <t>['PVC SHEET']</t>
+  </si>
+  <si>
+    <t>['SAN']</t>
+  </si>
+  <si>
+    <t>['POLYPROPYLENE RESIN GRADE', 'CHEMICALS']</t>
+  </si>
+  <si>
+    <t>['GLASS FABRICS']</t>
+  </si>
+  <si>
+    <t>['EPOXIDIZED SOYBEAN OIL']</t>
+  </si>
+  <si>
+    <t>['NYLON 6 FILAMENT YARN']</t>
+  </si>
+  <si>
+    <t>['BISPHENOLA']</t>
+  </si>
+  <si>
+    <t>['POLYOXYMETHYLENE']</t>
+  </si>
+  <si>
+    <t>[' RESIN ']</t>
+  </si>
+  <si>
+    <t>['TAIRILIN BRAND PET CHIPS']</t>
+  </si>
+  <si>
+    <t>['TAIWANPRICE TERM']</t>
+  </si>
+  <si>
+    <t>['EVA']</t>
+  </si>
+  <si>
+    <t>['PURIFIED ISOPHTHALIC ACID']</t>
+  </si>
+  <si>
+    <t>['FABRICS']</t>
+  </si>
+  <si>
+    <t>['BASE OIL 500N']</t>
+  </si>
+  <si>
+    <t>['ESO']</t>
+  </si>
+  <si>
+    <t>['PA']</t>
+  </si>
+  <si>
+    <t>['PROPYLENE']</t>
+  </si>
+  <si>
+    <t>['BASE OIL 150N']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'POLYPROPYLENE RESIN']</t>
+  </si>
+  <si>
+    <t>['COPPER CLAD LAMINATE']</t>
+  </si>
+  <si>
+    <t>['POLYETHYLENE', 'PHTHALATE']</t>
+  </si>
+  <si>
+    <t>['PLASTIC RESIN', 'PPCO 3015']</t>
+  </si>
+  <si>
+    <t>['TAIRILIN BRAND POLYESTER FILM B GRADE', 'POLYETHYLENE', 'PHTHALATE']</t>
+  </si>
+  <si>
+    <t>['POLYPROPYLENE RESIN GRADE']</t>
+  </si>
+  <si>
+    <t>[' 2EH ']</t>
+  </si>
+  <si>
+    <t>['EPOXY RESIN']</t>
+  </si>
+  <si>
+    <t>[' PP ']</t>
+  </si>
+  <si>
+    <t>['OTHERS']</t>
+  </si>
+  <si>
+    <t>['POLYETHYLENE', 'PHTHALATE', 'TAIRILIN']</t>
+  </si>
+  <si>
+    <t>['POLYESTER STAPLE FIBER']</t>
+  </si>
+  <si>
+    <t>['ETHYLENE']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER']</t>
+  </si>
+  <si>
+    <t>['POLYESTER FILM']</t>
+  </si>
+  <si>
+    <t>['BASE OIL']</t>
+  </si>
+  <si>
+    <t>['PS']</t>
+  </si>
+  <si>
+    <t>['HDPE 8010']</t>
+  </si>
+  <si>
+    <t>['PA', 'ESO']</t>
+  </si>
+  <si>
+    <t>['INCOTERMS']</t>
+  </si>
+  <si>
+    <t>['2ETHYL HEXANOL']</t>
+  </si>
+  <si>
+    <t>['HDPE', 'PACK']</t>
+  </si>
+  <si>
+    <t>['GLASS EPOXY COPPER CLAD LAMINATES']</t>
+  </si>
+  <si>
+    <t>['PET RESIN', 'POLYETHYLENE', 'PHTHALATE']</t>
+  </si>
+  <si>
+    <t>['ABS RESIN', 'AE8000', 'COVERING', 'ANC100']</t>
+  </si>
+  <si>
+    <t>['COVERING', 'SAN RESIN']</t>
+  </si>
+  <si>
+    <t>['COPPER FOIL']</t>
+  </si>
+  <si>
+    <t>['SOYBEAN OIL ESBO 132 IN DRUMAT USD 181KGIN']</t>
+  </si>
+  <si>
+    <t>['ACRYLIC ACID']</t>
+  </si>
+  <si>
+    <t>['PHTHALIC ANHYDRIDE']</t>
+  </si>
+  <si>
+    <t>['PVC CLEAR RIGID SHEET AND ANOTHER ITEMS']</t>
+  </si>
+  <si>
+    <t>['PREPREG', 'COPPER CLAD LAMINATE']</t>
+  </si>
+  <si>
+    <t>['PROCESS OIL 70N']</t>
+  </si>
+  <si>
+    <t>['SOYBEAN OIL ESBO 132 IN DRUMAT USD 184KGIN']</t>
+  </si>
+  <si>
+    <t>['LCO', 'PACK']</t>
+  </si>
+  <si>
+    <t>['PTA', 'TOTM']</t>
+  </si>
+  <si>
+    <t>['PACK']</t>
+  </si>
+  <si>
+    <t>['POLYESTER', 'TAIRILIN']</t>
+  </si>
+  <si>
+    <t>['PLASTIC RESIN', 'PP 5090T']</t>
   </si>
   <si>
     <t>['SYNTHETIC PAPER']</t>
   </si>
   <si>
-    <t>[' PP ']</t>
-  </si>
-  <si>
-    <t>['PURIFIED ISOPHTHALIC ACID']</t>
-  </si>
-  <si>
-    <t>[' FM090 ', 'PLASTIC RESIN']</t>
-  </si>
-  <si>
-    <t>['NYLON 6 FILAMENT YARN']</t>
-  </si>
-  <si>
-    <t>['PROPYLENE']</t>
-  </si>
-  <si>
-    <t>['POLYPROPYLENE RESIN', 'ETHYLENEPROPYLENE COPOLYMER']</t>
-  </si>
-  <si>
-    <t>['POLYETHYLENE', 'PHTHALATE']</t>
+    <t>['PP', 'DOA']</t>
+  </si>
+  <si>
+    <t>['CIF PORT KLANG MALAYSIA2000']</t>
+  </si>
+  <si>
+    <t>['FM090']</t>
   </si>
   <si>
     <t>['PP']</t>
   </si>
   <si>
-    <t>['POLYETHYLENE', 'PHTHALATE', 'TAIRILIN BRAND POLYESTER FILM B GRADE']</t>
-  </si>
-  <si>
-    <t>['POLYOXYMETHYLENE', ' FM090 ']</t>
-  </si>
-  <si>
-    <t>['EPOXY RESIN']</t>
-  </si>
-  <si>
-    <t>['OTHERS']</t>
-  </si>
-  <si>
-    <t>['GLASS FABRICS']</t>
-  </si>
-  <si>
-    <t>[' EVA ']</t>
-  </si>
-  <si>
-    <t>['POLYETHYLENE', 'PHTHALATE', 'TAIRILIN']</t>
-  </si>
-  <si>
-    <t>['BISPHENOLA']</t>
-  </si>
-  <si>
-    <t>['COPPER CLAD LAMINATE']</t>
-  </si>
-  <si>
-    <t>['POLYESTER STAPLE FIBER']</t>
-  </si>
-  <si>
-    <t>['ETHYLENE']</t>
-  </si>
-  <si>
-    <t>['ETHYLENEPROPYLENE COPOLYMER']</t>
-  </si>
-  <si>
-    <t>[' PA ', 'RAW MATERIALS']</t>
-  </si>
-  <si>
-    <t>[' HDPE ']</t>
-  </si>
-  <si>
-    <t>['ESO', 'PA']</t>
-  </si>
-  <si>
-    <t>['HDPE', 'PACK']</t>
-  </si>
-  <si>
-    <t>['GLASS EPOXY COPPER CLAD LAMINATES']</t>
-  </si>
-  <si>
-    <t>['EVA']</t>
-  </si>
-  <si>
-    <t>['POLYETHYLENE', 'PHTHALATE', 'PET RESIN']</t>
-  </si>
-  <si>
-    <t>[' FM270 ', ' RESIN ']</t>
-  </si>
-  <si>
-    <t>['ANC100', 'AE8000', 'ABS RESIN', 'COVERING']</t>
-  </si>
-  <si>
-    <t>['COVERING', 'SAN RESIN']</t>
-  </si>
-  <si>
-    <t>['COPPER FOIL']</t>
-  </si>
-  <si>
-    <t>['SAN']</t>
-  </si>
-  <si>
-    <t>['ACRYLIC ACID']</t>
-  </si>
-  <si>
-    <t>['PHTHALIC ANHYDRIDE']</t>
-  </si>
-  <si>
-    <t>['PVC CLEAR RIGID SHEET AND ANOTHER ITEMS']</t>
-  </si>
-  <si>
-    <t>['LCO', 'PACK']</t>
-  </si>
-  <si>
-    <t>['PTA', 'TOTM']</t>
-  </si>
-  <si>
-    <t>['PACK']</t>
-  </si>
-  <si>
-    <t>['POLYESTER', 'TAIRILIN']</t>
-  </si>
-  <si>
-    <t>['SAN', 'TPN1']</t>
-  </si>
-  <si>
-    <t>['PP', 'DOA']</t>
-  </si>
-  <si>
-    <t>['CIF PORT KLANG MALAYSIA2000']</t>
-  </si>
-  <si>
-    <t>['FM090']</t>
-  </si>
-  <si>
     <t>['POLYESTER RESIN']</t>
   </si>
   <si>
-    <t>['POLYESTER FILM']</t>
-  </si>
-  <si>
     <t>['MONOETHYLENE GLYCOL']</t>
   </si>
   <si>
@@ -484,7 +748,10 @@
     <t>['NAN YA RELEASE FILM']</t>
   </si>
   <si>
-    <t>['PP', 'EVA']</t>
+    <t>['CIF HAIPHONG VIETNAMCOUNTRY']</t>
+  </si>
+  <si>
+    <t>['BASE OIL 150N', 'PACKING  IN BULK']</t>
   </si>
   <si>
     <t>['METHACRYLIC ACID']</t>
@@ -496,159 +763,192 @@
     <t>['PORTINDIA INCOTERMS2020']</t>
   </si>
   <si>
-    <t>['PA']</t>
-  </si>
-  <si>
-    <t>['PLASTIC RESIN']</t>
-  </si>
-  <si>
-    <t>['PREPREG', 'LAMINATE']</t>
-  </si>
-  <si>
-    <t>['PACK', 'INA']</t>
+    <t>['LAMINATE', 'PREPREG']</t>
+  </si>
+  <si>
+    <t>['INA', 'PACK']</t>
+  </si>
+  <si>
+    <t>bert</t>
   </si>
   <si>
     <t>rule</t>
   </si>
   <si>
-    <t>bert</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PS </t>
-  </si>
-  <si>
-    <t>PEPA SYNTHETIC PAPER</t>
+    <t>TAIWAN</t>
+  </si>
+  <si>
+    <t>PVC SHEET</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>POLYPROPYLENE RESIN GRADE</t>
+  </si>
+  <si>
+    <t>GLASS FABRICS</t>
+  </si>
+  <si>
+    <t>EPOXIDIZED SOYBEAN OIL</t>
+  </si>
+  <si>
+    <t>NYLON 6 FILAMENT YARN</t>
+  </si>
+  <si>
+    <t>BISPHENOLA</t>
+  </si>
+  <si>
+    <t>POLYOXYMETHYLENE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RESIN </t>
+  </si>
+  <si>
+    <t>TAIRILIN BRAND PET CHIPS</t>
+  </si>
+  <si>
+    <t>TAIWANPRICE TERM</t>
+  </si>
+  <si>
+    <t>EVA</t>
+  </si>
+  <si>
+    <t>PURIFIED ISOPHTHALIC ACID</t>
+  </si>
+  <si>
+    <t>FABRICS</t>
+  </si>
+  <si>
+    <t>BASE OIL 500N</t>
+  </si>
+  <si>
+    <t>ESO</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PROPYLENE</t>
+  </si>
+  <si>
+    <t>BASE OIL 150N</t>
+  </si>
+  <si>
+    <t>ETHYLENEPROPYLENE COPOLYMER</t>
+  </si>
+  <si>
+    <t>COPPER CLAD LAMINATE</t>
+  </si>
+  <si>
+    <t>POLYETHYLENE</t>
+  </si>
+  <si>
+    <t>PLASTIC RESIN</t>
+  </si>
+  <si>
+    <t>TAIRILIN BRAND POLYESTER FILM B GRADE</t>
+  </si>
+  <si>
+    <t>POLYPROPYLENE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2EH </t>
+  </si>
+  <si>
+    <t>EPOXY RESIN</t>
   </si>
   <si>
     <t xml:space="preserve"> PP </t>
   </si>
   <si>
-    <t>PURIFIED ISOPHTHALIC ACID</t>
-  </si>
-  <si>
-    <t>PLASTIC RESIN</t>
-  </si>
-  <si>
-    <t>NYLON 6 FILAMENT YARN</t>
-  </si>
-  <si>
-    <t>PROPYLENE</t>
-  </si>
-  <si>
-    <t>ETHYLENEPROPYLENE COPOLYMER</t>
-  </si>
-  <si>
-    <t>POLYETHYLENE</t>
+    <t>OTHERS</t>
+  </si>
+  <si>
+    <t>POLYESTER STAPLE FIBER</t>
+  </si>
+  <si>
+    <t>DIETHYLENE GLYCOL DEG</t>
+  </si>
+  <si>
+    <t>POLYESTER FILM</t>
+  </si>
+  <si>
+    <t>BASE OIL</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>HDPE 8010</t>
+  </si>
+  <si>
+    <t>INCOTERMS</t>
+  </si>
+  <si>
+    <t>2ETHYL HEXANOL</t>
+  </si>
+  <si>
+    <t>HDPE</t>
+  </si>
+  <si>
+    <t>GLASS EPOXY COPPER CLAD LAMINATES</t>
+  </si>
+  <si>
+    <t>ABS RESIN</t>
+  </si>
+  <si>
+    <t>SAN RESIN</t>
+  </si>
+  <si>
+    <t>COPPER FOIL</t>
+  </si>
+  <si>
+    <t>SOYBEAN OIL ESBO 132 IN DRUMAT USD 181KGIN</t>
+  </si>
+  <si>
+    <t>ACRYLIC ACID</t>
+  </si>
+  <si>
+    <t>PHTHALIC ANHYDRIDE</t>
+  </si>
+  <si>
+    <t>PVC CLEAR RIGID SHEET AND ANOTHER ITEMS</t>
+  </si>
+  <si>
+    <t>PROCESS OIL 70N</t>
+  </si>
+  <si>
+    <t>SOYBEAN OIL ESBO 132 IN DRUMAT USD 184KGIN</t>
+  </si>
+  <si>
+    <t>PACK</t>
+  </si>
+  <si>
+    <t>TOTM</t>
+  </si>
+  <si>
+    <t>POLYESTER</t>
+  </si>
+  <si>
+    <t>SYNTHETIC PAPER</t>
+  </si>
+  <si>
+    <t>DOA</t>
+  </si>
+  <si>
+    <t>CIF PORT KLANG MALAYSIA2000</t>
+  </si>
+  <si>
+    <t>FM090</t>
   </si>
   <si>
     <t>PP</t>
   </si>
   <si>
-    <t>TAIRILIN BRAND POLYESTER FILM B GRADE</t>
-  </si>
-  <si>
-    <t>POLYPROPYLENE</t>
-  </si>
-  <si>
-    <t>POLYOXYMETHYLENE</t>
-  </si>
-  <si>
-    <t>EPOXY RESIN</t>
-  </si>
-  <si>
-    <t>OTHERS</t>
-  </si>
-  <si>
-    <t>GLASS FABRICS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EVA </t>
-  </si>
-  <si>
-    <t>BISPHENOLA</t>
-  </si>
-  <si>
-    <t>PP SYNTHETIC PAPER</t>
-  </si>
-  <si>
-    <t>COPPER CLAD LAMINATE</t>
-  </si>
-  <si>
-    <t>POLYESTER STAPLE FIBER</t>
-  </si>
-  <si>
-    <t>DIETHYLENE GLYCOL DEG</t>
-  </si>
-  <si>
-    <t>RAW MATERIALS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HDPE </t>
-  </si>
-  <si>
-    <t>ESO</t>
-  </si>
-  <si>
-    <t>HDPE</t>
-  </si>
-  <si>
-    <t>GLASS EPOXY COPPER CLAD LAMINATES</t>
-  </si>
-  <si>
-    <t>EVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FM270 </t>
-  </si>
-  <si>
-    <t>ABS RESIN</t>
-  </si>
-  <si>
-    <t>SAN RESIN</t>
-  </si>
-  <si>
-    <t>COPPER FOIL</t>
-  </si>
-  <si>
-    <t>SAN</t>
-  </si>
-  <si>
-    <t>ACRYLIC ACID</t>
-  </si>
-  <si>
-    <t>PHTHALIC ANHYDRIDE</t>
-  </si>
-  <si>
-    <t>PVC CLEAR RIGID SHEET AND ANOTHER ITEMS</t>
-  </si>
-  <si>
-    <t>PACK</t>
-  </si>
-  <si>
-    <t>TOTM</t>
-  </si>
-  <si>
-    <t>POLYESTER</t>
-  </si>
-  <si>
-    <t>TPN1</t>
-  </si>
-  <si>
-    <t>DOA</t>
-  </si>
-  <si>
-    <t>CIF PORT KLANG MALAYSIA2000</t>
-  </si>
-  <si>
-    <t>FM090</t>
-  </si>
-  <si>
     <t>POLYESTER RESIN</t>
   </si>
   <si>
-    <t>POLYESTER FILM</t>
-  </si>
-  <si>
     <t>MONOETHYLENE GLYCOL</t>
   </si>
   <si>
@@ -658,6 +958,12 @@
     <t>NAN YA RELEASE FILM</t>
   </si>
   <si>
+    <t>CIF HAIPHONG VIETNAMCOUNTRY</t>
+  </si>
+  <si>
+    <t>PACKING  IN BULK</t>
+  </si>
+  <si>
     <t>METHACRYLIC ACID</t>
   </si>
   <si>
@@ -670,222 +976,255 @@
     <t>LAMINATE</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2P</t>
+  </si>
+  <si>
     <t>4A</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>1P</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>['nan']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['4A']</t>
+  </si>
+  <si>
+    <t>['1P', '2R']</t>
+  </si>
+  <si>
+    <t>['2G']</t>
+  </si>
+  <si>
+    <t>['2P']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['4A', '4A']</t>
+  </si>
+  <si>
+    <t>['18', '27']</t>
+  </si>
+  <si>
+    <t>['4A', '1P']</t>
+  </si>
+  <si>
+    <t>['2E', '18', '27']</t>
+  </si>
+  <si>
+    <t>['1P']</t>
+  </si>
+  <si>
+    <t>['2R']</t>
+  </si>
+  <si>
+    <t>['18', '27', '25']</t>
+  </si>
+  <si>
+    <t>['2E']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['27', '2P']</t>
+  </si>
+  <si>
+    <t>['2M']</t>
+  </si>
+  <si>
+    <t>['4A', '29']</t>
+  </si>
+  <si>
+    <t>['25', '18', '27']</t>
+  </si>
+  <si>
+    <t>['4A', '4A', '17', 'nan']</t>
+  </si>
+  <si>
+    <t>['17', '4A']</t>
+  </si>
+  <si>
+    <t>['2N']</t>
+  </si>
+  <si>
+    <t>['2M', '28']</t>
+  </si>
+  <si>
+    <t>['61', '29']</t>
+  </si>
+  <si>
+    <t>['48', '27']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['42', '25']</t>
+  </si>
+  <si>
+    <t>['1P', '27']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['2A']</t>
+  </si>
+  <si>
+    <t>['2R', '4A']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['61', '2A']</t>
+  </si>
+  <si>
+    <t>['1A']</t>
+  </si>
+  <si>
+    <t>['23', '2M']</t>
+  </si>
+  <si>
+    <t>['27', '29']</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>not find</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
-    <t>1P</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>2G</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>2E</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>61</t>
   </si>
   <si>
     <t>2R</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2P</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>2M</t>
-  </si>
-  <si>
-    <t>['11']</t>
-  </si>
-  <si>
-    <t>['22']</t>
-  </si>
-  <si>
-    <t>['21']</t>
-  </si>
-  <si>
-    <t>['48']</t>
-  </si>
-  <si>
-    <t>['1P', '11']</t>
-  </si>
-  <si>
-    <t>['45']</t>
-  </si>
-  <si>
-    <t>['62']</t>
-  </si>
-  <si>
-    <t>['4A', '4A']</t>
-  </si>
-  <si>
-    <t>['18', '27']</t>
-  </si>
-  <si>
-    <t>['18', '27', '2E']</t>
-  </si>
-  <si>
-    <t>['1P', '1P']</t>
-  </si>
-  <si>
-    <t>['2R']</t>
-  </si>
-  <si>
-    <t>['61']</t>
-  </si>
-  <si>
-    <t>['28']</t>
-  </si>
-  <si>
-    <t>['2P']</t>
-  </si>
-  <si>
-    <t>['18', '27', '25']</t>
-  </si>
-  <si>
-    <t>['2M']</t>
-  </si>
-  <si>
-    <t>['25']</t>
-  </si>
-  <si>
-    <t>['4A']</t>
-  </si>
-  <si>
-    <t>['11', '18']</t>
-  </si>
-  <si>
-    <t>['18']</t>
-  </si>
-  <si>
-    <t>['24', '11']</t>
-  </si>
-  <si>
-    <t>['18', '12']</t>
-  </si>
-  <si>
-    <t>['1P', '18']</t>
-  </si>
-  <si>
-    <t>['61', '4A', '4A', '17']</t>
-  </si>
-  <si>
-    <t>['17', '4A']</t>
-  </si>
-  <si>
-    <t>['2N']</t>
-  </si>
-  <si>
-    <t>['12']</t>
-  </si>
-  <si>
-    <t>['27']</t>
-  </si>
-  <si>
-    <t>['23']</t>
-  </si>
-  <si>
-    <t>['61', '12']</t>
-  </si>
-  <si>
-    <t>['48', '27']</t>
-  </si>
-  <si>
-    <t>['42', '25']</t>
-  </si>
-  <si>
-    <t>['2P', '2R']</t>
-  </si>
-  <si>
-    <t>['21', '27']</t>
-  </si>
-  <si>
-    <t>['24']</t>
-  </si>
-  <si>
-    <t>['2A']</t>
-  </si>
-  <si>
-    <t>['2R', '18']</t>
-  </si>
-  <si>
-    <t>['26']</t>
-  </si>
-  <si>
-    <t>['21', '2P']</t>
-  </si>
-  <si>
-    <t>['1A']</t>
-  </si>
-  <si>
-    <t>['2M', '23']</t>
-  </si>
-  <si>
-    <t>['12', '27']</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>not find</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>62</t>
   </si>
   <si>
     <t>2N</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
@@ -898,6 +1237,12 @@
     <t>0928.xls</t>
   </si>
   <si>
+    <t>0929.xls</t>
+  </si>
+  <si>
+    <t>1004.xls</t>
+  </si>
+  <si>
     <t>1005(1004轉入).xlsx</t>
   </si>
   <si>
@@ -938,9 +1283,6 @@
   </si>
   <si>
     <t>1027.xls</t>
-  </si>
-  <si>
-    <t>1028.xls</t>
   </si>
   <si>
     <t>1029.xls</t>
@@ -1337,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1377,3152 +1719,5917 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
+        <v>320</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>343</v>
       </c>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="J2" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="K2" t="s">
-        <v>292</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>321</v>
       </c>
       <c r="H3" t="s">
-        <v>241</v>
+        <v>344</v>
       </c>
       <c r="I3" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="J3" t="s">
-        <v>231</v>
+        <v>395</v>
       </c>
       <c r="K3" t="s">
-        <v>292</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="G4" t="s">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="H4" t="s">
-        <v>242</v>
+        <v>345</v>
       </c>
       <c r="I4" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="J4" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="K4" t="s">
-        <v>293</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>256</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="H5" t="s">
-        <v>243</v>
+        <v>346</v>
       </c>
       <c r="I5" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="J5" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="K5" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="H6" t="s">
-        <v>244</v>
+        <v>347</v>
       </c>
       <c r="I6" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="J6" t="s">
-        <v>234</v>
+        <v>396</v>
       </c>
       <c r="K6" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>325</v>
       </c>
       <c r="H7" t="s">
-        <v>245</v>
+        <v>348</v>
       </c>
       <c r="I7" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="J7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="K7" t="s">
-        <v>294</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="G8" t="s">
-        <v>218</v>
+        <v>321</v>
       </c>
       <c r="H8" t="s">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="I8" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="J8" t="s">
-        <v>283</v>
+        <v>395</v>
       </c>
       <c r="K8" t="s">
-        <v>295</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="G9" t="s">
-        <v>220</v>
+        <v>326</v>
       </c>
       <c r="H9" t="s">
-        <v>247</v>
+        <v>349</v>
       </c>
       <c r="I9" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="J9" t="s">
-        <v>285</v>
+        <v>397</v>
       </c>
       <c r="K9" t="s">
-        <v>296</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>257</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="G10" t="s">
-        <v>223</v>
+        <v>322</v>
       </c>
       <c r="H10" t="s">
-        <v>248</v>
+        <v>350</v>
       </c>
       <c r="I10" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="J10" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="K10" t="s">
-        <v>296</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="G11" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="H11" t="s">
-        <v>242</v>
+        <v>351</v>
       </c>
       <c r="I11" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="J11" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="K11" t="s">
-        <v>296</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>328</v>
       </c>
       <c r="H12" t="s">
-        <v>249</v>
+        <v>345</v>
       </c>
       <c r="I12" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="J12" t="s">
-        <v>230</v>
+        <v>390</v>
       </c>
       <c r="K12" t="s">
-        <v>297</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>295</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F13" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="G13" t="s">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="H13" t="s">
-        <v>246</v>
+        <v>352</v>
       </c>
       <c r="I13" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="J13" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="K13" t="s">
-        <v>297</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>320</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="G14" t="s">
-        <v>224</v>
+        <v>328</v>
       </c>
       <c r="H14" t="s">
-        <v>250</v>
+        <v>343</v>
       </c>
       <c r="I14" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="J14" t="s">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="K14" t="s">
-        <v>298</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>324</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="G15" t="s">
-        <v>225</v>
+        <v>322</v>
       </c>
       <c r="H15" t="s">
-        <v>251</v>
+        <v>353</v>
       </c>
       <c r="I15" t="s">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="J15" t="s">
-        <v>235</v>
+        <v>391</v>
       </c>
       <c r="K15" t="s">
-        <v>298</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>325</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="G16" t="s">
-        <v>225</v>
+        <v>330</v>
       </c>
       <c r="H16" t="s">
-        <v>251</v>
+        <v>354</v>
       </c>
       <c r="I16" t="s">
-        <v>286</v>
+        <v>392</v>
       </c>
       <c r="J16" t="s">
-        <v>235</v>
+        <v>392</v>
       </c>
       <c r="K16" t="s">
-        <v>298</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>347</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="G17" t="s">
-        <v>226</v>
+        <v>331</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>355</v>
       </c>
       <c r="I17" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="J17" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="K17" t="s">
-        <v>299</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>372</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="G18" t="s">
-        <v>225</v>
+        <v>332</v>
       </c>
       <c r="H18" t="s">
-        <v>253</v>
+        <v>356</v>
       </c>
       <c r="I18" t="s">
-        <v>284</v>
+        <v>393</v>
       </c>
       <c r="J18" t="s">
-        <v>228</v>
+        <v>398</v>
       </c>
       <c r="K18" t="s">
-        <v>299</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="G19" t="s">
-        <v>227</v>
+        <v>330</v>
       </c>
       <c r="H19" t="s">
-        <v>254</v>
+        <v>354</v>
       </c>
       <c r="I19" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="J19" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="K19" t="s">
-        <v>300</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>414</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="G20" t="s">
-        <v>218</v>
+        <v>330</v>
       </c>
       <c r="H20" t="s">
-        <v>246</v>
+        <v>354</v>
       </c>
       <c r="I20" t="s">
-        <v>286</v>
+        <v>392</v>
       </c>
       <c r="J20" t="s">
-        <v>288</v>
+        <v>392</v>
       </c>
       <c r="K20" t="s">
-        <v>300</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>431</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="E21" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="G21" t="s">
-        <v>223</v>
+        <v>325</v>
       </c>
       <c r="H21" t="s">
-        <v>255</v>
+        <v>348</v>
       </c>
       <c r="I21" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="J21" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="K21" t="s">
-        <v>301</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>434</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="E22" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="G22" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H22" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="I22" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="J22" t="s">
-        <v>234</v>
+        <v>392</v>
       </c>
       <c r="K22" t="s">
-        <v>301</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>440</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="G23" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="H23" t="s">
-        <v>254</v>
+        <v>357</v>
       </c>
       <c r="I23" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="J23" t="s">
-        <v>237</v>
+        <v>390</v>
       </c>
       <c r="K23" t="s">
-        <v>301</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>442</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="E24" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="G24" t="s">
-        <v>219</v>
+        <v>333</v>
       </c>
       <c r="H24" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="I24" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>390</v>
       </c>
       <c r="K24" t="s">
-        <v>301</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>447</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="G25" t="s">
-        <v>228</v>
+        <v>323</v>
       </c>
       <c r="H25" t="s">
-        <v>256</v>
+        <v>358</v>
       </c>
       <c r="I25" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>392</v>
       </c>
       <c r="K25" t="s">
-        <v>301</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>490</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F26" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
-        <v>225</v>
+        <v>332</v>
       </c>
       <c r="H26" t="s">
-        <v>257</v>
+        <v>356</v>
       </c>
       <c r="I26" t="s">
-        <v>286</v>
+        <v>393</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="K26" t="s">
-        <v>302</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>497</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="E27" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
       <c r="H27" t="s">
-        <v>246</v>
+        <v>348</v>
       </c>
       <c r="I27" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="J27" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="K27" t="s">
-        <v>302</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>519</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F28" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="H28" t="s">
-        <v>258</v>
+        <v>359</v>
       </c>
       <c r="I28" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="J28" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="K28" t="s">
-        <v>303</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>521</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="G29" t="s">
-        <v>220</v>
+        <v>334</v>
       </c>
       <c r="H29" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="I29" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="J29" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="K29" t="s">
-        <v>303</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>523</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F30" t="s">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="G30" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="H30" t="s">
-        <v>254</v>
+        <v>360</v>
       </c>
       <c r="I30" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="J30" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="K30" t="s">
-        <v>303</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>534</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F31" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="G31" t="s">
-        <v>230</v>
+        <v>333</v>
       </c>
       <c r="H31" t="s">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="J31" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="K31" t="s">
-        <v>303</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>541</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F32" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>225</v>
+        <v>329</v>
       </c>
       <c r="H32" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="J32" t="s">
-        <v>236</v>
+        <v>331</v>
       </c>
       <c r="K32" t="s">
-        <v>304</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>589</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F33" t="s">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
-        <v>223</v>
+        <v>329</v>
       </c>
       <c r="H33" t="s">
-        <v>248</v>
+        <v>362</v>
       </c>
       <c r="I33" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="J33" t="s">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="K33" t="s">
-        <v>305</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>636</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F34" t="s">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="G34" t="s">
-        <v>224</v>
+        <v>323</v>
       </c>
       <c r="H34" t="s">
-        <v>260</v>
+        <v>363</v>
       </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="J34" t="s">
-        <v>227</v>
+        <v>392</v>
       </c>
       <c r="K34" t="s">
-        <v>306</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>648</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="E35" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F35" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="G35" t="s">
-        <v>231</v>
+        <v>323</v>
       </c>
       <c r="H35" t="s">
-        <v>261</v>
+        <v>358</v>
       </c>
       <c r="I35" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="J35" t="s">
-        <v>233</v>
+        <v>392</v>
       </c>
       <c r="K35" t="s">
-        <v>306</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>674</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F36" t="s">
-        <v>177</v>
+        <v>279</v>
       </c>
       <c r="G36" t="s">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="H36" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
       <c r="I36" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="J36" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="K36" t="s">
-        <v>307</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>675</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="E37" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F37" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="G37" t="s">
-        <v>227</v>
+        <v>330</v>
       </c>
       <c r="H37" t="s">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="I37" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="J37" t="s">
-        <v>221</v>
+        <v>392</v>
       </c>
       <c r="K37" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>677</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F38" t="s">
-        <v>192</v>
+        <v>280</v>
       </c>
       <c r="G38" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="H38" t="s">
-        <v>256</v>
+        <v>364</v>
       </c>
       <c r="I38" t="s">
-        <v>286</v>
+        <v>394</v>
       </c>
       <c r="J38" t="s">
-        <v>239</v>
+        <v>399</v>
       </c>
       <c r="K38" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>700</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F39" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="G39" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="H39" t="s">
-        <v>241</v>
+        <v>364</v>
       </c>
       <c r="I39" t="s">
-        <v>284</v>
+        <v>394</v>
       </c>
       <c r="J39" t="s">
-        <v>231</v>
+        <v>399</v>
       </c>
       <c r="K39" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>706</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F40" t="s">
-        <v>185</v>
+        <v>281</v>
       </c>
       <c r="G40" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="H40" t="s">
-        <v>256</v>
+        <v>363</v>
       </c>
       <c r="I40" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="J40" t="s">
-        <v>239</v>
+        <v>391</v>
       </c>
       <c r="K40" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>739</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s">
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F41" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="G41" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="H41" t="s">
-        <v>254</v>
+        <v>363</v>
       </c>
       <c r="I41" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="J41" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="K41" t="s">
-        <v>308</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>750</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="F42" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="G42" t="s">
-        <v>227</v>
+        <v>336</v>
       </c>
       <c r="H42" t="s">
-        <v>254</v>
+        <v>343</v>
       </c>
       <c r="I42" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="J42" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="K42" t="s">
-        <v>308</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>763</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s">
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F43" t="s">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="G43" t="s">
-        <v>223</v>
+        <v>324</v>
       </c>
       <c r="H43" t="s">
-        <v>255</v>
+        <v>347</v>
       </c>
       <c r="I43" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="J43" t="s">
-        <v>236</v>
+        <v>396</v>
       </c>
       <c r="K43" t="s">
-        <v>309</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>764</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s">
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F44" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="G44" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H44" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="I44" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="J44" t="s">
-        <v>227</v>
+        <v>392</v>
       </c>
       <c r="K44" t="s">
-        <v>309</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>778</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="E45" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F45" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="G45" t="s">
-        <v>232</v>
+        <v>330</v>
       </c>
       <c r="H45" t="s">
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="I45" t="s">
-        <v>283</v>
+        <v>392</v>
       </c>
       <c r="J45" t="s">
-        <v>218</v>
+        <v>392</v>
       </c>
       <c r="K45" t="s">
-        <v>309</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>779</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s">
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F46" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="G46" t="s">
-        <v>232</v>
+        <v>335</v>
       </c>
       <c r="H46" t="s">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="I46" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="J46" t="s">
-        <v>218</v>
+        <v>396</v>
       </c>
       <c r="K46" t="s">
-        <v>309</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>781</v>
+        <v>374</v>
       </c>
       <c r="B47" t="s">
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F47" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="G47" t="s">
-        <v>225</v>
+        <v>323</v>
       </c>
       <c r="H47" t="s">
-        <v>266</v>
+        <v>363</v>
       </c>
       <c r="I47" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="J47" t="s">
-        <v>289</v>
+        <v>392</v>
       </c>
       <c r="K47" t="s">
-        <v>309</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>784</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F48" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="G48" t="s">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="H48" t="s">
-        <v>254</v>
+        <v>351</v>
       </c>
       <c r="I48" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="J48" t="s">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="K48" t="s">
-        <v>309</v>
+        <v>414</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>806</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s">
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F49" t="s">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="G49" t="s">
-        <v>226</v>
+        <v>332</v>
       </c>
       <c r="H49" t="s">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="I49" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="J49" t="s">
-        <v>221</v>
+        <v>398</v>
       </c>
       <c r="K49" t="s">
-        <v>310</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>824</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s">
         <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="E50" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F50" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="G50" t="s">
-        <v>225</v>
+        <v>330</v>
       </c>
       <c r="H50" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="I50" t="s">
-        <v>286</v>
+        <v>392</v>
       </c>
       <c r="J50" t="s">
-        <v>230</v>
+        <v>392</v>
       </c>
       <c r="K50" t="s">
-        <v>311</v>
+        <v>415</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>838</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="E51" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F51" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="G51" t="s">
-        <v>225</v>
+        <v>322</v>
       </c>
       <c r="H51" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="I51" t="s">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="J51" t="s">
-        <v>219</v>
+        <v>391</v>
       </c>
       <c r="K51" t="s">
-        <v>311</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>881</v>
+        <v>414</v>
       </c>
       <c r="B52" t="s">
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="E52" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F52" t="s">
-        <v>168</v>
+        <v>278</v>
       </c>
       <c r="G52" t="s">
-        <v>220</v>
+        <v>323</v>
       </c>
       <c r="H52" t="s">
-        <v>242</v>
+        <v>358</v>
       </c>
       <c r="I52" t="s">
-        <v>285</v>
+        <v>394</v>
       </c>
       <c r="J52" t="s">
-        <v>285</v>
+        <v>400</v>
       </c>
       <c r="K52" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>892</v>
+        <v>415</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="E53" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F53" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
       <c r="G53" t="s">
-        <v>219</v>
+        <v>321</v>
       </c>
       <c r="H53" t="s">
-        <v>241</v>
+        <v>344</v>
       </c>
       <c r="I53" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="J53" t="s">
-        <v>231</v>
+        <v>395</v>
       </c>
       <c r="K53" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>894</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="E54" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F54" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="G54" t="s">
-        <v>225</v>
+        <v>326</v>
       </c>
       <c r="H54" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="I54" t="s">
-        <v>286</v>
+        <v>392</v>
       </c>
       <c r="J54" t="s">
-        <v>219</v>
+        <v>397</v>
       </c>
       <c r="K54" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>928</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="E55" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F55" t="s">
-        <v>202</v>
+        <v>272</v>
       </c>
       <c r="G55" t="s">
-        <v>233</v>
+        <v>332</v>
       </c>
       <c r="H55" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="I55" t="s">
-        <v>284</v>
+        <v>393</v>
       </c>
       <c r="J55" t="s">
-        <v>284</v>
+        <v>398</v>
       </c>
       <c r="K55" t="s">
-        <v>313</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>935</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="E56" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F56" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="G56" t="s">
-        <v>225</v>
+        <v>329</v>
       </c>
       <c r="H56" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="I56" t="s">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="J56" t="s">
-        <v>230</v>
+        <v>331</v>
       </c>
       <c r="K56" t="s">
-        <v>313</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>949</v>
+        <v>462</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="E57" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F57" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="G57" t="s">
-        <v>234</v>
+        <v>327</v>
       </c>
       <c r="H57" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="I57" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="J57" t="s">
-        <v>221</v>
+        <v>338</v>
       </c>
       <c r="K57" t="s">
-        <v>313</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>962</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F58" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="G58" t="s">
-        <v>223</v>
+        <v>325</v>
       </c>
       <c r="H58" t="s">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="I58" t="s">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="J58" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="K58" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>976</v>
+        <v>477</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F59" t="s">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="G59" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H59" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="I59" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="J59" t="s">
-        <v>234</v>
+        <v>392</v>
       </c>
       <c r="K59" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>985</v>
+        <v>478</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="E60" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F60" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="G60" t="s">
-        <v>235</v>
+        <v>330</v>
       </c>
       <c r="H60" t="s">
-        <v>273</v>
+        <v>354</v>
       </c>
       <c r="I60" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="J60" t="s">
-        <v>237</v>
+        <v>392</v>
       </c>
       <c r="K60" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>998</v>
+        <v>481</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="E61" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F61" t="s">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="G61" t="s">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="H61" t="s">
-        <v>274</v>
+        <v>350</v>
       </c>
       <c r="I61" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="J61" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="K61" t="s">
-        <v>315</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>1004</v>
+        <v>486</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="E62" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="F62" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="G62" t="s">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="H62" t="s">
-        <v>252</v>
+        <v>354</v>
       </c>
       <c r="I62" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="J62" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="K62" t="s">
-        <v>315</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>1008</v>
+        <v>490</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="E63" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F63" t="s">
-        <v>183</v>
+        <v>283</v>
       </c>
       <c r="G63" t="s">
-        <v>228</v>
+        <v>335</v>
       </c>
       <c r="H63" t="s">
-        <v>254</v>
+        <v>352</v>
       </c>
       <c r="I63" t="s">
-        <v>284</v>
+        <v>394</v>
       </c>
       <c r="J63" t="s">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="K63" t="s">
-        <v>315</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>1045</v>
+        <v>494</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="D64" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="E64" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F64" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="G64" t="s">
-        <v>220</v>
+        <v>332</v>
       </c>
       <c r="H64" t="s">
-        <v>240</v>
+        <v>356</v>
       </c>
       <c r="I64" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="J64" t="s">
-        <v>234</v>
+        <v>398</v>
       </c>
       <c r="K64" t="s">
-        <v>316</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>1056</v>
+        <v>497</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="E65" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F65" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="G65" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="H65" t="s">
-        <v>254</v>
+        <v>358</v>
       </c>
       <c r="I65" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="J65" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="K65" t="s">
-        <v>316</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>1064</v>
+        <v>512</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F66" t="s">
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="G66" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
       <c r="H66" t="s">
-        <v>242</v>
+        <v>354</v>
       </c>
       <c r="I66" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="J66" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="K66" t="s">
-        <v>317</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>1069</v>
+        <v>519</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F67" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="G67" t="s">
-        <v>229</v>
+        <v>327</v>
       </c>
       <c r="H67" t="s">
-        <v>246</v>
+        <v>345</v>
       </c>
       <c r="I67" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="J67" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="K67" t="s">
-        <v>317</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>1070</v>
+        <v>521</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="E68" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F68" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="G68" t="s">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="H68" t="s">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="I68" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="J68" t="s">
-        <v>233</v>
+        <v>390</v>
       </c>
       <c r="K68" t="s">
-        <v>317</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>1083</v>
+        <v>541</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="E69" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F69" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="G69" t="s">
-        <v>226</v>
+        <v>335</v>
       </c>
       <c r="H69" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="I69" t="s">
-        <v>284</v>
+        <v>394</v>
       </c>
       <c r="J69" t="s">
-        <v>236</v>
+        <v>331</v>
       </c>
       <c r="K69" t="s">
-        <v>317</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>1087</v>
+        <v>556</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="E70" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F70" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="G70" t="s">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="H70" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="I70" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="J70" t="s">
-        <v>229</v>
+        <v>392</v>
       </c>
       <c r="K70" t="s">
-        <v>317</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>1091</v>
+        <v>572</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D71" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="E71" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F71" t="s">
-        <v>187</v>
+        <v>285</v>
       </c>
       <c r="G71" t="s">
-        <v>229</v>
+        <v>331</v>
       </c>
       <c r="H71" t="s">
-        <v>246</v>
+        <v>366</v>
       </c>
       <c r="I71" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="J71" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="K71" t="s">
-        <v>317</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1">
-        <v>1093</v>
+        <v>575</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="E72" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F72" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="G72" t="s">
-        <v>225</v>
+        <v>327</v>
       </c>
       <c r="H72" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="I72" t="s">
-        <v>286</v>
+        <v>390</v>
       </c>
       <c r="J72" t="s">
-        <v>227</v>
+        <v>338</v>
       </c>
       <c r="K72" t="s">
-        <v>317</v>
+        <v>419</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1">
-        <v>1095</v>
+        <v>585</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="D73" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="E73" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F73" t="s">
-        <v>182</v>
+        <v>286</v>
       </c>
       <c r="G73" t="s">
-        <v>227</v>
+        <v>332</v>
       </c>
       <c r="H73" t="s">
-        <v>254</v>
+        <v>367</v>
       </c>
       <c r="I73" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="J73" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="K73" t="s">
-        <v>317</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1">
-        <v>1103</v>
+        <v>586</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="D74" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="E74" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F74" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="G74" t="s">
-        <v>220</v>
+        <v>328</v>
       </c>
       <c r="H74" t="s">
-        <v>242</v>
+        <v>345</v>
       </c>
       <c r="I74" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="J74" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="K74" t="s">
-        <v>318</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1">
-        <v>1110</v>
+        <v>589</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="E75" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F75" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="G75" t="s">
-        <v>236</v>
+        <v>329</v>
       </c>
       <c r="H75" t="s">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="I75" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="J75" t="s">
-        <v>233</v>
+        <v>340</v>
       </c>
       <c r="K75" t="s">
-        <v>318</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1">
-        <v>1124</v>
+        <v>592</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D76" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E76" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F76" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="G76" t="s">
-        <v>223</v>
+        <v>325</v>
       </c>
       <c r="H76" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="I76" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="J76" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="K76" t="s">
-        <v>318</v>
+        <v>420</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1">
-        <v>1125</v>
+        <v>595</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="E77" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F77" t="s">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c r="G77" t="s">
-        <v>219</v>
+        <v>333</v>
       </c>
       <c r="H77" t="s">
-        <v>241</v>
+        <v>345</v>
       </c>
       <c r="I77" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="J77" t="s">
-        <v>231</v>
+        <v>390</v>
       </c>
       <c r="K77" t="s">
-        <v>318</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>1130</v>
+        <v>601</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="E78" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F78" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="G78" t="s">
-        <v>222</v>
+        <v>325</v>
       </c>
       <c r="H78" t="s">
-        <v>245</v>
+        <v>348</v>
       </c>
       <c r="I78" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="J78" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="K78" t="s">
-        <v>318</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
-        <v>1146</v>
+        <v>605</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="D79" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="E79" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F79" t="s">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="G79" t="s">
-        <v>220</v>
+        <v>333</v>
       </c>
       <c r="H79" t="s">
-        <v>258</v>
+        <v>361</v>
       </c>
       <c r="I79" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="J79" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="K79" t="s">
-        <v>319</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1">
-        <v>1163</v>
+        <v>636</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="E80" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F80" t="s">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="G80" t="s">
-        <v>227</v>
+        <v>338</v>
       </c>
       <c r="H80" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="I80" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="J80" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="K80" t="s">
-        <v>319</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1">
-        <v>1165</v>
+        <v>648</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F81" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="G81" t="s">
-        <v>223</v>
+        <v>339</v>
       </c>
       <c r="H81" t="s">
-        <v>255</v>
+        <v>368</v>
       </c>
       <c r="I81" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="J81" t="s">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="K81" t="s">
-        <v>319</v>
+        <v>421</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1">
-        <v>1177</v>
+        <v>653</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="D82" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="E82" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F82" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="G82" t="s">
-        <v>220</v>
+        <v>323</v>
       </c>
       <c r="H82" t="s">
-        <v>258</v>
+        <v>363</v>
       </c>
       <c r="I82" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="J82" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="K82" t="s">
-        <v>319</v>
+        <v>421</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1">
-        <v>1183</v>
+        <v>655</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="D83" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E83" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F83" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="G83" t="s">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="H83" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="I83" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="J83" t="s">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="K83" t="s">
-        <v>320</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1">
-        <v>1184</v>
+        <v>656</v>
       </c>
       <c r="B84" t="s">
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="D84" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E84" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F84" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="G84" t="s">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="H84" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="I84" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="J84" t="s">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="K84" t="s">
-        <v>320</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1">
-        <v>1196</v>
+        <v>659</v>
       </c>
       <c r="B85" t="s">
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="F85" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="G85" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="H85" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
       <c r="I85" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="J85" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="K85" t="s">
-        <v>320</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1">
-        <v>1209</v>
+        <v>665</v>
       </c>
       <c r="B86" t="s">
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="F86" t="s">
-        <v>216</v>
+        <v>289</v>
       </c>
       <c r="G86" t="s">
-        <v>237</v>
+        <v>328</v>
       </c>
       <c r="H86" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="I86" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="J86" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="K86" t="s">
-        <v>320</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1">
-        <v>1225</v>
+        <v>668</v>
       </c>
       <c r="B87" t="s">
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="E87" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F87" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="G87" t="s">
-        <v>238</v>
+        <v>340</v>
       </c>
       <c r="H87" t="s">
-        <v>240</v>
+        <v>369</v>
       </c>
       <c r="I87" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="J87" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="K87" t="s">
-        <v>321</v>
+        <v>421</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1">
-        <v>1226</v>
+        <v>674</v>
       </c>
       <c r="B88" t="s">
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="E88" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>278</v>
       </c>
       <c r="G88" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="H88" t="s">
-        <v>240</v>
+        <v>358</v>
       </c>
       <c r="I88" t="s">
-        <v>283</v>
+        <v>392</v>
       </c>
       <c r="J88" t="s">
-        <v>283</v>
+        <v>392</v>
       </c>
       <c r="K88" t="s">
-        <v>321</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1">
-        <v>1235</v>
+        <v>675</v>
       </c>
       <c r="B89" t="s">
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="D89" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="E89" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F89" t="s">
-        <v>177</v>
+        <v>291</v>
       </c>
       <c r="G89" t="s">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="H89" t="s">
-        <v>246</v>
+        <v>370</v>
       </c>
       <c r="I89" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="J89" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="K89" t="s">
-        <v>321</v>
+        <v>422</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1">
-        <v>1236</v>
+        <v>677</v>
       </c>
       <c r="B90" t="s">
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="D90" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="E90" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F90" t="s">
-        <v>217</v>
+        <v>292</v>
       </c>
       <c r="G90" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="H90" t="s">
-        <v>281</v>
+        <v>369</v>
       </c>
       <c r="I90" t="s">
-        <v>284</v>
+        <v>394</v>
       </c>
       <c r="J90" t="s">
-        <v>219</v>
+        <v>334</v>
       </c>
       <c r="K90" t="s">
-        <v>321</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1">
-        <v>1237</v>
+        <v>678</v>
       </c>
       <c r="B91" t="s">
         <v>98</v>
       </c>
       <c r="C91" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91" t="s">
+        <v>183</v>
+      </c>
+      <c r="E91" t="s">
+        <v>252</v>
+      </c>
+      <c r="F91" t="s">
+        <v>260</v>
+      </c>
+      <c r="G91" t="s">
+        <v>322</v>
+      </c>
+      <c r="H91" t="s">
+        <v>350</v>
+      </c>
+      <c r="I91" t="s">
+        <v>391</v>
+      </c>
+      <c r="J91" t="s">
+        <v>324</v>
+      </c>
+      <c r="K91" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1">
+        <v>683</v>
+      </c>
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" t="s">
+        <v>252</v>
+      </c>
+      <c r="F92" t="s">
+        <v>263</v>
+      </c>
+      <c r="G92" t="s">
+        <v>329</v>
+      </c>
+      <c r="H92" t="s">
+        <v>352</v>
+      </c>
+      <c r="I92" t="s">
+        <v>391</v>
+      </c>
+      <c r="J92" t="s">
+        <v>331</v>
+      </c>
+      <c r="K92" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1">
+        <v>684</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" t="s">
+        <v>181</v>
+      </c>
+      <c r="E93" t="s">
+        <v>252</v>
+      </c>
+      <c r="F93" t="s">
+        <v>258</v>
+      </c>
+      <c r="G93" t="s">
+        <v>325</v>
+      </c>
+      <c r="H93" t="s">
+        <v>348</v>
+      </c>
+      <c r="I93" t="s">
+        <v>391</v>
+      </c>
+      <c r="J93" t="s">
+        <v>322</v>
+      </c>
+      <c r="K93" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1">
+        <v>701</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" t="s">
+        <v>182</v>
+      </c>
+      <c r="E94" t="s">
+        <v>252</v>
+      </c>
+      <c r="F94" t="s">
+        <v>259</v>
+      </c>
+      <c r="G94" t="s">
+        <v>326</v>
+      </c>
+      <c r="H94" t="s">
+        <v>349</v>
+      </c>
+      <c r="I94" t="s">
+        <v>392</v>
+      </c>
+      <c r="J94" t="s">
+        <v>397</v>
+      </c>
+      <c r="K94" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1">
+        <v>762</v>
+      </c>
+      <c r="B95" t="s">
         <v>101</v>
       </c>
-      <c r="D91" t="s">
+      <c r="C95" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" t="s">
+        <v>252</v>
+      </c>
+      <c r="F95" t="s">
+        <v>281</v>
+      </c>
+      <c r="G95" t="s">
+        <v>333</v>
+      </c>
+      <c r="H95" t="s">
+        <v>363</v>
+      </c>
+      <c r="I95" t="s">
+        <v>390</v>
+      </c>
+      <c r="J95" t="s">
+        <v>327</v>
+      </c>
+      <c r="K95" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1">
+        <v>763</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96" t="s">
+        <v>219</v>
+      </c>
+      <c r="E96" t="s">
+        <v>252</v>
+      </c>
+      <c r="F96" t="s">
+        <v>275</v>
+      </c>
+      <c r="G96" t="s">
+        <v>329</v>
+      </c>
+      <c r="H96" t="s">
+        <v>371</v>
+      </c>
+      <c r="I96" t="s">
+        <v>391</v>
+      </c>
+      <c r="J96" t="s">
+        <v>331</v>
+      </c>
+      <c r="K96" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
+        <v>778</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" t="s">
+        <v>170</v>
+      </c>
+      <c r="D97" t="s">
+        <v>220</v>
+      </c>
+      <c r="E97" t="s">
+        <v>252</v>
+      </c>
+      <c r="F97" t="s">
+        <v>293</v>
+      </c>
+      <c r="G97" t="s">
+        <v>341</v>
+      </c>
+      <c r="H97" t="s">
+        <v>372</v>
+      </c>
+      <c r="I97" t="s">
+        <v>392</v>
+      </c>
+      <c r="J97" t="s">
+        <v>323</v>
+      </c>
+      <c r="K97" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
+        <v>779</v>
+      </c>
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" t="s">
+        <v>170</v>
+      </c>
+      <c r="D98" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" t="s">
+        <v>252</v>
+      </c>
+      <c r="F98" t="s">
+        <v>294</v>
+      </c>
+      <c r="G98" t="s">
+        <v>341</v>
+      </c>
+      <c r="H98" t="s">
+        <v>373</v>
+      </c>
+      <c r="I98" t="s">
+        <v>392</v>
+      </c>
+      <c r="J98" t="s">
+        <v>323</v>
+      </c>
+      <c r="K98" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
+        <v>781</v>
+      </c>
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" t="s">
+        <v>173</v>
+      </c>
+      <c r="D99" t="s">
+        <v>222</v>
+      </c>
+      <c r="E99" t="s">
+        <v>252</v>
+      </c>
+      <c r="F99" t="s">
+        <v>295</v>
+      </c>
+      <c r="G99" t="s">
+        <v>335</v>
+      </c>
+      <c r="H99" t="s">
+        <v>374</v>
+      </c>
+      <c r="I99" t="s">
+        <v>391</v>
+      </c>
+      <c r="J99" t="s">
+        <v>401</v>
+      </c>
+      <c r="K99" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
+        <v>783</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" t="s">
+        <v>170</v>
+      </c>
+      <c r="D100" t="s">
+        <v>189</v>
+      </c>
+      <c r="E100" t="s">
+        <v>252</v>
+      </c>
+      <c r="F100" t="s">
+        <v>266</v>
+      </c>
+      <c r="G100" t="s">
+        <v>330</v>
+      </c>
+      <c r="H100" t="s">
+        <v>354</v>
+      </c>
+      <c r="I100" t="s">
+        <v>392</v>
+      </c>
+      <c r="J100" t="s">
+        <v>392</v>
+      </c>
+      <c r="K100" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1">
+        <v>788</v>
+      </c>
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" t="s">
+        <v>223</v>
+      </c>
+      <c r="E101" t="s">
+        <v>251</v>
+      </c>
+      <c r="F101" t="s">
+        <v>296</v>
+      </c>
+      <c r="G101" t="s">
+        <v>325</v>
+      </c>
+      <c r="H101" t="s">
+        <v>348</v>
+      </c>
+      <c r="I101" t="s">
+        <v>391</v>
+      </c>
+      <c r="J101" t="s">
+        <v>322</v>
+      </c>
+      <c r="K101" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1">
+        <v>806</v>
+      </c>
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" t="s">
+        <v>168</v>
+      </c>
+      <c r="D102" t="s">
+        <v>224</v>
+      </c>
+      <c r="E102" t="s">
+        <v>252</v>
+      </c>
+      <c r="F102" t="s">
+        <v>297</v>
+      </c>
+      <c r="G102" t="s">
+        <v>336</v>
+      </c>
+      <c r="H102" t="s">
+        <v>354</v>
+      </c>
+      <c r="I102" t="s">
+        <v>390</v>
+      </c>
+      <c r="J102" t="s">
+        <v>320</v>
+      </c>
+      <c r="K102" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1">
+        <v>824</v>
+      </c>
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" t="s">
+        <v>225</v>
+      </c>
+      <c r="E103" t="s">
+        <v>252</v>
+      </c>
+      <c r="F103" t="s">
+        <v>298</v>
+      </c>
+      <c r="G103" t="s">
+        <v>335</v>
+      </c>
+      <c r="H103" t="s">
+        <v>357</v>
+      </c>
+      <c r="I103" t="s">
+        <v>394</v>
+      </c>
+      <c r="J103" t="s">
+        <v>340</v>
+      </c>
+      <c r="K103" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1">
+        <v>832</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" t="s">
+        <v>168</v>
+      </c>
+      <c r="D104" t="s">
+        <v>184</v>
+      </c>
+      <c r="E104" t="s">
+        <v>252</v>
+      </c>
+      <c r="F104" t="s">
+        <v>261</v>
+      </c>
+      <c r="G104" t="s">
+        <v>327</v>
+      </c>
+      <c r="H104" t="s">
+        <v>351</v>
+      </c>
+      <c r="I104" t="s">
+        <v>390</v>
+      </c>
+      <c r="J104" t="s">
+        <v>338</v>
+      </c>
+      <c r="K104" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1">
+        <v>833</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" t="s">
+        <v>168</v>
+      </c>
+      <c r="D105" t="s">
+        <v>184</v>
+      </c>
+      <c r="E105" t="s">
+        <v>252</v>
+      </c>
+      <c r="F105" t="s">
+        <v>261</v>
+      </c>
+      <c r="G105" t="s">
+        <v>327</v>
+      </c>
+      <c r="H105" t="s">
+        <v>351</v>
+      </c>
+      <c r="I105" t="s">
+        <v>390</v>
+      </c>
+      <c r="J105" t="s">
+        <v>338</v>
+      </c>
+      <c r="K105" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1">
+        <v>834</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>168</v>
+      </c>
+      <c r="D106" t="s">
+        <v>184</v>
+      </c>
+      <c r="E106" t="s">
+        <v>252</v>
+      </c>
+      <c r="F106" t="s">
+        <v>261</v>
+      </c>
+      <c r="G106" t="s">
+        <v>327</v>
+      </c>
+      <c r="H106" t="s">
+        <v>351</v>
+      </c>
+      <c r="I106" t="s">
+        <v>390</v>
+      </c>
+      <c r="J106" t="s">
+        <v>338</v>
+      </c>
+      <c r="K106" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
+        <v>835</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" t="s">
+        <v>168</v>
+      </c>
+      <c r="D107" t="s">
+        <v>184</v>
+      </c>
+      <c r="E107" t="s">
+        <v>252</v>
+      </c>
+      <c r="F107" t="s">
+        <v>261</v>
+      </c>
+      <c r="G107" t="s">
+        <v>327</v>
+      </c>
+      <c r="H107" t="s">
+        <v>351</v>
+      </c>
+      <c r="I107" t="s">
+        <v>390</v>
+      </c>
+      <c r="J107" t="s">
+        <v>338</v>
+      </c>
+      <c r="K107" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
+        <v>837</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" t="s">
+        <v>170</v>
+      </c>
+      <c r="D108" t="s">
+        <v>189</v>
+      </c>
+      <c r="E108" t="s">
+        <v>252</v>
+      </c>
+      <c r="F108" t="s">
+        <v>266</v>
+      </c>
+      <c r="G108" t="s">
+        <v>330</v>
+      </c>
+      <c r="H108" t="s">
+        <v>354</v>
+      </c>
+      <c r="I108" t="s">
+        <v>392</v>
+      </c>
+      <c r="J108" t="s">
+        <v>392</v>
+      </c>
+      <c r="K108" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
+        <v>838</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" t="s">
+        <v>172</v>
+      </c>
+      <c r="D109" t="s">
+        <v>226</v>
+      </c>
+      <c r="E109" t="s">
+        <v>252</v>
+      </c>
+      <c r="F109" t="s">
+        <v>299</v>
+      </c>
+      <c r="G109" t="s">
+        <v>335</v>
+      </c>
+      <c r="H109" t="s">
+        <v>344</v>
+      </c>
+      <c r="I109" t="s">
+        <v>394</v>
+      </c>
+      <c r="J109" t="s">
+        <v>395</v>
+      </c>
+      <c r="K109" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
+        <v>841</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" t="s">
+        <v>169</v>
+      </c>
+      <c r="D110" t="s">
+        <v>227</v>
+      </c>
+      <c r="E110" t="s">
+        <v>252</v>
+      </c>
+      <c r="F110" t="s">
+        <v>274</v>
+      </c>
+      <c r="G110" t="s">
+        <v>334</v>
+      </c>
+      <c r="H110" t="s">
+        <v>375</v>
+      </c>
+      <c r="I110" t="s">
+        <v>391</v>
+      </c>
+      <c r="J110" t="s">
+        <v>324</v>
+      </c>
+      <c r="K110" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>869</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" t="s">
+        <v>171</v>
+      </c>
+      <c r="D111" t="s">
+        <v>228</v>
+      </c>
+      <c r="E111" t="s">
+        <v>252</v>
+      </c>
+      <c r="F111" t="s">
+        <v>300</v>
+      </c>
+      <c r="G111" t="s">
+        <v>342</v>
+      </c>
+      <c r="H111" t="s">
+        <v>356</v>
+      </c>
+      <c r="I111" t="s">
+        <v>393</v>
+      </c>
+      <c r="J111" t="s">
+        <v>398</v>
+      </c>
+      <c r="K111" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
+        <v>872</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" t="s">
+        <v>169</v>
+      </c>
+      <c r="D112" t="s">
+        <v>216</v>
+      </c>
+      <c r="E112" t="s">
+        <v>252</v>
+      </c>
+      <c r="F112" t="s">
+        <v>290</v>
+      </c>
+      <c r="G112" t="s">
+        <v>340</v>
+      </c>
+      <c r="H112" t="s">
+        <v>369</v>
+      </c>
+      <c r="I112" t="s">
+        <v>391</v>
+      </c>
+      <c r="J112" t="s">
+        <v>334</v>
+      </c>
+      <c r="K112" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
+        <v>874</v>
+      </c>
+      <c r="B113" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" t="s">
+        <v>170</v>
+      </c>
+      <c r="D113" t="s">
+        <v>189</v>
+      </c>
+      <c r="E113" t="s">
+        <v>252</v>
+      </c>
+      <c r="F113" t="s">
+        <v>266</v>
+      </c>
+      <c r="G113" t="s">
+        <v>330</v>
+      </c>
+      <c r="H113" t="s">
+        <v>354</v>
+      </c>
+      <c r="I113" t="s">
+        <v>392</v>
+      </c>
+      <c r="J113" t="s">
+        <v>392</v>
+      </c>
+      <c r="K113" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
+        <v>894</v>
+      </c>
+      <c r="B114" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" t="s">
+        <v>172</v>
+      </c>
+      <c r="D114" t="s">
+        <v>226</v>
+      </c>
+      <c r="E114" t="s">
+        <v>252</v>
+      </c>
+      <c r="F114" t="s">
+        <v>299</v>
+      </c>
+      <c r="G114" t="s">
+        <v>335</v>
+      </c>
+      <c r="H114" t="s">
+        <v>344</v>
+      </c>
+      <c r="I114" t="s">
+        <v>394</v>
+      </c>
+      <c r="J114" t="s">
+        <v>395</v>
+      </c>
+      <c r="K114" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
+        <v>897</v>
+      </c>
+      <c r="B115" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115" t="s">
+        <v>169</v>
+      </c>
+      <c r="D115" t="s">
+        <v>229</v>
+      </c>
+      <c r="E115" t="s">
+        <v>251</v>
+      </c>
+      <c r="F115" t="s">
+        <v>301</v>
+      </c>
+      <c r="G115" t="s">
+        <v>325</v>
+      </c>
+      <c r="H115" t="s">
+        <v>348</v>
+      </c>
+      <c r="I115" t="s">
+        <v>391</v>
+      </c>
+      <c r="J115" t="s">
+        <v>322</v>
+      </c>
+      <c r="K115" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1">
+        <v>928</v>
+      </c>
+      <c r="B116" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" t="s">
+        <v>169</v>
+      </c>
+      <c r="D116" t="s">
+        <v>230</v>
+      </c>
+      <c r="E116" t="s">
+        <v>252</v>
+      </c>
+      <c r="F116" t="s">
+        <v>302</v>
+      </c>
+      <c r="G116" t="s">
+        <v>325</v>
+      </c>
+      <c r="H116" t="s">
+        <v>376</v>
+      </c>
+      <c r="I116" t="s">
+        <v>391</v>
+      </c>
+      <c r="J116" t="s">
+        <v>402</v>
+      </c>
+      <c r="K116" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1">
+        <v>935</v>
+      </c>
+      <c r="B117" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" t="s">
+        <v>172</v>
+      </c>
+      <c r="D117" t="s">
+        <v>231</v>
+      </c>
+      <c r="E117" t="s">
+        <v>252</v>
+      </c>
+      <c r="F117" t="s">
+        <v>303</v>
+      </c>
+      <c r="G117" t="s">
+        <v>335</v>
+      </c>
+      <c r="H117" t="s">
+        <v>377</v>
+      </c>
+      <c r="I117" t="s">
+        <v>394</v>
+      </c>
+      <c r="J117" t="s">
+        <v>340</v>
+      </c>
+      <c r="K117" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1">
+        <v>938</v>
+      </c>
+      <c r="B118" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" t="s">
+        <v>168</v>
+      </c>
+      <c r="D118" t="s">
+        <v>232</v>
+      </c>
+      <c r="E118" t="s">
+        <v>252</v>
+      </c>
+      <c r="F118" t="s">
+        <v>302</v>
+      </c>
+      <c r="G118" t="s">
+        <v>320</v>
+      </c>
+      <c r="H118" t="s">
+        <v>378</v>
+      </c>
+      <c r="I118" t="s">
+        <v>390</v>
+      </c>
+      <c r="J118" t="s">
+        <v>390</v>
+      </c>
+      <c r="K118" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1">
+        <v>941</v>
+      </c>
+      <c r="B119" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" t="s">
+        <v>170</v>
+      </c>
+      <c r="D119" t="s">
+        <v>179</v>
+      </c>
+      <c r="E119" t="s">
+        <v>252</v>
+      </c>
+      <c r="F119" t="s">
+        <v>256</v>
+      </c>
+      <c r="G119" t="s">
+        <v>323</v>
+      </c>
+      <c r="H119" t="s">
+        <v>346</v>
+      </c>
+      <c r="I119" t="s">
+        <v>392</v>
+      </c>
+      <c r="J119" t="s">
+        <v>392</v>
+      </c>
+      <c r="K119" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
+        <v>949</v>
+      </c>
+      <c r="B120" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" t="s">
+        <v>168</v>
+      </c>
+      <c r="D120" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" t="s">
+        <v>252</v>
+      </c>
+      <c r="F120" t="s">
+        <v>302</v>
+      </c>
+      <c r="G120" t="s">
+        <v>333</v>
+      </c>
+      <c r="H120" t="s">
+        <v>378</v>
+      </c>
+      <c r="I120" t="s">
+        <v>390</v>
+      </c>
+      <c r="J120" t="s">
+        <v>390</v>
+      </c>
+      <c r="K120" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
+        <v>958</v>
+      </c>
+      <c r="B121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
+        <v>169</v>
+      </c>
+      <c r="D121" t="s">
+        <v>183</v>
+      </c>
+      <c r="E121" t="s">
+        <v>252</v>
+      </c>
+      <c r="F121" t="s">
+        <v>260</v>
+      </c>
+      <c r="G121" t="s">
+        <v>322</v>
+      </c>
+      <c r="H121" t="s">
+        <v>350</v>
+      </c>
+      <c r="I121" t="s">
+        <v>391</v>
+      </c>
+      <c r="J121" t="s">
+        <v>324</v>
+      </c>
+      <c r="K121" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
+        <v>962</v>
+      </c>
+      <c r="B122" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" t="s">
+        <v>175</v>
+      </c>
+      <c r="D122" t="s">
+        <v>233</v>
+      </c>
+      <c r="E122" t="s">
+        <v>252</v>
+      </c>
+      <c r="F122" t="s">
+        <v>304</v>
+      </c>
+      <c r="G122" t="s">
+        <v>329</v>
+      </c>
+      <c r="H122" t="s">
+        <v>379</v>
+      </c>
+      <c r="I122" t="s">
+        <v>394</v>
+      </c>
+      <c r="J122" t="s">
+        <v>331</v>
+      </c>
+      <c r="K122" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
+        <v>965</v>
+      </c>
+      <c r="B123" t="s">
+        <v>51</v>
+      </c>
+      <c r="C123" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" t="s">
+        <v>180</v>
+      </c>
+      <c r="E123" t="s">
+        <v>252</v>
+      </c>
+      <c r="F123" t="s">
+        <v>257</v>
+      </c>
+      <c r="G123" t="s">
+        <v>324</v>
+      </c>
+      <c r="H123" t="s">
+        <v>347</v>
+      </c>
+      <c r="I123" t="s">
+        <v>391</v>
+      </c>
+      <c r="J123" t="s">
+        <v>396</v>
+      </c>
+      <c r="K123" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1">
+        <v>977</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" t="s">
+        <v>168</v>
+      </c>
+      <c r="D124" t="s">
+        <v>234</v>
+      </c>
+      <c r="E124" t="s">
+        <v>252</v>
+      </c>
+      <c r="F124" t="s">
+        <v>276</v>
+      </c>
+      <c r="G124" t="s">
+        <v>333</v>
+      </c>
+      <c r="H124" t="s">
+        <v>361</v>
+      </c>
+      <c r="I124" t="s">
+        <v>390</v>
+      </c>
+      <c r="J124" t="s">
+        <v>327</v>
+      </c>
+      <c r="K124" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
+        <v>981</v>
+      </c>
+      <c r="B125" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" t="s">
+        <v>169</v>
+      </c>
+      <c r="D125" t="s">
+        <v>181</v>
+      </c>
+      <c r="E125" t="s">
+        <v>252</v>
+      </c>
+      <c r="F125" t="s">
+        <v>258</v>
+      </c>
+      <c r="G125" t="s">
+        <v>325</v>
+      </c>
+      <c r="H125" t="s">
+        <v>348</v>
+      </c>
+      <c r="I125" t="s">
+        <v>391</v>
+      </c>
+      <c r="J125" t="s">
+        <v>322</v>
+      </c>
+      <c r="K125" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1">
+        <v>987</v>
+      </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" t="s">
+        <v>169</v>
+      </c>
+      <c r="D126" t="s">
+        <v>235</v>
+      </c>
+      <c r="E126" t="s">
+        <v>252</v>
+      </c>
+      <c r="F126" t="s">
+        <v>305</v>
+      </c>
+      <c r="G126" t="s">
+        <v>339</v>
+      </c>
+      <c r="H126" t="s">
+        <v>344</v>
+      </c>
+      <c r="I126" t="s">
+        <v>391</v>
+      </c>
+      <c r="J126" t="s">
+        <v>395</v>
+      </c>
+      <c r="K126" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1">
+        <v>992</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" t="s">
+        <v>171</v>
+      </c>
+      <c r="D127" t="s">
+        <v>195</v>
+      </c>
+      <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
+        <v>272</v>
+      </c>
+      <c r="G127" t="s">
+        <v>332</v>
+      </c>
+      <c r="H127" t="s">
+        <v>356</v>
+      </c>
+      <c r="I127" t="s">
+        <v>393</v>
+      </c>
+      <c r="J127" t="s">
+        <v>398</v>
+      </c>
+      <c r="K127" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1">
+        <v>993</v>
+      </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" t="s">
+        <v>171</v>
+      </c>
+      <c r="D128" t="s">
+        <v>195</v>
+      </c>
+      <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
+        <v>272</v>
+      </c>
+      <c r="G128" t="s">
+        <v>332</v>
+      </c>
+      <c r="H128" t="s">
+        <v>356</v>
+      </c>
+      <c r="I128" t="s">
+        <v>393</v>
+      </c>
+      <c r="J128" t="s">
+        <v>398</v>
+      </c>
+      <c r="K128" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1">
+        <v>998</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" t="s">
+        <v>169</v>
+      </c>
+      <c r="D129" t="s">
+        <v>236</v>
+      </c>
+      <c r="E129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
+        <v>306</v>
+      </c>
+      <c r="G129" t="s">
+        <v>324</v>
+      </c>
+      <c r="H129" t="s">
+        <v>380</v>
+      </c>
+      <c r="I129" t="s">
+        <v>391</v>
+      </c>
+      <c r="J129" t="s">
+        <v>340</v>
+      </c>
+      <c r="K129" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B130" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130" t="s">
+        <v>169</v>
+      </c>
+      <c r="D130" t="s">
+        <v>237</v>
+      </c>
+      <c r="E130" t="s">
+        <v>251</v>
+      </c>
+      <c r="F130" t="s">
+        <v>307</v>
+      </c>
+      <c r="G130" t="s">
+        <v>340</v>
+      </c>
+      <c r="H130" t="s">
+        <v>343</v>
+      </c>
+      <c r="I130" t="s">
+        <v>391</v>
+      </c>
+      <c r="J130" t="s">
+        <v>391</v>
+      </c>
+      <c r="K130" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" t="s">
+        <v>168</v>
+      </c>
+      <c r="D131" t="s">
+        <v>184</v>
+      </c>
+      <c r="E131" t="s">
+        <v>252</v>
+      </c>
+      <c r="F131" t="s">
+        <v>261</v>
+      </c>
+      <c r="G131" t="s">
+        <v>327</v>
+      </c>
+      <c r="H131" t="s">
+        <v>351</v>
+      </c>
+      <c r="I131" t="s">
+        <v>390</v>
+      </c>
+      <c r="J131" t="s">
+        <v>338</v>
+      </c>
+      <c r="K131" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132" t="s">
+        <v>170</v>
+      </c>
+      <c r="D132" t="s">
+        <v>189</v>
+      </c>
+      <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
+        <v>266</v>
+      </c>
+      <c r="G132" t="s">
+        <v>330</v>
+      </c>
+      <c r="H132" t="s">
+        <v>354</v>
+      </c>
+      <c r="I132" t="s">
+        <v>392</v>
+      </c>
+      <c r="J132" t="s">
+        <v>392</v>
+      </c>
+      <c r="K132" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
+        <v>1025</v>
+      </c>
+      <c r="B133" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" t="s">
+        <v>170</v>
+      </c>
+      <c r="D133" t="s">
+        <v>189</v>
+      </c>
+      <c r="E133" t="s">
+        <v>252</v>
+      </c>
+      <c r="F133" t="s">
+        <v>266</v>
+      </c>
+      <c r="G133" t="s">
+        <v>330</v>
+      </c>
+      <c r="H133" t="s">
+        <v>354</v>
+      </c>
+      <c r="I133" t="s">
+        <v>392</v>
+      </c>
+      <c r="J133" t="s">
+        <v>392</v>
+      </c>
+      <c r="K133" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" t="s">
+        <v>169</v>
+      </c>
+      <c r="D134" t="s">
+        <v>183</v>
+      </c>
+      <c r="E134" t="s">
+        <v>252</v>
+      </c>
+      <c r="F134" t="s">
+        <v>260</v>
+      </c>
+      <c r="G134" t="s">
+        <v>322</v>
+      </c>
+      <c r="H134" t="s">
+        <v>350</v>
+      </c>
+      <c r="I134" t="s">
+        <v>391</v>
+      </c>
+      <c r="J134" t="s">
+        <v>324</v>
+      </c>
+      <c r="K134" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1">
+        <v>1032</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" t="s">
+        <v>169</v>
+      </c>
+      <c r="D135" t="s">
+        <v>188</v>
+      </c>
+      <c r="E135" t="s">
+        <v>252</v>
+      </c>
+      <c r="F135" t="s">
+        <v>265</v>
+      </c>
+      <c r="G135" t="s">
+        <v>322</v>
+      </c>
+      <c r="H135" t="s">
+        <v>353</v>
+      </c>
+      <c r="I135" t="s">
+        <v>391</v>
+      </c>
+      <c r="J135" t="s">
+        <v>391</v>
+      </c>
+      <c r="K135" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1">
+        <v>1045</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" t="s">
+        <v>168</v>
+      </c>
+      <c r="D136" t="s">
+        <v>238</v>
+      </c>
+      <c r="E136" t="s">
+        <v>252</v>
+      </c>
+      <c r="F136" t="s">
+        <v>308</v>
+      </c>
+      <c r="G136" t="s">
+        <v>327</v>
+      </c>
+      <c r="H136" t="s">
+        <v>381</v>
+      </c>
+      <c r="I136" t="s">
+        <v>390</v>
+      </c>
+      <c r="J136" t="s">
+        <v>333</v>
+      </c>
+      <c r="K136" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1">
+        <v>1064</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" t="s">
+        <v>168</v>
+      </c>
+      <c r="D137" t="s">
+        <v>239</v>
+      </c>
+      <c r="E137" t="s">
+        <v>252</v>
+      </c>
+      <c r="F137" t="s">
+        <v>309</v>
+      </c>
+      <c r="G137" t="s">
+        <v>333</v>
+      </c>
+      <c r="H137" t="s">
+        <v>363</v>
+      </c>
+      <c r="I137" t="s">
+        <v>390</v>
+      </c>
+      <c r="J137" t="s">
+        <v>327</v>
+      </c>
+      <c r="K137" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1">
+        <v>1069</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" t="s">
+        <v>169</v>
+      </c>
+      <c r="D138" t="s">
+        <v>208</v>
+      </c>
+      <c r="E138" t="s">
+        <v>252</v>
+      </c>
+      <c r="F138" t="s">
+        <v>284</v>
+      </c>
+      <c r="G138" t="s">
+        <v>337</v>
+      </c>
+      <c r="H138" t="s">
+        <v>358</v>
+      </c>
+      <c r="I138" t="s">
+        <v>391</v>
+      </c>
+      <c r="J138" t="s">
+        <v>391</v>
+      </c>
+      <c r="K138" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1">
+        <v>1070</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" t="s">
+        <v>169</v>
+      </c>
+      <c r="D139" t="s">
+        <v>240</v>
+      </c>
+      <c r="E139" t="s">
+        <v>252</v>
+      </c>
+      <c r="F139" t="s">
+        <v>310</v>
+      </c>
+      <c r="G139" t="s">
+        <v>331</v>
+      </c>
+      <c r="H139" t="s">
+        <v>382</v>
+      </c>
+      <c r="I139" t="s">
+        <v>391</v>
+      </c>
+      <c r="J139" t="s">
+        <v>325</v>
+      </c>
+      <c r="K139" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1">
+        <v>1076</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" t="s">
+        <v>168</v>
+      </c>
+      <c r="D140" t="s">
+        <v>184</v>
+      </c>
+      <c r="E140" t="s">
+        <v>252</v>
+      </c>
+      <c r="F140" t="s">
+        <v>261</v>
+      </c>
+      <c r="G140" t="s">
+        <v>327</v>
+      </c>
+      <c r="H140" t="s">
+        <v>351</v>
+      </c>
+      <c r="I140" t="s">
+        <v>390</v>
+      </c>
+      <c r="J140" t="s">
+        <v>338</v>
+      </c>
+      <c r="K140" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1">
+        <v>1081</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" t="s">
+        <v>169</v>
+      </c>
+      <c r="D141" t="s">
+        <v>210</v>
+      </c>
+      <c r="E141" t="s">
+        <v>252</v>
+      </c>
+      <c r="F141" t="s">
+        <v>285</v>
+      </c>
+      <c r="G141" t="s">
+        <v>331</v>
+      </c>
+      <c r="H141" t="s">
+        <v>366</v>
+      </c>
+      <c r="I141" t="s">
+        <v>391</v>
+      </c>
+      <c r="J141" t="s">
+        <v>329</v>
+      </c>
+      <c r="K141" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1">
+        <v>1082</v>
+      </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" t="s">
+        <v>169</v>
+      </c>
+      <c r="D142" t="s">
+        <v>210</v>
+      </c>
+      <c r="E142" t="s">
+        <v>252</v>
+      </c>
+      <c r="F142" t="s">
+        <v>285</v>
+      </c>
+      <c r="G142" t="s">
+        <v>331</v>
+      </c>
+      <c r="H142" t="s">
+        <v>366</v>
+      </c>
+      <c r="I142" t="s">
+        <v>391</v>
+      </c>
+      <c r="J142" t="s">
+        <v>329</v>
+      </c>
+      <c r="K142" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1">
+        <v>1083</v>
+      </c>
+      <c r="B143" t="s">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>169</v>
+      </c>
+      <c r="D143" t="s">
+        <v>210</v>
+      </c>
+      <c r="E143" t="s">
+        <v>252</v>
+      </c>
+      <c r="F143" t="s">
+        <v>285</v>
+      </c>
+      <c r="G143" t="s">
+        <v>336</v>
+      </c>
+      <c r="H143" t="s">
+        <v>366</v>
+      </c>
+      <c r="I143" t="s">
+        <v>391</v>
+      </c>
+      <c r="J143" t="s">
+        <v>329</v>
+      </c>
+      <c r="K143" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1">
+        <v>1087</v>
+      </c>
+      <c r="B144" t="s">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>169</v>
+      </c>
+      <c r="D144" t="s">
+        <v>241</v>
+      </c>
+      <c r="E144" t="s">
+        <v>252</v>
+      </c>
+      <c r="F144" t="s">
+        <v>311</v>
+      </c>
+      <c r="G144" t="s">
+        <v>331</v>
+      </c>
+      <c r="H144" t="s">
+        <v>383</v>
+      </c>
+      <c r="I144" t="s">
+        <v>391</v>
+      </c>
+      <c r="J144" t="s">
+        <v>337</v>
+      </c>
+      <c r="K144" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="1">
+        <v>1091</v>
+      </c>
+      <c r="B145" t="s">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>169</v>
+      </c>
+      <c r="D145" t="s">
+        <v>208</v>
+      </c>
+      <c r="E145" t="s">
+        <v>252</v>
+      </c>
+      <c r="F145" t="s">
+        <v>284</v>
+      </c>
+      <c r="G145" t="s">
+        <v>337</v>
+      </c>
+      <c r="H145" t="s">
+        <v>358</v>
+      </c>
+      <c r="I145" t="s">
+        <v>391</v>
+      </c>
+      <c r="J145" t="s">
+        <v>391</v>
+      </c>
+      <c r="K145" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="1">
+        <v>1093</v>
+      </c>
+      <c r="B146" t="s">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>172</v>
+      </c>
+      <c r="D146" t="s">
+        <v>242</v>
+      </c>
+      <c r="E146" t="s">
+        <v>252</v>
+      </c>
+      <c r="F146" t="s">
+        <v>312</v>
+      </c>
+      <c r="G146" t="s">
+        <v>335</v>
+      </c>
+      <c r="H146" t="s">
+        <v>384</v>
+      </c>
+      <c r="I146" t="s">
+        <v>394</v>
+      </c>
+      <c r="J146" t="s">
+        <v>399</v>
+      </c>
+      <c r="K146" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B147" t="s">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>169</v>
+      </c>
+      <c r="D147" t="s">
+        <v>204</v>
+      </c>
+      <c r="E147" t="s">
+        <v>252</v>
+      </c>
+      <c r="F147" t="s">
+        <v>281</v>
+      </c>
+      <c r="G147" t="s">
+        <v>321</v>
+      </c>
+      <c r="H147" t="s">
+        <v>363</v>
+      </c>
+      <c r="I147" t="s">
+        <v>391</v>
+      </c>
+      <c r="J147" t="s">
+        <v>391</v>
+      </c>
+      <c r="K147" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1">
+        <v>1110</v>
+      </c>
+      <c r="B148" t="s">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>169</v>
+      </c>
+      <c r="D148" t="s">
+        <v>240</v>
+      </c>
+      <c r="E148" t="s">
+        <v>252</v>
+      </c>
+      <c r="F148" t="s">
+        <v>310</v>
+      </c>
+      <c r="G148" t="s">
+        <v>331</v>
+      </c>
+      <c r="H148" t="s">
+        <v>382</v>
+      </c>
+      <c r="I148" t="s">
+        <v>391</v>
+      </c>
+      <c r="J148" t="s">
+        <v>325</v>
+      </c>
+      <c r="K148" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="1">
+        <v>1115</v>
+      </c>
+      <c r="B149" t="s">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>169</v>
+      </c>
+      <c r="D149" t="s">
+        <v>180</v>
+      </c>
+      <c r="E149" t="s">
+        <v>252</v>
+      </c>
+      <c r="F149" t="s">
+        <v>257</v>
+      </c>
+      <c r="G149" t="s">
+        <v>324</v>
+      </c>
+      <c r="H149" t="s">
+        <v>347</v>
+      </c>
+      <c r="I149" t="s">
+        <v>391</v>
+      </c>
+      <c r="J149" t="s">
+        <v>396</v>
+      </c>
+      <c r="K149" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="1">
+        <v>1124</v>
+      </c>
+      <c r="B150" t="s">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>169</v>
+      </c>
+      <c r="D150" t="s">
+        <v>243</v>
+      </c>
+      <c r="E150" t="s">
+        <v>252</v>
+      </c>
+      <c r="F150" t="s">
+        <v>313</v>
+      </c>
+      <c r="G150" t="s">
+        <v>329</v>
+      </c>
+      <c r="H150" t="s">
+        <v>385</v>
+      </c>
+      <c r="I150" t="s">
+        <v>391</v>
+      </c>
+      <c r="J150" t="s">
+        <v>403</v>
+      </c>
+      <c r="K150" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="1">
+        <v>1138</v>
+      </c>
+      <c r="B151" t="s">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>171</v>
+      </c>
+      <c r="D151" t="s">
+        <v>191</v>
+      </c>
+      <c r="E151" t="s">
+        <v>252</v>
+      </c>
+      <c r="F151" t="s">
+        <v>268</v>
+      </c>
+      <c r="G151" t="s">
+        <v>332</v>
+      </c>
+      <c r="H151" t="s">
+        <v>356</v>
+      </c>
+      <c r="I151" t="s">
+        <v>393</v>
+      </c>
+      <c r="J151" t="s">
+        <v>398</v>
+      </c>
+      <c r="K151" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="1">
+        <v>1139</v>
+      </c>
+      <c r="B152" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>168</v>
+      </c>
+      <c r="D152" t="s">
+        <v>244</v>
+      </c>
+      <c r="E152" t="s">
+        <v>251</v>
+      </c>
+      <c r="F152" t="s">
+        <v>314</v>
+      </c>
+      <c r="G152" t="s">
+        <v>328</v>
+      </c>
+      <c r="H152" t="s">
+        <v>343</v>
+      </c>
+      <c r="I152" t="s">
+        <v>390</v>
+      </c>
+      <c r="J152" t="s">
+        <v>390</v>
+      </c>
+      <c r="K152" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="1">
+        <v>1140</v>
+      </c>
+      <c r="B153" t="s">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>168</v>
+      </c>
+      <c r="D153" t="s">
+        <v>244</v>
+      </c>
+      <c r="E153" t="s">
+        <v>251</v>
+      </c>
+      <c r="F153" t="s">
+        <v>314</v>
+      </c>
+      <c r="G153" t="s">
+        <v>328</v>
+      </c>
+      <c r="H153" t="s">
+        <v>343</v>
+      </c>
+      <c r="I153" t="s">
+        <v>390</v>
+      </c>
+      <c r="J153" t="s">
+        <v>390</v>
+      </c>
+      <c r="K153" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="1">
+        <v>1146</v>
+      </c>
+      <c r="B154" t="s">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>168</v>
+      </c>
+      <c r="D154" t="s">
+        <v>209</v>
+      </c>
+      <c r="E154" t="s">
+        <v>252</v>
+      </c>
+      <c r="F154" t="s">
+        <v>273</v>
+      </c>
+      <c r="G154" t="s">
+        <v>327</v>
+      </c>
+      <c r="H154" t="s">
+        <v>345</v>
+      </c>
+      <c r="I154" t="s">
+        <v>390</v>
+      </c>
+      <c r="J154" t="s">
+        <v>390</v>
+      </c>
+      <c r="K154" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="1">
+        <v>1154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>169</v>
+      </c>
+      <c r="D155" t="s">
+        <v>188</v>
+      </c>
+      <c r="E155" t="s">
+        <v>252</v>
+      </c>
+      <c r="F155" t="s">
+        <v>265</v>
+      </c>
+      <c r="G155" t="s">
+        <v>322</v>
+      </c>
+      <c r="H155" t="s">
+        <v>353</v>
+      </c>
+      <c r="I155" t="s">
+        <v>391</v>
+      </c>
+      <c r="J155" t="s">
+        <v>391</v>
+      </c>
+      <c r="K155" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="1">
+        <v>1165</v>
+      </c>
+      <c r="B156" t="s">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>169</v>
+      </c>
+      <c r="D156" t="s">
+        <v>206</v>
+      </c>
+      <c r="E156" t="s">
+        <v>252</v>
+      </c>
+      <c r="F156" t="s">
+        <v>275</v>
+      </c>
+      <c r="G156" t="s">
+        <v>329</v>
+      </c>
+      <c r="H156" t="s">
+        <v>365</v>
+      </c>
+      <c r="I156" t="s">
+        <v>391</v>
+      </c>
+      <c r="J156" t="s">
+        <v>331</v>
+      </c>
+      <c r="K156" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="1">
+        <v>1177</v>
+      </c>
+      <c r="B157" t="s">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
+        <v>168</v>
+      </c>
+      <c r="D157" t="s">
+        <v>209</v>
+      </c>
+      <c r="E157" t="s">
+        <v>252</v>
+      </c>
+      <c r="F157" t="s">
+        <v>273</v>
+      </c>
+      <c r="G157" t="s">
+        <v>327</v>
+      </c>
+      <c r="H157" t="s">
+        <v>345</v>
+      </c>
+      <c r="I157" t="s">
+        <v>390</v>
+      </c>
+      <c r="J157" t="s">
+        <v>390</v>
+      </c>
+      <c r="K157" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="1">
+        <v>1178</v>
+      </c>
+      <c r="B158" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>171</v>
+      </c>
+      <c r="D158" t="s">
+        <v>245</v>
+      </c>
+      <c r="E158" t="s">
+        <v>252</v>
+      </c>
+      <c r="F158" t="s">
+        <v>315</v>
+      </c>
+      <c r="G158" t="s">
+        <v>332</v>
+      </c>
+      <c r="H158" t="s">
+        <v>386</v>
+      </c>
+      <c r="I158" t="s">
+        <v>393</v>
+      </c>
+      <c r="J158" t="s">
+        <v>398</v>
+      </c>
+      <c r="K158" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="1">
+        <v>1180</v>
+      </c>
+      <c r="B159" t="s">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>171</v>
+      </c>
+      <c r="D159" t="s">
+        <v>195</v>
+      </c>
+      <c r="E159" t="s">
+        <v>252</v>
+      </c>
+      <c r="F159" t="s">
+        <v>272</v>
+      </c>
+      <c r="G159" t="s">
+        <v>332</v>
+      </c>
+      <c r="H159" t="s">
+        <v>356</v>
+      </c>
+      <c r="I159" t="s">
+        <v>393</v>
+      </c>
+      <c r="J159" t="s">
+        <v>398</v>
+      </c>
+      <c r="K159" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="1">
+        <v>1183</v>
+      </c>
+      <c r="B160" t="s">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>168</v>
+      </c>
+      <c r="D160" t="s">
+        <v>246</v>
+      </c>
+      <c r="E160" t="s">
+        <v>252</v>
+      </c>
+      <c r="F160" t="s">
+        <v>316</v>
+      </c>
+      <c r="G160" t="s">
+        <v>336</v>
+      </c>
+      <c r="H160" t="s">
+        <v>387</v>
+      </c>
+      <c r="I160" t="s">
+        <v>390</v>
+      </c>
+      <c r="J160" t="s">
+        <v>404</v>
+      </c>
+      <c r="K160" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="1">
+        <v>1184</v>
+      </c>
+      <c r="B161" t="s">
+        <v>159</v>
+      </c>
+      <c r="C161" t="s">
+        <v>168</v>
+      </c>
+      <c r="D161" t="s">
+        <v>246</v>
+      </c>
+      <c r="E161" t="s">
+        <v>252</v>
+      </c>
+      <c r="F161" t="s">
+        <v>316</v>
+      </c>
+      <c r="G161" t="s">
+        <v>336</v>
+      </c>
+      <c r="H161" t="s">
+        <v>387</v>
+      </c>
+      <c r="I161" t="s">
+        <v>390</v>
+      </c>
+      <c r="J161" t="s">
+        <v>404</v>
+      </c>
+      <c r="K161" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="1">
+        <v>1196</v>
+      </c>
+      <c r="B162" t="s">
+        <v>160</v>
+      </c>
+      <c r="C162" t="s">
+        <v>168</v>
+      </c>
+      <c r="D162" t="s">
+        <v>247</v>
+      </c>
+      <c r="E162" t="s">
+        <v>251</v>
+      </c>
+      <c r="F162" t="s">
+        <v>317</v>
+      </c>
+      <c r="G162" t="s">
+        <v>328</v>
+      </c>
+      <c r="H162" t="s">
+        <v>343</v>
+      </c>
+      <c r="I162" t="s">
+        <v>390</v>
+      </c>
+      <c r="J162" t="s">
+        <v>390</v>
+      </c>
+      <c r="K162" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="1">
+        <v>1202</v>
+      </c>
+      <c r="B163" t="s">
+        <v>61</v>
+      </c>
+      <c r="C163" t="s">
+        <v>169</v>
+      </c>
+      <c r="D163" t="s">
+        <v>177</v>
+      </c>
+      <c r="E163" t="s">
+        <v>252</v>
+      </c>
+      <c r="F163" t="s">
+        <v>254</v>
+      </c>
+      <c r="G163" t="s">
+        <v>321</v>
+      </c>
+      <c r="H163" t="s">
+        <v>344</v>
+      </c>
+      <c r="I163" t="s">
+        <v>391</v>
+      </c>
+      <c r="J163" t="s">
+        <v>395</v>
+      </c>
+      <c r="K163" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="1">
+        <v>1203</v>
+      </c>
+      <c r="B164" t="s">
+        <v>161</v>
+      </c>
+      <c r="C164" t="s">
+        <v>169</v>
+      </c>
+      <c r="D164" t="s">
+        <v>235</v>
+      </c>
+      <c r="E164" t="s">
+        <v>252</v>
+      </c>
+      <c r="F164" t="s">
+        <v>305</v>
+      </c>
+      <c r="G164" t="s">
+        <v>339</v>
+      </c>
+      <c r="H164" t="s">
+        <v>344</v>
+      </c>
+      <c r="I164" t="s">
+        <v>391</v>
+      </c>
+      <c r="J164" t="s">
+        <v>395</v>
+      </c>
+      <c r="K164" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="1">
+        <v>1205</v>
+      </c>
+      <c r="B165" t="s">
+        <v>162</v>
+      </c>
+      <c r="C165" t="s">
+        <v>168</v>
+      </c>
+      <c r="D165" t="s">
+        <v>184</v>
+      </c>
+      <c r="E165" t="s">
+        <v>252</v>
+      </c>
+      <c r="F165" t="s">
+        <v>261</v>
+      </c>
+      <c r="G165" t="s">
+        <v>327</v>
+      </c>
+      <c r="H165" t="s">
+        <v>351</v>
+      </c>
+      <c r="I165" t="s">
+        <v>390</v>
+      </c>
+      <c r="J165" t="s">
+        <v>338</v>
+      </c>
+      <c r="K165" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="1">
+        <v>1209</v>
+      </c>
+      <c r="B166" t="s">
         <v>163</v>
       </c>
-      <c r="E91" t="s">
+      <c r="C166" t="s">
+        <v>169</v>
+      </c>
+      <c r="D166" t="s">
+        <v>248</v>
+      </c>
+      <c r="E166" t="s">
+        <v>251</v>
+      </c>
+      <c r="F166" t="s">
+        <v>318</v>
+      </c>
+      <c r="G166" t="s">
+        <v>322</v>
+      </c>
+      <c r="H166" t="s">
+        <v>343</v>
+      </c>
+      <c r="I166" t="s">
+        <v>391</v>
+      </c>
+      <c r="J166" t="s">
+        <v>391</v>
+      </c>
+      <c r="K166" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="1">
+        <v>1225</v>
+      </c>
+      <c r="B167" t="s">
         <v>164</v>
       </c>
-      <c r="F91" t="s">
-        <v>202</v>
-      </c>
-      <c r="G91" t="s">
-        <v>234</v>
-      </c>
-      <c r="H91" t="s">
-        <v>282</v>
-      </c>
-      <c r="I91" t="s">
-        <v>285</v>
-      </c>
-      <c r="J91" t="s">
-        <v>221</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="C167" t="s">
+        <v>169</v>
+      </c>
+      <c r="D167" t="s">
+        <v>193</v>
+      </c>
+      <c r="E167" t="s">
+        <v>252</v>
+      </c>
+      <c r="F167" t="s">
+        <v>270</v>
+      </c>
+      <c r="G167" t="s">
         <v>321</v>
+      </c>
+      <c r="H167" t="s">
+        <v>357</v>
+      </c>
+      <c r="I167" t="s">
+        <v>391</v>
+      </c>
+      <c r="J167" t="s">
+        <v>340</v>
+      </c>
+      <c r="K167" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="1">
+        <v>1235</v>
+      </c>
+      <c r="B168" t="s">
+        <v>165</v>
+      </c>
+      <c r="C168" t="s">
+        <v>170</v>
+      </c>
+      <c r="D168" t="s">
+        <v>194</v>
+      </c>
+      <c r="E168" t="s">
+        <v>252</v>
+      </c>
+      <c r="F168" t="s">
+        <v>278</v>
+      </c>
+      <c r="G168" t="s">
+        <v>323</v>
+      </c>
+      <c r="H168" t="s">
+        <v>358</v>
+      </c>
+      <c r="I168" t="s">
+        <v>392</v>
+      </c>
+      <c r="J168" t="s">
+        <v>392</v>
+      </c>
+      <c r="K168" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="1">
+        <v>1236</v>
+      </c>
+      <c r="B169" t="s">
+        <v>166</v>
+      </c>
+      <c r="C169" t="s">
+        <v>169</v>
+      </c>
+      <c r="D169" t="s">
+        <v>249</v>
+      </c>
+      <c r="E169" t="s">
+        <v>252</v>
+      </c>
+      <c r="F169" t="s">
+        <v>319</v>
+      </c>
+      <c r="G169" t="s">
+        <v>334</v>
+      </c>
+      <c r="H169" t="s">
+        <v>388</v>
+      </c>
+      <c r="I169" t="s">
+        <v>391</v>
+      </c>
+      <c r="J169" t="s">
+        <v>395</v>
+      </c>
+      <c r="K169" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="1">
+        <v>1237</v>
+      </c>
+      <c r="B170" t="s">
+        <v>167</v>
+      </c>
+      <c r="C170" t="s">
+        <v>168</v>
+      </c>
+      <c r="D170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E170" t="s">
+        <v>252</v>
+      </c>
+      <c r="F170" t="s">
+        <v>302</v>
+      </c>
+      <c r="G170" t="s">
+        <v>333</v>
+      </c>
+      <c r="H170" t="s">
+        <v>389</v>
+      </c>
+      <c r="I170" t="s">
+        <v>390</v>
+      </c>
+      <c r="J170" t="s">
+        <v>390</v>
+      </c>
+      <c r="K170" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/output/錯誤型態彙整.xlsx
+++ b/output/錯誤型態彙整.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="323">
   <si>
     <t>45A</t>
   </si>
@@ -49,25 +49,16 @@
     <t xml:space="preserve">  COMMODITY DPHP TOTAL QUANTITY 16MTS UNIT PRICE USD2400MT TRADE TERMS CIF HAIPHONG PORT VIETNAM INCOTERMS 2010 ORIGIN TAIWAN PACKING IN 200KGS DRUM 80DRUMS PER 1 X 20FCLDETAILS AS PER SALES CONTRACT NN1962 DATED SEP 14TH 2021 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 16 MTS OF PROPYLENE COPOLYMER GRADE NOT8002AT PRICE USD 175000 PER MTAS PER PI NO S9022DD SEP132021TERMS OF DELIVERYCIF SOKHNA SEAPORTEGYPT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50 MTS PROPYLENE COPOLYMER GRADE NO K4715AS PER SALES CONTRACT NO W9009B DATE 792021CIF LAEMCHABANG THAILAND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  COMMODITY POLYPROPYLENE RESIN GRADE   QUANTITY  UNIT PRICE       KGS  USDKG B1101   48000   130 TOTAL AMOUNT USD6240000 ORIGIN  TAIWAN MAKER  FORMOSA CHEMICALS AND FIBRE CORP TRADE TERM CIF ANY PORT IN HOCHIMINH CITY VIETNAM   INCOTERMS 2020 PACKING IN STANDARD EXPORT PACKING </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 750000 BARRELS PLUSMINUS 10 PCT OF GASOIL 10PPM SULPHURFOB MAILIAO TAIWAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 300000 BBLS 10PCT OF GASOIL 005PCT SCOUNTRY OF ORIGIN TAIWANTERMS OF PRICE FOB MAILIAOTAIWANUNIT PRICE THE FOB MAILIAOTAIWAN PRICE IN USD PER BBLFOB PRICE EQUAL TO X MINUS USD164 PER BARRELWHERE X EQUAL TO THE WHOLE MONTH ARITHMETIC AVERAGE OF NOVEMBER2021 MEAN OF PLATTS FOR GASOIL 10PPMS UNDER THE HEADINGSINGAPOREPUBLISHED IN THE PLATTS ASIA PACIFICARAB GULFMARKETSCAN OF PLATTS QUOTATIONSIN THE EVENT THAT THE FINAL PRICE IS NOT KNOWN BEFORE LCNEGOTIAION PAYMENT WILL BE EFFECTED AGAINST THE PROVISIONALINVOICE PROVIDED BY THE SELLER SUCH PROVISIONAL PRICE SHALL BEBASED ON THE ABOVE PRICE CLAUSE WITH ALL AVAILABLE QUOTATIONSAT THE TIME OF INVOICINGWHEN THE FINAL PRICE IS KNOWN THE DIFFERENCE OF THE ACTUALAMOUNT AND THE PROVISIONAL AMOUNT IS TO BE SETTLED OUTSIDETHE IRREVOCABLE DOCUMENTARY LETTER OF CREDIT BETWEENBENEFICIARY AND APPLICANT BY TELEGRAPHIC TRANSFER PAYMENTWITHIN FIVE 5 NEW YORK BANKING DAYS UPON THE RECEIPT OFSUCH FINAL SETTLEMENT INVOICE BY THE APPLICABLE PARTYTHE PROVISIONALFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3DECIMAL PLACESWITH THE THIRD DECIMAL PLACE TO BE INCREASED TOTHE NEXT DIGIT WHENEVER THE FOURTH DECIMAL PLACE IS FIVE ORGREATER THAN FIVEANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNT </t>
+    <t xml:space="preserve"> GLASS FABRICSCIF JAPANESE PORTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY  MONOETHYLENE GLYCOL MEG FIBER GRADEQUANTITY 2000 MTSUNIT PRICE USD75000MTPACKING  IN BULKORIGIN  TAIWANCFR ANY PORT IN CHINA INCOTERMS 2010 </t>
   </si>
   <si>
     <t xml:space="preserve"> 32000 KGS EPOXIDIZED SOYBEAN OILESBO 132 IN DRUMAT USD 170KGTOTAL AMOUNT  USD 5440000TYPE OF GOODS EPOXIDIZED SOYBEAN OILQUALITY OF GOODS IN GOOD QUALITYPO NO   POTUIM21IX212COUNTRY OF ORIGIN TAIWANSHIPPING TERMS  CIF TANJUNG PERAK SURABAYA </t>
   </si>
   <si>
-    <t xml:space="preserve"> FOB ANY SEAPORT IN TAIWANEVA 7350M VIRGIN RESIN 25MT AT USD257000MT </t>
+    <t xml:space="preserve"> PP SHEET 0104 RIGID PVC 0506 AS PER PO 20211516 C I F SINGAPORE </t>
   </si>
   <si>
     <t xml:space="preserve"> TAIRILIN BRAND PET CHIPS B GRADEJNNC7 57000KGSFCA ANY TAIWANESE PORT </t>
@@ -76,31 +67,22 @@
     <t xml:space="preserve"> TERMS OF PRICE FOB OR FCA TAIWANCOUNTRY OF ORIGIN TAIWAN BUYER ATHLETA PROFORMA INVOICE NOATHB1145001145T00 ATHB114500PP1145T00PPFABRICS ORDER </t>
   </si>
   <si>
-    <t xml:space="preserve"> PROPYLENE COPOLYMERGRADE NOK7005AGTOTAL QUANTITY 322000 KGTOTAL AMOUNT USD 457240FOB ANY TAIWAN PORT </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 113652 KGS NYLON 6 HIGH TENACITY FILAMENT YARN 1260D210F ASPER PO 172552 DT 25092021 AND PI NO 5V09241 DT 24092021HS CODE 54021910 INCOTERMS 2010 CIF CHENNAI PORT INDIA </t>
   </si>
   <si>
-    <t xml:space="preserve"> PURIFIED ISOPHTHALIC ACIDQTY100 MT PRICEUSD 1120 MTAS PER SALES CONTRACT NOSAE11 DATED 24SEP2021INCOTERMS 2020 CIF NHAVA SHEVA INDIA </t>
+    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 1 X 20 FCL CONSISTING OF 20 MTS OF POM FM090 AT USD2450MT USD4900000 HS CODE 39071000INCOTERMS 2010 </t>
   </si>
   <si>
     <t xml:space="preserve"> EPOXIDIZED SOYABEAN OIL ESO132X QUANTITY 18MTALL OTHER DETAILS ARE AS PER BENEFICIARYS PROFORMA INVOICENONE91209 DATED 15 SEPTEMBER 2021CIF JEBEL ALI PORT UAE </t>
   </si>
   <si>
+    <t xml:space="preserve"> TERMS OF PRICE CIF TORONTO CANADACOUNTRY OF ORIGIN TAIWANTETRAHYDROFURAN 2880MTPACKING 180KGS NET STEEL DRUMTOTAL PACK 80 DRUMS WITH IPPC PALLETS IN 20FCL </t>
+  </si>
+  <si>
     <t xml:space="preserve"> QTY 14364 KGSNYLON 6 FILAMENT YARN 170D24F SEMI DULL RAW WHITE ON CHEESEAS PER PO NO 5V09272 DT 27092021TERMS OF SALE CIF NHAVA SHEVA SEAPORT INDIA INCOTERMS 2020 </t>
   </si>
   <si>
-    <t xml:space="preserve"> ACETO NITRILE ASSAY MIN 99 PCT MIN MAKE FORMOSA PLASTICSCORPORATION QTY 255000 KGS AT THE RATE USD 390 KG AS PERINDENT NO PA13845 DT 27092021 AND PO NO 1570420023 DT24092021 CIF VIZAG INDIA BY SEA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ACETO NITRILE ASSAY MIN 99 PCT MIN MAKE FORMOSA PLASTICSCORPORATION QTY 170000 KGS AT THE RATE USD 395 KG AS PERINDENT NO PA13844 DT 27092021 AND PO NO 1530422166 DT23092021 CIF VIZAG INDIA BY SEA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMODITY AND  QUANTITY UNIT PRICE  TOTAL AMOUNTDESCRIPTION  COPOLYMER   20800  130000  27040000PROPYLENE GRADE K8009TOTAL    20800     27040000CIF HAIPHONG PORT VIETNAM AS INCOTERMS 2010PACKING IN EXPORTPACKING STANDARDORIGIN TAIWANALL OTHER DETAILS ARE AS PER CONTRACT NO 202109131MTHN DATEON 29092021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 300000 BBLS 10PCT OF GASOIL 10PPMCOUNTRY OF ORIGIN TAIWANTERMS OF PRICE FOB MAILIAOTAIWANUNIT PRICE THE FOB MAILIAOTAIWAN PRICE IN USD PER BBLFOB PRICE EQUAL TO X MINUS USD023 PER BARRELWHERE X EQUAL TO THE WHOLE MONTH ARITHMETIC AVERAGE OF NOVEMBER2021 MEAN OF PLATTS FOR GASOIL 10PPMS UNDER THE HEADINGSINGAPOREPUBLISHED IN THE PLATTS ASIA PACIFICARAB GULFMARKETSCAN OF PLATTS QUOTATIONSIN THE EVENT THAT THE FINAL PRICE IS NOT KNOWN BEFORE LCNEGOTIAION PAYMENT WILL BE EFFECTED AGAINST THE PROVISIONALINVOICE PROVIDED BY THE SELLER SUCH PROVISIONAL PRICE SHALL BEBASED ON THE ABOVE PRICE CLAUSE WITH ALL AVAILABLE QUOTATIONSAT THE TIME OF INVOICINGWHEN THE FINAL PRICE IS KNOWN THE DIFFERENCE OF THE ACTUALAMOUNT AND THE PROVISIONAL AMOUNT IS TO BE SETTLED OUTSIDETHE IRREVOCABLE DOCUMENTARY LETTER OF CREDIT BETWEENBENEFICIARY AND APPLICANT BY TELEGRAPHIC TRANSFER PAYMENTWITHIN FIVE 5 NEW YORK BANKING DAYS UPON THE RECEIPT OFSUCH FINAL SETTLEMENT INVOICE BY THE APPLICABLE PARTYTHE PROVISIONALFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3DECIMAL PLACESWITH THE THIRD DECIMAL PLACE TO BE INCREASED TOTHE NEXT DIGIT WHENEVER THE FOURTH DECIMAL PLACE IS FIVE ORGREATER THAN FIVEANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNT </t>
+    <t xml:space="preserve"> COMMODITY MONOETHYLENE GLYCOL MEG FIBER GRADEQUANTITY 1000 MTSUNIT PRICE USD810MTPACKING  IN BULKORIGIN TAIWANTRADE TERM CFR ANY PORT IN CHINA </t>
   </si>
   <si>
     <t xml:space="preserve"> 54 MT OF EPOXIDIZED SOYBEAN OIL ESO132 AT USD1660MTRNTRADE TERMSCIF CAT LAI PORT HOCHIMINH CITY VIETNAM </t>
@@ -109,30 +91,18 @@
     <t xml:space="preserve"> POLYPROPYLENE RESIN YUNGSON 300516 MT AT USD1340MTTRADE TERM CIF HONG KONGFOR SHIPMENT TO HONG KONGETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3040C25 MT AT USD1345MTTRADE TERM CIF DONGGUAN CHINAFOR SHIPMENT TO DONGGUAN CHINA </t>
   </si>
   <si>
-    <t xml:space="preserve"> GLASS EPOXY COPPER CLAD LAMINATE PROF INV DATE 09082021 PO NO PO202200660INCO TERMS 2010CIFNHAVA SHEVA SEA PORT INDIA </t>
+    <t xml:space="preserve"> COMMODITY  MONOETHYLENE GLYCOL MEG FIBER GRADEQUANTITY 2000 MTSUNIT PRICE USD81000MTPACKING  IN BULKORIGIN  TAIWANCFR ANY PORT IN CHINA </t>
   </si>
   <si>
     <t xml:space="preserve"> 32472 KGS NYLON 6 HIGH TENACITY FILAMENT YARN 1260D210F AS PERPO NO 172630 DT 27092021 AND PI NO 5V09242 DT 24092021HS CODE 54021910 INCOTERMS 2010 CIF CHENNAI PORT INDIA </t>
   </si>
   <si>
-    <t xml:space="preserve"> POLYETHYLENE TEREPHTHALATE FILM PRICE TERMS CIF SHEKOUCHINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 1 X 20 FCL CONSISTING OF 16 MTS OF PPCO 3015 AT USD1300MT USD2080000 HS CODE 39021040INCOTERMS 2010TERMS CIF HAIPHONG VIETNAM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PP1202F 1575 MT AT USD1250MTPP2020S 225 MT AT USD1260MTFOB ANY TAIWAN PORT </t>
-  </si>
-  <si>
     <t xml:space="preserve"> PRODUCT METHACRYLATE ACIDQUANTITY 1560000 KGSAS PER PROFORMA INVOICE DATED 27SEP2021CIF NHAVA SHEVA SEA PORT INDIA INCOTERMS 2010 </t>
   </si>
   <si>
     <t xml:space="preserve"> TAIRILIN BRAND PET CHIPS B GRADEJNNC 1710000KGSFCA ANY TAIWANESE PORT </t>
   </si>
   <si>
-    <t xml:space="preserve"> 25 MTS POLYPROPYLENE RESIN GRADE NO K1023CIF LAEMCHABANG THAILAND </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2 ETHYL HEXANOL 2EH QUANTITY 2000 MT 1 ISO TANK AT RATE USD 232000 PER MT INCOTERMS 2020CIF MUNDRA PORTINDIAAS PER APPLICANT PONO202122EIPLIMPWRR59B DATED 29092021 AND AS PER PROFORMA INVOICE NO NK1975 DATED 28092021 OF THE BENEFICIARY </t>
   </si>
   <si>
@@ -145,45 +115,39 @@
     <t xml:space="preserve"> EPOXY RESIN NPEL127HBENEFICIARY MUST CERTIFY ON INVOICES THAT THE GOODS AND ALLOTHER DETAILS ARE EXACTLY AS PER APPLICANTS PURCHASE ORDERNOO12000953 AND BENEFICIARY PI NUMBER PF0922INCO TERMS 2020 CIF DAMMAM SAUDI ARABIA </t>
   </si>
   <si>
-    <t xml:space="preserve"> POLYPROPYLENE RESIN GRADE NOK1000QUANTITY39395MT UNIT PRICEUSD118000MTPACKINGIN 25KG BAGSORIGINTAIWANPRICE TERM CIF NINGBOCHINA </t>
-  </si>
-  <si>
     <t xml:space="preserve"> OTHERS </t>
   </si>
   <si>
+    <t xml:space="preserve"> GLASS FABRICSNCIF JAPANESE PORT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMODITY PURIFIED TEREPHTHALIC ACID QUANTITY 1600 MTS UNIT PRICE USD690MT TOTAL AMOUNT USD110400000 COUNTRY OF ORIGIN TAIWAN PACKING 20 MTS PER 20 CONTAINER TRADE TERM CIF CAT LAI PORT HOCHIMINH CITY VIETNAM </t>
+  </si>
+  <si>
     <t xml:space="preserve"> GLASS FABRICSCIF JAPANESE MAIN PORT </t>
   </si>
   <si>
-    <t xml:space="preserve"> POLYPROPYLENE RESIN GRADE NOB1101QUANTITY 500MTSUNIT PRICE USD127000MTCONTRACT NO S9031TOTAL AMOUNT USD63500000PRICE TERM CIF QINGDAO PORT CHINAPACKING 25KGSBAG </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 60MT OF PROPYLENE COPOLYMER GRADE NO K8095 AT USD 2010MTPRICE BASIS CFR HAIFA PORTINCOTERMS 2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1512MT OF PROPYLENE COPOLYMER GRADE K8050 AT USD 1820MTPRICE BASIS CFR ANY PORT IN CANADA INCOTERMS2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CIF CAT LAI HO CHI MINH PORT VIETNAMPVC SUSPENSION RESIN S60 QTY4080MTS UPUSD1400MTPVC SUSPENSION RESIN S65 QTY7920MTS UPUSD1400MTPVC SUSPENSION RESIN S60 QTY3120MTS UPUSD1410MTPACKING25KGS IN PP BAG WITH PALLET </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 14 BUNTANEDIOL QTY 6000 MT AT THE RATE USD 460000MTSAS PER PO NO7540000391 DATED 06OCT2021INCOTERMS 2020 CIF NHAVA SHEVA INDIA </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1 95 MT OF PROPYLENE COPOLYMER GRADE K9030 AT USD 1970MT2 952 MT OF PROPYLENE COPOLYMER GRADE K8050 AT USD 1950MTINCOTERMS 2020 CFR LONG BEACH PORTUSAGOODS OF TAIWAN ORIGIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 952 MT OF PROPYLENE COPOLYMER GRADE K8050 AT USD 1950 PER MTPRICE BASIS CFR ANY PORT IN USA INCOTERMS 2010 </t>
+    <t xml:space="preserve"> 1 COMMODITY POLYPROPYLENE GRADE K10112 QUANTITY 4800 MTS 3 UNIT PRICE USD133000MT4 TOTAL AMOUNT USD6384000 5 TRADE TERMS CIF HAIPHONG PORT VIETNAM 6 PACKING IN EXPORT PACKING STANDARD7 ORIGIN TAIWAN8 OTHER TERMS AND CONDITIONS AS PER CONTRACT NO 202110137MTHNDATE 06102021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 1 X 20 FCL CONSISTING OF 20 MTS OF POM FM090 AT USD2510MT USD5020000INCOTERMS 2010 </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITY BPA BISPHENOLAQUANTITY 510MTSCONTRACT NO 4500294162TOTAL VALUE USD183600000PRICE TERM CIF YANTAI PORT CHINA INCOTERMS 2010 EDITIONS </t>
   </si>
   <si>
+    <t xml:space="preserve"> COPPER CLAD LAMINATEAS PER PROFORMA INVOICE NOTDPI211004 DATE 04OCT2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITYMONOETHYLENE GLYCOLMEG FIBER GRADEUNIT PRICEUSD92000MTPRICE TERMCFR SHENHU QUANZHOUCHINAQUANTITY300000MTTOTAL AMOUNTUSD276000000ORIGINTAIWAN </t>
+  </si>
+  <si>
     <t xml:space="preserve"> EPOXIDIZED SOYABEAN OIL ESO132XQUANTITY 36MTALL OTHER DETAILS AS PER BENEFICIARYS PROFORMA INVOICE NONE91225 DATED 28092021SHIPMENT TERMS CIF JEBEL ALI SEAPORT DUBAI UAE INVOICE TOCERTIFY THE SAME </t>
   </si>
   <si>
-    <t xml:space="preserve"> CIF LONG BEACH OR LOS ANGELES CALIFORNIA USA5118 SHEETS OF COPPER CLAD LAMINATE MATERIALSCERTIFYING THAT MERCHANDISE HAS BEEN MARKED IN ACCORDANCE WITHAPPLICABLE CUSTOMS REGULATIONS AND IS IN ACCORDANCE WITH PURCHASEORDER NUMBER FCT91328 AND INDICATING FOB VALUE FREIGHT CHARGESAND INSURANCE </t>
-  </si>
-  <si>
     <t xml:space="preserve"> POLYESTER STAPLE FIBER QUANTITY 23000 KGS 4D X 51MM LOW MELT USD 156 PER KG CFR KARACHI AS PER BENEFICIARYS PROFORMA INVOICE REF NO NA178 DATED 13102021 </t>
   </si>
   <si>
@@ -202,51 +166,30 @@
     <t xml:space="preserve"> NO DESCRIPTION OF GOODS      QTY SHEET1 LAMINATE FR4 038MM 22 SIZE 1045 X 1245MM NP155F 2002 LAMINATE FR4 038MM 33 SIZE 1092 X 1245MM NP155F 1003 LAMINATE FR4 035MM 22 SIZE 940 X 1245MM HSINK   NP175FBH      24004 LAMINATE FR4 150MM HH SIZE 681 X 1245MM TG150   NP155FR       14405 LAMINATE FR4 035MM 22 SIZE 940 X 1245MM HSINK   NP175FBH      35006 LAMINATE FR4 046MM 22 SIZE 1092 X 1245MM TG150   NP155F       17007 LAMINATE FR4 046MM 22 SIZE 1092 X 1245MM TG150   NP155F       40008 LAMINATE FR4 071MM 11 SIZE 1092 X 1245MM HSNK   NP175FBH       1009 LAMINATE FR4 160MM HH SIZE 940 X 1245MM   NP175FBH       100ALL DETAILS AS PER PO 134115726413411575041341156829 AND1341157171NO DESCRIPTION OF GOODS      QTY ROLL1 PREPREG7628 RC45 SIZE 1250MM X 150M TG150 NPG151B  202 PREPREG2116HR RC60 SIZE 1250MM X 200M NP155FB   53 PREPREG2116MR RC54 SIZE 1250MM X 300M NP140B   94 PREPREG2116 RC56 SIZE 1250MM X 300M TG150 NPG151B  135 PREPREG2116 RC60 SIZE 1250MM X 200M HSINKNP175FBH  166 PREPREG7628 RC43 SIZE 1250MM X 150M NP140B   97 PREPREG7628 RC49 SIZE 1250MM X 150M TG150 NP155FB  78 PREPREG7628 RC49 SIZE 1250MM X 150M TG150 NPG151B  19 PREPREG7628 RC52 SIZE 1250MM X 150M HSINKNP175FBH  5110 PREPREG2116 RC56 SIZE 1250MM X 300M NP155FB   3611 PREPREG2116 RC60 SIZE 1250MM X 200M HSINKNP175FBH  1612 PREPREG7628 RC52 SIZE 1250MM X 150M HSINKNP175FBH  1813 PREPREG2116 RC56 SIZE 1250MM X 300M NP155FB   24ALL DETAILS AS PER PO 134115717013411572951341157294 AND1341156939CIF LAEMCHABANG DELIVERY TO ICD LATKRABANG INCOTERMS 2020 </t>
   </si>
   <si>
+    <t xml:space="preserve"> POLYESTER FILM PO NAKNQPRICE TERMS CIF HAIPHONG VIETNAMWITH CONTAINER SHIPMENT </t>
+  </si>
+  <si>
     <t xml:space="preserve"> BASE OIL 380N 800MT 5 PCT AT 1203 USDMTBASE OIL 380N 300MT 5 PCT AT ICIS PRICING GII 500NFOB NE ASIA MEAN 78 USDMTPACKING IN BULKFOB MAILIAO TAIWAN </t>
   </si>
   <si>
-    <t xml:space="preserve"> FOB ANY SEAPORT IN TAIWANEVA 7350M VIRGIN RESIN 50MT AT USD350500MT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 100000 KGS OF PP SHEET RIGID PVC SHEET APET FILM PET FILM PP FILM PP SYNTHETIC PAPER2 80000 PCS OF RIGID PVC PLATE RIGID PVC SHEET3 100000 KGS OF BOPP FILM SYNTHETIC PAPER4 800000 SM OF PP SYNTHETIC PAPER PP FILM BOPP FILM SYNTHETIC PAPER5 800000 M2 OF PP FILM PP SHEET BOPP FILM SYNTHETIC PAPER PP SYNTHETIC PAPERCIF HONG KONG10 MORE OR LESS IN QUANTITY PER ITEM SHIPPED ALLOWED </t>
-  </si>
-  <si>
     <t xml:space="preserve"> NYLON 6 HIGH TENACITY YARNN8800 KGSNAS PER PROFORMA INVOICE NO 5V10143 DATED 15 OCT 2021NDELIVERY TERMS CIF GENOVA PORT ITALYNICCINCOTERMSR2020 </t>
   </si>
   <si>
-    <t xml:space="preserve"> POLYETHYLENE TEREPHTHALATE FILM SC NAKNP DATED 2021930INCOTERMS 2010TERMS CIF HAIPHONG VIETNAM </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EPOXIDIZED SOYBEAN OILESO132XQUANTITY 1600 MTSAT THE RATE OF USD 203500 PER MTSPECIFICATIONS AND FURTHER DETAILS ARE AS PERINDENT NO 2170821 DATED OCT 15 2021ISSUED BY TRANS CONTINENTAL AGENCIESKARACHI PAKISTANCFR KARACHI SEAPORT PAKISTAN INCOTERMS 2020 </t>
   </si>
   <si>
     <t xml:space="preserve"> 1600 MT EPOXIDIZED SOYBEAN OIL ESO132X AT THE RATE OF USD 202000 PER MTCFR KARACHI PORT PAKISTAN AS PERINDENT NO 2169421 DATED 14102021 </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF SEMARANG INDONESIA1 5 X 20 FCL CONSISTING OF 80 MTS OF PPCO 3015 AT USD1365MT USD10920000 HS CODE 3902100090INCOTERMS 2010 </t>
+    <t xml:space="preserve"> ITEM     QUANTITY UNIT PRICE AMOUNT      KG  USDKG USD      10   10PSF 4D X 51MM LOW MELT  115000 128  14720000 PACKING 270 10 KGBAG TOTAL AMOUNT USD14720000 10 TRADE TERMSCIF CAT LAI PORT HOCHIMINH CITY VIETNAM INCOTERM 2010 ORIGIN TAIWAN OTHER TERMS AND CONDITIONS AS PER PURCHASE AND SALE CONTRACT NON9189 DATED 29 SEP 2021 </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITY HDPE 8010QUANTITY225MTSUNIT PRICEUSD121000MTPRICE TERM FOB ANY PORT OF TAIWANGOODS ORIGIN TAIWANPACKING 25KG PER BAG BY MANUFACTURERMANUFACTURERFORMOSA </t>
   </si>
   <si>
-    <t xml:space="preserve"> 50 MTS PROPYLENE COPOLYMER GRADE NO K4715AS PER SALES CONTRACT NO WA009 DATE 1102021CIF LAEMCHABANG THAILAND </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMODITYPVC RESINS60QUANTITY1085MTUNIT PRICEUSD1270MTPACKING25KGS IN PP WOVEN BAG WITH PE LAMINATEDHS CODE390410PRICE TERMS CIF CAT LAIVIETNAM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMODITY PVC RESIN S60QUANTITY 700MTSUNIT PRICE USD1220MTPACKING 25KGS IN PP WOVEN BAG WITH PE LAMINATEDCIF CAT LAI VIETNAM </t>
-  </si>
-  <si>
     <t xml:space="preserve"> CFR KARACHI SEAPORT PAKISTAN INCOTERMS 20201 QTY 6400 MTONS EPOXIDIZED SOYABEAN OIL ESO132X FOR PVCSYNTHETIC LEATHER INDUSTRY AT USD 202000 PER MTONCOMPLETE DETAILS AS PER INDENT NO 2170421 DATED15OCTOBER2021 OF MS TRANSCONTINENTAL AGENCIES KARACHIPAKISTAN </t>
   </si>
   <si>
-    <t xml:space="preserve"> POLYPROPYLENE RESIN GRADE NOT1002QUANTITY 25MTSUNIT PRICE USD137500MTCONTRACT NO SA020TOTAL AMOUNT USD3437500PRICE TERM CIF QINGDAO PORT CHINAPACKING 25KGSBAG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  COMMODITY POLYPROPYLENE RESIN GRADE   QUANTITY  UNIT PRICE       KGS  USDKG T2502   24000   136 TOTAL AMOUNT USD3264000 ORIGIN  TAIWAN MAKER  FORMOSA CHEMICALS AND FIBRE CORP TRADE TERM CIF ANY PORT IN HOCHIMINH CITY VIETNAM   INCOTERMS 2020 PACKING IN STANDARD EXPORT PACKING </t>
-  </si>
-  <si>
     <t xml:space="preserve"> GLASS EPOXY COPPER CLAD LAMINATESAS PER PROFORMA INVOICE NOIMP21220107 DT 26082021HS CODE 74091900TRADE TERMSCIP BANGALORE ICDINDIAAS PER INCOTERM 2010 </t>
   </si>
   <si>
@@ -256,18 +199,18 @@
     <t xml:space="preserve"> 1600 MT OF EPOXIDIZED SOYBEAN OILAT THE RATE OF USD 203000 PER MTCFR KARACHI SEA PORT PAKISTAN DETAIL AS PER BENEFICIARYS PROFORMA INVOICE NO 2167321 DATED 12102021 </t>
   </si>
   <si>
+    <t xml:space="preserve"> COPPER CLAD LAMINATEAS PER PROFORMA INVOICE NO TDPI211019 DATE 19OCT2021 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> FOB ANY PORT IN TAIWANEVA 7470M PRIME VIRGIN 15MT AT USD320500MT </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITYPVC RESINS60665MTUNIT PRICEUSD1220MT CIF CAT LAIVIETNAMPACKING25 KGS IN PP WOVEN BAG WITH PE LAMINATEDHS CODE390410 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32MTS OF PVC SUSPENSION S65 AT USD1660MTTOTAL AMOUNT USD5312000PACKING 25KGS IN PP WOVEN BAG WITHOUT PALLETCIF CAT LAI PORT VIETNAM </t>
-  </si>
-  <si>
     <t xml:space="preserve"> CIF TOKYOJAPANPOLYETHYLENE TEREPHTHALATE PET RESINDETAILS AS FOLLOWS  CURRENCY USD UNIT MTCOMMODITY   UNIT PRICE QUANTITY  AMOUNTPET RESIN TYPE 3802  1075  315 33862500      TOTAL QUANTITY TOTAL AMOUNT        315 33862500 </t>
   </si>
   <si>
+    <t xml:space="preserve"> 20 MT POLYACETAL RESIN FORMOCON FM270 AT THE RATE OFUSD3095 PER MT CFR KEAMARI PORT KARACHIAS PER INDENT NO21105621 DATED 25102021OF MS TRANSCONTINENTAL AGENCIES KARACHI PAKISTAN </t>
+  </si>
+  <si>
     <t xml:space="preserve"> COVERING 100 PERCENT OF INVOICE VALUE OF GOODS ANDOR SERVICESDESCRIBED ASABS RESINS REF PO 45680358GRADE NO AE8000 21 MTGRADE NO ANC100 BLACK 2 MTGRADE NO AC2501AF 1 MTCIF VANCOUVER CANADA INCOTERMS 2020 </t>
   </si>
   <si>
@@ -286,22 +229,13 @@
     <t xml:space="preserve"> TERMS OF SALE CIF NHAVA SHEVA PORT INDIAGLACIAL ACRYLIC ACID TOTAL 1 FCL 1600 MTS 1 FCL 1600MTS IS EQUAL TO 80 DRUMS X 200 KGSAS PER SALES CONTRACT NO 12D1B001 DATED 28092021 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 25 MTS PROPYLENE COPOLYMER GRADE NO K1525AS PER SALES CONTRACT NO WA010 DATE 1102021CIF LAEMCHABANG THAILAND </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25 MTS PROPYLENE COPOLYMER GRADE NO K7025AS PER SALES CONTRACT NO WA012 DATE 01102021CIF LAEMCHABANG THAILAND </t>
-  </si>
-  <si>
     <t xml:space="preserve"> TERMS OF SALE CIF NHAVA SHEVA PORT INDIA288 MT OF PHTHALIC ANHYDRIDE AT USD 1230 PER MTAS PER PROFORMA INVOICE NO NP1A63 DATED 26OCT2021 </t>
   </si>
   <si>
     <t xml:space="preserve"> COUNTRY OF ORIGIN TAIWANPRICE TERMS CIF SOUTH KOREA ANY PORTNANYA PRODUCTSPVC CLEAR RIGID SHEET AND ANOTHER ITEMSINVOICE NO PI20211026 </t>
   </si>
   <si>
-    <t xml:space="preserve"> COPPER CLAD LAMINATE AND PREPREGCIF PASIR GUDANGMALAYSIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PRODUCT PROCESS OIL 70NPRICING 200MT 5PCTAT ICIS PRICING GII 150N FOB NE ASIA MEAN 0 USDMTPACKING IN FLEXIBAGTHE PRICING WEEK OF THE LOADING MONTH M IS THE WEEK OFPREVIOUS ONE MONTH M1 THAT 20TH DATE LIES INFOR INSTANCE THE PRICING WEEK FOR 2020FEBRUARYSLIFTING IS THE WEEK OF JANUARY 20TH 2020IN CASE THERE IS NO ICIS QUOTATION PUBLISHED IN THE PRICINGWEEK THEN THE LATEST EFFECTIVE ICIS QUOTATION PRECEDINGTHE PRICING WEEK IS AUTOMATICALLY APPLIEDTHE WEEK DEFINITION IS FROM SUNDAY 0000 HRS TO THE COMINGSATURDAY 2359 HRSANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONSSHALL BE TAKEN INTO ACCOUNTFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3 DECIMAL PLACESTRADE TERMFCA ANY PORT IN TAIWAN </t>
+    <t xml:space="preserve"> TERMS OF PRICE CFR189MT OF DOPAS PER PROFORMA INVOICE NO PI 87361 DD OCT192021MANUFACTURER NAN YA PLASTICS CORPORATIONORIGIN TAIWANFINAL DESTINATION UGANDA </t>
   </si>
   <si>
     <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERSPP COPOLYMER YUNGSOX 3080AT USD1320MTCIF SHANGHAI PORT CHINA </t>
@@ -313,25 +247,16 @@
     <t xml:space="preserve"> 48000 KGS OF EPOXYDIZED SOYBEAN OIL ESBO 132 IN DRUMAT USD 184KGIN GOOD QUALITYCONTRACTORDER NO POTUIM21X249CIF JAKARTAORIGIN COUNTRY TAIWAN </t>
   </si>
   <si>
-    <t xml:space="preserve"> QUANTITY 1000000MT 5PCT AT USD199000MTISO NONYL ALCOHOLPACKING IN BULKSPECIFIC GRAVITY MAX 0839FOB MAILIAO TAIWAN </t>
-  </si>
-  <si>
     <t xml:space="preserve"> COMMODITY TOTMQUANTITY 42MT 5PCT2FCLUNIT PRICE USD2480MTTOTAL AMOUNT USD 10416000 5PCT CIF HAI PHONG PORTVIETNAMORIGIN TAIWANTOLERANCE 5PCT OF TOTAL QUANTITY AND AMOUNT ARE ACCEPTABLE </t>
   </si>
   <si>
-    <t xml:space="preserve">  COMMODITY POLYPROPYLENE RESIN GRADE   QUANTITY  UNIT PRICE       KGS  USDKG B1101   48000   1435 TOTAL AMOUNT USD68880 ORIGIN  TAIWAN MAKER  FORMOSA CHEMICALS AND FIBRE CORP TRADE TERM CIF ANY PORT IN HOCHIMINH CITY VIETNAM   INCOTERMS 2020 PACKING IN STANDARD EXPORT PACKING </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SHIPMENT TERMSCIFJEBEL ALI UAEPRODUCT 1 PVC GRADE S65DQUANTITY 72 MTSUNIT PRICE USD 1940 PER MT PER VINMAR PO 471009901PACKING 25 KGS BAG WITH PALLET </t>
-  </si>
-  <si>
     <t xml:space="preserve"> CONTRACT 013522RN1X40FCL HQRN22000 KG TAIRILIN 7DX64MM HOLLOW CONJUGATE POLYESTER FIBERRNNONSILICONE SLICK TYPE 128 USDKGRN1X40FCL HQRN4000 KG TAIRILIN 2DX32MM HOLLOW CONJUGATE POLYESTER FIBERRNSILICONE TYPE 150 USDKGRN14000 KG TAIRILIN 7DX64MM HOLLOW CONJUGATE POLYESTER FIBERRNSILICONE TYPE 128 USDKGRN4000 KG TAIRILIN 7DX64MM HOLLOW CONJUGATE POLYESTER FIBERRNNONSILICONE SLICK TYPE 128 USDKGRNF O B ANY PORT IN TAIWAN </t>
   </si>
   <si>
     <t xml:space="preserve"> PRICE TERM C I F HONG KONGPA6 100PER CENT PRECONSUMER RECYCLED NYLON AA GRADEDTY 40D34FZ FD QTY 7680 KGS AT USD689KGAS PER PO NO POM210827030DTY 40D34FZ FD QTY 3024 KGS AT USD689KGAS PER PO NO POM210828001FDY 20D34F FD QTY 1712 KGS AT USD670KGAS PER PO NO POM210930040 </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 1 X 20 FCL CONSISTING OF 16 MTS OF PP 5090T AT USD1550MT USD2480000 HS CODE 39021040INCOTERMS 2010 </t>
+    <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 1 X 20 FCL CONSISTING OF 20 MTS OF POM FM090 AT USD2760MT USD5520000INCOTERMS 2010 </t>
   </si>
   <si>
     <t xml:space="preserve">  COMMODITY EPOXIDIZED SOYBEAN OIL ESO132X QUANTITY 32 MTS 5PCT UNIT PRICE USD184000MT AMOUNT USD5888000 5PCT ORIGIN TAIWAN PACKING 200KGS NET IN RECYCLED IRON DRUM WITHOUT PALLET MARKINGEPOXIDIZED SOYBEAN OIL ESO132XNW 200KGSMADE IN TAIWAN TRADE TERM CIF CAT LAI PORT HOCHIMINH CITY VIETNAMINCOTERMS 2020 </t>
@@ -340,31 +265,28 @@
     <t xml:space="preserve"> 20 MT DOAAT USD 230000MTTOTAL AMOUNT  USD 4600000TYPE OF GOODS LIQUIDHS NO   29171210CONTRACT NO  NL1A31COUNTRY OF ORIGIN TAIWANSHIPPING TERMS  CIF TANJUNG PRIOK JAKARTA </t>
   </si>
   <si>
-    <t xml:space="preserve"> CIF PORT KLANG MALAYSIA2000 MT 2 ETHYL HEXANOL AT USD 2080MT </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 TERMS CIF JAKARTA PORT INDONESIA INCOTERMS 20202 NAME OF GOODS FORMOLON C153 TYPE OF GOODS PVC COPOLYMER4 VOLUME OF GOODS 16000 KG5 QUALITY OF GOODS EXPORT QUALITY6 HS NUMBER 3904307 COUNTRY OF ORIGIN TAIWAN8 CONTRACT NO PO 2100955 PI NO A0L152 </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITY BPA BISPHENOLAQUANTITY 510MTSCONTRACT NO 4500299594TOTAL VALUE USD142800000PRICE TERM CIF YANTAI PORT CHINA INCOTERMS 2010 EDITIONS </t>
   </si>
   <si>
+    <t xml:space="preserve"> CFR ANY JAPANESE PORTRNABS AF3510 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> FOB ANY PORT IN TAIWANEVA 7350M PRIME GRADE 50MT AT USD350500MT </t>
   </si>
   <si>
+    <t xml:space="preserve"> POLYESTER FILM PO NBKNBPRICE TERMS CIF HAIPHONG VIETNAMWITH CONTAINER SHIPMENT </t>
+  </si>
+  <si>
     <t xml:space="preserve"> POLYESTER FILM PO NAKNMPRICE TERMS CIF SHEKOUCHINAWITH CONTAINER SHIPMENT </t>
   </si>
   <si>
-    <t xml:space="preserve"> TERMS OF PRICE FOB MAILIAO TAIWAN COUNTRY OF ORIGIN TAIWAN HS NO 2905310000 MONOETHYLENE GLYCOL FIBER GRADE PACKING IN BULK 3500000MT USD 74000MT USD 259000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> RESIN NPEL 128 QTY 38400 KGS AT USD 4880 PER KGCIF JEDDAH </t>
   </si>
   <si>
-    <t xml:space="preserve"> CIF HAIPHONG VIETNAMN2400 MTS OF PVC SUSPENSION RESIN S60 100 PERCENTAGE PVCNPACKING 25KGS IN PP WOVEN BAG WITH PE INNER BAG </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FOB ANY PORT IN TAIWANPP 1040F FORMOSA 50MT AT USD135000MT </t>
+    <t xml:space="preserve"> CIF JAPAN MAIN PORT OR AIRPORTGLASS FABRICS </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITYNAN YA RELEASE FILMPET L130CQUANTITY480RLUNIT PRICEUSD25200RLPRICE TERMCIF SHEKOU OR YANTIANCHINATOTAL VALUEUSD12096000 </t>
@@ -376,283 +298,235 @@
     <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY75MTSUNIT PRICEUSD138000MTPRICE TERMCIF SHANGHAICHINA </t>
   </si>
   <si>
-    <t xml:space="preserve"> 50 MTS PROPYLENE COPOLYMER GRADE NOK4715AS PER SALES CONTRACT NO WB004B DATE 22102021CIF LAEMCHABANG THAILAND </t>
+    <t xml:space="preserve"> COMMODITY MONOETHYLENE GLYCOL MEG FIBER GRADEQUANTITY 2000 MTSUNIT PRICE USD760MT PACKING IN BULKORIGIN TAIWANCFR ANY PORT IN CHINA </t>
   </si>
   <si>
     <t xml:space="preserve"> 1EVA 7350MQUANTITY 150 MTUNIT PRICE USD3435MT FOB TAIWANUNDER SALES CONTRACT H0FP08DETAILS ARE AS PER THE APPLICANTS SHIPPING INSTRUCTIONTRADE TERM FOB ANY PORT TAIWAN </t>
   </si>
   <si>
-    <t xml:space="preserve"> 10800 MTS PVC SUSPENSION RESIN S65DUNIT PRICE 186000 USD7000 MTS PVC MASS RESIN B57UNIT PRICE 186000 USDTOTAL AMOUNT 33108000PACKING 25KGS IN PP WOVEN BAG WITH PE INNER BAGSHIPPER PROFORMA INVOICE NO 21N11M05 DATED 22102021DELIVERY TERMS CIF PIPAVAV INDIA </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY 1600MT UNIT PRICE USD140000MTPRICE TERM CIF QINGYUAN PORT CHINA </t>
   </si>
   <si>
     <t xml:space="preserve"> 1560 MTS1 FCL OF METHACRYLIC ACIDRNMAKE FORMOSA PLASTICS CORPORATIONRNAT USD 310000 PER MT CIF NHAVA SHEVA PORT INDIARNAS PER PROFORMA INVOICE DTD 29102021 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 99 MT PROPYLENE COPOLYMER GRADE K4650 AT USD 2000 PER MTINCOTERMS 2020 CFR MANZANILLO COLIMA MEXICO PORTGOODS OF TAIWAN ORIGIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CFR ANY JAPANESE PORTPP 3307UNC1 </t>
+    <t xml:space="preserve"> COMMODITY  MONOETHYLENE GLYCOL MEG FIBER GRADEQUANTITY 1000 MTSUNIT PRICE USD74000MTPACKING  IN BULKORIGIN  TAIWANCFR ANY PORT IN CHINA INCOTERMS 2010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TERMS OF PRICE CFRDOPAS PER PROFORMA INVOICE NO PI 8736 DD OCT192021MANUFACTURER NAN YA PLASTICS CORPORATIONORIGIN TAIWANFINAL DESTINATION UGANDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 144 MT 1 FCL OF TETRAHYDROFURAN THF AT USD608000 PER MTCOUNTRY OF ORIGIN TAIWANCFR NHAVA SHEVA INDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY MONOETHYLENE GLYCOL MEG FIBER GRADEQUANTITY 1000 MTSUNIT PRICE USD740MT PACKING IN BULKORIGIN TAIWANCFR ANY PORT IN CHINA INCOTERMS 2010 </t>
   </si>
   <si>
     <t>NANYA PLASTICS CORPORATION</t>
   </si>
   <si>
+    <t>NAN YA PLASTICS</t>
+  </si>
+  <si>
     <t>FORMOSA CHEMICALS AND FIBRE</t>
   </si>
   <si>
+    <t>FORMOSA PLASTICS</t>
+  </si>
+  <si>
+    <t>FORMOSA CHEMICALS ANDFIBRE CORPORATION</t>
+  </si>
+  <si>
+    <t>NANYA PLASTICS CORP</t>
+  </si>
+  <si>
     <t>FORMOSA PETROCHEMICAL</t>
   </si>
   <si>
-    <t>NAN YA PLASTICS</t>
-  </si>
-  <si>
-    <t>FORMOSA PLASTICS</t>
-  </si>
-  <si>
-    <t>NANYA PLASTICS CORP</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CONTRACT 013522RN1X40FCL HQRN22000 KG TAIRILIN</t>
   </si>
   <si>
-    <t>['CIF HAIPHONG PORT']</t>
-  </si>
-  <si>
-    <t>['PROPYLENE COPOLYMER']</t>
-  </si>
-  <si>
-    <t>['POLYPROPYLENE RESIN GRADE', 'CHEMICALS']</t>
-  </si>
-  <si>
-    <t>['GASOIL']</t>
+    <t>['TAIWAN']</t>
+  </si>
+  <si>
+    <t>['GLASS FABRICS', 'JAPANESE']</t>
+  </si>
+  <si>
+    <t>['MONOETHYLENE GLYCOL', 'PACKING  IN BULK', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['EPOXIDIZED SOYBEAN OIL', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['PP SHEET', ' PP ']</t>
+  </si>
+  <si>
+    <t>['TAIRILIN BRAND PET CHIPS', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['FABRICS', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['NYLON 6', 'YARN']</t>
+  </si>
+  <si>
+    <t>['PLASTIC RESIN', 'FM090']</t>
+  </si>
+  <si>
+    <t>['SOYABEAN OIL']</t>
+  </si>
+  <si>
+    <t>['TETRAHYDROFURAN', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['NYLON 6 FILAMENT YARN']</t>
   </si>
   <si>
     <t>['EPOXIDIZED SOYBEAN OIL']</t>
   </si>
   <si>
-    <t>['RESIN']</t>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'POLYPROPYLENE RESIN', 'YUNGSOX', ' PP ']</t>
+  </si>
+  <si>
+    <t>['METHACRYLATE ACID']</t>
+  </si>
+  <si>
+    <t>[' 2EH ']</t>
+  </si>
+  <si>
+    <t>['POLYOXYMETHYLENE', 'FM090']</t>
+  </si>
+  <si>
+    <t>['EPOXY RESIN NPEL']</t>
+  </si>
+  <si>
+    <t>['OTHERS']</t>
+  </si>
+  <si>
+    <t>['TAIWAN', 'ACID']</t>
+  </si>
+  <si>
+    <t>['EVA']</t>
+  </si>
+  <si>
+    <t>['POLYPROPYLENE', 'TAIWAN', 'K1011']</t>
+  </si>
+  <si>
+    <t>['BPA BISPHENOLA']</t>
+  </si>
+  <si>
+    <t>['LAMINATE']</t>
+  </si>
+  <si>
+    <t>['MONOETHYLENE GLYCOL', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['POLYESTER STAPLE FIBER']</t>
+  </si>
+  <si>
+    <t>['NYLON']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX', ' PP ']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX']</t>
+  </si>
+  <si>
+    <t>['LAMINATE', 'PREPREG']</t>
+  </si>
+  <si>
+    <t>['POLYESTER FILM']</t>
+  </si>
+  <si>
+    <t>['BASE OIL', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['TAIWAN', 'HDPE']</t>
+  </si>
+  <si>
+    <t>['GLASS EPOXY COPPER CLAD LAMINATES']</t>
   </si>
   <si>
     <t>['TAIRILIN BRAND PET CHIPS']</t>
   </si>
   <si>
-    <t>['FABRICS']</t>
-  </si>
-  <si>
-    <t>['NYLON 6', 'YARN']</t>
-  </si>
-  <si>
-    <t>['PURIFIED ISOPHTHALIC ACID']</t>
-  </si>
-  <si>
-    <t>['SOYABEAN OIL']</t>
-  </si>
-  <si>
-    <t>['NYLON 6 FILAMENT YARN']</t>
-  </si>
-  <si>
-    <t>['CIF VIZAG INDIA']</t>
-  </si>
-  <si>
-    <t>['PROPYLENE']</t>
-  </si>
-  <si>
-    <t>['ETHYLENEPROPYLENE COPOLYMER', 'POLYPROPYLENE RESIN', 'YUNGSOX', ' PP ']</t>
-  </si>
-  <si>
-    <t>['COPPER CLAD LAMINATE', 'EPOXY COPPER CLAD']</t>
-  </si>
-  <si>
-    <t>['POLYETHYLENE', 'PHTHALATE']</t>
-  </si>
-  <si>
-    <t>['PLASTIC RESIN', 'PPCO 3015']</t>
-  </si>
-  <si>
-    <t>['TAIWAN']</t>
-  </si>
-  <si>
-    <t>['METHACRYLATE ACID']</t>
-  </si>
-  <si>
-    <t>['POLYPROPYLENE RESIN GRADE']</t>
-  </si>
-  <si>
-    <t>[' 2EH ']</t>
-  </si>
-  <si>
-    <t>['POLYOXYMETHYLENE', 'FM090']</t>
-  </si>
-  <si>
-    <t>['EPOXY RESIN', 'RESIN NPEL']</t>
-  </si>
-  <si>
-    <t>['OTHERS']</t>
+    <t>['POLYETHYLENE', 'PHTHALATE', 'PET RESIN']</t>
+  </si>
+  <si>
+    <t>['FM270', 'RESIN']</t>
+  </si>
+  <si>
+    <t>['ABS RESIN', 'COVERING', 'ANC100', 'AE8000']</t>
+  </si>
+  <si>
+    <t>['SAN RESIN', 'COVERING', ' SAN ']</t>
+  </si>
+  <si>
+    <t>['COPPER FOIL', 'JAPANESE']</t>
+  </si>
+  <si>
+    <t>['SOYBEAN OIL', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['ACRYLIC ACID']</t>
+  </si>
+  <si>
+    <t>['PHTHALIC ANHYDRIDE']</t>
+  </si>
+  <si>
+    <t>['PVC CLEAR RIGID SHEET', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX 3080']</t>
+  </si>
+  <si>
+    <t>['TAIWAN', 'TOTM']</t>
+  </si>
+  <si>
+    <t>['POLYESTER', 'TAIRILIN', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['PVC COPOLYMER', 'FORMOLON', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['JAPANESE']</t>
+  </si>
+  <si>
+    <t>['RESIN NPEL', 'NPEL 128']</t>
   </si>
   <si>
     <t>['GLASS FABRICS']</t>
   </si>
   <si>
-    <t>['PVC SUSPENSION RESIN', ' PP ']</t>
-  </si>
-  <si>
-    <t>['EVA']</t>
-  </si>
-  <si>
-    <t>['BISPHENOLA']</t>
-  </si>
-  <si>
-    <t>['COPPER CLAD LAMINATE', 'MATERIAL']</t>
-  </si>
-  <si>
-    <t>['POLYESTER STAPLE FIBER']</t>
-  </si>
-  <si>
-    <t>['NYLON']</t>
-  </si>
-  <si>
-    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX', ' PP ']</t>
-  </si>
-  <si>
-    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX']</t>
-  </si>
-  <si>
-    <t>['LAMINATE', 'PREPREG']</t>
-  </si>
-  <si>
-    <t>['BASE OIL']</t>
-  </si>
-  <si>
-    <t>['PP SYNTHETIC PAPER', 'PVC SHEET', 'PVC PLATE', 'PP SHEET', 'PET FILM', 'APET', ' PP ', 'BOPP']</t>
-  </si>
-  <si>
-    <t>['HDPE']</t>
-  </si>
-  <si>
-    <t>['PVC RESINS60', 'LAMINATE', ' PE ', ' PP ']</t>
-  </si>
-  <si>
-    <t>['PVC RESIN S60', 'LAMINATE', ' PE ', ' PP ']</t>
-  </si>
-  <si>
-    <t>['GLASS EPOXY COPPER CLAD LAMINATES']</t>
-  </si>
-  <si>
-    <t>['PVC SUSPENSION', ' PP ']</t>
-  </si>
-  <si>
-    <t>['POLYETHYLENE', 'PET RESIN', 'PHTHALATE']</t>
-  </si>
-  <si>
-    <t>['ABS RESIN', 'COVERING', 'ANC100', 'AE8000']</t>
-  </si>
-  <si>
-    <t>['SAN RESIN', 'COVERING', ' SAN ']</t>
-  </si>
-  <si>
-    <t>['COPPER FOIL']</t>
-  </si>
-  <si>
-    <t>['SAN']</t>
-  </si>
-  <si>
-    <t>['SOYBEAN OIL']</t>
-  </si>
-  <si>
-    <t>['ACRYLIC ACID']</t>
-  </si>
-  <si>
-    <t>['PHTHALIC ANHYDRIDE']</t>
-  </si>
-  <si>
-    <t>['PVC CLEAR RIGID SHEET']</t>
-  </si>
-  <si>
-    <t>['COPPER CLAD LAMINATE', 'PREPREG']</t>
-  </si>
-  <si>
-    <t>['PROCESS OIL 70N']</t>
-  </si>
-  <si>
-    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX 3080']</t>
-  </si>
-  <si>
-    <t>['ISO NONYL ALCOHOL']</t>
-  </si>
-  <si>
-    <t>['TOTM']</t>
-  </si>
-  <si>
-    <t>['S65D QUANTITY']</t>
-  </si>
-  <si>
-    <t>['POLYESTER', 'TAIRILIN']</t>
-  </si>
-  <si>
-    <t>['PLASTIC RESIN', 'PP 5090T', ' PP ']</t>
-  </si>
-  <si>
-    <t>['DOA']</t>
-  </si>
-  <si>
-    <t>['CIF PORT KLANG MALAYSIA2000']</t>
-  </si>
-  <si>
-    <t>['PVC COPOLYMER', 'FORMOLON']</t>
-  </si>
-  <si>
-    <t>['POLYESTER FILM']</t>
-  </si>
-  <si>
-    <t>['MONOETHYLENE GLYCOL']</t>
-  </si>
-  <si>
-    <t>['RESIN NPEL', 'NPEL 128']</t>
-  </si>
-  <si>
-    <t>['PVC SUSPENSION RESIN', ' PE ', ' PP ']</t>
-  </si>
-  <si>
-    <t>['TAIWANPP']</t>
-  </si>
-  <si>
     <t>['NAN YA RELEASE FILM']</t>
   </si>
   <si>
-    <t>['PVC SUSPENSION RESIN', 'PVC MASS RESIN B57', ' PE ', ' PP ']</t>
-  </si>
-  <si>
     <t>['METHACRYLIC ACID']</t>
   </si>
   <si>
-    <t>['JAPANESE']</t>
+    <t>['TETRAHYDROFURAN', 'TAIWAN', ' THF ']</t>
+  </si>
+  <si>
+    <t>rule</t>
   </si>
   <si>
     <t>bert</t>
   </si>
   <si>
-    <t>rule</t>
-  </si>
-  <si>
-    <t>CIF HAIPHONG PORT</t>
-  </si>
-  <si>
-    <t>PROPYLENE COPOLYMER</t>
-  </si>
-  <si>
-    <t>POLYPROPYLENE RESIN GRADE</t>
-  </si>
-  <si>
-    <t>GASOIL</t>
+    <t>TAIWAN</t>
+  </si>
+  <si>
+    <t>GLASS FABRICS</t>
+  </si>
+  <si>
+    <t>MONOETHYLENE GLYCOL</t>
   </si>
   <si>
     <t>EPOXIDIZED SOYBEAN OIL</t>
   </si>
   <si>
-    <t>RESIN</t>
+    <t>PP SHEET</t>
   </si>
   <si>
     <t>TAIRILIN BRAND PET CHIPS</t>
@@ -664,91 +538,67 @@
     <t>NYLON 6</t>
   </si>
   <si>
-    <t>PURIFIED ISOPHTHALIC ACID</t>
+    <t>PLASTIC RESIN</t>
   </si>
   <si>
     <t>SOYABEAN OIL</t>
   </si>
   <si>
+    <t>TETRAHYDROFURAN</t>
+  </si>
+  <si>
     <t>NYLON 6 FILAMENT YARN</t>
   </si>
   <si>
-    <t>CIF VIZAG INDIA</t>
-  </si>
-  <si>
-    <t>PROPYLENE</t>
-  </si>
-  <si>
     <t>ETHYLENEPROPYLENE COPOLYMER</t>
   </si>
   <si>
-    <t>COPPER CLAD LAMINATE</t>
+    <t>METHACRYLATE ACID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2EH </t>
+  </si>
+  <si>
+    <t>POLYOXYMETHYLENE</t>
+  </si>
+  <si>
+    <t>EPOXY RESIN NPEL</t>
+  </si>
+  <si>
+    <t>OTHERS</t>
+  </si>
+  <si>
+    <t>EVA</t>
+  </si>
+  <si>
+    <t>POLYPROPYLENE</t>
+  </si>
+  <si>
+    <t>BPA BISPHENOLA</t>
+  </si>
+  <si>
+    <t>LAMINATE</t>
+  </si>
+  <si>
+    <t>POLYESTER STAPLE FIBER</t>
+  </si>
+  <si>
+    <t>NYLON</t>
+  </si>
+  <si>
+    <t>POLYESTER FILM</t>
+  </si>
+  <si>
+    <t>BASE OIL</t>
+  </si>
+  <si>
+    <t>GLASS EPOXY COPPER CLAD LAMINATES</t>
   </si>
   <si>
     <t>POLYETHYLENE</t>
   </si>
   <si>
-    <t>PLASTIC RESIN</t>
-  </si>
-  <si>
-    <t>TAIWAN</t>
-  </si>
-  <si>
-    <t>METHACRYLATE ACID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2EH </t>
-  </si>
-  <si>
-    <t>POLYOXYMETHYLENE</t>
-  </si>
-  <si>
-    <t>EPOXY RESIN</t>
-  </si>
-  <si>
-    <t>OTHERS</t>
-  </si>
-  <si>
-    <t>GLASS FABRICS</t>
-  </si>
-  <si>
-    <t>PVC SUSPENSION RESIN</t>
-  </si>
-  <si>
-    <t>EVA</t>
-  </si>
-  <si>
-    <t>BISPHENOLA</t>
-  </si>
-  <si>
-    <t>POLYESTER STAPLE FIBER</t>
-  </si>
-  <si>
-    <t>NYLON</t>
-  </si>
-  <si>
-    <t>LAMINATE</t>
-  </si>
-  <si>
-    <t>BASE OIL</t>
-  </si>
-  <si>
-    <t>PP SYNTHETIC PAPER</t>
-  </si>
-  <si>
-    <t>HDPE</t>
-  </si>
-  <si>
-    <t>PVC RESINS60</t>
-  </si>
-  <si>
-    <t>PVC RESIN S60</t>
-  </si>
-  <si>
-    <t>GLASS EPOXY COPPER CLAD LAMINATES</t>
-  </si>
-  <si>
-    <t>PVC SUSPENSION</t>
+    <t>FM270</t>
   </si>
   <si>
     <t>ABS RESIN</t>
@@ -760,9 +610,6 @@
     <t>COPPER FOIL</t>
   </si>
   <si>
-    <t>SAN</t>
-  </si>
-  <si>
     <t>SOYBEAN OIL</t>
   </si>
   <si>
@@ -775,313 +622,271 @@
     <t>PVC CLEAR RIGID SHEET</t>
   </si>
   <si>
-    <t>PROCESS OIL 70N</t>
-  </si>
-  <si>
-    <t>ISO NONYL ALCOHOL</t>
-  </si>
-  <si>
-    <t>TOTM</t>
-  </si>
-  <si>
-    <t>S65D QUANTITY</t>
-  </si>
-  <si>
     <t>POLYESTER</t>
   </si>
   <si>
-    <t>DOA</t>
-  </si>
-  <si>
-    <t>CIF PORT KLANG MALAYSIA2000</t>
-  </si>
-  <si>
     <t>PVC COPOLYMER</t>
   </si>
   <si>
-    <t>POLYESTER FILM</t>
-  </si>
-  <si>
-    <t>MONOETHYLENE GLYCOL</t>
+    <t>JAPANESE</t>
   </si>
   <si>
     <t>RESIN NPEL</t>
   </si>
   <si>
-    <t>TAIWANPP</t>
-  </si>
-  <si>
     <t>NAN YA RELEASE FILM</t>
   </si>
   <si>
     <t>METHACRYLIC ACID</t>
   </si>
   <si>
-    <t>JAPANESE</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>1P</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2P</t>
+  </si>
+  <si>
     <t>4A</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>60</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>2E</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>41</t>
+    <t>42</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>1P</t>
-  </si>
-  <si>
-    <t>2M</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>2P</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>42</t>
+    <t>['1P']</t>
+  </si>
+  <si>
+    <t>['2G', '28', '21']</t>
+  </si>
+  <si>
+    <t>['2A', '25', '2A', '1P']</t>
+  </si>
+  <si>
+    <t>['2P', '24', '1P']</t>
+  </si>
+  <si>
+    <t>['23', '22', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['25', '25', '1P']</t>
+  </si>
+  <si>
+    <t>['26', '42', '1P']</t>
+  </si>
+  <si>
+    <t>['45', '25', 'XU', '45', '42', '12', '1P', '18', '2E']</t>
+  </si>
+  <si>
+    <t>['23', '4A', '11', '1P', '1P']</t>
+  </si>
+  <si>
+    <t>['2P', '24', '22']</t>
+  </si>
+  <si>
+    <t>['24', '2P', '24', '1P']</t>
+  </si>
+  <si>
+    <t>['45', '41']</t>
+  </si>
+  <si>
+    <t>['2P', '24']</t>
+  </si>
+  <si>
+    <t>['4A', '4A', '18', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['1A', '12']</t>
+  </si>
+  <si>
+    <t>['27', '2M']</t>
+  </si>
+  <si>
+    <t>['1P', '1P']</t>
+  </si>
+  <si>
+    <t>['2R']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['1P', '48', '27', '1A']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['1P', '4A', '1P', '4A']</t>
+  </si>
+  <si>
+    <t>['2P', '28']</t>
+  </si>
+  <si>
+    <t>['2M', '28']</t>
+  </si>
+  <si>
+    <t>['2A', '25', '1P']</t>
+  </si>
+  <si>
+    <t>['25', '25']</t>
+  </si>
+  <si>
+    <t>['42', '45']</t>
+  </si>
+  <si>
+    <t>['4A', '18', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['4A', '18']</t>
+  </si>
+  <si>
+    <t>['2M', '28', '2M']</t>
+  </si>
+  <si>
+    <t>['2E', '25']</t>
+  </si>
+  <si>
+    <t>['64', '64', '1P']</t>
+  </si>
+  <si>
+    <t>['1P', '4A', '18']</t>
+  </si>
+  <si>
+    <t>['2M']</t>
+  </si>
+  <si>
+    <t>['18', '27', '2E', '25', '25']</t>
+  </si>
+  <si>
+    <t>['4A', '17', '14', '4A']</t>
+  </si>
+  <si>
+    <t>['4A', '17', '4A']</t>
+  </si>
+  <si>
+    <t>['2N', '21']</t>
+  </si>
+  <si>
+    <t>['27', '27']</t>
+  </si>
+  <si>
+    <t>['23', '23', '1P']</t>
+  </si>
+  <si>
+    <t>['1P', '27', '27']</t>
+  </si>
+  <si>
+    <t>['26', '42', '25', '1P']</t>
+  </si>
+  <si>
+    <t>['11', '18', '2P', '11', '1P']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['2R', '2R']</t>
+  </si>
+  <si>
+    <t>['2G', '28']</t>
+  </si>
+  <si>
+    <t>['26', '2E']</t>
+  </si>
+  <si>
+    <t>['1A']</t>
+  </si>
+  <si>
+    <t>['24', '2P', '24', '1P', '2P']</t>
+  </si>
+  <si>
+    <t>not find</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2G</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>2R</t>
   </si>
   <si>
     <t>64</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>['22']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['1P', '2R']</t>
-  </si>
-  <si>
-    <t>['60', '61', '61']</t>
-  </si>
-  <si>
-    <t>['2P']</t>
-  </si>
-  <si>
-    <t>['4A']</t>
-  </si>
-  <si>
-    <t>['25', '25']</t>
-  </si>
-  <si>
-    <t>['26', '42']</t>
-  </si>
-  <si>
-    <t>['45', '25', 'XU', '45', '42', '12', '1P', '18', '2E']</t>
-  </si>
-  <si>
-    <t>['48']</t>
-  </si>
-  <si>
-    <t>['45']</t>
-  </si>
-  <si>
-    <t>['18']</t>
-  </si>
-  <si>
-    <t>['61', '62']</t>
-  </si>
-  <si>
-    <t>['4A', '4A', '18', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['28', '2M']</t>
-  </si>
-  <si>
-    <t>['18', '27', '2E']</t>
-  </si>
-  <si>
-    <t>['23', '4A', '11', '1P', '1P']</t>
-  </si>
-  <si>
-    <t>['14']</t>
-  </si>
-  <si>
-    <t>['1A']</t>
-  </si>
-  <si>
-    <t>['1P']</t>
-  </si>
-  <si>
-    <t>['27']</t>
-  </si>
-  <si>
-    <t>['1P', '1P']</t>
-  </si>
-  <si>
-    <t>['2R', '2R']</t>
-  </si>
-  <si>
-    <t>['29']</t>
-  </si>
-  <si>
-    <t>['28', '2G', '28']</t>
-  </si>
-  <si>
-    <t>['11', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['12']</t>
-  </si>
-  <si>
-    <t>['28', '4A']</t>
-  </si>
-  <si>
-    <t>['42']</t>
-  </si>
-  <si>
-    <t>['4A', '18', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['4A', '18']</t>
-  </si>
-  <si>
-    <t>['2M', '2M']</t>
-  </si>
-  <si>
-    <t>['64', '64']</t>
-  </si>
-  <si>
-    <t>['23', '21', '23', '23', '22', '2E', '22', '1P', '21', '23']</t>
-  </si>
-  <si>
-    <t>['11', '2M', '21', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['2M']</t>
-  </si>
-  <si>
-    <t>['18', '25', '25', '27', '2E']</t>
-  </si>
-  <si>
-    <t>['4A', '17', '14', '4A']</t>
-  </si>
-  <si>
-    <t>['4A', '17', '4A']</t>
-  </si>
-  <si>
-    <t>['2N']</t>
-  </si>
-  <si>
-    <t>['17']</t>
-  </si>
-  <si>
-    <t>['27', '27']</t>
-  </si>
-  <si>
-    <t>['23', '23']</t>
-  </si>
-  <si>
-    <t>['61']</t>
-  </si>
-  <si>
-    <t>['26', '42', '25']</t>
-  </si>
-  <si>
-    <t>['23', '4A', '11', '1P', '1P', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['28']</t>
-  </si>
-  <si>
-    <t>['11', '18', '2P', '11']</t>
-  </si>
-  <si>
-    <t>['25', '2E']</t>
-  </si>
-  <si>
-    <t>['2A']</t>
-  </si>
-  <si>
-    <t>['11', '21', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['26']</t>
-  </si>
-  <si>
-    <t>['11', '11', '21', '1P', '21']</t>
-  </si>
-  <si>
-    <t>not find</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>2R</t>
-  </si>
-  <si>
     <t>2N</t>
-  </si>
-  <si>
-    <t>2A</t>
   </si>
   <si>
     <t>0927.xls</t>
@@ -1535,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1581,4196 +1386,3321 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="H2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" t="s">
         <v>291</v>
-      </c>
-      <c r="I2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="H3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J3" t="s">
+        <v>285</v>
+      </c>
+      <c r="K3" t="s">
         <v>292</v>
-      </c>
-      <c r="I3" t="s">
-        <v>345</v>
-      </c>
-      <c r="J3" t="s">
-        <v>345</v>
-      </c>
-      <c r="K3" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="H4" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="I4" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="J4" t="s">
-        <v>345</v>
+        <v>214</v>
       </c>
       <c r="K4" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="G5" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="H5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K5" t="s">
         <v>293</v>
-      </c>
-      <c r="I5" t="s">
-        <v>345</v>
-      </c>
-      <c r="J5" t="s">
-        <v>345</v>
-      </c>
-      <c r="K5" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="H6" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="I6" t="s">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="J6" t="s">
-        <v>349</v>
+        <v>226</v>
       </c>
       <c r="K6" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="G7" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="H7" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" t="s">
         <v>294</v>
-      </c>
-      <c r="I7" t="s">
-        <v>346</v>
-      </c>
-      <c r="J7" t="s">
-        <v>349</v>
-      </c>
-      <c r="K7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="I8" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="J8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K8" t="s">
-        <v>358</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="H9" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="I9" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="J9" t="s">
-        <v>348</v>
+        <v>229</v>
       </c>
       <c r="K9" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="G10" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="H10" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="I10" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="J10" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="K10" t="s">
-        <v>359</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="H11" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="I11" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="J11" t="s">
-        <v>350</v>
+        <v>224</v>
       </c>
       <c r="K11" t="s">
-        <v>359</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="G12" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="H12" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="I12" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="J12" t="s">
-        <v>345</v>
+        <v>224</v>
       </c>
       <c r="K12" t="s">
-        <v>359</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" t="s">
+        <v>242</v>
+      </c>
+      <c r="I13" t="s">
+        <v>282</v>
+      </c>
+      <c r="J13" t="s">
         <v>215</v>
       </c>
-      <c r="G13" t="s">
-        <v>275</v>
-      </c>
-      <c r="H13" t="s">
-        <v>299</v>
-      </c>
-      <c r="I13" t="s">
-        <v>345</v>
-      </c>
-      <c r="J13" t="s">
-        <v>288</v>
-      </c>
       <c r="K13" t="s">
-        <v>360</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F14" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="H14" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="I14" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="J14" t="s">
-        <v>348</v>
+        <v>214</v>
       </c>
       <c r="K14" t="s">
-        <v>360</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="H15" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="I15" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="J15" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="K15" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F16" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="H16" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="I16" t="s">
-        <v>345</v>
+        <v>283</v>
       </c>
       <c r="J16" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="K16" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="H17" t="s">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="I17" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="J17" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="K17" t="s">
-        <v>361</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="H18" t="s">
-        <v>302</v>
+        <v>238</v>
       </c>
       <c r="I18" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="J18" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="K18" t="s">
-        <v>361</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="H19" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="I19" t="s">
-        <v>345</v>
+        <v>283</v>
       </c>
       <c r="J19" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="K19" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="H20" t="s">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="I20" t="s">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="J20" t="s">
-        <v>349</v>
+        <v>214</v>
       </c>
       <c r="K20" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="G21" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="H21" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="I21" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="J21" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>362</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="G22" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="H22" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="I22" t="s">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="J22" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" t="s">
+        <v>248</v>
+      </c>
+      <c r="I23" t="s">
         <v>280</v>
       </c>
-      <c r="H23" t="s">
-        <v>305</v>
-      </c>
-      <c r="I23" t="s">
-        <v>347</v>
-      </c>
       <c r="J23" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K23" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="G24" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="H24" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="I24" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="J24" t="s">
         <v>288</v>
       </c>
       <c r="K24" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>257</v>
+        <v>347</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="F25" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="G25" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="H25" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="I25" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="J25" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="K25" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>263</v>
+        <v>351</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="H26" t="s">
-        <v>307</v>
+        <v>232</v>
       </c>
       <c r="I26" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="J26" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K26" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="G27" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
-        <v>308</v>
+        <v>250</v>
       </c>
       <c r="I27" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>351</v>
+        <v>216</v>
       </c>
       <c r="K27" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>283</v>
+        <v>372</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="G28" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="H28" t="s">
-        <v>309</v>
+        <v>232</v>
       </c>
       <c r="I28" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="J28" t="s">
-        <v>352</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>363</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
       <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
         <v>130</v>
       </c>
-      <c r="D29" t="s">
-        <v>140</v>
-      </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="G29" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="H29" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="I29" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>291</v>
+        <v>414</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="G30" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="H30" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="I30" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="J30" t="s">
-        <v>345</v>
+        <v>216</v>
       </c>
       <c r="K30" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>309</v>
+        <v>434</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="G31" t="s">
-        <v>280</v>
+        <v>216</v>
       </c>
       <c r="H31" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="I31" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="K31" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="G32" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="H32" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="I32" t="s">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="J32" t="s">
-        <v>349</v>
+        <v>224</v>
       </c>
       <c r="K32" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>320</v>
+        <v>447</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="G33" t="s">
-        <v>281</v>
+        <v>209</v>
       </c>
       <c r="H33" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="I33" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="J33" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="K33" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>324</v>
+        <v>464</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F34" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="G34" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="H34" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="I34" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="J34" t="s">
-        <v>353</v>
+        <v>214</v>
       </c>
       <c r="K34" t="s">
-        <v>364</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>325</v>
+        <v>474</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F35" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="G35" t="s">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="H35" t="s">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="I35" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>353</v>
+        <v>224</v>
       </c>
       <c r="K35" t="s">
-        <v>364</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>342</v>
+        <v>490</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F36" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G36" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="H36" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="I36" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="J36" t="s">
-        <v>345</v>
+        <v>214</v>
       </c>
       <c r="K36" t="s">
-        <v>364</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>347</v>
+        <v>506</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="F37" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="G37" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="H37" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="I37" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="J37" t="s">
-        <v>348</v>
+        <v>229</v>
       </c>
       <c r="K37" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>372</v>
+        <v>519</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="G38" t="s">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="H38" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="I38" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="J38" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="K38" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>374</v>
+        <v>521</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F39" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="G39" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="H39" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="I39" t="s">
-        <v>345</v>
+        <v>283</v>
       </c>
       <c r="J39" t="s">
-        <v>345</v>
+        <v>228</v>
       </c>
       <c r="K39" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>377</v>
+        <v>541</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
         <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F40" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="G40" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="H40" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="I40" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="J40" t="s">
-        <v>345</v>
+        <v>214</v>
       </c>
       <c r="K40" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>378</v>
+        <v>546</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="G41" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="H41" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="I41" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="J41" t="s">
-        <v>345</v>
+        <v>219</v>
       </c>
       <c r="K41" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>397</v>
+        <v>572</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F42" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="G42" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
       <c r="H42" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="I42" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="J42" t="s">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="K42" t="s">
-        <v>366</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>401</v>
+        <v>585</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="G43" t="s">
+        <v>227</v>
+      </c>
+      <c r="H43" t="s">
+        <v>262</v>
+      </c>
+      <c r="I43" t="s">
         <v>284</v>
       </c>
-      <c r="H43" t="s">
-        <v>317</v>
-      </c>
-      <c r="I43" t="s">
-        <v>347</v>
-      </c>
       <c r="J43" t="s">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="K43" t="s">
-        <v>366</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>404</v>
+        <v>588</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="G44" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="H44" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="I44" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="J44" t="s">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="K44" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>423</v>
+        <v>592</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="G45" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="H45" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="I45" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="J45" t="s">
-        <v>345</v>
+        <v>224</v>
       </c>
       <c r="K45" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>440</v>
+        <v>601</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F46" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="G46" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="H46" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="I46" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="J46" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="K46" t="s">
-        <v>367</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>474</v>
+        <v>628</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F47" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="G47" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="H47" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="I47" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="J47" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K47" t="s">
-        <v>368</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>481</v>
+        <v>636</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F48" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="G48" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="H48" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="I48" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="J48" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="K48" t="s">
-        <v>368</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>490</v>
+        <v>648</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F49" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="G49" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="H49" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="I49" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="J49" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="K49" t="s">
-        <v>368</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>498</v>
+        <v>677</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F50" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G50" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="H50" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="I50" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="J50" t="s">
-        <v>349</v>
+        <v>219</v>
       </c>
       <c r="K50" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>506</v>
+        <v>683</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F51" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="G51" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="H51" t="s">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="I51" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="J51" t="s">
-        <v>288</v>
+        <v>214</v>
       </c>
       <c r="K51" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>519</v>
+        <v>684</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F52" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="G52" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="H52" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="I52" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="J52" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="K52" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>521</v>
+        <v>706</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F53" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="G53" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="H53" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="I53" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="J53" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="K53" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F54" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="G54" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="H54" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="I54" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="J54" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="K54" t="s">
-        <v>370</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>546</v>
+        <v>763</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F55" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="G55" t="s">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="H55" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="I55" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="J55" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="K55" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>585</v>
+        <v>764</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F56" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="G56" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="H56" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="I56" t="s">
-        <v>346</v>
+        <v>283</v>
       </c>
       <c r="J56" t="s">
-        <v>289</v>
+        <v>228</v>
       </c>
       <c r="K56" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>586</v>
+        <v>778</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F57" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="G57" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="H57" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="I57" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="J57" t="s">
-        <v>348</v>
+        <v>225</v>
       </c>
       <c r="K57" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>587</v>
+        <v>779</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F58" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="G58" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="H58" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="I58" t="s">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="J58" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="K58" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>588</v>
+        <v>781</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F59" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G59" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="H59" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="I59" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="J59" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K59" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>589</v>
+        <v>784</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F60" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="G60" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="H60" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="I60" t="s">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="J60" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="K60" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>592</v>
+        <v>788</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F61" t="s">
+        <v>198</v>
+      </c>
+      <c r="G61" t="s">
         <v>211</v>
       </c>
-      <c r="G61" t="s">
-        <v>271</v>
-      </c>
       <c r="H61" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="I61" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="J61" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="K61" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>601</v>
+        <v>806</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D62" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F62" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G62" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="H62" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="I62" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="J62" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="K62" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>605</v>
+        <v>824</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E63" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F63" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="G63" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="H63" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="I63" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="J63" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="K63" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>636</v>
+        <v>838</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E64" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F64" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="G64" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="H64" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="I64" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="J64" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="K64" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>637</v>
+        <v>867</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E65" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F65" t="s">
+        <v>166</v>
+      </c>
+      <c r="G65" t="s">
         <v>208</v>
       </c>
-      <c r="G65" t="s">
-        <v>269</v>
-      </c>
       <c r="H65" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="I65" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="J65" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="K65" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>646</v>
+        <v>875</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D66" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E66" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F66" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="G66" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="H66" t="s">
-        <v>325</v>
+        <v>259</v>
       </c>
       <c r="I66" t="s">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="J66" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="K66" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>647</v>
+        <v>894</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D67" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F67" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="G67" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="H67" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="I67" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="J67" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="K67" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>648</v>
+        <v>897</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F68" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="G68" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="H68" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="I68" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="J68" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="K68" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>653</v>
+        <v>935</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E69" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F69" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="G69" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="H69" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="I69" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="J69" t="s">
-        <v>345</v>
+        <v>208</v>
       </c>
       <c r="K69" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>659</v>
+        <v>962</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D70" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="E70" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F70" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G70" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="H70" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="I70" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="J70" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="K70" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>677</v>
+        <v>965</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="E71" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F71" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="G71" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="H71" t="s">
-        <v>326</v>
+        <v>232</v>
       </c>
       <c r="I71" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="J71" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K71" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1">
-        <v>683</v>
+        <v>969</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E72" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F72" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G72" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="H72" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="I72" t="s">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="J72" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="K72" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1">
-        <v>684</v>
+        <v>976</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D73" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E73" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F73" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="G73" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="H73" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="I73" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="J73" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="K73" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1">
-        <v>750</v>
+        <v>981</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="E74" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F74" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="G74" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="H74" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
       <c r="I74" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="J74" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="K74" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1">
-        <v>760</v>
+        <v>998</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D75" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="E75" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F75" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="G75" t="s">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="H75" t="s">
-        <v>325</v>
+        <v>231</v>
       </c>
       <c r="I75" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="J75" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K75" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1">
-        <v>762</v>
+        <v>1006</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D76" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F76" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="G76" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="H76" t="s">
+        <v>273</v>
+      </c>
+      <c r="I76" t="s">
+        <v>283</v>
+      </c>
+      <c r="J76" t="s">
+        <v>228</v>
+      </c>
+      <c r="K76" t="s">
         <v>316</v>
-      </c>
-      <c r="I76" t="s">
-        <v>348</v>
-      </c>
-      <c r="J76" t="s">
-        <v>279</v>
-      </c>
-      <c r="K76" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1">
-        <v>763</v>
+        <v>1008</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="E77" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F77" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="G77" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="H77" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="I77" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="J77" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="K77" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>778</v>
+        <v>1022</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D78" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E78" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F78" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="G78" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="H78" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="I78" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="J78" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="K78" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
-        <v>779</v>
+        <v>1056</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D79" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F79" t="s">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="G79" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="H79" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="I79" t="s">
-        <v>345</v>
+        <v>283</v>
       </c>
       <c r="J79" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="K79" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1">
-        <v>781</v>
+        <v>1081</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D80" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E80" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F80" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="G80" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="H80" t="s">
-        <v>330</v>
+        <v>261</v>
       </c>
       <c r="I80" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="J80" t="s">
-        <v>354</v>
+        <v>213</v>
       </c>
       <c r="K80" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1">
-        <v>784</v>
+        <v>1082</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D81" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="E81" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F81" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="G81" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="H81" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="I81" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="J81" t="s">
-        <v>345</v>
+        <v>213</v>
       </c>
       <c r="K81" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1">
-        <v>788</v>
+        <v>1083</v>
       </c>
       <c r="B82" t="s">
         <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D82" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="E82" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F82" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="G82" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="H82" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="I82" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="J82" t="s">
-        <v>284</v>
+        <v>213</v>
       </c>
       <c r="K82" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1">
-        <v>806</v>
+        <v>1093</v>
       </c>
       <c r="B83" t="s">
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E83" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F83" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="G83" t="s">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="H83" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="I83" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="J83" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="K83" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1">
-        <v>820</v>
+        <v>1115</v>
       </c>
       <c r="B84" t="s">
         <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D84" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="E84" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="G84" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="H84" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="I84" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="J84" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="K84" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1">
-        <v>821</v>
+        <v>1124</v>
       </c>
       <c r="B85" t="s">
         <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D85" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>206</v>
       </c>
-      <c r="F85" t="s">
-        <v>208</v>
-      </c>
       <c r="G85" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="H85" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="I85" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="J85" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="K85" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1">
-        <v>824</v>
+        <v>1130</v>
       </c>
       <c r="B86" t="s">
         <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="E86" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="G86" t="s">
+        <v>217</v>
+      </c>
+      <c r="H86" t="s">
+        <v>242</v>
+      </c>
+      <c r="I86" t="s">
         <v>282</v>
       </c>
-      <c r="H86" t="s">
-        <v>332</v>
-      </c>
-      <c r="I86" t="s">
-        <v>344</v>
-      </c>
       <c r="J86" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="K86" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1">
-        <v>838</v>
+        <v>1146</v>
       </c>
       <c r="B87" t="s">
         <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D87" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="E87" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="G87" t="s">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="H87" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="I87" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="J87" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="K87" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1">
-        <v>841</v>
+        <v>1160</v>
       </c>
       <c r="B88" t="s">
         <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D88" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="E88" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F88" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="G88" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="H88" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="I88" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="J88" t="s">
-        <v>285</v>
+        <v>214</v>
       </c>
       <c r="K88" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1">
-        <v>869</v>
+        <v>1163</v>
       </c>
       <c r="B89" t="s">
         <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D89" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F89" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="G89" t="s">
-        <v>289</v>
+        <v>228</v>
       </c>
       <c r="H89" t="s">
-        <v>334</v>
+        <v>231</v>
       </c>
       <c r="I89" t="s">
-        <v>346</v>
+        <v>283</v>
       </c>
       <c r="J89" t="s">
-        <v>349</v>
+        <v>216</v>
       </c>
       <c r="K89" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1">
-        <v>875</v>
+        <v>1177</v>
       </c>
       <c r="B90" t="s">
         <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D90" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="E90" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F90" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="G90" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="H90" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="I90" t="s">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="J90" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="K90" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1">
-        <v>894</v>
+        <v>1183</v>
       </c>
       <c r="B91" t="s">
         <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D91" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E91" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F91" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="G91" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="H91" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="I91" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="J91" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K91" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1">
-        <v>897</v>
+        <v>1184</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E92" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F92" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="G92" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="H92" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="I92" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="J92" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K92" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1">
-        <v>928</v>
+        <v>1188</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="E93" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F93" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="G93" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="H93" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="I93" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="J93" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K93" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1">
-        <v>935</v>
+        <v>1212</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F94" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="G94" t="s">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="H94" t="s">
-        <v>332</v>
+        <v>231</v>
       </c>
       <c r="I94" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="J94" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K94" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1">
-        <v>941</v>
+        <v>1232</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D95" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="E95" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F95" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="G95" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="H95" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="I95" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="J95" t="s">
-        <v>345</v>
+        <v>224</v>
       </c>
       <c r="K95" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1">
-        <v>949</v>
+        <v>1233</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D96" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="E96" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="F96" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="G96" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="H96" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="I96" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="J96" t="s">
-        <v>348</v>
+        <v>214</v>
       </c>
       <c r="K96" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1">
-        <v>962</v>
-      </c>
-      <c r="B97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C97" t="s">
-        <v>133</v>
-      </c>
-      <c r="D97" t="s">
-        <v>191</v>
-      </c>
-      <c r="E97" t="s">
-        <v>206</v>
-      </c>
-      <c r="F97" t="s">
-        <v>257</v>
-      </c>
-      <c r="G97" t="s">
-        <v>273</v>
-      </c>
-      <c r="H97" t="s">
-        <v>335</v>
-      </c>
-      <c r="I97" t="s">
-        <v>344</v>
-      </c>
-      <c r="J97" t="s">
-        <v>350</v>
-      </c>
-      <c r="K97" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1">
-        <v>969</v>
-      </c>
-      <c r="B98" t="s">
-        <v>104</v>
-      </c>
-      <c r="C98" t="s">
-        <v>128</v>
-      </c>
-      <c r="D98" t="s">
-        <v>165</v>
-      </c>
-      <c r="E98" t="s">
-        <v>206</v>
-      </c>
-      <c r="F98" t="s">
-        <v>236</v>
-      </c>
-      <c r="G98" t="s">
-        <v>275</v>
-      </c>
-      <c r="H98" t="s">
-        <v>319</v>
-      </c>
-      <c r="I98" t="s">
-        <v>345</v>
-      </c>
-      <c r="J98" t="s">
-        <v>288</v>
-      </c>
-      <c r="K98" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1">
-        <v>977</v>
-      </c>
-      <c r="B99" t="s">
-        <v>105</v>
-      </c>
-      <c r="C99" t="s">
-        <v>131</v>
-      </c>
-      <c r="D99" t="s">
-        <v>192</v>
-      </c>
-      <c r="E99" t="s">
-        <v>206</v>
-      </c>
-      <c r="F99" t="s">
-        <v>224</v>
-      </c>
-      <c r="G99" t="s">
-        <v>278</v>
-      </c>
-      <c r="H99" t="s">
-        <v>336</v>
-      </c>
-      <c r="I99" t="s">
-        <v>348</v>
-      </c>
-      <c r="J99" t="s">
-        <v>279</v>
-      </c>
-      <c r="K99" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1">
-        <v>981</v>
-      </c>
-      <c r="B100" t="s">
-        <v>106</v>
-      </c>
-      <c r="C100" t="s">
-        <v>130</v>
-      </c>
-      <c r="D100" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" t="s">
-        <v>206</v>
-      </c>
-      <c r="F100" t="s">
-        <v>211</v>
-      </c>
-      <c r="G100" t="s">
-        <v>271</v>
-      </c>
-      <c r="H100" t="s">
-        <v>295</v>
-      </c>
-      <c r="I100" t="s">
-        <v>347</v>
-      </c>
-      <c r="J100" t="s">
-        <v>284</v>
-      </c>
-      <c r="K100" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1">
-        <v>998</v>
-      </c>
-      <c r="B101" t="s">
-        <v>107</v>
-      </c>
-      <c r="C101" t="s">
-        <v>130</v>
-      </c>
-      <c r="D101" t="s">
-        <v>193</v>
-      </c>
-      <c r="E101" t="s">
-        <v>206</v>
-      </c>
-      <c r="F101" t="s">
-        <v>258</v>
-      </c>
-      <c r="G101" t="s">
-        <v>285</v>
-      </c>
-      <c r="H101" t="s">
-        <v>311</v>
-      </c>
-      <c r="I101" t="s">
-        <v>347</v>
-      </c>
-      <c r="J101" t="s">
-        <v>268</v>
-      </c>
-      <c r="K101" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="1">
-        <v>1004</v>
-      </c>
-      <c r="B102" t="s">
-        <v>108</v>
-      </c>
-      <c r="C102" t="s">
-        <v>130</v>
-      </c>
-      <c r="D102" t="s">
-        <v>194</v>
-      </c>
-      <c r="E102" t="s">
-        <v>205</v>
-      </c>
-      <c r="F102" t="s">
-        <v>259</v>
-      </c>
-      <c r="G102" t="s">
-        <v>268</v>
-      </c>
-      <c r="H102" t="s">
-        <v>337</v>
-      </c>
-      <c r="I102" t="s">
-        <v>347</v>
-      </c>
-      <c r="J102" t="s">
-        <v>285</v>
-      </c>
-      <c r="K102" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="1">
-        <v>1006</v>
-      </c>
-      <c r="B103" t="s">
-        <v>109</v>
-      </c>
-      <c r="C103" t="s">
-        <v>131</v>
-      </c>
-      <c r="D103" t="s">
-        <v>195</v>
-      </c>
-      <c r="E103" t="s">
-        <v>206</v>
-      </c>
-      <c r="F103" t="s">
-        <v>260</v>
-      </c>
-      <c r="G103" t="s">
-        <v>278</v>
-      </c>
-      <c r="H103" t="s">
-        <v>338</v>
-      </c>
-      <c r="I103" t="s">
-        <v>348</v>
-      </c>
-      <c r="J103" t="s">
-        <v>272</v>
-      </c>
-      <c r="K103" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="1">
-        <v>1008</v>
-      </c>
-      <c r="B104" t="s">
-        <v>110</v>
-      </c>
-      <c r="C104" t="s">
-        <v>130</v>
-      </c>
-      <c r="D104" t="s">
-        <v>162</v>
-      </c>
-      <c r="E104" t="s">
-        <v>206</v>
-      </c>
-      <c r="F104" t="s">
-        <v>234</v>
-      </c>
-      <c r="G104" t="s">
-        <v>285</v>
-      </c>
-      <c r="H104" t="s">
-        <v>295</v>
-      </c>
-      <c r="I104" t="s">
-        <v>347</v>
-      </c>
-      <c r="J104" t="s">
-        <v>284</v>
-      </c>
-      <c r="K104" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="1">
-        <v>1056</v>
-      </c>
-      <c r="B105" t="s">
-        <v>111</v>
-      </c>
-      <c r="C105" t="s">
-        <v>131</v>
-      </c>
-      <c r="D105" t="s">
-        <v>161</v>
-      </c>
-      <c r="E105" t="s">
-        <v>206</v>
-      </c>
-      <c r="F105" t="s">
-        <v>233</v>
-      </c>
-      <c r="G105" t="s">
-        <v>272</v>
-      </c>
-      <c r="H105" t="s">
-        <v>317</v>
-      </c>
-      <c r="I105" t="s">
-        <v>348</v>
-      </c>
-      <c r="J105" t="s">
-        <v>276</v>
-      </c>
-      <c r="K105" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="1">
-        <v>1083</v>
-      </c>
-      <c r="B106" t="s">
-        <v>112</v>
-      </c>
-      <c r="C106" t="s">
-        <v>130</v>
-      </c>
-      <c r="D106" t="s">
-        <v>196</v>
-      </c>
-      <c r="E106" t="s">
-        <v>206</v>
-      </c>
-      <c r="F106" t="s">
-        <v>261</v>
-      </c>
-      <c r="G106" t="s">
-        <v>283</v>
-      </c>
-      <c r="H106" t="s">
-        <v>339</v>
-      </c>
-      <c r="I106" t="s">
-        <v>347</v>
-      </c>
-      <c r="J106" t="s">
-        <v>274</v>
-      </c>
-      <c r="K106" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="1">
-        <v>1087</v>
-      </c>
-      <c r="B107" t="s">
-        <v>113</v>
-      </c>
-      <c r="C107" t="s">
-        <v>130</v>
-      </c>
-      <c r="D107" t="s">
-        <v>197</v>
-      </c>
-      <c r="E107" t="s">
-        <v>206</v>
-      </c>
-      <c r="F107" t="s">
-        <v>262</v>
-      </c>
-      <c r="G107" t="s">
-        <v>274</v>
-      </c>
-      <c r="H107" t="s">
-        <v>340</v>
-      </c>
-      <c r="I107" t="s">
-        <v>347</v>
-      </c>
-      <c r="J107" t="s">
-        <v>355</v>
-      </c>
-      <c r="K107" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="1">
-        <v>1093</v>
-      </c>
-      <c r="B108" t="s">
-        <v>114</v>
-      </c>
-      <c r="C108" t="s">
-        <v>127</v>
-      </c>
-      <c r="D108" t="s">
-        <v>198</v>
-      </c>
-      <c r="E108" t="s">
-        <v>206</v>
-      </c>
-      <c r="F108" t="s">
-        <v>263</v>
-      </c>
-      <c r="G108" t="s">
-        <v>282</v>
-      </c>
-      <c r="H108" t="s">
-        <v>313</v>
-      </c>
-      <c r="I108" t="s">
-        <v>344</v>
-      </c>
-      <c r="J108" t="s">
-        <v>353</v>
-      </c>
-      <c r="K108" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="1">
-        <v>1098</v>
-      </c>
-      <c r="B109" t="s">
-        <v>115</v>
-      </c>
-      <c r="C109" t="s">
-        <v>131</v>
-      </c>
-      <c r="D109" t="s">
-        <v>199</v>
-      </c>
-      <c r="E109" t="s">
-        <v>206</v>
-      </c>
-      <c r="F109" t="s">
-        <v>232</v>
-      </c>
-      <c r="G109" t="s">
-        <v>278</v>
-      </c>
-      <c r="H109" t="s">
-        <v>341</v>
-      </c>
-      <c r="I109" t="s">
-        <v>348</v>
-      </c>
-      <c r="J109" t="s">
-        <v>279</v>
-      </c>
-      <c r="K109" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="1">
-        <v>1103</v>
-      </c>
-      <c r="B110" t="s">
-        <v>116</v>
-      </c>
-      <c r="C110" t="s">
-        <v>131</v>
-      </c>
-      <c r="D110" t="s">
-        <v>200</v>
-      </c>
-      <c r="E110" t="s">
-        <v>205</v>
-      </c>
-      <c r="F110" t="s">
-        <v>264</v>
-      </c>
-      <c r="G110" t="s">
-        <v>279</v>
-      </c>
-      <c r="H110" t="s">
-        <v>308</v>
-      </c>
-      <c r="I110" t="s">
-        <v>348</v>
-      </c>
-      <c r="J110" t="s">
-        <v>351</v>
-      </c>
-      <c r="K110" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="1">
-        <v>1124</v>
-      </c>
-      <c r="B111" t="s">
-        <v>117</v>
-      </c>
-      <c r="C111" t="s">
-        <v>130</v>
-      </c>
-      <c r="D111" t="s">
-        <v>201</v>
-      </c>
-      <c r="E111" t="s">
-        <v>206</v>
-      </c>
-      <c r="F111" t="s">
-        <v>265</v>
-      </c>
-      <c r="G111" t="s">
-        <v>273</v>
-      </c>
-      <c r="H111" t="s">
-        <v>342</v>
-      </c>
-      <c r="I111" t="s">
-        <v>347</v>
-      </c>
-      <c r="J111" t="s">
-        <v>350</v>
-      </c>
-      <c r="K111" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="1">
-        <v>1130</v>
-      </c>
-      <c r="B112" t="s">
-        <v>118</v>
-      </c>
-      <c r="C112" t="s">
-        <v>128</v>
-      </c>
-      <c r="D112" t="s">
-        <v>145</v>
-      </c>
-      <c r="E112" t="s">
-        <v>206</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
-      </c>
-      <c r="G112" t="s">
-        <v>277</v>
-      </c>
-      <c r="H112" t="s">
-        <v>301</v>
-      </c>
-      <c r="I112" t="s">
-        <v>345</v>
-      </c>
-      <c r="J112" t="s">
-        <v>275</v>
-      </c>
-      <c r="K112" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="1">
-        <v>1146</v>
-      </c>
-      <c r="B113" t="s">
-        <v>119</v>
-      </c>
-      <c r="C113" t="s">
-        <v>131</v>
-      </c>
-      <c r="D113" t="s">
-        <v>166</v>
-      </c>
-      <c r="E113" t="s">
-        <v>206</v>
-      </c>
-      <c r="F113" t="s">
-        <v>221</v>
-      </c>
-      <c r="G113" t="s">
-        <v>279</v>
-      </c>
-      <c r="H113" t="s">
-        <v>320</v>
-      </c>
-      <c r="I113" t="s">
-        <v>348</v>
-      </c>
-      <c r="J113" t="s">
-        <v>272</v>
-      </c>
-      <c r="K113" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="1">
-        <v>1153</v>
-      </c>
-      <c r="B114" t="s">
-        <v>120</v>
-      </c>
-      <c r="C114" t="s">
-        <v>128</v>
-      </c>
-      <c r="D114" t="s">
-        <v>135</v>
-      </c>
-      <c r="E114" t="s">
-        <v>206</v>
-      </c>
-      <c r="F114" t="s">
-        <v>208</v>
-      </c>
-      <c r="G114" t="s">
-        <v>269</v>
-      </c>
-      <c r="H114" t="s">
-        <v>292</v>
-      </c>
-      <c r="I114" t="s">
-        <v>345</v>
-      </c>
-      <c r="J114" t="s">
-        <v>345</v>
-      </c>
-      <c r="K114" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="1">
-        <v>1163</v>
-      </c>
-      <c r="B115" t="s">
-        <v>121</v>
-      </c>
-      <c r="C115" t="s">
-        <v>131</v>
-      </c>
-      <c r="D115" t="s">
-        <v>161</v>
-      </c>
-      <c r="E115" t="s">
-        <v>206</v>
-      </c>
-      <c r="F115" t="s">
-        <v>233</v>
-      </c>
-      <c r="G115" t="s">
-        <v>272</v>
-      </c>
-      <c r="H115" t="s">
-        <v>317</v>
-      </c>
-      <c r="I115" t="s">
-        <v>348</v>
-      </c>
-      <c r="J115" t="s">
-        <v>276</v>
-      </c>
-      <c r="K115" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="1">
-        <v>1176</v>
-      </c>
-      <c r="B116" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116" t="s">
-        <v>131</v>
-      </c>
-      <c r="D116" t="s">
-        <v>202</v>
-      </c>
-      <c r="E116" t="s">
-        <v>206</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
-      </c>
-      <c r="G116" t="s">
-        <v>278</v>
-      </c>
-      <c r="H116" t="s">
-        <v>343</v>
-      </c>
-      <c r="I116" t="s">
-        <v>348</v>
-      </c>
-      <c r="J116" t="s">
-        <v>279</v>
-      </c>
-      <c r="K116" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="1">
-        <v>1177</v>
-      </c>
-      <c r="B117" t="s">
-        <v>123</v>
-      </c>
-      <c r="C117" t="s">
-        <v>131</v>
-      </c>
-      <c r="D117" t="s">
-        <v>166</v>
-      </c>
-      <c r="E117" t="s">
-        <v>206</v>
-      </c>
-      <c r="F117" t="s">
-        <v>221</v>
-      </c>
-      <c r="G117" t="s">
-        <v>279</v>
-      </c>
-      <c r="H117" t="s">
-        <v>320</v>
-      </c>
-      <c r="I117" t="s">
-        <v>348</v>
-      </c>
-      <c r="J117" t="s">
-        <v>272</v>
-      </c>
-      <c r="K117" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="1">
-        <v>1183</v>
-      </c>
-      <c r="B118" t="s">
-        <v>124</v>
-      </c>
-      <c r="C118" t="s">
-        <v>131</v>
-      </c>
-      <c r="D118" t="s">
-        <v>203</v>
-      </c>
-      <c r="E118" t="s">
-        <v>206</v>
-      </c>
-      <c r="F118" t="s">
-        <v>266</v>
-      </c>
-      <c r="G118" t="s">
-        <v>283</v>
-      </c>
-      <c r="H118" t="s">
-        <v>309</v>
-      </c>
-      <c r="I118" t="s">
-        <v>348</v>
-      </c>
-      <c r="J118" t="s">
-        <v>352</v>
-      </c>
-      <c r="K118" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="1">
-        <v>1184</v>
-      </c>
-      <c r="B119" t="s">
-        <v>124</v>
-      </c>
-      <c r="C119" t="s">
-        <v>131</v>
-      </c>
-      <c r="D119" t="s">
-        <v>203</v>
-      </c>
-      <c r="E119" t="s">
-        <v>206</v>
-      </c>
-      <c r="F119" t="s">
-        <v>266</v>
-      </c>
-      <c r="G119" t="s">
-        <v>283</v>
-      </c>
-      <c r="H119" t="s">
-        <v>309</v>
-      </c>
-      <c r="I119" t="s">
-        <v>348</v>
-      </c>
-      <c r="J119" t="s">
-        <v>352</v>
-      </c>
-      <c r="K119" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="1">
-        <v>1198</v>
-      </c>
-      <c r="B120" t="s">
-        <v>125</v>
-      </c>
-      <c r="C120" t="s">
-        <v>128</v>
-      </c>
-      <c r="D120" t="s">
-        <v>135</v>
-      </c>
-      <c r="E120" t="s">
-        <v>206</v>
-      </c>
-      <c r="F120" t="s">
-        <v>208</v>
-      </c>
-      <c r="G120" t="s">
-        <v>269</v>
-      </c>
-      <c r="H120" t="s">
-        <v>292</v>
-      </c>
-      <c r="I120" t="s">
-        <v>345</v>
-      </c>
-      <c r="J120" t="s">
-        <v>345</v>
-      </c>
-      <c r="K120" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="1">
-        <v>1225</v>
-      </c>
-      <c r="B121" t="s">
-        <v>126</v>
-      </c>
-      <c r="C121" t="s">
-        <v>130</v>
-      </c>
-      <c r="D121" t="s">
-        <v>204</v>
-      </c>
-      <c r="E121" t="s">
-        <v>205</v>
-      </c>
-      <c r="F121" t="s">
-        <v>267</v>
-      </c>
-      <c r="G121" t="s">
-        <v>290</v>
-      </c>
-      <c r="H121" t="s">
-        <v>291</v>
-      </c>
-      <c r="I121" t="s">
-        <v>347</v>
-      </c>
-      <c r="J121" t="s">
-        <v>287</v>
-      </c>
-      <c r="K121" t="s">
-        <v>387</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/output/錯誤型態彙整.xlsx
+++ b/output/錯誤型態彙整.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="538">
   <si>
     <t>45A</t>
   </si>
@@ -52,13 +52,13 @@
     <t xml:space="preserve"> GLASS FABRICSCIF JAPANESE PORTS </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITY  MONOETHYLENE GLYCOL MEG FIBER GRADEQUANTITY 2000 MTSUNIT PRICE USD75000MTPACKING  IN BULKORIGIN  TAIWANCFR ANY PORT IN CHINA INCOTERMS 2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32000 KGS EPOXIDIZED SOYBEAN OILESBO 132 IN DRUMAT USD 170KGTOTAL AMOUNT  USD 5440000TYPE OF GOODS EPOXIDIZED SOYBEAN OILQUALITY OF GOODS IN GOOD QUALITYPO NO   POTUIM21IX212COUNTRY OF ORIGIN TAIWANSHIPPING TERMS  CIF TANJUNG PERAK SURABAYA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PP SHEET 0104 RIGID PVC 0506 AS PER PO 20211516 C I F SINGAPORE </t>
+    <t xml:space="preserve"> 750000 BARRELS PLUSMINUS 10 PCT OF GASOIL 10PPM SULPHURFOB MAILIAO TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 300000 BBLS 10PCT OF GASOIL 005PCT SCOUNTRY OF ORIGIN TAIWANTERMS OF PRICE FOB MAILIAOTAIWANUNIT PRICE THE FOB MAILIAOTAIWAN PRICE IN USD PER BBLFOB PRICE EQUAL TO X MINUS USD164 PER BARRELWHERE X EQUAL TO THE WHOLE MONTH ARITHMETIC AVERAGE OF NOVEMBER2021 MEAN OF PLATTS FOR GASOIL 10PPMS UNDER THE HEADINGSINGAPOREPUBLISHED IN THE PLATTS ASIA PACIFICARAB GULFMARKETSCAN OF PLATTS QUOTATIONSIN THE EVENT THAT THE FINAL PRICE IS NOT KNOWN BEFORE LCNEGOTIAION PAYMENT WILL BE EFFECTED AGAINST THE PROVISIONALINVOICE PROVIDED BY THE SELLER SUCH PROVISIONAL PRICE SHALL BEBASED ON THE ABOVE PRICE CLAUSE WITH ALL AVAILABLE QUOTATIONSAT THE TIME OF INVOICINGWHEN THE FINAL PRICE IS KNOWN THE DIFFERENCE OF THE ACTUALAMOUNT AND THE PROVISIONAL AMOUNT IS TO BE SETTLED OUTSIDETHE IRREVOCABLE DOCUMENTARY LETTER OF CREDIT BETWEENBENEFICIARY AND APPLICANT BY TELEGRAPHIC TRANSFER PAYMENTWITHIN FIVE 5 NEW YORK BANKING DAYS UPON THE RECEIPT OFSUCH FINAL SETTLEMENT INVOICE BY THE APPLICABLE PARTYTHE PROVISIONALFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3DECIMAL PLACESWITH THE THIRD DECIMAL PLACE TO BE INCREASED TOTHE NEXT DIGIT WHENEVER THE FOURTH DECIMAL PLACE IS FIVE ORGREATER THAN FIVEANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FOB ANY SEAPORT IN TAIWANEVA 7350M VIRGIN RESIN 25MT AT USD257000MT </t>
   </si>
   <si>
     <t xml:space="preserve"> TAIRILIN BRAND PET CHIPS B GRADEJNNC7 57000KGSFCA ANY TAIWANESE PORT </t>
@@ -67,22 +67,13 @@
     <t xml:space="preserve"> TERMS OF PRICE FOB OR FCA TAIWANCOUNTRY OF ORIGIN TAIWAN BUYER ATHLETA PROFORMA INVOICE NOATHB1145001145T00 ATHB114500PP1145T00PPFABRICS ORDER </t>
   </si>
   <si>
-    <t xml:space="preserve"> 113652 KGS NYLON 6 HIGH TENACITY FILAMENT YARN 1260D210F ASPER PO 172552 DT 25092021 AND PI NO 5V09241 DT 24092021HS CODE 54021910 INCOTERMS 2010 CIF CHENNAI PORT INDIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 1 X 20 FCL CONSISTING OF 20 MTS OF POM FM090 AT USD2450MT USD4900000 HS CODE 39071000INCOTERMS 2010 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EPOXIDIZED SOYABEAN OIL ESO132X QUANTITY 18MTALL OTHER DETAILS ARE AS PER BENEFICIARYS PROFORMA INVOICENONE91209 DATED 15 SEPTEMBER 2021CIF JEBEL ALI PORT UAE </t>
   </si>
   <si>
-    <t xml:space="preserve"> TERMS OF PRICE CIF TORONTO CANADACOUNTRY OF ORIGIN TAIWANTETRAHYDROFURAN 2880MTPACKING 180KGS NET STEEL DRUMTOTAL PACK 80 DRUMS WITH IPPC PALLETS IN 20FCL </t>
-  </si>
-  <si>
     <t xml:space="preserve"> QTY 14364 KGSNYLON 6 FILAMENT YARN 170D24F SEMI DULL RAW WHITE ON CHEESEAS PER PO NO 5V09272 DT 27092021TERMS OF SALE CIF NHAVA SHEVA SEAPORT INDIA INCOTERMS 2020 </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITY MONOETHYLENE GLYCOL MEG FIBER GRADEQUANTITY 1000 MTSUNIT PRICE USD810MTPACKING  IN BULKORIGIN TAIWANTRADE TERM CFR ANY PORT IN CHINA </t>
+    <t xml:space="preserve"> 300000 BBLS 10PCT OF GASOIL 10PPMCOUNTRY OF ORIGIN TAIWANTERMS OF PRICE FOB MAILIAOTAIWANUNIT PRICE THE FOB MAILIAOTAIWAN PRICE IN USD PER BBLFOB PRICE EQUAL TO X MINUS USD023 PER BARRELWHERE X EQUAL TO THE WHOLE MONTH ARITHMETIC AVERAGE OF NOVEMBER2021 MEAN OF PLATTS FOR GASOIL 10PPMS UNDER THE HEADINGSINGAPOREPUBLISHED IN THE PLATTS ASIA PACIFICARAB GULFMARKETSCAN OF PLATTS QUOTATIONSIN THE EVENT THAT THE FINAL PRICE IS NOT KNOWN BEFORE LCNEGOTIAION PAYMENT WILL BE EFFECTED AGAINST THE PROVISIONALINVOICE PROVIDED BY THE SELLER SUCH PROVISIONAL PRICE SHALL BEBASED ON THE ABOVE PRICE CLAUSE WITH ALL AVAILABLE QUOTATIONSAT THE TIME OF INVOICINGWHEN THE FINAL PRICE IS KNOWN THE DIFFERENCE OF THE ACTUALAMOUNT AND THE PROVISIONAL AMOUNT IS TO BE SETTLED OUTSIDETHE IRREVOCABLE DOCUMENTARY LETTER OF CREDIT BETWEENBENEFICIARY AND APPLICANT BY TELEGRAPHIC TRANSFER PAYMENTWITHIN FIVE 5 NEW YORK BANKING DAYS UPON THE RECEIPT OFSUCH FINAL SETTLEMENT INVOICE BY THE APPLICABLE PARTYTHE PROVISIONALFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3DECIMAL PLACESWITH THE THIRD DECIMAL PLACE TO BE INCREASED TOTHE NEXT DIGIT WHENEVER THE FOURTH DECIMAL PLACE IS FIVE ORGREATER THAN FIVEANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNT </t>
   </si>
   <si>
     <t xml:space="preserve"> 54 MT OF EPOXIDIZED SOYBEAN OIL ESO132 AT USD1660MTRNTRADE TERMSCIF CAT LAI PORT HOCHIMINH CITY VIETNAM </t>
@@ -91,10 +82,7 @@
     <t xml:space="preserve"> POLYPROPYLENE RESIN YUNGSON 300516 MT AT USD1340MTTRADE TERM CIF HONG KONGFOR SHIPMENT TO HONG KONGETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3040C25 MT AT USD1345MTTRADE TERM CIF DONGGUAN CHINAFOR SHIPMENT TO DONGGUAN CHINA </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITY  MONOETHYLENE GLYCOL MEG FIBER GRADEQUANTITY 2000 MTSUNIT PRICE USD81000MTPACKING  IN BULKORIGIN  TAIWANCFR ANY PORT IN CHINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32472 KGS NYLON 6 HIGH TENACITY FILAMENT YARN 1260D210F AS PERPO NO 172630 DT 27092021 AND PI NO 5V09242 DT 24092021HS CODE 54021910 INCOTERMS 2010 CIF CHENNAI PORT INDIA </t>
+    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 1 X 20 FCL CONSISTING OF 16 MTS OF PPCO 3015 AT USD1300MT USD2080000 HS CODE 39021040INCOTERMS 2010TERMS CIF HAIPHONG VIETNAM </t>
   </si>
   <si>
     <t xml:space="preserve"> PRODUCT METHACRYLATE ACIDQUANTITY 1560000 KGSAS PER PROFORMA INVOICE DATED 27SEP2021CIF NHAVA SHEVA SEA PORT INDIA INCOTERMS 2010 </t>
@@ -103,6 +91,9 @@
     <t xml:space="preserve"> TAIRILIN BRAND PET CHIPS B GRADEJNNC 1710000KGSFCA ANY TAIWANESE PORT </t>
   </si>
   <si>
+    <t xml:space="preserve"> SODIUM HYDROXIDE CAUSTIC SODA MICROPEARLS IN 25 KG BAG ONPALLETIMO 8 UN 1823 PG IIORDER NO 792368822021 672 MT UNIT PRICE USD 44000MTMARKINGSEXPAN CHEMICALSANTWERPCAUSTIC SODA MICROPEARLS 99 PCTIMO 8 UN 1823 PG IIFOB ANY PORT IN TAIWAN AS PER INCOTERMS 2020 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 2 ETHYL HEXANOL 2EH QUANTITY 2000 MT 1 ISO TANK AT RATE USD 232000 PER MT INCOTERMS 2020CIF MUNDRA PORTINDIAAS PER APPLICANT PONO202122EIPLIMPWRR59B DATED 29092021 AND AS PER PROFORMA INVOICE NO NK1975 DATED 28092021 OF THE BENEFICIARY </t>
   </si>
   <si>
@@ -127,22 +118,25 @@
     <t xml:space="preserve"> GLASS FABRICSCIF JAPANESE MAIN PORT </t>
   </si>
   <si>
+    <t xml:space="preserve"> EVA 7350M 45 MT AT USD3105MTFOB ANY TAIWANESE PORT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CIF CAT LAI HO CHI MINH PORT VIETNAMPVC SUSPENSION RESIN S60 QTY4080MTS UPUSD1400MTPVC SUSPENSION RESIN S65 QTY7920MTS UPUSD1400MTPVC SUSPENSION RESIN S60 QTY3120MTS UPUSD1410MTPACKING25KGS IN PP BAG WITH PALLET </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 14 BUNTANEDIOL QTY 6000 MT AT THE RATE USD 460000MTSAS PER PO NO7540000391 DATED 06OCT2021INCOTERMS 2020 CIF NHAVA SHEVA INDIA </t>
   </si>
   <si>
     <t xml:space="preserve"> 1 COMMODITY POLYPROPYLENE GRADE K10112 QUANTITY 4800 MTS 3 UNIT PRICE USD133000MT4 TOTAL AMOUNT USD6384000 5 TRADE TERMS CIF HAIPHONG PORT VIETNAM 6 PACKING IN EXPORT PACKING STANDARD7 ORIGIN TAIWAN8 OTHER TERMS AND CONDITIONS AS PER CONTRACT NO 202110137MTHNDATE 06102021 </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 1 X 20 FCL CONSISTING OF 20 MTS OF POM FM090 AT USD2510MT USD5020000INCOTERMS 2010 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> COMMODITY BPA BISPHENOLAQUANTITY 510MTSCONTRACT NO 4500294162TOTAL VALUE USD183600000PRICE TERM CIF YANTAI PORT CHINA INCOTERMS 2010 EDITIONS </t>
   </si>
   <si>
     <t xml:space="preserve"> COPPER CLAD LAMINATEAS PER PROFORMA INVOICE NOTDPI211004 DATE 04OCT2021 </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITYMONOETHYLENE GLYCOLMEG FIBER GRADEUNIT PRICEUSD92000MTPRICE TERMCFR SHENHU QUANZHOUCHINAQUANTITY300000MTTOTAL AMOUNTUSD276000000ORIGINTAIWAN </t>
+    <t xml:space="preserve"> 1 LLDPE 3224 150MT AT USD1260MT2 HDPE 8010 200MT AT USD1160MT3 LLDPE 3224 75MT AT USD1280MT4 LLDPE 3840U 25MT AT USD1300MTFOB ANY TAIWANESE PORT </t>
   </si>
   <si>
     <t xml:space="preserve"> EPOXIDIZED SOYABEAN OIL ESO132XQUANTITY 36MTALL OTHER DETAILS AS PER BENEFICIARYS PROFORMA INVOICE NONE91225 DATED 28092021SHIPMENT TERMS CIF JEBEL ALI SEAPORT DUBAI UAE INVOICE TOCERTIFY THE SAME </t>
@@ -160,19 +154,28 @@
     <t xml:space="preserve"> 1COMMODITY ETHYLENEPROPYLENE COPOLYMERSPP COPOLYMER YUNGSOX3015QUANTITY 128000MTUNIT PRICE USD131500MTAMOUNTUSD16832000TRADE TERM CIF RONGQICHINAPACKING 25KG BAG WITHOUT PALLET </t>
   </si>
   <si>
+    <t xml:space="preserve"> 1 LLDPE 3490QUANTITY 75 MTUNIT PRICE USD1350MT FOB TAIWANUNDER SALES CONTRACT H0FQ182 EVA 7350MQUANTITY 150 MTUNIT PRICE USD3505MT FOB TAIWANUNDER SALES CONTRACT NO H0FQ19TRADE TERM FOB ANY PORT TAIWAN </t>
+  </si>
+  <si>
     <t xml:space="preserve"> POLYESTER STAPLE FIBER 4D X 51MM LOW MELT QUANTITY 23000 KGS USD 156 PER KG CFR KARACHI PORT PAKISTAN DETAILS AS PER BENEFICIARYS PROFORMA INVOICE NONA179 DATED 13102021 </t>
   </si>
   <si>
     <t xml:space="preserve"> NO DESCRIPTION OF GOODS      QTY SHEET1 LAMINATE FR4 038MM 22 SIZE 1045 X 1245MM NP155F 2002 LAMINATE FR4 038MM 33 SIZE 1092 X 1245MM NP155F 1003 LAMINATE FR4 035MM 22 SIZE 940 X 1245MM HSINK   NP175FBH      24004 LAMINATE FR4 150MM HH SIZE 681 X 1245MM TG150   NP155FR       14405 LAMINATE FR4 035MM 22 SIZE 940 X 1245MM HSINK   NP175FBH      35006 LAMINATE FR4 046MM 22 SIZE 1092 X 1245MM TG150   NP155F       17007 LAMINATE FR4 046MM 22 SIZE 1092 X 1245MM TG150   NP155F       40008 LAMINATE FR4 071MM 11 SIZE 1092 X 1245MM HSNK   NP175FBH       1009 LAMINATE FR4 160MM HH SIZE 940 X 1245MM   NP175FBH       100ALL DETAILS AS PER PO 134115726413411575041341156829 AND1341157171NO DESCRIPTION OF GOODS      QTY ROLL1 PREPREG7628 RC45 SIZE 1250MM X 150M TG150 NPG151B  202 PREPREG2116HR RC60 SIZE 1250MM X 200M NP155FB   53 PREPREG2116MR RC54 SIZE 1250MM X 300M NP140B   94 PREPREG2116 RC56 SIZE 1250MM X 300M TG150 NPG151B  135 PREPREG2116 RC60 SIZE 1250MM X 200M HSINKNP175FBH  166 PREPREG7628 RC43 SIZE 1250MM X 150M NP140B   97 PREPREG7628 RC49 SIZE 1250MM X 150M TG150 NP155FB  78 PREPREG7628 RC49 SIZE 1250MM X 150M TG150 NPG151B  19 PREPREG7628 RC52 SIZE 1250MM X 150M HSINKNP175FBH  5110 PREPREG2116 RC56 SIZE 1250MM X 300M NP155FB   3611 PREPREG2116 RC60 SIZE 1250MM X 200M HSINKNP175FBH  1612 PREPREG7628 RC52 SIZE 1250MM X 150M HSINKNP175FBH  1813 PREPREG2116 RC56 SIZE 1250MM X 300M NP155FB   24ALL DETAILS AS PER PO 134115717013411572951341157294 AND1341156939CIF LAEMCHABANG DELIVERY TO ICD LATKRABANG INCOTERMS 2020 </t>
   </si>
   <si>
+    <t xml:space="preserve"> FOB ANY PORT IN TAIWANTAIRILIN BRANDFLAME RETARDANTPOLYESTER PARTIALLY ORIENTED YARN125D36F1 FULL BRIGHTROUNDRAW WHITE A GRADETAIRILIN BRANDPOLYESTER PARTIALLY ORIENTED YARN125D18F1SEMI DULLROUNDRAW WHITE A GRADETAIRILIN BRANDPOLYESTER PARTIALLY ORIENTED YARN125D24F1SEMI DULLROUNDRAW WHITE A GRADE </t>
+  </si>
+  <si>
     <t xml:space="preserve"> POLYESTER FILM PO NAKNQPRICE TERMS CIF HAIPHONG VIETNAMWITH CONTAINER SHIPMENT </t>
   </si>
   <si>
     <t xml:space="preserve"> BASE OIL 380N 800MT 5 PCT AT 1203 USDMTBASE OIL 380N 300MT 5 PCT AT ICIS PRICING GII 500NFOB NE ASIA MEAN 78 USDMTPACKING IN BULKFOB MAILIAO TAIWAN </t>
   </si>
   <si>
-    <t xml:space="preserve"> NYLON 6 HIGH TENACITY YARNN8800 KGSNAS PER PROFORMA INVOICE NO 5V10143 DATED 15 OCT 2021NDELIVERY TERMS CIF GENOVA PORT ITALYNICCINCOTERMSR2020 </t>
+    <t xml:space="preserve"> FOB ANY SEAPORT IN TAIWANEVA 7350M VIRGIN RESIN 50MT AT USD350500MT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 100000 KGS OF PP SHEET RIGID PVC SHEET APET FILM PET FILM PP FILM PP SYNTHETIC PAPER2 80000 PCS OF RIGID PVC PLATE RIGID PVC SHEET3 100000 KGS OF BOPP FILM SYNTHETIC PAPER4 800000 SM OF PP SYNTHETIC PAPER PP FILM BOPP FILM SYNTHETIC PAPER5 800000 M2 OF PP FILM PP SHEET BOPP FILM SYNTHETIC PAPER PP SYNTHETIC PAPERCIF HONG KONG10 MORE OR LESS IN QUANTITY PER ITEM SHIPPED ALLOWED </t>
   </si>
   <si>
     <t xml:space="preserve"> EPOXIDIZED SOYBEAN OILESO132XQUANTITY 1600 MTSAT THE RATE OF USD 203500 PER MTSPECIFICATIONS AND FURTHER DETAILS ARE AS PERINDENT NO 2170821 DATED OCT 15 2021ISSUED BY TRANS CONTINENTAL AGENCIESKARACHI PAKISTANCFR KARACHI SEAPORT PAKISTAN INCOTERMS 2020 </t>
@@ -181,15 +184,27 @@
     <t xml:space="preserve"> 1600 MT EPOXIDIZED SOYBEAN OIL ESO132X AT THE RATE OF USD 202000 PER MTCFR KARACHI PORT PAKISTAN AS PERINDENT NO 2169421 DATED 14102021 </t>
   </si>
   <si>
+    <t xml:space="preserve">  PLASTIC RESIN CIF SEMARANG INDONESIA1 5 X 20 FCL CONSISTING OF 80 MTS OF PPCO 3015 AT USD1365MT USD10920000 HS CODE 3902100090INCOTERMS 2010 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ITEM     QUANTITY UNIT PRICE AMOUNT      KG  USDKG USD      10   10PSF 4D X 51MM LOW MELT  115000 128  14720000 PACKING 270 10 KGBAG TOTAL AMOUNT USD14720000 10 TRADE TERMSCIF CAT LAI PORT HOCHIMINH CITY VIETNAM INCOTERM 2010 ORIGIN TAIWAN OTHER TERMS AND CONDITIONS AS PER PURCHASE AND SALE CONTRACT NON9189 DATED 29 SEP 2021 </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITY HDPE 8010QUANTITY225MTSUNIT PRICEUSD121000MTPRICE TERM FOB ANY PORT OF TAIWANGOODS ORIGIN TAIWANPACKING 25KG PER BAG BY MANUFACTURERMANUFACTURERFORMOSA </t>
   </si>
   <si>
+    <t xml:space="preserve"> COMMODITYPVC RESINS60QUANTITY1085MTUNIT PRICEUSD1270MTPACKING25KGS IN PP WOVEN BAG WITH PE LAMINATEDHS CODE390410PRICE TERMS CIF CAT LAIVIETNAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY PVC RESIN S60QUANTITY 700MTSUNIT PRICE USD1220MTPACKING 25KGS IN PP WOVEN BAG WITH PE LAMINATEDCIF CAT LAI VIETNAM </t>
+  </si>
+  <si>
     <t xml:space="preserve"> CFR KARACHI SEAPORT PAKISTAN INCOTERMS 20201 QTY 6400 MTONS EPOXIDIZED SOYABEAN OIL ESO132X FOR PVCSYNTHETIC LEATHER INDUSTRY AT USD 202000 PER MTONCOMPLETE DETAILS AS PER INDENT NO 2170421 DATED15OCTOBER2021 OF MS TRANSCONTINENTAL AGENCIES KARACHIPAKISTAN </t>
   </si>
   <si>
+    <t xml:space="preserve"> PRODUCT HDPEGRADE8001BLQUANTITY 12410000 MTUNIT PRICE USD 13700000MTFOBANY PORT IN TAIWANPACKAGING IN 25 KG BAGSORIGIN TAIWAN </t>
+  </si>
+  <si>
     <t xml:space="preserve"> GLASS EPOXY COPPER CLAD LAMINATESAS PER PROFORMA INVOICE NOIMP21220107 DT 26082021HS CODE 74091900TRADE TERMSCIP BANGALORE ICDINDIAAS PER INCOTERM 2010 </t>
   </si>
   <si>
@@ -202,15 +217,24 @@
     <t xml:space="preserve"> COPPER CLAD LAMINATEAS PER PROFORMA INVOICE NO TDPI211019 DATE 19OCT2021 </t>
   </si>
   <si>
+    <t xml:space="preserve"> HDPE 8010  QTY 100 MT AT USD1150MTFOB ANY PORT IN TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 LLDPE 3490 16 MTS USD 1280MT H0FQ042 LLDPE 3490 96 MTS USD 1330MT H0FQ163 EVA 7350M 25 MTS USD 3505MT H0FQ124 EVA 7350M 15 MTS USD 3500MT H0FQ225 EVA 7470M 5 MTS USD 3925MT H0FQ14INCOTERMS 2010TERMS FOB ANY TAIWAN PORT </t>
+  </si>
+  <si>
     <t xml:space="preserve"> FOB ANY PORT IN TAIWANEVA 7470M PRIME VIRGIN 15MT AT USD320500MT </t>
   </si>
   <si>
+    <t xml:space="preserve"> COMMODITYPVC RESINS60665MTUNIT PRICEUSD1220MT CIF CAT LAIVIETNAMPACKING25 KGS IN PP WOVEN BAG WITH PE LAMINATEDHS CODE390410 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32MTS OF PVC SUSPENSION S65 AT USD1660MTTOTAL AMOUNT USD5312000PACKING 25KGS IN PP WOVEN BAG WITHOUT PALLETCIF CAT LAI PORT VIETNAM </t>
+  </si>
+  <si>
     <t xml:space="preserve"> CIF TOKYOJAPANPOLYETHYLENE TEREPHTHALATE PET RESINDETAILS AS FOLLOWS  CURRENCY USD UNIT MTCOMMODITY   UNIT PRICE QUANTITY  AMOUNTPET RESIN TYPE 3802  1075  315 33862500      TOTAL QUANTITY TOTAL AMOUNT        315 33862500 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 20 MT POLYACETAL RESIN FORMOCON FM270 AT THE RATE OFUSD3095 PER MT CFR KEAMARI PORT KARACHIAS PER INDENT NO21105621 DATED 25102021OF MS TRANSCONTINENTAL AGENCIES KARACHI PAKISTAN </t>
-  </si>
-  <si>
     <t xml:space="preserve"> COVERING 100 PERCENT OF INVOICE VALUE OF GOODS ANDOR SERVICESDESCRIBED ASABS RESINS REF PO 45680358GRADE NO AE8000 21 MTGRADE NO ANC100 BLACK 2 MTGRADE NO AC2501AF 1 MTCIF VANCOUVER CANADA INCOTERMS 2020 </t>
   </si>
   <si>
@@ -223,19 +247,19 @@
     <t xml:space="preserve"> TERMS OF PRICE FOB KAOHSIUNGCOUNTRY OF ORIGIN TAIWANSANGRADE NONF2200QUANTITY 16 MTUNIT PRICE USD179000MT </t>
   </si>
   <si>
-    <t xml:space="preserve"> 32000 KGS OF EPOXYDIZED SOYBEAN OIL ESBO 132 IN DRUMAT USD 181KGIN GOOD QUALITYCONTRACTORDER NO POTUIM21X239CIF SURABAYAORIGIN COUNTRY TAIWAN </t>
-  </si>
-  <si>
     <t xml:space="preserve"> TERMS OF SALE CIF NHAVA SHEVA PORT INDIAGLACIAL ACRYLIC ACID TOTAL 1 FCL 1600 MTS 1 FCL 1600MTS IS EQUAL TO 80 DRUMS X 200 KGSAS PER SALES CONTRACT NO 12D1B001 DATED 28092021 </t>
   </si>
   <si>
+    <t xml:space="preserve"> COMMODITY HDPE 8010QUANTITY 204MTSUNIT PRICE USD129000MTPRICE TERM FOB ANY PORT IN TAIWANORIGIN TAIWAN </t>
+  </si>
+  <si>
     <t xml:space="preserve"> TERMS OF SALE CIF NHAVA SHEVA PORT INDIA288 MT OF PHTHALIC ANHYDRIDE AT USD 1230 PER MTAS PER PROFORMA INVOICE NO NP1A63 DATED 26OCT2021 </t>
   </si>
   <si>
     <t xml:space="preserve"> COUNTRY OF ORIGIN TAIWANPRICE TERMS CIF SOUTH KOREA ANY PORTNANYA PRODUCTSPVC CLEAR RIGID SHEET AND ANOTHER ITEMSINVOICE NO PI20211026 </t>
   </si>
   <si>
-    <t xml:space="preserve"> TERMS OF PRICE CFR189MT OF DOPAS PER PROFORMA INVOICE NO PI 87361 DD OCT192021MANUFACTURER NAN YA PLASTICS CORPORATIONORIGIN TAIWANFINAL DESTINATION UGANDA </t>
+    <t xml:space="preserve"> COMMODITY TAISOX WAXFQUANTITY 11700MTUNIT PRICE  USD118000MTFOB ANY PORT IN TAIWAN </t>
   </si>
   <si>
     <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERSPP COPOLYMER YUNGSOX 3080AT USD1320MTCIF SHANGHAI PORT CHINA </t>
@@ -244,7 +268,7 @@
     <t xml:space="preserve"> COUNTRY OF ORIGIN TAIWANPRICE TERMS CIF SOUTH KOREA ANY PORTNANYA PRODUCTSPVC CLEAR RIGID SHEET AND ANOTHER ITEMSINVOICE NO PI20211029 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 48000 KGS OF EPOXYDIZED SOYBEAN OIL ESBO 132 IN DRUMAT USD 184KGIN GOOD QUALITYCONTRACTORDER NO POTUIM21X249CIF JAKARTAORIGIN COUNTRY TAIWAN </t>
+    <t xml:space="preserve"> QUANTITY 1000000MT 5PCT AT USD199000MTISO NONYL ALCOHOLPACKING IN BULKSPECIFIC GRAVITY MAX 0839FOB MAILIAO TAIWAN </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITY TOTMQUANTITY 42MT 5PCT2FCLUNIT PRICE USD2480MTTOTAL AMOUNT USD 10416000 5PCT CIF HAI PHONG PORTVIETNAMORIGIN TAIWANTOLERANCE 5PCT OF TOTAL QUANTITY AND AMOUNT ARE ACCEPTABLE </t>
@@ -256,15 +280,18 @@
     <t xml:space="preserve"> PRICE TERM C I F HONG KONGPA6 100PER CENT PRECONSUMER RECYCLED NYLON AA GRADEDTY 40D34FZ FD QTY 7680 KGS AT USD689KGAS PER PO NO POM210827030DTY 40D34FZ FD QTY 3024 KGS AT USD689KGAS PER PO NO POM210828001FDY 20D34F FD QTY 1712 KGS AT USD670KGAS PER PO NO POM210930040 </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 1 X 20 FCL CONSISTING OF 20 MTS OF POM FM090 AT USD2760MT USD5520000INCOTERMS 2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  COMMODITY EPOXIDIZED SOYBEAN OIL ESO132X QUANTITY 32 MTS 5PCT UNIT PRICE USD184000MT AMOUNT USD5888000 5PCT ORIGIN TAIWAN PACKING 200KGS NET IN RECYCLED IRON DRUM WITHOUT PALLET MARKINGEPOXIDIZED SOYBEAN OIL ESO132XNW 200KGSMADE IN TAIWAN TRADE TERM CIF CAT LAI PORT HOCHIMINH CITY VIETNAMINCOTERMS 2020 </t>
+    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 1 X 20 FCL CONSISTING OF 16 MTS OF PP 5090T AT USD1550MT USD2480000 HS CODE 39021040INCOTERMS 2010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMODITY TAISOX WAXF QUANTITY 25 MTS UNIT PRICE USD119500MT AMOUNT USD2987500 ORIGIN TAIWAN PACKING 20 KGS BAG WITHOUT PALLET CONTRACT NO H0NQ44 TRADE TERM CIF CAT LAI PORT HOCHIMINH CITY VIETNAMINCOTERMS 2020 </t>
   </si>
   <si>
     <t xml:space="preserve"> 20 MT DOAAT USD 230000MTTOTAL AMOUNT  USD 4600000TYPE OF GOODS LIQUIDHS NO   29171210CONTRACT NO  NL1A31COUNTRY OF ORIGIN TAIWANSHIPPING TERMS  CIF TANJUNG PRIOK JAKARTA </t>
   </si>
   <si>
+    <t xml:space="preserve"> HDPE 8010 200 MT AT USD1290MT FOB ANY TAIWANESE PORT </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1 TERMS CIF JAKARTA PORT INDONESIA INCOTERMS 20202 NAME OF GOODS FORMOLON C153 TYPE OF GOODS PVC COPOLYMER4 VOLUME OF GOODS 16000 KG5 QUALITY OF GOODS EXPORT QUALITY6 HS NUMBER 3904307 COUNTRY OF ORIGIN TAIWAN8 CONTRACT NO PO 2100955 PI NO A0L152 </t>
   </si>
   <si>
@@ -283,9 +310,21 @@
     <t xml:space="preserve"> POLYESTER FILM PO NAKNMPRICE TERMS CIF SHEKOUCHINAWITH CONTAINER SHIPMENT </t>
   </si>
   <si>
+    <t xml:space="preserve"> TERMS OF PRICE FOB MAILIAO TAIWAN COUNTRY OF ORIGIN TAIWAN HS NO 2905310000 MONOETHYLENE GLYCOL FIBER GRADE PACKING IN BULK 3500000MT USD 74000MT USD 259000000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LLDPE 3470  16MT USD1320MT H0FP03 EVA 7470M  40MT USD3865MT H0FP09 EVA 7350M   5MT USD3445MT H0FP10 FOB ANY TAIWANESE PORT </t>
+  </si>
+  <si>
     <t xml:space="preserve"> RESIN NPEL 128 QTY 38400 KGS AT USD 4880 PER KGCIF JEDDAH </t>
   </si>
   <si>
+    <t xml:space="preserve"> 10000000 KGS EVA 7470M AT USD451KGHS CODE 39013000CIF MERSINCOUNTRY OF ORIGIN TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CIF HAIPHONG VIETNAMN2400 MTS OF PVC SUSPENSION RESIN S60 100 PERCENTAGE PVCNPACKING 25KGS IN PP WOVEN BAG WITH PE INNER BAG </t>
+  </si>
+  <si>
     <t xml:space="preserve"> CIF JAPAN MAIN PORT OR AIRPORTGLASS FABRICS </t>
   </si>
   <si>
@@ -298,28 +337,226 @@
     <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY75MTSUNIT PRICEUSD138000MTPRICE TERMCIF SHANGHAICHINA </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITY MONOETHYLENE GLYCOL MEG FIBER GRADEQUANTITY 2000 MTSUNIT PRICE USD760MT PACKING IN BULKORIGIN TAIWANCFR ANY PORT IN CHINA </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1EVA 7350MQUANTITY 150 MTUNIT PRICE USD3435MT FOB TAIWANUNDER SALES CONTRACT H0FP08DETAILS ARE AS PER THE APPLICANTS SHIPPING INSTRUCTIONTRADE TERM FOB ANY PORT TAIWAN </t>
   </si>
   <si>
+    <t xml:space="preserve"> 10800 MTS PVC SUSPENSION RESIN S65DUNIT PRICE 186000 USD7000 MTS PVC MASS RESIN B57UNIT PRICE 186000 USDTOTAL AMOUNT 33108000PACKING 25KGS IN PP WOVEN BAG WITH PE INNER BAGSHIPPER PROFORMA INVOICE NO 21N11M05 DATED 22102021DELIVERY TERMS CIF PIPAVAV INDIA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY 1600MT UNIT PRICE USD140000MTPRICE TERM CIF QINGYUAN PORT CHINA </t>
   </si>
   <si>
     <t xml:space="preserve"> 1560 MTS1 FCL OF METHACRYLIC ACIDRNMAKE FORMOSA PLASTICS CORPORATIONRNAT USD 310000 PER MT CIF NHAVA SHEVA PORT INDIARNAS PER PROFORMA INVOICE DTD 29102021 </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITY  MONOETHYLENE GLYCOL MEG FIBER GRADEQUANTITY 1000 MTSUNIT PRICE USD74000MTPACKING  IN BULKORIGIN  TAIWANCFR ANY PORT IN CHINA INCOTERMS 2010 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> TERMS OF PRICE CFRDOPAS PER PROFORMA INVOICE NO PI 8736 DD OCT192021MANUFACTURER NAN YA PLASTICS CORPORATIONORIGIN TAIWANFINAL DESTINATION UGANDA </t>
   </si>
   <si>
-    <t xml:space="preserve"> 144 MT 1 FCL OF TETRAHYDROFURAN THF AT USD608000 PER MTCOUNTRY OF ORIGIN TAIWANCFR NHAVA SHEVA INDIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMODITY MONOETHYLENE GLYCOL MEG FIBER GRADEQUANTITY 1000 MTSUNIT PRICE USD740MT PACKING IN BULKORIGIN TAIWANCFR ANY PORT IN CHINA INCOTERMS 2010 </t>
+    <t xml:space="preserve"> COMMODITYNAN YA RELEASE FILMPET L130CQUANTITY216RLUNIT PRICEUSD25200RLPRICE TERMCIF SHEKOU OR YANTIANCHINATOTAL VALUEUSD5443200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TERMS OF PRICE FOB TAIWAN PORTCOUNTRY OF ORIGIN TAIWAN PROVINCE OF CHINANAN YA RELEASE FILM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 BASE OIL 150NPRICING 1215MT 5 ICIS PRICING GII 150NFOB NE ASIA MEAN USD10MT2 BASE OIL 500NPRICING 800MT 5 ICIS PRICING GII 500NFOB NE ASIA MEAN USD67MT3 BASE OIL 70NPRICING 500MT 5 ICIS PRICING GII 150NFOB NE ASIA MEAN USD25MTPACKING IN BULKPRICING CLAUSE REFER TO FIELD 47AFOB MAILIAO TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRICE TERM C I F DANANG VIETNAMPLASTIC RESIN3X20 FCL CONSISTING OF48 MTS OF PPCO 3015 AT USD139000MTHS CODE 39021040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY2500MTSUNIT PRICE USD140000MTTRADE TERMCIF WUHAN PORTCHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY 911PQUANTITY 32MTUNIT PRICE USD252500MTTOTAL AMOUNT USD8080000PACKING 200KG NET IN A NEW DRUM 160 DRUMS32MTORIGIN TAIWANPRICE TERM CIF NINGBO CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AABS AG15A1 QUANTITY2500MT UNIT PRICEUSD219000MTCIF NINGBO CHINAORIGINTAIWANPACKINGIN 25KGS BAGS25MTS LOOSE LOADED INTO EACH 40FT CONTAINER </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35 MTS PVC MASS RESIN B57 AT USD 1710 PMT AND 15 MTS PVCRESIN S75 AT USD 1740 PMT AS PER PROFORMA INVOICE NOA3X10211275 DATED 19112021TERMS CIF NHAVA SHEVA INDIAINCOTERMS 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LIQUID PARAFFIN 100 40MT 5 PCT AT ICIS PRICING GII 500NFOB NE ASIA MEAN 140 USDMTPACKING IN FLEXIBAGTHE PRICING WEEK OF THE LOADING MONTH M IS THE WEEK OF PREVIOUSONE MONTH M1 THAT 20TH DATE LIES IN FOR INSTANCE THEPRICING WEEK FOR 2020FEBRUARYS LIFTING IS THE WEEK OF JANUARY20TH 2020IN CASE THERE IS NO ICIS QUOTATION PUBLISHED IN THE PRICING WEEKTHEN THE LATEST EFFECTIVE ICIS QUOTATION PRECEDING THE PRICINGWEEK IS AUTOMATICALLY APPLIEDTHE WEEK DEFINITION IS FROM SUNDAY 0000 HRS TO THE COMINGSATURDAY 2359 HRSANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNTFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3 DECIMAL PLACESFCA ANY PORT IN TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRODUCT GLACIAL ACRYLIC ACID 1 FCLQUANTITY 1600 MT AT USD 3030 PER MTAS PER PROFORMA INVOICE NO 12D1B016P DTD 01112021INCOTERM 2020 CIFNHAVA SHEVA INDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRICE TERM C I F HAIPHONG VIETNAMPLASTIC RESIN1X20 FCL CONSISTING OF16 MTS OF PPCO 3015 AT USD137000MT USD21920001X20 FCL CONSISTING OF16 MTS OF PP 1120 AT USD134500MT USD2152000HS CODE 39021090 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PVC SUSPENSION RESIN S65D 25KG BAGS QTY 36 MTS AT UNIT PRICE OFUSD 1860MT AS PER SALES CONTRACT NO TRICON REF 376325 DTD22102021 INCOTERM 2020 CIF CHENNAI INDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 525 MT OF PVC MASS RESIN B57 AT A UNIT PRICE OF USD 1860 PERMT AS PER TRICON REF 376319 DT22102021 OF THEBENEFICIARYINCOTERMS2020CIF CHENNAI SEAPORT INDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLYAMIDEQUANTITY 16000 KGSNAN YA PA6 2100HNC9AT THE RATE OF USD 304 PER KGCFR KEAMARI KARACHI PORT PAKISTANAS PER BENEFICIARYS PROFORMA INVOICE NONANYAISC022021DATED 22112021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLYAMIDE1 QUANTITY 1000 KGS NAN YA PA6 2100HNC9 AT THE RATE OF USD 304 PER KG2 QUANTITY 10000 KGS NAN YA PA66 6210GCFNC9 AT THE RATE OF USD 465 PER KG3 QUANTITY 5000 KGS NAN YA PBT 1100ANC9 AT THE RATE OF USD 356 PER KGCFR KEAMARI KARACHI PORT PAKISTANAS PER BENEFICIARYS PROFORMA INVOICE NONANYAISC042021DATED 22112021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLYAMIDE1 QUANTITY 3000 KGS NAN YA PBT 1100ANC9 AT THE RATE OF USD 356 PER KG2 QUANTITY 10000 KGS NAN YA PP 3210T8ENC9 AT THE RATE OF USD 178 PER KGCFR KEAMARI KARACHI PORT PAKISTANAS PER BENEFICIARYS PROFORMA INVOICE NONANYAISC032021DATED 22112021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLYPROPYLENEQUANTITY 17000 KGSNAN YA PP 3210G6ANC9AT THE RATE OF USD 218 PER KGCFR KEAMARI KARACHI PORT PAKISTANAS PER BENEFICIARYS PROFORMA INVOICE NONANYAISC012021DATED 22112021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUANTITY 24000 KGACRYLIC POLYMER IN PRIMARY FORMAT THE RATE OF USD 162 PER KGSPECIFICATION AND OTHER DETAILS ARE AS PER BENEFICIARYS PROFORMA INVOICE NO12KIA145DATED OCT 13 2021CFR KARACHI PORT PAKISTAN INCOTERMS 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PURIFIED TEREPHTHALIC ACID QUANTITY 75020 MT PACKING 1100KG NETPP WOVEN BAG WITH PE INNER BAG UNIT PRICE USD 75000 PMT TOTALAMOUNT USD 56265000 PROFORMA INVOICE NO MA030 DATE 04112021INCOTERMS FOB ANY SEAPORT IN TAIWAN ITC HS CODE OF GOODS 29173600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QTY 1800 MT OF TAIRISAN SAN RESINSGRADE NO NF2200 YELLOWISH TINTAT THE RATE OF USD 190000 PER MTDETAIL OF DESCRIPTION QUANTITY QUALITY UNIT PRICE AS PER BENEFICIARYS PROFORMA INVOICE NOBA025 DATED21102021CFR KARACHI SEAPORT PAKISTAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLYESTER RESIN PET RESIN BOTTLE GRADE 3802 PRIMARY FORMAS PER SALES CONTRACT NO NB435 DATED 03112021TERMS CIF NHAVA SHEVA PORTINDIAINCOTERMS 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PLASTIC RESIN CIF CHATTOGRAM BANGLADESH1 1 X 20 FCL CONSISTING OF 18 MTS OF ABSACRYLONITRILE BUTADIENE STYRENE GRADE NO AG15A3 AT USD2430MT USD4374000INCOTERMS 2010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SALES CONTRACT 90006559 PO 90006559DESCRIPTION 29Y29BNAN YA 2100ANC1QUANTITY 16000 KGSUNIT PRICE USD340KGAMOUNT USD5440000TRADE TERMS CIF HAI PHONG PORT VIETNAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STABILIZER LQX24PA 16000KG AT USD 297KGCIF NINGBO PORT CHINASTABILIZER LQX39PT 16000KG AT USD 280KGCIF HUMEN PORT CHINAREF NONA091121CIF NINGBO PORT HUMEN PORT CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COVERING 100 PERCENT OF INVOICE VALUE OF GOODS ANDOR SERVICESDESCRIBED AS24 MT OF POLYSTYRENE GRADE HP8250 REF PO 45685161CIF VANCOUVER CANADA INCOTERMS 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABS AG15A1H QUANTITY2500MT UNIT PRICE USD235000MT TOTAL VALUEUSD5875000ABS AX4000 QUANTITY1800MT UNIT PRICE USD258000MT TOTAL VALUEUSD4644000TOTAL AMOUNTUSD10519000SAY US DOLLARS ONE HUNDRED FIVE THOUSAND ONE HUNDREDNINETY ONLYPRICE TERMCIF FUYONG SHENZHEN CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EPXOY RESIN AS PERPO NO 4525118824 USD8100000PO NO 4525118835 USD8100000PO NO 4525123047 USD10838880PO NO 4525123069 USD11108160SHIPPING TERMS CIF ANY CANADIAN USA CITY </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PACK MATERIAL FOR PHARMACEUTICAL INDUSTRY PVC 253MM 170MIC QUANTITY 10000 EA AT USD 2765 KG INDENT NUMBER 2146221 DATED 18112021 HS CODE NO 39204910 TERMS FOB TAIWAN SEA PORT TERMS FOB KAOHSIUNG TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EVA 7470M 10MT USD3720MTH0FP20EVA 7350M  5MT USD3300MTH0FP19LLDPE 3470  32MT USD1320MTH0FP16LLDPE 3470 272MT USD1290MTH0FP22LLDPE 3490  64MT USD1330MTH0FP17LLDPE 3490  32MT USD1300MTH0FP23HDPE 8010 102MT USD1250MTH0FP15HDPE 8010 102MT USD1250MTH0FP24FOB ANY TAIWANESE PORT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2500000 KGS EVA 7470K AT USD445KGHS CODE 390130002500000 KGS EVA 7470M AT USD445KGHS CODE 39013000CFR AMBARLICOUNTRY OF ORIGIN TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10000000 KGS EVA 7470K AT USD445KGHS CODE 39013000CFR MERSINCOUNTRY OF ORIGIN TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TERMS OF PRICE CIF COLOMBO SRI LANKA COUNTRY OF ORIGIN TAIWAN750 MT FORMOSA BRAND HIGH DENSITYPOLYETHYLENE HDPE 8001CIF COLOMBO SRI LANKAHS CODE39012000THE NUMBER OF THIS CREDIT DB1003LC2110853THE DATE OF THIS CREDIT 211110THE NAME OF OUR BANK COMMERCIAL BANK OF CEYLON PLC COLOMBOFREIGHT PREPAID </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DOORS AND FRAMES FIBERGLASS AND ACCESSORIESCFR DAMMAM SEAPORT SAUDI ARABIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PLASTIC RESIN CIF DANANG VIETNAM1 3 X 20 FCL CONSISTING OF 48 MTS OF PPCO 3015 AT USD1460MT USD70080002 1 X 20 FCL CONSISTING OF 16 MTS OF PP 5090T AT USD1540MT USD2464000 HS CODE 39021040INCOTERMS 2010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY TAISOX WAXFQUANTITY 9100MTUNIT PRICE USD118000MTTOTAL AMOUNT USD10738000TRADE TERM FOB TAIWANESE PORT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OTHERSRNINCOTERMSCIFPIPAVAV PORT INDIARNCONTRACTDETAILSRNPI NO A3X10211191RNDT OCT 222021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INQUIRY NO18K21111905 ITEM QUANTITYMTS  UNIT PRICE  TOTAL AMOUNT 1  300   USD128500MT USD38550000GOODS ORIGIN TAIWANPRICE TERM CIF SHANGHAI CHINAPACKING JUMBO BAG WITH PALLET </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PLATE FILM100PCT RECYCLED POSTCONSUMER POLYESTER P TYPEINSIDE CORONA TREATMENT 6 INCH CORE A GRADEYP216 122350UM  170045 KGSCIF SHANGHAI PORTCHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PVC PROCESSING AND P301 8000KG AT USD 266KGPINOA0C017CIF HUMEN PORTCHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ETHYLENEPROPYLENECOPOLYMERSPP COPOLYMER YUNGSOX 3080UNIT PRICE USD1335MTCIF SHANGHAI PORT CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRICE TERM C I F HAIPHONG VIETNAMPLASTIC RESIN2X20 FCL CONSISTING OF32 MTS OF PPCO 3015 AT USD137000MT USD43840001X20 FCL CONSISTING OF16 MTS OF PP 5018T AT USD145000MT USD2320000HS CODE 39021090 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GLASS EPOXY COPPER CLAD LAMINATES AS PER PROFORMA INVOICE DATED22112021 INCOTERM 2020 FCA TAIWAN PORTINCOTERMSFCACONTRACTDETAILS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7560 KGS N 6 POY 9024 SNOW WHITE AA GRADE  AT USD345 PER KGCIF BANGKOKAS PER SALE CONTRACT NOE112901 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY BPA BISPHENOLAQUANTITY 1500MTSCONTRACT NO 4500304582TOTAL VALUE USD255000000PRICE TERM CIF YANTAI PORT CHINA INCOTERMS 2010 EDITIONS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COUNTRY OF ORIGIN TAIWANPRICE TERMS CIF SOUTH KOREA ANY PORTNANYA PRODUCTSPVC CLEAR RIGID SHEET AND ANOTHER ITEMSINVOICE NO PI20211117 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TERMS OF PRICEFOB MAILIAOTAIWAN COUNTRY OF ORIGIN TAIWAN HS NO 2905310000 MONOETHYLENE GLYCOL FIBER GRADE PACKING IN BULK 3500000MT USD 70000MT USD 245000000  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75 MT POLYPROPYLENE HOMOPOLYMER S1005 RAFFIA MFI 50UNIT PRICE USD 177000MT CIF GUAYAQUIL ECUADORINCOTERMS 2020CONDITIONS CIF GUAYAQUIL ECUADOR AS PER INCOTERMS 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 COMMODITY POLYPROPYLENE GRADE K10112 TOTAL QUANTITY 32 MTS 053 UNIT PRICE USD135000 MT4 TOTAL AMOUNT USD4320000 055 TRADE TERMS CIF HAIPHONG PORT VIETNAM INCOTERMS 20206 PACKING STANDARD EXPORT PACKING7 ORIGIN TAIWAN8 ALL OTHER DETAIL ARE AS PER CONTRACT NO 202111169MTHN DATE23112021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PLASTIC RESIN CIF SEMARANG INDONESIA1 4 X 20 FCL CONSISTING OF 64 MTS OF PPCO 3015 AT USD1390MT USD8896000 HS CODE 3902100090INCOTERMS 2010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3080QUANTITY 30000MTUNIT PRICE USD123000MTMAKER FORMOSA PLASTICS CORPORATIONPACKING 25KGS BAGORIGIN TAIWANINCOTERMS CIF NINGBO CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRICE TERM C I F YANTIAN PORT CHINA COMMODITY PVC RESIN SUSPENSIONFORMOLON BRAND TAIWAN ORIGIN S65 QUANTITY S65 900 MT UNIT PRICE USD149000MT PACKING 25KGS NET PACKED IN PP WOVEN BAG WITH PE INNER BAG 900 BAGS OF 225MT PER CTNR40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LLDPE 3490 384MT USD1280MTH0FP36HDPE 8010 204MT USD1240MTH0FP35HDPE 7501  48MT USD1320MTH0FP28WAXF   91MT USD1130MTH0FP31FOB ANY TAIWANESE PORT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3040C25 MT AT USD1270MTTRADE TERM CIF DONGGUAN CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EXPORT RESIN AND QUALITY QUANTITY DESCRIPTION SPECIFICATION UNIT PRICE PACKING MARKING AND ALL OTHER DETAILS OF COMMODITY AS PER PROFORMA INVOICE NOPRDC1125 DATE25112021 OF THE BENEFICIARYHS CODE39073000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRICE TERM C I F HAIPHONG VIETNAMPLASTIC RESIN1X20 FCL CONSISTING OF16 MTS OF PPCO 3015 AT USD131000MT USD2096000HS CODE 39021040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRICE TERM C I F DANANG VIETNAMPLASTIC RESIN2X20 FCL CONSISTING OF32 MTS OF PPCO 3015 AT USD138000MT USD4416000HS CODE 39021040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NO COMMODITY QUANTITY  UNIT PRICE AMOUNT   MTS  USDMT  USDCOMPOUND EVA7470M  1500  372000 5580000 EVA7470M  1500  365000 5475000TOTAL   3000    11055000 PACKING MANUFACTURERS EXPORT STANDARD PACKING 25KGS PER BAG TRADE TERMSCIF CAT LAI PORT HOCHIMINH CITY VIETNAMINCOTERMS 2010 OTHER DETAILS AS PER SALE CONTRACT NO 3100037749 3100038393 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FOB MAILIAO TAIWANBASE OIL 150NPRICING 700MT 5 ICIS PRICING GII 150N FOB NE ASIAMEAN USD500MTBASE OIL 500NPRICING 2100MT 5 ICIS PRICING GII 500N FOB NE ASIAMEAN USD3500MTBASE OIL 70NPRICING 450MT USD77250MTPACKING IN BULK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 300000 BBLS 10PCT OF GASOIL 005PCT SCOUNTRY OF ORIGIN TAIWANTERMS OF PRICE FOB MAILIAOTAIWANUNIT PRICE THE FOB MAILIAOTAIWAN PRICE IN USD PER BBLFOB PRICE EQUAL TO X MINUS USD164 PER BARRELWHERE X EQUAL TO THE WHOLE MONTH ARITHMETIC AVERAGE OF DECEMBER2021 MEAN OF PLATTS FOR GASOIL 10PPMS UNDER THE HEADINGSINGAPOREPUBLISHED IN THE PLATTS ASIA PACIFICARAB GULFMARKETSCAN OF PLATTS QUOTATIONSIN THE EVENT THAT THE FINAL PRICE IS NOT KNOWN BEFORE LCNEGOTIAION PAYMENT WILL BE EFFECTED AGAINST THE PROVISIONALINVOICE PROVIDED BY THE SELLER SUCH PROVISIONAL PRICE SHALL BEBASED ON THE ABOVE PRICE CLAUSE WITH ALL AVAILABLE QUOTATIONSAT THE TIME OF INVOICINGWHEN THE FINAL PRICE IS KNOWN THE DIFFERENCE OF THE ACTUALAMOUNT AND THE PROVISIONAL AMOUNT IS TO BE SETTLED OUTSIDETHE IRREVOCABLE DOCUMENTARY LETTER OF CREDIT BETWEENBENEFICIARY AND APPLICANT BY TELEGRAPHIC TRANSFER PAYMENTWITHIN FIVE 5 NEW YORK BANKING DAYS UPON THE RECEIPT OFSUCH FINAL SETTLEMENT INVOICE BY THE APPLICABLE PARTYTHE PROVISIONALFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3DECIMAL PLACESWITH THE THIRD DECIMAL PLACE TO BE INCREASED TOTHE NEXT DIGIT WHENEVER THE FOURTH DECIMAL PLACE IS FIVE ORGREATER THAN FIVEANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITYETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX3080QUANTITY 20000MTUNIT PRICE USD123000MTTOTAL AMOUNT USD24600000ORIGINTAIWANPACKING 25 KG BAG WITHOUT PALLETCIF NINGBOCHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMODITY DESCRIPTION   QUANTITY UNIT PRICE AMOUNT      MTS  USDMT USD DOTP     32  1790 5728000      02 FCL TOTAL        USD5728000 TRADE TERM CIF CAT LAI PORT IN HOCHIMINH CITY VIETNAM    INCOTERMS 2010 ORIGIN  TAIWAN QUALITY EXPORT STANDARD OTHER DETAILS AS PER CONTRACT NONN1C87 DATED 03122021 PACKING 200 KGSDRUM 16MTFCL MARKING DOTP   MANUFACTURER NAME ADDRESS   MADE IN TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 TERMS CIF JAKARTA PORT INDONESIA INCOTERMS 20202 NAME OF GOODS FORMOLON C153 TYPE OF GOODS PVC COPOLYMER4 VOLUME OF GOODS 16 MT5 QUALITY OF GOODS EXPORT QUALITY6 HS NUMBER 3904307 COUNTRY OF ORIGIN TAIWAN8 CONTRACT NO PO 2101062 PI NO A0L171 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1800 MTS 5 PCT OF BASE OIL FORMOSA 150N2200 MTS 5 PCT OF BASE OIL FORMOSA 500NFOB MAILIAO TAIWAN INCOTERMS 2010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RESIN NPSN 901 X 75 QTY 17600 KGS AT USD 369 PER KGCIFDAMMAM KSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CIF HAIPHONG VIETNAMN12000 MTS OF PVC SUSPENSION RESIN S60 100 PERCENTAGE PVCNPACKING 25KGS IN PP WOVEN BAG WITH PE INNER BAG WITH PALLET </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EVA 7350M 50 MT AT USD3195MTLLDPE 3224 19 MT AT USD1290MTFOB ANY TAIWAN PORT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLYPROPYLENE RESIN GRADE NOK1035QUANTITY 25 MTSUNIT PRICE USD137000MTAS PER PI NOWB060PRICE TERMS CIF CAT LAI PORT HOCHIMINH CITY VIETNAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRADE TERM FOB MAILIAO PORT TAIWANCAUSTIC SODA SOLUTION MIN 49PACKING IN BULKQUANTITY 2500 DMT 5PCTUNIT PRICE USD 540 PER DMT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8500 MTS PVC SUSPENSION RESIN S65DUNIT PRICE 186000 USDTOTAL AMOUNT 15810000DELIVERY TERMS CIF PIPAVAVPACKING 25KGS IN PP WOVEN BAG WITH PE INNER BAGSHIPPER PROFORMA INVOICE NO 21N11M0B DATED 26OCT2021DELIVERY TERMS CIF PIPAVAV INDIA </t>
   </si>
   <si>
     <t>NANYA PLASTICS CORPORATION</t>
@@ -328,37 +565,43 @@
     <t>NAN YA PLASTICS</t>
   </si>
   <si>
+    <t>FORMOSA PETROCHEMICAL</t>
+  </si>
+  <si>
+    <t>FORMOSA PLASTICS</t>
+  </si>
+  <si>
     <t>FORMOSA CHEMICALS AND FIBRE</t>
   </si>
   <si>
-    <t>FORMOSA PLASTICS</t>
-  </si>
-  <si>
     <t>FORMOSA CHEMICALS ANDFIBRE CORPORATION</t>
   </si>
   <si>
     <t>NANYA PLASTICS CORP</t>
   </si>
   <si>
-    <t>FORMOSA PETROCHEMICAL</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CONTRACT 013522RN1X40FCL HQRN22000 KG TAIRILIN</t>
   </si>
   <si>
+    <t xml:space="preserve">  TERMS OF PRICE CIF COLOMBO SRI LANKA COUNTRY OF ORIGIN TAIWAN750 MT FORMOSA BRAND HIGH DENSITYPOLYETHYLENE HDPE 8001CIF COLOMBO SRI LANKAHS CODE39012000THE NUMBER OF THIS CREDIT DB1003LC2110853THE DATE OF THIS CREDIT 211110THE NAME OF OUR BANK COMMERCIAL BANK OF CEYLON PLC</t>
+  </si>
+  <si>
+    <t>FORMOSA CHEMICALS ad FIBRE CORP</t>
+  </si>
+  <si>
+    <t>FORMOSA CHEMICALS AND  FIBRECORPORATION</t>
+  </si>
+  <si>
     <t>['TAIWAN']</t>
   </si>
   <si>
     <t>['GLASS FABRICS', 'JAPANESE']</t>
   </si>
   <si>
-    <t>['MONOETHYLENE GLYCOL', 'PACKING  IN BULK', 'TAIWAN']</t>
-  </si>
-  <si>
-    <t>['EPOXIDIZED SOYBEAN OIL', 'TAIWAN']</t>
-  </si>
-  <si>
-    <t>['PP SHEET', ' PP ']</t>
+    <t>['TAIWAN', 'GASOIL']</t>
+  </si>
+  <si>
+    <t>['TAIWAN', 'RESIN']</t>
   </si>
   <si>
     <t>['TAIRILIN BRAND PET CHIPS', 'TAIWAN']</t>
@@ -367,18 +610,9 @@
     <t>['FABRICS', 'TAIWAN']</t>
   </si>
   <si>
-    <t>['NYLON 6', 'YARN']</t>
-  </si>
-  <si>
-    <t>['PLASTIC RESIN', 'FM090']</t>
-  </si>
-  <si>
     <t>['SOYABEAN OIL']</t>
   </si>
   <si>
-    <t>['TETRAHYDROFURAN', 'TAIWAN']</t>
-  </si>
-  <si>
     <t>['NYLON 6 FILAMENT YARN']</t>
   </si>
   <si>
@@ -388,9 +622,15 @@
     <t>['ETHYLENEPROPYLENE COPOLYMER', 'POLYPROPYLENE RESIN', 'YUNGSOX', ' PP ']</t>
   </si>
   <si>
+    <t>['PLASTIC RESIN', 'PPCO 3015']</t>
+  </si>
+  <si>
     <t>['METHACRYLATE ACID']</t>
   </si>
   <si>
+    <t>['CAUSTIC SODA MICROPEARLS', 'CHEMICALS', 'TAIWAN']</t>
+  </si>
+  <si>
     <t>[' 2EH ']</t>
   </si>
   <si>
@@ -406,6 +646,12 @@
     <t>['TAIWAN', 'ACID']</t>
   </si>
   <si>
+    <t>['TAIWAN', ' EVA ']</t>
+  </si>
+  <si>
+    <t>['PVC SUSPENSION RESIN', ' PP ']</t>
+  </si>
+  <si>
     <t>['EVA']</t>
   </si>
   <si>
@@ -418,94 +664,235 @@
     <t>['LAMINATE']</t>
   </si>
   <si>
+    <t>['TAIWAN', 'LLDPE', 'HDPE']</t>
+  </si>
+  <si>
+    <t>['POLYESTER STAPLE FIBER']</t>
+  </si>
+  <si>
+    <t>['NYLON']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX', ' PP ']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX']</t>
+  </si>
+  <si>
+    <t>['TAIWAN', ' EVA ', 'LLDPE']</t>
+  </si>
+  <si>
+    <t>['LAMINATE', 'PREPREG']</t>
+  </si>
+  <si>
+    <t>['POLYESTER PARTIALLY ORIENTED YARN', 'TAIRILIN', 'TAIWAN', 'BRIGHT']</t>
+  </si>
+  <si>
+    <t>['POLYESTER FILM']</t>
+  </si>
+  <si>
+    <t>['BASE OIL', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['PP SYNTHETIC PAPER', 'PVC PLATE', 'PVC SHEET', 'PP SHEET', 'PET FILM', 'APET', 'BOPP', ' PP ']</t>
+  </si>
+  <si>
+    <t>['TAIWAN', 'HDPE']</t>
+  </si>
+  <si>
+    <t>['PVC RESINS60', 'LAMINATE', ' PP ', ' PE ']</t>
+  </si>
+  <si>
+    <t>['PVC RESIN S60', 'LAMINATE', ' PP ', ' PE ']</t>
+  </si>
+  <si>
+    <t>['GLASS EPOXY COPPER CLAD LAMINATES']</t>
+  </si>
+  <si>
+    <t>['TAIRILIN BRAND PET CHIPS']</t>
+  </si>
+  <si>
+    <t>['PVC SUSPENSION', ' PP ']</t>
+  </si>
+  <si>
+    <t>['POLYETHYLENE', 'PHTHALATE', 'PET RESIN']</t>
+  </si>
+  <si>
+    <t>['ABS RESIN', 'COVERING', 'ANC100', 'AE8000']</t>
+  </si>
+  <si>
+    <t>['SAN RESIN', 'COVERING', ' SAN ']</t>
+  </si>
+  <si>
+    <t>['COPPER FOIL', 'JAPANESE']</t>
+  </si>
+  <si>
+    <t>['ACRYLIC ACID']</t>
+  </si>
+  <si>
+    <t>['PHTHALIC ANHYDRIDE']</t>
+  </si>
+  <si>
+    <t>['PVC CLEAR RIGID SHEET', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['TAIWAN', 'TAISOX']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX 3080']</t>
+  </si>
+  <si>
+    <t>['ISO NONYL ALCOHOL', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['TAIWAN', 'TOTM']</t>
+  </si>
+  <si>
+    <t>['POLYESTER', 'TAIRILIN', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['PLASTIC RESIN', 'PP 5090T', ' PP ']</t>
+  </si>
+  <si>
+    <t>['PVC COPOLYMER', 'FORMOLON', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['JAPANESE']</t>
+  </si>
+  <si>
     <t>['MONOETHYLENE GLYCOL', 'TAIWAN']</t>
   </si>
   <si>
-    <t>['POLYESTER STAPLE FIBER']</t>
-  </si>
-  <si>
-    <t>['NYLON']</t>
-  </si>
-  <si>
-    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX', ' PP ']</t>
-  </si>
-  <si>
-    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX']</t>
-  </si>
-  <si>
-    <t>['LAMINATE', 'PREPREG']</t>
-  </si>
-  <si>
-    <t>['POLYESTER FILM']</t>
-  </si>
-  <si>
-    <t>['BASE OIL', 'TAIWAN']</t>
-  </si>
-  <si>
-    <t>['TAIWAN', 'HDPE']</t>
-  </si>
-  <si>
-    <t>['GLASS EPOXY COPPER CLAD LAMINATES']</t>
-  </si>
-  <si>
-    <t>['TAIRILIN BRAND PET CHIPS']</t>
-  </si>
-  <si>
-    <t>['POLYETHYLENE', 'PHTHALATE', 'PET RESIN']</t>
-  </si>
-  <si>
-    <t>['FM270', 'RESIN']</t>
-  </si>
-  <si>
-    <t>['ABS RESIN', 'COVERING', 'ANC100', 'AE8000']</t>
-  </si>
-  <si>
-    <t>['SAN RESIN', 'COVERING', ' SAN ']</t>
-  </si>
-  <si>
-    <t>['COPPER FOIL', 'JAPANESE']</t>
-  </si>
-  <si>
-    <t>['SOYBEAN OIL', 'TAIWAN']</t>
-  </si>
-  <si>
-    <t>['ACRYLIC ACID']</t>
-  </si>
-  <si>
-    <t>['PHTHALIC ANHYDRIDE']</t>
-  </si>
-  <si>
-    <t>['PVC CLEAR RIGID SHEET', 'TAIWAN']</t>
-  </si>
-  <si>
-    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX 3080']</t>
-  </si>
-  <si>
-    <t>['TAIWAN', 'TOTM']</t>
-  </si>
-  <si>
-    <t>['POLYESTER', 'TAIRILIN', 'TAIWAN']</t>
-  </si>
-  <si>
-    <t>['PVC COPOLYMER', 'FORMOLON', 'TAIWAN']</t>
-  </si>
-  <si>
-    <t>['JAPANESE']</t>
-  </si>
-  <si>
     <t>['RESIN NPEL', 'NPEL 128']</t>
   </si>
   <si>
+    <t>['PVC SUSPENSION RESIN', ' PP ', ' PE ']</t>
+  </si>
+  <si>
     <t>['GLASS FABRICS']</t>
   </si>
   <si>
     <t>['NAN YA RELEASE FILM']</t>
   </si>
   <si>
+    <t>['PVC SUSPENSION RESIN', 'PVC MASS RESIN B57', ' PP ', ' PE ']</t>
+  </si>
+  <si>
     <t>['METHACRYLIC ACID']</t>
   </si>
   <si>
-    <t>['TETRAHYDROFURAN', 'TAIWAN', ' THF ']</t>
+    <t>['NAN YA RELEASE FILM', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['BASE OIL 500N', 'BASE OIL 150N', 'BASE OIL 70N', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['PVC MASS RESIN B57']</t>
+  </si>
+  <si>
+    <t>['PARAFFIN', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['PLASTIC RESIN', 'PPCO 3015', ' PP ']</t>
+  </si>
+  <si>
+    <t>['PVC SUSPENSION RESIN']</t>
+  </si>
+  <si>
+    <t>['KGCFR']</t>
+  </si>
+  <si>
+    <t>['NAN YA PA66', 'NAN YA PBT']</t>
+  </si>
+  <si>
+    <t>['NAN YA PBT', ' PP ']</t>
+  </si>
+  <si>
+    <t>['POLYPROPYLENE', ' PP ']</t>
+  </si>
+  <si>
+    <t>['ACRYLIC POLYMER']</t>
+  </si>
+  <si>
+    <t>['TAIWAN', ' PE ', 'ACID']</t>
+  </si>
+  <si>
+    <t>['TAIRISAN SAN RESINS']</t>
+  </si>
+  <si>
+    <t>['POLYESTER RESIN', 'PET RESIN']</t>
+  </si>
+  <si>
+    <t>['ACRYLONITRILE BUTADIENE STYRENE', 'PLASTIC RESIN']</t>
+  </si>
+  <si>
+    <t>['2100ANC1']</t>
+  </si>
+  <si>
+    <t>['CHINASTABILIZER']</t>
+  </si>
+  <si>
+    <t>['POLYSTYRENE', 'COVERING']</t>
+  </si>
+  <si>
+    <t>['AX4000', ' ABS ']</t>
+  </si>
+  <si>
+    <t>['RESIN']</t>
+  </si>
+  <si>
+    <t>['MATERIAL', 'TAIWAN', ' EA ']</t>
+  </si>
+  <si>
+    <t>['TAIWAN', ' EVA ', 'LLDPE', 'HDPE']</t>
+  </si>
+  <si>
+    <t>['POLYETHYLENE', 'HDPE 8001', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['MMA']</t>
+  </si>
+  <si>
+    <t>['PLASTIC RESIN', 'PPCO 3015', 'PP 5090T', ' PP ']</t>
+  </si>
+  <si>
+    <t>['PORT INDIARNCONTRACTDETAILSRNPI']</t>
+  </si>
+  <si>
+    <t>['POLYESTER']</t>
+  </si>
+  <si>
+    <t>['PORTCHINA']</t>
+  </si>
+  <si>
+    <t>['YUNGSOX 3080', 'PROPYLENE', 'ETHYLENE']</t>
+  </si>
+  <si>
+    <t>['GLASS EPOXY COPPER CLAD LAMINATES', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['WHITE']</t>
+  </si>
+  <si>
+    <t>['POLYPROPYLENE']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX 3080', 'TAIWAN', ' PP ']</t>
+  </si>
+  <si>
+    <t>['PVC RESIN', 'FORMOLON', 'TAIWAN', ' PP ', ' PE ']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX', 'TAIWAN', ' PP ']</t>
+  </si>
+  <si>
+    <t>['TAIWAN', 'DOTP']</t>
+  </si>
+  <si>
+    <t>['NPSN 901 X 75', 'RESIN']</t>
+  </si>
+  <si>
+    <t>['POLYPROPYLENE RESIN GRADE']</t>
   </si>
   <si>
     <t>rule</t>
@@ -520,117 +907,126 @@
     <t>GLASS FABRICS</t>
   </si>
   <si>
+    <t>TAIRILIN BRAND PET CHIPS</t>
+  </si>
+  <si>
+    <t>FABRICS</t>
+  </si>
+  <si>
+    <t>SOYABEAN OIL</t>
+  </si>
+  <si>
+    <t>NYLON 6 FILAMENT YARN</t>
+  </si>
+  <si>
+    <t>EPOXIDIZED SOYBEAN OIL</t>
+  </si>
+  <si>
+    <t>ETHYLENEPROPYLENE COPOLYMER</t>
+  </si>
+  <si>
+    <t>PLASTIC RESIN</t>
+  </si>
+  <si>
+    <t>METHACRYLATE ACID</t>
+  </si>
+  <si>
+    <t>CAUSTIC SODA MICROPEARLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2EH </t>
+  </si>
+  <si>
+    <t>POLYOXYMETHYLENE</t>
+  </si>
+  <si>
+    <t>EPOXY RESIN NPEL</t>
+  </si>
+  <si>
+    <t>OTHERS</t>
+  </si>
+  <si>
+    <t>PVC SUSPENSION RESIN</t>
+  </si>
+  <si>
+    <t>EVA</t>
+  </si>
+  <si>
+    <t>POLYPROPYLENE</t>
+  </si>
+  <si>
+    <t>BPA BISPHENOLA</t>
+  </si>
+  <si>
+    <t>LAMINATE</t>
+  </si>
+  <si>
+    <t>POLYESTER STAPLE FIBER</t>
+  </si>
+  <si>
+    <t>NYLON</t>
+  </si>
+  <si>
+    <t>POLYESTER PARTIALLY ORIENTED YARN</t>
+  </si>
+  <si>
+    <t>POLYESTER FILM</t>
+  </si>
+  <si>
+    <t>BASE OIL</t>
+  </si>
+  <si>
+    <t>PP SYNTHETIC PAPER</t>
+  </si>
+  <si>
+    <t>PVC RESINS60</t>
+  </si>
+  <si>
+    <t>PVC RESIN S60</t>
+  </si>
+  <si>
+    <t>GLASS EPOXY COPPER CLAD LAMINATES</t>
+  </si>
+  <si>
+    <t>PVC SUSPENSION</t>
+  </si>
+  <si>
+    <t>POLYETHYLENE</t>
+  </si>
+  <si>
+    <t>ABS RESIN</t>
+  </si>
+  <si>
+    <t>SAN RESIN</t>
+  </si>
+  <si>
+    <t>COPPER FOIL</t>
+  </si>
+  <si>
+    <t>ACRYLIC ACID</t>
+  </si>
+  <si>
+    <t>PHTHALIC ANHYDRIDE</t>
+  </si>
+  <si>
+    <t>PVC CLEAR RIGID SHEET</t>
+  </si>
+  <si>
+    <t>ISO NONYL ALCOHOL</t>
+  </si>
+  <si>
+    <t>POLYESTER</t>
+  </si>
+  <si>
+    <t>PVC COPOLYMER</t>
+  </si>
+  <si>
+    <t>JAPANESE</t>
+  </si>
+  <si>
     <t>MONOETHYLENE GLYCOL</t>
   </si>
   <si>
-    <t>EPOXIDIZED SOYBEAN OIL</t>
-  </si>
-  <si>
-    <t>PP SHEET</t>
-  </si>
-  <si>
-    <t>TAIRILIN BRAND PET CHIPS</t>
-  </si>
-  <si>
-    <t>FABRICS</t>
-  </si>
-  <si>
-    <t>NYLON 6</t>
-  </si>
-  <si>
-    <t>PLASTIC RESIN</t>
-  </si>
-  <si>
-    <t>SOYABEAN OIL</t>
-  </si>
-  <si>
-    <t>TETRAHYDROFURAN</t>
-  </si>
-  <si>
-    <t>NYLON 6 FILAMENT YARN</t>
-  </si>
-  <si>
-    <t>ETHYLENEPROPYLENE COPOLYMER</t>
-  </si>
-  <si>
-    <t>METHACRYLATE ACID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2EH </t>
-  </si>
-  <si>
-    <t>POLYOXYMETHYLENE</t>
-  </si>
-  <si>
-    <t>EPOXY RESIN NPEL</t>
-  </si>
-  <si>
-    <t>OTHERS</t>
-  </si>
-  <si>
-    <t>EVA</t>
-  </si>
-  <si>
-    <t>POLYPROPYLENE</t>
-  </si>
-  <si>
-    <t>BPA BISPHENOLA</t>
-  </si>
-  <si>
-    <t>LAMINATE</t>
-  </si>
-  <si>
-    <t>POLYESTER STAPLE FIBER</t>
-  </si>
-  <si>
-    <t>NYLON</t>
-  </si>
-  <si>
-    <t>POLYESTER FILM</t>
-  </si>
-  <si>
-    <t>BASE OIL</t>
-  </si>
-  <si>
-    <t>GLASS EPOXY COPPER CLAD LAMINATES</t>
-  </si>
-  <si>
-    <t>POLYETHYLENE</t>
-  </si>
-  <si>
-    <t>FM270</t>
-  </si>
-  <si>
-    <t>ABS RESIN</t>
-  </si>
-  <si>
-    <t>SAN RESIN</t>
-  </si>
-  <si>
-    <t>COPPER FOIL</t>
-  </si>
-  <si>
-    <t>SOYBEAN OIL</t>
-  </si>
-  <si>
-    <t>ACRYLIC ACID</t>
-  </si>
-  <si>
-    <t>PHTHALIC ANHYDRIDE</t>
-  </si>
-  <si>
-    <t>PVC CLEAR RIGID SHEET</t>
-  </si>
-  <si>
-    <t>POLYESTER</t>
-  </si>
-  <si>
-    <t>PVC COPOLYMER</t>
-  </si>
-  <si>
-    <t>JAPANESE</t>
-  </si>
-  <si>
     <t>RESIN NPEL</t>
   </si>
   <si>
@@ -640,253 +1036,463 @@
     <t>METHACRYLIC ACID</t>
   </si>
   <si>
+    <t>BASE OIL 500N</t>
+  </si>
+  <si>
+    <t>PVC MASS RESIN B57</t>
+  </si>
+  <si>
+    <t>PARAFFIN</t>
+  </si>
+  <si>
+    <t>KGCFR</t>
+  </si>
+  <si>
+    <t>NAN YA PA66</t>
+  </si>
+  <si>
+    <t>NAN YA PBT</t>
+  </si>
+  <si>
+    <t>ACRYLIC POLYMER</t>
+  </si>
+  <si>
+    <t>TAIRISAN SAN RESINS</t>
+  </si>
+  <si>
+    <t>POLYESTER RESIN</t>
+  </si>
+  <si>
+    <t>ACRYLONITRILE BUTADIENE STYRENE</t>
+  </si>
+  <si>
+    <t>2100ANC1</t>
+  </si>
+  <si>
+    <t>CHINASTABILIZER</t>
+  </si>
+  <si>
+    <t>POLYSTYRENE</t>
+  </si>
+  <si>
+    <t>AX4000</t>
+  </si>
+  <si>
+    <t>RESIN</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>MMA</t>
+  </si>
+  <si>
+    <t>PORT INDIARNCONTRACTDETAILSRNPI</t>
+  </si>
+  <si>
+    <t>PORTCHINA</t>
+  </si>
+  <si>
+    <t>YUNGSOX 3080</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>PVC RESIN</t>
+  </si>
+  <si>
+    <t>NPSN 901 X 75</t>
+  </si>
+  <si>
+    <t>POLYPROPYLENE RESIN GRADE</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>1P</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2P</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>['1P']</t>
+  </si>
+  <si>
+    <t>['2G', '28', '21']</t>
+  </si>
+  <si>
+    <t>['1P', '60', '61', '61']</t>
+  </si>
+  <si>
+    <t>['1P', '4A', '18']</t>
+  </si>
+  <si>
+    <t>['25', '25', '1P']</t>
+  </si>
+  <si>
+    <t>['26', '42', '1P']</t>
+  </si>
+  <si>
+    <t>['2P', '24', '22']</t>
+  </si>
+  <si>
+    <t>['45', '41']</t>
+  </si>
+  <si>
+    <t>['2P', '24']</t>
+  </si>
+  <si>
+    <t>['4A', '4A', '18', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['23', '4A', '11', '1P', '1P']</t>
+  </si>
+  <si>
+    <t>['1A', '12']</t>
+  </si>
+  <si>
+    <t>['11', '2R', '1P']</t>
+  </si>
+  <si>
+    <t>['27', '2M']</t>
+  </si>
+  <si>
+    <t>['1P', '1P']</t>
+  </si>
+  <si>
+    <t>['2R']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['1P', '48', '27', '1A']</t>
+  </si>
+  <si>
+    <t>['1P', '18', '18', '2P']</t>
+  </si>
+  <si>
+    <t>['11', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['1P', '4A', '1P', '4A']</t>
+  </si>
+  <si>
+    <t>['2P', '28']</t>
+  </si>
+  <si>
+    <t>['2M', '28']</t>
+  </si>
+  <si>
+    <t>['1P', '18', '18', '4A', '18']</t>
+  </si>
+  <si>
+    <t>['25', '25']</t>
+  </si>
+  <si>
+    <t>['42', '45']</t>
+  </si>
+  <si>
+    <t>['4A', '18', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['4A', '18']</t>
+  </si>
+  <si>
+    <t>['1P', '18', '18', '2P', '18', '18']</t>
+  </si>
+  <si>
+    <t>['2M', '28', '2M']</t>
+  </si>
+  <si>
+    <t>['25', '25', '1P', '22']</t>
+  </si>
+  <si>
+    <t>['2E', '25']</t>
+  </si>
+  <si>
+    <t>['64', '64', '1P']</t>
+  </si>
+  <si>
+    <t>['23', '23', '21', '23', '22', '2E', '22', '23', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['11', '2M', '28', '1P', '21', '21']</t>
+  </si>
+  <si>
+    <t>['2M']</t>
+  </si>
+  <si>
+    <t>['18', '27', '2E', '25', '25']</t>
+  </si>
+  <si>
+    <t>['4A', '17', '14', '4A']</t>
+  </si>
+  <si>
+    <t>['4A', '17', '4A']</t>
+  </si>
+  <si>
+    <t>['2N', '21']</t>
+  </si>
+  <si>
+    <t>['27', '27']</t>
+  </si>
+  <si>
+    <t>['23', '23', '1P']</t>
+  </si>
+  <si>
+    <t>['1P', '18']</t>
+  </si>
+  <si>
+    <t>['27', '24', '1P']</t>
+  </si>
+  <si>
+    <t>['1P', '27', '27']</t>
+  </si>
+  <si>
+    <t>['26', '42', '25', '1P']</t>
+  </si>
+  <si>
+    <t>['23', '4A', '11', '1P', '1P', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['11', '18', '2P', '11', '1P']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['2A', '25', '1P']</t>
+  </si>
+  <si>
+    <t>['2R', '2R']</t>
+  </si>
+  <si>
+    <t>['11', '1P', '21', '21']</t>
+  </si>
+  <si>
+    <t>['2G', '28']</t>
+  </si>
+  <si>
+    <t>['26', '2E']</t>
+  </si>
+  <si>
+    <t>['11', '11', '1P', '21', '21']</t>
+  </si>
+  <si>
+    <t>['1A']</t>
+  </si>
+  <si>
+    <t>['26', '2E', '1P']</t>
+  </si>
+  <si>
+    <t>['60', '60', '61', '1P']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['2P', '1P']</t>
+  </si>
+  <si>
+    <t>['24', '24']</t>
+  </si>
+  <si>
+    <t>['24', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['1P', '4A', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['12', '12']</t>
+  </si>
+  <si>
+    <t>['1P', '21', '48', '27', '1A']</t>
+  </si>
+  <si>
+    <t>['4A']</t>
+  </si>
+  <si>
+    <t>['24', '25', '25']</t>
+  </si>
+  <si>
+    <t>['4A', '23', '4A', '11', '1P']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['2P']</t>
+  </si>
+  <si>
+    <t>['4A', '17']</t>
+  </si>
+  <si>
+    <t>['4A', '4A']</t>
+  </si>
+  <si>
+    <t>['4A', '1P', '12']</t>
+  </si>
+  <si>
+    <t>['1P', '18', '18', '2P', '18', '18', '4A', '18']</t>
+  </si>
+  <si>
+    <t>['18', '18', '1P']</t>
+  </si>
+  <si>
+    <t>['23', '4A', '11', '1P', '1P', '1P', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['26', '42']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['18', '62', '4A', '62']</t>
+  </si>
+  <si>
+    <t>['2M', '1P']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['1P', '4A']</t>
+  </si>
+  <si>
+    <t>['4A', '18', '1P', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['11', '11', '1P', '1P', '21', '21']</t>
+  </si>
+  <si>
+    <t>['2R', '4A', '18']</t>
+  </si>
+  <si>
+    <t>not find</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2G</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>2R</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>2N</t>
+  </si>
+  <si>
     <t>2A</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2E</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>1P</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2M</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>2P</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>['1P']</t>
-  </si>
-  <si>
-    <t>['2G', '28', '21']</t>
-  </si>
-  <si>
-    <t>['2A', '25', '2A', '1P']</t>
-  </si>
-  <si>
-    <t>['2P', '24', '1P']</t>
-  </si>
-  <si>
-    <t>['23', '22', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['25', '25', '1P']</t>
-  </si>
-  <si>
-    <t>['26', '42', '1P']</t>
-  </si>
-  <si>
-    <t>['45', '25', 'XU', '45', '42', '12', '1P', '18', '2E']</t>
-  </si>
-  <si>
-    <t>['23', '4A', '11', '1P', '1P']</t>
-  </si>
-  <si>
-    <t>['2P', '24', '22']</t>
-  </si>
-  <si>
-    <t>['24', '2P', '24', '1P']</t>
-  </si>
-  <si>
-    <t>['45', '41']</t>
-  </si>
-  <si>
-    <t>['2P', '24']</t>
-  </si>
-  <si>
-    <t>['4A', '4A', '18', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['1A', '12']</t>
-  </si>
-  <si>
-    <t>['27', '2M']</t>
-  </si>
-  <si>
-    <t>['1P', '1P']</t>
-  </si>
-  <si>
-    <t>['2R']</t>
-  </si>
-  <si>
-    <t>['29']</t>
-  </si>
-  <si>
-    <t>['1P', '48', '27', '1A']</t>
-  </si>
-  <si>
-    <t>['12']</t>
-  </si>
-  <si>
-    <t>['1P', '4A', '1P', '4A']</t>
-  </si>
-  <si>
-    <t>['2P', '28']</t>
-  </si>
-  <si>
-    <t>['2M', '28']</t>
-  </si>
-  <si>
-    <t>['2A', '25', '1P']</t>
-  </si>
-  <si>
-    <t>['25', '25']</t>
-  </si>
-  <si>
-    <t>['42', '45']</t>
-  </si>
-  <si>
-    <t>['4A', '18', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['4A', '18']</t>
-  </si>
-  <si>
-    <t>['2M', '28', '2M']</t>
-  </si>
-  <si>
-    <t>['2E', '25']</t>
-  </si>
-  <si>
-    <t>['64', '64', '1P']</t>
-  </si>
-  <si>
-    <t>['1P', '4A', '18']</t>
-  </si>
-  <si>
-    <t>['2M']</t>
-  </si>
-  <si>
-    <t>['18', '27', '2E', '25', '25']</t>
-  </si>
-  <si>
-    <t>['4A', '17', '14', '4A']</t>
-  </si>
-  <si>
-    <t>['4A', '17', '4A']</t>
-  </si>
-  <si>
-    <t>['2N', '21']</t>
-  </si>
-  <si>
-    <t>['27', '27']</t>
-  </si>
-  <si>
-    <t>['23', '23', '1P']</t>
-  </si>
-  <si>
-    <t>['1P', '27', '27']</t>
-  </si>
-  <si>
-    <t>['26', '42', '25', '1P']</t>
-  </si>
-  <si>
-    <t>['11', '18', '2P', '11', '1P']</t>
-  </si>
-  <si>
-    <t>['21']</t>
-  </si>
-  <si>
-    <t>['2R', '2R']</t>
-  </si>
-  <si>
-    <t>['2G', '28']</t>
-  </si>
-  <si>
-    <t>['26', '2E']</t>
-  </si>
-  <si>
-    <t>['1A']</t>
-  </si>
-  <si>
-    <t>['24', '2P', '24', '1P', '2P']</t>
-  </si>
-  <si>
-    <t>not find</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2G</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>2R</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>2N</t>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>4H</t>
   </si>
   <si>
     <t>0927.xls</t>
@@ -982,7 +1588,46 @@
     <t>1118.xls</t>
   </si>
   <si>
-    <t>1119.xls</t>
+    <t>1122.xls</t>
+  </si>
+  <si>
+    <t>1123.xls</t>
+  </si>
+  <si>
+    <t>1125.xls</t>
+  </si>
+  <si>
+    <t>1126.xls</t>
+  </si>
+  <si>
+    <t>1129.xls</t>
+  </si>
+  <si>
+    <t>1130.xls</t>
+  </si>
+  <si>
+    <t>1201.xls</t>
+  </si>
+  <si>
+    <t>1202.xls</t>
+  </si>
+  <si>
+    <t>1203.xls</t>
+  </si>
+  <si>
+    <t>1206.xls</t>
+  </si>
+  <si>
+    <t>1207.xls</t>
+  </si>
+  <si>
+    <t>1208.xls</t>
+  </si>
+  <si>
+    <t>1209.xls</t>
+  </si>
+  <si>
+    <t>1210.xls</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1386,31 +2031,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>364</v>
       </c>
       <c r="H2" t="s">
-        <v>231</v>
+        <v>389</v>
       </c>
       <c r="I2" t="s">
-        <v>280</v>
+        <v>476</v>
       </c>
       <c r="J2" t="s">
-        <v>216</v>
+        <v>372</v>
       </c>
       <c r="K2" t="s">
-        <v>291</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1421,136 +2066,136 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>296</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>365</v>
       </c>
       <c r="H3" t="s">
-        <v>232</v>
+        <v>390</v>
       </c>
       <c r="I3" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J3" t="s">
-        <v>285</v>
+        <v>481</v>
       </c>
       <c r="K3" t="s">
-        <v>292</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="G4" t="s">
-        <v>210</v>
+        <v>366</v>
       </c>
       <c r="H4" t="s">
-        <v>233</v>
+        <v>391</v>
       </c>
       <c r="I4" t="s">
-        <v>281</v>
+        <v>478</v>
       </c>
       <c r="J4" t="s">
-        <v>214</v>
+        <v>482</v>
       </c>
       <c r="K4" t="s">
-        <v>293</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>366</v>
       </c>
       <c r="H5" t="s">
-        <v>234</v>
+        <v>391</v>
       </c>
       <c r="I5" t="s">
-        <v>281</v>
+        <v>478</v>
       </c>
       <c r="J5" t="s">
-        <v>224</v>
+        <v>482</v>
       </c>
       <c r="K5" t="s">
-        <v>293</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>295</v>
       </c>
       <c r="G6" t="s">
-        <v>212</v>
+        <v>367</v>
       </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>392</v>
       </c>
       <c r="I6" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="J6" t="s">
-        <v>226</v>
+        <v>372</v>
       </c>
       <c r="K6" t="s">
-        <v>293</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1561,31 +2206,31 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>297</v>
       </c>
       <c r="G7" t="s">
-        <v>213</v>
+        <v>368</v>
       </c>
       <c r="H7" t="s">
-        <v>236</v>
+        <v>393</v>
       </c>
       <c r="I7" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J7" t="s">
-        <v>214</v>
+        <v>369</v>
       </c>
       <c r="K7" t="s">
-        <v>294</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1596,731 +2241,731 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>298</v>
       </c>
       <c r="G8" t="s">
-        <v>214</v>
+        <v>369</v>
       </c>
       <c r="H8" t="s">
-        <v>237</v>
+        <v>394</v>
       </c>
       <c r="I8" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J8" t="s">
-        <v>286</v>
+        <v>483</v>
       </c>
       <c r="K8" t="s">
-        <v>294</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>299</v>
       </c>
       <c r="G9" t="s">
-        <v>215</v>
+        <v>370</v>
       </c>
       <c r="H9" t="s">
-        <v>238</v>
+        <v>395</v>
       </c>
       <c r="I9" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="J9" t="s">
-        <v>229</v>
+        <v>380</v>
       </c>
       <c r="K9" t="s">
-        <v>295</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="G10" t="s">
-        <v>216</v>
+        <v>371</v>
       </c>
       <c r="H10" t="s">
-        <v>239</v>
+        <v>396</v>
       </c>
       <c r="I10" t="s">
-        <v>283</v>
+        <v>480</v>
       </c>
       <c r="J10" t="s">
-        <v>230</v>
+        <v>382</v>
       </c>
       <c r="K10" t="s">
-        <v>295</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="G11" t="s">
-        <v>211</v>
+        <v>366</v>
       </c>
       <c r="H11" t="s">
-        <v>240</v>
+        <v>391</v>
       </c>
       <c r="I11" t="s">
-        <v>281</v>
+        <v>478</v>
       </c>
       <c r="J11" t="s">
-        <v>224</v>
+        <v>482</v>
       </c>
       <c r="K11" t="s">
-        <v>295</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>301</v>
       </c>
       <c r="G12" t="s">
-        <v>211</v>
+        <v>370</v>
       </c>
       <c r="H12" t="s">
-        <v>241</v>
+        <v>397</v>
       </c>
       <c r="I12" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J12" t="s">
-        <v>224</v>
+        <v>380</v>
       </c>
       <c r="K12" t="s">
-        <v>295</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
-        <v>177</v>
+        <v>302</v>
       </c>
       <c r="G13" t="s">
-        <v>217</v>
+        <v>372</v>
       </c>
       <c r="H13" t="s">
-        <v>242</v>
+        <v>398</v>
       </c>
       <c r="I13" t="s">
-        <v>282</v>
+        <v>479</v>
       </c>
       <c r="J13" t="s">
-        <v>215</v>
+        <v>367</v>
       </c>
       <c r="K13" t="s">
-        <v>295</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>303</v>
       </c>
       <c r="G14" t="s">
-        <v>210</v>
+        <v>373</v>
       </c>
       <c r="H14" t="s">
-        <v>233</v>
+        <v>399</v>
       </c>
       <c r="I14" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="J14" t="s">
-        <v>214</v>
+        <v>372</v>
       </c>
       <c r="K14" t="s">
-        <v>296</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>304</v>
       </c>
       <c r="G15" t="s">
-        <v>211</v>
+        <v>374</v>
       </c>
       <c r="H15" t="s">
-        <v>243</v>
+        <v>400</v>
       </c>
       <c r="I15" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="J15" t="s">
-        <v>224</v>
+        <v>484</v>
       </c>
       <c r="K15" t="s">
-        <v>297</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>297</v>
       </c>
       <c r="G16" t="s">
-        <v>216</v>
+        <v>368</v>
       </c>
       <c r="H16" t="s">
-        <v>244</v>
+        <v>393</v>
       </c>
       <c r="I16" t="s">
-        <v>283</v>
+        <v>477</v>
       </c>
       <c r="J16" t="s">
-        <v>228</v>
+        <v>369</v>
       </c>
       <c r="K16" t="s">
-        <v>297</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="G17" t="s">
-        <v>210</v>
+        <v>373</v>
       </c>
       <c r="H17" t="s">
-        <v>233</v>
+        <v>401</v>
       </c>
       <c r="I17" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="J17" t="s">
-        <v>214</v>
+        <v>372</v>
       </c>
       <c r="K17" t="s">
-        <v>297</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>306</v>
       </c>
       <c r="G18" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="H18" t="s">
-        <v>238</v>
+        <v>402</v>
       </c>
       <c r="I18" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="J18" t="s">
-        <v>229</v>
+        <v>364</v>
       </c>
       <c r="K18" t="s">
-        <v>297</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>295</v>
       </c>
       <c r="G19" t="s">
-        <v>218</v>
+        <v>366</v>
       </c>
       <c r="H19" t="s">
-        <v>245</v>
+        <v>391</v>
       </c>
       <c r="I19" t="s">
-        <v>283</v>
+        <v>478</v>
       </c>
       <c r="J19" t="s">
-        <v>287</v>
+        <v>482</v>
       </c>
       <c r="K19" t="s">
-        <v>298</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c r="G20" t="s">
-        <v>213</v>
+        <v>376</v>
       </c>
       <c r="H20" t="s">
-        <v>236</v>
+        <v>403</v>
       </c>
       <c r="I20" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="J20" t="s">
-        <v>214</v>
+        <v>372</v>
       </c>
       <c r="K20" t="s">
-        <v>298</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="E21" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>308</v>
       </c>
       <c r="G21" t="s">
-        <v>219</v>
+        <v>377</v>
       </c>
       <c r="H21" t="s">
-        <v>246</v>
+        <v>404</v>
       </c>
       <c r="I21" t="s">
-        <v>281</v>
+        <v>476</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>485</v>
       </c>
       <c r="K21" t="s">
-        <v>298</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>308</v>
       </c>
       <c r="G22" t="s">
-        <v>220</v>
+        <v>377</v>
       </c>
       <c r="H22" t="s">
-        <v>247</v>
+        <v>404</v>
       </c>
       <c r="I22" t="s">
-        <v>283</v>
+        <v>476</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>485</v>
       </c>
       <c r="K22" t="s">
-        <v>299</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>294</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>309</v>
       </c>
       <c r="G23" t="s">
-        <v>221</v>
+        <v>378</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>405</v>
       </c>
       <c r="I23" t="s">
-        <v>280</v>
+        <v>479</v>
       </c>
       <c r="J23" t="s">
-        <v>288</v>
+        <v>486</v>
       </c>
       <c r="K23" t="s">
-        <v>299</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="E24" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="G24" t="s">
-        <v>221</v>
+        <v>365</v>
       </c>
       <c r="H24" t="s">
-        <v>248</v>
+        <v>390</v>
       </c>
       <c r="I24" t="s">
-        <v>280</v>
+        <v>477</v>
       </c>
       <c r="J24" t="s">
-        <v>288</v>
+        <v>481</v>
       </c>
       <c r="K24" t="s">
-        <v>299</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="G25" t="s">
-        <v>222</v>
+        <v>379</v>
       </c>
       <c r="H25" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="I25" t="s">
-        <v>283</v>
+        <v>476</v>
       </c>
       <c r="J25" t="s">
-        <v>283</v>
+        <v>372</v>
       </c>
       <c r="K25" t="s">
-        <v>300</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>296</v>
       </c>
       <c r="G26" t="s">
-        <v>209</v>
+        <v>377</v>
       </c>
       <c r="H26" t="s">
-        <v>232</v>
+        <v>390</v>
       </c>
       <c r="I26" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J26" t="s">
-        <v>285</v>
+        <v>481</v>
       </c>
       <c r="K26" t="s">
-        <v>300</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="E27" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="G27" t="s">
-        <v>223</v>
+        <v>367</v>
       </c>
       <c r="H27" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="I27" t="s">
-        <v>280</v>
+        <v>479</v>
       </c>
       <c r="J27" t="s">
-        <v>216</v>
+        <v>372</v>
       </c>
       <c r="K27" t="s">
-        <v>300</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
+        <v>397</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" t="s">
+        <v>293</v>
+      </c>
+      <c r="F28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G28" t="s">
+        <v>373</v>
+      </c>
+      <c r="H28" t="s">
+        <v>408</v>
+      </c>
+      <c r="I28" t="s">
+        <v>479</v>
+      </c>
+      <c r="J28" t="s">
         <v>372</v>
       </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G28" t="s">
-        <v>221</v>
-      </c>
-      <c r="H28" t="s">
-        <v>232</v>
-      </c>
-      <c r="I28" t="s">
-        <v>281</v>
-      </c>
-      <c r="J28" t="s">
-        <v>285</v>
-      </c>
       <c r="K28" t="s">
-        <v>300</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2328,34 +2973,34 @@
         <v>401</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F29" t="s">
-        <v>184</v>
+        <v>311</v>
       </c>
       <c r="G29" t="s">
-        <v>224</v>
+        <v>380</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>409</v>
       </c>
       <c r="I29" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J29" t="s">
-        <v>281</v>
+        <v>485</v>
       </c>
       <c r="K29" t="s">
-        <v>301</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2363,244 +3008,244 @@
         <v>414</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>312</v>
       </c>
       <c r="G30" t="s">
-        <v>225</v>
+        <v>381</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>410</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>476</v>
       </c>
       <c r="J30" t="s">
-        <v>216</v>
+        <v>372</v>
       </c>
       <c r="K30" t="s">
-        <v>301</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F31" t="s">
-        <v>174</v>
+        <v>313</v>
       </c>
       <c r="G31" t="s">
-        <v>216</v>
+        <v>365</v>
       </c>
       <c r="H31" t="s">
-        <v>239</v>
+        <v>411</v>
       </c>
       <c r="I31" t="s">
-        <v>283</v>
+        <v>477</v>
       </c>
       <c r="J31" t="s">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="K31" t="s">
-        <v>302</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F32" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="G32" t="s">
-        <v>209</v>
+        <v>365</v>
       </c>
       <c r="H32" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J32" t="s">
-        <v>224</v>
+        <v>375</v>
       </c>
       <c r="K32" t="s">
-        <v>302</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F33" t="s">
-        <v>187</v>
+        <v>295</v>
       </c>
       <c r="G33" t="s">
-        <v>209</v>
+        <v>367</v>
       </c>
       <c r="H33" t="s">
-        <v>254</v>
+        <v>413</v>
       </c>
       <c r="I33" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="J33" t="s">
-        <v>219</v>
+        <v>372</v>
       </c>
       <c r="K33" t="s">
-        <v>302</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="E34" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
-        <v>210</v>
+        <v>370</v>
       </c>
       <c r="H34" t="s">
-        <v>255</v>
+        <v>395</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J34" t="s">
-        <v>214</v>
+        <v>380</v>
       </c>
       <c r="K34" t="s">
-        <v>303</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="E35" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F35" t="s">
-        <v>175</v>
+        <v>315</v>
       </c>
       <c r="G35" t="s">
-        <v>211</v>
+        <v>377</v>
       </c>
       <c r="H35" t="s">
-        <v>240</v>
+        <v>414</v>
       </c>
       <c r="I35" t="s">
-        <v>281</v>
+        <v>476</v>
       </c>
       <c r="J35" t="s">
-        <v>224</v>
+        <v>369</v>
       </c>
       <c r="K35" t="s">
-        <v>303</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F36" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="G36" t="s">
-        <v>221</v>
+        <v>366</v>
       </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>391</v>
       </c>
       <c r="I36" t="s">
-        <v>280</v>
+        <v>478</v>
       </c>
       <c r="J36" t="s">
-        <v>214</v>
+        <v>482</v>
       </c>
       <c r="K36" t="s">
-        <v>303</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2608,34 +3253,34 @@
         <v>506</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="E37" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>316</v>
       </c>
       <c r="G37" t="s">
-        <v>215</v>
+        <v>382</v>
       </c>
       <c r="H37" t="s">
-        <v>257</v>
+        <v>415</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>480</v>
       </c>
       <c r="J37" t="s">
-        <v>229</v>
+        <v>385</v>
       </c>
       <c r="K37" t="s">
-        <v>304</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2643,34 +3288,34 @@
         <v>519</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F38" t="s">
-        <v>178</v>
+        <v>302</v>
       </c>
       <c r="G38" t="s">
-        <v>216</v>
+        <v>372</v>
       </c>
       <c r="H38" t="s">
-        <v>258</v>
+        <v>416</v>
       </c>
       <c r="I38" t="s">
-        <v>283</v>
+        <v>479</v>
       </c>
       <c r="J38" t="s">
-        <v>228</v>
+        <v>367</v>
       </c>
       <c r="K38" t="s">
-        <v>304</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2678,2029 +3323,5039 @@
         <v>521</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F39" t="s">
-        <v>178</v>
+        <v>302</v>
       </c>
       <c r="G39" t="s">
-        <v>216</v>
+        <v>372</v>
       </c>
       <c r="H39" t="s">
-        <v>259</v>
+        <v>417</v>
       </c>
       <c r="I39" t="s">
-        <v>283</v>
+        <v>479</v>
       </c>
       <c r="J39" t="s">
-        <v>228</v>
+        <v>367</v>
       </c>
       <c r="K39" t="s">
-        <v>304</v>
+        <v>506</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F40" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="G40" t="s">
-        <v>221</v>
+        <v>367</v>
       </c>
       <c r="H40" t="s">
-        <v>256</v>
+        <v>418</v>
       </c>
       <c r="I40" t="s">
-        <v>280</v>
+        <v>479</v>
       </c>
       <c r="J40" t="s">
-        <v>214</v>
+        <v>372</v>
       </c>
       <c r="K40" t="s">
-        <v>305</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F41" t="s">
-        <v>187</v>
+        <v>315</v>
       </c>
       <c r="G41" t="s">
-        <v>226</v>
+        <v>377</v>
       </c>
       <c r="H41" t="s">
-        <v>260</v>
+        <v>414</v>
       </c>
       <c r="I41" t="s">
-        <v>281</v>
+        <v>476</v>
       </c>
       <c r="J41" t="s">
-        <v>219</v>
+        <v>369</v>
       </c>
       <c r="K41" t="s">
-        <v>305</v>
+        <v>507</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F42" t="s">
-        <v>190</v>
+        <v>314</v>
       </c>
       <c r="G42" t="s">
-        <v>214</v>
+        <v>383</v>
       </c>
       <c r="H42" t="s">
-        <v>261</v>
+        <v>419</v>
       </c>
       <c r="I42" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J42" t="s">
-        <v>213</v>
+        <v>375</v>
       </c>
       <c r="K42" t="s">
-        <v>305</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F43" t="s">
-        <v>191</v>
+        <v>317</v>
       </c>
       <c r="G43" t="s">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="H43" t="s">
-        <v>262</v>
+        <v>420</v>
       </c>
       <c r="I43" t="s">
-        <v>284</v>
+        <v>477</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="K43" t="s">
-        <v>305</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F44" t="s">
-        <v>173</v>
+        <v>318</v>
       </c>
       <c r="G44" t="s">
-        <v>215</v>
+        <v>369</v>
       </c>
       <c r="H44" t="s">
-        <v>238</v>
+        <v>421</v>
       </c>
       <c r="I44" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="J44" t="s">
-        <v>229</v>
+        <v>368</v>
       </c>
       <c r="K44" t="s">
-        <v>306</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="E45" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F45" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G45" t="s">
-        <v>211</v>
+        <v>366</v>
       </c>
       <c r="H45" t="s">
-        <v>243</v>
+        <v>422</v>
       </c>
       <c r="I45" t="s">
-        <v>281</v>
+        <v>478</v>
       </c>
       <c r="J45" t="s">
-        <v>224</v>
+        <v>487</v>
       </c>
       <c r="K45" t="s">
-        <v>306</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F46" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="G46" t="s">
-        <v>211</v>
+        <v>367</v>
       </c>
       <c r="H46" t="s">
-        <v>243</v>
+        <v>392</v>
       </c>
       <c r="I46" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="J46" t="s">
-        <v>224</v>
+        <v>372</v>
       </c>
       <c r="K46" t="s">
-        <v>306</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>628</v>
+        <v>587</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F47" t="s">
-        <v>166</v>
+        <v>320</v>
       </c>
       <c r="G47" t="s">
-        <v>214</v>
+        <v>383</v>
       </c>
       <c r="H47" t="s">
-        <v>231</v>
+        <v>423</v>
       </c>
       <c r="I47" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J47" t="s">
-        <v>281</v>
+        <v>384</v>
       </c>
       <c r="K47" t="s">
-        <v>307</v>
+        <v>507</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>636</v>
+        <v>592</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="G48" t="s">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="H48" t="s">
-        <v>263</v>
+        <v>397</v>
       </c>
       <c r="I48" t="s">
-        <v>283</v>
+        <v>477</v>
       </c>
       <c r="J48" t="s">
-        <v>228</v>
+        <v>380</v>
       </c>
       <c r="K48" t="s">
-        <v>307</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>648</v>
+        <v>601</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F49" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="G49" t="s">
-        <v>212</v>
+        <v>370</v>
       </c>
       <c r="H49" t="s">
-        <v>240</v>
+        <v>397</v>
       </c>
       <c r="I49" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J49" t="s">
-        <v>224</v>
+        <v>380</v>
       </c>
       <c r="K49" t="s">
-        <v>307</v>
+        <v>508</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="E50" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F50" t="s">
-        <v>192</v>
+        <v>303</v>
       </c>
       <c r="G50" t="s">
-        <v>221</v>
+        <v>373</v>
       </c>
       <c r="H50" t="s">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="I50" t="s">
-        <v>280</v>
+        <v>479</v>
       </c>
       <c r="J50" t="s">
-        <v>219</v>
+        <v>372</v>
       </c>
       <c r="K50" t="s">
-        <v>308</v>
+        <v>508</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>683</v>
+        <v>628</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="E51" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F51" t="s">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="G51" t="s">
-        <v>213</v>
+        <v>369</v>
       </c>
       <c r="H51" t="s">
-        <v>256</v>
+        <v>389</v>
       </c>
       <c r="I51" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J51" t="s">
-        <v>214</v>
+        <v>481</v>
       </c>
       <c r="K51" t="s">
-        <v>308</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>684</v>
+        <v>636</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="E52" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F52" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="G52" t="s">
-        <v>211</v>
+        <v>376</v>
       </c>
       <c r="H52" t="s">
-        <v>243</v>
+        <v>392</v>
       </c>
       <c r="I52" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="J52" t="s">
-        <v>224</v>
+        <v>372</v>
       </c>
       <c r="K52" t="s">
-        <v>308</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>706</v>
+        <v>646</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="E53" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
+        <v>321</v>
       </c>
       <c r="G53" t="s">
-        <v>209</v>
+        <v>373</v>
       </c>
       <c r="H53" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="I53" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="J53" t="s">
-        <v>219</v>
+        <v>372</v>
       </c>
       <c r="K53" t="s">
-        <v>308</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>750</v>
+        <v>647</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="E54" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F54" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="G54" t="s">
-        <v>228</v>
+        <v>373</v>
       </c>
       <c r="H54" t="s">
-        <v>231</v>
+        <v>424</v>
       </c>
       <c r="I54" t="s">
-        <v>283</v>
+        <v>479</v>
       </c>
       <c r="J54" t="s">
-        <v>216</v>
+        <v>372</v>
       </c>
       <c r="K54" t="s">
-        <v>309</v>
+        <v>509</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>763</v>
+        <v>648</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="E55" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F55" t="s">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="G55" t="s">
-        <v>213</v>
+        <v>384</v>
       </c>
       <c r="H55" t="s">
-        <v>265</v>
+        <v>395</v>
       </c>
       <c r="I55" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J55" t="s">
-        <v>214</v>
+        <v>380</v>
       </c>
       <c r="K55" t="s">
-        <v>310</v>
+        <v>509</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>764</v>
+        <v>675</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="E56" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F56" t="s">
-        <v>194</v>
+        <v>295</v>
       </c>
       <c r="G56" t="s">
-        <v>216</v>
+        <v>367</v>
       </c>
       <c r="H56" t="s">
-        <v>263</v>
+        <v>392</v>
       </c>
       <c r="I56" t="s">
-        <v>283</v>
+        <v>479</v>
       </c>
       <c r="J56" t="s">
-        <v>228</v>
+        <v>372</v>
       </c>
       <c r="K56" t="s">
-        <v>310</v>
+        <v>510</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>778</v>
+        <v>677</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F57" t="s">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="G57" t="s">
-        <v>229</v>
+        <v>377</v>
       </c>
       <c r="H57" t="s">
-        <v>266</v>
+        <v>425</v>
       </c>
       <c r="I57" t="s">
-        <v>282</v>
+        <v>476</v>
       </c>
       <c r="J57" t="s">
-        <v>225</v>
+        <v>375</v>
       </c>
       <c r="K57" t="s">
-        <v>310</v>
+        <v>510</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>779</v>
+        <v>683</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="E58" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F58" t="s">
-        <v>196</v>
+        <v>297</v>
       </c>
       <c r="G58" t="s">
-        <v>229</v>
+        <v>368</v>
       </c>
       <c r="H58" t="s">
-        <v>267</v>
+        <v>414</v>
       </c>
       <c r="I58" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="J58" t="s">
-        <v>225</v>
+        <v>369</v>
       </c>
       <c r="K58" t="s">
-        <v>310</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>781</v>
+        <v>684</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="E59" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F59" t="s">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="G59" t="s">
-        <v>221</v>
+        <v>370</v>
       </c>
       <c r="H59" t="s">
-        <v>268</v>
+        <v>397</v>
       </c>
       <c r="I59" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J59" t="s">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="K59" t="s">
-        <v>310</v>
+        <v>510</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>784</v>
+        <v>706</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="E60" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>314</v>
       </c>
       <c r="G60" t="s">
-        <v>225</v>
+        <v>365</v>
       </c>
       <c r="H60" t="s">
-        <v>231</v>
+        <v>412</v>
       </c>
       <c r="I60" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="J60" t="s">
-        <v>282</v>
+        <v>375</v>
       </c>
       <c r="K60" t="s">
-        <v>310</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>788</v>
+        <v>717</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="E61" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F61" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="G61" t="s">
-        <v>211</v>
+        <v>367</v>
       </c>
       <c r="H61" t="s">
-        <v>234</v>
+        <v>392</v>
       </c>
       <c r="I61" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="J61" t="s">
-        <v>224</v>
+        <v>372</v>
       </c>
       <c r="K61" t="s">
-        <v>310</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>806</v>
+        <v>739</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F62" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="G62" t="s">
-        <v>222</v>
+        <v>367</v>
       </c>
       <c r="H62" t="s">
-        <v>251</v>
+        <v>418</v>
       </c>
       <c r="I62" t="s">
-        <v>283</v>
+        <v>479</v>
       </c>
       <c r="J62" t="s">
-        <v>218</v>
+        <v>372</v>
       </c>
       <c r="K62" t="s">
-        <v>311</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>824</v>
+        <v>750</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="E63" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F63" t="s">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="G63" t="s">
-        <v>221</v>
+        <v>367</v>
       </c>
       <c r="H63" t="s">
-        <v>269</v>
+        <v>389</v>
       </c>
       <c r="I63" t="s">
-        <v>280</v>
+        <v>479</v>
       </c>
       <c r="J63" t="s">
-        <v>208</v>
+        <v>372</v>
       </c>
       <c r="K63" t="s">
-        <v>312</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>838</v>
+        <v>760</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="D64" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="E64" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F64" t="s">
-        <v>201</v>
+        <v>321</v>
       </c>
       <c r="G64" t="s">
-        <v>221</v>
+        <v>373</v>
       </c>
       <c r="H64" t="s">
-        <v>270</v>
+        <v>424</v>
       </c>
       <c r="I64" t="s">
-        <v>280</v>
+        <v>479</v>
       </c>
       <c r="J64" t="s">
-        <v>226</v>
+        <v>372</v>
       </c>
       <c r="K64" t="s">
-        <v>312</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>867</v>
+        <v>762</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>232</v>
       </c>
       <c r="E65" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="G65" t="s">
-        <v>208</v>
+        <v>373</v>
       </c>
       <c r="H65" t="s">
-        <v>231</v>
+        <v>408</v>
       </c>
       <c r="I65" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="J65" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="K65" t="s">
-        <v>312</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>875</v>
+        <v>763</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="D66" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F66" t="s">
-        <v>178</v>
+        <v>325</v>
       </c>
       <c r="G66" t="s">
-        <v>216</v>
+        <v>368</v>
       </c>
       <c r="H66" t="s">
-        <v>259</v>
+        <v>426</v>
       </c>
       <c r="I66" t="s">
-        <v>283</v>
+        <v>477</v>
       </c>
       <c r="J66" t="s">
-        <v>228</v>
+        <v>369</v>
       </c>
       <c r="K66" t="s">
-        <v>313</v>
+        <v>512</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>894</v>
+        <v>778</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F67" t="s">
-        <v>201</v>
+        <v>326</v>
       </c>
       <c r="G67" t="s">
-        <v>221</v>
+        <v>385</v>
       </c>
       <c r="H67" t="s">
-        <v>270</v>
+        <v>427</v>
       </c>
       <c r="I67" t="s">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="J67" t="s">
-        <v>226</v>
+        <v>381</v>
       </c>
       <c r="K67" t="s">
-        <v>313</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>897</v>
+        <v>779</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="E68" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F68" t="s">
-        <v>198</v>
+        <v>327</v>
       </c>
       <c r="G68" t="s">
-        <v>211</v>
+        <v>385</v>
       </c>
       <c r="H68" t="s">
-        <v>234</v>
+        <v>428</v>
       </c>
       <c r="I68" t="s">
-        <v>281</v>
+        <v>480</v>
       </c>
       <c r="J68" t="s">
-        <v>224</v>
+        <v>381</v>
       </c>
       <c r="K68" t="s">
-        <v>313</v>
+        <v>512</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>935</v>
+        <v>781</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="D69" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="E69" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F69" t="s">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="G69" t="s">
-        <v>221</v>
+        <v>377</v>
       </c>
       <c r="H69" t="s">
-        <v>271</v>
+        <v>429</v>
       </c>
       <c r="I69" t="s">
-        <v>280</v>
+        <v>477</v>
       </c>
       <c r="J69" t="s">
-        <v>208</v>
+        <v>488</v>
       </c>
       <c r="K69" t="s">
-        <v>314</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>962</v>
+        <v>784</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="D70" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="E70" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F70" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
       <c r="G70" t="s">
-        <v>213</v>
+        <v>381</v>
       </c>
       <c r="H70" t="s">
-        <v>272</v>
+        <v>389</v>
       </c>
       <c r="I70" t="s">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="J70" t="s">
-        <v>286</v>
+        <v>382</v>
       </c>
       <c r="K70" t="s">
-        <v>315</v>
+        <v>512</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>965</v>
+        <v>806</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D71" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="E71" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F71" t="s">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="G71" t="s">
-        <v>209</v>
+        <v>378</v>
       </c>
       <c r="H71" t="s">
-        <v>232</v>
+        <v>409</v>
       </c>
       <c r="I71" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="J71" t="s">
-        <v>285</v>
+        <v>374</v>
       </c>
       <c r="K71" t="s">
-        <v>315</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1">
-        <v>969</v>
+        <v>819</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="D72" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="E72" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F72" t="s">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="G72" t="s">
-        <v>215</v>
+        <v>367</v>
       </c>
       <c r="H72" t="s">
-        <v>257</v>
+        <v>392</v>
       </c>
       <c r="I72" t="s">
-        <v>282</v>
+        <v>479</v>
       </c>
       <c r="J72" t="s">
-        <v>229</v>
+        <v>372</v>
       </c>
       <c r="K72" t="s">
-        <v>315</v>
+        <v>514</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1">
-        <v>976</v>
+        <v>824</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="E73" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F73" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G73" t="s">
-        <v>216</v>
+        <v>377</v>
       </c>
       <c r="H73" t="s">
-        <v>239</v>
+        <v>430</v>
       </c>
       <c r="I73" t="s">
-        <v>283</v>
+        <v>476</v>
       </c>
       <c r="J73" t="s">
-        <v>230</v>
+        <v>364</v>
       </c>
       <c r="K73" t="s">
-        <v>315</v>
+        <v>514</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1">
-        <v>981</v>
+        <v>838</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="D74" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="E74" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F74" t="s">
-        <v>169</v>
+        <v>331</v>
       </c>
       <c r="G74" t="s">
-        <v>211</v>
+        <v>377</v>
       </c>
       <c r="H74" t="s">
-        <v>234</v>
+        <v>431</v>
       </c>
       <c r="I74" t="s">
-        <v>281</v>
+        <v>476</v>
       </c>
       <c r="J74" t="s">
-        <v>224</v>
+        <v>383</v>
       </c>
       <c r="K74" t="s">
-        <v>315</v>
+        <v>514</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1">
-        <v>998</v>
+        <v>866</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="E75" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F75" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="G75" t="s">
-        <v>209</v>
+        <v>367</v>
       </c>
       <c r="H75" t="s">
-        <v>231</v>
+        <v>432</v>
       </c>
       <c r="I75" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="J75" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="K75" t="s">
-        <v>316</v>
+        <v>514</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1">
-        <v>1006</v>
+        <v>875</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="E76" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F76" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="G76" t="s">
-        <v>230</v>
+        <v>372</v>
       </c>
       <c r="H76" t="s">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="I76" t="s">
-        <v>283</v>
+        <v>479</v>
       </c>
       <c r="J76" t="s">
-        <v>228</v>
+        <v>367</v>
       </c>
       <c r="K76" t="s">
-        <v>316</v>
+        <v>515</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1">
-        <v>1008</v>
+        <v>894</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="E77" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F77" t="s">
-        <v>186</v>
+        <v>331</v>
       </c>
       <c r="G77" t="s">
-        <v>209</v>
+        <v>377</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>431</v>
       </c>
       <c r="I77" t="s">
-        <v>281</v>
+        <v>476</v>
       </c>
       <c r="J77" t="s">
-        <v>224</v>
+        <v>383</v>
       </c>
       <c r="K77" t="s">
-        <v>316</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>1022</v>
+        <v>928</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="D78" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="E78" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F78" t="s">
-        <v>204</v>
+        <v>332</v>
       </c>
       <c r="G78" t="s">
-        <v>225</v>
+        <v>370</v>
       </c>
       <c r="H78" t="s">
-        <v>274</v>
+        <v>433</v>
       </c>
       <c r="I78" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="J78" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="K78" t="s">
-        <v>317</v>
+        <v>516</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
-        <v>1056</v>
+        <v>935</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="E79" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F79" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="G79" t="s">
-        <v>228</v>
+        <v>377</v>
       </c>
       <c r="H79" t="s">
-        <v>231</v>
+        <v>434</v>
       </c>
       <c r="I79" t="s">
-        <v>283</v>
+        <v>476</v>
       </c>
       <c r="J79" t="s">
-        <v>216</v>
+        <v>364</v>
       </c>
       <c r="K79" t="s">
-        <v>317</v>
+        <v>516</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1">
-        <v>1081</v>
+        <v>962</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="E80" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F80" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="G80" t="s">
-        <v>214</v>
+        <v>368</v>
       </c>
       <c r="H80" t="s">
-        <v>261</v>
+        <v>435</v>
       </c>
       <c r="I80" t="s">
-        <v>281</v>
+        <v>476</v>
       </c>
       <c r="J80" t="s">
-        <v>213</v>
+        <v>483</v>
       </c>
       <c r="K80" t="s">
-        <v>318</v>
+        <v>517</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1">
-        <v>1082</v>
+        <v>965</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D81" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F81" t="s">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="G81" t="s">
-        <v>214</v>
+        <v>365</v>
       </c>
       <c r="H81" t="s">
-        <v>261</v>
+        <v>390</v>
       </c>
       <c r="I81" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J81" t="s">
-        <v>213</v>
+        <v>481</v>
       </c>
       <c r="K81" t="s">
-        <v>318</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1">
-        <v>1083</v>
+        <v>969</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="D82" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="E82" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F82" t="s">
-        <v>190</v>
+        <v>316</v>
       </c>
       <c r="G82" t="s">
-        <v>222</v>
+        <v>382</v>
       </c>
       <c r="H82" t="s">
-        <v>261</v>
+        <v>415</v>
       </c>
       <c r="I82" t="s">
-        <v>281</v>
+        <v>480</v>
       </c>
       <c r="J82" t="s">
-        <v>213</v>
+        <v>385</v>
       </c>
       <c r="K82" t="s">
-        <v>318</v>
+        <v>517</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1">
-        <v>1093</v>
+        <v>977</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="E83" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F83" t="s">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c r="G83" t="s">
-        <v>221</v>
+        <v>373</v>
       </c>
       <c r="H83" t="s">
-        <v>275</v>
+        <v>436</v>
       </c>
       <c r="I83" t="s">
-        <v>280</v>
+        <v>479</v>
       </c>
       <c r="J83" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="K83" t="s">
-        <v>318</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1">
-        <v>1115</v>
+        <v>996</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="E84" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F84" t="s">
-        <v>167</v>
+        <v>295</v>
       </c>
       <c r="G84" t="s">
-        <v>209</v>
+        <v>367</v>
       </c>
       <c r="H84" t="s">
-        <v>276</v>
+        <v>432</v>
       </c>
       <c r="I84" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="J84" t="s">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="K84" t="s">
-        <v>319</v>
+        <v>517</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1">
-        <v>1124</v>
+        <v>998</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="E85" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F85" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="G85" t="s">
-        <v>213</v>
+        <v>365</v>
       </c>
       <c r="H85" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
       <c r="I85" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J85" t="s">
-        <v>286</v>
+        <v>483</v>
       </c>
       <c r="K85" t="s">
-        <v>319</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1">
-        <v>1130</v>
+        <v>1000</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="D86" t="s">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="E86" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F86" t="s">
-        <v>177</v>
+        <v>295</v>
       </c>
       <c r="G86" t="s">
-        <v>217</v>
+        <v>367</v>
       </c>
       <c r="H86" t="s">
-        <v>242</v>
+        <v>392</v>
       </c>
       <c r="I86" t="s">
-        <v>282</v>
+        <v>479</v>
       </c>
       <c r="J86" t="s">
-        <v>215</v>
+        <v>372</v>
       </c>
       <c r="K86" t="s">
-        <v>319</v>
+        <v>518</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1">
-        <v>1146</v>
+        <v>1006</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="D87" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="E87" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F87" t="s">
-        <v>178</v>
+        <v>334</v>
       </c>
       <c r="G87" t="s">
-        <v>216</v>
+        <v>373</v>
       </c>
       <c r="H87" t="s">
-        <v>258</v>
+        <v>437</v>
       </c>
       <c r="I87" t="s">
-        <v>283</v>
+        <v>479</v>
       </c>
       <c r="J87" t="s">
-        <v>228</v>
+        <v>367</v>
       </c>
       <c r="K87" t="s">
-        <v>320</v>
+        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1">
-        <v>1160</v>
+        <v>1008</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="E88" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>313</v>
       </c>
       <c r="G88" t="s">
-        <v>210</v>
+        <v>365</v>
       </c>
       <c r="H88" t="s">
-        <v>255</v>
+        <v>411</v>
       </c>
       <c r="I88" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J88" t="s">
-        <v>214</v>
+        <v>380</v>
       </c>
       <c r="K88" t="s">
-        <v>320</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1">
-        <v>1163</v>
+        <v>1022</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="E89" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>335</v>
       </c>
       <c r="G89" t="s">
-        <v>228</v>
+        <v>381</v>
       </c>
       <c r="H89" t="s">
-        <v>231</v>
+        <v>438</v>
       </c>
       <c r="I89" t="s">
-        <v>283</v>
+        <v>480</v>
       </c>
       <c r="J89" t="s">
-        <v>216</v>
+        <v>385</v>
       </c>
       <c r="K89" t="s">
-        <v>320</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1">
-        <v>1177</v>
+        <v>1056</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="D90" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E90" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="G90" t="s">
-        <v>216</v>
+        <v>367</v>
       </c>
       <c r="H90" t="s">
-        <v>258</v>
+        <v>389</v>
       </c>
       <c r="I90" t="s">
-        <v>283</v>
+        <v>479</v>
       </c>
       <c r="J90" t="s">
-        <v>228</v>
+        <v>372</v>
       </c>
       <c r="K90" t="s">
-        <v>320</v>
+        <v>519</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1">
-        <v>1183</v>
+        <v>1081</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="E91" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F91" t="s">
-        <v>207</v>
+        <v>318</v>
       </c>
       <c r="G91" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="H91" t="s">
-        <v>278</v>
+        <v>421</v>
       </c>
       <c r="I91" t="s">
-        <v>283</v>
+        <v>477</v>
       </c>
       <c r="J91" t="s">
-        <v>287</v>
+        <v>368</v>
       </c>
       <c r="K91" t="s">
-        <v>321</v>
+        <v>520</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1">
-        <v>1184</v>
+        <v>1082</v>
       </c>
       <c r="B92" t="s">
         <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="D92" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="E92" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F92" t="s">
-        <v>207</v>
+        <v>318</v>
       </c>
       <c r="G92" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="H92" t="s">
-        <v>278</v>
+        <v>421</v>
       </c>
       <c r="I92" t="s">
-        <v>283</v>
+        <v>477</v>
       </c>
       <c r="J92" t="s">
-        <v>287</v>
+        <v>368</v>
       </c>
       <c r="K92" t="s">
-        <v>321</v>
+        <v>520</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1">
-        <v>1188</v>
+        <v>1083</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D93" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="E93" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F93" t="s">
-        <v>168</v>
+        <v>318</v>
       </c>
       <c r="G93" t="s">
-        <v>210</v>
+        <v>378</v>
       </c>
       <c r="H93" t="s">
-        <v>233</v>
+        <v>421</v>
       </c>
       <c r="I93" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J93" t="s">
-        <v>214</v>
+        <v>368</v>
       </c>
       <c r="K93" t="s">
-        <v>321</v>
+        <v>520</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1">
-        <v>1212</v>
+        <v>1087</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="E94" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F94" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="G94" t="s">
-        <v>208</v>
+        <v>369</v>
       </c>
       <c r="H94" t="s">
-        <v>231</v>
+        <v>439</v>
       </c>
       <c r="I94" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="J94" t="s">
-        <v>281</v>
+        <v>489</v>
       </c>
       <c r="K94" t="s">
-        <v>321</v>
+        <v>520</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1">
-        <v>1232</v>
+        <v>1089</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D95" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="E95" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>295</v>
       </c>
       <c r="G95" t="s">
-        <v>211</v>
+        <v>367</v>
       </c>
       <c r="H95" t="s">
-        <v>279</v>
+        <v>418</v>
       </c>
       <c r="I95" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="J95" t="s">
-        <v>224</v>
+        <v>372</v>
       </c>
       <c r="K95" t="s">
-        <v>322</v>
+        <v>520</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1">
-        <v>1233</v>
+        <v>1093</v>
       </c>
       <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" t="s">
+        <v>249</v>
+      </c>
+      <c r="E96" t="s">
+        <v>293</v>
+      </c>
+      <c r="F96" t="s">
+        <v>337</v>
+      </c>
+      <c r="G96" t="s">
+        <v>377</v>
+      </c>
+      <c r="H96" t="s">
+        <v>440</v>
+      </c>
+      <c r="I96" t="s">
+        <v>476</v>
+      </c>
+      <c r="J96" t="s">
+        <v>485</v>
+      </c>
+      <c r="K96" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
+        <v>1095</v>
+      </c>
+      <c r="B97" t="s">
         <v>101</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" t="s">
+        <v>210</v>
+      </c>
+      <c r="E97" t="s">
+        <v>293</v>
+      </c>
+      <c r="F97" t="s">
+        <v>295</v>
+      </c>
+      <c r="G97" t="s">
+        <v>367</v>
+      </c>
+      <c r="H97" t="s">
+        <v>407</v>
+      </c>
+      <c r="I97" t="s">
+        <v>479</v>
+      </c>
+      <c r="J97" t="s">
+        <v>372</v>
+      </c>
+      <c r="K97" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
+        <v>1098</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" t="s">
+        <v>250</v>
+      </c>
+      <c r="E98" t="s">
+        <v>293</v>
+      </c>
+      <c r="F98" t="s">
+        <v>310</v>
+      </c>
+      <c r="G98" t="s">
+        <v>373</v>
+      </c>
+      <c r="H98" t="s">
+        <v>441</v>
+      </c>
+      <c r="I98" t="s">
+        <v>479</v>
+      </c>
+      <c r="J98" t="s">
+        <v>372</v>
+      </c>
+      <c r="K98" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
+        <v>1115</v>
+      </c>
+      <c r="B99" t="s">
         <v>103</v>
       </c>
-      <c r="D96" t="s">
+      <c r="C99" t="s">
+        <v>182</v>
+      </c>
+      <c r="D99" t="s">
+        <v>251</v>
+      </c>
+      <c r="E99" t="s">
+        <v>293</v>
+      </c>
+      <c r="F99" t="s">
+        <v>296</v>
+      </c>
+      <c r="G99" t="s">
+        <v>365</v>
+      </c>
+      <c r="H99" t="s">
+        <v>442</v>
+      </c>
+      <c r="I99" t="s">
+        <v>477</v>
+      </c>
+      <c r="J99" t="s">
+        <v>481</v>
+      </c>
+      <c r="K99" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
+        <v>1124</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" t="s">
+        <v>182</v>
+      </c>
+      <c r="D100" t="s">
+        <v>252</v>
+      </c>
+      <c r="E100" t="s">
+        <v>293</v>
+      </c>
+      <c r="F100" t="s">
+        <v>338</v>
+      </c>
+      <c r="G100" t="s">
+        <v>368</v>
+      </c>
+      <c r="H100" t="s">
+        <v>443</v>
+      </c>
+      <c r="I100" t="s">
+        <v>477</v>
+      </c>
+      <c r="J100" t="s">
+        <v>483</v>
+      </c>
+      <c r="K100" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1">
+        <v>1130</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101" t="s">
+        <v>199</v>
+      </c>
+      <c r="E101" t="s">
+        <v>293</v>
+      </c>
+      <c r="F101" t="s">
+        <v>300</v>
+      </c>
+      <c r="G101" t="s">
+        <v>371</v>
+      </c>
+      <c r="H101" t="s">
+        <v>396</v>
+      </c>
+      <c r="I101" t="s">
+        <v>480</v>
+      </c>
+      <c r="J101" t="s">
+        <v>382</v>
+      </c>
+      <c r="K101" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1">
+        <v>1146</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>184</v>
+      </c>
+      <c r="D102" t="s">
+        <v>219</v>
+      </c>
+      <c r="E102" t="s">
+        <v>293</v>
+      </c>
+      <c r="F102" t="s">
+        <v>302</v>
+      </c>
+      <c r="G102" t="s">
+        <v>372</v>
+      </c>
+      <c r="H102" t="s">
+        <v>416</v>
+      </c>
+      <c r="I102" t="s">
+        <v>479</v>
+      </c>
+      <c r="J102" t="s">
+        <v>367</v>
+      </c>
+      <c r="K102" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1">
+        <v>1163</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" t="s">
+        <v>184</v>
+      </c>
+      <c r="D103" t="s">
+        <v>192</v>
+      </c>
+      <c r="E103" t="s">
+        <v>293</v>
+      </c>
+      <c r="F103" t="s">
+        <v>295</v>
+      </c>
+      <c r="G103" t="s">
+        <v>367</v>
+      </c>
+      <c r="H103" t="s">
+        <v>389</v>
+      </c>
+      <c r="I103" t="s">
+        <v>479</v>
+      </c>
+      <c r="J103" t="s">
+        <v>372</v>
+      </c>
+      <c r="K103" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1">
+        <v>1176</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" t="s">
+        <v>184</v>
+      </c>
+      <c r="D104" t="s">
+        <v>253</v>
+      </c>
+      <c r="E104" t="s">
+        <v>293</v>
+      </c>
+      <c r="F104" t="s">
+        <v>310</v>
+      </c>
+      <c r="G104" t="s">
+        <v>373</v>
+      </c>
+      <c r="H104" t="s">
+        <v>444</v>
+      </c>
+      <c r="I104" t="s">
+        <v>479</v>
+      </c>
+      <c r="J104" t="s">
+        <v>372</v>
+      </c>
+      <c r="K104" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1">
+        <v>1177</v>
+      </c>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" t="s">
+        <v>184</v>
+      </c>
+      <c r="D105" t="s">
+        <v>219</v>
+      </c>
+      <c r="E105" t="s">
+        <v>293</v>
+      </c>
+      <c r="F105" t="s">
+        <v>302</v>
+      </c>
+      <c r="G105" t="s">
+        <v>372</v>
+      </c>
+      <c r="H105" t="s">
+        <v>416</v>
+      </c>
+      <c r="I105" t="s">
+        <v>479</v>
+      </c>
+      <c r="J105" t="s">
+        <v>367</v>
+      </c>
+      <c r="K105" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1">
+        <v>1183</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>184</v>
+      </c>
+      <c r="D106" t="s">
+        <v>254</v>
+      </c>
+      <c r="E106" t="s">
+        <v>293</v>
+      </c>
+      <c r="F106" t="s">
+        <v>339</v>
+      </c>
+      <c r="G106" t="s">
+        <v>378</v>
+      </c>
+      <c r="H106" t="s">
+        <v>445</v>
+      </c>
+      <c r="I106" t="s">
+        <v>479</v>
+      </c>
+      <c r="J106" t="s">
+        <v>484</v>
+      </c>
+      <c r="K106" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
+        <v>1184</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" t="s">
+        <v>184</v>
+      </c>
+      <c r="D107" t="s">
+        <v>254</v>
+      </c>
+      <c r="E107" t="s">
+        <v>293</v>
+      </c>
+      <c r="F107" t="s">
+        <v>339</v>
+      </c>
+      <c r="G107" t="s">
+        <v>378</v>
+      </c>
+      <c r="H107" t="s">
+        <v>445</v>
+      </c>
+      <c r="I107" t="s">
+        <v>479</v>
+      </c>
+      <c r="J107" t="s">
+        <v>484</v>
+      </c>
+      <c r="K107" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
+        <v>1212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" t="s">
+        <v>182</v>
+      </c>
+      <c r="D108" t="s">
+        <v>192</v>
+      </c>
+      <c r="E108" t="s">
+        <v>293</v>
+      </c>
+      <c r="F108" t="s">
+        <v>295</v>
+      </c>
+      <c r="G108" t="s">
+        <v>364</v>
+      </c>
+      <c r="H108" t="s">
+        <v>389</v>
+      </c>
+      <c r="I108" t="s">
+        <v>477</v>
+      </c>
+      <c r="J108" t="s">
+        <v>380</v>
+      </c>
+      <c r="K108" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
+        <v>1267</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" t="s">
+        <v>182</v>
+      </c>
+      <c r="D109" t="s">
+        <v>252</v>
+      </c>
+      <c r="E109" t="s">
+        <v>293</v>
+      </c>
+      <c r="F109" t="s">
+        <v>338</v>
+      </c>
+      <c r="G109" t="s">
+        <v>368</v>
+      </c>
+      <c r="H109" t="s">
+        <v>443</v>
+      </c>
+      <c r="I109" t="s">
+        <v>477</v>
+      </c>
+      <c r="J109" t="s">
+        <v>483</v>
+      </c>
+      <c r="K109" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
+        <v>1270</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" t="s">
+        <v>182</v>
+      </c>
+      <c r="D110" t="s">
+        <v>255</v>
+      </c>
+      <c r="E110" t="s">
+        <v>293</v>
+      </c>
+      <c r="F110" t="s">
+        <v>338</v>
+      </c>
+      <c r="G110" t="s">
+        <v>369</v>
+      </c>
+      <c r="H110" t="s">
+        <v>446</v>
+      </c>
+      <c r="I110" t="s">
+        <v>477</v>
+      </c>
+      <c r="J110" t="s">
+        <v>483</v>
+      </c>
+      <c r="K110" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>1319</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" t="s">
+        <v>183</v>
+      </c>
+      <c r="D111" t="s">
+        <v>256</v>
+      </c>
+      <c r="E111" t="s">
+        <v>293</v>
+      </c>
+      <c r="F111" t="s">
+        <v>340</v>
+      </c>
+      <c r="G111" t="s">
+        <v>366</v>
+      </c>
+      <c r="H111" t="s">
+        <v>447</v>
+      </c>
+      <c r="I111" t="s">
+        <v>478</v>
+      </c>
+      <c r="J111" t="s">
+        <v>482</v>
+      </c>
+      <c r="K111" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
+        <v>1331</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" t="s">
+        <v>184</v>
+      </c>
+      <c r="D112" t="s">
+        <v>202</v>
+      </c>
+      <c r="E112" t="s">
+        <v>293</v>
+      </c>
+      <c r="F112" t="s">
+        <v>303</v>
+      </c>
+      <c r="G112" t="s">
+        <v>373</v>
+      </c>
+      <c r="H112" t="s">
+        <v>399</v>
+      </c>
+      <c r="I112" t="s">
+        <v>479</v>
+      </c>
+      <c r="J112" t="s">
+        <v>372</v>
+      </c>
+      <c r="K112" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
+        <v>1338</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" t="s">
+        <v>184</v>
+      </c>
+      <c r="D113" t="s">
+        <v>219</v>
+      </c>
+      <c r="E113" t="s">
+        <v>293</v>
+      </c>
+      <c r="F113" t="s">
+        <v>302</v>
+      </c>
+      <c r="G113" t="s">
+        <v>372</v>
+      </c>
+      <c r="H113" t="s">
+        <v>416</v>
+      </c>
+      <c r="I113" t="s">
+        <v>479</v>
+      </c>
+      <c r="J113" t="s">
+        <v>367</v>
+      </c>
+      <c r="K113" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
+        <v>1343</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" t="s">
+        <v>182</v>
+      </c>
+      <c r="D114" t="s">
+        <v>192</v>
+      </c>
+      <c r="E114" t="s">
+        <v>293</v>
+      </c>
+      <c r="F114" t="s">
+        <v>295</v>
+      </c>
+      <c r="G114" t="s">
+        <v>364</v>
+      </c>
+      <c r="H114" t="s">
+        <v>389</v>
+      </c>
+      <c r="I114" t="s">
+        <v>477</v>
+      </c>
+      <c r="J114" t="s">
+        <v>387</v>
+      </c>
+      <c r="K114" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
+        <v>1344</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" t="s">
+        <v>185</v>
+      </c>
+      <c r="D115" t="s">
+        <v>192</v>
+      </c>
+      <c r="E115" t="s">
+        <v>293</v>
+      </c>
+      <c r="F115" t="s">
+        <v>295</v>
+      </c>
+      <c r="G115" t="s">
+        <v>381</v>
+      </c>
+      <c r="H115" t="s">
+        <v>389</v>
+      </c>
+      <c r="I115" t="s">
+        <v>480</v>
+      </c>
+      <c r="J115" t="s">
+        <v>382</v>
+      </c>
+      <c r="K115" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1">
+        <v>1356</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" t="s">
+        <v>184</v>
+      </c>
+      <c r="D116" t="s">
+        <v>257</v>
+      </c>
+      <c r="E116" t="s">
+        <v>293</v>
+      </c>
+      <c r="F116" t="s">
+        <v>341</v>
+      </c>
+      <c r="G116" t="s">
+        <v>381</v>
+      </c>
+      <c r="H116" t="s">
+        <v>448</v>
+      </c>
+      <c r="I116" t="s">
+        <v>479</v>
+      </c>
+      <c r="J116" t="s">
+        <v>373</v>
+      </c>
+      <c r="K116" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1">
+        <v>1357</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" t="s">
+        <v>183</v>
+      </c>
+      <c r="D117" t="s">
+        <v>258</v>
+      </c>
+      <c r="E117" t="s">
+        <v>293</v>
+      </c>
+      <c r="F117" t="s">
+        <v>342</v>
+      </c>
+      <c r="G117" t="s">
+        <v>386</v>
+      </c>
+      <c r="H117" t="s">
+        <v>449</v>
+      </c>
+      <c r="I117" t="s">
+        <v>478</v>
+      </c>
+      <c r="J117" t="s">
+        <v>490</v>
+      </c>
+      <c r="K117" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1">
+        <v>1370</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" t="s">
+        <v>184</v>
+      </c>
+      <c r="D118" t="s">
+        <v>237</v>
+      </c>
+      <c r="E118" t="s">
+        <v>293</v>
+      </c>
+      <c r="F118" t="s">
+        <v>329</v>
+      </c>
+      <c r="G118" t="s">
+        <v>378</v>
+      </c>
+      <c r="H118" t="s">
+        <v>409</v>
+      </c>
+      <c r="I118" t="s">
+        <v>479</v>
+      </c>
+      <c r="J118" t="s">
+        <v>374</v>
+      </c>
+      <c r="K118" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1">
+        <v>1373</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" t="s">
+        <v>184</v>
+      </c>
+      <c r="D119" t="s">
+        <v>259</v>
+      </c>
+      <c r="E119" t="s">
+        <v>293</v>
+      </c>
+      <c r="F119" t="s">
+        <v>303</v>
+      </c>
+      <c r="G119" t="s">
+        <v>373</v>
+      </c>
+      <c r="H119" t="s">
+        <v>436</v>
+      </c>
+      <c r="I119" t="s">
+        <v>479</v>
+      </c>
+      <c r="J119" t="s">
+        <v>372</v>
+      </c>
+      <c r="K119" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
+        <v>1374</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" t="s">
+        <v>184</v>
+      </c>
+      <c r="D120" t="s">
+        <v>260</v>
+      </c>
+      <c r="E120" t="s">
+        <v>293</v>
+      </c>
+      <c r="F120" t="s">
+        <v>310</v>
+      </c>
+      <c r="G120" t="s">
+        <v>378</v>
+      </c>
+      <c r="H120" t="s">
+        <v>448</v>
+      </c>
+      <c r="I120" t="s">
+        <v>479</v>
+      </c>
+      <c r="J120" t="s">
+        <v>373</v>
+      </c>
+      <c r="K120" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
+        <v>1375</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121" t="s">
+        <v>184</v>
+      </c>
+      <c r="D121" t="s">
+        <v>257</v>
+      </c>
+      <c r="E121" t="s">
+        <v>293</v>
+      </c>
+      <c r="F121" t="s">
+        <v>341</v>
+      </c>
+      <c r="G121" t="s">
+        <v>378</v>
+      </c>
+      <c r="H121" t="s">
+        <v>448</v>
+      </c>
+      <c r="I121" t="s">
+        <v>479</v>
+      </c>
+      <c r="J121" t="s">
+        <v>373</v>
+      </c>
+      <c r="K121" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
+        <v>1376</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" t="s">
+        <v>182</v>
+      </c>
+      <c r="D122" t="s">
+        <v>261</v>
+      </c>
+      <c r="E122" t="s">
+        <v>294</v>
+      </c>
+      <c r="F122" t="s">
+        <v>343</v>
+      </c>
+      <c r="G122" t="s">
+        <v>364</v>
+      </c>
+      <c r="H122" t="s">
+        <v>448</v>
+      </c>
+      <c r="I122" t="s">
+        <v>477</v>
+      </c>
+      <c r="J122" t="s">
+        <v>370</v>
+      </c>
+      <c r="K122" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
+        <v>1377</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" t="s">
+        <v>182</v>
+      </c>
+      <c r="D123" t="s">
+        <v>262</v>
+      </c>
+      <c r="E123" t="s">
+        <v>293</v>
+      </c>
+      <c r="F123" t="s">
+        <v>344</v>
+      </c>
+      <c r="G123" t="s">
+        <v>380</v>
+      </c>
+      <c r="H123" t="s">
+        <v>450</v>
+      </c>
+      <c r="I123" t="s">
+        <v>477</v>
+      </c>
+      <c r="J123" t="s">
+        <v>370</v>
+      </c>
+      <c r="K123" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1">
+        <v>1378</v>
+      </c>
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" t="s">
+        <v>182</v>
+      </c>
+      <c r="D124" t="s">
+        <v>263</v>
+      </c>
+      <c r="E124" t="s">
+        <v>293</v>
+      </c>
+      <c r="F124" t="s">
+        <v>345</v>
+      </c>
+      <c r="G124" t="s">
+        <v>380</v>
+      </c>
+      <c r="H124" t="s">
+        <v>451</v>
+      </c>
+      <c r="I124" t="s">
+        <v>477</v>
+      </c>
+      <c r="J124" t="s">
+        <v>370</v>
+      </c>
+      <c r="K124" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
+        <v>1379</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125" t="s">
+        <v>182</v>
+      </c>
+      <c r="D125" t="s">
+        <v>264</v>
+      </c>
+      <c r="E125" t="s">
+        <v>293</v>
+      </c>
+      <c r="F125" t="s">
+        <v>312</v>
+      </c>
+      <c r="G125" t="s">
+        <v>384</v>
+      </c>
+      <c r="H125" t="s">
+        <v>452</v>
+      </c>
+      <c r="I125" t="s">
+        <v>477</v>
+      </c>
+      <c r="J125" t="s">
+        <v>491</v>
+      </c>
+      <c r="K125" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1">
+        <v>1380</v>
+      </c>
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126" t="s">
+        <v>184</v>
+      </c>
+      <c r="D126" t="s">
+        <v>265</v>
+      </c>
+      <c r="E126" t="s">
+        <v>293</v>
+      </c>
+      <c r="F126" t="s">
+        <v>346</v>
+      </c>
+      <c r="G126" t="s">
+        <v>378</v>
+      </c>
+      <c r="H126" t="s">
+        <v>453</v>
+      </c>
+      <c r="I126" t="s">
+        <v>479</v>
+      </c>
+      <c r="J126" t="s">
+        <v>374</v>
+      </c>
+      <c r="K126" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1">
+        <v>1381</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127" t="s">
+        <v>185</v>
+      </c>
+      <c r="D127" t="s">
+        <v>266</v>
+      </c>
+      <c r="E127" t="s">
+        <v>293</v>
+      </c>
+      <c r="F127" t="s">
+        <v>295</v>
+      </c>
+      <c r="G127" t="s">
+        <v>378</v>
+      </c>
+      <c r="H127" t="s">
+        <v>454</v>
+      </c>
+      <c r="I127" t="s">
+        <v>480</v>
+      </c>
+      <c r="J127" t="s">
+        <v>379</v>
+      </c>
+      <c r="K127" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1">
+        <v>1388</v>
+      </c>
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128" t="s">
+        <v>185</v>
+      </c>
+      <c r="D128" t="s">
+        <v>267</v>
+      </c>
+      <c r="E128" t="s">
+        <v>293</v>
+      </c>
+      <c r="F128" t="s">
+        <v>347</v>
+      </c>
+      <c r="G128" t="s">
+        <v>378</v>
+      </c>
+      <c r="H128" t="s">
+        <v>455</v>
+      </c>
+      <c r="I128" t="s">
+        <v>480</v>
+      </c>
+      <c r="J128" t="s">
+        <v>381</v>
+      </c>
+      <c r="K128" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1">
+        <v>1393</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
+      <c r="C129" t="s">
+        <v>182</v>
+      </c>
+      <c r="D129" t="s">
+        <v>268</v>
+      </c>
+      <c r="E129" t="s">
+        <v>293</v>
+      </c>
+      <c r="F129" t="s">
+        <v>348</v>
+      </c>
+      <c r="G129" t="s">
+        <v>378</v>
+      </c>
+      <c r="H129" t="s">
+        <v>456</v>
+      </c>
+      <c r="I129" t="s">
+        <v>477</v>
+      </c>
+      <c r="J129" t="s">
+        <v>369</v>
+      </c>
+      <c r="K129" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1">
+        <v>1396</v>
+      </c>
+      <c r="B130" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130" t="s">
+        <v>185</v>
+      </c>
+      <c r="D130" t="s">
+        <v>269</v>
+      </c>
+      <c r="E130" t="s">
+        <v>293</v>
+      </c>
+      <c r="F130" t="s">
+        <v>349</v>
+      </c>
+      <c r="G130" t="s">
+        <v>378</v>
+      </c>
+      <c r="H130" t="s">
+        <v>457</v>
+      </c>
+      <c r="I130" t="s">
+        <v>480</v>
+      </c>
+      <c r="J130" t="s">
+        <v>381</v>
+      </c>
+      <c r="K130" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1">
+        <v>1398</v>
+      </c>
+      <c r="B131" t="s">
         <v>134</v>
       </c>
-      <c r="E96" t="s">
+      <c r="C131" t="s">
+        <v>182</v>
+      </c>
+      <c r="D131" t="s">
+        <v>270</v>
+      </c>
+      <c r="E131" t="s">
+        <v>293</v>
+      </c>
+      <c r="F131" t="s">
+        <v>350</v>
+      </c>
+      <c r="G131" t="s">
+        <v>370</v>
+      </c>
+      <c r="H131" t="s">
+        <v>458</v>
+      </c>
+      <c r="I131" t="s">
+        <v>477</v>
+      </c>
+      <c r="J131" t="s">
+        <v>383</v>
+      </c>
+      <c r="K131" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1">
+        <v>1401</v>
+      </c>
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" t="s">
+        <v>182</v>
+      </c>
+      <c r="D132" t="s">
+        <v>271</v>
+      </c>
+      <c r="E132" t="s">
+        <v>294</v>
+      </c>
+      <c r="F132" t="s">
+        <v>351</v>
+      </c>
+      <c r="G132" t="s">
+        <v>370</v>
+      </c>
+      <c r="H132" t="s">
+        <v>459</v>
+      </c>
+      <c r="I132" t="s">
+        <v>477</v>
+      </c>
+      <c r="J132" t="s">
+        <v>380</v>
+      </c>
+      <c r="K132" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
+        <v>1402</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" t="s">
+        <v>185</v>
+      </c>
+      <c r="D133" t="s">
+        <v>272</v>
+      </c>
+      <c r="E133" t="s">
+        <v>293</v>
+      </c>
+      <c r="F133" t="s">
+        <v>352</v>
+      </c>
+      <c r="G133" t="s">
+        <v>385</v>
+      </c>
+      <c r="H133" t="s">
+        <v>460</v>
+      </c>
+      <c r="I133" t="s">
+        <v>480</v>
+      </c>
+      <c r="J133" t="s">
+        <v>381</v>
+      </c>
+      <c r="K133" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
+        <v>1407</v>
+      </c>
+      <c r="B134" t="s">
+        <v>107</v>
+      </c>
+      <c r="C134" t="s">
+        <v>184</v>
+      </c>
+      <c r="D134" t="s">
+        <v>192</v>
+      </c>
+      <c r="E134" t="s">
+        <v>293</v>
+      </c>
+      <c r="F134" t="s">
+        <v>295</v>
+      </c>
+      <c r="G134" t="s">
+        <v>367</v>
+      </c>
+      <c r="H134" t="s">
+        <v>389</v>
+      </c>
+      <c r="I134" t="s">
+        <v>479</v>
+      </c>
+      <c r="J134" t="s">
+        <v>372</v>
+      </c>
+      <c r="K134" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1">
+        <v>1408</v>
+      </c>
+      <c r="B135" t="s">
+        <v>107</v>
+      </c>
+      <c r="C135" t="s">
+        <v>184</v>
+      </c>
+      <c r="D135" t="s">
+        <v>192</v>
+      </c>
+      <c r="E135" t="s">
+        <v>293</v>
+      </c>
+      <c r="F135" t="s">
+        <v>295</v>
+      </c>
+      <c r="G135" t="s">
+        <v>378</v>
+      </c>
+      <c r="H135" t="s">
+        <v>389</v>
+      </c>
+      <c r="I135" t="s">
+        <v>479</v>
+      </c>
+      <c r="J135" t="s">
+        <v>372</v>
+      </c>
+      <c r="K135" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1">
+        <v>1415</v>
+      </c>
+      <c r="B136" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" t="s">
+        <v>185</v>
+      </c>
+      <c r="D136" t="s">
+        <v>273</v>
+      </c>
+      <c r="E136" t="s">
+        <v>293</v>
+      </c>
+      <c r="F136" t="s">
+        <v>353</v>
+      </c>
+      <c r="G136" t="s">
+        <v>378</v>
+      </c>
+      <c r="H136" t="s">
+        <v>461</v>
+      </c>
+      <c r="I136" t="s">
+        <v>480</v>
+      </c>
+      <c r="J136" t="s">
+        <v>381</v>
+      </c>
+      <c r="K136" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1">
+        <v>1418</v>
+      </c>
+      <c r="B137" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137" t="s">
+        <v>182</v>
+      </c>
+      <c r="D137" t="s">
+        <v>274</v>
+      </c>
+      <c r="E137" t="s">
+        <v>293</v>
+      </c>
+      <c r="F137" t="s">
+        <v>354</v>
+      </c>
+      <c r="G137" t="s">
+        <v>378</v>
+      </c>
+      <c r="H137" t="s">
+        <v>417</v>
+      </c>
+      <c r="I137" t="s">
+        <v>477</v>
+      </c>
+      <c r="J137" t="s">
+        <v>364</v>
+      </c>
+      <c r="K137" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1">
+        <v>1457</v>
+      </c>
+      <c r="B138" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138" t="s">
+        <v>182</v>
+      </c>
+      <c r="D138" t="s">
+        <v>275</v>
+      </c>
+      <c r="E138" t="s">
+        <v>293</v>
+      </c>
+      <c r="F138" t="s">
+        <v>355</v>
+      </c>
+      <c r="G138" t="s">
+        <v>387</v>
+      </c>
+      <c r="H138" t="s">
+        <v>462</v>
+      </c>
+      <c r="I138" t="s">
+        <v>477</v>
+      </c>
+      <c r="J138" t="s">
+        <v>383</v>
+      </c>
+      <c r="K138" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1">
+        <v>1461</v>
+      </c>
+      <c r="B139" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139" t="s">
+        <v>184</v>
+      </c>
+      <c r="D139" t="s">
+        <v>276</v>
+      </c>
+      <c r="E139" t="s">
+        <v>293</v>
+      </c>
+      <c r="F139" t="s">
+        <v>295</v>
+      </c>
+      <c r="G139" t="s">
+        <v>367</v>
+      </c>
+      <c r="H139" t="s">
+        <v>463</v>
+      </c>
+      <c r="I139" t="s">
+        <v>479</v>
+      </c>
+      <c r="J139" t="s">
+        <v>372</v>
+      </c>
+      <c r="K139" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1">
+        <v>1467</v>
+      </c>
+      <c r="B140" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" t="s">
+        <v>184</v>
+      </c>
+      <c r="D140" t="s">
+        <v>210</v>
+      </c>
+      <c r="E140" t="s">
+        <v>293</v>
+      </c>
+      <c r="F140" t="s">
+        <v>295</v>
+      </c>
+      <c r="G140" t="s">
+        <v>367</v>
+      </c>
+      <c r="H140" t="s">
+        <v>407</v>
+      </c>
+      <c r="I140" t="s">
+        <v>479</v>
+      </c>
+      <c r="J140" t="s">
+        <v>372</v>
+      </c>
+      <c r="K140" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1">
+        <v>1468</v>
+      </c>
+      <c r="B141" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141" t="s">
+        <v>184</v>
+      </c>
+      <c r="D141" t="s">
+        <v>210</v>
+      </c>
+      <c r="E141" t="s">
+        <v>293</v>
+      </c>
+      <c r="F141" t="s">
+        <v>295</v>
+      </c>
+      <c r="G141" t="s">
+        <v>367</v>
+      </c>
+      <c r="H141" t="s">
+        <v>407</v>
+      </c>
+      <c r="I141" t="s">
+        <v>479</v>
+      </c>
+      <c r="J141" t="s">
+        <v>372</v>
+      </c>
+      <c r="K141" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1">
+        <v>1469</v>
+      </c>
+      <c r="B142" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" t="s">
+        <v>189</v>
+      </c>
+      <c r="D142" t="s">
+        <v>277</v>
+      </c>
+      <c r="E142" t="s">
+        <v>293</v>
+      </c>
+      <c r="F142" t="s">
+        <v>325</v>
+      </c>
+      <c r="G142" t="s">
+        <v>378</v>
+      </c>
+      <c r="H142" t="s">
+        <v>464</v>
+      </c>
+      <c r="I142" t="s">
+        <v>476</v>
+      </c>
+      <c r="J142" t="s">
+        <v>367</v>
+      </c>
+      <c r="K142" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1">
+        <v>1475</v>
+      </c>
+      <c r="B143" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143" t="s">
+        <v>182</v>
+      </c>
+      <c r="D143" t="s">
+        <v>278</v>
+      </c>
+      <c r="E143" t="s">
+        <v>293</v>
+      </c>
+      <c r="F143" t="s">
+        <v>356</v>
+      </c>
+      <c r="G143" t="s">
+        <v>388</v>
+      </c>
+      <c r="H143" t="s">
+        <v>445</v>
+      </c>
+      <c r="I143" t="s">
+        <v>477</v>
+      </c>
+      <c r="J143" t="s">
+        <v>384</v>
+      </c>
+      <c r="K143" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1">
+        <v>1485</v>
+      </c>
+      <c r="B144" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" t="s">
+        <v>184</v>
+      </c>
+      <c r="D144" t="s">
+        <v>279</v>
+      </c>
+      <c r="E144" t="s">
+        <v>293</v>
+      </c>
+      <c r="F144" t="s">
+        <v>303</v>
+      </c>
+      <c r="G144" t="s">
+        <v>373</v>
+      </c>
+      <c r="H144" t="s">
+        <v>465</v>
+      </c>
+      <c r="I144" t="s">
+        <v>479</v>
+      </c>
+      <c r="J144" t="s">
+        <v>372</v>
+      </c>
+      <c r="K144" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="1">
+        <v>1501</v>
+      </c>
+      <c r="B145" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145" t="s">
+        <v>184</v>
+      </c>
+      <c r="D145" t="s">
+        <v>240</v>
+      </c>
+      <c r="E145" t="s">
+        <v>293</v>
+      </c>
+      <c r="F145" t="s">
+        <v>295</v>
+      </c>
+      <c r="G145" t="s">
+        <v>367</v>
+      </c>
+      <c r="H145" t="s">
+        <v>432</v>
+      </c>
+      <c r="I145" t="s">
+        <v>479</v>
+      </c>
+      <c r="J145" t="s">
+        <v>372</v>
+      </c>
+      <c r="K145" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="1">
+        <v>1503</v>
+      </c>
+      <c r="B146" t="s">
+        <v>147</v>
+      </c>
+      <c r="C146" t="s">
+        <v>184</v>
+      </c>
+      <c r="D146" t="s">
+        <v>280</v>
+      </c>
+      <c r="E146" t="s">
+        <v>294</v>
+      </c>
+      <c r="F146" t="s">
+        <v>357</v>
+      </c>
+      <c r="G146" t="s">
+        <v>373</v>
+      </c>
+      <c r="H146" t="s">
+        <v>466</v>
+      </c>
+      <c r="I146" t="s">
+        <v>479</v>
+      </c>
+      <c r="J146" t="s">
+        <v>372</v>
+      </c>
+      <c r="K146" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="1">
+        <v>1507</v>
+      </c>
+      <c r="B147" t="s">
+        <v>148</v>
+      </c>
+      <c r="C147" t="s">
+        <v>184</v>
+      </c>
+      <c r="D147" t="s">
+        <v>192</v>
+      </c>
+      <c r="E147" t="s">
+        <v>293</v>
+      </c>
+      <c r="F147" t="s">
+        <v>295</v>
+      </c>
+      <c r="G147" t="s">
+        <v>376</v>
+      </c>
+      <c r="H147" t="s">
+        <v>389</v>
+      </c>
+      <c r="I147" t="s">
+        <v>479</v>
+      </c>
+      <c r="J147" t="s">
+        <v>372</v>
+      </c>
+      <c r="K147" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1">
+        <v>1514</v>
+      </c>
+      <c r="B148" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" t="s">
+        <v>182</v>
+      </c>
+      <c r="D148" t="s">
+        <v>281</v>
+      </c>
+      <c r="E148" t="s">
+        <v>293</v>
+      </c>
+      <c r="F148" t="s">
+        <v>333</v>
+      </c>
+      <c r="G148" t="s">
+        <v>369</v>
+      </c>
+      <c r="H148" t="s">
+        <v>467</v>
+      </c>
+      <c r="I148" t="s">
+        <v>477</v>
+      </c>
+      <c r="J148" t="s">
+        <v>483</v>
+      </c>
+      <c r="K148" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="1">
+        <v>1528</v>
+      </c>
+      <c r="B149" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149" t="s">
+        <v>184</v>
+      </c>
+      <c r="D149" t="s">
+        <v>282</v>
+      </c>
+      <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
+        <v>358</v>
+      </c>
+      <c r="G149" t="s">
+        <v>373</v>
+      </c>
+      <c r="H149" t="s">
+        <v>468</v>
+      </c>
+      <c r="I149" t="s">
+        <v>479</v>
+      </c>
+      <c r="J149" t="s">
+        <v>376</v>
+      </c>
+      <c r="K149" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="1">
+        <v>1550</v>
+      </c>
+      <c r="B150" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150" t="s">
+        <v>184</v>
+      </c>
+      <c r="D150" t="s">
+        <v>283</v>
+      </c>
+      <c r="E150" t="s">
+        <v>293</v>
+      </c>
+      <c r="F150" t="s">
+        <v>359</v>
+      </c>
+      <c r="G150" t="s">
+        <v>372</v>
+      </c>
+      <c r="H150" t="s">
+        <v>469</v>
+      </c>
+      <c r="I150" t="s">
+        <v>479</v>
+      </c>
+      <c r="J150" t="s">
+        <v>367</v>
+      </c>
+      <c r="K150" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="1">
+        <v>1559</v>
+      </c>
+      <c r="B151" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151" t="s">
+        <v>184</v>
+      </c>
+      <c r="D151" t="s">
+        <v>259</v>
+      </c>
+      <c r="E151" t="s">
+        <v>293</v>
+      </c>
+      <c r="F151" t="s">
+        <v>303</v>
+      </c>
+      <c r="G151" t="s">
+        <v>373</v>
+      </c>
+      <c r="H151" t="s">
+        <v>436</v>
+      </c>
+      <c r="I151" t="s">
+        <v>479</v>
+      </c>
+      <c r="J151" t="s">
+        <v>372</v>
+      </c>
+      <c r="K151" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="1">
+        <v>1560</v>
+      </c>
+      <c r="B152" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" t="s">
+        <v>181</v>
+      </c>
+      <c r="D152" t="s">
+        <v>284</v>
+      </c>
+      <c r="E152" t="s">
+        <v>293</v>
+      </c>
+      <c r="F152" t="s">
+        <v>323</v>
+      </c>
+      <c r="G152" t="s">
+        <v>377</v>
+      </c>
+      <c r="H152" t="s">
+        <v>470</v>
+      </c>
+      <c r="I152" t="s">
+        <v>476</v>
+      </c>
+      <c r="J152" t="s">
+        <v>375</v>
+      </c>
+      <c r="K152" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="1">
+        <v>1562</v>
+      </c>
+      <c r="B153" t="s">
+        <v>154</v>
+      </c>
+      <c r="C153" t="s">
+        <v>185</v>
+      </c>
+      <c r="D153" t="s">
+        <v>285</v>
+      </c>
+      <c r="E153" t="s">
+        <v>294</v>
+      </c>
+      <c r="F153" t="s">
+        <v>360</v>
+      </c>
+      <c r="G153" t="s">
+        <v>382</v>
+      </c>
+      <c r="H153" t="s">
+        <v>471</v>
+      </c>
+      <c r="I153" t="s">
+        <v>480</v>
+      </c>
+      <c r="J153" t="s">
+        <v>492</v>
+      </c>
+      <c r="K153" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="1">
+        <v>1580</v>
+      </c>
+      <c r="B154" t="s">
+        <v>75</v>
+      </c>
+      <c r="C154" t="s">
+        <v>187</v>
+      </c>
+      <c r="D154" t="s">
+        <v>236</v>
+      </c>
+      <c r="E154" t="s">
+        <v>293</v>
+      </c>
+      <c r="F154" t="s">
+        <v>328</v>
+      </c>
+      <c r="G154" t="s">
+        <v>377</v>
+      </c>
+      <c r="H154" t="s">
+        <v>429</v>
+      </c>
+      <c r="I154" t="s">
+        <v>477</v>
+      </c>
+      <c r="J154" t="s">
+        <v>488</v>
+      </c>
+      <c r="K154" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="1">
+        <v>1584</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" t="s">
+        <v>182</v>
+      </c>
+      <c r="D155" t="s">
+        <v>214</v>
+      </c>
+      <c r="E155" t="s">
+        <v>293</v>
+      </c>
+      <c r="F155" t="s">
+        <v>313</v>
+      </c>
+      <c r="G155" t="s">
+        <v>365</v>
+      </c>
+      <c r="H155" t="s">
+        <v>411</v>
+      </c>
+      <c r="I155" t="s">
+        <v>477</v>
+      </c>
+      <c r="J155" t="s">
+        <v>380</v>
+      </c>
+      <c r="K155" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="1">
+        <v>1585</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" t="s">
+        <v>181</v>
+      </c>
+      <c r="D156" t="s">
+        <v>239</v>
+      </c>
+      <c r="E156" t="s">
+        <v>293</v>
+      </c>
+      <c r="F156" t="s">
+        <v>331</v>
+      </c>
+      <c r="G156" t="s">
+        <v>377</v>
+      </c>
+      <c r="H156" t="s">
+        <v>431</v>
+      </c>
+      <c r="I156" t="s">
+        <v>476</v>
+      </c>
+      <c r="J156" t="s">
+        <v>383</v>
+      </c>
+      <c r="K156" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="1">
+        <v>1592</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" t="s">
+        <v>182</v>
+      </c>
+      <c r="D157" t="s">
+        <v>248</v>
+      </c>
+      <c r="E157" t="s">
+        <v>293</v>
+      </c>
+      <c r="F157" t="s">
+        <v>336</v>
+      </c>
+      <c r="G157" t="s">
+        <v>369</v>
+      </c>
+      <c r="H157" t="s">
+        <v>439</v>
+      </c>
+      <c r="I157" t="s">
+        <v>477</v>
+      </c>
+      <c r="J157" t="s">
+        <v>489</v>
+      </c>
+      <c r="K157" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="1">
+        <v>1622</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" t="s">
+        <v>190</v>
+      </c>
+      <c r="D158" t="s">
+        <v>286</v>
+      </c>
+      <c r="E158" t="s">
+        <v>293</v>
+      </c>
+      <c r="F158" t="s">
+        <v>312</v>
+      </c>
+      <c r="G158" t="s">
+        <v>381</v>
+      </c>
+      <c r="H158" t="s">
+        <v>472</v>
+      </c>
+      <c r="I158" t="s">
+        <v>476</v>
+      </c>
+      <c r="J158" t="s">
+        <v>372</v>
+      </c>
+      <c r="K158" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="1">
+        <v>1656</v>
+      </c>
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" t="s">
+        <v>191</v>
+      </c>
+      <c r="D159" t="s">
+        <v>213</v>
+      </c>
+      <c r="E159" t="s">
+        <v>293</v>
+      </c>
+      <c r="F159" t="s">
+        <v>312</v>
+      </c>
+      <c r="G159" t="s">
+        <v>381</v>
+      </c>
+      <c r="H159" t="s">
+        <v>410</v>
+      </c>
+      <c r="I159" t="s">
+        <v>476</v>
+      </c>
+      <c r="J159" t="s">
+        <v>372</v>
+      </c>
+      <c r="K159" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="1">
+        <v>1664</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" t="s">
+        <v>184</v>
+      </c>
+      <c r="D160" t="s">
+        <v>202</v>
+      </c>
+      <c r="E160" t="s">
+        <v>293</v>
+      </c>
+      <c r="F160" t="s">
+        <v>303</v>
+      </c>
+      <c r="G160" t="s">
+        <v>373</v>
+      </c>
+      <c r="H160" t="s">
+        <v>399</v>
+      </c>
+      <c r="I160" t="s">
+        <v>479</v>
+      </c>
+      <c r="J160" t="s">
+        <v>372</v>
+      </c>
+      <c r="K160" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="1">
+        <v>1667</v>
+      </c>
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161" t="s">
+        <v>184</v>
+      </c>
+      <c r="D161" t="s">
+        <v>287</v>
+      </c>
+      <c r="E161" t="s">
+        <v>293</v>
+      </c>
+      <c r="F161" t="s">
+        <v>302</v>
+      </c>
+      <c r="G161" t="s">
+        <v>372</v>
+      </c>
+      <c r="H161" t="s">
+        <v>473</v>
+      </c>
+      <c r="I161" t="s">
+        <v>479</v>
+      </c>
+      <c r="J161" t="s">
+        <v>367</v>
+      </c>
+      <c r="K161" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="1">
+        <v>1677</v>
+      </c>
+      <c r="B162" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" t="s">
+        <v>184</v>
+      </c>
+      <c r="D162" t="s">
+        <v>288</v>
+      </c>
+      <c r="E162" t="s">
+        <v>293</v>
+      </c>
+      <c r="F162" t="s">
+        <v>361</v>
+      </c>
+      <c r="G162" t="s">
+        <v>373</v>
+      </c>
+      <c r="H162" t="s">
+        <v>474</v>
+      </c>
+      <c r="I162" t="s">
+        <v>479</v>
+      </c>
+      <c r="J162" t="s">
+        <v>372</v>
+      </c>
+      <c r="K162" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="1">
+        <v>1679</v>
+      </c>
+      <c r="B163" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" t="s">
+        <v>184</v>
+      </c>
+      <c r="D163" t="s">
+        <v>216</v>
+      </c>
+      <c r="E163" t="s">
+        <v>293</v>
+      </c>
+      <c r="F163" t="s">
+        <v>295</v>
+      </c>
+      <c r="G163" t="s">
+        <v>367</v>
+      </c>
+      <c r="H163" t="s">
+        <v>413</v>
+      </c>
+      <c r="I163" t="s">
+        <v>479</v>
+      </c>
+      <c r="J163" t="s">
+        <v>372</v>
+      </c>
+      <c r="K163" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="1">
+        <v>1690</v>
+      </c>
+      <c r="B164" t="s">
         <v>164</v>
       </c>
-      <c r="F96" t="s">
+      <c r="C164" t="s">
+        <v>184</v>
+      </c>
+      <c r="D164" t="s">
+        <v>219</v>
+      </c>
+      <c r="E164" t="s">
+        <v>293</v>
+      </c>
+      <c r="F164" t="s">
+        <v>302</v>
+      </c>
+      <c r="G164" t="s">
+        <v>372</v>
+      </c>
+      <c r="H164" t="s">
+        <v>416</v>
+      </c>
+      <c r="I164" t="s">
+        <v>479</v>
+      </c>
+      <c r="J164" t="s">
+        <v>367</v>
+      </c>
+      <c r="K164" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="1">
+        <v>1693</v>
+      </c>
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" t="s">
+        <v>182</v>
+      </c>
+      <c r="D165" t="s">
+        <v>274</v>
+      </c>
+      <c r="E165" t="s">
+        <v>293</v>
+      </c>
+      <c r="F165" t="s">
+        <v>354</v>
+      </c>
+      <c r="G165" t="s">
+        <v>387</v>
+      </c>
+      <c r="H165" t="s">
+        <v>417</v>
+      </c>
+      <c r="I165" t="s">
+        <v>477</v>
+      </c>
+      <c r="J165" t="s">
+        <v>369</v>
+      </c>
+      <c r="K165" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="1">
+        <v>1696</v>
+      </c>
+      <c r="B166" t="s">
+        <v>166</v>
+      </c>
+      <c r="C166" t="s">
+        <v>184</v>
+      </c>
+      <c r="D166" t="s">
+        <v>202</v>
+      </c>
+      <c r="E166" t="s">
+        <v>293</v>
+      </c>
+      <c r="F166" t="s">
+        <v>303</v>
+      </c>
+      <c r="G166" t="s">
+        <v>373</v>
+      </c>
+      <c r="H166" t="s">
+        <v>399</v>
+      </c>
+      <c r="I166" t="s">
+        <v>479</v>
+      </c>
+      <c r="J166" t="s">
+        <v>372</v>
+      </c>
+      <c r="K166" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="1">
+        <v>1697</v>
+      </c>
+      <c r="B167" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167" t="s">
+        <v>184</v>
+      </c>
+      <c r="D167" t="s">
+        <v>202</v>
+      </c>
+      <c r="E167" t="s">
+        <v>293</v>
+      </c>
+      <c r="F167" t="s">
+        <v>303</v>
+      </c>
+      <c r="G167" t="s">
+        <v>373</v>
+      </c>
+      <c r="H167" t="s">
+        <v>399</v>
+      </c>
+      <c r="I167" t="s">
+        <v>479</v>
+      </c>
+      <c r="J167" t="s">
+        <v>372</v>
+      </c>
+      <c r="K167" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="1">
+        <v>1724</v>
+      </c>
+      <c r="B168" t="s">
         <v>168</v>
       </c>
-      <c r="G96" t="s">
-        <v>210</v>
-      </c>
-      <c r="H96" t="s">
-        <v>255</v>
-      </c>
-      <c r="I96" t="s">
-        <v>281</v>
-      </c>
-      <c r="J96" t="s">
-        <v>214</v>
-      </c>
-      <c r="K96" t="s">
-        <v>322</v>
+      <c r="C168" t="s">
+        <v>184</v>
+      </c>
+      <c r="D168" t="s">
+        <v>212</v>
+      </c>
+      <c r="E168" t="s">
+        <v>293</v>
+      </c>
+      <c r="F168" t="s">
+        <v>311</v>
+      </c>
+      <c r="G168" t="s">
+        <v>376</v>
+      </c>
+      <c r="H168" t="s">
+        <v>409</v>
+      </c>
+      <c r="I168" t="s">
+        <v>479</v>
+      </c>
+      <c r="J168" t="s">
+        <v>374</v>
+      </c>
+      <c r="K168" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="1">
+        <v>1725</v>
+      </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169" t="s">
+        <v>183</v>
+      </c>
+      <c r="D169" t="s">
+        <v>256</v>
+      </c>
+      <c r="E169" t="s">
+        <v>293</v>
+      </c>
+      <c r="F169" t="s">
+        <v>340</v>
+      </c>
+      <c r="G169" t="s">
+        <v>366</v>
+      </c>
+      <c r="H169" t="s">
+        <v>447</v>
+      </c>
+      <c r="I169" t="s">
+        <v>478</v>
+      </c>
+      <c r="J169" t="s">
+        <v>482</v>
+      </c>
+      <c r="K169" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="1">
+        <v>1728</v>
+      </c>
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" t="s">
+        <v>183</v>
+      </c>
+      <c r="D170" t="s">
+        <v>194</v>
+      </c>
+      <c r="E170" t="s">
+        <v>293</v>
+      </c>
+      <c r="F170" t="s">
+        <v>295</v>
+      </c>
+      <c r="G170" t="s">
+        <v>366</v>
+      </c>
+      <c r="H170" t="s">
+        <v>391</v>
+      </c>
+      <c r="I170" t="s">
+        <v>478</v>
+      </c>
+      <c r="J170" t="s">
+        <v>482</v>
+      </c>
+      <c r="K170" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="1">
+        <v>1734</v>
+      </c>
+      <c r="B171" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" t="s">
+        <v>182</v>
+      </c>
+      <c r="D171" t="s">
+        <v>193</v>
+      </c>
+      <c r="E171" t="s">
+        <v>293</v>
+      </c>
+      <c r="F171" t="s">
+        <v>296</v>
+      </c>
+      <c r="G171" t="s">
+        <v>365</v>
+      </c>
+      <c r="H171" t="s">
+        <v>390</v>
+      </c>
+      <c r="I171" t="s">
+        <v>477</v>
+      </c>
+      <c r="J171" t="s">
+        <v>481</v>
+      </c>
+      <c r="K171" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="1">
+        <v>1753</v>
+      </c>
+      <c r="B172" t="s">
+        <v>171</v>
+      </c>
+      <c r="C172" t="s">
+        <v>184</v>
+      </c>
+      <c r="D172" t="s">
+        <v>289</v>
+      </c>
+      <c r="E172" t="s">
+        <v>293</v>
+      </c>
+      <c r="F172" t="s">
+        <v>302</v>
+      </c>
+      <c r="G172" t="s">
+        <v>372</v>
+      </c>
+      <c r="H172" t="s">
+        <v>473</v>
+      </c>
+      <c r="I172" t="s">
+        <v>479</v>
+      </c>
+      <c r="J172" t="s">
+        <v>367</v>
+      </c>
+      <c r="K172" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="1">
+        <v>1757</v>
+      </c>
+      <c r="B173" t="s">
+        <v>172</v>
+      </c>
+      <c r="C173" t="s">
+        <v>181</v>
+      </c>
+      <c r="D173" t="s">
+        <v>290</v>
+      </c>
+      <c r="E173" t="s">
+        <v>293</v>
+      </c>
+      <c r="F173" t="s">
+        <v>295</v>
+      </c>
+      <c r="G173" t="s">
+        <v>377</v>
+      </c>
+      <c r="H173" t="s">
+        <v>434</v>
+      </c>
+      <c r="I173" t="s">
+        <v>476</v>
+      </c>
+      <c r="J173" t="s">
+        <v>364</v>
+      </c>
+      <c r="K173" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="1">
+        <v>1790</v>
+      </c>
+      <c r="B174" t="s">
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>184</v>
+      </c>
+      <c r="D174" t="s">
+        <v>246</v>
+      </c>
+      <c r="E174" t="s">
+        <v>293</v>
+      </c>
+      <c r="F174" t="s">
+        <v>334</v>
+      </c>
+      <c r="G174" t="s">
+        <v>373</v>
+      </c>
+      <c r="H174" t="s">
+        <v>437</v>
+      </c>
+      <c r="I174" t="s">
+        <v>479</v>
+      </c>
+      <c r="J174" t="s">
+        <v>367</v>
+      </c>
+      <c r="K174" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B175" t="s">
+        <v>174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>183</v>
+      </c>
+      <c r="D175" t="s">
+        <v>225</v>
+      </c>
+      <c r="E175" t="s">
+        <v>293</v>
+      </c>
+      <c r="F175" t="s">
+        <v>319</v>
+      </c>
+      <c r="G175" t="s">
+        <v>366</v>
+      </c>
+      <c r="H175" t="s">
+        <v>422</v>
+      </c>
+      <c r="I175" t="s">
+        <v>478</v>
+      </c>
+      <c r="J175" t="s">
+        <v>487</v>
+      </c>
+      <c r="K175" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="1">
+        <v>1801</v>
+      </c>
+      <c r="B176" t="s">
+        <v>120</v>
+      </c>
+      <c r="C176" t="s">
+        <v>183</v>
+      </c>
+      <c r="D176" t="s">
+        <v>258</v>
+      </c>
+      <c r="E176" t="s">
+        <v>293</v>
+      </c>
+      <c r="F176" t="s">
+        <v>342</v>
+      </c>
+      <c r="G176" t="s">
+        <v>386</v>
+      </c>
+      <c r="H176" t="s">
+        <v>449</v>
+      </c>
+      <c r="I176" t="s">
+        <v>478</v>
+      </c>
+      <c r="J176" t="s">
+        <v>482</v>
+      </c>
+      <c r="K176" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="1">
+        <v>1802</v>
+      </c>
+      <c r="B177" t="s">
+        <v>175</v>
+      </c>
+      <c r="C177" t="s">
+        <v>181</v>
+      </c>
+      <c r="D177" t="s">
+        <v>291</v>
+      </c>
+      <c r="E177" t="s">
+        <v>293</v>
+      </c>
+      <c r="F177" t="s">
+        <v>362</v>
+      </c>
+      <c r="G177" t="s">
+        <v>377</v>
+      </c>
+      <c r="H177" t="s">
+        <v>475</v>
+      </c>
+      <c r="I177" t="s">
+        <v>476</v>
+      </c>
+      <c r="J177" t="s">
+        <v>485</v>
+      </c>
+      <c r="K177" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="1">
+        <v>1808</v>
+      </c>
+      <c r="B178" t="s">
+        <v>176</v>
+      </c>
+      <c r="C178" t="s">
+        <v>184</v>
+      </c>
+      <c r="D178" t="s">
+        <v>250</v>
+      </c>
+      <c r="E178" t="s">
+        <v>293</v>
+      </c>
+      <c r="F178" t="s">
+        <v>310</v>
+      </c>
+      <c r="G178" t="s">
+        <v>373</v>
+      </c>
+      <c r="H178" t="s">
+        <v>441</v>
+      </c>
+      <c r="I178" t="s">
+        <v>479</v>
+      </c>
+      <c r="J178" t="s">
+        <v>372</v>
+      </c>
+      <c r="K178" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="1">
+        <v>1816</v>
+      </c>
+      <c r="B179" t="s">
+        <v>177</v>
+      </c>
+      <c r="C179" t="s">
+        <v>184</v>
+      </c>
+      <c r="D179" t="s">
+        <v>221</v>
+      </c>
+      <c r="E179" t="s">
+        <v>293</v>
+      </c>
+      <c r="F179" t="s">
+        <v>295</v>
+      </c>
+      <c r="G179" t="s">
+        <v>367</v>
+      </c>
+      <c r="H179" t="s">
+        <v>418</v>
+      </c>
+      <c r="I179" t="s">
+        <v>479</v>
+      </c>
+      <c r="J179" t="s">
+        <v>372</v>
+      </c>
+      <c r="K179" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="1">
+        <v>1834</v>
+      </c>
+      <c r="B180" t="s">
+        <v>178</v>
+      </c>
+      <c r="C180" t="s">
+        <v>186</v>
+      </c>
+      <c r="D180" t="s">
+        <v>292</v>
+      </c>
+      <c r="E180" t="s">
+        <v>293</v>
+      </c>
+      <c r="F180" t="s">
+        <v>363</v>
+      </c>
+      <c r="G180" t="s">
+        <v>381</v>
+      </c>
+      <c r="H180" t="s">
+        <v>472</v>
+      </c>
+      <c r="I180" t="s">
+        <v>476</v>
+      </c>
+      <c r="J180" t="s">
+        <v>372</v>
+      </c>
+      <c r="K180" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="1">
+        <v>1841</v>
+      </c>
+      <c r="B181" t="s">
+        <v>179</v>
+      </c>
+      <c r="C181" t="s">
+        <v>184</v>
+      </c>
+      <c r="D181" t="s">
+        <v>192</v>
+      </c>
+      <c r="E181" t="s">
+        <v>293</v>
+      </c>
+      <c r="F181" t="s">
+        <v>295</v>
+      </c>
+      <c r="G181" t="s">
+        <v>373</v>
+      </c>
+      <c r="H181" t="s">
+        <v>389</v>
+      </c>
+      <c r="I181" t="s">
+        <v>479</v>
+      </c>
+      <c r="J181" t="s">
+        <v>372</v>
+      </c>
+      <c r="K181" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="1">
+        <v>1848</v>
+      </c>
+      <c r="B182" t="s">
+        <v>180</v>
+      </c>
+      <c r="C182" t="s">
+        <v>184</v>
+      </c>
+      <c r="D182" t="s">
+        <v>250</v>
+      </c>
+      <c r="E182" t="s">
+        <v>293</v>
+      </c>
+      <c r="F182" t="s">
+        <v>310</v>
+      </c>
+      <c r="G182" t="s">
+        <v>373</v>
+      </c>
+      <c r="H182" t="s">
+        <v>441</v>
+      </c>
+      <c r="I182" t="s">
+        <v>479</v>
+      </c>
+      <c r="J182" t="s">
+        <v>372</v>
+      </c>
+      <c r="K182" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/output/錯誤型態彙整.xlsx
+++ b/output/錯誤型態彙整.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="494">
   <si>
     <t>45A</t>
   </si>
@@ -55,13 +55,10 @@
     <t xml:space="preserve"> 1 LLDPE 3470 240 MTS USD 1240MT H0FR252 LLDPE 3490 16 MTS USD 1250MT H0FR033 LLDPE 3490 848 MTS USD 1250MT H0FR184 HDPE 8010  34 MTS USD 1125MT H0FR025 HDPE 8010 170 MTS USD 1150MT H0FR196 HDPE 8001  51 MTS USD 1180MT H0FR307 EVA 7470M 100 MTS USD 3205MT H0FR33 INCOTERMS 2010TERMS FOB ANY TAIWAN PORT </t>
   </si>
   <si>
-    <t xml:space="preserve"> 750000 BARRELS PLUSMINUS 10 PCT OF GASOIL 10PPM SULPHURFOB MAILIAO TAIWAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12600 BBLS 10PCT OF JET A1UNIT PRICE THE FOB MAILIAO TAIWAN PRICE IN USD PER BBLFOB PRICE EQUAL TO X PLUS USD028 PER BARRELWHERE X EQUAL TO THE WHOLE MONTH ARITHMETIC AVERAGE OF SEPTEMBER2021 MEAN OF PLATTS FOR JETKEROSENE UNDER THE HEADINGSINGAPORE PUBLISHED IN THE PLATTS ASIA PACIFICARAB GULFMARKETSCAN OF PLATTS QUOTATIONSTHE UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3 DECIMAL PLACESWITH THE THIRD DECIMAL PLACE TO BE INCREASED TO THE NEXT DIGITWHENEVER THE FOURTH DECIMAL PLACE IS FIVE OR GREATER THAN FIVEANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNTTERMS OF PRICE FOB MAILIAO TAIWANCOUNTRY OF ORIGIN TAIWAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 300000 BBLS 10PCT OF GASOIL 005PCT SCOUNTRY OF ORIGIN TAIWANTERMS OF PRICE FOB MAILIAOTAIWANUNIT PRICE THE FOB MAILIAOTAIWAN PRICE IN USD PER BBLFOB PRICE EQUAL TO X MINUS USD164 PER BARRELWHERE X EQUAL TO THE WHOLE MONTH ARITHMETIC AVERAGE OF NOVEMBER2021 MEAN OF PLATTS FOR GASOIL 10PPMS UNDER THE HEADINGSINGAPOREPUBLISHED IN THE PLATTS ASIA PACIFICARAB GULFMARKETSCAN OF PLATTS QUOTATIONSIN THE EVENT THAT THE FINAL PRICE IS NOT KNOWN BEFORE LCNEGOTIAION PAYMENT WILL BE EFFECTED AGAINST THE PROVISIONALINVOICE PROVIDED BY THE SELLER SUCH PROVISIONAL PRICE SHALL BEBASED ON THE ABOVE PRICE CLAUSE WITH ALL AVAILABLE QUOTATIONSAT THE TIME OF INVOICINGWHEN THE FINAL PRICE IS KNOWN THE DIFFERENCE OF THE ACTUALAMOUNT AND THE PROVISIONAL AMOUNT IS TO BE SETTLED OUTSIDETHE IRREVOCABLE DOCUMENTARY LETTER OF CREDIT BETWEENBENEFICIARY AND APPLICANT BY TELEGRAPHIC TRANSFER PAYMENTWITHIN FIVE 5 NEW YORK BANKING DAYS UPON THE RECEIPT OFSUCH FINAL SETTLEMENT INVOICE BY THE APPLICABLE PARTYTHE PROVISIONALFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3DECIMAL PLACESWITH THE THIRD DECIMAL PLACE TO BE INCREASED TOTHE NEXT DIGIT WHENEVER THE FOURTH DECIMAL PLACE IS FIVE ORGREATER THAN FIVEANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNT </t>
+    <t xml:space="preserve"> 10500 MT DOTP DIOCTYL TEREPHTHALATEAT USD 191000MTTOTAL AMOUNT  USD 20055000TYPE OF GOODS LIQUIDHS NO   29173600CONTRACT NO  NL1937ACOUNTRY OF ORIGIN TAIWANSHIPPING TERMS  CIF TANJUNG PRIOK JAKARTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 105 MT DOTP DIOCTYL TEREPHTHALATEAT USD 191000MTTOTAL AMOUNT  USD 20055000TYPE OF GOODS LIQUIDHS NO   29173600CONTRACT NO  NL1937BCOUNTRY OF ORIGIN TAIWANSHIPPING TERMS  CIF TANJUNG PRIOK JAKARTA </t>
   </si>
   <si>
     <t xml:space="preserve"> PP SHEET 0104 RIGID PVC 0506 AS PER PO 20211516 C I F SINGAPORE </t>
@@ -73,9 +70,6 @@
     <t xml:space="preserve"> TERMS OF PRICE FOB OR FCA TAIWANCOUNTRY OF ORIGIN TAIWAN BUYER ATHLETA PROFORMA INVOICE NOATHB1145001145T00 ATHB114500PP1145T00PPFABRICS ORDER </t>
   </si>
   <si>
-    <t xml:space="preserve"> 113652 KGS NYLON 6 HIGH TENACITY FILAMENT YARN 1260D210F ASPER PO 172552 DT 25092021 AND PI NO 5V09241 DT 24092021HS CODE 54021910 INCOTERMS 2010 CIF CHENNAI PORT INDIA </t>
-  </si>
-  <si>
     <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 1 X 20 FCL CONSISTING OF 18 MTS OF ABS AG15A1H AT USD2320MT USD4176000INCOTERMS 2010 </t>
   </si>
   <si>
@@ -100,12 +94,6 @@
     <t xml:space="preserve"> COMMODITY AND  QUANTITY UNIT PRICE  TOTAL AMOUNTDESCRIPTION  COPOLYMER   20800  130000  27040000PROPYLENE GRADE K8009TOTAL    20800     27040000CIF HAIPHONG PORT VIETNAM AS INCOTERMS 2010PACKING IN EXPORTPACKING STANDARDORIGIN TAIWANALL OTHER DETAILS ARE AS PER CONTRACT NO 202109131MTHN DATEON 29092021 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 300000 BBLS 10PCT OF GASOIL 10PPMCOUNTRY OF ORIGIN TAIWANTERMS OF PRICE FOB MAILIAOTAIWANUNIT PRICE THE FOB MAILIAOTAIWAN PRICE IN USD PER BBLFOB PRICE EQUAL TO X MINUS USD023 PER BARRELWHERE X EQUAL TO THE WHOLE MONTH ARITHMETIC AVERAGE OF NOVEMBER2021 MEAN OF PLATTS FOR GASOIL 10PPMS UNDER THE HEADINGSINGAPOREPUBLISHED IN THE PLATTS ASIA PACIFICARAB GULFMARKETSCAN OF PLATTS QUOTATIONSIN THE EVENT THAT THE FINAL PRICE IS NOT KNOWN BEFORE LCNEGOTIAION PAYMENT WILL BE EFFECTED AGAINST THE PROVISIONALINVOICE PROVIDED BY THE SELLER SUCH PROVISIONAL PRICE SHALL BEBASED ON THE ABOVE PRICE CLAUSE WITH ALL AVAILABLE QUOTATIONSAT THE TIME OF INVOICINGWHEN THE FINAL PRICE IS KNOWN THE DIFFERENCE OF THE ACTUALAMOUNT AND THE PROVISIONAL AMOUNT IS TO BE SETTLED OUTSIDETHE IRREVOCABLE DOCUMENTARY LETTER OF CREDIT BETWEENBENEFICIARY AND APPLICANT BY TELEGRAPHIC TRANSFER PAYMENTWITHIN FIVE 5 NEW YORK BANKING DAYS UPON THE RECEIPT OFSUCH FINAL SETTLEMENT INVOICE BY THE APPLICABLE PARTYTHE PROVISIONALFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3DECIMAL PLACESWITH THE THIRD DECIMAL PLACE TO BE INCREASED TOTHE NEXT DIGIT WHENEVER THE FOURTH DECIMAL PLACE IS FIVE ORGREATER THAN FIVEANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32472 KGS NYLON 6 HIGH TENACITY FILAMENT YARN 1260D210F AS PERPO NO 172630 DT 27092021 AND PI NO 5V09242 DT 24092021HS CODE 54021910 INCOTERMS 2010 CIF CHENNAI PORT INDIA </t>
-  </si>
-  <si>
     <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 1 X 20 FCL CONSISTING OF18 MTS OF HIPS 8250 AT USD1620MT USD2916000INCOTERMS 2010 </t>
   </si>
   <si>
@@ -121,9 +109,6 @@
     <t xml:space="preserve">  PLASTIC RESIN CIF YANTIAN CHINA1 1 X 20 FCL CONSISTING OF 18 MTS OF SAN NF2200 AT USD1810MT USD3258000INCOTERMS 2010 </t>
   </si>
   <si>
-    <t xml:space="preserve"> SODIUM HYDROXIDE CAUSTIC SODA MICROPEARLS IN 25 KG BAG ONPALLETIMO 8 UN 1823 PG IIORDER NO 792368822021 672 MT UNIT PRICE USD 44000MTMARKINGSEXPAN CHEMICALSANTWERPCAUSTIC SODA MICROPEARLS 99 PCTIMO 8 UN 1823 PG IIFOB ANY PORT IN TAIWAN AS PER INCOTERMS 2020 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2 ETHYL HEXANOL 2EH QUANTITY 2000 MT 1 ISO TANK AT RATE USD 232000 PER MT INCOTERMS 2020CIF MUNDRA PORTINDIAAS PER APPLICANT PONO202122EIPLIMPWRR59B DATED 29092021 AND AS PER PROFORMA INVOICE NO NK1975 DATED 28092021 OF THE BENEFICIARY </t>
   </si>
   <si>
@@ -139,9 +124,6 @@
     <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 2 X 20 FCL CONSISTING OF 36 MTS OF ABS AG15A1H AT USD2330MT USD8388000INCOTERMS 2010 </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITY GPPS GP5250 QUANTITY 1300MT UNIT PRICE USD1420MT CONTRACT NO Y9094ORIGIN TAIWANPACKING IN 25 KGS BAGSPRICE TERM CIF MAINLAND MAIN PORT CHINA </t>
-  </si>
-  <si>
     <t xml:space="preserve"> OTHERS </t>
   </si>
   <si>
@@ -154,21 +136,18 @@
     <t xml:space="preserve"> 1COMMODITY HIPS HP8250 QUANTITY 500MT UNIT PRICE USD1600MT CONTRACT NO Y91102COMMODITY HIPS HP8250 QUANTITY 1000MT UNIT PRICE USD1580MT CONTRACT NO Y9111ORIGINTAIWANPACKINGIN 25 KGS BAGSPRICE TERM CIF MAINLAND MAIN PORT CHINA </t>
   </si>
   <si>
-    <t xml:space="preserve"> CIF CAT LAI HO CHI MINH PORT VIETNAMPVC SUSPENSION RESIN S60 QTY4080MTS UPUSD1400MTPVC SUSPENSION RESIN S65 QTY7920MTS UPUSD1400MTPVC SUSPENSION RESIN S60 QTY3120MTS UPUSD1410MTPACKING25KGS IN PP BAG WITH PALLET </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 14 BUNTANEDIOL QTY 6000 MT AT THE RATE USD 460000MTSAS PER PO NO7540000391 DATED 06OCT2021INCOTERMS 2020 CIF NHAVA SHEVA INDIA </t>
   </si>
   <si>
+    <t xml:space="preserve"> APPLICANTS PO NO OP2109049OR21353 DATE 30092021RAW MATERIAL RESIN COMPOUND AS FOLLOWPOLYPROPYLENE RESIN YUNGSOX 5090T QTY 16000KG AT USD1435KG C I F HENG GANG CHINA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1 COMMODITY POLYPROPYLENE GRADE K10112 QUANTITY 4800 MTS 3 UNIT PRICE USD133000MT4 TOTAL AMOUNT USD6384000 5 TRADE TERMS CIF HAIPHONG PORT VIETNAM 6 PACKING IN EXPORT PACKING STANDARD7 ORIGIN TAIWAN8 OTHER TERMS AND CONDITIONS AS PER CONTRACT NO 202110137MTHNDATE 06102021 </t>
   </si>
   <si>
     <t xml:space="preserve"> TERMS OF PRICE CIF BUSAN PORTCOUNTRY OF ORIGIN TAIWAN ROCGLASS FIBER YARNECG7510TECG7510B9 </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITYGPPS GP5250QUANTITY500 MTUNIT PRICEUSD144000MTCONTRACT NOYA037ORIGINTAIWANPACKINGIN 25 KGS BAGSPRICE TERMCIF MAIN PORT CHINA MAINLAND </t>
-  </si>
-  <si>
     <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 1 X 20 FCL CONSISTING OF 20 MTS OF POM FM090 AT USD2510MT USD5020000INCOTERMS 2010 </t>
   </si>
   <si>
@@ -184,6 +163,9 @@
     <t xml:space="preserve">  COMMODITY GPPS GRADE GP525N PACKING 25KGS NET IN BAG 18MTS NET LOOSE STOWED IN20FT CONTAINER ORIGIN TAIWAN QUANTITY 36 MTS UNIT PRICE 146500 USDMT TOTAL AMOUNT USD5274000ALL OTHER TERMS AND CONDITIONS AS PER CONTRACT NO21101134VNCD DATED OCT 08 2021TRADE TERM CIF CAT LAI PORT VIETNAM INCOTERMS 2010 </t>
   </si>
   <si>
+    <t xml:space="preserve"> CIF LONG BEACH OR LOS ANGELES CALIFORNIA USA5118 SHEETS OF COPPER CLAD LAMINATE MATERIALSCERTIFYING THAT MERCHANDISE HAS BEEN MARKED IN ACCORDANCE WITHAPPLICABLE CUSTOMS REGULATIONS AND IS IN ACCORDANCE WITH PURCHASEORDER NUMBER FCT91328 AND INDICATING FOB VALUE FREIGHT CHARGESAND INSURANCE </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1 75 MTS 3000 BAGS EVA RESIN 7350M AT USD312000MT CIF HUANGPU NEW PORT CHINA PORT OF DISCHARGE HUANGPU NEW PORT CHINA2 50 MTS 2000 BAGS EVA RESIN 7470M AT USD322000MT CIF HUANGPU NEW PORT CHINA PORT OF DISCHARGE HUANGPU NEW PORT CHINA3 16 MTS 640 BAGS EVA RESIN 7350M AT USD258500MT CIF HUANGPU NEW PORT CHINA PORT OF DISCHARGE HUANGPU NEW PORT CHINA4 9 MTS 360 BAGS EVA RESIN 7350M AT USD312000MT CIF HUANGPU NEW PORT CHINA PORT OF DISCHARGE HUANGPU NEW PORT CHINA5 75 MTS 3000 BAGS EVA RESIN 7350M AT USD312000MT CIF TAIPING PORT CHINA PORT OF DISCHARGE TAIPING PORT CHINA6 50 MTS 2000 BAGS EVA RESIN 7470M AT USD323000MT CIF CATLAI VIETNAM PORT OF DISCHARGE CATLAI VIETNAM7 25 MTS 1000 BAGS EVA RESIN 7470M AT USD299500MT CIF CATLAI VIETNAM PORT OF DISCHARGE CATLAI VIETNAMPACKING 25 KGS PER BAG </t>
   </si>
   <si>
@@ -196,6 +178,9 @@
     <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 7 X 20 FCL CONSISTING OF 126 MTS OF HIPS 8250 AT USD1620MT USD20412000INCOTERMS 2010 </t>
   </si>
   <si>
+    <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY2500MTSUNIT PRICE USD133000MTTRADE TERM CIF WUHAN PORTCHINA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1COMMODITY ETHYLENEPROPYLENE COPOLYMERSPP COPOLYMER YUNGSOX3015QUANTITY 128000MTUNIT PRICE USD131500MTAMOUNTUSD16832000TRADE TERM CIF RONGQICHINAPACKING 25KG BAG WITHOUT PALLET </t>
   </si>
   <si>
@@ -217,12 +202,6 @@
     <t xml:space="preserve"> BASE OIL 380N 800MT 5 PCT AT 1203 USDMTBASE OIL 380N 300MT 5 PCT AT ICIS PRICING GII 500NFOB NE ASIA MEAN 78 USDMTPACKING IN BULKFOB MAILIAO TAIWAN </t>
   </si>
   <si>
-    <t xml:space="preserve"> NYLON 6 HIGH TENACITY YARNN8800 KGSNAS PER PROFORMA INVOICE NO 5V10143 DATED 15 OCT 2021NDELIVERY TERMS CIF GENOVA PORT ITALYNICCINCOTERMSR2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PRODUCT HDPE HIGH DENSITY POLYETHYLENEGRADE9001QUANTITY 2000000 MTUNIT PRICE USD 12000000MTFOBANY PORT IN TAIWANPACKAGING IN 25 KG BAGSORIGIN TAIWAN </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ITEM     QUANTITY UNIT PRICE AMOUNT      KG  USDKG USD      10   10PSF 4D X 51MM LOW MELT  115000 128  14720000 PACKING 270 10 KGBAG TOTAL AMOUNT USD14720000 10 TRADE TERMSCIF CAT LAI PORT HOCHIMINH CITY VIETNAM INCOTERM 2010 ORIGIN TAIWAN OTHER TERMS AND CONDITIONS AS PER PURCHASE AND SALE CONTRACT NON9189 DATED 29 SEP 2021 </t>
   </si>
   <si>
@@ -232,12 +211,6 @@
     <t xml:space="preserve">  PLASTIC RESIN CIF YANTIAN CHINA1 2 X 20 FCL CONSISTING OF 36 MTS OF GPPS 525N AT USD1540MT USD5544000INCOTERMS 2010 </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITYPVC RESINS60QUANTITY1085MTUNIT PRICEUSD1270MTPACKING25KGS IN PP WOVEN BAG WITH PE LAMINATEDHS CODE390410PRICE TERMS CIF CAT LAIVIETNAM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMODITY PVC RESIN S60QUANTITY 700MTSUNIT PRICE USD1220MTPACKING 25KGS IN PP WOVEN BAG WITH PE LAMINATEDCIF CAT LAI VIETNAM </t>
-  </si>
-  <si>
     <t xml:space="preserve"> CFR KARACHI SEAPORT PAKISTAN INCOTERMS 20201 QTY 6400 MTONS EPOXIDIZED SOYABEAN OIL ESO132X FOR PVCSYNTHETIC LEATHER INDUSTRY AT USD 202000 PER MTONCOMPLETE DETAILS AS PER INDENT NO 2170421 DATED15OCTOBER2021 OF MS TRANSCONTINENTAL AGENCIES KARACHIPAKISTAN </t>
   </si>
   <si>
@@ -247,27 +220,18 @@
     <t xml:space="preserve"> TAIRILIN BRAND PET CHIPS B GRADEJNNC7 760000 KGSJNNCB 190000 KGSTAIRILIN BRAND PET CHIPS B GRADE950000 KGSTAIRILIN BRAND PET CHIPS B GRADE950000 KGSCIF SHANGHAI PORT CHINA </t>
   </si>
   <si>
+    <t xml:space="preserve">  COMMODITY METHYL METHACRYLATE MMA QUANTITY 210 MTS 5PCT UNIT PRICE USD2020MT TOTAL AMOUNT USD424200 5PCT ORIGIN TAIWAN MANUFACTURER FORMOSA PLASTICS CORP PACKING IN ISOTANK QUALITY AND INSPECTION AS PER EXPORT STANDARDINHIBITOR REQUIRED TA 10 PPM TRADE TERM CIF HO CHI MINH CITY VIET NAM INCOTERMS 2010 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> COPPER CLAD LAMINATEAS PER PROFORMA INVOICE NO TDPI211019 DATE 19OCT2021 </t>
   </si>
   <si>
-    <t xml:space="preserve"> TAIRILIN BRAND PET FILMCP2B6NO3LINE 12212120 KGSCP2B6NO4LINE 8041400 KGSGQ21 3311070 KGSGQ21STOCK 306430 KGSBP216NO4 2818360 KGSBP11600125MM 647200 KGSBR110012MM 1118340 KGSCIF JAPANESE PORT </t>
-  </si>
-  <si>
     <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 2 X 20 FCL CONSISTING OF 36 MTS OF ABS AG15A1H AT USD2340MT USD8424000INCOTERMS 2010 </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITY QUANTITY  UNIT PRICEDOTP  2100 MT 5 USD186500MTFOB ANY PORT IN TAIWAN </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITYPVC RESINS60665MTUNIT PRICEUSD1220MT CIF CAT LAIVIETNAMPACKING25 KGS IN PP WOVEN BAG WITH PE LAMINATEDHS CODE390410 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32MTS OF PVC SUSPENSION S65 AT USD1660MTTOTAL AMOUNT USD5312000PACKING 25KGS IN PP WOVEN BAG WITHOUT PALLETCIF CAT LAI PORT VIETNAM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CIF TOKYOJAPANPOLYETHYLENE TEREPHTHALATE PET RESINDETAILS AS FOLLOWS  CURRENCY USD UNIT MTCOMMODITY   UNIT PRICE QUANTITY  AMOUNTPET RESIN TYPE 3802  1075  315 33862500      TOTAL QUANTITY TOTAL AMOUNT        315 33862500 </t>
-  </si>
-  <si>
     <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 1 X 20 FCL CONSISTING OF 18 MTS OF ABS AG15A1H AT USD2330MT USD4194000INCOTERMS 2010 </t>
   </si>
   <si>
@@ -310,9 +274,6 @@
     <t xml:space="preserve"> COUNTRY OF ORIGIN TAIWANPRICE TERMS CIF SOUTH KOREA ANY PORTNANYA PRODUCTSPVC CLEAR RIGID SHEET AND ANOTHER ITEMSINVOICE NO PI20211029 </t>
   </si>
   <si>
-    <t xml:space="preserve"> QUANTITY 1000000MT 5PCT AT USD199000MTISO NONYL ALCOHOLPACKING IN BULKSPECIFIC GRAVITY MAX 0839FOB MAILIAO TAIWAN </t>
-  </si>
-  <si>
     <t xml:space="preserve">  PLASTIC RESIN CIF CHATTOGRAM BANGLADESH1 1 X 20 FCL CONSISTING OF 18 MTS OF ABS AG15A1H AT USD2430MT USD4374000INCOTERMS 2010 </t>
   </si>
   <si>
@@ -340,9 +301,6 @@
     <t xml:space="preserve"> 20 MT DOAAT USD 230000MTTOTAL AMOUNT  USD 4600000TYPE OF GOODS LIQUIDHS NO   29171210CONTRACT NO  NL1A31COUNTRY OF ORIGIN TAIWANSHIPPING TERMS  CIF TANJUNG PRIOK JAKARTA </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1 TERMS CIF JAKARTA PORT INDONESIA INCOTERMS 20202 NAME OF GOODS FORMOLON C153 TYPE OF GOODS PVC COPOLYMER4 VOLUME OF GOODS 16000 KG5 QUALITY OF GOODS EXPORT QUALITY6 HS NUMBER 3904307 COUNTRY OF ORIGIN TAIWAN8 CONTRACT NO PO 2100955 PI NO A0L152 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> COMMODITY BPA BISPHENOLAQUANTITY 510MTSCONTRACT NO 4500299594TOTAL VALUE USD142800000PRICE TERM CIF YANTAI PORT CHINA INCOTERMS 2010 EDITIONS </t>
   </si>
   <si>
@@ -364,9 +322,6 @@
     <t xml:space="preserve"> RESIN NPEL 128 QTY 38400 KGS AT USD 4880 PER KGCIF JEDDAH </t>
   </si>
   <si>
-    <t xml:space="preserve"> CIF HAIPHONG VIETNAMN2400 MTS OF PVC SUSPENSION RESIN S60 100 PERCENTAGE PVCNPACKING 25KGS IN PP WOVEN BAG WITH PE INNER BAG </t>
-  </si>
-  <si>
     <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 4 X 20 FCL CONSISTING OF72 MTS OF HIPS 8250 AT USD1620MT USD11664000INCOTERMS 2010 </t>
   </si>
   <si>
@@ -382,9 +337,6 @@
     <t xml:space="preserve">  PLASTIC RESIN CIF SIHANOUKVILLE CAMBODIA1 1 X 20 FCL CONSISTING OF 18 MTS OF ABS AG15A1H AT USD2360MT USD4248000INCOTERMS 2010 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 10800 MTS PVC SUSPENSION RESIN S65DUNIT PRICE 186000 USD7000 MTS PVC MASS RESIN B57UNIT PRICE 186000 USDTOTAL AMOUNT 33108000PACKING 25KGS IN PP WOVEN BAG WITH PE INNER BAGSHIPPER PROFORMA INVOICE NO 21N11M05 DATED 22102021DELIVERY TERMS CIF PIPAVAV INDIA </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1560 MTS1 FCL OF METHACRYLIC ACIDRNMAKE FORMOSA PLASTICS CORPORATIONRNAT USD 310000 PER MT CIF NHAVA SHEVA PORT INDIARNAS PER PROFORMA INVOICE DTD 29102021 </t>
   </si>
   <si>
@@ -400,13 +352,16 @@
     <t xml:space="preserve"> COMMODITYNAN YA RELEASE FILMPET L130CQUANTITY216RLUNIT PRICEUSD25200RLPRICE TERMCIF SHEKOU OR YANTIANCHINATOTAL VALUEUSD5443200 </t>
   </si>
   <si>
+    <t xml:space="preserve"> TERMS OF PRICE FOB TAIWAN PORTCOUNTRY OF ORIGIN TAIWAN PROVINCE OF CHINANAN YA RELEASE FILM </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 107500 KGS OF VISCOSE STAPLE FIBRE TAIRIYON BRAND 125DX51MM BRIGHT HIGH TENACITY RAW WHITE A GRADE AT THE RATE OF USD 220KG DETAIL DESCRIPTION OF GOODS QUANTITY QUALITY AND UNIT PRICE AS PER BENEFICIARY PROFORMA INVOICE NO FCFC2020366 DATED 11112021 CFR KARACHI SEAPORT PAKISTAN </t>
   </si>
   <si>
-    <t xml:space="preserve"> DELIVERY TERMS CIF VALENCIA PORT SPAIN INCOTMERS 2020COVERING NYLON 6 HIGH TENACITY YARN840D28F DOPE DYED BLACK ON CHEESEQUANTITY 1797840 KGS AT 450 USDKG1260D42F DOPE DYED BLACK ON CHEESEQUANTITY 1797840 KGS AT 450 USDKG1680D56F DOPE DYED BLACK ON CHEESEQUANTITY 3595680 KGS AT 450 USDKGAS PER PROFORMA INVOICE NO 5V10282 DATE OCT 282021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 BASE OIL 150NPRICING 1215MT 5 ICIS PRICING GII 150NFOB NE ASIA MEAN USD10MT2 BASE OIL 500NPRICING 800MT 5 ICIS PRICING GII 500NFOB NE ASIA MEAN USD67MT3 BASE OIL 70NPRICING 500MT 5 ICIS PRICING GII 150NFOB NE ASIA MEAN USD25MTPACKING IN BULKPRICING CLAUSE REFER TO FIELD 47AFOB MAILIAO TAIWAN </t>
+    <t xml:space="preserve"> COMMODITY DIC9C11PHTHALATE911PQUANTITY 60MT 5UNIT PRICE USD237000MTPACKING ISOTANKPRICE TERM FOB TAICHUNG TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY2500MTSUNIT PRICE USD140000MTTRADE TERMCIF WUHAN PORTCHINA </t>
   </si>
   <si>
     <t xml:space="preserve"> 35 MTS PVC MASS RESIN B57 AT USD 1710 PMT AND 15 MTS PVCRESIN S75 AT USD 1740 PMT AS PER PROFORMA INVOICE NOA3X10211275 DATED 19112021TERMS CIF NHAVA SHEVA INDIAINCOTERMS 2020 </t>
@@ -469,9 +424,6 @@
     <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 2 X 20 FCL CONSISTING OF 36 MTS OF GPPS 5250 AT USD1540MT USD5544000INCOTERMS 2010 </t>
   </si>
   <si>
-    <t xml:space="preserve"> YARN FOR 100PCT EXPORT ORIENTED READYMADE GARMENTS INDUSTRYPA6 DTY 4034S SD100 PRE CONSUMER RECYCLED NYLONBRAND SUNYLONQUANTITY 20160 KGS UNIT PRICE USD765KGHSCODE NO54023100CFR CHATTOGRAM BANGLADESH INCOTERMS 2020ALL OTHER DETAILS AS PER BENEFICIARYS PROFORMA INVOICESC NO20211115 DATED 15112021 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> PACK MATERIAL FOR PHARMACEUTICAL INDUSTRY PVC 253MM 170MIC QUANTITY 10000 EA AT USD 2765 KG INDENT NUMBER 2146221 DATED 18112021 HS CODE NO 39204910 TERMS FOB TAIWAN SEA PORT TERMS FOB KAOHSIUNG TAIWAN </t>
   </si>
   <si>
@@ -508,7 +460,7 @@
     <t xml:space="preserve"> 75 MT POLYPROPYLENE HOMOPOLYMER S1005 RAFFIA MFI 50UNIT PRICE USD 177000MT CIF GUAYAQUIL ECUADORINCOTERMS 2020CONDITIONS CIF GUAYAQUIL ECUADOR AS PER INCOTERMS 2020 </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITYABS AG15A1QUANTITY500MTSUNIT PRICEUSD205000MTCONTRACT NOYC003COMMODITYGPPS GP5250QUANTITY200MTSUNIT PRICEUSD139000MTCONTRACT NOYC004ORIGINTAIWANPACKINGIN 25KGS BAGSPRICE TERMCIF MAINLAND MAIN PORT CHINA </t>
+    <t xml:space="preserve">  GOODS METHYL METHACRYLATE MMA QUANTITY 210 MTS 5PCT UNIT PRICE USD2020MT TOTAL AMOUNT USD 424200 5PCT ORIGIN TAIWAN MANUFACTURER FORMOSA PLASTICS CORP PACKING IN ISOTANK QUALITY AND INSPECTION AS PER EXPORT STANDARDINHIBITOR REQUIRED TA 10 PPM TRADE TERM CIF HO CHI MINH CITY VIET NAM INCOTERMS 2010 </t>
   </si>
   <si>
     <t xml:space="preserve"> 1 COMMODITY POLYPROPYLENE GRADE K10112 TOTAL QUANTITY 32 MTS 053 UNIT PRICE USD135000 MT4 TOTAL AMOUNT USD4320000 055 TRADE TERMS CIF HAIPHONG PORT VIETNAM INCOTERMS 20206 PACKING STANDARD EXPORT PACKING7 ORIGIN TAIWAN8 ALL OTHER DETAIL ARE AS PER CONTRACT NO 202111169MTHN DATE23112021 </t>
@@ -517,21 +469,18 @@
     <t xml:space="preserve"> PRICE TERM C I F HAIPHONG VIETNAMPLASTIC RESIN1X20 FCL CONSISTING OF18 MTS OF ABS AG15A1H AT USD220000MT </t>
   </si>
   <si>
+    <t xml:space="preserve"> HS CODE 7410211000 COPPER CLAD LAMINATE QTY33000 SHEETS AMOUNT USD20748000HS CODE 3921909090 GLASS EPOXY PREPREG QTY70560 PCS AMOUNT USD 5080320 TERMS OF PRICE FOB INCOTERMS 2010 OR FCA INCOTERMS 2010 PLACE OF TERMS OF PRICE TAIWAN PORTAIRPORT COUNTRY OF ORIGIN TAIWAN </t>
+  </si>
+  <si>
     <t xml:space="preserve">  DESCRIPTIONQUANTITYUNIT PRICEAMOUNT DESCRIPTION  QUANTITY UNIT PRICE AMOUNT    MTS USDMT USD GPPS GRADEGP525N 36  151000 5436000 PACKING 25KGS NET IN BAG 18MTS NET LOOSE STOWED IN 20 FTCONTAINER TRADE TERMS CIF CAT LAI PORT VIETNAM INCOTERMS 2020 ORIGIN  TAIWAN </t>
   </si>
   <si>
-    <t xml:space="preserve"> PRICE TERM C I F YANTIAN PORT CHINA COMMODITY PVC RESIN SUSPENSIONFORMOLON BRAND TAIWAN ORIGIN S65 QUANTITY S65 900 MT UNIT PRICE USD149000MT PACKING 25KGS NET PACKED IN PP WOVEN BAG WITH PE INNER BAG 900 BAGS OF 225MT PER CTNR40 </t>
+    <t xml:space="preserve"> APPLICANTS PO NO OP2111020OR21408 DATE 18112021RAW MATERIAL RESIN COMPOUND AS FOLLOWPOLYPROPYLENE YUNGSOX 5090T QTY 16000KG AT USD1455KG C I F HENG GANG CHINA </t>
   </si>
   <si>
     <t xml:space="preserve"> NO COMMODITY QUANTITY  UNIT PRICE AMOUNT   MTS  USDMT  USDCOMPOUND EVA7470M  1500  372000 5580000 EVA7470M  1500  365000 5475000TOTAL   3000    11055000 PACKING MANUFACTURERS EXPORT STANDARD PACKING 25KGS PER BAG TRADE TERMSCIF CAT LAI PORT HOCHIMINH CITY VIETNAMINCOTERMS 2010 OTHER DETAILS AS PER SALE CONTRACT NO 3100037749 3100038393 </t>
   </si>
   <si>
-    <t xml:space="preserve"> FOB MAILIAO TAIWANBASE OIL 150NPRICING 700MT 5 ICIS PRICING GII 150N FOB NE ASIAMEAN USD500MTBASE OIL 500NPRICING 2100MT 5 ICIS PRICING GII 500N FOB NE ASIAMEAN USD3500MTBASE OIL 70NPRICING 450MT USD77250MTPACKING IN BULK </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 300000 BBLS 10PCT OF GASOIL 005PCT SCOUNTRY OF ORIGIN TAIWANTERMS OF PRICE FOB MAILIAOTAIWANUNIT PRICE THE FOB MAILIAOTAIWAN PRICE IN USD PER BBLFOB PRICE EQUAL TO X MINUS USD164 PER BARRELWHERE X EQUAL TO THE WHOLE MONTH ARITHMETIC AVERAGE OF DECEMBER2021 MEAN OF PLATTS FOR GASOIL 10PPMS UNDER THE HEADINGSINGAPOREPUBLISHED IN THE PLATTS ASIA PACIFICARAB GULFMARKETSCAN OF PLATTS QUOTATIONSIN THE EVENT THAT THE FINAL PRICE IS NOT KNOWN BEFORE LCNEGOTIAION PAYMENT WILL BE EFFECTED AGAINST THE PROVISIONALINVOICE PROVIDED BY THE SELLER SUCH PROVISIONAL PRICE SHALL BEBASED ON THE ABOVE PRICE CLAUSE WITH ALL AVAILABLE QUOTATIONSAT THE TIME OF INVOICINGWHEN THE FINAL PRICE IS KNOWN THE DIFFERENCE OF THE ACTUALAMOUNT AND THE PROVISIONAL AMOUNT IS TO BE SETTLED OUTSIDETHE IRREVOCABLE DOCUMENTARY LETTER OF CREDIT BETWEENBENEFICIARY AND APPLICANT BY TELEGRAPHIC TRANSFER PAYMENTWITHIN FIVE 5 NEW YORK BANKING DAYS UPON THE RECEIPT OFSUCH FINAL SETTLEMENT INVOICE BY THE APPLICABLE PARTYTHE PROVISIONALFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3DECIMAL PLACESWITH THE THIRD DECIMAL PLACE TO BE INCREASED TOTHE NEXT DIGIT WHENEVER THE FOURTH DECIMAL PLACE IS FIVE ORGREATER THAN FIVEANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNT </t>
-  </si>
-  <si>
     <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 6 X 20 FCL CONSISTING OF 108 MTS OF ABS AG15A1H AT USD2180MT USD23544000INCOTERMS 2010 </t>
   </si>
   <si>
@@ -544,9 +493,6 @@
     <t xml:space="preserve">  PLASTIC RESIN CIP GUANYAO CHINA1 3 X 20 FCL CONSISTING OF 54 MTS OF ABS AG15A1H AT USD2085MT USD11259000INCOTERMS 2010 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1 TERMS CIF JAKARTA PORT INDONESIA INCOTERMS 20202 NAME OF GOODS FORMOLON C153 TYPE OF GOODS PVC COPOLYMER4 VOLUME OF GOODS 16 MT5 QUALITY OF GOODS EXPORT QUALITY6 HS NUMBER 3904307 COUNTRY OF ORIGIN TAIWAN8 CONTRACT NO PO 2101062 PI NO A0L171 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1800 MTS 5 PCT OF BASE OIL FORMOSA 150N2200 MTS 5 PCT OF BASE OIL FORMOSA 500NFOB MAILIAO TAIWAN INCOTERMS 2010 </t>
   </si>
   <si>
@@ -556,27 +502,12 @@
     <t xml:space="preserve"> QUANTITY 5 PERCENTAGE MORE OR LESS ALLOWEDDINP 20MT AT USD1760 PER MTFOB TAIWAN PORT </t>
   </si>
   <si>
-    <t xml:space="preserve"> CIF HAIPHONG VIETNAMN12000 MTS OF PVC SUSPENSION RESIN S60 100 PERCENTAGE PVCNPACKING 25KGS IN PP WOVEN BAG WITH PE INNER BAG WITH PALLET </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A QUANTITY 26400KGS OF NYLON 6 HT FILAMENT UV YARN 840D140FBRIGHT WHITEB QUANTITY 61600KGS OF NYLON 6 HT FILAMENT UV YARN 1260D210FBRIGHT WHITEC QUANTITY 52800KGS OF NYLON 6 HT FILAMENT UV YARN 1680D280FBRIGHT WHITETOTAL QUANTITY 140800KGS AS PER PROFORMA INVOICE NO 5V120212DATED 02122021TERMS OF DELIVERY CIF NHAVA SHEVA INDIA INCOTERMS 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A QUANTITY 24640KGS OF NYLON 6 HT FILAMENT UV YARN 840D140FBRIGHT WHITEA QUANTITY 61600KGS OF NYLON 6 HT FILAMENT UV YARN 1260D210FBRIGHT WHITEA QUANTITY 54560KGS OF NYLON 6 HT FILAMENT UV YARN 1680D280FBRIGHT WHITETOTAL QUANTITY 140800KGS AS PER PROFORMA INVOICE NO 5V120211DATED 02122021TERMS OF DELIVERY CIF NHAVA SHEVA PORT INDIA INCOTERMS 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A QUANTITY 25520KGS OF NYLON 6 HT FILAMENT UV YARN 840D140FBRIGHT WHITEB QUANTITY 67760KGS OF NYLON 6 HT FILAMENT UV YARN 1260D210FBRIGHT WHITEC QUANTITY 38720KGS OF NYLON 6 HT FILAMENT UV YARN 1680D280FBRIGHT WHITETOTAL QUANTITY 132000KGS AS PER PROFORMA INVOICE NO 5V120213DATED 02122021TERMS OF DELIVERY CIF NHAVA SHEVA INDIA INCOTERMS 2020 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 COMMODITY DOTP2 QUANTITYMT 21MT 5PCT3 UNIT PRICEUSDMT USD1720MT4 AMOUNT USD 3612000 CIF HAI PHONG PORTVIET NAM INCOTERM 20105 PACKING ABOUT 21MTFLEXIBAG 5PCT6 ORIGIN TAIWAN7 5PCT MORE OR LESS IN QUANTITY AND AMOUNT IS ACCEPTABLE8 OTHER TERMS AND CONDITIONS ARE AS THE CONTRACTNONN1C68 DATE DEC 08 2021 </t>
   </si>
   <si>
     <t xml:space="preserve"> POLYPROPYLENE RESIN GRADE NOK1035QUANTITY 25 MTSUNIT PRICE USD137000MTAS PER PI NOWB060PRICE TERMS CIF CAT LAI PORT HOCHIMINH CITY VIETNAM </t>
   </si>
   <si>
-    <t xml:space="preserve"> 8500 MTS PVC SUSPENSION RESIN S65DUNIT PRICE 186000 USDTOTAL AMOUNT 15810000DELIVERY TERMS CIF PIPAVAVPACKING 25KGS IN PP WOVEN BAG WITH PE INNER BAGSHIPPER PROFORMA INVOICE NO 21N11M0B DATED 26OCT2021DELIVERY TERMS CIF PIPAVAV INDIA </t>
-  </si>
-  <si>
     <t>NANYA PLASTICS CORPORATION</t>
   </si>
   <si>
@@ -586,24 +517,24 @@
     <t>FORMOSA PLASTICS</t>
   </si>
   <si>
+    <t>NAN YA PLASTICS</t>
+  </si>
+  <si>
+    <t>FORMOSA CHEMICALS AND FIBRE</t>
+  </si>
+  <si>
+    <t>INTEPLAST TAIWAN</t>
+  </si>
+  <si>
+    <t>FORMOSA CHEMICALS ANDFIBRE CORPORATION</t>
+  </si>
+  <si>
+    <t>NANYA PLASTICS CORP</t>
+  </si>
+  <si>
     <t>FORMOSA PETROCHEMICAL</t>
   </si>
   <si>
-    <t>NAN YA PLASTICS</t>
-  </si>
-  <si>
-    <t>FORMOSA CHEMICALS AND FIBRE</t>
-  </si>
-  <si>
-    <t>INTEPLAST TAIWAN</t>
-  </si>
-  <si>
-    <t>FORMOSA CHEMICALS ANDFIBRE CORPORATION</t>
-  </si>
-  <si>
-    <t>NANYA PLASTICS CORP</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CONTRACT 013522RN1X40FCL HQRN22000 KG TAIRILIN</t>
   </si>
   <si>
@@ -619,9 +550,6 @@
     <t>FORMOSA CHEMICALS AND  FIBRECORPORATION</t>
   </si>
   <si>
-    <t>FORMOSA CHEMICALS ANDFIBRE CORP</t>
-  </si>
-  <si>
     <t>['TAIWAN']</t>
   </si>
   <si>
@@ -631,10 +559,7 @@
     <t>['HDPE 8001', 'TAIWAN', ' EVA ', 'LLDPE']</t>
   </si>
   <si>
-    <t>['TAIWAN', 'GASOIL']</t>
-  </si>
-  <si>
-    <t>['TAIWAN', 'JET A1']</t>
+    <t>['PHTHALATE', 'TAIWAN', 'DOTP']</t>
   </si>
   <si>
     <t>['PP SHEET', ' PP ']</t>
@@ -646,9 +571,6 @@
     <t>['FABRICS', 'TAIWAN']</t>
   </si>
   <si>
-    <t>['NYLON 6', 'YARN']</t>
-  </si>
-  <si>
     <t>['PLASTIC RESIN', ' ABS ']</t>
   </si>
   <si>
@@ -682,9 +604,6 @@
     <t>['PLASTIC RESIN', 'SAN NF2200', ' SAN ']</t>
   </si>
   <si>
-    <t>['CAUSTIC SODA MICROPEARLS', 'CHEMICALS', 'TAIWAN']</t>
-  </si>
-  <si>
     <t>[' 2EH ']</t>
   </si>
   <si>
@@ -694,9 +613,6 @@
     <t>['EPOXY RESIN NPEL']</t>
   </si>
   <si>
-    <t>['TAIWAN', 'GP5250', 'GPPS']</t>
-  </si>
-  <si>
     <t>['OTHERS']</t>
   </si>
   <si>
@@ -706,12 +622,12 @@
     <t>['TAIWAN', 'HIPS']</t>
   </si>
   <si>
-    <t>['PVC SUSPENSION RESIN', ' PP ']</t>
-  </si>
-  <si>
     <t>['EVA']</t>
   </si>
   <si>
+    <t>['POLYPROPYLENE RESIN YUNGSOX', 'RAW MATERIAL']</t>
+  </si>
+  <si>
     <t>['POLYPROPYLENE', 'TAIWAN', 'K1011']</t>
   </si>
   <si>
@@ -724,6 +640,9 @@
     <t>['TAIWAN', 'GPPS']</t>
   </si>
   <si>
+    <t>['LAMINATE', 'MATERIAL']</t>
+  </si>
+  <si>
     <t>['EVA RESIN', ' EVA ']</t>
   </si>
   <si>
@@ -733,13 +652,16 @@
     <t>['NYLON']</t>
   </si>
   <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'PORTCHINA', 'YUNGSOX', ' PP ']</t>
+  </si>
+  <si>
     <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX']</t>
   </si>
   <si>
     <t>['LAMINATE', 'PREPREG']</t>
   </si>
   <si>
-    <t>['TAIWAN', ' PE ', 'ACID', ' PP ']</t>
+    <t>['TAIWAN', 'ACID', ' PE ', ' PP ']</t>
   </si>
   <si>
     <t>['POLYESTER FILM']</t>
@@ -748,37 +670,22 @@
     <t>['BASE OIL', 'TAIWAN']</t>
   </si>
   <si>
-    <t>['HIGH DENSITY POLYETHYLENE', 'TAIWAN', 'HDPE']</t>
-  </si>
-  <si>
     <t>['PLASTIC RESIN', 'GPPS']</t>
   </si>
   <si>
-    <t>['PVC RESINS60', 'LAMINATE', ' PE ', ' PP ']</t>
-  </si>
-  <si>
-    <t>['PVC RESIN S60', 'LAMINATE', ' PE ', ' PP ']</t>
-  </si>
-  <si>
     <t>['GLASS EPOXY COPPER CLAD LAMINATES']</t>
   </si>
   <si>
     <t>['TAIRILIN BRAND PET CHIPS']</t>
   </si>
   <si>
-    <t>['JAPANESE', 'TAIRILIN', 'PET FILM']</t>
+    <t>['METHYL METHACRYLATE', 'TAIWAN', ' MMA ']</t>
   </si>
   <si>
     <t>['TAIWAN', 'DOTP']</t>
   </si>
   <si>
-    <t>['PVC SUSPENSION', ' PP ']</t>
-  </si>
-  <si>
-    <t>['POLYETHYLENE', 'PET RESIN', 'PHTHALATE']</t>
-  </si>
-  <si>
-    <t>['ABS RESIN', 'COVERING', 'ANC100', 'AE8000']</t>
+    <t>['ABS RESIN', 'COVERING', 'AE8000', 'ANC100']</t>
   </si>
   <si>
     <t>['SAN RESIN', 'COVERING', ' SAN ']</t>
@@ -802,18 +709,12 @@
     <t>['TAIWAN', ' PP ']</t>
   </si>
   <si>
-    <t>['ISO NONYL ALCOHOL', 'TAIWAN']</t>
-  </si>
-  <si>
     <t>['TAIWAN', 'TOTM']</t>
   </si>
   <si>
     <t>['POLYESTER', 'TAIRILIN', 'TAIWAN']</t>
   </si>
   <si>
-    <t>['PVC COPOLYMER', 'FORMOLON', 'TAIWAN']</t>
-  </si>
-  <si>
     <t>['JAPANESE']</t>
   </si>
   <si>
@@ -826,28 +727,22 @@
     <t>['RESIN NPEL', 'NPEL 128']</t>
   </si>
   <si>
-    <t>['PVC SUSPENSION RESIN', ' PE ', ' PP ']</t>
-  </si>
-  <si>
     <t>['NAN YA RELEASE FILM']</t>
   </si>
   <si>
-    <t>['PVC SUSPENSION RESIN', 'PVC MASS RESIN B57', ' PE ', ' PP ']</t>
-  </si>
-  <si>
     <t>['METHACRYLIC ACID']</t>
   </si>
   <si>
     <t>['PLASTIC RESIN']</t>
   </si>
   <si>
+    <t>['NAN YA RELEASE FILM', 'TAIWAN']</t>
+  </si>
+  <si>
     <t>['TAIRIYON', 'BRIGHT', 'WHITE']</t>
   </si>
   <si>
-    <t>['DOPE DYED BLACK', 'COVERING', 'NYLON 6', 'YARN']</t>
-  </si>
-  <si>
-    <t>['BASE OIL 150N', 'BASE OIL 500N', 'BASE OIL 70N', 'TAIWAN']</t>
+    <t>['PHTHALATE', 'TAIWAN']</t>
   </si>
   <si>
     <t>['PVC MASS RESIN B57']</t>
@@ -871,7 +766,7 @@
     <t>['ACRYLIC POLYMER']</t>
   </si>
   <si>
-    <t>['TAIWAN', ' PE ', 'ACID']</t>
+    <t>['TAIWAN', 'ACID', ' PE ']</t>
   </si>
   <si>
     <t>['TAIRISAN SAN RESINS']</t>
@@ -898,16 +793,13 @@
     <t>['RESIN']</t>
   </si>
   <si>
-    <t>['SUNYLON', 'YARN']</t>
-  </si>
-  <si>
     <t>['MATERIAL', 'TAIWAN', ' EA ']</t>
   </si>
   <si>
     <t>['POLYETHYLENE', 'HDPE 8001', 'TAIWAN']</t>
   </si>
   <si>
-    <t>['PORTCHINA', 'POLYESTER']</t>
+    <t>['POLYESTER', 'PORTCHINA']</t>
   </si>
   <si>
     <t>['YUNGSOX 3080', 'PROPYLENE', 'ETHYLENE']</t>
@@ -919,15 +811,15 @@
     <t>['POLYPROPYLENE']</t>
   </si>
   <si>
-    <t>['PVC RESIN', 'FORMOLON', 'TAIWAN', ' PE ', ' PP ']</t>
+    <t>['GLASS EPOXY PREPREG', 'LAMINATE', 'TAIWAN']</t>
+  </si>
+  <si>
+    <t>['POLYPROPYLENE YUNGSOX', 'RAW MATERIAL', 'RESIN']</t>
   </si>
   <si>
     <t>['NPSN 901 X 75', 'RESIN']</t>
   </si>
   <si>
-    <t>['NYLON 6', 'BRIGHT', 'WHITE', 'YARN']</t>
-  </si>
-  <si>
     <t>['POLYPROPYLENE RESIN GRADE']</t>
   </si>
   <si>
@@ -943,6 +835,9 @@
     <t>HDPE 8001</t>
   </si>
   <si>
+    <t>PHTHALATE</t>
+  </si>
+  <si>
     <t>PP SHEET</t>
   </si>
   <si>
@@ -952,9 +847,6 @@
     <t>FABRICS</t>
   </si>
   <si>
-    <t>NYLON 6</t>
-  </si>
-  <si>
     <t>PLASTIC RESIN</t>
   </si>
   <si>
@@ -970,9 +862,6 @@
     <t>METHACRYLATE ACID</t>
   </si>
   <si>
-    <t>CAUSTIC SODA MICROPEARLS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2EH </t>
   </si>
   <si>
@@ -988,157 +877,133 @@
     <t>GLASS FABRICS</t>
   </si>
   <si>
+    <t>EVA</t>
+  </si>
+  <si>
+    <t>POLYPROPYLENE RESIN YUNGSOX</t>
+  </si>
+  <si>
+    <t>POLYPROPYLENE</t>
+  </si>
+  <si>
+    <t>BPA BISPHENOLA</t>
+  </si>
+  <si>
+    <t>LAMINATE</t>
+  </si>
+  <si>
+    <t>EVA RESIN</t>
+  </si>
+  <si>
+    <t>POLYESTER STAPLE FIBER</t>
+  </si>
+  <si>
+    <t>NYLON</t>
+  </si>
+  <si>
+    <t>ETHYLENEPROPYLENE COPOLYMER</t>
+  </si>
+  <si>
+    <t>POLYESTER FILM</t>
+  </si>
+  <si>
+    <t>BASE OIL</t>
+  </si>
+  <si>
+    <t>GLASS EPOXY COPPER CLAD LAMINATES</t>
+  </si>
+  <si>
+    <t>METHYL METHACRYLATE</t>
+  </si>
+  <si>
+    <t>ABS RESIN</t>
+  </si>
+  <si>
+    <t>SAN RESIN</t>
+  </si>
+  <si>
+    <t>COPPER FOIL</t>
+  </si>
+  <si>
+    <t>ACRYLIC ACID</t>
+  </si>
+  <si>
+    <t>PHTHALIC ANHYDRIDE</t>
+  </si>
+  <si>
+    <t>PVC CLEAR RIGID SHEET</t>
+  </si>
+  <si>
+    <t>POLYESTER</t>
+  </si>
+  <si>
+    <t>JAPANESE</t>
+  </si>
+  <si>
+    <t>RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>MONOETHYLENE GLYCOL</t>
+  </si>
+  <si>
+    <t>RESIN NPEL</t>
+  </si>
+  <si>
+    <t>NAN YA RELEASE FILM</t>
+  </si>
+  <si>
+    <t>METHACRYLIC ACID</t>
+  </si>
+  <si>
+    <t>TAIRIYON</t>
+  </si>
+  <si>
+    <t>PVC MASS RESIN B57</t>
+  </si>
+  <si>
     <t>PVC SUSPENSION RESIN</t>
   </si>
   <si>
-    <t>EVA</t>
-  </si>
-  <si>
-    <t>POLYPROPYLENE</t>
-  </si>
-  <si>
-    <t>BPA BISPHENOLA</t>
-  </si>
-  <si>
-    <t>LAMINATE</t>
-  </si>
-  <si>
-    <t>EVA RESIN</t>
-  </si>
-  <si>
-    <t>POLYESTER STAPLE FIBER</t>
-  </si>
-  <si>
-    <t>NYLON</t>
-  </si>
-  <si>
-    <t>ETHYLENEPROPYLENE COPOLYMER</t>
-  </si>
-  <si>
-    <t>POLYESTER FILM</t>
-  </si>
-  <si>
-    <t>BASE OIL</t>
-  </si>
-  <si>
-    <t>HIGH DENSITY POLYETHYLENE</t>
-  </si>
-  <si>
-    <t>PVC RESINS60</t>
-  </si>
-  <si>
-    <t>PVC RESIN S60</t>
-  </si>
-  <si>
-    <t>GLASS EPOXY COPPER CLAD LAMINATES</t>
-  </si>
-  <si>
-    <t>JAPANESE</t>
-  </si>
-  <si>
-    <t>PVC SUSPENSION</t>
+    <t>NAN YA PA66</t>
+  </si>
+  <si>
+    <t>NAN YA PBT</t>
+  </si>
+  <si>
+    <t>ACRYLIC POLYMER</t>
+  </si>
+  <si>
+    <t>TAIRISAN SAN RESINS</t>
+  </si>
+  <si>
+    <t>POLYESTER RESIN</t>
+  </si>
+  <si>
+    <t>ACRYLONITRILE BUTADIENE STYRENE</t>
+  </si>
+  <si>
+    <t>POLYSTYRENE</t>
+  </si>
+  <si>
+    <t>AX4000</t>
+  </si>
+  <si>
+    <t>RESIN</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
   </si>
   <si>
     <t>POLYETHYLENE</t>
   </si>
   <si>
-    <t>ABS RESIN</t>
-  </si>
-  <si>
-    <t>SAN RESIN</t>
-  </si>
-  <si>
-    <t>COPPER FOIL</t>
-  </si>
-  <si>
-    <t>ACRYLIC ACID</t>
-  </si>
-  <si>
-    <t>PHTHALIC ANHYDRIDE</t>
-  </si>
-  <si>
-    <t>PVC CLEAR RIGID SHEET</t>
-  </si>
-  <si>
-    <t>ISO NONYL ALCOHOL</t>
-  </si>
-  <si>
-    <t>POLYESTER</t>
-  </si>
-  <si>
-    <t>PVC COPOLYMER</t>
-  </si>
-  <si>
-    <t>RAW MATERIAL</t>
-  </si>
-  <si>
-    <t>MONOETHYLENE GLYCOL</t>
-  </si>
-  <si>
-    <t>RESIN NPEL</t>
-  </si>
-  <si>
-    <t>NAN YA RELEASE FILM</t>
-  </si>
-  <si>
-    <t>METHACRYLIC ACID</t>
-  </si>
-  <si>
-    <t>TAIRIYON</t>
-  </si>
-  <si>
-    <t>DOPE DYED BLACK</t>
-  </si>
-  <si>
-    <t>BASE OIL 150N</t>
-  </si>
-  <si>
-    <t>PVC MASS RESIN B57</t>
-  </si>
-  <si>
-    <t>NAN YA PA66</t>
-  </si>
-  <si>
-    <t>NAN YA PBT</t>
-  </si>
-  <si>
-    <t>ACRYLIC POLYMER</t>
-  </si>
-  <si>
-    <t>TAIRISAN SAN RESINS</t>
-  </si>
-  <si>
-    <t>POLYESTER RESIN</t>
-  </si>
-  <si>
-    <t>ACRYLONITRILE BUTADIENE STYRENE</t>
-  </si>
-  <si>
-    <t>POLYSTYRENE</t>
-  </si>
-  <si>
-    <t>POLYPROPYLENE RESIN YUNGSOX</t>
-  </si>
-  <si>
-    <t>AX4000</t>
-  </si>
-  <si>
-    <t>RESIN</t>
-  </si>
-  <si>
-    <t>SUNYLON</t>
-  </si>
-  <si>
-    <t>MATERIAL</t>
-  </si>
-  <si>
-    <t>PORTCHINA</t>
-  </si>
-  <si>
     <t>YUNGSOX 3080</t>
   </si>
   <si>
-    <t>PVC RESIN</t>
+    <t>GLASS EPOXY PREPREG</t>
+  </si>
+  <si>
+    <t>POLYPROPYLENE YUNGSOX</t>
   </si>
   <si>
     <t>NPSN 901 X 75</t>
@@ -1156,366 +1021,333 @@
     <t>18</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>1P</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>2P</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>60</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2E</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>1P</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>['1P']</t>
+  </si>
+  <si>
+    <t>['1P', '25', 'XU', '45', '42', '12', '1P', '18', '2E']</t>
+  </si>
+  <si>
+    <t>['18', '1P', '18', '18', '2P', '17', '18', '18']</t>
+  </si>
+  <si>
+    <t>['27', '2E', '1P', '27', '27']</t>
+  </si>
+  <si>
+    <t>['23', '22', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['25', '25', '1P']</t>
+  </si>
+  <si>
+    <t>['26', '42', '1P']</t>
+  </si>
+  <si>
+    <t>['23', '4A', '11', '1P', '4A']</t>
+  </si>
+  <si>
+    <t>['23', '4A', '11', '1P', '4A', '4A']</t>
+  </si>
+  <si>
+    <t>['23', '4A', '11', '1P', '1P']</t>
+  </si>
+  <si>
+    <t>['2P', '24', '22']</t>
+  </si>
+  <si>
+    <t>['1P', '4A', '18']</t>
+  </si>
+  <si>
+    <t>['45', '41', '45']</t>
+  </si>
+  <si>
+    <t>['1P', '48', '27', '1A']</t>
+  </si>
+  <si>
+    <t>['62', '1P']</t>
+  </si>
+  <si>
+    <t>['1A', '12']</t>
+  </si>
+  <si>
+    <t>['27', '2M']</t>
+  </si>
+  <si>
+    <t>['1P', '1P']</t>
+  </si>
+  <si>
+    <t>['2R']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['2G', '28', '21']</t>
+  </si>
+  <si>
+    <t>['1P', '4A']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['1P', '11', '27']</t>
+  </si>
+  <si>
+    <t>['1P', '4A', '1P', '4A']</t>
+  </si>
+  <si>
+    <t>['2P', '28']</t>
+  </si>
+  <si>
+    <t>['2M', '28']</t>
+  </si>
+  <si>
+    <t>['2M', '28', '4A']</t>
+  </si>
+  <si>
+    <t>['18', '18', '18', '2P', '17']</t>
+  </si>
+  <si>
+    <t>['25', '25']</t>
+  </si>
+  <si>
+    <t>['42', '45']</t>
+  </si>
+  <si>
+    <t>['4A', '11', '18', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['4A', '18']</t>
+  </si>
+  <si>
+    <t>['2M', '28', '2M']</t>
+  </si>
+  <si>
+    <t>['1P', '48', '27', '1A', '21', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['2E', '25']</t>
+  </si>
+  <si>
+    <t>['64', '64', '1P']</t>
+  </si>
+  <si>
+    <t>['2M']</t>
+  </si>
+  <si>
+    <t>['1A', '1P', '1A', '2B']</t>
+  </si>
+  <si>
+    <t>['1P', '27', '27']</t>
+  </si>
+  <si>
+    <t>['4A', '17', '4A', '14']</t>
+  </si>
+  <si>
+    <t>['4A', '17', '4A']</t>
+  </si>
+  <si>
+    <t>['2N', '21']</t>
+  </si>
+  <si>
+    <t>['27', '27']</t>
+  </si>
+  <si>
+    <t>['23', '23', '17']</t>
+  </si>
+  <si>
+    <t>['1P', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['26', '42', '25', '1P']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['11', '27', '18', '18', '1P', '18', '18', '2P', '17']</t>
+  </si>
+  <si>
+    <t>['2A', '25', '1P']</t>
+  </si>
+  <si>
+    <t>['2R', '2R']</t>
+  </si>
+  <si>
+    <t>['26', '2E', '25']</t>
+  </si>
+  <si>
+    <t>['1A']</t>
+  </si>
+  <si>
+    <t>['23', '4A', '11', '1P']</t>
+  </si>
+  <si>
+    <t>['26', '2E', '25', '1P']</t>
+  </si>
+  <si>
+    <t>['41', '22', '45']</t>
+  </si>
+  <si>
+    <t>['27', '2E', '1P']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['24', '24', '27']</t>
+  </si>
+  <si>
+    <t>['24', '27', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['1P', '4A', '27', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['12', '12']</t>
+  </si>
+  <si>
+    <t>['1P', '48', '27', '1A', '21']</t>
+  </si>
+  <si>
+    <t>['4A']</t>
+  </si>
+  <si>
+    <t>['24', '25', '25']</t>
+  </si>
+  <si>
+    <t>['4A', '23', '4A', '11', '1P']</t>
+  </si>
+  <si>
+    <t>['4A', '17']</t>
+  </si>
+  <si>
+    <t>['1P', '4A', '1P', '17', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['4A', '4A']</t>
+  </si>
+  <si>
+    <t>['4A', '18', '29']</t>
+  </si>
+  <si>
+    <t>['4A', '1P', '12']</t>
+  </si>
+  <si>
+    <t>['18', '18', '1P']</t>
+  </si>
+  <si>
+    <t>['26', '42', '11']</t>
+  </si>
+  <si>
+    <t>['18', '62', '62']</t>
+  </si>
+  <si>
+    <t>['2M', '1P']</t>
+  </si>
+  <si>
+    <t>['2M', '2M', '28', '1P']</t>
+  </si>
+  <si>
+    <t>['1P', '11', '27', '4A', '18', '29']</t>
+  </si>
+  <si>
+    <t>['2R', '4A', '18', '29']</t>
+  </si>
+  <si>
+    <t>not find</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>2M</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>2P</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>['1P']</t>
-  </si>
-  <si>
-    <t>['1P', '25', 'XU', '45', '42', '12', '1P', '18', '2E']</t>
-  </si>
-  <si>
-    <t>['18', '1P', '18', '18', '2P', '17', '18', '18']</t>
-  </si>
-  <si>
-    <t>['1P', '60', '61', '61']</t>
-  </si>
-  <si>
-    <t>['1P', '61']</t>
-  </si>
-  <si>
-    <t>['23', '22', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['25', '25', '1P']</t>
-  </si>
-  <si>
-    <t>['26', '42', '1P']</t>
-  </si>
-  <si>
-    <t>['45', '25', 'XU', '45', '42', '12', '1P', '18', '2E']</t>
-  </si>
-  <si>
-    <t>['23', '4A', '11', '1P', '4A']</t>
-  </si>
-  <si>
-    <t>['23', '4A', '11', '1P', '4A', '4A']</t>
-  </si>
-  <si>
-    <t>['23', '4A', '11', '1P', '1P']</t>
-  </si>
-  <si>
-    <t>['2P', '24', '22']</t>
-  </si>
-  <si>
-    <t>['1P', '4A', '18']</t>
-  </si>
-  <si>
-    <t>['45', '41', '45']</t>
-  </si>
-  <si>
-    <t>['1P', '48', '27', '1A']</t>
-  </si>
-  <si>
-    <t>['62', '1P']</t>
-  </si>
-  <si>
-    <t>['1A', '12']</t>
-  </si>
-  <si>
-    <t>['11', '2R', '1P']</t>
-  </si>
-  <si>
-    <t>['27', '2M']</t>
-  </si>
-  <si>
-    <t>['1P', '1P']</t>
-  </si>
-  <si>
-    <t>['2R']</t>
-  </si>
-  <si>
-    <t>['1P', '4A', '4A']</t>
-  </si>
-  <si>
-    <t>['29']</t>
-  </si>
-  <si>
-    <t>['2G', '28', '21']</t>
-  </si>
-  <si>
-    <t>['1P', '4A']</t>
-  </si>
-  <si>
-    <t>['11', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['12']</t>
-  </si>
-  <si>
-    <t>['1P', '4A', '1P', '4A']</t>
-  </si>
-  <si>
-    <t>['2P', '28']</t>
-  </si>
-  <si>
-    <t>['2M', '28']</t>
-  </si>
-  <si>
-    <t>['18', '18', '18', '2P', '17']</t>
-  </si>
-  <si>
-    <t>['25', '25']</t>
-  </si>
-  <si>
-    <t>['42', '45']</t>
-  </si>
-  <si>
-    <t>['4A', '18']</t>
-  </si>
-  <si>
-    <t>['2M', '28', '2M']</t>
-  </si>
-  <si>
-    <t>['1P', '21', '48', '27', '1A', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['2E', '25']</t>
-  </si>
-  <si>
-    <t>['64', '64', '1P']</t>
-  </si>
-  <si>
-    <t>['18', '1P', '4A', '18']</t>
-  </si>
-  <si>
-    <t>['11', '2M', '28', '21', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['2M']</t>
-  </si>
-  <si>
-    <t>['21', '25', '2E']</t>
-  </si>
-  <si>
-    <t>['1P', '27', '27']</t>
-  </si>
-  <si>
-    <t>['18', '25', '25', '27', '2E']</t>
-  </si>
-  <si>
-    <t>['4A', '17', '14', '4A']</t>
-  </si>
-  <si>
-    <t>['4A', '17', '4A']</t>
-  </si>
-  <si>
-    <t>['2N', '21']</t>
-  </si>
-  <si>
-    <t>['27', '27']</t>
-  </si>
-  <si>
-    <t>['23', '23', '17']</t>
-  </si>
-  <si>
-    <t>['1P', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['27', '24', '1P']</t>
-  </si>
-  <si>
-    <t>['26', '42', '25', '1P']</t>
-  </si>
-  <si>
-    <t>['11', '18', '2P', '11', '1P']</t>
-  </si>
-  <si>
-    <t>['21']</t>
-  </si>
-  <si>
-    <t>['11', '27', '18', '18', '1P', '18', '18', '2P', '17']</t>
-  </si>
-  <si>
-    <t>['2A', '25', '1P']</t>
-  </si>
-  <si>
-    <t>['2R', '2R']</t>
-  </si>
-  <si>
-    <t>['11', '21', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['26', '2E', '25']</t>
-  </si>
-  <si>
-    <t>['11', '11', '21', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['1A']</t>
-  </si>
-  <si>
-    <t>['23', '4A', '11', '1P']</t>
-  </si>
-  <si>
-    <t>['41', '22', '45']</t>
-  </si>
-  <si>
-    <t>['25', '17', '45', '25', 'XU', '45', '42', '12', '1P', '18', '2E']</t>
-  </si>
-  <si>
-    <t>['60', '60', '61', '1P']</t>
-  </si>
-  <si>
-    <t>['11']</t>
-  </si>
-  <si>
-    <t>['24', '24', '27']</t>
-  </si>
-  <si>
-    <t>['24', '27', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['1P', '4A', '27', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['12', '12']</t>
-  </si>
-  <si>
-    <t>['1P', '21', '48', '27', '1A']</t>
-  </si>
-  <si>
-    <t>['4A']</t>
-  </si>
-  <si>
-    <t>['24', '25', '25']</t>
-  </si>
-  <si>
-    <t>['4A', '23', '4A', '11', '1P']</t>
-  </si>
-  <si>
-    <t>['4A', '17']</t>
-  </si>
-  <si>
-    <t>['1P', '4A', '1P', '17', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['4A', '4A']</t>
-  </si>
-  <si>
-    <t>['4A', '18', '29']</t>
-  </si>
-  <si>
-    <t>['4A', '1P', '12']</t>
-  </si>
-  <si>
-    <t>['18', '18', '1P']</t>
-  </si>
-  <si>
-    <t>['11', '26', '42']</t>
-  </si>
-  <si>
-    <t>['18', '62', '62']</t>
-  </si>
-  <si>
-    <t>['2M', '1P']</t>
-  </si>
-  <si>
-    <t>['11', '11', '1P', '21', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['2R', '4A', '18', '29']</t>
-  </si>
-  <si>
-    <t>['45', '22', '45', '25', 'XU', '45', '42', '12', '1P', '18', '2E']</t>
-  </si>
-  <si>
-    <t>not find</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>4P</t>
   </si>
   <si>
-    <t>1A</t>
-  </si>
-  <si>
     <t>2R</t>
   </si>
   <si>
@@ -1574,9 +1406,6 @@
   </si>
   <si>
     <t>1022.xls</t>
-  </si>
-  <si>
-    <t>1023.xls</t>
   </si>
   <si>
     <t>1026.xls</t>
@@ -2024,7 +1853,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2070,31 +1899,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="H2" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="I2" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="J2" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="K2" t="s">
-        <v>505</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2105,31 +1934,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="G3" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="H3" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="I3" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="J3" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="K3" t="s">
-        <v>505</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2140,6331 +1969,5456 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="H4" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="I4" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="J4" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="K4" t="s">
-        <v>506</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="G5" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="H5" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="I5" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
       <c r="J5" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="K5" t="s">
-        <v>506</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="G6" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="H6" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="I6" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
       <c r="J6" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="K6" t="s">
-        <v>506</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F7" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="G7" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="H7" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="I7" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
       <c r="J7" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="K7" t="s">
-        <v>506</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F8" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="G8" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="H8" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="I8" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J8" t="s">
-        <v>496</v>
+        <v>337</v>
       </c>
       <c r="K8" t="s">
-        <v>507</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="E9" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="G9" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="H9" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="I9" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J9" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="K9" t="s">
-        <v>508</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="G10" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="H10" t="s">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="I10" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="J10" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="K10" t="s">
-        <v>508</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="G11" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="H11" t="s">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="I11" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="J11" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="K11" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F12" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="G12" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="H12" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="I12" t="s">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="J12" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="K12" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F13" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="G13" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="H13" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="I13" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="J13" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="K13" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" t="s">
         <v>189</v>
       </c>
-      <c r="D14" t="s">
-        <v>213</v>
-      </c>
       <c r="E14" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F14" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="G14" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="H14" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="I14" t="s">
-        <v>492</v>
+        <v>341</v>
       </c>
       <c r="J14" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="K14" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E15" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F15" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="G15" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="H15" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="I15" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="J15" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="K15" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E16" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F16" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="G16" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="H16" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I16" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="J16" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="K16" t="s">
-        <v>509</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" t="s">
         <v>192</v>
       </c>
-      <c r="D17" t="s">
-        <v>216</v>
-      </c>
       <c r="E17" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F17" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="G17" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="H17" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="I17" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="J17" t="s">
-        <v>385</v>
+        <v>443</v>
       </c>
       <c r="K17" t="s">
-        <v>509</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E18" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F18" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="G18" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="H18" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="I18" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="J18" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="K18" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F19" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="G19" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="H19" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
       <c r="I19" t="s">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="J19" t="s">
-        <v>498</v>
+        <v>334</v>
       </c>
       <c r="K19" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E20" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F20" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="G20" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="H20" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="I20" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="J20" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="K20" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="E21" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F21" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="G21" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="H21" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="I21" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="J21" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="K21" t="s">
-        <v>511</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E22" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F22" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="G22" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="H22" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="I22" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="J22" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="K22" t="s">
-        <v>511</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E23" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F23" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="G23" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="H23" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="I23" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="J23" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="K23" t="s">
-        <v>511</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D24" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="E24" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="G24" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="H24" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="I24" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="J24" t="s">
-        <v>499</v>
+        <v>339</v>
       </c>
       <c r="K24" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E25" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F25" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="G25" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="H25" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="I25" t="s">
-        <v>494</v>
+        <v>436</v>
       </c>
       <c r="J25" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
       <c r="K25" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="E26" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F26" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="G26" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="H26" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="I26" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="J26" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="K26" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F27" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="G27" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="H27" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="I27" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="J27" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="K27" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E28" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="F28" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="G28" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="H28" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="I28" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="J28" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="K28" t="s">
-        <v>512</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>310</v>
+        <v>371</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F29" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="G29" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="H29" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="I29" t="s">
-        <v>493</v>
+        <v>436</v>
       </c>
       <c r="J29" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="K29" t="s">
-        <v>512</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="E30" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F30" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="G30" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="H30" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="I30" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="J30" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="K30" t="s">
-        <v>513</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E31" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F31" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="G31" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="H31" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="I31" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
       <c r="J31" t="s">
-        <v>500</v>
+        <v>334</v>
       </c>
       <c r="K31" t="s">
-        <v>513</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>325</v>
+        <v>401</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F32" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="G32" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="H32" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="I32" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="J32" t="s">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="K32" t="s">
-        <v>513</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>328</v>
+        <v>406</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="G33" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="H33" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="I33" t="s">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="J33" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="K33" t="s">
-        <v>513</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="E34" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="G34" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="H34" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="I34" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="J34" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="K34" t="s">
-        <v>513</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>347</v>
+        <v>427</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="E35" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="F35" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="G35" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="H35" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
       <c r="I35" t="s">
-        <v>492</v>
+        <v>333</v>
       </c>
       <c r="J35" t="s">
-        <v>395</v>
+        <v>334</v>
       </c>
       <c r="K35" t="s">
-        <v>514</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>371</v>
+        <v>434</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F36" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="G36" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="H36" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="I36" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="J36" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="K36" t="s">
-        <v>514</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>372</v>
+        <v>440</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D37" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="E37" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F37" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="G37" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="H37" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="I37" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J37" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="K37" t="s">
-        <v>514</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>376</v>
+        <v>447</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="E38" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F38" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="G38" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="H38" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="I38" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="J38" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="K38" t="s">
-        <v>514</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>397</v>
+        <v>474</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D39" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="E39" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F39" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="G39" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="H39" t="s">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="I39" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="J39" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="K39" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>401</v>
+        <v>476</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E40" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F40" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="G40" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="H40" t="s">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="I40" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="J40" t="s">
-        <v>501</v>
+        <v>334</v>
       </c>
       <c r="K40" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>414</v>
+        <v>481</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="E41" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="H41" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="I41" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="J41" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="K41" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E42" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F42" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="G42" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="H42" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="I42" t="s">
-        <v>378</v>
+        <v>437</v>
       </c>
       <c r="J42" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="K42" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>428</v>
+        <v>490</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E43" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F43" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="G43" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="H43" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="I43" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="J43" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="K43" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E44" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F44" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="G44" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="H44" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="I44" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="J44" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="K44" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>440</v>
+        <v>518</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="E45" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F45" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="G45" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="H45" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
       <c r="I45" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="J45" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="K45" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>447</v>
+        <v>519</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F46" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="G46" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="H46" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="I46" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="J46" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="K46" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>474</v>
+        <v>521</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E47" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F47" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="G47" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="H47" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="I47" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="J47" t="s">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="K47" t="s">
-        <v>517</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>476</v>
+        <v>541</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="E48" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F48" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="G48" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="H48" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="I48" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="J48" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="K48" t="s">
-        <v>517</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="E49" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F49" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="G49" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="H49" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="I49" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="J49" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="K49" t="s">
-        <v>517</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>490</v>
+        <v>552</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="E50" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F50" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="G50" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="H50" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="I50" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
       <c r="J50" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="K50" t="s">
-        <v>517</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E51" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F51" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="G51" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="H51" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="I51" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="J51" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="K51" t="s">
-        <v>517</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>506</v>
+        <v>572</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D52" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="E52" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F52" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="G52" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="H52" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="I52" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="J52" t="s">
-        <v>401</v>
+        <v>336</v>
       </c>
       <c r="K52" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D53" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E53" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F53" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="G53" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H53" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="I53" t="s">
-        <v>495</v>
+        <v>440</v>
       </c>
       <c r="J53" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="K53" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>521</v>
+        <v>628</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D54" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="E54" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F54" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="G54" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="H54" t="s">
+        <v>358</v>
+      </c>
+      <c r="I54" t="s">
         <v>438</v>
       </c>
-      <c r="I54" t="s">
-        <v>492</v>
-      </c>
       <c r="J54" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="K54" t="s">
-        <v>518</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>541</v>
+        <v>636</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="E55" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F55" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="G55" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="H55" t="s">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="I55" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="J55" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="K55" t="s">
-        <v>519</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>546</v>
+        <v>641</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E56" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F56" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="G56" t="s">
-        <v>400</v>
+        <v>338</v>
       </c>
       <c r="H56" t="s">
+        <v>365</v>
+      </c>
+      <c r="I56" t="s">
         <v>439</v>
       </c>
-      <c r="I56" t="s">
-        <v>494</v>
-      </c>
       <c r="J56" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="K56" t="s">
-        <v>519</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>552</v>
+        <v>648</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F57" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="G57" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="H57" t="s">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="I57" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="J57" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="K57" t="s">
-        <v>519</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>561</v>
+        <v>677</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D58" t="s">
         <v>219</v>
       </c>
       <c r="E58" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F58" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="G58" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="H58" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="I58" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="J58" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="K58" t="s">
-        <v>519</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="E59" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F59" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="G59" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="H59" t="s">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="I59" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J59" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="K59" t="s">
-        <v>519</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>585</v>
+        <v>696</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E60" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F60" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="G60" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="H60" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="I60" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="J60" t="s">
-        <v>502</v>
+        <v>339</v>
       </c>
       <c r="K60" t="s">
-        <v>519</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>588</v>
+        <v>706</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E61" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F61" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="G61" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="H61" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="I61" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="J61" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="K61" t="s">
-        <v>520</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>621</v>
+        <v>724</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D62" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="E62" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F62" t="s">
-        <v>335</v>
+        <v>277</v>
       </c>
       <c r="G62" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="H62" t="s">
-        <v>443</v>
+        <v>365</v>
       </c>
       <c r="I62" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="J62" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="K62" t="s">
-        <v>521</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>628</v>
+        <v>746</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="E63" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F63" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="G63" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="H63" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="I63" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J63" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="K63" t="s">
-        <v>521</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>636</v>
+        <v>772</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="E64" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F64" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="G64" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="H64" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="I64" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="J64" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="K64" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>641</v>
+        <v>773</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D65" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="E65" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F65" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="G65" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="H65" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="I65" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="J65" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="K65" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>646</v>
+        <v>778</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="E66" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F66" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="G66" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="H66" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="I66" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="J66" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="K66" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>647</v>
+        <v>779</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="E67" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F67" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="G67" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="H67" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="I67" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="J67" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="K67" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>648</v>
+        <v>781</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E68" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F68" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G68" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="H68" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="I68" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J68" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="K68" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>677</v>
+        <v>784</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="E69" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F69" t="s">
+        <v>271</v>
+      </c>
+      <c r="G69" t="s">
         <v>338</v>
       </c>
-      <c r="G69" t="s">
-        <v>396</v>
-      </c>
       <c r="H69" t="s">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="I69" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
       <c r="J69" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="K69" t="s">
-        <v>522</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>683</v>
+        <v>806</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="E70" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F70" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G70" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="H70" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="I70" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="J70" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="K70" t="s">
-        <v>522</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>706</v>
+        <v>824</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E71" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F71" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="G71" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="H71" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="I71" t="s">
-        <v>494</v>
+        <v>436</v>
       </c>
       <c r="J71" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="K71" t="s">
-        <v>522</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1">
-        <v>709</v>
+        <v>838</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D72" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="E72" t="s">
+        <v>269</v>
+      </c>
+      <c r="F72" t="s">
         <v>305</v>
       </c>
-      <c r="F72" t="s">
-        <v>339</v>
-      </c>
       <c r="G72" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="H72" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="I72" t="s">
-        <v>494</v>
+        <v>436</v>
       </c>
       <c r="J72" t="s">
-        <v>496</v>
+        <v>352</v>
       </c>
       <c r="K72" t="s">
-        <v>522</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1">
-        <v>724</v>
+        <v>867</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D73" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="E73" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F73" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="G73" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="H73" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="I73" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="J73" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="K73" t="s">
-        <v>523</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1">
-        <v>746</v>
+        <v>868</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="E74" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F74" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="G74" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="H74" t="s">
-        <v>447</v>
+        <v>359</v>
       </c>
       <c r="I74" t="s">
-        <v>494</v>
+        <v>333</v>
       </c>
       <c r="J74" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="K74" t="s">
-        <v>523</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1">
-        <v>760</v>
+        <v>875</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="E75" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F75" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="G75" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="H75" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
       <c r="I75" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="J75" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="K75" t="s">
-        <v>524</v>
+        <v>470</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1">
-        <v>762</v>
+        <v>881</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D76" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E76" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F76" t="s">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="G76" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="H76" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="I76" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="J76" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="K76" t="s">
-        <v>524</v>
+        <v>470</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1">
-        <v>763</v>
+        <v>894</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="E77" t="s">
+        <v>269</v>
+      </c>
+      <c r="F77" t="s">
         <v>305</v>
       </c>
-      <c r="F77" t="s">
-        <v>341</v>
-      </c>
       <c r="G77" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="H77" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="I77" t="s">
-        <v>494</v>
+        <v>436</v>
       </c>
       <c r="J77" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="K77" t="s">
-        <v>524</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>772</v>
+        <v>929</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D78" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="E78" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F78" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="G78" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="H78" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="I78" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="J78" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="K78" t="s">
-        <v>524</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
-        <v>773</v>
+        <v>930</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D79" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="E79" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F79" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="G79" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="H79" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="I79" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="J79" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="K79" t="s">
-        <v>524</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1">
-        <v>778</v>
+        <v>935</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D80" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="E80" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F80" t="s">
-        <v>342</v>
+        <v>271</v>
       </c>
       <c r="G80" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="H80" t="s">
-        <v>449</v>
+        <v>397</v>
       </c>
       <c r="I80" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="J80" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="K80" t="s">
-        <v>524</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1">
-        <v>779</v>
+        <v>962</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D81" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="E81" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F81" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="G81" t="s">
-        <v>401</v>
+        <v>336</v>
       </c>
       <c r="H81" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="I81" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="J81" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="K81" t="s">
-        <v>524</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1">
-        <v>781</v>
+        <v>969</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="D82" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="E82" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F82" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="G82" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="H82" t="s">
-        <v>451</v>
+        <v>388</v>
       </c>
       <c r="I82" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="J82" t="s">
-        <v>503</v>
+        <v>355</v>
       </c>
       <c r="K82" t="s">
-        <v>524</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1">
-        <v>784</v>
+        <v>976</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E83" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F83" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="G83" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="H83" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="I83" t="s">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="J83" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="K83" t="s">
-        <v>524</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1">
-        <v>806</v>
+        <v>986</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C84" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" t="s">
         <v>189</v>
       </c>
-      <c r="D84" t="s">
-        <v>257</v>
-      </c>
       <c r="E84" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F84" t="s">
-        <v>345</v>
+        <v>271</v>
       </c>
       <c r="G84" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="H84" t="s">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="I84" t="s">
-        <v>492</v>
+        <v>341</v>
       </c>
       <c r="J84" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="K84" t="s">
-        <v>525</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1">
-        <v>824</v>
+        <v>995</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="E85" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F85" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
       <c r="G85" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="H85" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="I85" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="J85" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="K85" t="s">
-        <v>526</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1">
-        <v>838</v>
+        <v>998</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D86" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F86" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="G86" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="H86" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="I86" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="J86" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="K86" t="s">
-        <v>526</v>
+        <v>473</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1">
-        <v>867</v>
+        <v>1008</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C87" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D87" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E87" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F87" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G87" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="H87" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="I87" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J87" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="K87" t="s">
-        <v>526</v>
+        <v>473</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1">
-        <v>868</v>
+        <v>1022</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D88" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="E88" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F88" t="s">
         <v>307</v>
       </c>
       <c r="G88" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="H88" t="s">
         <v>405</v>
       </c>
       <c r="I88" t="s">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="J88" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="K88" t="s">
-        <v>526</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1">
-        <v>875</v>
+        <v>1026</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C89" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D89" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="E89" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F89" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="G89" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="H89" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="I89" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="J89" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="K89" t="s">
-        <v>527</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1">
-        <v>881</v>
+        <v>1081</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D90" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="E90" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F90" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G90" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="H90" t="s">
-        <v>454</v>
+        <v>393</v>
       </c>
       <c r="I90" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="J90" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="K90" t="s">
-        <v>527</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1">
-        <v>894</v>
+        <v>1082</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D91" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="E91" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F91" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="G91" t="s">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="H91" t="s">
-        <v>453</v>
+        <v>393</v>
       </c>
       <c r="I91" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="J91" t="s">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="K91" t="s">
-        <v>527</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1">
-        <v>928</v>
+        <v>1083</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D92" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E92" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F92" t="s">
+        <v>296</v>
+      </c>
+      <c r="G92" t="s">
         <v>348</v>
       </c>
-      <c r="G92" t="s">
-        <v>388</v>
-      </c>
       <c r="H92" t="s">
-        <v>455</v>
+        <v>393</v>
       </c>
       <c r="I92" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J92" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="K92" t="s">
-        <v>528</v>
+        <v>475</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1">
-        <v>929</v>
+        <v>1087</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D93" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="E93" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F93" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G93" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="H93" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="I93" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="J93" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="K93" t="s">
-        <v>528</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1">
-        <v>930</v>
+        <v>1093</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D94" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="E94" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F94" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G94" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="H94" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="I94" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="J94" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="K94" t="s">
-        <v>528</v>
+        <v>475</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1">
-        <v>935</v>
+        <v>1114</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D95" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="E95" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F95" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="G95" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="H95" t="s">
-        <v>447</v>
+        <v>365</v>
       </c>
       <c r="I95" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
       <c r="J95" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="K95" t="s">
-        <v>528</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1">
-        <v>962</v>
+        <v>1124</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="D96" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="E96" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F96" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="G96" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="H96" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="I96" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="J96" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="K96" t="s">
-        <v>529</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1">
-        <v>969</v>
+        <v>1130</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D97" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="E97" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F97" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="G97" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="H97" t="s">
-        <v>437</v>
+        <v>370</v>
       </c>
       <c r="I97" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="J97" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="K97" t="s">
-        <v>529</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1">
-        <v>976</v>
+        <v>1136</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D98" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E98" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F98" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="G98" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="H98" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="I98" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="J98" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="K98" t="s">
-        <v>529</v>
+        <v>476</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1">
-        <v>986</v>
+        <v>1156</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D99" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="E99" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F99" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="G99" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="H99" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="I99" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="J99" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="K99" t="s">
-        <v>529</v>
+        <v>477</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="1">
-        <v>995</v>
+        <v>1183</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D100" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="E100" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F100" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G100" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="H100" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="I100" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="J100" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="K100" t="s">
-        <v>529</v>
+        <v>478</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="1">
-        <v>998</v>
+        <v>1184</v>
       </c>
       <c r="B101" t="s">
         <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D101" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="E101" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F101" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G101" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="H101" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="I101" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="J101" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="K101" t="s">
-        <v>530</v>
+        <v>478</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="1">
-        <v>1006</v>
+        <v>1212</v>
       </c>
       <c r="B102" t="s">
         <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D102" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="E102" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F102" t="s">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="G102" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
       <c r="H102" t="s">
-        <v>457</v>
+        <v>358</v>
       </c>
       <c r="I102" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="J102" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="K102" t="s">
-        <v>530</v>
+        <v>478</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="1">
-        <v>1008</v>
+        <v>1226</v>
       </c>
       <c r="B103" t="s">
         <v>109</v>
       </c>
       <c r="C103" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D103" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E103" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F103" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="G103" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="H103" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="I103" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="J103" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="K103" t="s">
-        <v>530</v>
+        <v>479</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="1">
-        <v>1022</v>
+        <v>1256</v>
       </c>
       <c r="B104" t="s">
         <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D104" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="E104" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F104" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="G104" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="H104" t="s">
-        <v>458</v>
+        <v>365</v>
       </c>
       <c r="I104" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="J104" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="K104" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="1">
-        <v>1026</v>
+        <v>1267</v>
       </c>
       <c r="B105" t="s">
         <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D105" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="E105" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F105" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="G105" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="H105" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="I105" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="J105" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="K105" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="1">
-        <v>1081</v>
+        <v>1270</v>
       </c>
       <c r="B106" t="s">
         <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D106" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E106" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F106" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="G106" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="H106" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="I106" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J106" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="K106" t="s">
-        <v>532</v>
+        <v>480</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="1">
-        <v>1082</v>
+        <v>1277</v>
       </c>
       <c r="B107" t="s">
         <v>113</v>
       </c>
       <c r="C107" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E107" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F107" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="G107" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="H107" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="I107" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="J107" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="K107" t="s">
-        <v>532</v>
+        <v>480</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="1">
-        <v>1083</v>
+        <v>1320</v>
       </c>
       <c r="B108" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C108" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D108" t="s">
         <v>242</v>
       </c>
       <c r="E108" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F108" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="G108" t="s">
-        <v>397</v>
+        <v>332</v>
       </c>
       <c r="H108" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="I108" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J108" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="K108" t="s">
-        <v>532</v>
+        <v>481</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="1">
-        <v>1087</v>
+        <v>1338</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D109" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="E109" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F109" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="G109" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="H109" t="s">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="I109" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="J109" t="s">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="K109" t="s">
-        <v>532</v>
+        <v>482</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="1">
-        <v>1093</v>
+        <v>1356</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="D110" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="E110" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F110" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="G110" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="H110" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="I110" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="J110" t="s">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="K110" t="s">
-        <v>532</v>
+        <v>482</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="1">
-        <v>1098</v>
+        <v>1359</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C111" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D111" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E111" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F111" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="G111" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
       <c r="H111" t="s">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="I111" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="J111" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="K111" t="s">
-        <v>533</v>
+        <v>482</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="1">
-        <v>1114</v>
+        <v>1370</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D112" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E112" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F112" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G112" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="H112" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="I112" t="s">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="J112" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="K112" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="1">
-        <v>1124</v>
+        <v>1374</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D113" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="E113" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F113" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="G113" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="H113" t="s">
-        <v>463</v>
+        <v>415</v>
       </c>
       <c r="I113" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="J113" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="K113" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="1">
-        <v>1130</v>
+        <v>1375</v>
       </c>
       <c r="B114" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D114" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="E114" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F114" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G114" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="H114" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I114" t="s">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="J114" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="K114" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="1">
-        <v>1136</v>
+        <v>1377</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D115" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E115" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F115" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G115" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="H115" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="I115" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J115" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="K115" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="1">
-        <v>1156</v>
+        <v>1378</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D116" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="E116" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F116" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G116" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="H116" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="I116" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="J116" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="K116" t="s">
-        <v>534</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="1">
-        <v>1176</v>
+        <v>1379</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D117" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="E117" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F117" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="G117" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
       <c r="H117" t="s">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="I117" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="J117" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="K117" t="s">
-        <v>534</v>
+        <v>483</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="1">
-        <v>1183</v>
+        <v>1380</v>
       </c>
       <c r="B118" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C118" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D118" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="E118" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F118" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="G118" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="H118" t="s">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="I118" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="J118" t="s">
-        <v>499</v>
+        <v>344</v>
       </c>
       <c r="K118" t="s">
-        <v>535</v>
+        <v>483</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="1">
-        <v>1184</v>
+        <v>1381</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D119" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="E119" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F119" t="s">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="G119" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="H119" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="I119" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="J119" t="s">
-        <v>499</v>
+        <v>334</v>
       </c>
       <c r="K119" t="s">
-        <v>535</v>
+        <v>483</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="1">
-        <v>1212</v>
+        <v>1388</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C120" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D120" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="E120" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F120" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="G120" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="H120" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="I120" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="J120" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="K120" t="s">
-        <v>535</v>
+        <v>483</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="1">
-        <v>1226</v>
+        <v>1393</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C121" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D121" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="E121" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F121" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="G121" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="H121" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="I121" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="J121" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="K121" t="s">
-        <v>536</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="1">
-        <v>1256</v>
+        <v>1396</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C122" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D122" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="E122" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F122" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G122" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="H122" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="I122" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="J122" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="K122" t="s">
-        <v>537</v>
+        <v>483</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="1">
-        <v>1267</v>
+        <v>1402</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C123" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D123" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E123" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F123" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="G123" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H123" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="I123" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="J123" t="s">
-        <v>497</v>
+        <v>338</v>
       </c>
       <c r="K123" t="s">
-        <v>537</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="1">
-        <v>1277</v>
+        <v>1408</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C124" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D124" t="s">
-        <v>275</v>
+        <v>178</v>
       </c>
       <c r="E124" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F124" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="G124" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="H124" t="s">
-        <v>467</v>
+        <v>358</v>
       </c>
       <c r="I124" t="s">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="J124" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="K124" t="s">
-        <v>537</v>
+        <v>483</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="1">
-        <v>1293</v>
+        <v>1411</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D125" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="E125" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F125" t="s">
-        <v>357</v>
+        <v>288</v>
       </c>
       <c r="G125" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="H125" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="I125" t="s">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="J125" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
       <c r="K125" t="s">
-        <v>538</v>
+        <v>483</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="1">
-        <v>1319</v>
+        <v>1415</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C126" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D126" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="E126" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F126" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="G126" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="H126" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="I126" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="J126" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="K126" t="s">
-        <v>538</v>
+        <v>483</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="1">
-        <v>1356</v>
+        <v>1417</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C127" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D127" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="E127" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F127" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="G127" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="H127" t="s">
-        <v>470</v>
+        <v>397</v>
       </c>
       <c r="I127" t="s">
-        <v>492</v>
+        <v>356</v>
       </c>
       <c r="J127" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="K127" t="s">
-        <v>539</v>
+        <v>483</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="1">
-        <v>1359</v>
+        <v>1418</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C128" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D128" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="E128" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F128" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="G128" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="H128" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="I128" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J128" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="K128" t="s">
-        <v>539</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="1">
-        <v>1370</v>
+        <v>1440</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C129" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D129" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="E129" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F129" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="G129" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="H129" t="s">
-        <v>431</v>
+        <v>365</v>
       </c>
       <c r="I129" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="J129" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="K129" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="1">
-        <v>1374</v>
+        <v>1441</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D130" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="E130" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F130" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="G130" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="H130" t="s">
-        <v>470</v>
+        <v>365</v>
       </c>
       <c r="I130" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="J130" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="K130" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="1">
-        <v>1375</v>
+        <v>1457</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D131" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="E131" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F131" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="G131" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="H131" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="I131" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="J131" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="K131" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="1">
-        <v>1377</v>
+        <v>1469</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C132" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D132" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="E132" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F132" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="G132" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="H132" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="I132" t="s">
-        <v>494</v>
+        <v>436</v>
       </c>
       <c r="J132" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="K132" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="1">
-        <v>1378</v>
+        <v>1500</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C133" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D133" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="E133" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F133" t="s">
-        <v>361</v>
+        <v>271</v>
       </c>
       <c r="G133" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="H133" t="s">
-        <v>472</v>
+        <v>397</v>
       </c>
       <c r="I133" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J133" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="K133" t="s">
-        <v>540</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="1">
-        <v>1379</v>
+        <v>1514</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D134" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="E134" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F134" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="G134" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="H134" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="I134" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J134" t="s">
-        <v>377</v>
+        <v>441</v>
       </c>
       <c r="K134" t="s">
-        <v>540</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="1">
-        <v>1380</v>
+        <v>1550</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C135" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D135" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="E135" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F135" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="G135" t="s">
-        <v>397</v>
+        <v>339</v>
       </c>
       <c r="H135" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="I135" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="J135" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="K135" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="1">
-        <v>1381</v>
+        <v>1560</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C136" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D136" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="E136" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F136" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G136" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="H136" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="I136" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="J136" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="K136" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="1">
-        <v>1388</v>
+        <v>1572</v>
       </c>
       <c r="B137" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C137" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D137" t="s">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="E137" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="G137" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="H137" t="s">
-        <v>476</v>
+        <v>366</v>
       </c>
       <c r="I137" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="J137" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="K137" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="1">
-        <v>1393</v>
+        <v>1573</v>
       </c>
       <c r="B138" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C138" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D138" t="s">
-        <v>287</v>
+        <v>185</v>
       </c>
       <c r="E138" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>364</v>
+        <v>277</v>
       </c>
       <c r="G138" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="H138" t="s">
-        <v>477</v>
+        <v>365</v>
       </c>
       <c r="I138" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="J138" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="K138" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="1">
-        <v>1396</v>
+        <v>1580</v>
       </c>
       <c r="B139" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="C139" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D139" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="E139" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="G139" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="H139" t="s">
-        <v>478</v>
+        <v>400</v>
       </c>
       <c r="I139" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="J139" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="K139" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="1">
-        <v>1402</v>
+        <v>1584</v>
       </c>
       <c r="B140" t="s">
         <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D140" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="E140" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="G140" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="H140" t="s">
-        <v>479</v>
+        <v>383</v>
       </c>
       <c r="I140" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="J140" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="K140" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="1">
-        <v>1408</v>
+        <v>1585</v>
       </c>
       <c r="B141" t="s">
         <v>145</v>
       </c>
       <c r="C141" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D141" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="E141" t="s">
+        <v>269</v>
+      </c>
+      <c r="F141" t="s">
         <v>305</v>
       </c>
-      <c r="F141" t="s">
-        <v>307</v>
-      </c>
       <c r="G141" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="H141" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I141" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="J141" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="K141" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="1">
-        <v>1411</v>
+        <v>1592</v>
       </c>
       <c r="B142" t="s">
         <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D142" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="E142" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="G142" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="H142" t="s">
-        <v>480</v>
+        <v>407</v>
       </c>
       <c r="I142" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="J142" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="K142" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="1">
-        <v>1415</v>
+        <v>1622</v>
       </c>
       <c r="B143" t="s">
         <v>147</v>
       </c>
       <c r="C143" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D143" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E143" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>368</v>
+        <v>289</v>
       </c>
       <c r="G143" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="H143" t="s">
-        <v>481</v>
+        <v>379</v>
       </c>
       <c r="I143" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="J143" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="K143" t="s">
-        <v>540</v>
+        <v>488</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="1">
-        <v>1417</v>
+        <v>1625</v>
       </c>
       <c r="B144" t="s">
         <v>148</v>
       </c>
       <c r="C144" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="D144" t="s">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c r="E144" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G144" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="H144" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="I144" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="J144" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="K144" t="s">
-        <v>540</v>
+        <v>488</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="1">
-        <v>1418</v>
+        <v>1656</v>
       </c>
       <c r="B145" t="s">
         <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D145" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
       <c r="E145" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F145" t="s">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="G145" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="H145" t="s">
-        <v>482</v>
+        <v>382</v>
       </c>
       <c r="I145" t="s">
-        <v>494</v>
+        <v>436</v>
       </c>
       <c r="J145" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="K145" t="s">
-        <v>540</v>
+        <v>489</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="1">
-        <v>1440</v>
+        <v>1657</v>
       </c>
       <c r="B146" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D146" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="E146" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F146" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="G146" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="H146" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="I146" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="J146" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="K146" t="s">
-        <v>541</v>
+        <v>489</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="1">
-        <v>1441</v>
+        <v>1670</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C147" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D147" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E147" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F147" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="G147" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="H147" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="I147" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="J147" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="K147" t="s">
-        <v>541</v>
+        <v>489</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="1">
-        <v>1446</v>
+        <v>1672</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C148" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D148" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="E148" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F148" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
       <c r="G148" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="H148" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="I148" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="J148" t="s">
-        <v>401</v>
+        <v>334</v>
       </c>
       <c r="K148" t="s">
-        <v>541</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="1">
-        <v>1457</v>
+        <v>1708</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D149" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="E149" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F149" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="G149" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="H149" t="s">
-        <v>483</v>
+        <v>434</v>
       </c>
       <c r="I149" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="J149" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="K149" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="1">
-        <v>1469</v>
+        <v>1724</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C150" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="D150" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="E150" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F150" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="G150" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="H150" t="s">
-        <v>484</v>
+        <v>380</v>
       </c>
       <c r="I150" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="J150" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="K150" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="1">
-        <v>1500</v>
+        <v>1743</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C151" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D151" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="E151" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F151" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="G151" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="H151" t="s">
-        <v>447</v>
+        <v>365</v>
       </c>
       <c r="I151" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="J151" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="K151" t="s">
-        <v>542</v>
+        <v>491</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="1">
-        <v>1514</v>
+        <v>1757</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C152" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D152" t="s">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="E152" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F152" t="s">
-        <v>372</v>
+        <v>271</v>
       </c>
       <c r="G152" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="H152" t="s">
-        <v>485</v>
+        <v>397</v>
       </c>
       <c r="I152" t="s">
-        <v>494</v>
+        <v>436</v>
       </c>
       <c r="J152" t="s">
-        <v>497</v>
+        <v>334</v>
       </c>
       <c r="K152" t="s">
-        <v>543</v>
+        <v>491</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="1">
-        <v>1550</v>
+        <v>1786</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C153" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D153" t="s">
-        <v>298</v>
+        <v>185</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F153" t="s">
-        <v>373</v>
+        <v>277</v>
       </c>
       <c r="G153" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="H153" t="s">
-        <v>486</v>
+        <v>365</v>
       </c>
       <c r="I153" t="s">
+        <v>439</v>
+      </c>
+      <c r="J153" t="s">
+        <v>442</v>
+      </c>
+      <c r="K153" t="s">
         <v>492</v>
-      </c>
-      <c r="J153" t="s">
-        <v>379</v>
-      </c>
-      <c r="K153" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="1">
-        <v>1560</v>
+        <v>1787</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C154" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D154" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F154" t="s">
+        <v>277</v>
+      </c>
+      <c r="G154" t="s">
         <v>338</v>
       </c>
-      <c r="G154" t="s">
-        <v>396</v>
-      </c>
       <c r="H154" t="s">
-        <v>487</v>
+        <v>365</v>
       </c>
       <c r="I154" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
       <c r="J154" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="K154" t="s">
-        <v>544</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="1">
-        <v>1572</v>
+        <v>1800</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C155" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D155" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F155" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="G155" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H155" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="I155" t="s">
-        <v>495</v>
+        <v>440</v>
       </c>
       <c r="J155" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="K155" t="s">
-        <v>544</v>
+        <v>492</v>
       </c>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="1">
-        <v>1573</v>
+        <v>1802</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C156" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D156" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F156" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="G156" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="H156" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="I156" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="J156" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="K156" t="s">
-        <v>544</v>
+        <v>492</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="1">
-        <v>1580</v>
+        <v>1805</v>
       </c>
       <c r="B157" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="C157" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D157" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F157" t="s">
-        <v>344</v>
+        <v>271</v>
       </c>
       <c r="G157" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="H157" t="s">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="I157" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J157" t="s">
-        <v>503</v>
+        <v>334</v>
       </c>
       <c r="K157" t="s">
-        <v>544</v>
+        <v>492</v>
       </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="1">
-        <v>1584</v>
+        <v>1826</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C158" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D158" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F158" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="G158" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
       <c r="H158" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="I158" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="J158" t="s">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="K158" t="s">
-        <v>544</v>
+        <v>493</v>
       </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="1">
-        <v>1585</v>
+        <v>1834</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C159" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="D159" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F159" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="G159" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="H159" t="s">
-        <v>453</v>
+        <v>379</v>
       </c>
       <c r="I159" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="J159" t="s">
-        <v>400</v>
+        <v>339</v>
       </c>
       <c r="K159" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160" s="1">
-        <v>1592</v>
-      </c>
-      <c r="B160" t="s">
-        <v>162</v>
-      </c>
-      <c r="C160" t="s">
-        <v>191</v>
-      </c>
-      <c r="D160" t="s">
-        <v>268</v>
-      </c>
-      <c r="E160" t="s">
-        <v>305</v>
-      </c>
-      <c r="F160" t="s">
-        <v>352</v>
-      </c>
-      <c r="G160" t="s">
-        <v>384</v>
-      </c>
-      <c r="H160" t="s">
-        <v>460</v>
-      </c>
-      <c r="I160" t="s">
-        <v>494</v>
-      </c>
-      <c r="J160" t="s">
-        <v>504</v>
-      </c>
-      <c r="K160" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161" s="1">
-        <v>1622</v>
-      </c>
-      <c r="B161" t="s">
-        <v>163</v>
-      </c>
-      <c r="C161" t="s">
-        <v>199</v>
-      </c>
-      <c r="D161" t="s">
-        <v>300</v>
-      </c>
-      <c r="E161" t="s">
-        <v>305</v>
-      </c>
-      <c r="F161" t="s">
-        <v>326</v>
-      </c>
-      <c r="G161" t="s">
-        <v>386</v>
-      </c>
-      <c r="H161" t="s">
-        <v>429</v>
-      </c>
-      <c r="I161" t="s">
-        <v>491</v>
-      </c>
-      <c r="J161" t="s">
-        <v>387</v>
-      </c>
-      <c r="K161" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162" s="1">
-        <v>1630</v>
-      </c>
-      <c r="B162" t="s">
-        <v>164</v>
-      </c>
-      <c r="C162" t="s">
-        <v>192</v>
-      </c>
-      <c r="D162" t="s">
-        <v>226</v>
-      </c>
-      <c r="E162" t="s">
-        <v>305</v>
-      </c>
-      <c r="F162" t="s">
-        <v>307</v>
-      </c>
-      <c r="G162" t="s">
-        <v>386</v>
-      </c>
-      <c r="H162" t="s">
-        <v>426</v>
-      </c>
-      <c r="I162" t="s">
-        <v>495</v>
-      </c>
-      <c r="J162" t="s">
-        <v>379</v>
-      </c>
-      <c r="K162" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163" s="1">
-        <v>1656</v>
-      </c>
-      <c r="B163" t="s">
-        <v>165</v>
-      </c>
-      <c r="C163" t="s">
-        <v>200</v>
-      </c>
-      <c r="D163" t="s">
-        <v>232</v>
-      </c>
-      <c r="E163" t="s">
-        <v>305</v>
-      </c>
-      <c r="F163" t="s">
-        <v>326</v>
-      </c>
-      <c r="G163" t="s">
-        <v>386</v>
-      </c>
-      <c r="H163" t="s">
-        <v>432</v>
-      </c>
-      <c r="I163" t="s">
-        <v>491</v>
-      </c>
-      <c r="J163" t="s">
-        <v>387</v>
-      </c>
-      <c r="K163" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164" s="1">
-        <v>1657</v>
-      </c>
-      <c r="B164" t="s">
-        <v>166</v>
-      </c>
-      <c r="C164" t="s">
-        <v>192</v>
-      </c>
-      <c r="D164" t="s">
-        <v>211</v>
-      </c>
-      <c r="E164" t="s">
-        <v>305</v>
-      </c>
-      <c r="F164" t="s">
-        <v>313</v>
-      </c>
-      <c r="G164" t="s">
-        <v>386</v>
-      </c>
-      <c r="H164" t="s">
-        <v>413</v>
-      </c>
-      <c r="I164" t="s">
-        <v>495</v>
-      </c>
-      <c r="J164" t="s">
-        <v>393</v>
-      </c>
-      <c r="K164" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165" s="1">
-        <v>1672</v>
-      </c>
-      <c r="B165" t="s">
-        <v>167</v>
-      </c>
-      <c r="C165" t="s">
-        <v>192</v>
-      </c>
-      <c r="D165" t="s">
-        <v>235</v>
-      </c>
-      <c r="E165" t="s">
-        <v>305</v>
-      </c>
-      <c r="F165" t="s">
-        <v>307</v>
-      </c>
-      <c r="G165" t="s">
-        <v>386</v>
-      </c>
-      <c r="H165" t="s">
-        <v>429</v>
-      </c>
-      <c r="I165" t="s">
-        <v>495</v>
-      </c>
-      <c r="J165" t="s">
-        <v>379</v>
-      </c>
-      <c r="K165" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166" s="1">
-        <v>1677</v>
-      </c>
-      <c r="B166" t="s">
-        <v>168</v>
-      </c>
-      <c r="C166" t="s">
-        <v>189</v>
-      </c>
-      <c r="D166" t="s">
-        <v>301</v>
-      </c>
-      <c r="E166" t="s">
-        <v>305</v>
-      </c>
-      <c r="F166" t="s">
-        <v>374</v>
-      </c>
-      <c r="G166" t="s">
-        <v>393</v>
-      </c>
-      <c r="H166" t="s">
-        <v>488</v>
-      </c>
-      <c r="I166" t="s">
-        <v>492</v>
-      </c>
-      <c r="J166" t="s">
-        <v>387</v>
-      </c>
-      <c r="K166" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167" s="1">
-        <v>1724</v>
-      </c>
-      <c r="B167" t="s">
-        <v>169</v>
-      </c>
-      <c r="C167" t="s">
-        <v>189</v>
-      </c>
-      <c r="D167" t="s">
-        <v>231</v>
-      </c>
-      <c r="E167" t="s">
-        <v>305</v>
-      </c>
-      <c r="F167" t="s">
-        <v>325</v>
-      </c>
-      <c r="G167" t="s">
-        <v>395</v>
-      </c>
-      <c r="H167" t="s">
-        <v>431</v>
-      </c>
-      <c r="I167" t="s">
-        <v>492</v>
-      </c>
-      <c r="J167" t="s">
-        <v>392</v>
-      </c>
-      <c r="K167" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168" s="1">
-        <v>1725</v>
-      </c>
-      <c r="B168" t="s">
-        <v>170</v>
-      </c>
-      <c r="C168" t="s">
-        <v>190</v>
-      </c>
-      <c r="D168" t="s">
-        <v>277</v>
-      </c>
-      <c r="E168" t="s">
-        <v>305</v>
-      </c>
-      <c r="F168" t="s">
-        <v>358</v>
-      </c>
-      <c r="G168" t="s">
-        <v>380</v>
-      </c>
-      <c r="H168" t="s">
-        <v>469</v>
-      </c>
-      <c r="I168" t="s">
         <v>493</v>
-      </c>
-      <c r="J168" t="s">
-        <v>381</v>
-      </c>
-      <c r="K168" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169" s="1">
-        <v>1728</v>
-      </c>
-      <c r="B169" t="s">
-        <v>171</v>
-      </c>
-      <c r="C169" t="s">
-        <v>190</v>
-      </c>
-      <c r="D169" t="s">
-        <v>205</v>
-      </c>
-      <c r="E169" t="s">
-        <v>305</v>
-      </c>
-      <c r="F169" t="s">
-        <v>307</v>
-      </c>
-      <c r="G169" t="s">
-        <v>380</v>
-      </c>
-      <c r="H169" t="s">
-        <v>407</v>
-      </c>
-      <c r="I169" t="s">
-        <v>493</v>
-      </c>
-      <c r="J169" t="s">
-        <v>379</v>
-      </c>
-      <c r="K169" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170" s="1">
-        <v>1743</v>
-      </c>
-      <c r="B170" t="s">
-        <v>172</v>
-      </c>
-      <c r="C170" t="s">
-        <v>192</v>
-      </c>
-      <c r="D170" t="s">
-        <v>211</v>
-      </c>
-      <c r="E170" t="s">
-        <v>305</v>
-      </c>
-      <c r="F170" t="s">
-        <v>313</v>
-      </c>
-      <c r="G170" t="s">
-        <v>386</v>
-      </c>
-      <c r="H170" t="s">
-        <v>413</v>
-      </c>
-      <c r="I170" t="s">
-        <v>495</v>
-      </c>
-      <c r="J170" t="s">
-        <v>393</v>
-      </c>
-      <c r="K170" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171" s="1">
-        <v>1757</v>
-      </c>
-      <c r="B171" t="s">
-        <v>173</v>
-      </c>
-      <c r="C171" t="s">
-        <v>187</v>
-      </c>
-      <c r="D171" t="s">
-        <v>251</v>
-      </c>
-      <c r="E171" t="s">
-        <v>305</v>
-      </c>
-      <c r="F171" t="s">
-        <v>307</v>
-      </c>
-      <c r="G171" t="s">
-        <v>396</v>
-      </c>
-      <c r="H171" t="s">
-        <v>447</v>
-      </c>
-      <c r="I171" t="s">
-        <v>491</v>
-      </c>
-      <c r="J171" t="s">
-        <v>379</v>
-      </c>
-      <c r="K171" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172" s="1">
-        <v>1786</v>
-      </c>
-      <c r="B172" t="s">
-        <v>174</v>
-      </c>
-      <c r="C172" t="s">
-        <v>192</v>
-      </c>
-      <c r="D172" t="s">
-        <v>211</v>
-      </c>
-      <c r="E172" t="s">
-        <v>305</v>
-      </c>
-      <c r="F172" t="s">
-        <v>313</v>
-      </c>
-      <c r="G172" t="s">
-        <v>386</v>
-      </c>
-      <c r="H172" t="s">
-        <v>413</v>
-      </c>
-      <c r="I172" t="s">
-        <v>495</v>
-      </c>
-      <c r="J172" t="s">
-        <v>393</v>
-      </c>
-      <c r="K172" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173" s="1">
-        <v>1787</v>
-      </c>
-      <c r="B173" t="s">
-        <v>175</v>
-      </c>
-      <c r="C173" t="s">
-        <v>192</v>
-      </c>
-      <c r="D173" t="s">
-        <v>211</v>
-      </c>
-      <c r="E173" t="s">
-        <v>305</v>
-      </c>
-      <c r="F173" t="s">
-        <v>313</v>
-      </c>
-      <c r="G173" t="s">
-        <v>386</v>
-      </c>
-      <c r="H173" t="s">
-        <v>413</v>
-      </c>
-      <c r="I173" t="s">
-        <v>495</v>
-      </c>
-      <c r="J173" t="s">
-        <v>393</v>
-      </c>
-      <c r="K173" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174" s="1">
-        <v>1790</v>
-      </c>
-      <c r="B174" t="s">
-        <v>176</v>
-      </c>
-      <c r="C174" t="s">
-        <v>189</v>
-      </c>
-      <c r="D174" t="s">
-        <v>265</v>
-      </c>
-      <c r="E174" t="s">
-        <v>305</v>
-      </c>
-      <c r="F174" t="s">
-        <v>350</v>
-      </c>
-      <c r="G174" t="s">
-        <v>393</v>
-      </c>
-      <c r="H174" t="s">
-        <v>457</v>
-      </c>
-      <c r="I174" t="s">
-        <v>492</v>
-      </c>
-      <c r="J174" t="s">
-        <v>387</v>
-      </c>
-      <c r="K174" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175" s="1">
-        <v>1800</v>
-      </c>
-      <c r="B175" t="s">
-        <v>177</v>
-      </c>
-      <c r="C175" t="s">
-        <v>190</v>
-      </c>
-      <c r="D175" t="s">
-        <v>243</v>
-      </c>
-      <c r="E175" t="s">
-        <v>305</v>
-      </c>
-      <c r="F175" t="s">
-        <v>334</v>
-      </c>
-      <c r="G175" t="s">
-        <v>380</v>
-      </c>
-      <c r="H175" t="s">
-        <v>442</v>
-      </c>
-      <c r="I175" t="s">
-        <v>493</v>
-      </c>
-      <c r="J175" t="s">
-        <v>502</v>
-      </c>
-      <c r="K175" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176" s="1">
-        <v>1802</v>
-      </c>
-      <c r="B176" t="s">
-        <v>178</v>
-      </c>
-      <c r="C176" t="s">
-        <v>187</v>
-      </c>
-      <c r="D176" t="s">
-        <v>302</v>
-      </c>
-      <c r="E176" t="s">
-        <v>305</v>
-      </c>
-      <c r="F176" t="s">
-        <v>375</v>
-      </c>
-      <c r="G176" t="s">
-        <v>396</v>
-      </c>
-      <c r="H176" t="s">
-        <v>489</v>
-      </c>
-      <c r="I176" t="s">
-        <v>491</v>
-      </c>
-      <c r="J176" t="s">
-        <v>500</v>
-      </c>
-      <c r="K176" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177" s="1">
-        <v>1805</v>
-      </c>
-      <c r="B177" t="s">
-        <v>179</v>
-      </c>
-      <c r="C177" t="s">
-        <v>191</v>
-      </c>
-      <c r="D177" t="s">
-        <v>279</v>
-      </c>
-      <c r="E177" t="s">
-        <v>305</v>
-      </c>
-      <c r="F177" t="s">
-        <v>307</v>
-      </c>
-      <c r="G177" t="s">
-        <v>377</v>
-      </c>
-      <c r="H177" t="s">
-        <v>447</v>
-      </c>
-      <c r="I177" t="s">
-        <v>494</v>
-      </c>
-      <c r="J177" t="s">
-        <v>379</v>
-      </c>
-      <c r="K177" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178" s="1">
-        <v>1808</v>
-      </c>
-      <c r="B178" t="s">
-        <v>180</v>
-      </c>
-      <c r="C178" t="s">
-        <v>189</v>
-      </c>
-      <c r="D178" t="s">
-        <v>270</v>
-      </c>
-      <c r="E178" t="s">
-        <v>305</v>
-      </c>
-      <c r="F178" t="s">
-        <v>324</v>
-      </c>
-      <c r="G178" t="s">
-        <v>393</v>
-      </c>
-      <c r="H178" t="s">
-        <v>462</v>
-      </c>
-      <c r="I178" t="s">
-        <v>492</v>
-      </c>
-      <c r="J178" t="s">
-        <v>387</v>
-      </c>
-      <c r="K178" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179" s="1">
-        <v>1821</v>
-      </c>
-      <c r="B179" t="s">
-        <v>181</v>
-      </c>
-      <c r="C179" t="s">
-        <v>201</v>
-      </c>
-      <c r="D179" t="s">
-        <v>303</v>
-      </c>
-      <c r="E179" t="s">
-        <v>305</v>
-      </c>
-      <c r="F179" t="s">
-        <v>312</v>
-      </c>
-      <c r="G179" t="s">
-        <v>385</v>
-      </c>
-      <c r="H179" t="s">
-        <v>490</v>
-      </c>
-      <c r="I179" t="s">
-        <v>495</v>
-      </c>
-      <c r="J179" t="s">
-        <v>401</v>
-      </c>
-      <c r="K179" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180" s="1">
-        <v>1822</v>
-      </c>
-      <c r="B180" t="s">
-        <v>182</v>
-      </c>
-      <c r="C180" t="s">
-        <v>201</v>
-      </c>
-      <c r="D180" t="s">
-        <v>303</v>
-      </c>
-      <c r="E180" t="s">
-        <v>305</v>
-      </c>
-      <c r="F180" t="s">
-        <v>312</v>
-      </c>
-      <c r="G180" t="s">
-        <v>385</v>
-      </c>
-      <c r="H180" t="s">
-        <v>490</v>
-      </c>
-      <c r="I180" t="s">
-        <v>495</v>
-      </c>
-      <c r="J180" t="s">
-        <v>401</v>
-      </c>
-      <c r="K180" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181" s="1">
-        <v>1823</v>
-      </c>
-      <c r="B181" t="s">
-        <v>183</v>
-      </c>
-      <c r="C181" t="s">
-        <v>201</v>
-      </c>
-      <c r="D181" t="s">
-        <v>303</v>
-      </c>
-      <c r="E181" t="s">
-        <v>305</v>
-      </c>
-      <c r="F181" t="s">
-        <v>312</v>
-      </c>
-      <c r="G181" t="s">
-        <v>385</v>
-      </c>
-      <c r="H181" t="s">
-        <v>490</v>
-      </c>
-      <c r="I181" t="s">
-        <v>495</v>
-      </c>
-      <c r="J181" t="s">
-        <v>401</v>
-      </c>
-      <c r="K181" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182" s="1">
-        <v>1826</v>
-      </c>
-      <c r="B182" t="s">
-        <v>184</v>
-      </c>
-      <c r="C182" t="s">
-        <v>191</v>
-      </c>
-      <c r="D182" t="s">
-        <v>251</v>
-      </c>
-      <c r="E182" t="s">
-        <v>305</v>
-      </c>
-      <c r="F182" t="s">
-        <v>307</v>
-      </c>
-      <c r="G182" t="s">
-        <v>377</v>
-      </c>
-      <c r="H182" t="s">
-        <v>447</v>
-      </c>
-      <c r="I182" t="s">
-        <v>494</v>
-      </c>
-      <c r="J182" t="s">
-        <v>379</v>
-      </c>
-      <c r="K182" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183" s="1">
-        <v>1834</v>
-      </c>
-      <c r="B183" t="s">
-        <v>185</v>
-      </c>
-      <c r="C183" t="s">
-        <v>194</v>
-      </c>
-      <c r="D183" t="s">
-        <v>304</v>
-      </c>
-      <c r="E183" t="s">
-        <v>305</v>
-      </c>
-      <c r="F183" t="s">
-        <v>376</v>
-      </c>
-      <c r="G183" t="s">
-        <v>386</v>
-      </c>
-      <c r="H183" t="s">
-        <v>429</v>
-      </c>
-      <c r="I183" t="s">
-        <v>491</v>
-      </c>
-      <c r="J183" t="s">
-        <v>387</v>
-      </c>
-      <c r="K183" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184" s="1">
-        <v>1848</v>
-      </c>
-      <c r="B184" t="s">
-        <v>186</v>
-      </c>
-      <c r="C184" t="s">
-        <v>189</v>
-      </c>
-      <c r="D184" t="s">
-        <v>270</v>
-      </c>
-      <c r="E184" t="s">
-        <v>305</v>
-      </c>
-      <c r="F184" t="s">
-        <v>324</v>
-      </c>
-      <c r="G184" t="s">
-        <v>393</v>
-      </c>
-      <c r="H184" t="s">
-        <v>462</v>
-      </c>
-      <c r="I184" t="s">
-        <v>492</v>
-      </c>
-      <c r="J184" t="s">
-        <v>387</v>
-      </c>
-      <c r="K184" t="s">
-        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/output/錯誤型態彙整.xlsx
+++ b/output/錯誤型態彙整.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="495">
   <si>
     <t>45A</t>
   </si>
@@ -49,31 +49,31 @@
     <t xml:space="preserve">  COMMODITY DPHP TOTAL QUANTITY 16MTS UNIT PRICE USD2400MT TRADE TERMS CIF HAIPHONG PORT VIETNAM INCOTERMS 2010 ORIGIN TAIWAN PACKING IN 200KGS DRUM 80DRUMS PER 1 X 20FCLDETAILS AS PER SALES CONTRACT NN1962 DATED SEP 14TH 2021 </t>
   </si>
   <si>
-    <t xml:space="preserve"> CIF BUSANORIGIN TAIWANGLASS FIBER YARNECG7510TTS 07Z 61518000KGS AT USD168KG USD30240 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 LLDPE 3470 240 MTS USD 1240MT H0FR252 LLDPE 3490 16 MTS USD 1250MT H0FR033 LLDPE 3490 848 MTS USD 1250MT H0FR184 HDPE 8010  34 MTS USD 1125MT H0FR025 HDPE 8010 170 MTS USD 1150MT H0FR196 HDPE 8001  51 MTS USD 1180MT H0FR307 EVA 7470M 100 MTS USD 3205MT H0FR33 INCOTERMS 2010TERMS FOB ANY TAIWAN PORT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10500 MT DOTP DIOCTYL TEREPHTHALATEAT USD 191000MTTOTAL AMOUNT  USD 20055000TYPE OF GOODS LIQUIDHS NO   29173600CONTRACT NO  NL1937ACOUNTRY OF ORIGIN TAIWANSHIPPING TERMS  CIF TANJUNG PRIOK JAKARTA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 105 MT DOTP DIOCTYL TEREPHTHALATEAT USD 191000MTTOTAL AMOUNT  USD 20055000TYPE OF GOODS LIQUIDHS NO   29173600CONTRACT NO  NL1937BCOUNTRY OF ORIGIN TAIWANSHIPPING TERMS  CIF TANJUNG PRIOK JAKARTA </t>
+    <t xml:space="preserve">  COMMODITY POLYPROPYLENE RESIN GRADE   QUANTITY  UNIT PRICE       KGS  USDKG B1101   48000   130 TOTAL AMOUNT USD6240000 ORIGIN  TAIWAN MAKER  FORMOSA CHEMICALS AND FIBRE CORP TRADE TERM CIF ANY PORT IN HOCHIMINH CITY VIETNAM   INCOTERMS 2020 PACKING IN STANDARD EXPORT PACKING </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 750000 BARRELS PLUSMINUS 10 PCT OF GASOIL 10PPM SULPHURFOB MAILIAO TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 300000 BBLS 10PCT OF GASOIL 005PCT SCOUNTRY OF ORIGIN TAIWANTERMS OF PRICE FOB MAILIAOTAIWANUNIT PRICE THE FOB MAILIAOTAIWAN PRICE IN USD PER BBLFOB PRICE EQUAL TO X MINUS USD164 PER BARRELWHERE X EQUAL TO THE WHOLE MONTH ARITHMETIC AVERAGE OF NOVEMBER2021 MEAN OF PLATTS FOR GASOIL 10PPMS UNDER THE HEADINGSINGAPOREPUBLISHED IN THE PLATTS ASIA PACIFICARAB GULFMARKETSCAN OF PLATTS QUOTATIONSIN THE EVENT THAT THE FINAL PRICE IS NOT KNOWN BEFORE LCNEGOTIAION PAYMENT WILL BE EFFECTED AGAINST THE PROVISIONALINVOICE PROVIDED BY THE SELLER SUCH PROVISIONAL PRICE SHALL BEBASED ON THE ABOVE PRICE CLAUSE WITH ALL AVAILABLE QUOTATIONSAT THE TIME OF INVOICINGWHEN THE FINAL PRICE IS KNOWN THE DIFFERENCE OF THE ACTUALAMOUNT AND THE PROVISIONAL AMOUNT IS TO BE SETTLED OUTSIDETHE IRREVOCABLE DOCUMENTARY LETTER OF CREDIT BETWEENBENEFICIARY AND APPLICANT BY TELEGRAPHIC TRANSFER PAYMENTWITHIN FIVE 5 NEW YORK BANKING DAYS UPON THE RECEIPT OFSUCH FINAL SETTLEMENT INVOICE BY THE APPLICABLE PARTYTHE PROVISIONALFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3DECIMAL PLACESWITH THE THIRD DECIMAL PLACE TO BE INCREASED TOTHE NEXT DIGIT WHENEVER THE FOURTH DECIMAL PLACE IS FIVE ORGREATER THAN FIVEANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNT </t>
   </si>
   <si>
     <t xml:space="preserve"> PP SHEET 0104 RIGID PVC 0506 AS PER PO 20211516 C I F SINGAPORE </t>
   </si>
   <si>
+    <t xml:space="preserve"> FOB ANY SEAPORT IN TAIWANEVA 7350M VIRGIN RESIN 25MT AT USD257000MT </t>
+  </si>
+  <si>
     <t xml:space="preserve"> TAIRILIN BRAND PET CHIPS B GRADEJNNC7 57000KGSFCA ANY TAIWANESE PORT </t>
   </si>
   <si>
     <t xml:space="preserve"> TERMS OF PRICE FOB OR FCA TAIWANCOUNTRY OF ORIGIN TAIWAN BUYER ATHLETA PROFORMA INVOICE NOATHB1145001145T00 ATHB114500PP1145T00PPFABRICS ORDER </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 1 X 20 FCL CONSISTING OF 18 MTS OF ABS AG15A1H AT USD2320MT USD4176000INCOTERMS 2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIP SHENZHEN CHINA1 1 X 20 FCL CONSISTING OF 8 MTS OF ABS AG15A1H AT USD2420MT USD1936000 10 MTS OF GPPS 5250 AT USD1470MT 1470000INCOTERMS 2010 </t>
+    <t xml:space="preserve"> 113652 KGS NYLON 6 HIGH TENACITY FILAMENT YARN 1260D210F ASPER PO 172552 DT 25092021 AND PI NO 5V09241 DT 24092021HS CODE 54021910 INCOTERMS 2010 CIF CHENNAI PORT INDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PURIFIED ISOPHTHALIC ACIDQTY100 MT PRICEUSD 1120 MTAS PER SALES CONTRACT NOSAE11 DATED 24SEP2021INCOTERMS 2020 CIF NHAVA SHEVA INDIA </t>
   </si>
   <si>
     <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 1 X 20 FCL CONSISTING OF 20 MTS OF POM FM090 AT USD2450MT USD4900000 HS CODE 39071000INCOTERMS 2010 </t>
@@ -82,19 +82,25 @@
     <t xml:space="preserve"> EPOXIDIZED SOYABEAN OIL ESO132X QUANTITY 18MTALL OTHER DETAILS ARE AS PER BENEFICIARYS PROFORMA INVOICENONE91209 DATED 15 SEPTEMBER 2021CIF JEBEL ALI PORT UAE </t>
   </si>
   <si>
-    <t xml:space="preserve"> QUANTITY 5 PERCENTAGE MORE OR LESS ALLOWED1301 CARTONS OF HDPE PRODUCE ROLL BAGS DETAILS AS PER APPLICANTS ORDER SR NO97537FOB TAIWANESE PORT </t>
-  </si>
-  <si>
     <t xml:space="preserve"> QTY 14364 KGSNYLON 6 FILAMENT YARN 170D24F SEMI DULL RAW WHITE ON CHEESEAS PER PO NO 5V09272 DT 27092021TERMS OF SALE CIF NHAVA SHEVA SEAPORT INDIA INCOTERMS 2020 </t>
   </si>
   <si>
-    <t xml:space="preserve">  COMMODITY PURIFIED TEREPHTHALIC ACID QUANTITY 1600 MTS UNIT PRICE USD69000MT TRADE TERMSCIF ANY PORT IN HOCHIMINH CITY VIETNAM INCOTERMS 2020 TOTAL AMOUNT USD 110400000 COUNTRY OF ORIGIN TAIWAN PACKING 20 MTS PER 20 CONTAINER </t>
+    <t xml:space="preserve"> ACETO NITRILE ASSAY MIN 99 PCT MIN MAKE FORMOSA PLASTICSCORPORATION QTY 255000 KGS AT THE RATE USD 390 KG AS PERINDENT NO PA13845 DT 27092021 AND PO NO 1570420023 DT24092021 CIF VIZAG INDIA BY SEA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACETO NITRILE ASSAY MIN 99 PCT MIN MAKE FORMOSA PLASTICSCORPORATION QTY 170000 KGS AT THE RATE USD 395 KG AS PERINDENT NO PA13844 DT 27092021 AND PO NO 1530422166 DT23092021 CIF VIZAG INDIA BY SEA </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITY AND  QUANTITY UNIT PRICE  TOTAL AMOUNTDESCRIPTION  COPOLYMER   20800  130000  27040000PROPYLENE GRADE K8009TOTAL    20800     27040000CIF HAIPHONG PORT VIETNAM AS INCOTERMS 2010PACKING IN EXPORTPACKING STANDARDORIGIN TAIWANALL OTHER DETAILS ARE AS PER CONTRACT NO 202109131MTHN DATEON 29092021 </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 1 X 20 FCL CONSISTING OF18 MTS OF HIPS 8250 AT USD1620MT USD2916000INCOTERMS 2010 </t>
+    <t xml:space="preserve"> 300000 BBLS 10PCT OF GASOIL 10PPMCOUNTRY OF ORIGIN TAIWANTERMS OF PRICE FOB MAILIAOTAIWANUNIT PRICE THE FOB MAILIAOTAIWAN PRICE IN USD PER BBLFOB PRICE EQUAL TO X MINUS USD023 PER BARRELWHERE X EQUAL TO THE WHOLE MONTH ARITHMETIC AVERAGE OF NOVEMBER2021 MEAN OF PLATTS FOR GASOIL 10PPMS UNDER THE HEADINGSINGAPOREPUBLISHED IN THE PLATTS ASIA PACIFICARAB GULFMARKETSCAN OF PLATTS QUOTATIONSIN THE EVENT THAT THE FINAL PRICE IS NOT KNOWN BEFORE LCNEGOTIAION PAYMENT WILL BE EFFECTED AGAINST THE PROVISIONALINVOICE PROVIDED BY THE SELLER SUCH PROVISIONAL PRICE SHALL BEBASED ON THE ABOVE PRICE CLAUSE WITH ALL AVAILABLE QUOTATIONSAT THE TIME OF INVOICINGWHEN THE FINAL PRICE IS KNOWN THE DIFFERENCE OF THE ACTUALAMOUNT AND THE PROVISIONAL AMOUNT IS TO BE SETTLED OUTSIDETHE IRREVOCABLE DOCUMENTARY LETTER OF CREDIT BETWEENBENEFICIARY AND APPLICANT BY TELEGRAPHIC TRANSFER PAYMENTWITHIN FIVE 5 NEW YORK BANKING DAYS UPON THE RECEIPT OFSUCH FINAL SETTLEMENT INVOICE BY THE APPLICABLE PARTYTHE PROVISIONALFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3DECIMAL PLACESWITH THE THIRD DECIMAL PLACE TO BE INCREASED TOTHE NEXT DIGIT WHENEVER THE FOURTH DECIMAL PLACE IS FIVE ORGREATER THAN FIVEANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLYPROPYLENE RESIN YUNGSON 300516 MT AT USD1340MTTRADE TERM CIF HONG KONGFOR SHIPMENT TO HONG KONGETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3040C25 MT AT USD1345MTTRADE TERM CIF DONGGUAN CHINAFOR SHIPMENT TO DONGGUAN CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32472 KGS NYLON 6 HIGH TENACITY FILAMENT YARN 1260D210F AS PERPO NO 172630 DT 27092021 AND PI NO 5V09242 DT 24092021HS CODE 54021910 INCOTERMS 2010 CIF CHENNAI PORT INDIA </t>
   </si>
   <si>
     <t xml:space="preserve"> PP1202F 1575 MT AT USD1250MTPP2020S 225 MT AT USD1260MTFOB ANY TAIWAN PORT </t>
@@ -106,7 +112,7 @@
     <t xml:space="preserve"> TAIRILIN BRAND PET CHIPS B GRADEJNNC 1710000KGSFCA ANY TAIWANESE PORT </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF YANTIAN CHINA1 1 X 20 FCL CONSISTING OF 18 MTS OF SAN NF2200 AT USD1810MT USD3258000INCOTERMS 2010 </t>
+    <t xml:space="preserve"> 25 MTS POLYPROPYLENE RESIN GRADE NO K1023CIF LAEMCHABANG THAILAND </t>
   </si>
   <si>
     <t xml:space="preserve"> 2 ETHYL HEXANOL 2EH QUANTITY 2000 MT 1 ISO TANK AT RATE USD 232000 PER MT INCOTERMS 2020CIF MUNDRA PORTINDIAAS PER APPLICANT PONO202122EIPLIMPWRR59B DATED 29092021 AND AS PER PROFORMA INVOICE NO NK1975 DATED 28092021 OF THE BENEFICIARY </t>
@@ -121,33 +127,18 @@
     <t xml:space="preserve"> EPOXY RESIN NPEL127HBENEFICIARY MUST CERTIFY ON INVOICES THAT THE GOODS AND ALLOTHER DETAILS ARE EXACTLY AS PER APPLICANTS PURCHASE ORDERNOO12000953 AND BENEFICIARY PI NUMBER PF0922INCO TERMS 2020 CIF DAMMAM SAUDI ARABIA </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 2 X 20 FCL CONSISTING OF 36 MTS OF ABS AG15A1H AT USD2330MT USD8388000INCOTERMS 2010 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> OTHERS </t>
   </si>
   <si>
-    <t xml:space="preserve">  COMMODITY PURIFIED TEREPHTHALIC ACID QUANTITY 1600 MTS UNIT PRICE USD690MT TOTAL AMOUNT USD110400000 COUNTRY OF ORIGIN TAIWAN PACKING 20 MTS PER 20 CONTAINER TRADE TERM CIF CAT LAI PORT HOCHIMINH CITY VIETNAM </t>
-  </si>
-  <si>
     <t xml:space="preserve"> GLASS FABRICSCIF JAPANESE MAIN PORT </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1COMMODITY HIPS HP8250 QUANTITY 500MT UNIT PRICE USD1600MT CONTRACT NO Y91102COMMODITY HIPS HP8250 QUANTITY 1000MT UNIT PRICE USD1580MT CONTRACT NO Y9111ORIGINTAIWANPACKINGIN 25 KGS BAGSPRICE TERM CIF MAINLAND MAIN PORT CHINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14 BUNTANEDIOL QTY 6000 MT AT THE RATE USD 460000MTSAS PER PO NO7540000391 DATED 06OCT2021INCOTERMS 2020 CIF NHAVA SHEVA INDIA </t>
+    <t xml:space="preserve"> POLYPROPYLENE RESIN GRADE NOB1101QUANTITY 500MTSUNIT PRICE USD127000MTCONTRACT NO S9031TOTAL AMOUNT USD63500000PRICE TERM CIF QINGDAO PORT CHINAPACKING 25KGSBAG </t>
   </si>
   <si>
     <t xml:space="preserve"> APPLICANTS PO NO OP2109049OR21353 DATE 30092021RAW MATERIAL RESIN COMPOUND AS FOLLOWPOLYPROPYLENE RESIN YUNGSOX 5090T QTY 16000KG AT USD1435KG C I F HENG GANG CHINA </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1 COMMODITY POLYPROPYLENE GRADE K10112 QUANTITY 4800 MTS 3 UNIT PRICE USD133000MT4 TOTAL AMOUNT USD6384000 5 TRADE TERMS CIF HAIPHONG PORT VIETNAM 6 PACKING IN EXPORT PACKING STANDARD7 ORIGIN TAIWAN8 OTHER TERMS AND CONDITIONS AS PER CONTRACT NO 202110137MTHNDATE 06102021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TERMS OF PRICE CIF BUSAN PORTCOUNTRY OF ORIGIN TAIWAN ROCGLASS FIBER YARNECG7510TECG7510B9 </t>
-  </si>
-  <si>
     <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 1 X 20 FCL CONSISTING OF 20 MTS OF POM FM090 AT USD2510MT USD5020000INCOTERMS 2010 </t>
   </si>
   <si>
@@ -160,24 +151,12 @@
     <t xml:space="preserve"> EPOXIDIZED SOYABEAN OIL ESO132XQUANTITY 36MTALL OTHER DETAILS AS PER BENEFICIARYS PROFORMA INVOICE NONE91225 DATED 28092021SHIPMENT TERMS CIF JEBEL ALI SEAPORT DUBAI UAE INVOICE TOCERTIFY THE SAME </t>
   </si>
   <si>
-    <t xml:space="preserve">  COMMODITY GPPS GRADE GP525N PACKING 25KGS NET IN BAG 18MTS NET LOOSE STOWED IN20FT CONTAINER ORIGIN TAIWAN QUANTITY 36 MTS UNIT PRICE 146500 USDMT TOTAL AMOUNT USD5274000ALL OTHER TERMS AND CONDITIONS AS PER CONTRACT NO21101134VNCD DATED OCT 08 2021TRADE TERM CIF CAT LAI PORT VIETNAM INCOTERMS 2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CIF LONG BEACH OR LOS ANGELES CALIFORNIA USA5118 SHEETS OF COPPER CLAD LAMINATE MATERIALSCERTIFYING THAT MERCHANDISE HAS BEEN MARKED IN ACCORDANCE WITHAPPLICABLE CUSTOMS REGULATIONS AND IS IN ACCORDANCE WITH PURCHASEORDER NUMBER FCT91328 AND INDICATING FOB VALUE FREIGHT CHARGESAND INSURANCE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 75 MTS 3000 BAGS EVA RESIN 7350M AT USD312000MT CIF HUANGPU NEW PORT CHINA PORT OF DISCHARGE HUANGPU NEW PORT CHINA2 50 MTS 2000 BAGS EVA RESIN 7470M AT USD322000MT CIF HUANGPU NEW PORT CHINA PORT OF DISCHARGE HUANGPU NEW PORT CHINA3 16 MTS 640 BAGS EVA RESIN 7350M AT USD258500MT CIF HUANGPU NEW PORT CHINA PORT OF DISCHARGE HUANGPU NEW PORT CHINA4 9 MTS 360 BAGS EVA RESIN 7350M AT USD312000MT CIF HUANGPU NEW PORT CHINA PORT OF DISCHARGE HUANGPU NEW PORT CHINA5 75 MTS 3000 BAGS EVA RESIN 7350M AT USD312000MT CIF TAIPING PORT CHINA PORT OF DISCHARGE TAIPING PORT CHINA6 50 MTS 2000 BAGS EVA RESIN 7470M AT USD323000MT CIF CATLAI VIETNAM PORT OF DISCHARGE CATLAI VIETNAM7 25 MTS 1000 BAGS EVA RESIN 7470M AT USD299500MT CIF CATLAI VIETNAM PORT OF DISCHARGE CATLAI VIETNAMPACKING 25 KGS PER BAG </t>
-  </si>
-  <si>
     <t xml:space="preserve"> POLYESTER STAPLE FIBER QUANTITY 23000 KGS 4D X 51MM LOW MELT USD 156 PER KG CFR KARACHI AS PER BENEFICIARYS PROFORMA INVOICE REF NO NA178 DATED 13102021 </t>
   </si>
   <si>
     <t xml:space="preserve"> PRICE TERM C I F HONG KONGPA6 100PER CENT PRECONSUMER RECYCLED NYLON AA GRADEDTY 40D34FZ FD QTY 11520 KGS AT USD689KGAS PER PO NO POM210818004 </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 7 X 20 FCL CONSISTING OF 126 MTS OF HIPS 8250 AT USD1620MT USD20412000INCOTERMS 2010 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY2500MTSUNIT PRICE USD133000MTTRADE TERM CIF WUHAN PORTCHINA </t>
   </si>
   <si>
@@ -190,52 +169,43 @@
     <t xml:space="preserve"> NO DESCRIPTION OF GOODS      QTY SHEET1 LAMINATE FR4 038MM 22 SIZE 1045 X 1245MM NP155F 2002 LAMINATE FR4 038MM 33 SIZE 1092 X 1245MM NP155F 1003 LAMINATE FR4 035MM 22 SIZE 940 X 1245MM HSINK   NP175FBH      24004 LAMINATE FR4 150MM HH SIZE 681 X 1245MM TG150   NP155FR       14405 LAMINATE FR4 035MM 22 SIZE 940 X 1245MM HSINK   NP175FBH      35006 LAMINATE FR4 046MM 22 SIZE 1092 X 1245MM TG150   NP155F       17007 LAMINATE FR4 046MM 22 SIZE 1092 X 1245MM TG150   NP155F       40008 LAMINATE FR4 071MM 11 SIZE 1092 X 1245MM HSNK   NP175FBH       1009 LAMINATE FR4 160MM HH SIZE 940 X 1245MM   NP175FBH       100ALL DETAILS AS PER PO 134115726413411575041341156829 AND1341157171NO DESCRIPTION OF GOODS      QTY ROLL1 PREPREG7628 RC45 SIZE 1250MM X 150M TG150 NPG151B  202 PREPREG2116HR RC60 SIZE 1250MM X 200M NP155FB   53 PREPREG2116MR RC54 SIZE 1250MM X 300M NP140B   94 PREPREG2116 RC56 SIZE 1250MM X 300M TG150 NPG151B  135 PREPREG2116 RC60 SIZE 1250MM X 200M HSINKNP175FBH  166 PREPREG7628 RC43 SIZE 1250MM X 150M NP140B   97 PREPREG7628 RC49 SIZE 1250MM X 150M TG150 NP155FB  78 PREPREG7628 RC49 SIZE 1250MM X 150M TG150 NPG151B  19 PREPREG7628 RC52 SIZE 1250MM X 150M HSINKNP175FBH  5110 PREPREG2116 RC56 SIZE 1250MM X 300M NP155FB   3611 PREPREG2116 RC60 SIZE 1250MM X 200M HSINKNP175FBH  1612 PREPREG7628 RC52 SIZE 1250MM X 150M HSINKNP175FBH  1813 PREPREG2116 RC56 SIZE 1250MM X 300M NP155FB   24ALL DETAILS AS PER PO 134115717013411572951341157294 AND1341156939CIF LAEMCHABANG DELIVERY TO ICD LATKRABANG INCOTERMS 2020 </t>
   </si>
   <si>
-    <t xml:space="preserve"> PRODUCT PURIFIED TEREPHTHALIC ACID QUANTITY 75020 MT PACKING1100KG NET PP WOVEN BAG WITH PE INNER BAG UNIT PRICE USD 74500PMT TOTAL AMOUNT USD 55889900 PROFORMA INVOICE NO MA090DATE 13102021 INCOTERMS FOB TAIWAN ITC HS CODE OF GOODS29173600 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIP GUANYAO CHINA1 2 X 20 FCL CONSISTING OF 36 MTS OF HIPS 8250 AT USD1630MT USD5868000INCOTERMS 2010 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> POLYESTER FILM PO NAKNQPRICE TERMS CIF HAIPHONG VIETNAMWITH CONTAINER SHIPMENT </t>
   </si>
   <si>
     <t xml:space="preserve"> BASE OIL 380N 800MT 5 PCT AT 1203 USDMTBASE OIL 380N 300MT 5 PCT AT ICIS PRICING GII 500NFOB NE ASIA MEAN 78 USDMTPACKING IN BULKFOB MAILIAO TAIWAN </t>
   </si>
   <si>
-    <t xml:space="preserve"> ITEM     QUANTITY UNIT PRICE AMOUNT      KG  USDKG USD      10   10PSF 4D X 51MM LOW MELT  115000 128  14720000 PACKING 270 10 KGBAG TOTAL AMOUNT USD14720000 10 TRADE TERMSCIF CAT LAI PORT HOCHIMINH CITY VIETNAM INCOTERM 2010 ORIGIN TAIWAN OTHER TERMS AND CONDITIONS AS PER PURCHASE AND SALE CONTRACT NON9189 DATED 29 SEP 2021 </t>
+    <t xml:space="preserve"> FOB ANY SEAPORT IN TAIWANEVA 7350M VIRGIN RESIN 50MT AT USD350500MT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NYLON 6 HIGH TENACITY YARNN8800 KGSNAS PER PROFORMA INVOICE NO 5V10143 DATED 15 OCT 2021NDELIVERY TERMS CIF GENOVA PORT ITALYNICCINCOTERMSR2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PBT 1512EBN1  QTY 975KGS UNIT PRICE USD427KG PP 3200T4FNC1 QTY 6800KGS UNIT PRICE USD225KG PBT 1512EBN1  QTY 1000KGS UNIT PRICE USD430KG PA66 6212G2FNC1 QTY 1000KGS UNIT PRICE USD715KG PBT 1512EBN1  QTY 3000KGS UNIT PRICE USD430KG PA66 6212G2FNC1 QTY 2000KGS UNIT PRICE USD715KG PA66 6410G3ABK2 QTY 4000KGS UNIT PRICE USD782KGTOTAL AMOUNT USD8939325CIF TO DOOR ZHANGMUTOUCHINA </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITY HDPE 8010QUANTITY225MTSUNIT PRICEUSD121000MTPRICE TERM FOB ANY PORT OF TAIWANGOODS ORIGIN TAIWANPACKING 25KG PER BAG BY MANUFACTURERMANUFACTURERFORMOSA </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF YANTIAN CHINA1 2 X 20 FCL CONSISTING OF 36 MTS OF GPPS 525N AT USD1540MT USD5544000INCOTERMS 2010 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> CFR KARACHI SEAPORT PAKISTAN INCOTERMS 20201 QTY 6400 MTONS EPOXIDIZED SOYABEAN OIL ESO132X FOR PVCSYNTHETIC LEATHER INDUSTRY AT USD 202000 PER MTONCOMPLETE DETAILS AS PER INDENT NO 2170421 DATED15OCTOBER2021 OF MS TRANSCONTINENTAL AGENCIES KARACHIPAKISTAN </t>
   </si>
   <si>
+    <t xml:space="preserve"> POLYPROPYLENE RESIN GRADE NOT1002QUANTITY 25MTSUNIT PRICE USD137500MTCONTRACT NO SA020TOTAL AMOUNT USD3437500PRICE TERM CIF QINGDAO PORT CHINAPACKING 25KGSBAG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMODITY POLYPROPYLENE RESIN GRADE   QUANTITY  UNIT PRICE       KGS  USDKG T2502   24000   136 TOTAL AMOUNT USD3264000 ORIGIN  TAIWAN MAKER  FORMOSA CHEMICALS AND FIBRE CORP TRADE TERM CIF ANY PORT IN HOCHIMINH CITY VIETNAM   INCOTERMS 2020 PACKING IN STANDARD EXPORT PACKING </t>
+  </si>
+  <si>
     <t xml:space="preserve"> GLASS EPOXY COPPER CLAD LAMINATESAS PER PROFORMA INVOICE NOIMP21220107 DT 26082021HS CODE 74091900TRADE TERMSCIP BANGALORE ICDINDIAAS PER INCOTERM 2010 </t>
   </si>
   <si>
     <t xml:space="preserve"> TAIRILIN BRAND PET CHIPS B GRADEJNNC7 760000 KGSJNNCB 190000 KGSTAIRILIN BRAND PET CHIPS B GRADE950000 KGSTAIRILIN BRAND PET CHIPS B GRADE950000 KGSCIF SHANGHAI PORT CHINA </t>
   </si>
   <si>
-    <t xml:space="preserve">  COMMODITY METHYL METHACRYLATE MMA QUANTITY 210 MTS 5PCT UNIT PRICE USD2020MT TOTAL AMOUNT USD424200 5PCT ORIGIN TAIWAN MANUFACTURER FORMOSA PLASTICS CORP PACKING IN ISOTANK QUALITY AND INSPECTION AS PER EXPORT STANDARDINHIBITOR REQUIRED TA 10 PPM TRADE TERM CIF HO CHI MINH CITY VIET NAM INCOTERMS 2010 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> COPPER CLAD LAMINATEAS PER PROFORMA INVOICE NO TDPI211019 DATE 19OCT2021 </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 2 X 20 FCL CONSISTING OF 36 MTS OF ABS AG15A1H AT USD2340MT USD8424000INCOTERMS 2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMODITY QUANTITY  UNIT PRICEDOTP  2100 MT 5 USD186500MTFOB ANY PORT IN TAIWAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 1 X 20 FCL CONSISTING OF 18 MTS OF ABS AG15A1H AT USD2330MT USD4194000INCOTERMS 2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIP DONGGUAN CHINA1 1 X 20 FCL CONSISTING OF 18 MTS OF ABS AG15A1H AT USD2340MT USD4212000INCOTERMS 2010 </t>
+    <t xml:space="preserve"> FOB ANY PORT IN TAIWANEVA 7470M PRIME VIRGIN 15MT AT USD320500MT </t>
   </si>
   <si>
     <t xml:space="preserve"> COVERING 100 PERCENT OF INVOICE VALUE OF GOODS ANDOR SERVICESDESCRIBED ASABS RESINS REF PO 45680358GRADE NO AE8000 21 MTGRADE NO ANC100 BLACK 2 MTGRADE NO AC2501AF 1 MTCIF VANCOUVER CANADA INCOTERMS 2020 </t>
@@ -247,7 +217,7 @@
     <t xml:space="preserve"> COPPER FOILCIF JAPANESE MAIN PORT </t>
   </si>
   <si>
-    <t xml:space="preserve"> TERMS OF PRICE FOB KAOHSIUNGCOUNTRY OF ORIGIN TAIWANSANGRADE NONF2200QUANTITY 16 MTUNIT PRICE USD179000MT </t>
+    <t xml:space="preserve"> 32000 KGS OF EPOXYDIZED SOYBEAN OIL ESBO 132 IN DRUMAT USD 181KGIN GOOD QUALITYCONTRACTORDER NO POTUIM21X239CIF SURABAYAORIGIN COUNTRY TAIWAN </t>
   </si>
   <si>
     <t xml:space="preserve"> TERMS OF SALE CIF NHAVA SHEVA PORT INDIAGLACIAL ACRYLIC ACID TOTAL 1 FCL 1600 MTS 1 FCL 1600MTS IS EQUAL TO 80 DRUMS X 200 KGSAS PER SALES CONTRACT NO 12D1B001 DATED 28092021 </t>
@@ -259,30 +229,30 @@
     <t xml:space="preserve"> COUNTRY OF ORIGIN TAIWANPRICE TERMS CIF SOUTH KOREA ANY PORTNANYA PRODUCTSPVC CLEAR RIGID SHEET AND ANOTHER ITEMSINVOICE NO PI20211026 </t>
   </si>
   <si>
-    <t xml:space="preserve"> TERMS OF PRICE CFR189MT OF DOPAS PER PROFORMA INVOICE NO PI 87361 DD OCT192021MANUFACTURER NAN YA PLASTICS CORPORATIONORIGIN TAIWANFINAL DESTINATION UGANDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TERMS OF PRICE CIF BUSAN PORTCOUNTRY OF ORIGIN TAIWAN ROCGLASS FIBER YARNECG7510TECG7510BECG7510B9 </t>
+    <t xml:space="preserve"> PRODUCT PROCESS OIL 70NPRICING 200MT 5PCTAT ICIS PRICING GII 150N FOB NE ASIA MEAN 0 USDMTPACKING IN FLEXIBAGTHE PRICING WEEK OF THE LOADING MONTH M IS THE WEEK OFPREVIOUS ONE MONTH M1 THAT 20TH DATE LIES INFOR INSTANCE THE PRICING WEEK FOR 2020FEBRUARYSLIFTING IS THE WEEK OF JANUARY 20TH 2020IN CASE THERE IS NO ICIS QUOTATION PUBLISHED IN THE PRICINGWEEK THEN THE LATEST EFFECTIVE ICIS QUOTATION PRECEDINGTHE PRICING WEEK IS AUTOMATICALLY APPLIEDTHE WEEK DEFINITION IS FROM SUNDAY 0000 HRS TO THE COMINGSATURDAY 2359 HRSANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONSSHALL BE TAKEN INTO ACCOUNTFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3 DECIMAL PLACESTRADE TERMFCA ANY PORT IN TAIWAN </t>
   </si>
   <si>
     <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERSPP COPOLYMER YUNGSOX 3080AT USD1320MTCIF SHANGHAI PORT CHINA </t>
   </si>
   <si>
-    <t xml:space="preserve"> PP 1040F  QTY 2475 MT AT USD1230MTFOB ANY TAIWANESE PORT </t>
-  </si>
-  <si>
     <t xml:space="preserve"> COUNTRY OF ORIGIN TAIWANPRICE TERMS CIF SOUTH KOREA ANY PORTNANYA PRODUCTSPVC CLEAR RIGID SHEET AND ANOTHER ITEMSINVOICE NO PI20211029 </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF CHATTOGRAM BANGLADESH1 1 X 20 FCL CONSISTING OF 18 MTS OF ABS AG15A1H AT USD2430MT USD4374000INCOTERMS 2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 3 X 20 FCL CONSISTING OF 54 MTS OF ABS AG15A1H AT USD2330MT USD12582000INCOTERMS 2010 </t>
+    <t xml:space="preserve"> 48000 KGS OF EPOXYDIZED SOYBEAN OIL ESBO 132 IN DRUMAT USD 184KGIN GOOD QUALITYCONTRACTORDER NO POTUIM21X249CIF JAKARTAORIGIN COUNTRY TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUANTITY 1000000MT 5PCT AT USD199000MTISO NONYL ALCOHOLPACKING IN BULKSPECIFIC GRAVITY MAX 0839FOB MAILIAO TAIWAN </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITY TOTMQUANTITY 42MT 5PCT2FCLUNIT PRICE USD2480MTTOTAL AMOUNT USD 10416000 5PCT CIF HAI PHONG PORTVIETNAMORIGIN TAIWANTOLERANCE 5PCT OF TOTAL QUANTITY AND AMOUNT ARE ACCEPTABLE </t>
   </si>
   <si>
+    <t xml:space="preserve">  COMMODITY POLYPROPYLENE RESIN GRADE   QUANTITY  UNIT PRICE       KGS  USDKG B1101   48000   1435 TOTAL AMOUNT USD68880 ORIGIN  TAIWAN MAKER  FORMOSA CHEMICALS AND FIBRE CORP TRADE TERM CIF ANY PORT IN HOCHIMINH CITY VIETNAM   INCOTERMS 2020 PACKING IN STANDARD EXPORT PACKING </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHIPMENT TERMSCIFJEBEL ALI UAEPRODUCT 1 PVC GRADE S65DQUANTITY 72 MTSUNIT PRICE USD 1940 PER MT PER VINMAR PO 471009901PACKING 25 KGS BAG WITH PALLET </t>
+  </si>
+  <si>
     <t xml:space="preserve"> CONTRACT 013522RN1X40FCL HQRN22000 KG TAIRILIN 7DX64MM HOLLOW CONJUGATE POLYESTER FIBERRNNONSILICONE SLICK TYPE 128 USDKGRN1X40FCL HQRN4000 KG TAIRILIN 2DX32MM HOLLOW CONJUGATE POLYESTER FIBERRNSILICONE TYPE 150 USDKGRN14000 KG TAIRILIN 7DX64MM HOLLOW CONJUGATE POLYESTER FIBERRNSILICONE TYPE 128 USDKGRN4000 KG TAIRILIN 7DX64MM HOLLOW CONJUGATE POLYESTER FIBERRNNONSILICONE SLICK TYPE 128 USDKGRNF O B ANY PORT IN TAIWAN </t>
   </si>
   <si>
@@ -292,22 +262,16 @@
     <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 1 X 20 FCL CONSISTING OF 20 MTS OF POM FM090 AT USD2760MT USD5520000INCOTERMS 2010 </t>
   </si>
   <si>
-    <t xml:space="preserve"> QUANTITY 5 PERCENTAGE MORE OR LESS ALLOWED896 CARTONS OF HDPE PRODUCE ROLL BAGS DETAILS AS PER APPLICANTSORDER SR NO11676FOB TAIWANESE PORT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMODITY QUANTITY  UNIT PRICEDOTP  10500 MT5 USD190000MTFOB ANY PORT IN TAIWAN </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 20 MT DOAAT USD 230000MTTOTAL AMOUNT  USD 4600000TYPE OF GOODS LIQUIDHS NO   29171210CONTRACT NO  NL1A31COUNTRY OF ORIGIN TAIWANSHIPPING TERMS  CIF TANJUNG PRIOK JAKARTA </t>
   </si>
   <si>
+    <t xml:space="preserve"> CIF PORT KLANG MALAYSIA2000 MT 2 ETHYL HEXANOL AT USD 2080MT </t>
+  </si>
+  <si>
     <t xml:space="preserve"> COMMODITY BPA BISPHENOLAQUANTITY 510MTSCONTRACT NO 4500299594TOTAL VALUE USD142800000PRICE TERM CIF YANTAI PORT CHINA INCOTERMS 2010 EDITIONS </t>
   </si>
   <si>
-    <t xml:space="preserve"> CFR ANY JAPANESE PORTRNABS AF3510 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  COMMODITY EVA PLASTIC RAW MATERIAL FOR SHOE SALES PRODUCTEVA TAISOX 7470M ORIGIN TAIWAN QUANTITY 25MTS UNIT PRICE 393000 USDMT PACKING 25KG BAG WITHOUT PALLET OTHER DETAILS AS PER SALES CONTRACT H0DQ84 DATED OCT 29TH 2021INQUIRY NO 18D21102702 TRADE TERM CIF CAT LAI PORT INCOTERMS 2010 TOTAL AMOUNT USD 9825000 </t>
+    <t xml:space="preserve"> FOB ANY PORT IN TAIWANEVA 7350M PRIME GRADE 50MT AT USD350500MT </t>
   </si>
   <si>
     <t xml:space="preserve"> POLYESTER FILM PO NBKNBPRICE TERMS CIF HAIPHONG VIETNAMWITH CONTAINER SHIPMENT </t>
@@ -322,7 +286,7 @@
     <t xml:space="preserve"> RESIN NPEL 128 QTY 38400 KGS AT USD 4880 PER KGCIF JEDDAH </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 4 X 20 FCL CONSISTING OF72 MTS OF HIPS 8250 AT USD1620MT USD11664000INCOTERMS 2010 </t>
+    <t xml:space="preserve"> FOB ANY PORT IN TAIWANPP 1040F FORMOSA 50MT AT USD135000MT </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITYNAN YA RELEASE FILMPET L130CQUANTITY480RLUNIT PRICEUSD25200RLPRICE TERMCIF SHEKOU OR YANTIANCHINATOTAL VALUEUSD12096000 </t>
@@ -331,22 +295,19 @@
     <t xml:space="preserve"> QTY 14364 KGSNYLON 6 FILAMENT YARN 170D24F SEMI DULL RAW WHITE ON CHEESEAS PER PO NO 5V11013 DT 01112021TERMS OF SALE CIF NHAVA SHEVA SEAPORT INDIA INCOTERMS 2020 </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITY QUANTITY UNIT PRICEDOTP  4800 MT USD185500MTFOB ANY PORT IN TAIWAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF SIHANOUKVILLE CAMBODIA1 1 X 20 FCL CONSISTING OF 18 MTS OF ABS AG15A1H AT USD2360MT USD4248000INCOTERMS 2010 </t>
+    <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY75MTSUNIT PRICEUSD138000MTPRICE TERMCIF SHANGHAICHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1EVA 7350MQUANTITY 150 MTUNIT PRICE USD3435MT FOB TAIWANUNDER SALES CONTRACT H0FP08DETAILS ARE AS PER THE APPLICANTS SHIPPING INSTRUCTIONTRADE TERM FOB ANY PORT TAIWAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY 1600MT UNIT PRICE USD140000MTPRICE TERM CIF QINGYUAN PORT CHINA </t>
   </si>
   <si>
     <t xml:space="preserve"> 1560 MTS1 FCL OF METHACRYLIC ACIDRNMAKE FORMOSA PLASTICS CORPORATIONRNAT USD 310000 PER MT CIF NHAVA SHEVA PORT INDIARNAS PER PROFORMA INVOICE DTD 29102021 </t>
   </si>
   <si>
-    <t xml:space="preserve"> TERMS OF PRICE CFRDOPAS PER PROFORMA INVOICE NO PI 8736 DD OCT192021MANUFACTURER NAN YA PLASTICS CORPORATIONORIGIN TAIWANFINAL DESTINATION UGANDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 1 X 40 FCL CONSISTING OF 24 MTS OF PC AC3610 AT USD4150MT USD9960000INCOTERMS 2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 1 X 20 FCL CONSISTING OF 18 MTS OF HIPS 8250 AT USD1650MT USD2970000INCOTERMS 2010 </t>
+    <t xml:space="preserve"> CFR ANY JAPANESE PORTPP 3307UNC1 </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITYNAN YA RELEASE FILMPET L130CQUANTITY216RLUNIT PRICEUSD25200RLPRICE TERMCIF SHEKOU OR YANTIANCHINATOTAL VALUEUSD5443200 </t>
@@ -355,19 +316,19 @@
     <t xml:space="preserve"> TERMS OF PRICE FOB TAIWAN PORTCOUNTRY OF ORIGIN TAIWAN PROVINCE OF CHINANAN YA RELEASE FILM </t>
   </si>
   <si>
-    <t xml:space="preserve"> 107500 KGS OF VISCOSE STAPLE FIBRE TAIRIYON BRAND 125DX51MM BRIGHT HIGH TENACITY RAW WHITE A GRADE AT THE RATE OF USD 220KG DETAIL DESCRIPTION OF GOODS QUANTITY QUALITY AND UNIT PRICE AS PER BENEFICIARY PROFORMA INVOICE NO FCFC2020366 DATED 11112021 CFR KARACHI SEAPORT PAKISTAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMODITY DIC9C11PHTHALATE911PQUANTITY 60MT 5UNIT PRICE USD237000MTPACKING ISOTANKPRICE TERM FOB TAICHUNG TAIWAN </t>
+    <t xml:space="preserve"> DELIVERY TERMS CIF VALENCIA PORT SPAIN INCOTMERS 2020COVERING NYLON 6 HIGH TENACITY YARN840D28F DOPE DYED BLACK ON CHEESEQUANTITY 1797840 KGS AT 450 USDKG1260D42F DOPE DYED BLACK ON CHEESEQUANTITY 1797840 KGS AT 450 USDKG1680D56F DOPE DYED BLACK ON CHEESEQUANTITY 3595680 KGS AT 450 USDKGAS PER PROFORMA INVOICE NO 5V10282 DATE OCT 282021 </t>
   </si>
   <si>
     <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY2500MTSUNIT PRICE USD140000MTTRADE TERMCIF WUHAN PORTCHINA </t>
   </si>
   <si>
+    <t xml:space="preserve"> COMMODITY 911PQUANTITY 32MTUNIT PRICE USD252500MTTOTAL AMOUNT USD8080000PACKING 200KG NET IN A NEW DRUM 160 DRUMS32MTORIGIN TAIWANPRICE TERM CIF NINGBO CHINA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 35 MTS PVC MASS RESIN B57 AT USD 1710 PMT AND 15 MTS PVCRESIN S75 AT USD 1740 PMT AS PER PROFORMA INVOICE NOA3X10211275 DATED 19112021TERMS CIF NHAVA SHEVA INDIAINCOTERMS 2020 </t>
   </si>
   <si>
-    <t xml:space="preserve"> QUANTITY 5 PERCENTAGE MORE OR LESS ALLOWEDDINP 60MT AT USD1770 PER MTFOB TAIWAN PORT </t>
+    <t xml:space="preserve"> LIQUID PARAFFIN 100 40MT 5 PCT AT ICIS PRICING GII 500NFOB NE ASIA MEAN 140 USDMTPACKING IN FLEXIBAGTHE PRICING WEEK OF THE LOADING MONTH M IS THE WEEK OF PREVIOUSONE MONTH M1 THAT 20TH DATE LIES IN FOR INSTANCE THEPRICING WEEK FOR 2020FEBRUARYS LIFTING IS THE WEEK OF JANUARY20TH 2020IN CASE THERE IS NO ICIS QUOTATION PUBLISHED IN THE PRICING WEEKTHEN THE LATEST EFFECTIVE ICIS QUOTATION PRECEDING THE PRICINGWEEK IS AUTOMATICALLY APPLIEDTHE WEEK DEFINITION IS FROM SUNDAY 0000 HRS TO THE COMINGSATURDAY 2359 HRSANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNTFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3 DECIMAL PLACESFCA ANY PORT IN TAIWAN </t>
   </si>
   <si>
     <t xml:space="preserve"> PRODUCT GLACIAL ACRYLIC ACID 1 FCLQUANTITY 1600 MT AT USD 3030 PER MTAS PER PROFORMA INVOICE NO 12D1B016P DTD 01112021INCOTERM 2020 CIFNHAVA SHEVA INDIA </t>
@@ -379,6 +340,9 @@
     <t xml:space="preserve"> 525 MT OF PVC MASS RESIN B57 AT A UNIT PRICE OF USD 1860 PERMT AS PER TRICON REF 376319 DT22102021 OF THEBENEFICIARYINCOTERMS2020CIF CHENNAI SEAPORT INDIA </t>
   </si>
   <si>
+    <t xml:space="preserve"> POLYAMIDEQUANTITY 16000 KGSNAN YA PA6 2100HNC9AT THE RATE OF USD 304 PER KGCFR KEAMARI KARACHI PORT PAKISTANAS PER BENEFICIARYS PROFORMA INVOICE NONANYAISC022021DATED 22112021 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> POLYAMIDE1 QUANTITY 1000 KGS NAN YA PA6 2100HNC9 AT THE RATE OF USD 304 PER KG2 QUANTITY 10000 KGS NAN YA PA66 6210GCFNC9 AT THE RATE OF USD 465 PER KG3 QUANTITY 5000 KGS NAN YA PBT 1100ANC9 AT THE RATE OF USD 356 PER KGCFR KEAMARI KARACHI PORT PAKISTANAS PER BENEFICIARYS PROFORMA INVOICE NONANYAISC042021DATED 22112021 </t>
   </si>
   <si>
@@ -403,25 +367,28 @@
     <t xml:space="preserve">  PLASTIC RESIN CIF CHATTOGRAM BANGLADESH1 1 X 20 FCL CONSISTING OF 18 MTS OF ABSACRYLONITRILE BUTADIENE STYRENE GRADE NO AG15A3 AT USD2430MT USD4374000INCOTERMS 2010 </t>
   </si>
   <si>
+    <t xml:space="preserve"> SALES CONTRACT 90006559 PO 90006559DESCRIPTION 29Y29BNAN YA 2100ANC1QUANTITY 16000 KGSUNIT PRICE USD340KGAMOUNT USD5440000TRADE TERMS CIF HAI PHONG PORT VIETNAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STABILIZER LQX24PA 16000KG AT USD 297KGCIF NINGBO PORT CHINASTABILIZER LQX39PT 16000KG AT USD 280KGCIF HUMEN PORT CHINAREF NONA091121CIF NINGBO PORT HUMEN PORT CHINA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> COVERING 100 PERCENT OF INVOICE VALUE OF GOODS ANDOR SERVICESDESCRIBED AS24 MT OF POLYSTYRENE GRADE HP8250 REF PO 45685161CIF VANCOUVER CANADA INCOTERMS 2020 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1EVA 7350MQUANTITY 150 MTUNIT PRICE USD3435MT FOB TAIWANUNDER SALES CONTRACT H0FP08DETAILS ARE AS PER THE APPLICANTS SHIPPING INSTRUCTIONTRADE TERM FOB ANY PORT TAIWAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3015QUANTITY 37500MT UNIT PRICEUSD128000MT CIF HUANGPUCHINAPOLYPROPYLENE RESIN YUNGSOX 1005QUANTITY5000MT UNIT PRICEUSD138000MT CIF SHANGHAICHINAMAKERFORMOSA PLASTICS CORPORATIONPACKING25KGS BAGORIGINTAIWANPRICE TERM CIF HUANGPU OR SHANGHAICHINA </t>
+    <t xml:space="preserve"> COVERING 100 PERCENT OF INVOICE VALUE OF GOODS ANDOR SERVICESDESCRIBED AS24 MT OF POLYPROPYLENE RESIN GRADE K1023 REF PO NO 45685181CIF VANCOUVER CANADA INCOTERMS 2020 </t>
   </si>
   <si>
     <t xml:space="preserve"> ABS AG15A1H QUANTITY2500MT UNIT PRICE USD235000MT TOTAL VALUEUSD5875000ABS AX4000 QUANTITY1800MT UNIT PRICE USD258000MT TOTAL VALUEUSD4644000TOTAL AMOUNTUSD10519000SAY US DOLLARS ONE HUNDRED FIVE THOUSAND ONE HUNDREDNINETY ONLYPRICE TERMCIF FUYONG SHENZHEN CHINA </t>
   </si>
   <si>
-    <t xml:space="preserve">  TOTAL 16000 KG OF PTMEG 2000 AT THE PRICE OFUSD765KG CFR NEW YORK USA PACKED IN 200 KG STANDARD STEELDRUM WITH PALLETS IN 1X20 FCL TO BE SHIPPED TO NEW YORK USATOTAL VALUE OF THE CARGO BEING USD12240000REF NO BKOTH21027 MUST BE PUT ON ALL DOCUMENTS TOTAL 16000 KG OF PTMEG 2000 AT THE PRICE OF USD770KGCFR STPAUL MN USA PACKED IN 200 KG STANDARD STEEL DRUM WITHPALLETS IN 1X20 FCL TO BE SHIPPED TO STPAUL MN USATOTAL VALUE OF THE CARGO BEING USD12320000REF NO STKOTH21018 MUST BE PUT ON ALL DOCUMENTSPACKING IN 200 KG STANDARD STEEL DRUM PALLETISEDSHIPPING MARK FOR PTMEG 2000 PTMEG 2000NET WEIGHT 200 KGGROSS WEIGHT MADE IN TAIWANBATCH NOMANUFACTURED BY FASPACKED FOR SAFE GROUP </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EPXOY RESIN AS PERPO NO 4525118824 USD8100000PO NO 4525118835 USD8100000PO NO 4525123047 USD10838880PO NO 4525123069 USD11108160SHIPPING TERMS CIF ANY CANADIAN USA CITY </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HAIPHONG VIETNAM1 2 X 20 FCL CONSISTING OF 36 MTS OF GPPS 5250 AT USD1540MT USD5544000INCOTERMS 2010 </t>
+    <t xml:space="preserve"> YARN FOR 100PCT EXPORT ORIENTED READYMADE GARMENTS INDUSTRYPA6 DTY 4034S SD100 PRE CONSUMER RECYCLED NYLONBRAND SUNYLONQUANTITY 20160 KGS UNIT PRICE USD765KGHSCODE NO54023100CFR CHATTOGRAM BANGLADESH INCOTERMS 2020ALL OTHER DETAILS AS PER BENEFICIARYS PROFORMA INVOICESC NO20211115 DATED 15112021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMODITY POLYPROPYLENE RESIN GRADE   QUANTITY  UNIT PRICE       KGS  USDKG B1101   48000   138 TOTAL AMOUNT USD6624000 ORIGIN  TAIWAN MAKER  FORMOSA CHEMICALS AND FIBRE CORP TRADE TERM CIF ANY PORT IN HOCHIMINH CITY VIETNAM   INCOTERMS 2020 PACKING IN STANDARD EXPORT PACKING </t>
   </si>
   <si>
     <t xml:space="preserve"> PACK MATERIAL FOR PHARMACEUTICAL INDUSTRY PVC 253MM 170MIC QUANTITY 10000 EA AT USD 2765 KG INDENT NUMBER 2146221 DATED 18112021 HS CODE NO 39204910 TERMS FOB TAIWAN SEA PORT TERMS FOB KAOHSIUNG TAIWAN </t>
@@ -430,22 +397,28 @@
     <t xml:space="preserve">  TERMS OF PRICE CIF COLOMBO SRI LANKA COUNTRY OF ORIGIN TAIWAN750 MT FORMOSA BRAND HIGH DENSITYPOLYETHYLENE HDPE 8001CIF COLOMBO SRI LANKAHS CODE39012000THE NUMBER OF THIS CREDIT DB1003LC2110853THE DATE OF THIS CREDIT 211110THE NAME OF OUR BANK COMMERCIAL BANK OF CEYLON PLC COLOMBOFREIGHT PREPAID </t>
   </si>
   <si>
-    <t xml:space="preserve"> COMMODITY QUANTITY UNIT PRICEDOTP  4200 MT USD177500MTDOTP  1600 MT USD177500MTFOB ANY PORT IN TAIWAN </t>
+    <t xml:space="preserve"> DOORS AND FRAMES FIBERGLASS AND ACCESSORIESCFR DAMMAM SEAPORT SAUDI ARABIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OTHERSRNINCOTERMSCIFPIPAVAV PORT INDIARNCONTRACTDETAILSRNPI NO A3X10211191RNDT OCT 222021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INQUIRY NO18K21111905 ITEM QUANTITYMTS  UNIT PRICE  TOTAL AMOUNT 1  300   USD128500MT USD38550000GOODS ORIGIN TAIWANPRICE TERM CIF SHANGHAI CHINAPACKING JUMBO BAG WITH PALLET </t>
   </si>
   <si>
     <t xml:space="preserve"> PLATE FILM100PCT RECYCLED POSTCONSUMER POLYESTER P TYPEINSIDE CORONA TREATMENT 6 INCH CORE A GRADEYP216 122350UM  170045 KGSCIF SHANGHAI PORTCHINA </t>
   </si>
   <si>
+    <t xml:space="preserve"> PVC PROCESSING AND P301 8000KG AT USD 266KGPINOA0C017CIF HUMEN PORTCHINA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ETHYLENEPROPYLENECOPOLYMERSPP COPOLYMER YUNGSOX 3080UNIT PRICE USD1335MTCIF SHANGHAI PORT CHINA </t>
   </si>
   <si>
     <t xml:space="preserve"> GLASS EPOXY COPPER CLAD LAMINATES AS PER PROFORMA INVOICE DATED22112021 INCOTERM 2020 FCA TAIWAN PORTINCOTERMSFCACONTRACTDETAILS </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF YANTIAN CHINA1 1 X 20 FCL CONSISTING OF 18 MTS OF SAN NF2200 AT USD1820MT USD3276000INCOTERMS 2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF YANTIAN CHINA1 1 X 20 FCL CONSISTING OF 18 MTS OF ABS AG15A1H AT USD2180MT USD3924000INCOTERMS 2010 </t>
+    <t xml:space="preserve">  7560 KGS N 6 POY 9024 SNOW WHITE AA GRADE  AT USD345 PER KGCIF BANGKOKAS PER SALE CONTRACT NOE112901 </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITY BPA BISPHENOLAQUANTITY 1500MTSCONTRACT NO 4500304582TOTAL VALUE USD255000000PRICE TERM CIF YANTAI PORT CHINA INCOTERMS 2010 EDITIONS </t>
@@ -457,22 +430,16 @@
     <t xml:space="preserve"> TERMS OF PRICEFOB MAILIAOTAIWAN COUNTRY OF ORIGIN TAIWAN HS NO 2905310000 MONOETHYLENE GLYCOL FIBER GRADE PACKING IN BULK 3500000MT USD 70000MT USD 245000000  </t>
   </si>
   <si>
-    <t xml:space="preserve"> 75 MT POLYPROPYLENE HOMOPOLYMER S1005 RAFFIA MFI 50UNIT PRICE USD 177000MT CIF GUAYAQUIL ECUADORINCOTERMS 2020CONDITIONS CIF GUAYAQUIL ECUADOR AS PER INCOTERMS 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  GOODS METHYL METHACRYLATE MMA QUANTITY 210 MTS 5PCT UNIT PRICE USD2020MT TOTAL AMOUNT USD 424200 5PCT ORIGIN TAIWAN MANUFACTURER FORMOSA PLASTICS CORP PACKING IN ISOTANK QUALITY AND INSPECTION AS PER EXPORT STANDARDINHIBITOR REQUIRED TA 10 PPM TRADE TERM CIF HO CHI MINH CITY VIET NAM INCOTERMS 2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 COMMODITY POLYPROPYLENE GRADE K10112 TOTAL QUANTITY 32 MTS 053 UNIT PRICE USD135000 MT4 TOTAL AMOUNT USD4320000 055 TRADE TERMS CIF HAIPHONG PORT VIETNAM INCOTERMS 20206 PACKING STANDARD EXPORT PACKING7 ORIGIN TAIWAN8 ALL OTHER DETAIL ARE AS PER CONTRACT NO 202111169MTHN DATE23112021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PRICE TERM C I F HAIPHONG VIETNAMPLASTIC RESIN1X20 FCL CONSISTING OF18 MTS OF ABS AG15A1H AT USD220000MT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HS CODE 7410211000 COPPER CLAD LAMINATE QTY33000 SHEETS AMOUNT USD20748000HS CODE 3921909090 GLASS EPOXY PREPREG QTY70560 PCS AMOUNT USD 5080320 TERMS OF PRICE FOB INCOTERMS 2010 OR FCA INCOTERMS 2010 PLACE OF TERMS OF PRICE TAIWAN PORTAIRPORT COUNTRY OF ORIGIN TAIWAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DESCRIPTIONQUANTITYUNIT PRICEAMOUNT DESCRIPTION  QUANTITY UNIT PRICE AMOUNT    MTS USDMT USD GPPS GRADEGP525N 36  151000 5436000 PACKING 25KGS NET IN BAG 18MTS NET LOOSE STOWED IN 20 FTCONTAINER TRADE TERMS CIF CAT LAI PORT VIETNAM INCOTERMS 2020 ORIGIN  TAIWAN </t>
+    <t xml:space="preserve"> ACETO NITRILE ASSAY MIN 99 PCT MIN MAKE FORMOSA PLASTICSCORPORATION QTY 170000 KGS AT THE RATE USD 415 KG AS PERINDENT NO PA13940 DT 24112021 AND PO NO 1570420033 DT25112021 CIF VIZAG INDIA BY SEA INCOTERMS 2020INCOTERMSCIFVIZAGCONTRACTDETAILSPO NO 1570420033 DT 25112021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3080QUANTITY 30000MTUNIT PRICE USD123000MTMAKER FORMOSA PLASTICS CORPORATIONPACKING 25KGS BAGORIGIN TAIWANINCOTERMS CIF NINGBO CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3040C25 MT AT USD1270MTTRADE TERM CIF DONGGUAN CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EXPORT RESIN AND QUALITY QUANTITY DESCRIPTION SPECIFICATION UNIT PRICE PACKING MARKING AND ALL OTHER DETAILS OF COMMODITY AS PER PROFORMA INVOICE NOPRDC1125 DATE25112021 OF THE BENEFICIARYHS CODE39073000 </t>
   </si>
   <si>
     <t xml:space="preserve"> APPLICANTS PO NO OP2111020OR21408 DATE 18112021RAW MATERIAL RESIN COMPOUND AS FOLLOWPOLYPROPYLENE YUNGSOX 5090T QTY 16000KG AT USD1455KG C I F HENG GANG CHINA </t>
@@ -481,127 +448,124 @@
     <t xml:space="preserve"> NO COMMODITY QUANTITY  UNIT PRICE AMOUNT   MTS  USDMT  USDCOMPOUND EVA7470M  1500  372000 5580000 EVA7470M  1500  365000 5475000TOTAL   3000    11055000 PACKING MANUFACTURERS EXPORT STANDARD PACKING 25KGS PER BAG TRADE TERMSCIF CAT LAI PORT HOCHIMINH CITY VIETNAMINCOTERMS 2010 OTHER DETAILS AS PER SALE CONTRACT NO 3100037749 3100038393 </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF HONG KONG1 6 X 20 FCL CONSISTING OF 108 MTS OF ABS AG15A1H AT USD2180MT USD23544000INCOTERMS 2010 </t>
+    <t xml:space="preserve"> 300000 BBLS 10PCT OF GASOIL 005PCT SCOUNTRY OF ORIGIN TAIWANTERMS OF PRICE FOB MAILIAOTAIWANUNIT PRICE THE FOB MAILIAOTAIWAN PRICE IN USD PER BBLFOB PRICE EQUAL TO X MINUS USD164 PER BARRELWHERE X EQUAL TO THE WHOLE MONTH ARITHMETIC AVERAGE OF DECEMBER2021 MEAN OF PLATTS FOR GASOIL 10PPMS UNDER THE HEADINGSINGAPOREPUBLISHED IN THE PLATTS ASIA PACIFICARAB GULFMARKETSCAN OF PLATTS QUOTATIONSIN THE EVENT THAT THE FINAL PRICE IS NOT KNOWN BEFORE LCNEGOTIAION PAYMENT WILL BE EFFECTED AGAINST THE PROVISIONALINVOICE PROVIDED BY THE SELLER SUCH PROVISIONAL PRICE SHALL BEBASED ON THE ABOVE PRICE CLAUSE WITH ALL AVAILABLE QUOTATIONSAT THE TIME OF INVOICINGWHEN THE FINAL PRICE IS KNOWN THE DIFFERENCE OF THE ACTUALAMOUNT AND THE PROVISIONAL AMOUNT IS TO BE SETTLED OUTSIDETHE IRREVOCABLE DOCUMENTARY LETTER OF CREDIT BETWEENBENEFICIARY AND APPLICANT BY TELEGRAPHIC TRANSFER PAYMENTWITHIN FIVE 5 NEW YORK BANKING DAYS UPON THE RECEIPT OFSUCH FINAL SETTLEMENT INVOICE BY THE APPLICABLE PARTYTHE PROVISIONALFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3DECIMAL PLACESWITH THE THIRD DECIMAL PLACE TO BE INCREASED TOTHE NEXT DIGIT WHENEVER THE FOURTH DECIMAL PLACE IS FIVE ORGREATER THAN FIVEANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITYETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX3080QUANTITY 20000MTUNIT PRICE USD123000MTTOTAL AMOUNT USD24600000ORIGINTAIWANPACKING 25 KG BAG WITHOUT PALLETCIF NINGBOCHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY HOMO POLYPROPYLENE RESIN GRADE NOK1080 QUANTITY100000MT UNIT PRICEUSD118000MT PRICE TERMCIF ANY PORT OF CHINA MAINLAND PACKINGIN 25KG BAGS CONTRACT NOXC002 </t>
   </si>
   <si>
     <t xml:space="preserve">  COMMODITY DESCRIPTION   QUANTITY UNIT PRICE AMOUNT      MTS  USDMT USD DOTP     32  1790 5728000      02 FCL TOTAL        USD5728000 TRADE TERM CIF CAT LAI PORT IN HOCHIMINH CITY VIETNAM    INCOTERMS 2010 ORIGIN  TAIWAN QUALITY EXPORT STANDARD OTHER DETAILS AS PER CONTRACT NONN1C87 DATED 03122021 PACKING 200 KGSDRUM 16MTFCL MARKING DOTP   MANUFACTURER NAME ADDRESS   MADE IN TAIWAN </t>
   </si>
   <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIF CHATTOGRAM BANGLADESH1 1 X 20 FCL CONSISTING OF 18 MTS OF ABS AG15A1H AT USD2340MT USD4212000INCOTERMS 2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PLASTIC RESIN CIP GUANYAO CHINA1 3 X 20 FCL CONSISTING OF 54 MTS OF ABS AG15A1H AT USD2085MT USD11259000INCOTERMS 2010 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1800 MTS 5 PCT OF BASE OIL FORMOSA 150N2200 MTS 5 PCT OF BASE OIL FORMOSA 500NFOB MAILIAO TAIWAN INCOTERMS 2010 </t>
   </si>
   <si>
     <t xml:space="preserve"> RESIN NPSN 901 X 75 QTY 17600 KGS AT USD 369 PER KGCIFDAMMAM KSA </t>
   </si>
   <si>
-    <t xml:space="preserve"> QUANTITY 5 PERCENTAGE MORE OR LESS ALLOWEDDINP 20MT AT USD1760 PER MTFOB TAIWAN PORT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 COMMODITY DOTP2 QUANTITYMT 21MT 5PCT3 UNIT PRICEUSDMT USD1720MT4 AMOUNT USD 3612000 CIF HAI PHONG PORTVIET NAM INCOTERM 20105 PACKING ABOUT 21MTFLEXIBAG 5PCT6 ORIGIN TAIWAN7 5PCT MORE OR LESS IN QUANTITY AND AMOUNT IS ACCEPTABLE8 OTHER TERMS AND CONDITIONS ARE AS THE CONTRACTNONN1C68 DATE DEC 08 2021 </t>
+    <t xml:space="preserve"> A QUANTITY 26400KGS OF NYLON 6 HT FILAMENT UV YARN 840D140FBRIGHT WHITEB QUANTITY 61600KGS OF NYLON 6 HT FILAMENT UV YARN 1260D210FBRIGHT WHITEC QUANTITY 52800KGS OF NYLON 6 HT FILAMENT UV YARN 1680D280FBRIGHT WHITETOTAL QUANTITY 140800KGS AS PER PROFORMA INVOICE NO 5V120212DATED 02122021TERMS OF DELIVERY CIF NHAVA SHEVA INDIA INCOTERMS 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A QUANTITY 24640KGS OF NYLON 6 HT FILAMENT UV YARN 840D140FBRIGHT WHITEA QUANTITY 61600KGS OF NYLON 6 HT FILAMENT UV YARN 1260D210FBRIGHT WHITEA QUANTITY 54560KGS OF NYLON 6 HT FILAMENT UV YARN 1680D280FBRIGHT WHITETOTAL QUANTITY 140800KGS AS PER PROFORMA INVOICE NO 5V120211DATED 02122021TERMS OF DELIVERY CIF NHAVA SHEVA PORT INDIA INCOTERMS 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A QUANTITY 25520KGS OF NYLON 6 HT FILAMENT UV YARN 840D140FBRIGHT WHITEB QUANTITY 67760KGS OF NYLON 6 HT FILAMENT UV YARN 1260D210FBRIGHT WHITEC QUANTITY 38720KGS OF NYLON 6 HT FILAMENT UV YARN 1680D280FBRIGHT WHITETOTAL QUANTITY 132000KGS AS PER PROFORMA INVOICE NO 5V120213DATED 02122021TERMS OF DELIVERY CIF NHAVA SHEVA INDIA INCOTERMS 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITYHOMO POLYPROPYLENE RESIN GRADE NOK1080QUANTITY90000MTUNIT PRICEUSD117000MT CIF HUANGPUCHINA ANDOR NANSHACHINAPACKINGIN 25KG BAGSCONTRACT NOXC005 </t>
   </si>
   <si>
     <t xml:space="preserve"> POLYPROPYLENE RESIN GRADE NOK1035QUANTITY 25 MTSUNIT PRICE USD137000MTAS PER PI NOWB060PRICE TERMS CIF CAT LAI PORT HOCHIMINH CITY VIETNAM </t>
   </si>
   <si>
+    <t xml:space="preserve"> TRADE TERM FOB MAILIAO PORT TAIWANCAUSTIC SODA SOLUTION MIN 49PACKING IN BULKQUANTITY 2500 DMT 5PCTUNIT PRICE USD 540 PER DMT </t>
+  </si>
+  <si>
     <t>NANYA PLASTICS CORPORATION</t>
   </si>
   <si>
-    <t>PFG FIBER GLASS</t>
+    <t>FORMOSA CHEMICALS AND FIBRE</t>
+  </si>
+  <si>
+    <t>FORMOSA PETROCHEMICAL</t>
+  </si>
+  <si>
+    <t>NAN YA PLASTICS</t>
   </si>
   <si>
     <t>FORMOSA PLASTICS</t>
   </si>
   <si>
-    <t>NAN YA PLASTICS</t>
-  </si>
-  <si>
-    <t>FORMOSA CHEMICALS AND FIBRE</t>
-  </si>
-  <si>
-    <t>INTEPLAST TAIWAN</t>
+    <t>NANYA PLASTICS CORP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONTRACT 013522RN1X40FCL HQRN22000 KG TAIRILIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TERMS OF PRICE CIF COLOMBO SRI LANKA COUNTRY OF ORIGIN TAIWAN750 MT FORMOSA BRAND HIGH DENSITYPOLYETHYLENE HDPE 8001CIF COLOMBO SRI LANKAHS CODE39012000THE NUMBER OF THIS CREDIT DB1003LC2110853THE DATE OF THIS CREDIT 211110THE NAME OF OUR BANK COMMERCIAL BANK OF CEYLON PLC</t>
+  </si>
+  <si>
+    <t>FORMOSA CHEMICALS ANDFIBRE CORP</t>
   </si>
   <si>
     <t>FORMOSA CHEMICALS ANDFIBRE CORPORATION</t>
   </si>
   <si>
-    <t>NANYA PLASTICS CORP</t>
-  </si>
-  <si>
-    <t>FORMOSA PETROCHEMICAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CONTRACT 013522RN1X40FCL HQRN22000 KG TAIRILIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMOSA ASAHI SPANDEX </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  TERMS OF PRICE CIF COLOMBO SRI LANKA COUNTRY OF ORIGIN TAIWAN750 MT FORMOSA BRAND HIGH DENSITYPOLYETHYLENE HDPE 8001CIF COLOMBO SRI LANKAHS CODE39012000THE NUMBER OF THIS CREDIT DB1003LC2110853THE DATE OF THIS CREDIT 211110THE NAME OF OUR BANK COMMERCIAL BANK OF CEYLON PLC</t>
-  </si>
-  <si>
-    <t>FORMOSA CHEMICALS ad FIBRE CORP</t>
-  </si>
-  <si>
-    <t>FORMOSA CHEMICALS AND  FIBRECORPORATION</t>
+    <t>['CIF HAIPHONG PORT']</t>
+  </si>
+  <si>
+    <t>['POLYPROPYLENE RESIN GRADE', 'CHEMICALS']</t>
+  </si>
+  <si>
+    <t>['GASOIL']</t>
+  </si>
+  <si>
+    <t>['PP SHEET', ' PP ']</t>
+  </si>
+  <si>
+    <t>['RESIN']</t>
+  </si>
+  <si>
+    <t>['TAIRILIN BRAND PET CHIPS']</t>
+  </si>
+  <si>
+    <t>['FABRICS']</t>
+  </si>
+  <si>
+    <t>['NYLON 6', 'YARN']</t>
+  </si>
+  <si>
+    <t>['PURIFIED ISOPHTHALIC ACID']</t>
+  </si>
+  <si>
+    <t>['PLASTIC RESIN', 'FM090']</t>
+  </si>
+  <si>
+    <t>['SOYABEAN OIL']</t>
+  </si>
+  <si>
+    <t>['NYLON 6 FILAMENT YARN']</t>
+  </si>
+  <si>
+    <t>['CIF VIZAG INDIA']</t>
+  </si>
+  <si>
+    <t>['PROPYLENE']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'POLYPROPYLENE RESIN', 'YUNGSOX', ' PP ']</t>
   </si>
   <si>
     <t>['TAIWAN']</t>
   </si>
   <si>
-    <t>['TAIWAN', 'YARN']</t>
-  </si>
-  <si>
-    <t>['HDPE 8001', 'TAIWAN', ' EVA ', 'LLDPE']</t>
-  </si>
-  <si>
-    <t>['PHTHALATE', 'TAIWAN', 'DOTP']</t>
-  </si>
-  <si>
-    <t>['PP SHEET', ' PP ']</t>
-  </si>
-  <si>
-    <t>['TAIRILIN BRAND PET CHIPS', 'TAIWAN']</t>
-  </si>
-  <si>
-    <t>['FABRICS', 'TAIWAN']</t>
-  </si>
-  <si>
-    <t>['PLASTIC RESIN', ' ABS ']</t>
-  </si>
-  <si>
-    <t>['PLASTIC RESIN', ' ABS ', 'GPPS']</t>
-  </si>
-  <si>
-    <t>['PLASTIC RESIN', 'FM090']</t>
-  </si>
-  <si>
-    <t>['SOYABEAN OIL']</t>
-  </si>
-  <si>
-    <t>['TAIWAN', 'HDPE']</t>
-  </si>
-  <si>
-    <t>['NYLON 6 FILAMENT YARN', 'WHITE']</t>
-  </si>
-  <si>
-    <t>['TAIWAN', 'ACID']</t>
-  </si>
-  <si>
-    <t>['PROPYLENE', 'TAIWAN']</t>
-  </si>
-  <si>
-    <t>['PLASTIC RESIN', 'HIPS']</t>
-  </si>
-  <si>
     <t>['METHACRYLATE ACID']</t>
   </si>
   <si>
-    <t>['PLASTIC RESIN', 'SAN NF2200', ' SAN ']</t>
+    <t>['POLYPROPYLENE RESIN GRADE']</t>
   </si>
   <si>
     <t>[' 2EH ']</t>
@@ -616,82 +580,61 @@
     <t>['OTHERS']</t>
   </si>
   <si>
-    <t>['GLASS FABRICS', 'JAPANESE']</t>
-  </si>
-  <si>
-    <t>['TAIWAN', 'HIPS']</t>
+    <t>['GLASS FABRICS']</t>
+  </si>
+  <si>
+    <t>['POLYPROPYLENE RESIN YUNGSOX', 'RAW MATERIAL']</t>
+  </si>
+  <si>
+    <t>['BPA BISPHENOLA']</t>
+  </si>
+  <si>
+    <t>['LAMINATE']</t>
+  </si>
+  <si>
+    <t>['POLYESTER STAPLE FIBER']</t>
+  </si>
+  <si>
+    <t>['NYLON']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX', ' PP ']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX']</t>
+  </si>
+  <si>
+    <t>['LAMINATE', 'PREPREG']</t>
+  </si>
+  <si>
+    <t>['POLYESTER FILM']</t>
+  </si>
+  <si>
+    <t>['BASE OIL']</t>
+  </si>
+  <si>
+    <t>['PA66', ' PP ']</t>
+  </si>
+  <si>
+    <t>['HDPE']</t>
+  </si>
+  <si>
+    <t>['GLASS EPOXY COPPER CLAD LAMINATES']</t>
   </si>
   <si>
     <t>['EVA']</t>
   </si>
   <si>
-    <t>['POLYPROPYLENE RESIN YUNGSOX', 'RAW MATERIAL']</t>
-  </si>
-  <si>
-    <t>['POLYPROPYLENE', 'TAIWAN', 'K1011']</t>
-  </si>
-  <si>
-    <t>['BPA BISPHENOLA']</t>
-  </si>
-  <si>
-    <t>['LAMINATE']</t>
-  </si>
-  <si>
-    <t>['TAIWAN', 'GPPS']</t>
-  </si>
-  <si>
-    <t>['LAMINATE', 'MATERIAL']</t>
-  </si>
-  <si>
-    <t>['EVA RESIN', ' EVA ']</t>
-  </si>
-  <si>
-    <t>['POLYESTER STAPLE FIBER']</t>
-  </si>
-  <si>
-    <t>['NYLON']</t>
-  </si>
-  <si>
-    <t>['ETHYLENEPROPYLENE COPOLYMER', 'PORTCHINA', 'YUNGSOX', ' PP ']</t>
-  </si>
-  <si>
-    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX']</t>
-  </si>
-  <si>
-    <t>['LAMINATE', 'PREPREG']</t>
-  </si>
-  <si>
-    <t>['TAIWAN', 'ACID', ' PE ', ' PP ']</t>
-  </si>
-  <si>
-    <t>['POLYESTER FILM']</t>
-  </si>
-  <si>
-    <t>['BASE OIL', 'TAIWAN']</t>
-  </si>
-  <si>
-    <t>['PLASTIC RESIN', 'GPPS']</t>
-  </si>
-  <si>
-    <t>['GLASS EPOXY COPPER CLAD LAMINATES']</t>
-  </si>
-  <si>
-    <t>['TAIRILIN BRAND PET CHIPS']</t>
-  </si>
-  <si>
-    <t>['METHYL METHACRYLATE', 'TAIWAN', ' MMA ']</t>
-  </si>
-  <si>
-    <t>['TAIWAN', 'DOTP']</t>
-  </si>
-  <si>
     <t>['ABS RESIN', 'COVERING', 'AE8000', 'ANC100']</t>
   </si>
   <si>
     <t>['SAN RESIN', 'COVERING', ' SAN ']</t>
   </si>
   <si>
-    <t>['COPPER FOIL', 'JAPANESE']</t>
+    <t>['COPPER FOIL']</t>
+  </si>
+  <si>
+    <t>['SOYBEAN OIL']</t>
   </si>
   <si>
     <t>['ACRYLIC ACID']</t>
@@ -700,73 +643,82 @@
     <t>['PHTHALIC ANHYDRIDE']</t>
   </si>
   <si>
-    <t>['PVC CLEAR RIGID SHEET', 'TAIWANPRICE']</t>
+    <t>['PVC CLEAR RIGID SHEET']</t>
+  </si>
+  <si>
+    <t>['PROCESS OIL 70N']</t>
   </si>
   <si>
     <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX 3080']</t>
   </si>
   <si>
-    <t>['TAIWAN', ' PP ']</t>
-  </si>
-  <si>
-    <t>['TAIWAN', 'TOTM']</t>
-  </si>
-  <si>
-    <t>['POLYESTER', 'TAIRILIN', 'TAIWAN']</t>
+    <t>['ISO NONYL ALCOHOL']</t>
+  </si>
+  <si>
+    <t>['TOTM']</t>
+  </si>
+  <si>
+    <t>['S65D QUANTITY']</t>
+  </si>
+  <si>
+    <t>['POLYESTER', 'TAIRILIN']</t>
+  </si>
+  <si>
+    <t>['DOA']</t>
+  </si>
+  <si>
+    <t>['CIF PORT KLANG MALAYSIA2000']</t>
+  </si>
+  <si>
+    <t>['MONOETHYLENE GLYCOL']</t>
+  </si>
+  <si>
+    <t>['RESIN NPEL', 'NPEL 128']</t>
+  </si>
+  <si>
+    <t>['TAIWANPP']</t>
+  </si>
+  <si>
+    <t>['NAN YA RELEASE FILM']</t>
+  </si>
+  <si>
+    <t>['METHACRYLIC ACID']</t>
   </si>
   <si>
     <t>['JAPANESE']</t>
   </si>
   <si>
-    <t>['RAW MATERIAL', 'TAISOX 7470M', 'EVA TAISOX', 'TAIWAN', ' EVA ']</t>
-  </si>
-  <si>
-    <t>['MONOETHYLENE GLYCOL', 'TAIWAN']</t>
-  </si>
-  <si>
-    <t>['RESIN NPEL', 'NPEL 128']</t>
-  </si>
-  <si>
-    <t>['NAN YA RELEASE FILM']</t>
-  </si>
-  <si>
-    <t>['METHACRYLIC ACID']</t>
-  </si>
-  <si>
-    <t>['PLASTIC RESIN']</t>
-  </si>
-  <si>
-    <t>['NAN YA RELEASE FILM', 'TAIWAN']</t>
-  </si>
-  <si>
-    <t>['TAIRIYON', 'BRIGHT', 'WHITE']</t>
-  </si>
-  <si>
-    <t>['PHTHALATE', 'TAIWAN']</t>
+    <t>['DOPE DYED BLACK', 'COVERING', 'NYLON 6', 'YARN']</t>
+  </si>
+  <si>
+    <t>['CIF NINGBO CHINA']</t>
   </si>
   <si>
     <t>['PVC MASS RESIN B57']</t>
   </si>
   <si>
-    <t>['TAIWAN', 'DINP']</t>
+    <t>['PARAFFIN']</t>
   </si>
   <si>
     <t>['PVC SUSPENSION RESIN']</t>
   </si>
   <si>
-    <t>['NAN YA PA66', 'NAN YA PBT', 'KGCFR']</t>
-  </si>
-  <si>
-    <t>['NAN YA PBT', 'KGCFR', ' PP ']</t>
-  </si>
-  <si>
-    <t>['POLYPROPYLENE', 'KGCFR', ' PP ']</t>
+    <t>['KGCFR']</t>
+  </si>
+  <si>
+    <t>['NAN YA PA66', 'NAN YA PBT']</t>
+  </si>
+  <si>
+    <t>['NAN YA PBT', ' PP ']</t>
+  </si>
+  <si>
+    <t>['POLYPROPYLENE', ' PP ']</t>
   </si>
   <si>
     <t>['ACRYLIC POLYMER']</t>
   </si>
   <si>
-    <t>['TAIWAN', 'ACID', ' PE ']</t>
+    <t>[' PE ', 'ACID']</t>
   </si>
   <si>
     <t>['TAIRISAN SAN RESINS']</t>
@@ -778,87 +730,123 @@
     <t>['ACRYLONITRILE BUTADIENE STYRENE', 'PLASTIC RESIN']</t>
   </si>
   <si>
+    <t>['2100ANC1']</t>
+  </si>
+  <si>
+    <t>['CHINASTABILIZER']</t>
+  </si>
+  <si>
     <t>['POLYSTYRENE', 'COVERING']</t>
   </si>
   <si>
-    <t>['POLYPROPYLENE RESIN YUNGSOX', 'ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX 3015', 'TAIWANPRICE', ' PP ']</t>
+    <t>['POLYPROPYLENE RESIN GRADE', 'COVERING']</t>
   </si>
   <si>
     <t>['AX4000', ' ABS ']</t>
   </si>
   <si>
-    <t>['TAIWAN', 'KGCFR', 'THPA']</t>
-  </si>
-  <si>
-    <t>['RESIN']</t>
-  </si>
-  <si>
-    <t>['MATERIAL', 'TAIWAN', ' EA ']</t>
-  </si>
-  <si>
-    <t>['POLYETHYLENE', 'HDPE 8001', 'TAIWAN']</t>
-  </si>
-  <si>
-    <t>['POLYESTER', 'PORTCHINA']</t>
+    <t>['SUNYLON', 'YARN']</t>
+  </si>
+  <si>
+    <t>['MATERIAL', ' EA ']</t>
+  </si>
+  <si>
+    <t>['POLYETHYLENE', 'HDPE 8001']</t>
+  </si>
+  <si>
+    <t>['MMA']</t>
+  </si>
+  <si>
+    <t>['PORT INDIARNCONTRACTDETAILSRNPI']</t>
+  </si>
+  <si>
+    <t>['TAIWANPRICE']</t>
+  </si>
+  <si>
+    <t>['POLYESTER']</t>
+  </si>
+  <si>
+    <t>['PORTCHINA']</t>
   </si>
   <si>
     <t>['YUNGSOX 3080', 'PROPYLENE', 'ETHYLENE']</t>
   </si>
   <si>
-    <t>['GLASS EPOXY COPPER CLAD LAMINATES', 'TAIWAN']</t>
-  </si>
-  <si>
-    <t>['POLYPROPYLENE']</t>
-  </si>
-  <si>
-    <t>['GLASS EPOXY PREPREG', 'LAMINATE', 'TAIWAN']</t>
+    <t>['WHITE']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX 3080', ' PP ']</t>
   </si>
   <si>
     <t>['POLYPROPYLENE YUNGSOX', 'RAW MATERIAL', 'RESIN']</t>
   </si>
   <si>
+    <t>['DOTP']</t>
+  </si>
+  <si>
     <t>['NPSN 901 X 75', 'RESIN']</t>
   </si>
   <si>
-    <t>['POLYPROPYLENE RESIN GRADE']</t>
+    <t>['NYLON 6', 'BRIGHT', 'YARN']</t>
+  </si>
+  <si>
+    <t>['TAIWANCAUSTIC']</t>
+  </si>
+  <si>
+    <t>bert</t>
   </si>
   <si>
     <t>rule</t>
   </si>
   <si>
-    <t>bert</t>
+    <t>CIF HAIPHONG PORT</t>
+  </si>
+  <si>
+    <t>POLYPROPYLENE RESIN GRADE</t>
+  </si>
+  <si>
+    <t>GASOIL</t>
+  </si>
+  <si>
+    <t>PP SHEET</t>
+  </si>
+  <si>
+    <t>RESIN</t>
+  </si>
+  <si>
+    <t>TAIRILIN BRAND PET CHIPS</t>
+  </si>
+  <si>
+    <t>FABRICS</t>
+  </si>
+  <si>
+    <t>NYLON 6</t>
+  </si>
+  <si>
+    <t>PURIFIED ISOPHTHALIC ACID</t>
+  </si>
+  <si>
+    <t>PLASTIC RESIN</t>
+  </si>
+  <si>
+    <t>SOYABEAN OIL</t>
+  </si>
+  <si>
+    <t>NYLON 6 FILAMENT YARN</t>
+  </si>
+  <si>
+    <t>CIF VIZAG INDIA</t>
+  </si>
+  <si>
+    <t>PROPYLENE</t>
+  </si>
+  <si>
+    <t>ETHYLENEPROPYLENE COPOLYMER</t>
   </si>
   <si>
     <t>TAIWAN</t>
   </si>
   <si>
-    <t>HDPE 8001</t>
-  </si>
-  <si>
-    <t>PHTHALATE</t>
-  </si>
-  <si>
-    <t>PP SHEET</t>
-  </si>
-  <si>
-    <t>TAIRILIN BRAND PET CHIPS</t>
-  </si>
-  <si>
-    <t>FABRICS</t>
-  </si>
-  <si>
-    <t>PLASTIC RESIN</t>
-  </si>
-  <si>
-    <t>SOYABEAN OIL</t>
-  </si>
-  <si>
-    <t>NYLON 6 FILAMENT YARN</t>
-  </si>
-  <si>
-    <t>PROPYLENE</t>
-  </si>
-  <si>
     <t>METHACRYLATE ACID</t>
   </si>
   <si>
@@ -877,102 +865,132 @@
     <t>GLASS FABRICS</t>
   </si>
   <si>
+    <t>POLYPROPYLENE RESIN YUNGSOX</t>
+  </si>
+  <si>
+    <t>BPA BISPHENOLA</t>
+  </si>
+  <si>
+    <t>LAMINATE</t>
+  </si>
+  <si>
+    <t>POLYESTER STAPLE FIBER</t>
+  </si>
+  <si>
+    <t>NYLON</t>
+  </si>
+  <si>
+    <t>POLYESTER FILM</t>
+  </si>
+  <si>
+    <t>BASE OIL</t>
+  </si>
+  <si>
+    <t>PA66</t>
+  </si>
+  <si>
+    <t>HDPE</t>
+  </si>
+  <si>
+    <t>GLASS EPOXY COPPER CLAD LAMINATES</t>
+  </si>
+  <si>
     <t>EVA</t>
   </si>
   <si>
-    <t>POLYPROPYLENE RESIN YUNGSOX</t>
+    <t>ABS RESIN</t>
+  </si>
+  <si>
+    <t>SAN RESIN</t>
+  </si>
+  <si>
+    <t>COPPER FOIL</t>
+  </si>
+  <si>
+    <t>SOYBEAN OIL</t>
+  </si>
+  <si>
+    <t>ACRYLIC ACID</t>
+  </si>
+  <si>
+    <t>PHTHALIC ANHYDRIDE</t>
+  </si>
+  <si>
+    <t>PVC CLEAR RIGID SHEET</t>
+  </si>
+  <si>
+    <t>PROCESS OIL 70N</t>
+  </si>
+  <si>
+    <t>ISO NONYL ALCOHOL</t>
+  </si>
+  <si>
+    <t>TOTM</t>
+  </si>
+  <si>
+    <t>S65D QUANTITY</t>
+  </si>
+  <si>
+    <t>POLYESTER</t>
+  </si>
+  <si>
+    <t>DOA</t>
+  </si>
+  <si>
+    <t>CIF PORT KLANG MALAYSIA2000</t>
+  </si>
+  <si>
+    <t>MONOETHYLENE GLYCOL</t>
+  </si>
+  <si>
+    <t>RESIN NPEL</t>
+  </si>
+  <si>
+    <t>TAIWANPP</t>
+  </si>
+  <si>
+    <t>NAN YA RELEASE FILM</t>
+  </si>
+  <si>
+    <t>METHACRYLIC ACID</t>
+  </si>
+  <si>
+    <t>JAPANESE</t>
+  </si>
+  <si>
+    <t>DOPE DYED BLACK</t>
+  </si>
+  <si>
+    <t>CIF NINGBO CHINA</t>
+  </si>
+  <si>
+    <t>PVC MASS RESIN B57</t>
+  </si>
+  <si>
+    <t>PARAFFIN</t>
+  </si>
+  <si>
+    <t>PVC SUSPENSION RESIN</t>
+  </si>
+  <si>
+    <t>KGCFR</t>
+  </si>
+  <si>
+    <t>NAN YA PA66</t>
+  </si>
+  <si>
+    <t>NAN YA PBT</t>
   </si>
   <si>
     <t>POLYPROPYLENE</t>
   </si>
   <si>
-    <t>BPA BISPHENOLA</t>
-  </si>
-  <si>
-    <t>LAMINATE</t>
-  </si>
-  <si>
-    <t>EVA RESIN</t>
-  </si>
-  <si>
-    <t>POLYESTER STAPLE FIBER</t>
-  </si>
-  <si>
-    <t>NYLON</t>
-  </si>
-  <si>
-    <t>ETHYLENEPROPYLENE COPOLYMER</t>
-  </si>
-  <si>
-    <t>POLYESTER FILM</t>
-  </si>
-  <si>
-    <t>BASE OIL</t>
-  </si>
-  <si>
-    <t>GLASS EPOXY COPPER CLAD LAMINATES</t>
-  </si>
-  <si>
-    <t>METHYL METHACRYLATE</t>
-  </si>
-  <si>
-    <t>ABS RESIN</t>
-  </si>
-  <si>
-    <t>SAN RESIN</t>
-  </si>
-  <si>
-    <t>COPPER FOIL</t>
-  </si>
-  <si>
-    <t>ACRYLIC ACID</t>
-  </si>
-  <si>
-    <t>PHTHALIC ANHYDRIDE</t>
-  </si>
-  <si>
-    <t>PVC CLEAR RIGID SHEET</t>
-  </si>
-  <si>
-    <t>POLYESTER</t>
-  </si>
-  <si>
-    <t>JAPANESE</t>
-  </si>
-  <si>
-    <t>RAW MATERIAL</t>
-  </si>
-  <si>
-    <t>MONOETHYLENE GLYCOL</t>
-  </si>
-  <si>
-    <t>RESIN NPEL</t>
-  </si>
-  <si>
-    <t>NAN YA RELEASE FILM</t>
-  </si>
-  <si>
-    <t>METHACRYLIC ACID</t>
-  </si>
-  <si>
-    <t>TAIRIYON</t>
-  </si>
-  <si>
-    <t>PVC MASS RESIN B57</t>
-  </si>
-  <si>
-    <t>PVC SUSPENSION RESIN</t>
-  </si>
-  <si>
-    <t>NAN YA PA66</t>
-  </si>
-  <si>
-    <t>NAN YA PBT</t>
-  </si>
-  <si>
     <t>ACRYLIC POLYMER</t>
   </si>
   <si>
+    <t xml:space="preserve"> PE </t>
+  </si>
+  <si>
     <t>TAIRISAN SAN RESINS</t>
   </si>
   <si>
@@ -982,13 +1000,19 @@
     <t>ACRYLONITRILE BUTADIENE STYRENE</t>
   </si>
   <si>
+    <t>2100ANC1</t>
+  </si>
+  <si>
+    <t>CHINASTABILIZER</t>
+  </si>
+  <si>
     <t>POLYSTYRENE</t>
   </si>
   <si>
     <t>AX4000</t>
   </si>
   <si>
-    <t>RESIN</t>
+    <t>SUNYLON</t>
   </si>
   <si>
     <t>MATERIAL</t>
@@ -997,40 +1021,61 @@
     <t>POLYETHYLENE</t>
   </si>
   <si>
+    <t>MMA</t>
+  </si>
+  <si>
+    <t>PORT INDIARNCONTRACTDETAILSRNPI</t>
+  </si>
+  <si>
+    <t>TAIWANPRICE</t>
+  </si>
+  <si>
+    <t>PORTCHINA</t>
+  </si>
+  <si>
     <t>YUNGSOX 3080</t>
   </si>
   <si>
-    <t>GLASS EPOXY PREPREG</t>
+    <t>WHITE</t>
   </si>
   <si>
     <t>POLYPROPYLENE YUNGSOX</t>
   </si>
   <si>
+    <t>DOTP</t>
+  </si>
+  <si>
     <t>NPSN 901 X 75</t>
   </si>
   <si>
-    <t>POLYPROPYLENE RESIN GRADE</t>
+    <t>TAIWANCAUSTIC</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>XU</t>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>2E</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>4A</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>1P</t>
@@ -1039,330 +1084,285 @@
     <t>24</t>
   </si>
   <si>
-    <t>J7</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2P</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['1P', '2R']</t>
+  </si>
+  <si>
+    <t>['60', '61', '61']</t>
+  </si>
+  <si>
+    <t>['23', '22', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['4A']</t>
+  </si>
+  <si>
+    <t>['25', '25']</t>
+  </si>
+  <si>
+    <t>['26', '42']</t>
+  </si>
+  <si>
+    <t>['45', '25', 'XU', '45', '42', '12', '1P', '18', '2E']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['23', '4A', '11', '1P', '1P']</t>
+  </si>
+  <si>
+    <t>['2P']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['4A', '4A', '18', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['1A']</t>
+  </si>
+  <si>
+    <t>['1P']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['1P', '1P']</t>
+  </si>
+  <si>
+    <t>['2R']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['2G', '28']</t>
+  </si>
+  <si>
+    <t>['1P', '11', '27']</t>
+  </si>
+  <si>
+    <t>['2M']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['4A', '18', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['4A', '18']</t>
+  </si>
+  <si>
+    <t>['2M', '2M']</t>
+  </si>
+  <si>
+    <t>['2E']</t>
+  </si>
+  <si>
+    <t>['64', '64']</t>
+  </si>
+  <si>
+    <t>['24', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['4A', '17', '4A', '14']</t>
+  </si>
+  <si>
+    <t>['4A', '17', '4A']</t>
+  </si>
+  <si>
+    <t>['2N']</t>
+  </si>
+  <si>
+    <t>['27', '27']</t>
+  </si>
+  <si>
+    <t>['23', '23']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['26', '42', '25']</t>
+  </si>
+  <si>
+    <t>['2A']</t>
+  </si>
+  <si>
+    <t>['2R', '2R']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['25', '17', '45', '25', 'XU', '45', '42', '12', '1P', '18', '2E']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['24', '24']</t>
+  </si>
+  <si>
+    <t>['1P', '4A', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['12', '12']</t>
+  </si>
+  <si>
+    <t>['21', '48', '27', '1A']</t>
+  </si>
+  <si>
+    <t>['24', '25', '25']</t>
+  </si>
+  <si>
+    <t>['4A', '23', '4A', '11', '1P']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['4A', '17']</t>
+  </si>
+  <si>
+    <t>['1P', '17']</t>
+  </si>
+  <si>
+    <t>['4A', '4A']</t>
+  </si>
+  <si>
+    <t>['4A', '12']</t>
+  </si>
+  <si>
+    <t>['18', '18']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['18', '62', '62']</t>
+  </si>
+  <si>
+    <t>['1P', '11', '27', '4A']</t>
+  </si>
+  <si>
+    <t>['2R', '4A']</t>
+  </si>
+  <si>
+    <t>['45', '22', '25', 'XU', '45', '42', '12', '1P', '18', '2E']</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>not find</t>
+  </si>
+  <si>
+    <t>4P</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>2R</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>2N</t>
+  </si>
+  <si>
     <t>48</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2M</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>2P</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>['1P']</t>
-  </si>
-  <si>
-    <t>['1P', '25', 'XU', '45', '42', '12', '1P', '18', '2E']</t>
-  </si>
-  <si>
-    <t>['18', '1P', '18', '18', '2P', '17', '18', '18']</t>
-  </si>
-  <si>
-    <t>['27', '2E', '1P', '27', '27']</t>
-  </si>
-  <si>
-    <t>['23', '22', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['25', '25', '1P']</t>
-  </si>
-  <si>
-    <t>['26', '42', '1P']</t>
-  </si>
-  <si>
-    <t>['23', '4A', '11', '1P', '4A']</t>
-  </si>
-  <si>
-    <t>['23', '4A', '11', '1P', '4A', '4A']</t>
-  </si>
-  <si>
-    <t>['23', '4A', '11', '1P', '1P']</t>
-  </si>
-  <si>
-    <t>['2P', '24', '22']</t>
-  </si>
-  <si>
-    <t>['1P', '4A', '18']</t>
-  </si>
-  <si>
-    <t>['45', '41', '45']</t>
-  </si>
-  <si>
-    <t>['1P', '48', '27', '1A']</t>
-  </si>
-  <si>
-    <t>['62', '1P']</t>
-  </si>
-  <si>
-    <t>['1A', '12']</t>
-  </si>
-  <si>
-    <t>['27', '2M']</t>
-  </si>
-  <si>
-    <t>['1P', '1P']</t>
-  </si>
-  <si>
-    <t>['2R']</t>
-  </si>
-  <si>
-    <t>['29']</t>
-  </si>
-  <si>
-    <t>['2G', '28', '21']</t>
-  </si>
-  <si>
-    <t>['1P', '4A']</t>
-  </si>
-  <si>
-    <t>['12']</t>
-  </si>
-  <si>
-    <t>['1P', '11', '27']</t>
-  </si>
-  <si>
-    <t>['1P', '4A', '1P', '4A']</t>
-  </si>
-  <si>
-    <t>['2P', '28']</t>
-  </si>
-  <si>
-    <t>['2M', '28']</t>
-  </si>
-  <si>
-    <t>['2M', '28', '4A']</t>
-  </si>
-  <si>
-    <t>['18', '18', '18', '2P', '17']</t>
-  </si>
-  <si>
-    <t>['25', '25']</t>
-  </si>
-  <si>
-    <t>['42', '45']</t>
-  </si>
-  <si>
-    <t>['4A', '11', '18', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['4A', '18']</t>
-  </si>
-  <si>
-    <t>['2M', '28', '2M']</t>
-  </si>
-  <si>
-    <t>['1P', '48', '27', '1A', '21', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['2E', '25']</t>
-  </si>
-  <si>
-    <t>['64', '64', '1P']</t>
-  </si>
-  <si>
-    <t>['2M']</t>
-  </si>
-  <si>
-    <t>['1A', '1P', '1A', '2B']</t>
-  </si>
-  <si>
-    <t>['1P', '27', '27']</t>
-  </si>
-  <si>
-    <t>['4A', '17', '4A', '14']</t>
-  </si>
-  <si>
-    <t>['4A', '17', '4A']</t>
-  </si>
-  <si>
-    <t>['2N', '21']</t>
-  </si>
-  <si>
-    <t>['27', '27']</t>
-  </si>
-  <si>
-    <t>['23', '23', '17']</t>
-  </si>
-  <si>
-    <t>['1P', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['26', '42', '25', '1P']</t>
-  </si>
-  <si>
-    <t>['21']</t>
-  </si>
-  <si>
-    <t>['11', '27', '18', '18', '1P', '18', '18', '2P', '17']</t>
-  </si>
-  <si>
-    <t>['2A', '25', '1P']</t>
-  </si>
-  <si>
-    <t>['2R', '2R']</t>
-  </si>
-  <si>
-    <t>['26', '2E', '25']</t>
-  </si>
-  <si>
-    <t>['1A']</t>
-  </si>
-  <si>
-    <t>['23', '4A', '11', '1P']</t>
-  </si>
-  <si>
-    <t>['26', '2E', '25', '1P']</t>
-  </si>
-  <si>
-    <t>['41', '22', '45']</t>
-  </si>
-  <si>
-    <t>['27', '2E', '1P']</t>
-  </si>
-  <si>
-    <t>['11']</t>
-  </si>
-  <si>
-    <t>['24', '24', '27']</t>
-  </si>
-  <si>
-    <t>['24', '27', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['1P', '4A', '27', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['12', '12']</t>
-  </si>
-  <si>
-    <t>['1P', '48', '27', '1A', '21']</t>
-  </si>
-  <si>
-    <t>['4A']</t>
-  </si>
-  <si>
-    <t>['24', '25', '25']</t>
-  </si>
-  <si>
-    <t>['4A', '23', '4A', '11', '1P']</t>
-  </si>
-  <si>
-    <t>['4A', '17']</t>
-  </si>
-  <si>
-    <t>['1P', '4A', '1P', '17', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['4A', '4A']</t>
-  </si>
-  <si>
-    <t>['4A', '18', '29']</t>
-  </si>
-  <si>
-    <t>['4A', '1P', '12']</t>
-  </si>
-  <si>
-    <t>['18', '18', '1P']</t>
-  </si>
-  <si>
-    <t>['26', '42', '11']</t>
-  </si>
-  <si>
-    <t>['18', '62', '62']</t>
-  </si>
-  <si>
-    <t>['2M', '1P']</t>
-  </si>
-  <si>
-    <t>['2M', '2M', '28', '1P']</t>
-  </si>
-  <si>
-    <t>['1P', '11', '27', '4A', '18', '29']</t>
-  </si>
-  <si>
-    <t>['2R', '4A', '18', '29']</t>
-  </si>
-  <si>
-    <t>not find</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>4P</t>
-  </si>
-  <si>
-    <t>2R</t>
-  </si>
-  <si>
-    <t>2G</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>2N</t>
-  </si>
-  <si>
     <t>2A</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4H</t>
+  </si>
+  <si>
     <t>0927.xls</t>
   </si>
   <si>
@@ -1406,6 +1406,9 @@
   </si>
   <si>
     <t>1022.xls</t>
+  </si>
+  <si>
+    <t>1023.xls</t>
   </si>
   <si>
     <t>1026.xls</t>
@@ -1853,7 +1856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K159"/>
+  <dimension ref="A1:K155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1899,28 +1902,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G2" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="H2" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="I2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J2" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="K2" t="s">
         <v>449</v>
@@ -1928,69 +1931,69 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="H3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="I3" t="s">
-        <v>333</v>
+        <v>434</v>
       </c>
       <c r="J3" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="K3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G4" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="H4" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="I4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J4" t="s">
-        <v>346</v>
+        <v>439</v>
       </c>
       <c r="K4" t="s">
         <v>450</v>
@@ -1998,69 +2001,69 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G5" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H5" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="I5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J5" t="s">
-        <v>336</v>
+        <v>439</v>
       </c>
       <c r="K5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G6" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="H6" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="I6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J6" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="K6" t="s">
         <v>451</v>
@@ -2068,34 +2071,34 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="H7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="I7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="K7" t="s">
         <v>451</v>
@@ -2109,28 +2112,28 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G8" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="H8" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="I8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J8" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="K8" t="s">
         <v>452</v>
@@ -2144,28 +2147,28 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G9" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="H9" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="I9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K9" t="s">
         <v>452</v>
@@ -2173,34 +2176,34 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G10" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="H10" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="I10" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J10" t="s">
-        <v>442</v>
+        <v>364</v>
       </c>
       <c r="K10" t="s">
         <v>453</v>
@@ -2208,34 +2211,34 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" t="s">
         <v>269</v>
       </c>
-      <c r="F11" t="s">
-        <v>277</v>
-      </c>
       <c r="G11" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="H11" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="I11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J11" t="s">
-        <v>442</v>
+        <v>349</v>
       </c>
       <c r="K11" t="s">
         <v>453</v>
@@ -2249,28 +2252,28 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F12" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G12" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="H12" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="I12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J12" t="s">
-        <v>442</v>
+        <v>357</v>
       </c>
       <c r="K12" t="s">
         <v>453</v>
@@ -2284,28 +2287,28 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F13" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G13" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="H13" t="s">
+        <v>381</v>
+      </c>
+      <c r="I13" t="s">
+        <v>433</v>
+      </c>
+      <c r="J13" t="s">
         <v>368</v>
-      </c>
-      <c r="I13" t="s">
-        <v>438</v>
-      </c>
-      <c r="J13" t="s">
-        <v>349</v>
       </c>
       <c r="K13" t="s">
         <v>453</v>
@@ -2313,34 +2316,34 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G14" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H14" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="I14" t="s">
-        <v>341</v>
+        <v>434</v>
       </c>
       <c r="J14" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="K14" t="s">
         <v>453</v>
@@ -2348,69 +2351,69 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F15" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G15" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="H15" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="I15" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K15" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E16" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G16" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="H16" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="I16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J16" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="K16" t="s">
         <v>454</v>
@@ -2424,28 +2427,28 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F17" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G17" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H17" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="I17" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J17" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K17" t="s">
         <v>454</v>
@@ -2453,69 +2456,69 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" t="s">
         <v>168</v>
       </c>
-      <c r="D18" t="s">
-        <v>193</v>
-      </c>
       <c r="E18" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F18" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="G18" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="H18" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="I18" t="s">
+        <v>435</v>
+      </c>
+      <c r="J18" t="s">
         <v>439</v>
       </c>
-      <c r="J18" t="s">
-        <v>442</v>
-      </c>
       <c r="K18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E19" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F19" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G19" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="H19" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="I19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J19" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="K19" t="s">
         <v>455</v>
@@ -2523,104 +2526,104 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="E20" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F20" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G20" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H20" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="I20" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J20" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="K20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G21" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="H21" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="I21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J21" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="K21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E22" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F22" t="s">
         <v>277</v>
       </c>
       <c r="G22" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="H22" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="I22" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K22" t="s">
         <v>456</v>
@@ -2628,34 +2631,34 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="E23" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F23" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="G23" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H23" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I23" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J23" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="K23" t="s">
         <v>456</v>
@@ -2663,139 +2666,139 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E24" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F24" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="G24" t="s">
         <v>346</v>
       </c>
       <c r="H24" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="I24" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J24" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="K24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E25" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F25" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G25" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="H25" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="I25" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J25" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
       <c r="K25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E26" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F26" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="G26" t="s">
         <v>347</v>
       </c>
       <c r="H26" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J26" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
         <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F27" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="H27" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="I27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J27" t="s">
-        <v>442</v>
+        <v>354</v>
       </c>
       <c r="K27" t="s">
         <v>457</v>
@@ -2803,104 +2806,104 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E28" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F28" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G28" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="H28" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="I28" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J28" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="K28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E29" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="G29" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="H29" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="I29" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J29" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
       <c r="K29" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E30" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G30" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="H30" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="I30" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K30" t="s">
         <v>458</v>
@@ -2908,34 +2911,34 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E31" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="G31" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="H31" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="I31" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J31" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="K31" t="s">
         <v>458</v>
@@ -2943,37 +2946,37 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E32" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H32" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="I32" t="s">
+        <v>434</v>
+      </c>
+      <c r="J32" t="s">
         <v>438</v>
       </c>
-      <c r="J32" t="s">
-        <v>445</v>
-      </c>
       <c r="K32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2981,31 +2984,31 @@
         <v>406</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E33" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G33" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="H33" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="I33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J33" t="s">
-        <v>442</v>
+        <v>357</v>
       </c>
       <c r="K33" t="s">
         <v>459</v>
@@ -3013,104 +3016,104 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="E34" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F34" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="G34" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="H34" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I34" t="s">
         <v>436</v>
       </c>
       <c r="J34" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="K34" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E35" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G35" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="H35" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="I35" t="s">
-        <v>333</v>
+        <v>433</v>
       </c>
       <c r="J35" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="K35" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E36" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F36" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="G36" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="H36" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="I36" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J36" t="s">
-        <v>442</v>
+        <v>358</v>
       </c>
       <c r="K36" t="s">
         <v>460</v>
@@ -3118,104 +3121,104 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D37" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="E37" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="G37" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H37" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I37" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J37" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="K37" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E38" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F38" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G38" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="H38" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="I38" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J38" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K38" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D39" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F39" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="G39" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="H39" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="I39" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J39" t="s">
-        <v>349</v>
+        <v>439</v>
       </c>
       <c r="K39" t="s">
         <v>461</v>
@@ -3223,4202 +3226,4062 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D40" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E40" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F40" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="G40" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="H40" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="I40" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J40" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="K40" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E41" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F41" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="G41" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="H41" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="I41" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K41" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="G42" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="H42" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="I42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J42" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K42" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>490</v>
+        <v>541</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E43" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G43" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="H43" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="I43" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J43" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="K43" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>506</v>
+        <v>546</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E44" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F44" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G44" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="H44" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="I44" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J44" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K44" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>518</v>
+        <v>572</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E45" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F45" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="G45" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="H45" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="I45" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J45" t="s">
-        <v>442</v>
+        <v>350</v>
       </c>
       <c r="K45" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D46" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E46" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F46" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G46" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H46" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="I46" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J46" t="s">
-        <v>442</v>
+        <v>365</v>
       </c>
       <c r="K46" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>521</v>
+        <v>586</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="E47" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F47" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="G47" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="H47" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="I47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J47" t="s">
-        <v>334</v>
+        <v>443</v>
       </c>
       <c r="K47" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>541</v>
+        <v>588</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="E48" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F48" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="G48" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H48" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="I48" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J48" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="K48" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>546</v>
+        <v>599</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D49" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G49" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H49" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="I49" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J49" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="K49" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>552</v>
+        <v>636</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E50" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F50" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G50" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="H50" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="I50" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J50" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="K50" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>561</v>
+        <v>648</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E51" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F51" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G51" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="H51" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="I51" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J51" t="s">
-        <v>442</v>
+        <v>368</v>
       </c>
       <c r="K51" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>572</v>
+        <v>653</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="E52" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F52" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="G52" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="H52" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I52" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J52" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="K52" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>585</v>
+        <v>659</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="E53" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F53" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="G53" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H53" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="I53" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="J53" t="s">
-        <v>446</v>
+        <v>352</v>
       </c>
       <c r="K53" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>628</v>
+        <v>677</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D54" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="E54" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F54" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="G54" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="H54" t="s">
+        <v>395</v>
+      </c>
+      <c r="I54" t="s">
+        <v>433</v>
+      </c>
+      <c r="J54" t="s">
         <v>358</v>
       </c>
-      <c r="I54" t="s">
-        <v>438</v>
-      </c>
-      <c r="J54" t="s">
-        <v>334</v>
-      </c>
       <c r="K54" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>636</v>
+        <v>683</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E55" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F55" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G55" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H55" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="I55" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J55" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="K55" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>641</v>
+        <v>706</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="E56" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F56" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="G56" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="H56" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="I56" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J56" t="s">
-        <v>442</v>
+        <v>358</v>
       </c>
       <c r="K56" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>648</v>
+        <v>750</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="E57" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F57" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="G57" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="H57" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="I57" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J57" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K57" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>677</v>
+        <v>778</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E58" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F58" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G58" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="H58" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="I58" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J58" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K58" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>683</v>
+        <v>779</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D59" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E59" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F59" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="G59" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="H59" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="I59" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J59" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="K59" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>696</v>
+        <v>781</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D60" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E60" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F60" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G60" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H60" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="I60" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J60" t="s">
-        <v>339</v>
+        <v>444</v>
       </c>
       <c r="K60" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>706</v>
+        <v>788</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D61" t="s">
         <v>206</v>
       </c>
       <c r="E61" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F61" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G61" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H61" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I61" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J61" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="K61" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>724</v>
+        <v>806</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="E62" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F62" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="G62" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="H62" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="I62" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J62" t="s">
-        <v>442</v>
+        <v>353</v>
       </c>
       <c r="K62" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>746</v>
+        <v>824</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E63" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F63" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="G63" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="H63" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="I63" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J63" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="K63" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>772</v>
+        <v>838</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="E64" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F64" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="G64" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="H64" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="I64" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J64" t="s">
-        <v>442</v>
+        <v>363</v>
       </c>
       <c r="K64" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>773</v>
+        <v>869</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="E65" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F65" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="G65" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="H65" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="I65" t="s">
+        <v>435</v>
+      </c>
+      <c r="J65" t="s">
         <v>439</v>
       </c>
-      <c r="J65" t="s">
-        <v>442</v>
-      </c>
       <c r="K65" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>778</v>
+        <v>875</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E66" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F66" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="G66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H66" t="s">
         <v>398</v>
       </c>
       <c r="I66" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J66" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="K66" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>779</v>
+        <v>894</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E67" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H67" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="I67" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J67" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="K67" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>781</v>
+        <v>897</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="E68" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F68" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G68" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H68" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="I68" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J68" t="s">
-        <v>447</v>
+        <v>368</v>
       </c>
       <c r="K68" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>784</v>
+        <v>928</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D69" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="E69" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F69" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="G69" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="H69" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="I69" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J69" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="K69" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>806</v>
+        <v>935</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D70" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E70" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F70" t="s">
         <v>303</v>
       </c>
       <c r="G70" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="H70" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="I70" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J70" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K70" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>824</v>
+        <v>941</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D71" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="E71" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F71" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H71" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="I71" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J71" t="s">
-        <v>332</v>
+        <v>445</v>
       </c>
       <c r="K71" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1">
-        <v>838</v>
+        <v>949</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E72" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F72" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G72" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="H72" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I72" t="s">
         <v>436</v>
       </c>
       <c r="J72" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K72" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1">
-        <v>867</v>
+        <v>962</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D73" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="E73" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F73" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="G73" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="H73" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="I73" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J73" t="s">
-        <v>334</v>
+        <v>440</v>
       </c>
       <c r="K73" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1">
-        <v>868</v>
+        <v>969</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D74" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="E74" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F74" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="G74" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="H74" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="I74" t="s">
-        <v>333</v>
+        <v>434</v>
       </c>
       <c r="J74" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="K74" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1">
-        <v>875</v>
+        <v>976</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D75" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="E75" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F75" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="G75" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="H75" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="I75" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J75" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="K75" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1">
-        <v>881</v>
+        <v>998</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E76" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F76" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="G76" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="H76" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="I76" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J76" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="K76" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1">
-        <v>894</v>
+        <v>1004</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E77" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F77" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G77" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H77" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I77" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J77" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="K77" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>929</v>
+        <v>1008</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E78" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F78" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G78" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="H78" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="I78" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J78" t="s">
-        <v>442</v>
+        <v>368</v>
       </c>
       <c r="K78" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
-        <v>930</v>
+        <v>1056</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E79" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F79" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G79" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="H79" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="I79" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J79" t="s">
-        <v>442</v>
+        <v>353</v>
       </c>
       <c r="K79" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1">
-        <v>935</v>
+        <v>1081</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D80" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="E80" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F80" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="G80" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H80" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I80" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J80" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="K80" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1">
-        <v>962</v>
+        <v>1082</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D81" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="E81" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F81" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="G81" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="H81" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I81" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J81" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="K81" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1">
-        <v>969</v>
+        <v>1083</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D82" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E82" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F82" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G82" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="H82" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="I82" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J82" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K82" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1">
-        <v>976</v>
+        <v>1087</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D83" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="E83" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F83" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="G83" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="H83" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="I83" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J83" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K83" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1">
-        <v>986</v>
+        <v>1093</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D84" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="E84" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F84" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G84" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="H84" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="I84" t="s">
-        <v>341</v>
+        <v>433</v>
       </c>
       <c r="J84" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
       <c r="K84" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1">
-        <v>995</v>
+        <v>1103</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D85" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E85" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F85" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="G85" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="H85" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="I85" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J85" t="s">
-        <v>334</v>
+        <v>447</v>
       </c>
       <c r="K85" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1">
-        <v>998</v>
+        <v>1124</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D86" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="E86" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F86" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="G86" t="s">
         <v>350</v>
       </c>
       <c r="H86" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="I86" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J86" t="s">
-        <v>334</v>
+        <v>440</v>
       </c>
       <c r="K86" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1">
-        <v>1008</v>
+        <v>1130</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D87" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="E87" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F87" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="G87" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H87" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I87" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J87" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K87" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1">
-        <v>1022</v>
+        <v>1146</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D88" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="E88" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F88" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="G88" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="H88" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="I88" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J88" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K88" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1">
-        <v>1026</v>
+        <v>1163</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D89" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E89" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F89" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="G89" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="H89" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J89" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="K89" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1">
-        <v>1081</v>
+        <v>1177</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D90" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="E90" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F90" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="G90" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="H90" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I90" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J90" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K90" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1">
-        <v>1082</v>
+        <v>1183</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D91" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E91" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F91" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G91" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="H91" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I91" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J91" t="s">
-        <v>336</v>
+        <v>441</v>
       </c>
       <c r="K91" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1">
-        <v>1083</v>
+        <v>1184</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D92" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E92" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F92" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G92" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="H92" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I92" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J92" t="s">
-        <v>336</v>
+        <v>441</v>
       </c>
       <c r="K92" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1">
-        <v>1087</v>
+        <v>1225</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D93" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E93" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F93" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G93" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="H93" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="I93" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J93" t="s">
-        <v>448</v>
+        <v>348</v>
       </c>
       <c r="K93" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1">
-        <v>1093</v>
+        <v>1267</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D94" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E94" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F94" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G94" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H94" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="I94" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J94" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K94" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1">
-        <v>1114</v>
+        <v>1270</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D95" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="E95" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F95" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="G95" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="H95" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="I95" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J95" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K95" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1">
-        <v>1124</v>
+        <v>1293</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D96" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E96" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F96" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G96" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="H96" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="I96" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J96" t="s">
-        <v>441</v>
+        <v>364</v>
       </c>
       <c r="K96" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1">
-        <v>1130</v>
+        <v>1338</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D97" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E97" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F97" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G97" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H97" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="I97" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J97" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K97" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1">
-        <v>1136</v>
+        <v>1343</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D98" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E98" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F98" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="G98" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="H98" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="I98" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J98" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="K98" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1">
-        <v>1156</v>
+        <v>1356</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D99" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="E99" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F99" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="G99" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H99" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="I99" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J99" t="s">
-        <v>442</v>
+        <v>357</v>
       </c>
       <c r="K99" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="1">
-        <v>1183</v>
+        <v>1357</v>
       </c>
       <c r="B100" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D100" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E100" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F100" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G100" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="H100" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="I100" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J100" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="K100" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="1">
-        <v>1184</v>
+        <v>1370</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D101" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="E101" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F101" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G101" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="H101" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="I101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J101" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K101" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="1">
-        <v>1212</v>
+        <v>1374</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D102" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="E102" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F102" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="G102" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="H102" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="I102" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J102" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="K102" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="1">
-        <v>1226</v>
+        <v>1375</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D103" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="E103" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F103" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="G103" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="H103" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I103" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J103" t="s">
-        <v>442</v>
+        <v>357</v>
       </c>
       <c r="K103" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="1">
-        <v>1256</v>
+        <v>1376</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D104" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="E104" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F104" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="G104" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H104" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="I104" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J104" t="s">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="K104" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="1">
-        <v>1267</v>
+        <v>1377</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D105" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E105" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F105" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G105" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="H105" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="I105" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J105" t="s">
-        <v>441</v>
+        <v>355</v>
       </c>
       <c r="K105" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="1">
-        <v>1270</v>
+        <v>1378</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D106" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E106" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F106" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="G106" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="H106" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="I106" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J106" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="K106" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="1">
-        <v>1277</v>
+        <v>1379</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D107" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E107" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F107" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="G107" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H107" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="I107" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J107" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="K107" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="1">
-        <v>1320</v>
+        <v>1380</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D108" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E108" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F108" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="G108" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="H108" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="I108" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J108" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="K108" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="1">
-        <v>1338</v>
+        <v>1381</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D109" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="E109" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F109" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="G109" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="H109" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="I109" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J109" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K109" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="1">
-        <v>1356</v>
+        <v>1388</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D110" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E110" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F110" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="G110" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="H110" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="I110" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J110" t="s">
-        <v>442</v>
+        <v>346</v>
       </c>
       <c r="K110" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="1">
-        <v>1359</v>
+        <v>1393</v>
       </c>
       <c r="B111" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D111" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E111" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F111" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="G111" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="H111" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="I111" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J111" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="K111" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="1">
-        <v>1370</v>
+        <v>1396</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D112" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E112" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F112" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="G112" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="H112" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="I112" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J112" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K112" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="1">
-        <v>1374</v>
+        <v>1398</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D113" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E113" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F113" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G113" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H113" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="I113" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J113" t="s">
-        <v>442</v>
+        <v>363</v>
       </c>
       <c r="K113" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="1">
-        <v>1375</v>
+        <v>1401</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D114" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E114" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F114" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="G114" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H114" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="I114" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J114" t="s">
-        <v>442</v>
+        <v>368</v>
       </c>
       <c r="K114" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="1">
-        <v>1377</v>
+        <v>1402</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D115" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E115" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F115" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="G115" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="H115" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="I115" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J115" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K115" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="1">
-        <v>1378</v>
+        <v>1405</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D116" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E116" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F116" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="G116" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H116" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="I116" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J116" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="K116" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="1">
-        <v>1379</v>
+        <v>1407</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C117" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D117" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="E117" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F117" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G117" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="H117" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="I117" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J117" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="K117" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="1">
-        <v>1380</v>
+        <v>1408</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C118" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D118" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="E118" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F118" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="G118" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="H118" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="I118" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J118" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="K118" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="1">
-        <v>1381</v>
+        <v>1415</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D119" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E119" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F119" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
       <c r="G119" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="H119" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="I119" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J119" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="K119" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="1">
-        <v>1388</v>
+        <v>1418</v>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D120" t="s">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="E120" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F120" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="G120" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="H120" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="I120" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J120" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="K120" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="1">
-        <v>1393</v>
+        <v>1446</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D121" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E121" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F121" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="G121" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H121" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
       <c r="I121" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J121" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="K121" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="1">
-        <v>1396</v>
+        <v>1454</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D122" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="E122" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F122" t="s">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="G122" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H122" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="I122" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J122" t="s">
-        <v>338</v>
+        <v>445</v>
       </c>
       <c r="K122" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="1">
-        <v>1402</v>
+        <v>1457</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D123" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E123" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F123" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="G123" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="H123" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I123" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J123" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
       <c r="K123" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="1">
-        <v>1408</v>
+        <v>1469</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D124" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="E124" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F124" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="G124" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="H124" t="s">
-        <v>358</v>
+        <v>427</v>
       </c>
       <c r="I124" t="s">
         <v>437</v>
       </c>
       <c r="J124" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="K124" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="1">
-        <v>1411</v>
+        <v>1475</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D125" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E125" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F125" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="G125" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="H125" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="I125" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J125" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="K125" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="1">
-        <v>1415</v>
+        <v>1503</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D126" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E126" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F126" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="G126" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="H126" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="I126" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J126" t="s">
-        <v>338</v>
+        <v>447</v>
       </c>
       <c r="K126" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="1">
-        <v>1417</v>
+        <v>1507</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D127" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E127" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F127" t="s">
-        <v>271</v>
+        <v>337</v>
       </c>
       <c r="G127" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H127" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="I127" t="s">
-        <v>356</v>
+        <v>436</v>
       </c>
       <c r="J127" t="s">
-        <v>334</v>
+        <v>447</v>
       </c>
       <c r="K127" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="1">
-        <v>1418</v>
+        <v>1514</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D128" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E128" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F128" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G128" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H128" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="I128" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J128" t="s">
-        <v>357</v>
+        <v>440</v>
       </c>
       <c r="K128" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="1">
-        <v>1440</v>
+        <v>1528</v>
       </c>
       <c r="B129" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D129" t="s">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="E129" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F129" t="s">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="G129" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="H129" t="s">
-        <v>365</v>
+        <v>428</v>
       </c>
       <c r="I129" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J129" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="K129" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="1">
-        <v>1441</v>
+        <v>1550</v>
       </c>
       <c r="B130" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D130" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="E130" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F130" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="G130" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="H130" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="I130" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J130" t="s">
-        <v>442</v>
+        <v>349</v>
       </c>
       <c r="K130" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="1">
-        <v>1457</v>
+        <v>1560</v>
       </c>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D131" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="E131" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F131" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="G131" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H131" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="I131" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J131" t="s">
-        <v>441</v>
+        <v>358</v>
       </c>
       <c r="K131" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="1">
-        <v>1469</v>
+        <v>1562</v>
       </c>
       <c r="B132" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D132" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E132" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="G132" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H132" t="s">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="I132" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J132" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="K132" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="1">
-        <v>1500</v>
+        <v>1580</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="C133" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D133" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="E133" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="G133" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="H133" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="I133" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J133" t="s">
-        <v>334</v>
+        <v>444</v>
       </c>
       <c r="K133" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="1">
-        <v>1514</v>
+        <v>1584</v>
       </c>
       <c r="B134" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D134" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="E134" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="G134" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="H134" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="I134" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J134" t="s">
-        <v>441</v>
+        <v>368</v>
       </c>
       <c r="K134" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="1">
-        <v>1550</v>
+        <v>1585</v>
       </c>
       <c r="B135" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D135" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="G135" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="H135" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="I135" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J135" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="K135" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="1">
-        <v>1560</v>
+        <v>1592</v>
       </c>
       <c r="B136" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D136" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="G136" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H136" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="I136" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J136" t="s">
-        <v>345</v>
+        <v>446</v>
       </c>
       <c r="K136" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="1">
-        <v>1572</v>
+        <v>1616</v>
       </c>
       <c r="B137" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D137" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G137" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="H137" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="I137" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J137" t="s">
-        <v>442</v>
+        <v>349</v>
       </c>
       <c r="K137" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="1">
-        <v>1573</v>
+        <v>1667</v>
       </c>
       <c r="B138" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D138" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F138" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G138" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="H138" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="I138" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J138" t="s">
-        <v>442</v>
+        <v>349</v>
       </c>
       <c r="K138" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="1">
-        <v>1580</v>
+        <v>1690</v>
       </c>
       <c r="B139" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D139" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="G139" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H139" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I139" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J139" t="s">
-        <v>447</v>
+        <v>349</v>
       </c>
       <c r="K139" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="1">
-        <v>1584</v>
+        <v>1693</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D140" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F140" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="G140" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="H140" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="I140" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J140" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="K140" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="1">
-        <v>1585</v>
+        <v>1708</v>
       </c>
       <c r="B141" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D141" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F141" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="G141" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H141" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="I141" t="s">
         <v>436</v>
       </c>
       <c r="J141" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="K141" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="1">
-        <v>1592</v>
+        <v>1724</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D142" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F142" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="G142" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="H142" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I142" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J142" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="K142" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="1">
-        <v>1622</v>
+        <v>1728</v>
       </c>
       <c r="B143" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D143" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F143" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="G143" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="H143" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I143" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J143" t="s">
-        <v>339</v>
+        <v>439</v>
       </c>
       <c r="K143" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="1">
-        <v>1625</v>
+        <v>1753</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D144" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F144" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="G144" t="s">
         <v>354</v>
       </c>
       <c r="H144" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I144" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J144" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="K144" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="1">
-        <v>1656</v>
+        <v>1754</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D145" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F145" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G145" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H145" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="I145" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J145" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="K145" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="1">
-        <v>1657</v>
+        <v>1757</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D146" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="E146" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F146" t="s">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="G146" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="H146" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="I146" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J146" t="s">
-        <v>442</v>
+        <v>345</v>
       </c>
       <c r="K146" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="1">
-        <v>1670</v>
+        <v>1800</v>
       </c>
       <c r="B147" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D147" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="E147" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F147" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="G147" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H147" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="I147" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J147" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="K147" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="1">
-        <v>1672</v>
+        <v>1801</v>
       </c>
       <c r="B148" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="C148" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D148" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="E148" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F148" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="G148" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="H148" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I148" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J148" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="K148" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="1">
-        <v>1708</v>
+        <v>1802</v>
       </c>
       <c r="B149" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D149" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E149" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F149" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="G149" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="H149" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I149" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J149" t="s">
         <v>442</v>
       </c>
       <c r="K149" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="1">
-        <v>1724</v>
+        <v>1821</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D150" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="E150" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F150" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="G150" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H150" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="I150" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J150" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="K150" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="1">
-        <v>1743</v>
+        <v>1822</v>
       </c>
       <c r="B151" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D151" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="E151" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F151" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G151" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="H151" t="s">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="I151" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J151" t="s">
-        <v>442</v>
+        <v>364</v>
       </c>
       <c r="K151" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="1">
-        <v>1757</v>
+        <v>1823</v>
       </c>
       <c r="B152" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C152" t="s">
         <v>164</v>
       </c>
       <c r="D152" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="E152" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F152" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G152" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H152" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="I152" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J152" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="K152" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="1">
-        <v>1786</v>
+        <v>1827</v>
       </c>
       <c r="B153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" t="s">
         <v>157</v>
       </c>
-      <c r="C153" t="s">
-        <v>168</v>
-      </c>
       <c r="D153" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E153" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F153" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="G153" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H153" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="I153" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J153" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K153" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="1">
-        <v>1787</v>
+        <v>1834</v>
       </c>
       <c r="B154" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D154" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E154" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F154" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="G154" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H154" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="I154" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J154" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="K154" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="1">
-        <v>1800</v>
+        <v>1841</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D155" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="E155" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F155" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="G155" t="s">
+        <v>357</v>
+      </c>
+      <c r="H155" t="s">
+        <v>403</v>
+      </c>
+      <c r="I155" t="s">
+        <v>436</v>
+      </c>
+      <c r="J155" t="s">
         <v>353</v>
       </c>
-      <c r="H155" t="s">
-        <v>394</v>
-      </c>
-      <c r="I155" t="s">
-        <v>440</v>
-      </c>
-      <c r="J155" t="s">
-        <v>446</v>
-      </c>
       <c r="K155" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156" s="1">
-        <v>1802</v>
-      </c>
-      <c r="B156" t="s">
-        <v>160</v>
-      </c>
-      <c r="C156" t="s">
-        <v>164</v>
-      </c>
-      <c r="D156" t="s">
-        <v>267</v>
-      </c>
-      <c r="E156" t="s">
-        <v>269</v>
-      </c>
-      <c r="F156" t="s">
-        <v>330</v>
-      </c>
-      <c r="G156" t="s">
-        <v>347</v>
-      </c>
-      <c r="H156" t="s">
-        <v>435</v>
-      </c>
-      <c r="I156" t="s">
-        <v>436</v>
-      </c>
-      <c r="J156" t="s">
-        <v>444</v>
-      </c>
-      <c r="K156" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157" s="1">
-        <v>1805</v>
-      </c>
-      <c r="B157" t="s">
-        <v>161</v>
-      </c>
-      <c r="C157" t="s">
-        <v>167</v>
-      </c>
-      <c r="D157" t="s">
-        <v>244</v>
-      </c>
-      <c r="E157" t="s">
-        <v>269</v>
-      </c>
-      <c r="F157" t="s">
-        <v>271</v>
-      </c>
-      <c r="G157" t="s">
-        <v>332</v>
-      </c>
-      <c r="H157" t="s">
-        <v>397</v>
-      </c>
-      <c r="I157" t="s">
-        <v>438</v>
-      </c>
-      <c r="J157" t="s">
-        <v>334</v>
-      </c>
-      <c r="K157" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158" s="1">
-        <v>1826</v>
-      </c>
-      <c r="B158" t="s">
-        <v>162</v>
-      </c>
-      <c r="C158" t="s">
-        <v>167</v>
-      </c>
-      <c r="D158" t="s">
-        <v>222</v>
-      </c>
-      <c r="E158" t="s">
-        <v>269</v>
-      </c>
-      <c r="F158" t="s">
-        <v>271</v>
-      </c>
-      <c r="G158" t="s">
-        <v>332</v>
-      </c>
-      <c r="H158" t="s">
-        <v>397</v>
-      </c>
-      <c r="I158" t="s">
-        <v>438</v>
-      </c>
-      <c r="J158" t="s">
-        <v>334</v>
-      </c>
-      <c r="K158" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159" s="1">
-        <v>1834</v>
-      </c>
-      <c r="B159" t="s">
-        <v>163</v>
-      </c>
-      <c r="C159" t="s">
-        <v>170</v>
-      </c>
-      <c r="D159" t="s">
-        <v>268</v>
-      </c>
-      <c r="E159" t="s">
-        <v>269</v>
-      </c>
-      <c r="F159" t="s">
-        <v>331</v>
-      </c>
-      <c r="G159" t="s">
-        <v>338</v>
-      </c>
-      <c r="H159" t="s">
-        <v>379</v>
-      </c>
-      <c r="I159" t="s">
-        <v>436</v>
-      </c>
-      <c r="J159" t="s">
-        <v>339</v>
-      </c>
-      <c r="K159" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/output/錯誤型態彙整.xlsx
+++ b/output/錯誤型態彙整.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="439">
   <si>
     <t>45A</t>
   </si>
@@ -46,6 +46,12 @@
     <t>from</t>
   </si>
   <si>
+    <t>EXPNO</t>
+  </si>
+  <si>
+    <t>與前案一致</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 750000 BARRELS PLUSMINUS 10 PCT OF GASOIL 10PPM SULPHURFOB MAILIAO TAIWAN </t>
   </si>
   <si>
@@ -1211,6 +1217,120 @@
   </si>
   <si>
     <t>1209.xls</t>
+  </si>
+  <si>
+    <t>61F12016</t>
+  </si>
+  <si>
+    <t>61F11002</t>
+  </si>
+  <si>
+    <t>27P11346</t>
+  </si>
+  <si>
+    <t>2EK11040</t>
+  </si>
+  <si>
+    <t>2PL14128</t>
+  </si>
+  <si>
+    <t>2PN14080</t>
+  </si>
+  <si>
+    <t>4AF11069</t>
+  </si>
+  <si>
+    <t>18F11011</t>
+  </si>
+  <si>
+    <t>11G11F59</t>
+  </si>
+  <si>
+    <t>18K11012</t>
+  </si>
+  <si>
+    <t>1AM12227</t>
+  </si>
+  <si>
+    <t>1PE11013</t>
+  </si>
+  <si>
+    <t>2R712307</t>
+  </si>
+  <si>
+    <t>11G12G79</t>
+  </si>
+  <si>
+    <t>2N811216</t>
+  </si>
+  <si>
+    <t>2PL14115</t>
+  </si>
+  <si>
+    <t>27P11476</t>
+  </si>
+  <si>
+    <t>25B14038</t>
+  </si>
+  <si>
+    <t>11G12C75</t>
+  </si>
+  <si>
+    <t>25D11126</t>
+  </si>
+  <si>
+    <t>61B11033</t>
+  </si>
+  <si>
+    <t>18Q11005</t>
+  </si>
+  <si>
+    <t>2RC13301</t>
+  </si>
+  <si>
+    <t>27P13358</t>
+  </si>
+  <si>
+    <t>2N511244</t>
+  </si>
+  <si>
+    <t>25D12134</t>
+  </si>
+  <si>
+    <t>27P11257</t>
+  </si>
+  <si>
+    <t>2AD01184</t>
+  </si>
+  <si>
+    <t>25H15004</t>
+  </si>
+  <si>
+    <t>1PG12003</t>
+  </si>
+  <si>
+    <t>1AM12265</t>
+  </si>
+  <si>
+    <t>2EN11002</t>
+  </si>
+  <si>
+    <t>27P13569</t>
+  </si>
+  <si>
+    <t>12S11101</t>
+  </si>
+  <si>
+    <t>18M13026</t>
+  </si>
+  <si>
+    <t>18F11006</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -1568,13 +1688,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1605,4100 +1725,4808 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>359</v>
+      </c>
+      <c r="L2" t="s">
+        <v>401</v>
+      </c>
+      <c r="M2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>359</v>
+      </c>
+      <c r="L3" t="s">
+        <v>402</v>
+      </c>
+      <c r="M3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>360</v>
+      </c>
+      <c r="L4" t="s">
+        <v>403</v>
+      </c>
+      <c r="M4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>361</v>
+      </c>
+      <c r="L5" t="s">
+        <v>404</v>
+      </c>
+      <c r="M5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>361</v>
+      </c>
+      <c r="L6" t="s">
+        <v>405</v>
+      </c>
+      <c r="M6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>362</v>
+      </c>
+      <c r="L7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>362</v>
+      </c>
+      <c r="L8" t="s">
+        <v>407</v>
+      </c>
+      <c r="M8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>363</v>
+      </c>
+      <c r="L9" t="s">
+        <v>402</v>
+      </c>
+      <c r="M9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>247</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>364</v>
+      </c>
+      <c r="L10" t="s">
+        <v>408</v>
+      </c>
+      <c r="M10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>263</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>364</v>
+      </c>
+      <c r="L11" t="s">
+        <v>409</v>
+      </c>
+      <c r="M11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>269</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I12" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>364</v>
+      </c>
+      <c r="L12" t="s">
+        <v>410</v>
+      </c>
+      <c r="M12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>283</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I13" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K13" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>365</v>
+      </c>
+      <c r="L13" t="s">
+        <v>411</v>
+      </c>
+      <c r="M13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>286</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H14" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I14" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>365</v>
+      </c>
+      <c r="L14" t="s">
+        <v>404</v>
+      </c>
+      <c r="M14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>309</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H15" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I15" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J15" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K15" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>365</v>
+      </c>
+      <c r="L15" t="s">
+        <v>403</v>
+      </c>
+      <c r="M15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>310</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H16" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J16" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>365</v>
+      </c>
+      <c r="L16" t="s">
+        <v>402</v>
+      </c>
+      <c r="M16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>320</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I17" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K17" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>366</v>
+      </c>
+      <c r="L17" t="s">
+        <v>412</v>
+      </c>
+      <c r="M17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>324</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F18" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G18" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I18" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J18" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K18" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>366</v>
+      </c>
+      <c r="L18" t="s">
+        <v>413</v>
+      </c>
+      <c r="M18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>325</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H19" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I19" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J19" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K19" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>366</v>
+      </c>
+      <c r="L19" t="s">
+        <v>413</v>
+      </c>
+      <c r="M19" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>347</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H20" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I20" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J20" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K20" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>367</v>
+      </c>
+      <c r="L20" t="s">
+        <v>414</v>
+      </c>
+      <c r="M20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>372</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H21" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I21" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K21" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>367</v>
+      </c>
+      <c r="L21" t="s">
+        <v>415</v>
+      </c>
+      <c r="M21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>401</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I22" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J22" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K22" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>368</v>
+      </c>
+      <c r="L22" t="s">
+        <v>403</v>
+      </c>
+      <c r="M22" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>440</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H23" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I23" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J23" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K23" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>369</v>
+      </c>
+      <c r="L23" t="s">
+        <v>416</v>
+      </c>
+      <c r="M23" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>447</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G24" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H24" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I24" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J24" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K24" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>369</v>
+      </c>
+      <c r="L24" t="s">
+        <v>405</v>
+      </c>
+      <c r="M24" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>474</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G25" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H25" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I25" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K25" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>370</v>
+      </c>
+      <c r="L25" t="s">
+        <v>417</v>
+      </c>
+      <c r="M25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>490</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G26" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H26" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I26" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K26" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>370</v>
+      </c>
+      <c r="L26" t="s">
+        <v>418</v>
+      </c>
+      <c r="M26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>498</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G27" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H27" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I27" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J27" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K27" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>370</v>
+      </c>
+      <c r="L27" t="s">
+        <v>402</v>
+      </c>
+      <c r="M27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>506</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G28" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H28" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I28" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J28" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K28" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>371</v>
+      </c>
+      <c r="L28" t="s">
+        <v>407</v>
+      </c>
+      <c r="M28" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>519</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G29" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H29" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I29" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J29" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>371</v>
+      </c>
+      <c r="L29" t="s">
+        <v>408</v>
+      </c>
+      <c r="M29" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>521</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G30" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H30" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I30" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J30" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>371</v>
+      </c>
+      <c r="L30" t="s">
+        <v>408</v>
+      </c>
+      <c r="M30" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>541</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G31" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H31" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I31" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J31" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K31" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>372</v>
+      </c>
+      <c r="L31" t="s">
+        <v>419</v>
+      </c>
+      <c r="M31" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>546</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G32" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H32" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I32" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>372</v>
+      </c>
+      <c r="L32" t="s">
+        <v>405</v>
+      </c>
+      <c r="M32" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>572</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G33" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H33" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I33" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J33" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K33" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>372</v>
+      </c>
+      <c r="L33" t="s">
+        <v>420</v>
+      </c>
+      <c r="M33" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>585</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H34" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I34" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J34" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K34" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>372</v>
+      </c>
+      <c r="L34" t="s">
+        <v>421</v>
+      </c>
+      <c r="M34" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>605</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G35" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H35" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I35" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J35" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K35" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>373</v>
+      </c>
+      <c r="L35" t="s">
+        <v>409</v>
+      </c>
+      <c r="M35" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>636</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G36" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H36" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I36" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J36" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>374</v>
+      </c>
+      <c r="L36" t="s">
+        <v>422</v>
+      </c>
+      <c r="M36" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>648</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F37" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G37" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H37" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I37" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J37" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K37" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>374</v>
+      </c>
+      <c r="L37" t="s">
+        <v>403</v>
+      </c>
+      <c r="M37" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>677</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F38" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G38" t="s">
+        <v>272</v>
+      </c>
+      <c r="H38" t="s">
+        <v>306</v>
+      </c>
+      <c r="I38" t="s">
+        <v>343</v>
+      </c>
+      <c r="J38" t="s">
         <v>270</v>
       </c>
-      <c r="H38" t="s">
-        <v>304</v>
-      </c>
-      <c r="I38" t="s">
-        <v>341</v>
-      </c>
-      <c r="J38" t="s">
-        <v>268</v>
-      </c>
       <c r="K38" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>375</v>
+      </c>
+      <c r="L38" t="s">
+        <v>423</v>
+      </c>
+      <c r="M38" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>683</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F39" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G39" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H39" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I39" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J39" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K39" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>375</v>
+      </c>
+      <c r="L39" t="s">
+        <v>404</v>
+      </c>
+      <c r="M39" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>706</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G40" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H40" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I40" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J40" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K40" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>375</v>
+      </c>
+      <c r="L40" t="s">
+        <v>405</v>
+      </c>
+      <c r="M40" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>709</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F41" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G41" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H41" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I41" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J41" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K41" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>375</v>
+      </c>
+      <c r="L41" t="s">
+        <v>403</v>
+      </c>
+      <c r="M41" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>750</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G42" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H42" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I42" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J42" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K42" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>376</v>
+      </c>
+      <c r="L42" t="s">
+        <v>422</v>
+      </c>
+      <c r="M42" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>763</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G43" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H43" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I43" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J43" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K43" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>377</v>
+      </c>
+      <c r="L43" t="s">
+        <v>424</v>
+      </c>
+      <c r="M43" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>778</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F44" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G44" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H44" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I44" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J44" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K44" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>377</v>
+      </c>
+      <c r="L44" t="s">
+        <v>407</v>
+      </c>
+      <c r="M44" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>779</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G45" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I45" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J45" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K45" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>377</v>
+      </c>
+      <c r="L45" t="s">
+        <v>407</v>
+      </c>
+      <c r="M45" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>781</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F46" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G46" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H46" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I46" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J46" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K46" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>377</v>
+      </c>
+      <c r="L46" t="s">
+        <v>425</v>
+      </c>
+      <c r="M46" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>788</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F47" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G47" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H47" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I47" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J47" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K47" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>377</v>
+      </c>
+      <c r="L47" t="s">
+        <v>406</v>
+      </c>
+      <c r="M47" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>806</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G48" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H48" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I48" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J48" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K48" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>378</v>
+      </c>
+      <c r="L48" t="s">
+        <v>414</v>
+      </c>
+      <c r="M48" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>824</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E49" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F49" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G49" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H49" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I49" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J49" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K49" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>379</v>
+      </c>
+      <c r="L49" t="s">
+        <v>403</v>
+      </c>
+      <c r="M49" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>838</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F50" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G50" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H50" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I50" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J50" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K50" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>379</v>
+      </c>
+      <c r="L50" t="s">
+        <v>423</v>
+      </c>
+      <c r="M50" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>875</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E51" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G51" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H51" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I51" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J51" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K51" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>380</v>
+      </c>
+      <c r="L51" t="s">
+        <v>410</v>
+      </c>
+      <c r="M51" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>894</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F52" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G52" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H52" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I52" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J52" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K52" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>380</v>
+      </c>
+      <c r="L52" t="s">
+        <v>423</v>
+      </c>
+      <c r="M52" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>897</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E53" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F53" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G53" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H53" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I53" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J53" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K53" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>380</v>
+      </c>
+      <c r="L53" t="s">
+        <v>406</v>
+      </c>
+      <c r="M53" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>928</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E54" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F54" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G54" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H54" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I54" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J54" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K54" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>381</v>
+      </c>
+      <c r="L54" t="s">
+        <v>416</v>
+      </c>
+      <c r="M54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>935</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E55" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F55" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G55" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H55" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I55" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J55" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K55" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>381</v>
+      </c>
+      <c r="L55" t="s">
+        <v>423</v>
+      </c>
+      <c r="M55" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>962</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F56" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G56" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H56" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I56" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J56" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K56" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>382</v>
+      </c>
+      <c r="L56" t="s">
+        <v>426</v>
+      </c>
+      <c r="M56" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>969</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F57" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G57" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H57" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I57" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J57" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K57" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>382</v>
+      </c>
+      <c r="L57" t="s">
+        <v>407</v>
+      </c>
+      <c r="M57" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>977</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E58" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F58" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G58" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H58" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I58" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J58" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K58" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>382</v>
+      </c>
+      <c r="L58" t="s">
+        <v>409</v>
+      </c>
+      <c r="M58" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>998</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E59" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F59" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G59" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H59" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I59" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J59" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K59" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>383</v>
+      </c>
+      <c r="L59" t="s">
+        <v>427</v>
+      </c>
+      <c r="M59" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>1008</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F60" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G60" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H60" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I60" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J60" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K60" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>383</v>
+      </c>
+      <c r="L60" t="s">
+        <v>416</v>
+      </c>
+      <c r="M60" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>1056</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F61" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G61" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H61" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I61" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J61" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K61" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>384</v>
+      </c>
+      <c r="L61" t="s">
+        <v>422</v>
+      </c>
+      <c r="M61" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>1081</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E62" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F62" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G62" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H62" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I62" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J62" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K62" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>385</v>
+      </c>
+      <c r="L62" t="s">
+        <v>420</v>
+      </c>
+      <c r="M62" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>1082</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E63" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F63" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G63" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H63" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I63" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J63" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K63" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>385</v>
+      </c>
+      <c r="L63" t="s">
+        <v>403</v>
+      </c>
+      <c r="M63" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>1083</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E64" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F64" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G64" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H64" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I64" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J64" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K64" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>385</v>
+      </c>
+      <c r="L64" t="s">
+        <v>403</v>
+      </c>
+      <c r="M64" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>1087</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E65" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F65" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G65" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H65" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I65" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J65" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K65" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>385</v>
+      </c>
+      <c r="L65" t="s">
+        <v>428</v>
+      </c>
+      <c r="M65" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>1093</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D66" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F66" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G66" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H66" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I66" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J66" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K66" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>385</v>
+      </c>
+      <c r="L66" t="s">
+        <v>413</v>
+      </c>
+      <c r="M66" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>1124</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D67" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E67" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F67" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G67" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H67" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I67" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J67" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K67" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>386</v>
+      </c>
+      <c r="L67" t="s">
+        <v>429</v>
+      </c>
+      <c r="M67" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>1130</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D68" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F68" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G68" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H68" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I68" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J68" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K68" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>386</v>
+      </c>
+      <c r="L68" t="s">
+        <v>407</v>
+      </c>
+      <c r="M68" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>1146</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D69" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E69" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F69" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G69" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H69" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I69" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J69" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K69" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>387</v>
+      </c>
+      <c r="L69" t="s">
+        <v>408</v>
+      </c>
+      <c r="M69" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>1163</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D70" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E70" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F70" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G70" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H70" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I70" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J70" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K70" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>387</v>
+      </c>
+      <c r="L70" t="s">
+        <v>430</v>
+      </c>
+      <c r="M70" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>1177</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D71" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E71" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F71" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G71" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I71" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J71" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K71" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>387</v>
+      </c>
+      <c r="L71" t="s">
+        <v>408</v>
+      </c>
+      <c r="M71" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>1183</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D72" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E72" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F72" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G72" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H72" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I72" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J72" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K72" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>388</v>
+      </c>
+      <c r="L72" t="s">
+        <v>431</v>
+      </c>
+      <c r="M72" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>1184</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D73" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E73" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F73" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G73" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H73" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I73" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J73" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K73" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>388</v>
+      </c>
+      <c r="L73" t="s">
+        <v>431</v>
+      </c>
+      <c r="M73" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>1225</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E74" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F74" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G74" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H74" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I74" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J74" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K74" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>389</v>
+      </c>
+      <c r="L74" t="s">
+        <v>429</v>
+      </c>
+      <c r="M74" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>1267</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D75" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F75" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G75" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H75" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I75" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J75" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K75" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>390</v>
+      </c>
+      <c r="L75" t="s">
+        <v>429</v>
+      </c>
+      <c r="M75" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>1270</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D76" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E76" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F76" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G76" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H76" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I76" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J76" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K76" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>390</v>
+      </c>
+      <c r="L76" t="s">
+        <v>403</v>
+      </c>
+      <c r="M76" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>1331</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F77" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G77" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H77" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I77" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J77" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K77" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>391</v>
+      </c>
+      <c r="L77" t="s">
+        <v>409</v>
+      </c>
+      <c r="M77" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>1338</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D78" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E78" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F78" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G78" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H78" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I78" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J78" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K78" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>391</v>
+      </c>
+      <c r="L78" t="s">
+        <v>408</v>
+      </c>
+      <c r="M78" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>1344</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E79" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F79" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G79" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H79" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I79" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J79" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K79" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>391</v>
+      </c>
+      <c r="L79" t="s">
+        <v>407</v>
+      </c>
+      <c r="M79" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>1356</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D80" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E80" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F80" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G80" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H80" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I80" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J80" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K80" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>391</v>
+      </c>
+      <c r="L80" t="s">
+        <v>409</v>
+      </c>
+      <c r="M80" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
         <v>1370</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F81" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G81" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H81" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I81" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J81" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K81" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L81" t="s">
+        <v>431</v>
+      </c>
+      <c r="M81" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
         <v>1373</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D82" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E82" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F82" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G82" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H82" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I82" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J82" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K82" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L82" t="s">
+        <v>409</v>
+      </c>
+      <c r="M82" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
         <v>1374</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D83" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E83" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F83" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G83" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H83" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I83" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J83" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K83" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L83" t="s">
+        <v>409</v>
+      </c>
+      <c r="M83" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
         <v>1375</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E84" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F84" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G84" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H84" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I84" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J84" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K84" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L84" t="s">
+        <v>409</v>
+      </c>
+      <c r="M84" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
         <v>1377</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D85" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E85" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F85" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G85" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H85" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I85" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J85" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K85" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L85" t="s">
+        <v>432</v>
+      </c>
+      <c r="M85" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
         <v>1378</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E86" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F86" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G86" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H86" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I86" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J86" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K86" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L86" t="s">
+        <v>432</v>
+      </c>
+      <c r="M86" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
         <v>1379</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E87" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F87" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G87" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H87" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I87" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J87" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K87" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L87" t="s">
+        <v>433</v>
+      </c>
+      <c r="M87" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
         <v>1380</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D88" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E88" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F88" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G88" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H88" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I88" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J88" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K88" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L88" t="s">
+        <v>434</v>
+      </c>
+      <c r="M88" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1">
         <v>1381</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E89" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F89" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G89" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H89" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I89" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J89" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K89" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L89" t="s">
+        <v>407</v>
+      </c>
+      <c r="M89" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1">
         <v>1388</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D90" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E90" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F90" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G90" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H90" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I90" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J90" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K90" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L90" t="s">
+        <v>407</v>
+      </c>
+      <c r="M90" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1">
         <v>1393</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D91" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E91" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F91" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G91" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H91" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I91" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J91" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K91" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L91" t="s">
+        <v>420</v>
+      </c>
+      <c r="M91" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1">
         <v>1396</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E92" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F92" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G92" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H92" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I92" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J92" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K92" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L92" t="s">
+        <v>407</v>
+      </c>
+      <c r="M92" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1">
         <v>1402</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E93" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F93" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G93" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H93" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I93" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J93" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K93" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L93" t="s">
+        <v>407</v>
+      </c>
+      <c r="M93" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1">
         <v>1407</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C94" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D94" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E94" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F94" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G94" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H94" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I94" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J94" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K94" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L94" t="s">
+        <v>430</v>
+      </c>
+      <c r="M94" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1">
         <v>1408</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D95" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E95" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F95" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G95" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H95" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I95" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J95" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K95" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L95" t="s">
+        <v>430</v>
+      </c>
+      <c r="M95" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1">
         <v>1415</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E96" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F96" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G96" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H96" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I96" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J96" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K96" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L96" t="s">
+        <v>407</v>
+      </c>
+      <c r="M96" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1">
         <v>1418</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D97" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E97" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F97" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G97" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H97" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I97" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J97" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K97" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>392</v>
+      </c>
+      <c r="L97" t="s">
+        <v>403</v>
+      </c>
+      <c r="M97" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1">
         <v>1469</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D98" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E98" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F98" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G98" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H98" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I98" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J98" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K98" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>393</v>
+      </c>
+      <c r="L98" t="s">
+        <v>435</v>
+      </c>
+      <c r="M98" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1">
         <v>1485</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D99" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E99" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F99" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G99" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H99" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I99" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J99" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K99" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>394</v>
+      </c>
+      <c r="L99" t="s">
+        <v>409</v>
+      </c>
+      <c r="M99" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1">
         <v>1514</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D100" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E100" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F100" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G100" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H100" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I100" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J100" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K100" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>395</v>
+      </c>
+      <c r="L100" t="s">
+        <v>420</v>
+      </c>
+      <c r="M100" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1">
         <v>1550</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D101" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E101" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F101" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G101" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H101" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I101" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J101" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K101" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>396</v>
+      </c>
+      <c r="L101" t="s">
+        <v>410</v>
+      </c>
+      <c r="M101" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1">
         <v>1559</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D102" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E102" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F102" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G102" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H102" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I102" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J102" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K102" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>396</v>
+      </c>
+      <c r="L102" t="s">
+        <v>409</v>
+      </c>
+      <c r="M102" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1">
         <v>1560</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D103" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E103" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G103" t="s">
+        <v>272</v>
+      </c>
+      <c r="H103" t="s">
+        <v>306</v>
+      </c>
+      <c r="I103" t="s">
+        <v>343</v>
+      </c>
+      <c r="J103" t="s">
         <v>270</v>
       </c>
-      <c r="H103" t="s">
-        <v>304</v>
-      </c>
-      <c r="I103" t="s">
-        <v>341</v>
-      </c>
-      <c r="J103" t="s">
-        <v>268</v>
-      </c>
       <c r="K103" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>396</v>
+      </c>
+      <c r="L103" t="s">
+        <v>423</v>
+      </c>
+      <c r="M103" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1">
         <v>1580</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C104" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D104" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E104" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F104" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G104" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H104" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I104" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J104" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K104" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>396</v>
+      </c>
+      <c r="L104" t="s">
+        <v>425</v>
+      </c>
+      <c r="M104" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="1">
         <v>1584</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D105" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E105" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G105" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H105" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I105" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J105" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K105" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>396</v>
+      </c>
+      <c r="L105" t="s">
+        <v>416</v>
+      </c>
+      <c r="M105" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="1">
         <v>1585</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D106" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E106" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F106" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G106" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H106" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I106" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J106" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K106" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>396</v>
+      </c>
+      <c r="L106" t="s">
+        <v>423</v>
+      </c>
+      <c r="M106" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="1">
         <v>1592</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E107" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G107" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H107" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I107" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J107" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K107" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>396</v>
+      </c>
+      <c r="L107" t="s">
+        <v>428</v>
+      </c>
+      <c r="M107" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="1">
         <v>1664</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D108" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E108" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F108" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G108" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H108" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I108" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J108" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K108" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>397</v>
+      </c>
+      <c r="L108" t="s">
+        <v>409</v>
+      </c>
+      <c r="M108" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="1">
         <v>1667</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D109" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E109" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G109" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H109" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I109" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J109" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K109" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>397</v>
+      </c>
+      <c r="L109" t="s">
+        <v>408</v>
+      </c>
+      <c r="M109" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="1">
         <v>1690</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D110" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E110" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G110" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H110" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I110" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J110" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K110" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>398</v>
+      </c>
+      <c r="L110" t="s">
+        <v>408</v>
+      </c>
+      <c r="M110" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1">
         <v>1696</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D111" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E111" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F111" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G111" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H111" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I111" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J111" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K111" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>398</v>
+      </c>
+      <c r="L111" t="s">
+        <v>409</v>
+      </c>
+      <c r="M111" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1">
         <v>1697</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D112" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E112" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F112" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G112" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H112" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I112" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J112" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K112" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>398</v>
+      </c>
+      <c r="L112" t="s">
+        <v>409</v>
+      </c>
+      <c r="M112" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="1">
         <v>1724</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D113" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E113" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F113" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G113" t="s">
+        <v>271</v>
+      </c>
+      <c r="H113" t="s">
+        <v>297</v>
+      </c>
+      <c r="I113" t="s">
+        <v>345</v>
+      </c>
+      <c r="J113" t="s">
         <v>269</v>
       </c>
-      <c r="H113" t="s">
-        <v>295</v>
-      </c>
-      <c r="I113" t="s">
-        <v>343</v>
-      </c>
-      <c r="J113" t="s">
-        <v>267</v>
-      </c>
       <c r="K113" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>398</v>
+      </c>
+      <c r="L113" t="s">
+        <v>436</v>
+      </c>
+      <c r="M113" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="1">
         <v>1728</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D114" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E114" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F114" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G114" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H114" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I114" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J114" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K114" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>398</v>
+      </c>
+      <c r="L114" t="s">
+        <v>402</v>
+      </c>
+      <c r="M114" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="1">
         <v>1753</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D115" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E115" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F115" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G115" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H115" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I115" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J115" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K115" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>399</v>
+      </c>
+      <c r="L115" t="s">
+        <v>408</v>
+      </c>
+      <c r="M115" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="1">
         <v>1757</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D116" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E116" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F116" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G116" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H116" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I116" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J116" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K116" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>399</v>
+      </c>
+      <c r="L116" t="s">
+        <v>423</v>
+      </c>
+      <c r="M116" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="1">
         <v>1800</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D117" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E117" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F117" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G117" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H117" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I117" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J117" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K117" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>400</v>
+      </c>
+      <c r="L117" t="s">
+        <v>421</v>
+      </c>
+      <c r="M117" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="1">
         <v>1802</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D118" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E118" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F118" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G118" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H118" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I118" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J118" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K118" t="s">
-        <v>398</v>
+        <v>400</v>
+      </c>
+      <c r="L118" t="s">
+        <v>413</v>
+      </c>
+      <c r="M118" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/output/錯誤型態彙整.xlsx
+++ b/output/錯誤型態彙整.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="515">
   <si>
     <t>45A</t>
   </si>
@@ -52,6 +52,12 @@
     <t>與前案一致</t>
   </si>
   <si>
+    <t xml:space="preserve">  COMMODITY DPHP TOTAL QUANTITY 16MTS UNIT PRICE USD2400MT TRADE TERMS CIF HAIPHONG PORT VIETNAM INCOTERMS 2010 ORIGIN TAIWAN PACKING IN 200KGS DRUM 80DRUMS PER 1 X 20FCLDETAILS AS PER SALES CONTRACT NN1962 DATED SEP 14TH 2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMODITY POLYPROPYLENE RESIN GRADE   QUANTITY  UNIT PRICE       KGS  USDKG B1101   48000   130 TOTAL AMOUNT USD6240000 ORIGIN  TAIWAN MAKER  FORMOSA CHEMICALS AND FIBRE CORP TRADE TERM CIF ANY PORT IN HOCHIMINH CITY VIETNAM   INCOTERMS 2020 PACKING IN STANDARD EXPORT PACKING </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 750000 BARRELS PLUSMINUS 10 PCT OF GASOIL 10PPM SULPHURFOB MAILIAO TAIWAN </t>
   </si>
   <si>
@@ -61,18 +67,33 @@
     <t xml:space="preserve"> PP SHEET 0104 RIGID PVC 0506 AS PER PO 20211516 C I F SINGAPORE </t>
   </si>
   <si>
+    <t xml:space="preserve"> FOB ANY SEAPORT IN TAIWANEVA 7350M VIRGIN RESIN 25MT AT USD257000MT </t>
+  </si>
+  <si>
     <t xml:space="preserve"> TAIRILIN BRAND PET CHIPS B GRADEJNNC7 57000KGSFCA ANY TAIWANESE PORT </t>
   </si>
   <si>
     <t xml:space="preserve"> TERMS OF PRICE FOB OR FCA TAIWANCOUNTRY OF ORIGIN TAIWAN BUYER ATHLETA PROFORMA INVOICE NOATHB1145001145T00 ATHB114500PP1145T00PPFABRICS ORDER </t>
   </si>
   <si>
+    <t xml:space="preserve"> PURIFIED ISOPHTHALIC ACIDQTY100 MT PRICEUSD 1120 MTAS PER SALES CONTRACT NOSAE11 DATED 24SEP2021INCOTERMS 2020 CIF NHAVA SHEVA INDIA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> EPOXIDIZED SOYABEAN OIL ESO132X QUANTITY 18MTALL OTHER DETAILS ARE AS PER BENEFICIARYS PROFORMA INVOICENONE91209 DATED 15 SEPTEMBER 2021CIF JEBEL ALI PORT UAE </t>
   </si>
   <si>
     <t xml:space="preserve"> QTY 14364 KGSNYLON 6 FILAMENT YARN 170D24F SEMI DULL RAW WHITE ON CHEESEAS PER PO NO 5V09272 DT 27092021TERMS OF SALE CIF NHAVA SHEVA SEAPORT INDIA INCOTERMS 2020 </t>
   </si>
   <si>
+    <t xml:space="preserve"> ACETO NITRILE ASSAY MIN 99 PCT MIN MAKE FORMOSA PLASTICSCORPORATION QTY 255000 KGS AT THE RATE USD 390 KG AS PERINDENT NO PA13845 DT 27092021 AND PO NO 1570420023 DT24092021 CIF VIZAG INDIA BY SEA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACETO NITRILE ASSAY MIN 99 PCT MIN MAKE FORMOSA PLASTICSCORPORATION QTY 170000 KGS AT THE RATE USD 395 KG AS PERINDENT NO PA13844 DT 27092021 AND PO NO 1530422166 DT23092021 CIF VIZAG INDIA BY SEA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMODITY AND  QUANTITY UNIT PRICE  TOTAL AMOUNTDESCRIPTION  COPOLYMER   20800  130000  27040000PROPYLENE GRADE K8009TOTAL    20800     27040000CIF HAIPHONG PORT VIETNAM AS INCOTERMS 2010PACKING IN EXPORTPACKING STANDARDORIGIN TAIWANALL OTHER DETAILS ARE AS PER CONTRACT NO 202109131MTHN DATEON 29092021 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 300000 BBLS 10PCT OF GASOIL 10PPMCOUNTRY OF ORIGIN TAIWANTERMS OF PRICE FOB MAILIAOTAIWANUNIT PRICE THE FOB MAILIAOTAIWAN PRICE IN USD PER BBLFOB PRICE EQUAL TO X MINUS USD023 PER BARRELWHERE X EQUAL TO THE WHOLE MONTH ARITHMETIC AVERAGE OF NOVEMBER2021 MEAN OF PLATTS FOR GASOIL 10PPMS UNDER THE HEADINGSINGAPOREPUBLISHED IN THE PLATTS ASIA PACIFICARAB GULFMARKETSCAN OF PLATTS QUOTATIONSIN THE EVENT THAT THE FINAL PRICE IS NOT KNOWN BEFORE LCNEGOTIAION PAYMENT WILL BE EFFECTED AGAINST THE PROVISIONALINVOICE PROVIDED BY THE SELLER SUCH PROVISIONAL PRICE SHALL BEBASED ON THE ABOVE PRICE CLAUSE WITH ALL AVAILABLE QUOTATIONSAT THE TIME OF INVOICINGWHEN THE FINAL PRICE IS KNOWN THE DIFFERENCE OF THE ACTUALAMOUNT AND THE PROVISIONAL AMOUNT IS TO BE SETTLED OUTSIDETHE IRREVOCABLE DOCUMENTARY LETTER OF CREDIT BETWEENBENEFICIARY AND APPLICANT BY TELEGRAPHIC TRANSFER PAYMENTWITHIN FIVE 5 NEW YORK BANKING DAYS UPON THE RECEIPT OFSUCH FINAL SETTLEMENT INVOICE BY THE APPLICABLE PARTYTHE PROVISIONALFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3DECIMAL PLACESWITH THE THIRD DECIMAL PLACE TO BE INCREASED TOTHE NEXT DIGIT WHENEVER THE FOURTH DECIMAL PLACE IS FIVE ORGREATER THAN FIVEANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNT </t>
   </si>
   <si>
@@ -91,6 +112,9 @@
     <t xml:space="preserve"> TAIRILIN BRAND PET CHIPS B GRADEJNNC 1710000KGSFCA ANY TAIWANESE PORT </t>
   </si>
   <si>
+    <t xml:space="preserve"> 25 MTS POLYPROPYLENE RESIN GRADE NO K1023CIF LAEMCHABANG THAILAND </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 2 ETHYL HEXANOL 2EH QUANTITY 2000 MT 1 ISO TANK AT RATE USD 232000 PER MT INCOTERMS 2020CIF MUNDRA PORTINDIAAS PER APPLICANT PONO202122EIPLIMPWRR59B DATED 29092021 AND AS PER PROFORMA INVOICE NO NK1975 DATED 28092021 OF THE BENEFICIARY </t>
   </si>
   <si>
@@ -109,7 +133,7 @@
     <t xml:space="preserve"> GLASS FABRICSCIF JAPANESE MAIN PORT </t>
   </si>
   <si>
-    <t xml:space="preserve"> 14 BUNTANEDIOL QTY 6000 MT AT THE RATE USD 460000MTSAS PER PO NO7540000391 DATED 06OCT2021INCOTERMS 2020 CIF NHAVA SHEVA INDIA </t>
+    <t xml:space="preserve"> POLYPROPYLENE RESIN GRADE NOB1101QUANTITY 500MTSUNIT PRICE USD127000MTCONTRACT NO S9031TOTAL AMOUNT USD63500000PRICE TERM CIF QINGDAO PORT CHINAPACKING 25KGSBAG </t>
   </si>
   <si>
     <t xml:space="preserve"> COMMODITY BPA BISPHENOLAQUANTITY 510MTSCONTRACT NO 4500294162TOTAL VALUE USD183600000PRICE TERM CIF YANTAI PORT CHINA INCOTERMS 2010 EDITIONS </t>
@@ -145,6 +169,9 @@
     <t xml:space="preserve"> BASE OIL 380N 800MT 5 PCT AT 1203 USDMTBASE OIL 380N 300MT 5 PCT AT ICIS PRICING GII 500NFOB NE ASIA MEAN 78 USDMTPACKING IN BULKFOB MAILIAO TAIWAN </t>
   </si>
   <si>
+    <t xml:space="preserve"> FOB ANY SEAPORT IN TAIWANEVA 7350M VIRGIN RESIN 50MT AT USD350500MT </t>
+  </si>
+  <si>
     <t xml:space="preserve">  PLASTIC RESIN CIF SEMARANG INDONESIA1 5 X 20 FCL CONSISTING OF 80 MTS OF PPCO 3015 AT USD1365MT USD10920000 HS CODE 3902100090INCOTERMS 2010 </t>
   </si>
   <si>
@@ -154,6 +181,12 @@
     <t xml:space="preserve"> CFR KARACHI SEAPORT PAKISTAN INCOTERMS 20201 QTY 6400 MTONS EPOXIDIZED SOYABEAN OIL ESO132X FOR PVCSYNTHETIC LEATHER INDUSTRY AT USD 202000 PER MTONCOMPLETE DETAILS AS PER INDENT NO 2170421 DATED15OCTOBER2021 OF MS TRANSCONTINENTAL AGENCIES KARACHIPAKISTAN </t>
   </si>
   <si>
+    <t xml:space="preserve"> POLYPROPYLENE RESIN GRADE NOT1002QUANTITY 25MTSUNIT PRICE USD137500MTCONTRACT NO SA020TOTAL AMOUNT USD3437500PRICE TERM CIF QINGDAO PORT CHINAPACKING 25KGSBAG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMODITY POLYPROPYLENE RESIN GRADE   QUANTITY  UNIT PRICE       KGS  USDKG T2502   24000   136 TOTAL AMOUNT USD3264000 ORIGIN  TAIWAN MAKER  FORMOSA CHEMICALS AND FIBRE CORP TRADE TERM CIF ANY PORT IN HOCHIMINH CITY VIETNAM   INCOTERMS 2020 PACKING IN STANDARD EXPORT PACKING </t>
+  </si>
+  <si>
     <t xml:space="preserve"> GLASS EPOXY COPPER CLAD LAMINATESAS PER PROFORMA INVOICE NOIMP21220107 DT 26082021HS CODE 74091900TRADE TERMSCIP BANGALORE ICDINDIAAS PER INCOTERM 2010 </t>
   </si>
   <si>
@@ -193,6 +226,9 @@
     <t xml:space="preserve"> COUNTRY OF ORIGIN TAIWANPRICE TERMS CIF SOUTH KOREA ANY PORTNANYA PRODUCTSPVC CLEAR RIGID SHEET AND ANOTHER ITEMSINVOICE NO PI20211026 </t>
   </si>
   <si>
+    <t xml:space="preserve"> PRODUCT PROCESS OIL 70NPRICING 200MT 5PCTAT ICIS PRICING GII 150N FOB NE ASIA MEAN 0 USDMTPACKING IN FLEXIBAGTHE PRICING WEEK OF THE LOADING MONTH M IS THE WEEK OFPREVIOUS ONE MONTH M1 THAT 20TH DATE LIES INFOR INSTANCE THE PRICING WEEK FOR 2020FEBRUARYSLIFTING IS THE WEEK OF JANUARY 20TH 2020IN CASE THERE IS NO ICIS QUOTATION PUBLISHED IN THE PRICINGWEEK THEN THE LATEST EFFECTIVE ICIS QUOTATION PRECEDINGTHE PRICING WEEK IS AUTOMATICALLY APPLIEDTHE WEEK DEFINITION IS FROM SUNDAY 0000 HRS TO THE COMINGSATURDAY 2359 HRSANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONSSHALL BE TAKEN INTO ACCOUNTFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3 DECIMAL PLACESTRADE TERMFCA ANY PORT IN TAIWAN </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERSPP COPOLYMER YUNGSOX 3080AT USD1320MTCIF SHANGHAI PORT CHINA </t>
   </si>
   <si>
@@ -208,6 +244,12 @@
     <t xml:space="preserve"> COMMODITY TOTMQUANTITY 42MT 5PCT2FCLUNIT PRICE USD2480MTTOTAL AMOUNT USD 10416000 5PCT CIF HAI PHONG PORTVIETNAMORIGIN TAIWANTOLERANCE 5PCT OF TOTAL QUANTITY AND AMOUNT ARE ACCEPTABLE </t>
   </si>
   <si>
+    <t xml:space="preserve">  COMMODITY POLYPROPYLENE RESIN GRADE   QUANTITY  UNIT PRICE       KGS  USDKG B1101   48000   1435 TOTAL AMOUNT USD68880 ORIGIN  TAIWAN MAKER  FORMOSA CHEMICALS AND FIBRE CORP TRADE TERM CIF ANY PORT IN HOCHIMINH CITY VIETNAM   INCOTERMS 2020 PACKING IN STANDARD EXPORT PACKING </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHIPMENT TERMSCIFJEBEL ALI UAEPRODUCT 1 PVC GRADE S65DQUANTITY 72 MTSUNIT PRICE USD 1940 PER MT PER VINMAR PO 471009901PACKING 25 KGS BAG WITH PALLET </t>
+  </si>
+  <si>
     <t xml:space="preserve"> CONTRACT 013522RN1X40FCL HQRN22000 KG TAIRILIN 7DX64MM HOLLOW CONJUGATE POLYESTER FIBERRNNONSILICONE SLICK TYPE 128 USDKGRN1X40FCL HQRN4000 KG TAIRILIN 2DX32MM HOLLOW CONJUGATE POLYESTER FIBERRNSILICONE TYPE 150 USDKGRN14000 KG TAIRILIN 7DX64MM HOLLOW CONJUGATE POLYESTER FIBERRNSILICONE TYPE 128 USDKGRN4000 KG TAIRILIN 7DX64MM HOLLOW CONJUGATE POLYESTER FIBERRNNONSILICONE SLICK TYPE 128 USDKGRNF O B ANY PORT IN TAIWAN </t>
   </si>
   <si>
@@ -220,6 +262,9 @@
     <t xml:space="preserve"> 20 MT DOAAT USD 230000MTTOTAL AMOUNT  USD 4600000TYPE OF GOODS LIQUIDHS NO   29171210CONTRACT NO  NL1A31COUNTRY OF ORIGIN TAIWANSHIPPING TERMS  CIF TANJUNG PRIOK JAKARTA </t>
   </si>
   <si>
+    <t xml:space="preserve"> CIF PORT KLANG MALAYSIA2000 MT 2 ETHYL HEXANOL AT USD 2080MT </t>
+  </si>
+  <si>
     <t xml:space="preserve"> COMMODITY BPA BISPHENOLAQUANTITY 510MTSCONTRACT NO 4500299594TOTAL VALUE USD142800000PRICE TERM CIF YANTAI PORT CHINA INCOTERMS 2010 EDITIONS </t>
   </si>
   <si>
@@ -238,6 +283,9 @@
     <t xml:space="preserve"> RESIN NPEL 128 QTY 38400 KGS AT USD 4880 PER KGCIF JEDDAH </t>
   </si>
   <si>
+    <t xml:space="preserve"> FOB ANY PORT IN TAIWANPP 1040F FORMOSA 50MT AT USD135000MT </t>
+  </si>
+  <si>
     <t xml:space="preserve"> COMMODITYNAN YA RELEASE FILMPET L130CQUANTITY480RLUNIT PRICEUSD25200RLPRICE TERMCIF SHEKOU OR YANTIANCHINATOTAL VALUEUSD12096000 </t>
   </si>
   <si>
@@ -271,12 +319,15 @@
     <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3010QUANTITY2500MTSUNIT PRICE USD140000MTTRADE TERMCIF WUHAN PORTCHINA </t>
   </si>
   <si>
-    <t xml:space="preserve"> AABS AG15A1 QUANTITY2500MT UNIT PRICEUSD219000MTCIF NINGBO CHINAORIGINTAIWANPACKINGIN 25KGS BAGS25MTS LOOSE LOADED INTO EACH 40FT CONTAINER </t>
+    <t xml:space="preserve"> COMMODITY 911PQUANTITY 32MTUNIT PRICE USD252500MTTOTAL AMOUNT USD8080000PACKING 200KG NET IN A NEW DRUM 160 DRUMS32MTORIGIN TAIWANPRICE TERM CIF NINGBO CHINA </t>
   </si>
   <si>
     <t xml:space="preserve"> 35 MTS PVC MASS RESIN B57 AT USD 1710 PMT AND 15 MTS PVCRESIN S75 AT USD 1740 PMT AS PER PROFORMA INVOICE NOA3X10211275 DATED 19112021TERMS CIF NHAVA SHEVA INDIAINCOTERMS 2020 </t>
   </si>
   <si>
+    <t xml:space="preserve"> LIQUID PARAFFIN 100 40MT 5 PCT AT ICIS PRICING GII 500NFOB NE ASIA MEAN 140 USDMTPACKING IN FLEXIBAGTHE PRICING WEEK OF THE LOADING MONTH M IS THE WEEK OF PREVIOUSONE MONTH M1 THAT 20TH DATE LIES IN FOR INSTANCE THEPRICING WEEK FOR 2020FEBRUARYS LIFTING IS THE WEEK OF JANUARY20TH 2020IN CASE THERE IS NO ICIS QUOTATION PUBLISHED IN THE PRICING WEEKTHEN THE LATEST EFFECTIVE ICIS QUOTATION PRECEDING THE PRICINGWEEK IS AUTOMATICALLY APPLIEDTHE WEEK DEFINITION IS FROM SUNDAY 0000 HRS TO THE COMINGSATURDAY 2359 HRSANY PUBLISHED CORRECTION TO ANY OF THE RELEVANT QUOTATIONS SHALLBE TAKEN INTO ACCOUNTFINAL UNIT PRICE SHALL BE CALCULATEDROUNDED TO 3 DECIMAL PLACESFCA ANY PORT IN TAIWAN </t>
+  </si>
+  <si>
     <t xml:space="preserve"> PRODUCT GLACIAL ACRYLIC ACID 1 FCLQUANTITY 1600 MT AT USD 3030 PER MTAS PER PROFORMA INVOICE NO 12D1B016P DTD 01112021INCOTERM 2020 CIFNHAVA SHEVA INDIA </t>
   </si>
   <si>
@@ -289,6 +340,9 @@
     <t xml:space="preserve"> 525 MT OF PVC MASS RESIN B57 AT A UNIT PRICE OF USD 1860 PERMT AS PER TRICON REF 376319 DT22102021 OF THEBENEFICIARYINCOTERMS2020CIF CHENNAI SEAPORT INDIA </t>
   </si>
   <si>
+    <t xml:space="preserve"> POLYAMIDEQUANTITY 16000 KGSNAN YA PA6 2100HNC9AT THE RATE OF USD 304 PER KGCFR KEAMARI KARACHI PORT PAKISTANAS PER BENEFICIARYS PROFORMA INVOICE NONANYAISC022021DATED 22112021 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> POLYAMIDE1 QUANTITY 1000 KGS NAN YA PA6 2100HNC9 AT THE RATE OF USD 304 PER KG2 QUANTITY 10000 KGS NAN YA PA66 6210GCFNC9 AT THE RATE OF USD 465 PER KG3 QUANTITY 5000 KGS NAN YA PBT 1100ANC9 AT THE RATE OF USD 356 PER KGCFR KEAMARI KARACHI PORT PAKISTANAS PER BENEFICIARYS PROFORMA INVOICE NONANYAISC042021DATED 22112021 </t>
   </si>
   <si>
@@ -313,24 +367,51 @@
     <t xml:space="preserve">  PLASTIC RESIN CIF CHATTOGRAM BANGLADESH1 1 X 20 FCL CONSISTING OF 18 MTS OF ABSACRYLONITRILE BUTADIENE STYRENE GRADE NO AG15A3 AT USD2430MT USD4374000INCOTERMS 2010 </t>
   </si>
   <si>
+    <t xml:space="preserve"> SALES CONTRACT 90006559 PO 90006559DESCRIPTION 29Y29BNAN YA 2100ANC1QUANTITY 16000 KGSUNIT PRICE USD340KGAMOUNT USD5440000TRADE TERMS CIF HAI PHONG PORT VIETNAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STABILIZER LQX24PA 16000KG AT USD 297KGCIF NINGBO PORT CHINASTABILIZER LQX39PT 16000KG AT USD 280KGCIF HUMEN PORT CHINAREF NONA091121CIF NINGBO PORT HUMEN PORT CHINA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> COVERING 100 PERCENT OF INVOICE VALUE OF GOODS ANDOR SERVICESDESCRIBED AS24 MT OF POLYSTYRENE GRADE HP8250 REF PO 45685161CIF VANCOUVER CANADA INCOTERMS 2020 </t>
   </si>
   <si>
+    <t xml:space="preserve"> COVERING 100 PERCENT OF INVOICE VALUE OF GOODS ANDOR SERVICESDESCRIBED AS24 MT OF POLYPROPYLENE RESIN GRADE K1023 REF PO NO 45685181CIF VANCOUVER CANADA INCOTERMS 2020 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ABS AG15A1H QUANTITY2500MT UNIT PRICE USD235000MT TOTAL VALUEUSD5875000ABS AX4000 QUANTITY1800MT UNIT PRICE USD258000MT TOTAL VALUEUSD4644000TOTAL AMOUNTUSD10519000SAY US DOLLARS ONE HUNDRED FIVE THOUSAND ONE HUNDREDNINETY ONLYPRICE TERMCIF FUYONG SHENZHEN CHINA </t>
   </si>
   <si>
     <t xml:space="preserve"> EPXOY RESIN AS PERPO NO 4525118824 USD8100000PO NO 4525118835 USD8100000PO NO 4525123047 USD10838880PO NO 4525123069 USD11108160SHIPPING TERMS CIF ANY CANADIAN USA CITY </t>
   </si>
   <si>
+    <t xml:space="preserve">  COMMODITY POLYPROPYLENE RESIN GRADE   QUANTITY  UNIT PRICE       KGS  USDKG B1101   48000   138 TOTAL AMOUNT USD6624000 ORIGIN  TAIWAN MAKER  FORMOSA CHEMICALS AND FIBRE CORP TRADE TERM CIF ANY PORT IN HOCHIMINH CITY VIETNAM   INCOTERMS 2020 PACKING IN STANDARD EXPORT PACKING </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PACK MATERIAL FOR PHARMACEUTICAL INDUSTRY PVC 253MM 170MIC QUANTITY 10000 EA AT USD 2765 KG INDENT NUMBER 2146221 DATED 18112021 HS CODE NO 39204910 TERMS FOB TAIWAN SEA PORT TERMS FOB KAOHSIUNG TAIWAN </t>
+  </si>
+  <si>
     <t xml:space="preserve">  TERMS OF PRICE CIF COLOMBO SRI LANKA COUNTRY OF ORIGIN TAIWAN750 MT FORMOSA BRAND HIGH DENSITYPOLYETHYLENE HDPE 8001CIF COLOMBO SRI LANKAHS CODE39012000THE NUMBER OF THIS CREDIT DB1003LC2110853THE DATE OF THIS CREDIT 211110THE NAME OF OUR BANK COMMERCIAL BANK OF CEYLON PLC COLOMBOFREIGHT PREPAID </t>
   </si>
   <si>
+    <t xml:space="preserve"> DOORS AND FRAMES FIBERGLASS AND ACCESSORIESCFR DAMMAM SEAPORT SAUDI ARABIA </t>
+  </si>
+  <si>
     <t xml:space="preserve">  PLASTIC RESIN CIF DANANG VIETNAM1 3 X 20 FCL CONSISTING OF 48 MTS OF PPCO 3015 AT USD1460MT USD70080002 1 X 20 FCL CONSISTING OF 16 MTS OF PP 5090T AT USD1540MT USD2464000 HS CODE 39021040INCOTERMS 2010 </t>
   </si>
   <si>
+    <t xml:space="preserve"> OTHERSRNINCOTERMSCIFPIPAVAV PORT INDIARNCONTRACTDETAILSRNPI NO A3X10211191RNDT OCT 222021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INQUIRY NO18K21111905 ITEM QUANTITYMTS  UNIT PRICE  TOTAL AMOUNT 1  300   USD128500MT USD38550000GOODS ORIGIN TAIWANPRICE TERM CIF SHANGHAI CHINAPACKING JUMBO BAG WITH PALLET </t>
+  </si>
+  <si>
     <t xml:space="preserve"> PLATE FILM100PCT RECYCLED POSTCONSUMER POLYESTER P TYPEINSIDE CORONA TREATMENT 6 INCH CORE A GRADEYP216 122350UM  170045 KGSCIF SHANGHAI PORTCHINA </t>
   </si>
   <si>
+    <t xml:space="preserve"> PVC PROCESSING AND P301 8000KG AT USD 266KGPINOA0C017CIF HUMEN PORTCHINA </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ETHYLENEPROPYLENECOPOLYMERSPP COPOLYMER YUNGSOX 3080UNIT PRICE USD1335MTCIF SHANGHAI PORT CHINA </t>
   </si>
   <si>
@@ -340,6 +421,9 @@
     <t xml:space="preserve"> GLASS EPOXY COPPER CLAD LAMINATES AS PER PROFORMA INVOICE DATED22112021 INCOTERM 2020 FCA TAIWAN PORTINCOTERMSFCACONTRACTDETAILS </t>
   </si>
   <si>
+    <t xml:space="preserve">  7560 KGS N 6 POY 9024 SNOW WHITE AA GRADE  AT USD345 PER KGCIF BANGKOKAS PER SALE CONTRACT NOE112901 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> COMMODITY BPA BISPHENOLAQUANTITY 1500MTSCONTRACT NO 4500304582TOTAL VALUE USD255000000PRICE TERM CIF YANTAI PORT CHINA INCOTERMS 2010 EDITIONS </t>
   </si>
   <si>
@@ -349,6 +433,9 @@
     <t xml:space="preserve"> TERMS OF PRICEFOB MAILIAOTAIWAN COUNTRY OF ORIGIN TAIWAN HS NO 2905310000 MONOETHYLENE GLYCOL FIBER GRADE PACKING IN BULK 3500000MT USD 70000MT USD 245000000  </t>
   </si>
   <si>
+    <t xml:space="preserve"> ACETO NITRILE ASSAY MIN 99 PCT MIN MAKE FORMOSA PLASTICSCORPORATION QTY 170000 KGS AT THE RATE USD 415 KG AS PERINDENT NO PA13940 DT 24112021 AND PO NO 1570420033 DT25112021 CIF VIZAG INDIA BY SEA INCOTERMS 2020INCOTERMSCIFVIZAGCONTRACTDETAILSPO NO 1570420033 DT 25112021 </t>
+  </si>
+  <si>
     <t xml:space="preserve">  PLASTIC RESIN CIF SEMARANG INDONESIA1 4 X 20 FCL CONSISTING OF 64 MTS OF PPCO 3015 AT USD1390MT USD8896000 HS CODE 3902100090INCOTERMS 2010 </t>
   </si>
   <si>
@@ -358,6 +445,9 @@
     <t xml:space="preserve"> ETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX 3040C25 MT AT USD1270MTTRADE TERM CIF DONGGUAN CHINA </t>
   </si>
   <si>
+    <t xml:space="preserve"> EXPORT RESIN AND QUALITY QUANTITY DESCRIPTION SPECIFICATION UNIT PRICE PACKING MARKING AND ALL OTHER DETAILS OF COMMODITY AS PER PROFORMA INVOICE NOPRDC1125 DATE25112021 OF THE BENEFICIARYHS CODE39073000 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> PRICE TERM C I F HAIPHONG VIETNAMPLASTIC RESIN1X20 FCL CONSISTING OF16 MTS OF PPCO 3015 AT USD131000MT USD2096000HS CODE 39021040 </t>
   </si>
   <si>
@@ -373,6 +463,9 @@
     <t xml:space="preserve"> COMMODITYETHYLENEPROPYLENE COPOLYMERS PP COPOLYMER YUNGSOX3080QUANTITY 20000MTUNIT PRICE USD123000MTTOTAL AMOUNT USD24600000ORIGINTAIWANPACKING 25 KG BAG WITHOUT PALLETCIF NINGBOCHINA </t>
   </si>
   <si>
+    <t xml:space="preserve"> COMMODITY HOMO POLYPROPYLENE RESIN GRADE NOK1080 QUANTITY100000MT UNIT PRICEUSD118000MT PRICE TERMCIF ANY PORT OF CHINA MAINLAND PACKINGIN 25KG BAGS CONTRACT NOXC002 </t>
+  </si>
+  <si>
     <t xml:space="preserve">  COMMODITY DESCRIPTION   QUANTITY UNIT PRICE AMOUNT      MTS  USDMT USD DOTP     32  1790 5728000      02 FCL TOTAL        USD5728000 TRADE TERM CIF CAT LAI PORT IN HOCHIMINH CITY VIETNAM    INCOTERMS 2010 ORIGIN  TAIWAN QUALITY EXPORT STANDARD OTHER DETAILS AS PER CONTRACT NONN1C87 DATED 03122021 PACKING 200 KGSDRUM 16MTFCL MARKING DOTP   MANUFACTURER NAME ADDRESS   MADE IN TAIWAN </t>
   </si>
   <si>
@@ -382,21 +475,30 @@
     <t xml:space="preserve"> RESIN NPSN 901 X 75 QTY 17600 KGS AT USD 369 PER KGCIFDAMMAM KSA </t>
   </si>
   <si>
+    <t xml:space="preserve"> COMMODITYHOMO POLYPROPYLENE RESIN GRADE NOK1080QUANTITY90000MTUNIT PRICEUSD117000MT CIF HUANGPUCHINA ANDOR NANSHACHINAPACKINGIN 25KG BAGSCONTRACT NOXC005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLYPROPYLENE RESIN GRADE NOK1035QUANTITY 25 MTSUNIT PRICE USD137000MTAS PER PI NOWB060PRICE TERMS CIF CAT LAI PORT HOCHIMINH CITY VIETNAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRADE TERM FOB MAILIAO PORT TAIWANCAUSTIC SODA SOLUTION MIN 49PACKING IN BULKQUANTITY 2500 DMT 5PCTUNIT PRICE USD 540 PER DMT </t>
+  </si>
+  <si>
+    <t>NANYA PLASTICS CORPORATION</t>
+  </si>
+  <si>
+    <t>FORMOSA CHEMICALS AND FIBRE</t>
+  </si>
+  <si>
     <t>FORMOSA PETROCHEMICAL</t>
   </si>
   <si>
     <t>NAN YA PLASTICS</t>
   </si>
   <si>
-    <t>FORMOSA CHEMICALS AND FIBRE</t>
-  </si>
-  <si>
     <t>FORMOSA PLASTICS</t>
   </si>
   <si>
-    <t>NANYA PLASTICS CORPORATION</t>
-  </si>
-  <si>
     <t>NANYA PLASTICS CORP</t>
   </si>
   <si>
@@ -406,22 +508,43 @@
     <t xml:space="preserve">  TERMS OF PRICE CIF COLOMBO SRI LANKA COUNTRY OF ORIGIN TAIWAN750 MT FORMOSA BRAND HIGH DENSITYPOLYETHYLENE HDPE 8001CIF COLOMBO SRI LANKAHS CODE39012000THE NUMBER OF THIS CREDIT DB1003LC2110853THE DATE OF THIS CREDIT 211110THE NAME OF OUR BANK COMMERCIAL BANK OF CEYLON PLC</t>
   </si>
   <si>
+    <t>FORMOSA CHEMICALS ANDFIBRE CORPORATION</t>
+  </si>
+  <si>
+    <t>['CIF HAIPHONG PORT']</t>
+  </si>
+  <si>
+    <t>['POLYPROPYLENE RESIN GRADE', 'CHEMICALS']</t>
+  </si>
+  <si>
     <t>['GASOIL']</t>
   </si>
   <si>
     <t>['PP SHEET', ' PP ']</t>
   </si>
   <si>
+    <t>['RESIN']</t>
+  </si>
+  <si>
     <t>['TAIRILIN BRAND PET CHIPS']</t>
   </si>
   <si>
     <t>['FABRICS']</t>
   </si>
   <si>
+    <t>['PURIFIED ISOPHTHALIC ACID']</t>
+  </si>
+  <si>
     <t>['SOYABEAN OIL']</t>
   </si>
   <si>
-    <t>['NYLON 6 FILAMENT YARN', 'WHITE']</t>
+    <t>['NYLON 6 FILAMENT YARN']</t>
+  </si>
+  <si>
+    <t>['CIF VIZAG INDIA']</t>
+  </si>
+  <si>
+    <t>['PROPYLENE']</t>
   </si>
   <si>
     <t>['ETHYLENEPROPYLENE COPOLYMER', 'POLYPROPYLENE RESIN', 'YUNGSOX', ' PP ']</t>
@@ -436,6 +559,9 @@
     <t>['METHACRYLATE ACID']</t>
   </si>
   <si>
+    <t>['POLYPROPYLENE RESIN GRADE']</t>
+  </si>
+  <si>
     <t>[' 2EH ']</t>
   </si>
   <si>
@@ -451,49 +577,49 @@
     <t>['GLASS FABRICS']</t>
   </si>
   <si>
+    <t>['BPA BISPHENOLA']</t>
+  </si>
+  <si>
+    <t>['LAMINATE']</t>
+  </si>
+  <si>
+    <t>['POLYESTER STAPLE FIBER']</t>
+  </si>
+  <si>
+    <t>['NYLON']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX', ' PP ']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX']</t>
+  </si>
+  <si>
+    <t>['LAMINATE', 'PREPREG']</t>
+  </si>
+  <si>
+    <t>['POLYESTER FILM']</t>
+  </si>
+  <si>
+    <t>['BASE OIL']</t>
+  </si>
+  <si>
+    <t>['HDPE']</t>
+  </si>
+  <si>
+    <t>['GLASS EPOXY COPPER CLAD LAMINATES']</t>
+  </si>
+  <si>
+    <t>['PET FILM', 'TAIRILIN']</t>
+  </si>
+  <si>
     <t>['EVA']</t>
   </si>
   <si>
-    <t>['BPA BISPHENOLA']</t>
-  </si>
-  <si>
-    <t>['LAMINATE']</t>
-  </si>
-  <si>
-    <t>['POLYESTER STAPLE FIBER']</t>
-  </si>
-  <si>
-    <t>['NYLON']</t>
-  </si>
-  <si>
-    <t>['ETHYLENEPROPYLENE COPOLYMER', 'PORTCHINA', 'YUNGSOX', ' PP ']</t>
-  </si>
-  <si>
-    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX']</t>
-  </si>
-  <si>
-    <t>['LAMINATE', 'PREPREG']</t>
-  </si>
-  <si>
-    <t>['POLYESTER FILM']</t>
-  </si>
-  <si>
-    <t>['BASE OIL']</t>
-  </si>
-  <si>
-    <t>['HDPE']</t>
-  </si>
-  <si>
-    <t>['GLASS EPOXY COPPER CLAD LAMINATES']</t>
-  </si>
-  <si>
-    <t>['PET FILM', 'TAIRILIN']</t>
-  </si>
-  <si>
     <t>['POLYETHYLENE', 'PHTHALATE', 'PET RESIN']</t>
   </si>
   <si>
-    <t>['ABS RESIN', 'COVERING', 'ANC100', 'AE8000']</t>
+    <t>['ABS RESIN', 'COVERING', 'AE8000', 'ANC100']</t>
   </si>
   <si>
     <t>['SAN RESIN', 'COVERING', ' SAN ']</t>
@@ -511,7 +637,10 @@
     <t>['PHTHALIC ANHYDRIDE']</t>
   </si>
   <si>
-    <t>['PVC CLEAR RIGID SHEET', 'TAIWANPRICE']</t>
+    <t>['PVC CLEAR RIGID SHEET']</t>
+  </si>
+  <si>
+    <t>['PROCESS OIL 70N']</t>
   </si>
   <si>
     <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX 3080']</t>
@@ -523,6 +652,9 @@
     <t>['TOTM']</t>
   </si>
   <si>
+    <t>['S65D QUANTITY']</t>
+  </si>
+  <si>
     <t>['POLYESTER', 'TAIRILIN']</t>
   </si>
   <si>
@@ -532,18 +664,21 @@
     <t>['DOA']</t>
   </si>
   <si>
+    <t>['CIF PORT KLANG MALAYSIA2000']</t>
+  </si>
+  <si>
     <t>['MONOETHYLENE GLYCOL']</t>
   </si>
   <si>
     <t>['RESIN NPEL', 'NPEL 128']</t>
   </si>
   <si>
+    <t>['TAIWANPP']</t>
+  </si>
+  <si>
     <t>['NAN YA RELEASE FILM']</t>
   </si>
   <si>
-    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX', ' PP ']</t>
-  </si>
-  <si>
     <t>['METHACRYLIC ACID']</t>
   </si>
   <si>
@@ -556,19 +691,25 @@
     <t>['PVC MASS RESIN B57']</t>
   </si>
   <si>
+    <t>['PARAFFIN']</t>
+  </si>
+  <si>
     <t>['PLASTIC RESIN', 'PPCO 3015', ' PP ']</t>
   </si>
   <si>
     <t>['PVC SUSPENSION RESIN']</t>
   </si>
   <si>
-    <t>['NAN YA PA66', 'NAN YA PBT', 'KGCFR']</t>
-  </si>
-  <si>
-    <t>['NAN YA PBT', 'KGCFR', ' PP ']</t>
-  </si>
-  <si>
-    <t>['POLYPROPYLENE', 'KGCFR', ' PP ']</t>
+    <t>['KGCFR']</t>
+  </si>
+  <si>
+    <t>['NAN YA PA66', 'NAN YA PBT']</t>
+  </si>
+  <si>
+    <t>['NAN YA PBT', ' PP ']</t>
+  </si>
+  <si>
+    <t>['POLYPROPYLENE', ' PP ']</t>
   </si>
   <si>
     <t>['ACRYLIC POLYMER']</t>
@@ -586,28 +727,52 @@
     <t>['ACRYLONITRILE BUTADIENE STYRENE', 'PLASTIC RESIN']</t>
   </si>
   <si>
+    <t>['2100ANC1']</t>
+  </si>
+  <si>
+    <t>['CHINASTABILIZER']</t>
+  </si>
+  <si>
     <t>['POLYSTYRENE', 'COVERING']</t>
   </si>
   <si>
+    <t>['POLYPROPYLENE RESIN GRADE', 'COVERING']</t>
+  </si>
+  <si>
     <t>['AX4000', ' ABS ']</t>
   </si>
   <si>
-    <t>['RESIN']</t>
+    <t>['MATERIAL', ' EA ']</t>
   </si>
   <si>
     <t>['POLYETHYLENE', 'HDPE 8001']</t>
   </si>
   <si>
+    <t>['MMA']</t>
+  </si>
+  <si>
     <t>['PLASTIC RESIN', 'PPCO 3015', 'PP 5090T', ' PP ']</t>
   </si>
   <si>
-    <t>['POLYESTER', 'PORTCHINA']</t>
+    <t>['PORT INDIARNCONTRACTDETAILSRNPI']</t>
+  </si>
+  <si>
+    <t>['TAIWANPRICE']</t>
+  </si>
+  <si>
+    <t>['POLYESTER']</t>
+  </si>
+  <si>
+    <t>['PORTCHINA']</t>
   </si>
   <si>
     <t>['YUNGSOX 3080', 'PROPYLENE', 'ETHYLENE']</t>
   </si>
   <si>
-    <t>['ETHYLENEPROPYLENE COPOLYMER', 'CIF NINGBO CHINA', 'YUNGSOX 3080', ' PP ']</t>
+    <t>['WHITE']</t>
+  </si>
+  <si>
+    <t>['ETHYLENEPROPYLENE COPOLYMER', 'YUNGSOX 3080', ' PP ']</t>
   </si>
   <si>
     <t>['DOTP']</t>
@@ -616,10 +781,19 @@
     <t>['NPSN 901 X 75', 'RESIN']</t>
   </si>
   <si>
+    <t>['TAIWANCAUSTIC']</t>
+  </si>
+  <si>
+    <t>bert</t>
+  </si>
+  <si>
     <t>rule</t>
   </si>
   <si>
-    <t>bert</t>
+    <t>CIF HAIPHONG PORT</t>
+  </si>
+  <si>
+    <t>POLYPROPYLENE RESIN GRADE</t>
   </si>
   <si>
     <t>GASOIL</t>
@@ -628,18 +802,30 @@
     <t>PP SHEET</t>
   </si>
   <si>
+    <t>RESIN</t>
+  </si>
+  <si>
     <t>TAIRILIN BRAND PET CHIPS</t>
   </si>
   <si>
     <t>FABRICS</t>
   </si>
   <si>
+    <t>PURIFIED ISOPHTHALIC ACID</t>
+  </si>
+  <si>
     <t>SOYABEAN OIL</t>
   </si>
   <si>
     <t>NYLON 6 FILAMENT YARN</t>
   </si>
   <si>
+    <t>CIF VIZAG INDIA</t>
+  </si>
+  <si>
+    <t>PROPYLENE</t>
+  </si>
+  <si>
     <t>ETHYLENEPROPYLENE COPOLYMER</t>
   </si>
   <si>
@@ -667,36 +853,36 @@
     <t>GLASS FABRICS</t>
   </si>
   <si>
+    <t>BPA BISPHENOLA</t>
+  </si>
+  <si>
+    <t>LAMINATE</t>
+  </si>
+  <si>
+    <t>POLYESTER STAPLE FIBER</t>
+  </si>
+  <si>
+    <t>NYLON</t>
+  </si>
+  <si>
+    <t>POLYESTER FILM</t>
+  </si>
+  <si>
+    <t>BASE OIL</t>
+  </si>
+  <si>
+    <t>HDPE</t>
+  </si>
+  <si>
+    <t>GLASS EPOXY COPPER CLAD LAMINATES</t>
+  </si>
+  <si>
+    <t>PET FILM</t>
+  </si>
+  <si>
     <t>EVA</t>
   </si>
   <si>
-    <t>BPA BISPHENOLA</t>
-  </si>
-  <si>
-    <t>LAMINATE</t>
-  </si>
-  <si>
-    <t>POLYESTER STAPLE FIBER</t>
-  </si>
-  <si>
-    <t>NYLON</t>
-  </si>
-  <si>
-    <t>POLYESTER FILM</t>
-  </si>
-  <si>
-    <t>BASE OIL</t>
-  </si>
-  <si>
-    <t>HDPE</t>
-  </si>
-  <si>
-    <t>GLASS EPOXY COPPER CLAD LAMINATES</t>
-  </si>
-  <si>
-    <t>PET FILM</t>
-  </si>
-  <si>
     <t>POLYETHYLENE</t>
   </si>
   <si>
@@ -721,24 +907,36 @@
     <t>PVC CLEAR RIGID SHEET</t>
   </si>
   <si>
+    <t>PROCESS OIL 70N</t>
+  </si>
+  <si>
     <t>ISO NONYL ALCOHOL</t>
   </si>
   <si>
     <t>TOTM</t>
   </si>
   <si>
+    <t>S65D QUANTITY</t>
+  </si>
+  <si>
     <t>POLYESTER</t>
   </si>
   <si>
     <t>DOA</t>
   </si>
   <si>
+    <t>CIF PORT KLANG MALAYSIA2000</t>
+  </si>
+  <si>
     <t>MONOETHYLENE GLYCOL</t>
   </si>
   <si>
     <t>RESIN NPEL</t>
   </si>
   <si>
+    <t>TAIWANPP</t>
+  </si>
+  <si>
     <t>NAN YA RELEASE FILM</t>
   </si>
   <si>
@@ -754,9 +952,15 @@
     <t>PVC MASS RESIN B57</t>
   </si>
   <si>
+    <t>PARAFFIN</t>
+  </si>
+  <si>
     <t>PVC SUSPENSION RESIN</t>
   </si>
   <si>
+    <t>KGCFR</t>
+  </si>
+  <si>
     <t>NAN YA PA66</t>
   </si>
   <si>
@@ -781,51 +985,84 @@
     <t>ACRYLONITRILE BUTADIENE STYRENE</t>
   </si>
   <si>
+    <t>2100ANC1</t>
+  </si>
+  <si>
+    <t>CHINASTABILIZER</t>
+  </si>
+  <si>
     <t>POLYSTYRENE</t>
   </si>
   <si>
     <t>AX4000</t>
   </si>
   <si>
-    <t>RESIN</t>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>MMA</t>
+  </si>
+  <si>
+    <t>PORT INDIARNCONTRACTDETAILSRNPI</t>
+  </si>
+  <si>
+    <t>TAIWANPRICE</t>
+  </si>
+  <si>
+    <t>PORTCHINA</t>
   </si>
   <si>
     <t>YUNGSOX 3080</t>
   </si>
   <si>
+    <t>WHITE</t>
+  </si>
+  <si>
     <t>DOTP</t>
   </si>
   <si>
     <t>NPSN 901 X 75</t>
   </si>
   <si>
+    <t>TAIWANCAUSTIC</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
     <t>60</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>2E</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>1P</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>2M</t>
   </si>
   <si>
@@ -838,28 +1075,40 @@
     <t>nan</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>2P</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>4A</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['1P', '2R']</t>
   </si>
   <si>
     <t>['60', '61', '61']</t>
@@ -868,16 +1117,28 @@
     <t>['23', '22', '1P', '21']</t>
   </si>
   <si>
+    <t>['4A']</t>
+  </si>
+  <si>
     <t>['25', '25']</t>
   </si>
   <si>
     <t>['26', '42']</t>
   </si>
   <si>
-    <t>['2P', '24', '22']</t>
-  </si>
-  <si>
-    <t>['45', '41', '45']</t>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['2P']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['62']</t>
   </si>
   <si>
     <t>['4A', '4A', '18', '1P', '21']</t>
@@ -889,10 +1150,13 @@
     <t>['14']</t>
   </si>
   <si>
-    <t>['1A', '12']</t>
-  </si>
-  <si>
-    <t>['27', '2M']</t>
+    <t>['1A']</t>
+  </si>
+  <si>
+    <t>['1P']</t>
+  </si>
+  <si>
+    <t>['27']</t>
   </si>
   <si>
     <t>['1P', '1P']</t>
@@ -907,40 +1171,37 @@
     <t>['2G', '28']</t>
   </si>
   <si>
+    <t>['2M']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['4A', '18', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['4A', '18']</t>
+  </si>
+  <si>
+    <t>['2M', '2M']</t>
+  </si>
+  <si>
+    <t>['2E']</t>
+  </si>
+  <si>
+    <t>['64', '64']</t>
+  </si>
+  <si>
+    <t>['2E', '25']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
-    <t>['2P', '28']</t>
-  </si>
-  <si>
-    <t>['2M', '28']</t>
-  </si>
-  <si>
-    <t>['42', '45']</t>
-  </si>
-  <si>
-    <t>['4A', '11', '18', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['4A', '18']</t>
-  </si>
-  <si>
-    <t>['2M', '28', '2M']</t>
-  </si>
-  <si>
-    <t>['2E', '25']</t>
-  </si>
-  <si>
-    <t>['64', '64']</t>
-  </si>
-  <si>
-    <t>['2M']</t>
-  </si>
-  <si>
     <t>['18', '27', '2E', '25', '25']</t>
   </si>
   <si>
-    <t>['4A', '17', '14', '4A']</t>
+    <t>['4A', '17', '4A', '14']</t>
   </si>
   <si>
     <t>['4A', '17', '4A']</t>
@@ -949,16 +1210,13 @@
     <t>['2N']</t>
   </si>
   <si>
-    <t>['2P', '24']</t>
-  </si>
-  <si>
     <t>['27', '27']</t>
   </si>
   <si>
-    <t>['23', '23', '17']</t>
-  </si>
-  <si>
-    <t>['27', '24']</t>
+    <t>['23', '23']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
   <si>
     <t>['26', '42', '25']</t>
@@ -967,37 +1225,25 @@
     <t>['23', '4A', '11', '1P', '1P', '1P', '21']</t>
   </si>
   <si>
-    <t>['27']</t>
-  </si>
-  <si>
-    <t>['2A', '25']</t>
+    <t>['2A']</t>
   </si>
   <si>
     <t>['2R', '2R']</t>
   </si>
   <si>
-    <t>['26', '2E', '25']</t>
-  </si>
-  <si>
-    <t>['4A', '18', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['1A']</t>
-  </si>
-  <si>
-    <t>['22']</t>
+    <t>['26']</t>
   </si>
   <si>
     <t>['11']</t>
   </si>
   <si>
-    <t>['24', '24', '27']</t>
-  </si>
-  <si>
-    <t>['24', '27', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['1P', '4A', '27', '1P', '21']</t>
+    <t>['24', '24']</t>
+  </si>
+  <si>
+    <t>['24', '1P', '21']</t>
+  </si>
+  <si>
+    <t>['1P', '4A', '1P', '21']</t>
   </si>
   <si>
     <t>['12', '12']</t>
@@ -1006,22 +1252,25 @@
     <t>['48', '27', '1A', '21']</t>
   </si>
   <si>
-    <t>['4A']</t>
-  </si>
-  <si>
     <t>['24', '25', '25']</t>
   </si>
   <si>
     <t>['4A', '23', '4A', '11', '1P']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['4A', '17']</t>
   </si>
   <si>
+    <t>['1P', '17']</t>
+  </si>
+  <si>
     <t>['4A', '4A']</t>
   </si>
   <si>
-    <t>['4A', '18', '29']</t>
+    <t>['4A', '12']</t>
   </si>
   <si>
     <t>['18', '18']</t>
@@ -1030,33 +1279,33 @@
     <t>['23', '4A', '11', '1P', '1P', '1P', '1P', '21']</t>
   </si>
   <si>
-    <t>['26', '42', '11']</t>
-  </si>
-  <si>
-    <t>['18', '62', '4A', '62']</t>
-  </si>
-  <si>
-    <t>['4A', '27', '18', '1P', '21']</t>
-  </si>
-  <si>
-    <t>['2R', '4A', '18', '29']</t>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['18', '62', '62']</t>
+  </si>
+  <si>
+    <t>['2R', '4A']</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>not find</t>
   </si>
   <si>
+    <t>4P</t>
+  </si>
+  <si>
     <t>61</t>
   </si>
   <si>
@@ -1066,31 +1315,28 @@
     <t>1A</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>2R</t>
   </si>
   <si>
     <t>1B</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>2N</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>2A</t>
   </si>
   <si>
-    <t>4P</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>29</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4H</t>
+  </si>
+  <si>
+    <t>0927.xls</t>
   </si>
   <si>
     <t>0928.xls</t>
@@ -1120,9 +1366,6 @@
     <t>1013.xls</t>
   </si>
   <si>
-    <t>1018(1015-16).xls</t>
-  </si>
-  <si>
     <t>1019.xls</t>
   </si>
   <si>
@@ -1207,6 +1450,9 @@
     <t>1202.xls</t>
   </si>
   <si>
+    <t>1203.xls</t>
+  </si>
+  <si>
     <t>1206.xls</t>
   </si>
   <si>
@@ -1219,7 +1465,13 @@
     <t>1209.xls</t>
   </si>
   <si>
-    <t>61F12016</t>
+    <t>1210.xls</t>
+  </si>
+  <si>
+    <t>2RC13301</t>
+  </si>
+  <si>
+    <t>4AF11069</t>
   </si>
   <si>
     <t>61F11002</t>
@@ -1228,55 +1480,43 @@
     <t>27P11346</t>
   </si>
   <si>
-    <t>2EK11040</t>
-  </si>
-  <si>
-    <t>2PL14128</t>
-  </si>
-  <si>
-    <t>2PN14080</t>
-  </si>
-  <si>
-    <t>4AF11069</t>
+    <t>11G11F59</t>
+  </si>
+  <si>
+    <t>48S12221</t>
+  </si>
+  <si>
+    <t>18K14025</t>
+  </si>
+  <si>
+    <t>18F11012</t>
+  </si>
+  <si>
+    <t>18F11006</t>
+  </si>
+  <si>
+    <t>18K11012</t>
+  </si>
+  <si>
+    <t>1AM12227</t>
+  </si>
+  <si>
+    <t>1PE11013</t>
+  </si>
+  <si>
+    <t>2R712307</t>
+  </si>
+  <si>
+    <t>2N811216</t>
+  </si>
+  <si>
+    <t>25B14038</t>
   </si>
   <si>
     <t>18F11011</t>
   </si>
   <si>
-    <t>11G11F59</t>
-  </si>
-  <si>
-    <t>18K11012</t>
-  </si>
-  <si>
-    <t>1AM12227</t>
-  </si>
-  <si>
-    <t>1PE11013</t>
-  </si>
-  <si>
-    <t>2R712307</t>
-  </si>
-  <si>
-    <t>11G12G79</t>
-  </si>
-  <si>
-    <t>2N811216</t>
-  </si>
-  <si>
-    <t>2PL14115</t>
-  </si>
-  <si>
-    <t>27P11476</t>
-  </si>
-  <si>
-    <t>25B14038</t>
-  </si>
-  <si>
-    <t>11G12C75</t>
-  </si>
-  <si>
-    <t>25D11126</t>
+    <t>18L0C069</t>
   </si>
   <si>
     <t>61B11033</t>
@@ -1285,25 +1525,13 @@
     <t>18Q11005</t>
   </si>
   <si>
-    <t>2RC13301</t>
-  </si>
-  <si>
-    <t>27P13358</t>
-  </si>
-  <si>
     <t>2N511244</t>
   </si>
   <si>
     <t>25D12134</t>
   </si>
   <si>
-    <t>27P11257</t>
-  </si>
-  <si>
-    <t>2AD01184</t>
-  </si>
-  <si>
-    <t>25H15004</t>
+    <t>11G12C86</t>
   </si>
   <si>
     <t>1PG12003</t>
@@ -1312,25 +1540,25 @@
     <t>1AM12265</t>
   </si>
   <si>
-    <t>2EN11002</t>
-  </si>
-  <si>
-    <t>27P13569</t>
-  </si>
-  <si>
-    <t>12S11101</t>
+    <t>12F11003</t>
   </si>
   <si>
     <t>18M13026</t>
   </si>
   <si>
-    <t>18F11006</t>
+    <t>18K16043</t>
+  </si>
+  <si>
+    <t>11G11H47</t>
+  </si>
+  <si>
+    <t>18F12003</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
   <si>
     <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1734,4799 +1962,6234 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="G2" t="s">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c r="H2" t="s">
-        <v>282</v>
+        <v>363</v>
       </c>
       <c r="I2" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
       <c r="J2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K2" t="s">
-        <v>359</v>
+        <v>440</v>
       </c>
       <c r="L2" t="s">
-        <v>401</v>
+        <v>484</v>
       </c>
       <c r="M2" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="G3" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="H3" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="I3" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="J3" t="s">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="K3" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="L3" t="s">
-        <v>402</v>
+        <v>485</v>
       </c>
       <c r="M3" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="G4" t="s">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="H4" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="I4" t="s">
-        <v>343</v>
+        <v>426</v>
       </c>
       <c r="J4" t="s">
-        <v>277</v>
+        <v>430</v>
       </c>
       <c r="K4" t="s">
-        <v>360</v>
+        <v>441</v>
       </c>
       <c r="L4" t="s">
-        <v>403</v>
+        <v>486</v>
       </c>
       <c r="M4" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="G5" t="s">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="H5" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="I5" t="s">
-        <v>343</v>
+        <v>426</v>
       </c>
       <c r="J5" t="s">
-        <v>264</v>
+        <v>430</v>
       </c>
       <c r="K5" t="s">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="L5" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="M5" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="G6" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="H6" t="s">
-        <v>285</v>
+        <v>366</v>
       </c>
       <c r="I6" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J6" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K6" t="s">
-        <v>361</v>
+        <v>442</v>
       </c>
       <c r="L6" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="M6" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F7" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="G7" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="H7" t="s">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="I7" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J7" t="s">
-        <v>274</v>
+        <v>350</v>
       </c>
       <c r="K7" t="s">
-        <v>362</v>
+        <v>442</v>
       </c>
       <c r="L7" t="s">
-        <v>406</v>
+        <v>488</v>
       </c>
       <c r="M7" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="G8" t="s">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="H8" t="s">
-        <v>287</v>
+        <v>368</v>
       </c>
       <c r="I8" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="J8" t="s">
-        <v>276</v>
+        <v>343</v>
       </c>
       <c r="K8" t="s">
-        <v>362</v>
+        <v>443</v>
       </c>
       <c r="L8" t="s">
-        <v>407</v>
+        <v>487</v>
       </c>
       <c r="M8" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F9" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="H9" t="s">
-        <v>282</v>
+        <v>369</v>
       </c>
       <c r="I9" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
       <c r="J9" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="K9" t="s">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="L9" t="s">
-        <v>402</v>
+        <v>487</v>
       </c>
       <c r="M9" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="G10" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="H10" t="s">
-        <v>288</v>
+        <v>370</v>
       </c>
       <c r="I10" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="J10" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="K10" t="s">
-        <v>364</v>
+        <v>444</v>
       </c>
       <c r="L10" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="M10" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F11" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="G11" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="H11" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="I11" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J11" t="s">
-        <v>267</v>
+        <v>360</v>
       </c>
       <c r="K11" t="s">
-        <v>364</v>
+        <v>444</v>
       </c>
       <c r="L11" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="M11" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="G12" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
       <c r="H12" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="I12" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="J12" t="s">
-        <v>261</v>
+        <v>354</v>
       </c>
       <c r="K12" t="s">
-        <v>364</v>
+        <v>444</v>
       </c>
       <c r="L12" t="s">
-        <v>410</v>
+        <v>485</v>
       </c>
       <c r="M12" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="F13" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="G13" t="s">
-        <v>269</v>
+        <v>347</v>
       </c>
       <c r="H13" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="I13" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="J13" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K13" t="s">
-        <v>365</v>
+        <v>445</v>
       </c>
       <c r="L13" t="s">
-        <v>411</v>
+        <v>490</v>
       </c>
       <c r="M13" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="F14" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>347</v>
       </c>
       <c r="H14" t="s">
-        <v>284</v>
+        <v>373</v>
       </c>
       <c r="I14" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J14" t="s">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="K14" t="s">
-        <v>365</v>
+        <v>445</v>
       </c>
       <c r="L14" t="s">
-        <v>404</v>
+        <v>491</v>
       </c>
       <c r="M14" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>309</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="E15" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F15" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="G15" t="s">
-        <v>270</v>
+        <v>338</v>
       </c>
       <c r="H15" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="I15" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="J15" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="K15" t="s">
-        <v>365</v>
+        <v>445</v>
       </c>
       <c r="L15" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
       <c r="M15" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>310</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F16" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="G16" t="s">
-        <v>261</v>
+        <v>339</v>
       </c>
       <c r="H16" t="s">
-        <v>282</v>
+        <v>365</v>
       </c>
       <c r="I16" t="s">
-        <v>342</v>
+        <v>426</v>
       </c>
       <c r="J16" t="s">
-        <v>347</v>
+        <v>430</v>
       </c>
       <c r="K16" t="s">
-        <v>365</v>
+        <v>445</v>
       </c>
       <c r="L16" t="s">
-        <v>402</v>
+        <v>486</v>
       </c>
       <c r="M16" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>320</v>
+        <v>247</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F17" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="G17" t="s">
-        <v>271</v>
+        <v>348</v>
       </c>
       <c r="H17" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="I17" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="J17" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="K17" t="s">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="L17" t="s">
-        <v>412</v>
+        <v>492</v>
       </c>
       <c r="M17" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F18" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="G18" t="s">
-        <v>272</v>
+        <v>347</v>
       </c>
       <c r="H18" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="I18" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K18" t="s">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="L18" t="s">
-        <v>413</v>
+        <v>488</v>
       </c>
       <c r="M18" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="F19" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="G19" t="s">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="H19" t="s">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="I19" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J19" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="K19" t="s">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="L19" t="s">
-        <v>413</v>
+        <v>493</v>
       </c>
       <c r="M19" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="G20" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="H20" t="s">
-        <v>295</v>
+        <v>378</v>
       </c>
       <c r="I20" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="J20" t="s">
-        <v>352</v>
+        <v>432</v>
       </c>
       <c r="K20" t="s">
-        <v>367</v>
+        <v>447</v>
       </c>
       <c r="L20" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
       <c r="M20" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>372</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F21" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="G21" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="H21" t="s">
-        <v>296</v>
+        <v>368</v>
       </c>
       <c r="I21" t="s">
+        <v>424</v>
+      </c>
+      <c r="J21" t="s">
         <v>343</v>
       </c>
-      <c r="J21" t="s">
-        <v>275</v>
-      </c>
       <c r="K21" t="s">
-        <v>367</v>
+        <v>447</v>
       </c>
       <c r="L21" t="s">
-        <v>415</v>
+        <v>487</v>
       </c>
       <c r="M21" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>401</v>
+        <v>291</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="G22" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="H22" t="s">
-        <v>297</v>
+        <v>379</v>
       </c>
       <c r="I22" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="J22" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K22" t="s">
-        <v>368</v>
+        <v>447</v>
       </c>
       <c r="L22" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
       <c r="M22" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>440</v>
+        <v>309</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="G23" t="s">
-        <v>275</v>
+        <v>349</v>
       </c>
       <c r="H23" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="I23" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J23" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="K23" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="L23" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
       <c r="M23" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
+        <v>310</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" t="s">
+        <v>260</v>
+      </c>
+      <c r="G24" t="s">
+        <v>339</v>
+      </c>
+      <c r="H24" t="s">
+        <v>365</v>
+      </c>
+      <c r="I24" t="s">
+        <v>426</v>
+      </c>
+      <c r="J24" t="s">
+        <v>430</v>
+      </c>
+      <c r="K24" t="s">
         <v>447</v>
       </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" t="s">
-        <v>200</v>
-      </c>
-      <c r="F24" t="s">
-        <v>219</v>
-      </c>
-      <c r="G24" t="s">
-        <v>275</v>
-      </c>
-      <c r="H24" t="s">
-        <v>299</v>
-      </c>
-      <c r="I24" t="s">
-        <v>343</v>
-      </c>
-      <c r="J24" t="s">
-        <v>270</v>
-      </c>
-      <c r="K24" t="s">
-        <v>369</v>
-      </c>
       <c r="L24" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="M24" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>474</v>
+        <v>320</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>275</v>
       </c>
       <c r="G25" t="s">
-        <v>265</v>
+        <v>350</v>
       </c>
       <c r="H25" t="s">
-        <v>286</v>
+        <v>381</v>
       </c>
       <c r="I25" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J25" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="K25" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="L25" t="s">
-        <v>417</v>
+        <v>495</v>
       </c>
       <c r="M25" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>490</v>
+        <v>324</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="E26" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="G26" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="H26" t="s">
-        <v>284</v>
+        <v>382</v>
       </c>
       <c r="I26" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J26" t="s">
-        <v>264</v>
+        <v>433</v>
       </c>
       <c r="K26" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="L26" t="s">
-        <v>418</v>
+        <v>496</v>
       </c>
       <c r="M26" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>498</v>
+        <v>325</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="E27" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="G27" t="s">
-        <v>261</v>
+        <v>351</v>
       </c>
       <c r="H27" t="s">
-        <v>282</v>
+        <v>382</v>
       </c>
       <c r="I27" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
       <c r="J27" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="K27" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="L27" t="s">
-        <v>402</v>
+        <v>496</v>
       </c>
       <c r="M27" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>506</v>
+        <v>347</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="G28" t="s">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="H28" t="s">
-        <v>300</v>
+        <v>383</v>
       </c>
       <c r="I28" t="s">
-        <v>344</v>
+        <v>427</v>
       </c>
       <c r="J28" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="K28" t="s">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="L28" t="s">
-        <v>407</v>
+        <v>491</v>
       </c>
       <c r="M28" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>519</v>
+        <v>372</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="G29" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="H29" t="s">
-        <v>301</v>
+        <v>384</v>
       </c>
       <c r="I29" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c r="K29" t="s">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="L29" t="s">
-        <v>408</v>
+        <v>497</v>
       </c>
       <c r="M29" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>521</v>
+        <v>374</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="E30" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="G30" t="s">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c r="H30" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
       <c r="I30" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="J30" t="s">
-        <v>278</v>
+        <v>429</v>
       </c>
       <c r="K30" t="s">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="L30" t="s">
-        <v>408</v>
+        <v>485</v>
       </c>
       <c r="M30" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>541</v>
+        <v>440</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="G31" t="s">
-        <v>272</v>
+        <v>353</v>
       </c>
       <c r="H31" t="s">
-        <v>284</v>
+        <v>371</v>
       </c>
       <c r="I31" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J31" t="s">
-        <v>264</v>
+        <v>360</v>
       </c>
       <c r="K31" t="s">
-        <v>372</v>
+        <v>450</v>
       </c>
       <c r="L31" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="M31" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>546</v>
+        <v>447</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="E32" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="G32" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="H32" t="s">
-        <v>303</v>
+        <v>385</v>
       </c>
       <c r="I32" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J32" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="K32" t="s">
-        <v>372</v>
+        <v>450</v>
       </c>
       <c r="L32" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="M32" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>572</v>
+        <v>474</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F33" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="G33" t="s">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="H33" t="s">
-        <v>304</v>
+        <v>371</v>
       </c>
       <c r="I33" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J33" t="s">
-        <v>263</v>
+        <v>360</v>
       </c>
       <c r="K33" t="s">
-        <v>372</v>
+        <v>451</v>
       </c>
       <c r="L33" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="M33" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>585</v>
+        <v>490</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F34" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>351</v>
       </c>
       <c r="H34" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="I34" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
       <c r="J34" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="K34" t="s">
-        <v>372</v>
+        <v>451</v>
       </c>
       <c r="L34" t="s">
-        <v>421</v>
+        <v>498</v>
       </c>
       <c r="M34" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>605</v>
+        <v>498</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="E35" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F35" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="G35" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="H35" t="s">
-        <v>289</v>
+        <v>365</v>
       </c>
       <c r="I35" t="s">
-        <v>345</v>
+        <v>426</v>
       </c>
       <c r="J35" t="s">
-        <v>267</v>
+        <v>430</v>
       </c>
       <c r="K35" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="L35" t="s">
-        <v>409</v>
+        <v>486</v>
       </c>
       <c r="M35" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>636</v>
+        <v>506</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F36" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="G36" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="H36" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="I36" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="J36" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="K36" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="L36" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="M36" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>648</v>
+        <v>519</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F37" t="s">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="G37" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="H37" t="s">
-        <v>286</v>
+        <v>387</v>
       </c>
       <c r="I37" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J37" t="s">
-        <v>274</v>
+        <v>341</v>
       </c>
       <c r="K37" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="L37" t="s">
-        <v>403</v>
+        <v>499</v>
       </c>
       <c r="M37" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>677</v>
+        <v>521</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F38" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="G38" t="s">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="H38" t="s">
-        <v>306</v>
+        <v>388</v>
       </c>
       <c r="I38" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J38" t="s">
-        <v>270</v>
+        <v>341</v>
       </c>
       <c r="K38" t="s">
-        <v>375</v>
+        <v>452</v>
       </c>
       <c r="L38" t="s">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="M38" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>683</v>
+        <v>541</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F39" t="s">
-        <v>204</v>
+        <v>281</v>
       </c>
       <c r="G39" t="s">
-        <v>263</v>
+        <v>351</v>
       </c>
       <c r="H39" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="I39" t="s">
+        <v>424</v>
+      </c>
+      <c r="J39" t="s">
         <v>343</v>
       </c>
-      <c r="J39" t="s">
-        <v>264</v>
-      </c>
       <c r="K39" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="L39" t="s">
-        <v>404</v>
+        <v>500</v>
       </c>
       <c r="M39" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>706</v>
+        <v>546</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="E40" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F40" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="G40" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="H40" t="s">
-        <v>299</v>
+        <v>389</v>
       </c>
       <c r="I40" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J40" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="K40" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="L40" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="M40" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>709</v>
+        <v>572</v>
       </c>
       <c r="B41" t="s">
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="E41" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F41" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="G41" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="H41" t="s">
-        <v>304</v>
+        <v>390</v>
       </c>
       <c r="I41" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J41" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="K41" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="L41" t="s">
-        <v>403</v>
+        <v>487</v>
       </c>
       <c r="M41" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>750</v>
+        <v>585</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F42" t="s">
-        <v>217</v>
+        <v>284</v>
       </c>
       <c r="G42" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="H42" t="s">
-        <v>297</v>
+        <v>391</v>
       </c>
       <c r="I42" t="s">
-        <v>345</v>
+        <v>426</v>
       </c>
       <c r="J42" t="s">
-        <v>269</v>
+        <v>357</v>
       </c>
       <c r="K42" t="s">
-        <v>376</v>
+        <v>453</v>
       </c>
       <c r="L42" t="s">
-        <v>422</v>
+        <v>501</v>
       </c>
       <c r="M42" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>763</v>
+        <v>586</v>
       </c>
       <c r="B43" t="s">
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E43" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F43" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="G43" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
       <c r="H43" t="s">
-        <v>307</v>
+        <v>367</v>
       </c>
       <c r="I43" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J43" t="s">
-        <v>264</v>
+        <v>434</v>
       </c>
       <c r="K43" t="s">
-        <v>377</v>
+        <v>453</v>
       </c>
       <c r="L43" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="M43" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>778</v>
+        <v>605</v>
       </c>
       <c r="B44" t="s">
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E44" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="G44" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="H44" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="I44" t="s">
-        <v>344</v>
+        <v>427</v>
       </c>
       <c r="J44" t="s">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="K44" t="s">
-        <v>377</v>
+        <v>454</v>
       </c>
       <c r="L44" t="s">
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="M44" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>779</v>
+        <v>636</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="E45" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F45" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="G45" t="s">
-        <v>279</v>
+        <v>350</v>
       </c>
       <c r="H45" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
       <c r="I45" t="s">
-        <v>344</v>
+        <v>427</v>
       </c>
       <c r="J45" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="K45" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
       <c r="L45" t="s">
-        <v>407</v>
+        <v>502</v>
       </c>
       <c r="M45" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>781</v>
+        <v>648</v>
       </c>
       <c r="B46" t="s">
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E46" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F46" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="G46" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="H46" t="s">
-        <v>310</v>
+        <v>371</v>
       </c>
       <c r="I46" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J46" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="K46" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
       <c r="L46" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="M46" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>788</v>
+        <v>653</v>
       </c>
       <c r="B47" t="s">
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="E47" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F47" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="G47" t="s">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="H47" t="s">
-        <v>311</v>
+        <v>379</v>
       </c>
       <c r="I47" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="J47" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="K47" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
       <c r="L47" t="s">
-        <v>406</v>
+        <v>485</v>
       </c>
       <c r="M47" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>806</v>
+        <v>659</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F48" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="G48" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="H48" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="I48" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="J48" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
       <c r="K48" t="s">
-        <v>378</v>
+        <v>455</v>
       </c>
       <c r="L48" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
       <c r="M48" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>824</v>
+        <v>677</v>
       </c>
       <c r="B49" t="s">
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F49" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G49" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="H49" t="s">
-        <v>312</v>
+        <v>385</v>
       </c>
       <c r="I49" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J49" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K49" t="s">
-        <v>379</v>
+        <v>456</v>
       </c>
       <c r="L49" t="s">
-        <v>403</v>
+        <v>484</v>
       </c>
       <c r="M49" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>838</v>
+        <v>683</v>
       </c>
       <c r="B50" t="s">
         <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F50" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="G50" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="H50" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="I50" t="s">
+        <v>424</v>
+      </c>
+      <c r="J50" t="s">
         <v>343</v>
       </c>
-      <c r="J50" t="s">
-        <v>277</v>
-      </c>
       <c r="K50" t="s">
-        <v>379</v>
+        <v>456</v>
       </c>
       <c r="L50" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="M50" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1">
-        <v>875</v>
+        <v>706</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="E51" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F51" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="G51" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="H51" t="s">
-        <v>302</v>
+        <v>385</v>
       </c>
       <c r="I51" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J51" t="s">
-        <v>278</v>
+        <v>349</v>
       </c>
       <c r="K51" t="s">
-        <v>380</v>
+        <v>456</v>
       </c>
       <c r="L51" t="s">
-        <v>410</v>
+        <v>487</v>
       </c>
       <c r="M51" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>894</v>
+        <v>709</v>
       </c>
       <c r="B52" t="s">
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="E52" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F52" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="G52" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="H52" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="I52" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J52" t="s">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="K52" t="s">
-        <v>380</v>
+        <v>456</v>
       </c>
       <c r="L52" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="M52" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>897</v>
+        <v>750</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="E53" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F53" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="G53" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="H53" t="s">
-        <v>311</v>
+        <v>393</v>
       </c>
       <c r="I53" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J53" t="s">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="K53" t="s">
-        <v>380</v>
+        <v>457</v>
       </c>
       <c r="L53" t="s">
-        <v>406</v>
+        <v>502</v>
       </c>
       <c r="M53" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>928</v>
+        <v>763</v>
       </c>
       <c r="B54" t="s">
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="E54" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F54" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="G54" t="s">
-        <v>265</v>
+        <v>342</v>
       </c>
       <c r="H54" t="s">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="I54" t="s">
+        <v>424</v>
+      </c>
+      <c r="J54" t="s">
         <v>343</v>
       </c>
-      <c r="J54" t="s">
-        <v>350</v>
-      </c>
       <c r="K54" t="s">
-        <v>381</v>
+        <v>458</v>
       </c>
       <c r="L54" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
       <c r="M54" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>935</v>
+        <v>778</v>
       </c>
       <c r="B55" t="s">
         <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="E55" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F55" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="G55" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="H55" t="s">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="I55" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="J55" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="K55" t="s">
-        <v>381</v>
+        <v>458</v>
       </c>
       <c r="L55" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="M55" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>962</v>
+        <v>779</v>
       </c>
       <c r="B56" t="s">
         <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="D56" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="E56" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F56" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="G56" t="s">
-        <v>263</v>
+        <v>356</v>
       </c>
       <c r="H56" t="s">
-        <v>315</v>
+        <v>396</v>
       </c>
       <c r="I56" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
       <c r="J56" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="K56" t="s">
-        <v>382</v>
+        <v>458</v>
       </c>
       <c r="L56" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="M56" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>969</v>
+        <v>781</v>
       </c>
       <c r="B57" t="s">
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="E57" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F57" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
       <c r="G57" t="s">
-        <v>276</v>
+        <v>351</v>
       </c>
       <c r="H57" t="s">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="I57" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="J57" t="s">
-        <v>279</v>
+        <v>435</v>
       </c>
       <c r="K57" t="s">
-        <v>382</v>
+        <v>458</v>
       </c>
       <c r="L57" t="s">
-        <v>407</v>
+        <v>503</v>
       </c>
       <c r="M57" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>977</v>
+        <v>788</v>
       </c>
       <c r="B58" t="s">
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="E58" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F58" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="G58" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="H58" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="I58" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J58" t="s">
-        <v>267</v>
+        <v>360</v>
       </c>
       <c r="K58" t="s">
-        <v>382</v>
+        <v>458</v>
       </c>
       <c r="L58" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="M58" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>998</v>
+        <v>806</v>
       </c>
       <c r="B59" t="s">
         <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="E59" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F59" t="s">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="G59" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="H59" t="s">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="I59" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J59" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K59" t="s">
-        <v>383</v>
+        <v>459</v>
       </c>
       <c r="L59" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="M59" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>1008</v>
+        <v>824</v>
       </c>
       <c r="B60" t="s">
         <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="E60" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F60" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="G60" t="s">
-        <v>275</v>
+        <v>351</v>
       </c>
       <c r="H60" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
       <c r="I60" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J60" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="K60" t="s">
-        <v>383</v>
+        <v>460</v>
       </c>
       <c r="L60" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
       <c r="M60" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>1056</v>
+        <v>838</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E61" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F61" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
       <c r="G61" t="s">
-        <v>278</v>
+        <v>351</v>
       </c>
       <c r="H61" t="s">
-        <v>297</v>
+        <v>399</v>
       </c>
       <c r="I61" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J61" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="K61" t="s">
-        <v>384</v>
+        <v>460</v>
       </c>
       <c r="L61" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
       <c r="M61" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>1081</v>
+        <v>869</v>
       </c>
       <c r="B62" t="s">
         <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="E62" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F62" t="s">
-        <v>222</v>
+        <v>297</v>
       </c>
       <c r="G62" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="H62" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
       <c r="I62" t="s">
-        <v>343</v>
+        <v>426</v>
       </c>
       <c r="J62" t="s">
-        <v>263</v>
+        <v>430</v>
       </c>
       <c r="K62" t="s">
-        <v>385</v>
+        <v>460</v>
       </c>
       <c r="L62" t="s">
-        <v>420</v>
+        <v>501</v>
       </c>
       <c r="M62" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>1082</v>
+        <v>875</v>
       </c>
       <c r="B63" t="s">
         <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="E63" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F63" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="G63" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="H63" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="I63" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J63" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
       <c r="K63" t="s">
-        <v>385</v>
+        <v>461</v>
       </c>
       <c r="L63" t="s">
-        <v>403</v>
+        <v>493</v>
       </c>
       <c r="M63" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>1083</v>
+        <v>894</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="E64" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F64" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="G64" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="H64" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="I64" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J64" t="s">
-        <v>263</v>
+        <v>355</v>
       </c>
       <c r="K64" t="s">
-        <v>385</v>
+        <v>461</v>
       </c>
       <c r="L64" t="s">
-        <v>403</v>
+        <v>484</v>
       </c>
       <c r="M64" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>1087</v>
+        <v>897</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D65" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="E65" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F65" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="G65" t="s">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="H65" t="s">
-        <v>318</v>
+        <v>371</v>
       </c>
       <c r="I65" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J65" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K65" t="s">
-        <v>385</v>
+        <v>461</v>
       </c>
       <c r="L65" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="M65" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>1093</v>
+        <v>928</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="E66" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F66" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="G66" t="s">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="H66" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="I66" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J66" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="K66" t="s">
-        <v>385</v>
+        <v>462</v>
       </c>
       <c r="L66" t="s">
-        <v>413</v>
+        <v>487</v>
       </c>
       <c r="M66" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>1124</v>
+        <v>935</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="E67" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F67" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="G67" t="s">
-        <v>263</v>
+        <v>351</v>
       </c>
       <c r="H67" t="s">
-        <v>320</v>
+        <v>398</v>
       </c>
       <c r="I67" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J67" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="K67" t="s">
-        <v>386</v>
+        <v>462</v>
       </c>
       <c r="L67" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="M67" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>1130</v>
+        <v>941</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="D68" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="E68" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F68" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="G68" t="s">
-        <v>266</v>
+        <v>338</v>
       </c>
       <c r="H68" t="s">
-        <v>287</v>
+        <v>364</v>
       </c>
       <c r="I68" t="s">
-        <v>344</v>
+        <v>425</v>
       </c>
       <c r="J68" t="s">
-        <v>276</v>
+        <v>436</v>
       </c>
       <c r="K68" t="s">
-        <v>386</v>
+        <v>462</v>
       </c>
       <c r="L68" t="s">
-        <v>407</v>
+        <v>485</v>
       </c>
       <c r="M68" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>1146</v>
+        <v>949</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="E69" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="F69" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="G69" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="H69" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="I69" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="J69" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="K69" t="s">
-        <v>387</v>
+        <v>462</v>
       </c>
       <c r="L69" t="s">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="M69" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>1163</v>
+        <v>962</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="E70" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F70" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="G70" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="H70" t="s">
-        <v>297</v>
+        <v>401</v>
       </c>
       <c r="I70" t="s">
-        <v>345</v>
+        <v>428</v>
       </c>
       <c r="J70" t="s">
-        <v>269</v>
+        <v>431</v>
       </c>
       <c r="K70" t="s">
-        <v>387</v>
+        <v>463</v>
       </c>
       <c r="L70" t="s">
-        <v>430</v>
+        <v>504</v>
       </c>
       <c r="M70" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1">
-        <v>1177</v>
+        <v>969</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D71" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E71" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F71" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="G71" t="s">
-        <v>267</v>
+        <v>354</v>
       </c>
       <c r="H71" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="I71" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="J71" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="K71" t="s">
-        <v>387</v>
+        <v>463</v>
       </c>
       <c r="L71" t="s">
-        <v>408</v>
+        <v>485</v>
       </c>
       <c r="M71" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1">
-        <v>1183</v>
+        <v>977</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="E72" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F72" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="G72" t="s">
-        <v>273</v>
+        <v>347</v>
       </c>
       <c r="H72" t="s">
-        <v>322</v>
+        <v>402</v>
       </c>
       <c r="I72" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="J72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K72" t="s">
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="L72" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="M72" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1">
-        <v>1184</v>
+        <v>998</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="E73" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F73" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="G73" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="H73" t="s">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="I73" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J73" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="K73" t="s">
-        <v>388</v>
+        <v>464</v>
       </c>
       <c r="L73" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="M73" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1">
-        <v>1225</v>
+        <v>1004</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D74" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="E74" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="F74" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="G74" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="H74" t="s">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="I74" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J74" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="K74" t="s">
-        <v>389</v>
+        <v>464</v>
       </c>
       <c r="L74" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="M74" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1">
-        <v>1267</v>
+        <v>1008</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="E75" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F75" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="G75" t="s">
-        <v>263</v>
+        <v>353</v>
       </c>
       <c r="H75" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="I75" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J75" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="K75" t="s">
-        <v>390</v>
+        <v>464</v>
       </c>
       <c r="L75" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="M75" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1">
-        <v>1270</v>
+        <v>1056</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="E76" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F76" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="G76" t="s">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="H76" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="I76" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J76" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K76" t="s">
-        <v>390</v>
+        <v>465</v>
       </c>
       <c r="L76" t="s">
-        <v>403</v>
+        <v>502</v>
       </c>
       <c r="M76" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1">
-        <v>1331</v>
+        <v>1081</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="E77" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F77" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="G77" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="H77" t="s">
-        <v>289</v>
+        <v>390</v>
       </c>
       <c r="I77" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J77" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="K77" t="s">
-        <v>391</v>
+        <v>466</v>
       </c>
       <c r="L77" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="M77" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1">
-        <v>1338</v>
+        <v>1082</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="E78" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F78" t="s">
-        <v>208</v>
+        <v>283</v>
       </c>
       <c r="G78" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="H78" t="s">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="I78" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J78" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="K78" t="s">
-        <v>391</v>
+        <v>466</v>
       </c>
       <c r="L78" t="s">
-        <v>408</v>
+        <v>487</v>
       </c>
       <c r="M78" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1">
-        <v>1344</v>
+        <v>1083</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="E79" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F79" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="G79" t="s">
-        <v>281</v>
+        <v>352</v>
       </c>
       <c r="H79" t="s">
-        <v>317</v>
+        <v>390</v>
       </c>
       <c r="I79" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="J79" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="K79" t="s">
-        <v>391</v>
+        <v>466</v>
       </c>
       <c r="L79" t="s">
-        <v>407</v>
+        <v>487</v>
       </c>
       <c r="M79" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1">
-        <v>1356</v>
+        <v>1087</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D80" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="E80" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F80" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="G80" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="H80" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="I80" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J80" t="s">
-        <v>268</v>
+        <v>437</v>
       </c>
       <c r="K80" t="s">
-        <v>391</v>
+        <v>466</v>
       </c>
       <c r="L80" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="M80" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1">
-        <v>1370</v>
+        <v>1093</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="E81" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F81" t="s">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="G81" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="H81" t="s">
-        <v>297</v>
+        <v>404</v>
       </c>
       <c r="I81" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J81" t="s">
-        <v>269</v>
+        <v>433</v>
       </c>
       <c r="K81" t="s">
-        <v>392</v>
+        <v>466</v>
       </c>
       <c r="L81" t="s">
-        <v>431</v>
+        <v>505</v>
       </c>
       <c r="M81" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1">
-        <v>1373</v>
+        <v>1103</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D82" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="E82" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="F82" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="G82" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="H82" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="I82" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="J82" t="s">
-        <v>267</v>
+        <v>438</v>
       </c>
       <c r="K82" t="s">
-        <v>392</v>
+        <v>467</v>
       </c>
       <c r="L82" t="s">
-        <v>409</v>
+        <v>502</v>
       </c>
       <c r="M82" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1">
-        <v>1374</v>
+        <v>1124</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D83" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="E83" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F83" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="G83" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="H83" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="I83" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J83" t="s">
-        <v>268</v>
+        <v>431</v>
       </c>
       <c r="K83" t="s">
-        <v>392</v>
+        <v>467</v>
       </c>
       <c r="L83" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="M83" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1">
-        <v>1375</v>
+        <v>1130</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D84" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E84" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F84" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G84" t="s">
-        <v>273</v>
+        <v>346</v>
       </c>
       <c r="H84" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="I84" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="J84" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="K84" t="s">
-        <v>392</v>
+        <v>467</v>
       </c>
       <c r="L84" t="s">
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="M84" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1">
-        <v>1377</v>
+        <v>1146</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E85" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F85" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="G85" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="H85" t="s">
-        <v>325</v>
+        <v>387</v>
       </c>
       <c r="I85" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J85" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="K85" t="s">
-        <v>392</v>
+        <v>468</v>
       </c>
       <c r="L85" t="s">
-        <v>432</v>
+        <v>499</v>
       </c>
       <c r="M85" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1">
-        <v>1378</v>
+        <v>1163</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D86" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E86" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F86" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="G86" t="s">
-        <v>274</v>
+        <v>341</v>
       </c>
       <c r="H86" t="s">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="I86" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J86" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="K86" t="s">
-        <v>392</v>
+        <v>468</v>
       </c>
       <c r="L86" t="s">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="M86" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1">
-        <v>1379</v>
+        <v>1177</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D87" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E87" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F87" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="G87" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="H87" t="s">
-        <v>327</v>
+        <v>387</v>
       </c>
       <c r="I87" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J87" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="K87" t="s">
-        <v>392</v>
+        <v>468</v>
       </c>
       <c r="L87" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="M87" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1">
-        <v>1380</v>
+        <v>1183</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D88" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="E88" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F88" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="G88" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="H88" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="I88" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="J88" t="s">
-        <v>269</v>
+        <v>432</v>
       </c>
       <c r="K88" t="s">
-        <v>392</v>
+        <v>469</v>
       </c>
       <c r="L88" t="s">
-        <v>434</v>
+        <v>507</v>
       </c>
       <c r="M88" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1">
-        <v>1381</v>
+        <v>1184</v>
       </c>
       <c r="B89" t="s">
         <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="D89" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="E89" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F89" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="G89" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="H89" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="I89" t="s">
-        <v>344</v>
+        <v>427</v>
       </c>
       <c r="J89" t="s">
-        <v>357</v>
+        <v>432</v>
       </c>
       <c r="K89" t="s">
-        <v>392</v>
+        <v>469</v>
       </c>
       <c r="L89" t="s">
-        <v>407</v>
+        <v>507</v>
       </c>
       <c r="M89" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1">
-        <v>1388</v>
+        <v>1225</v>
       </c>
       <c r="B90" t="s">
         <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D90" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E90" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="F90" t="s">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="G90" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="H90" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="I90" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="J90" t="s">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="K90" t="s">
-        <v>392</v>
+        <v>470</v>
       </c>
       <c r="L90" t="s">
-        <v>407</v>
+        <v>487</v>
       </c>
       <c r="M90" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1">
-        <v>1393</v>
+        <v>1267</v>
       </c>
       <c r="B91" t="s">
         <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D91" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E91" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F91" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="G91" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="H91" t="s">
-        <v>331</v>
+        <v>405</v>
       </c>
       <c r="I91" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J91" t="s">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="K91" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="L91" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="M91" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1">
-        <v>1396</v>
+        <v>1270</v>
       </c>
       <c r="B92" t="s">
         <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="E92" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F92" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="G92" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="H92" t="s">
-        <v>332</v>
+        <v>405</v>
       </c>
       <c r="I92" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="J92" t="s">
-        <v>281</v>
+        <v>431</v>
       </c>
       <c r="K92" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="L92" t="s">
-        <v>407</v>
+        <v>487</v>
       </c>
       <c r="M92" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1">
-        <v>1402</v>
+        <v>1331</v>
       </c>
       <c r="B93" t="s">
         <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="D93" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E93" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F93" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="G93" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="H93" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="I93" t="s">
-        <v>344</v>
+        <v>427</v>
       </c>
       <c r="J93" t="s">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="K93" t="s">
-        <v>392</v>
+        <v>472</v>
       </c>
       <c r="L93" t="s">
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="M93" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1">
-        <v>1407</v>
+        <v>1338</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D94" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="E94" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F94" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="G94" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="H94" t="s">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="I94" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="J94" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="K94" t="s">
-        <v>392</v>
+        <v>472</v>
       </c>
       <c r="L94" t="s">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="M94" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1">
-        <v>1408</v>
+        <v>1343</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D95" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="E95" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="F95" t="s">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="G95" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="H95" t="s">
-        <v>297</v>
+        <v>377</v>
       </c>
       <c r="I95" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J95" t="s">
-        <v>269</v>
+        <v>340</v>
       </c>
       <c r="K95" t="s">
-        <v>392</v>
+        <v>472</v>
       </c>
       <c r="L95" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="M95" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1">
-        <v>1415</v>
+        <v>1356</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="D96" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="E96" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F96" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="G96" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="H96" t="s">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="I96" t="s">
-        <v>344</v>
+        <v>427</v>
       </c>
       <c r="J96" t="s">
-        <v>281</v>
+        <v>347</v>
       </c>
       <c r="K96" t="s">
-        <v>392</v>
+        <v>472</v>
       </c>
       <c r="L96" t="s">
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="M96" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1">
-        <v>1418</v>
+        <v>1357</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="D97" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="E97" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F97" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="G97" t="s">
-        <v>273</v>
+        <v>359</v>
       </c>
       <c r="H97" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="I97" t="s">
-        <v>343</v>
+        <v>426</v>
       </c>
       <c r="J97" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K97" t="s">
-        <v>392</v>
+        <v>472</v>
       </c>
       <c r="L97" t="s">
-        <v>403</v>
+        <v>501</v>
       </c>
       <c r="M97" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1">
-        <v>1469</v>
+        <v>1370</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="D98" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E98" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F98" t="s">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="G98" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="H98" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="I98" t="s">
-        <v>346</v>
+        <v>427</v>
       </c>
       <c r="J98" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="K98" t="s">
-        <v>393</v>
+        <v>473</v>
       </c>
       <c r="L98" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
       <c r="M98" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1">
-        <v>1485</v>
+        <v>1373</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D99" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="E99" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F99" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="G99" t="s">
-        <v>268</v>
+        <v>347</v>
       </c>
       <c r="H99" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
       <c r="I99" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="J99" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="K99" t="s">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="L99" t="s">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="M99" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1">
-        <v>1514</v>
+        <v>1374</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D100" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="E100" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F100" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="G100" t="s">
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="H100" t="s">
-        <v>338</v>
+        <v>406</v>
       </c>
       <c r="I100" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J100" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K100" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="L100" t="s">
-        <v>420</v>
+        <v>488</v>
       </c>
       <c r="M100" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1">
-        <v>1550</v>
+        <v>1375</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D101" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="E101" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F101" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="G101" t="s">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="H101" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="I101" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="J101" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="K101" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
       <c r="L101" t="s">
-        <v>410</v>
+        <v>488</v>
       </c>
       <c r="M101" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1">
-        <v>1559</v>
+        <v>1376</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D102" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="E102" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="F102" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
       <c r="G102" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="H102" t="s">
-        <v>316</v>
+        <v>406</v>
       </c>
       <c r="I102" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J102" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="K102" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
       <c r="L102" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="M102" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1">
-        <v>1560</v>
+        <v>1377</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C103" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="D103" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="E103" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F103" t="s">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="G103" t="s">
-        <v>272</v>
+        <v>360</v>
       </c>
       <c r="H103" t="s">
-        <v>306</v>
+        <v>407</v>
       </c>
       <c r="I103" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J103" t="s">
-        <v>270</v>
+        <v>345</v>
       </c>
       <c r="K103" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
       <c r="L103" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="M103" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1">
-        <v>1580</v>
+        <v>1378</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D104" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="E104" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F104" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="G104" t="s">
-        <v>272</v>
+        <v>360</v>
       </c>
       <c r="H104" t="s">
-        <v>310</v>
+        <v>408</v>
       </c>
       <c r="I104" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J104" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="K104" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
       <c r="L104" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="M104" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1">
-        <v>1584</v>
+        <v>1379</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D105" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="E105" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F105" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="G105" t="s">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="H105" t="s">
-        <v>298</v>
+        <v>409</v>
       </c>
       <c r="I105" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="J105" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="K105" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
       <c r="L105" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
       <c r="M105" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1">
-        <v>1585</v>
+        <v>1380</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="D106" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="E106" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F106" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="G106" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="H106" t="s">
-        <v>313</v>
+        <v>410</v>
       </c>
       <c r="I106" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J106" t="s">
-        <v>277</v>
+        <v>344</v>
       </c>
       <c r="K106" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
       <c r="L106" t="s">
-        <v>423</v>
+        <v>508</v>
       </c>
       <c r="M106" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1">
-        <v>1592</v>
+        <v>1381</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C107" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="D107" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="E107" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F107" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="G107" t="s">
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="H107" t="s">
-        <v>318</v>
+        <v>411</v>
       </c>
       <c r="I107" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="J107" t="s">
-        <v>355</v>
+        <v>436</v>
       </c>
       <c r="K107" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
       <c r="L107" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="M107" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="1">
-        <v>1664</v>
+        <v>1388</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C108" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D108" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="E108" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F108" t="s">
-        <v>209</v>
+        <v>320</v>
       </c>
       <c r="G108" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="H108" t="s">
-        <v>289</v>
+        <v>367</v>
       </c>
       <c r="I108" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="J108" t="s">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c r="K108" t="s">
-        <v>397</v>
+        <v>473</v>
       </c>
       <c r="L108" t="s">
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="M108" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1">
-        <v>1667</v>
+        <v>1393</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D109" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="E109" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="G109" t="s">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="H109" t="s">
-        <v>340</v>
+        <v>412</v>
       </c>
       <c r="I109" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J109" t="s">
-        <v>278</v>
+        <v>343</v>
       </c>
       <c r="K109" t="s">
-        <v>397</v>
+        <v>473</v>
       </c>
       <c r="L109" t="s">
-        <v>408</v>
+        <v>487</v>
       </c>
       <c r="M109" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1">
-        <v>1690</v>
+        <v>1396</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D110" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="E110" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>322</v>
       </c>
       <c r="G110" t="s">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="H110" t="s">
-        <v>321</v>
+        <v>413</v>
       </c>
       <c r="I110" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="J110" t="s">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="K110" t="s">
-        <v>398</v>
+        <v>473</v>
       </c>
       <c r="L110" t="s">
-        <v>408</v>
+        <v>485</v>
       </c>
       <c r="M110" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1">
-        <v>1696</v>
+        <v>1398</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C111" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D111" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="E111" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F111" t="s">
-        <v>209</v>
+        <v>323</v>
       </c>
       <c r="G111" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="H111" t="s">
-        <v>289</v>
+        <v>414</v>
       </c>
       <c r="I111" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J111" t="s">
-        <v>267</v>
+        <v>355</v>
       </c>
       <c r="K111" t="s">
-        <v>398</v>
+        <v>473</v>
       </c>
       <c r="L111" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="M111" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="1">
-        <v>1697</v>
+        <v>1401</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D112" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="E112" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="F112" t="s">
-        <v>209</v>
+        <v>324</v>
       </c>
       <c r="G112" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="H112" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="I112" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="J112" t="s">
-        <v>267</v>
+        <v>360</v>
       </c>
       <c r="K112" t="s">
-        <v>398</v>
+        <v>473</v>
       </c>
       <c r="L112" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="M112" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="1">
-        <v>1724</v>
+        <v>1402</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D113" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="E113" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F113" t="s">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="G113" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
       <c r="H113" t="s">
-        <v>297</v>
+        <v>415</v>
       </c>
       <c r="I113" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="J113" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="K113" t="s">
-        <v>398</v>
+        <v>473</v>
       </c>
       <c r="L113" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="M113" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="1">
-        <v>1728</v>
+        <v>1405</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="D114" t="s">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="E114" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F114" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="G114" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="H114" t="s">
-        <v>282</v>
+        <v>416</v>
       </c>
       <c r="I114" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="J114" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="K114" t="s">
-        <v>398</v>
+        <v>473</v>
       </c>
       <c r="L114" t="s">
-        <v>402</v>
+        <v>485</v>
       </c>
       <c r="M114" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="1">
-        <v>1753</v>
+        <v>1407</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C115" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D115" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="E115" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F115" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="G115" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="H115" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="I115" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="J115" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="K115" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
       <c r="L115" t="s">
-        <v>408</v>
+        <v>506</v>
       </c>
       <c r="M115" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="1">
-        <v>1757</v>
+        <v>1408</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C116" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="D116" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E116" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F116" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="G116" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="H116" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
       <c r="I116" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="J116" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K116" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
       <c r="L116" t="s">
-        <v>423</v>
+        <v>506</v>
       </c>
       <c r="M116" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1">
-        <v>1800</v>
+        <v>1415</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="D117" t="s">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="E117" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="F117" t="s">
-        <v>223</v>
+        <v>326</v>
       </c>
       <c r="G117" t="s">
-        <v>261</v>
+        <v>352</v>
       </c>
       <c r="H117" t="s">
-        <v>305</v>
+        <v>417</v>
       </c>
       <c r="I117" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="J117" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="K117" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="L117" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="M117" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="1">
+        <v>1418</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" t="s">
+        <v>159</v>
+      </c>
+      <c r="D118" t="s">
+        <v>169</v>
+      </c>
+      <c r="E118" t="s">
+        <v>257</v>
+      </c>
+      <c r="F118" t="s">
+        <v>262</v>
+      </c>
+      <c r="G118" t="s">
+        <v>352</v>
+      </c>
+      <c r="H118" t="s">
+        <v>367</v>
+      </c>
+      <c r="I118" t="s">
+        <v>424</v>
+      </c>
+      <c r="J118" t="s">
+        <v>358</v>
+      </c>
+      <c r="K118" t="s">
+        <v>473</v>
+      </c>
+      <c r="L118" t="s">
+        <v>487</v>
+      </c>
+      <c r="M118" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="1">
+        <v>1454</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>157</v>
+      </c>
+      <c r="D119" t="s">
+        <v>166</v>
+      </c>
+      <c r="E119" t="s">
+        <v>257</v>
+      </c>
+      <c r="F119" t="s">
+        <v>259</v>
+      </c>
+      <c r="G119" t="s">
+        <v>338</v>
+      </c>
+      <c r="H119" t="s">
+        <v>364</v>
+      </c>
+      <c r="I119" t="s">
+        <v>425</v>
+      </c>
+      <c r="J119" t="s">
+        <v>436</v>
+      </c>
+      <c r="K119" t="s">
+        <v>474</v>
+      </c>
+      <c r="L119" t="s">
+        <v>485</v>
+      </c>
+      <c r="M119" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="1">
+        <v>1457</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" t="s">
+        <v>159</v>
+      </c>
+      <c r="D120" t="s">
+        <v>242</v>
+      </c>
+      <c r="E120" t="s">
+        <v>257</v>
+      </c>
+      <c r="F120" t="s">
+        <v>327</v>
+      </c>
+      <c r="G120" t="s">
+        <v>361</v>
+      </c>
+      <c r="H120" t="s">
+        <v>418</v>
+      </c>
+      <c r="I120" t="s">
+        <v>424</v>
+      </c>
+      <c r="J120" t="s">
+        <v>437</v>
+      </c>
+      <c r="K120" t="s">
+        <v>474</v>
+      </c>
+      <c r="L120" t="s">
+        <v>487</v>
+      </c>
+      <c r="M120" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="1">
+        <v>1469</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" t="s">
+        <v>163</v>
+      </c>
+      <c r="D121" t="s">
+        <v>243</v>
+      </c>
+      <c r="E121" t="s">
+        <v>257</v>
+      </c>
+      <c r="F121" t="s">
+        <v>289</v>
+      </c>
+      <c r="G121" t="s">
+        <v>352</v>
+      </c>
+      <c r="H121" t="s">
+        <v>419</v>
+      </c>
+      <c r="I121" t="s">
+        <v>428</v>
+      </c>
+      <c r="J121" t="s">
+        <v>341</v>
+      </c>
+      <c r="K121" t="s">
+        <v>474</v>
+      </c>
+      <c r="L121" t="s">
+        <v>509</v>
+      </c>
+      <c r="M121" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="1">
+        <v>1475</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" t="s">
+        <v>159</v>
+      </c>
+      <c r="D122" t="s">
+        <v>244</v>
+      </c>
+      <c r="E122" t="s">
+        <v>257</v>
+      </c>
+      <c r="F122" t="s">
+        <v>328</v>
+      </c>
+      <c r="G122" t="s">
+        <v>362</v>
+      </c>
+      <c r="H122" t="s">
+        <v>378</v>
+      </c>
+      <c r="I122" t="s">
+        <v>424</v>
+      </c>
+      <c r="J122" t="s">
+        <v>349</v>
+      </c>
+      <c r="K122" t="s">
+        <v>475</v>
+      </c>
+      <c r="L122" t="s">
+        <v>487</v>
+      </c>
+      <c r="M122" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="1">
+        <v>1485</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" t="s">
+        <v>160</v>
+      </c>
+      <c r="D123" t="s">
+        <v>245</v>
+      </c>
+      <c r="E123" t="s">
+        <v>257</v>
+      </c>
+      <c r="F123" t="s">
+        <v>271</v>
+      </c>
+      <c r="G123" t="s">
+        <v>347</v>
+      </c>
+      <c r="H123" t="s">
+        <v>420</v>
+      </c>
+      <c r="I123" t="s">
+        <v>427</v>
+      </c>
+      <c r="J123" t="s">
+        <v>348</v>
+      </c>
+      <c r="K123" t="s">
+        <v>475</v>
+      </c>
+      <c r="L123" t="s">
+        <v>488</v>
+      </c>
+      <c r="M123" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="1">
+        <v>1503</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" t="s">
+        <v>160</v>
+      </c>
+      <c r="D124" t="s">
+        <v>246</v>
+      </c>
+      <c r="E124" t="s">
+        <v>256</v>
+      </c>
+      <c r="F124" t="s">
+        <v>329</v>
+      </c>
+      <c r="G124" t="s">
+        <v>347</v>
+      </c>
+      <c r="H124" t="s">
+        <v>386</v>
+      </c>
+      <c r="I124" t="s">
+        <v>427</v>
+      </c>
+      <c r="J124" t="s">
+        <v>438</v>
+      </c>
+      <c r="K124" t="s">
+        <v>476</v>
+      </c>
+      <c r="L124" t="s">
+        <v>491</v>
+      </c>
+      <c r="M124" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="1">
+        <v>1507</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" t="s">
+        <v>160</v>
+      </c>
+      <c r="D125" t="s">
+        <v>247</v>
+      </c>
+      <c r="E125" t="s">
+        <v>256</v>
+      </c>
+      <c r="F125" t="s">
+        <v>330</v>
+      </c>
+      <c r="G125" t="s">
+        <v>350</v>
+      </c>
+      <c r="H125" t="s">
+        <v>377</v>
+      </c>
+      <c r="I125" t="s">
+        <v>427</v>
+      </c>
+      <c r="J125" t="s">
+        <v>438</v>
+      </c>
+      <c r="K125" t="s">
+        <v>476</v>
+      </c>
+      <c r="L125" t="s">
+        <v>510</v>
+      </c>
+      <c r="M125" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="1">
+        <v>1514</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" t="s">
+        <v>159</v>
+      </c>
+      <c r="D126" t="s">
+        <v>248</v>
+      </c>
+      <c r="E126" t="s">
+        <v>257</v>
+      </c>
+      <c r="F126" t="s">
+        <v>301</v>
+      </c>
+      <c r="G126" t="s">
+        <v>343</v>
+      </c>
+      <c r="H126" t="s">
+        <v>369</v>
+      </c>
+      <c r="I126" t="s">
+        <v>424</v>
+      </c>
+      <c r="J126" t="s">
+        <v>431</v>
+      </c>
+      <c r="K126" t="s">
+        <v>476</v>
+      </c>
+      <c r="L126" t="s">
+        <v>487</v>
+      </c>
+      <c r="M126" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="1">
+        <v>1528</v>
+      </c>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" t="s">
+        <v>160</v>
+      </c>
+      <c r="D127" t="s">
+        <v>249</v>
+      </c>
+      <c r="E127" t="s">
+        <v>256</v>
+      </c>
+      <c r="F127" t="s">
+        <v>331</v>
+      </c>
+      <c r="G127" t="s">
+        <v>347</v>
+      </c>
+      <c r="H127" t="s">
+        <v>421</v>
+      </c>
+      <c r="I127" t="s">
+        <v>427</v>
+      </c>
+      <c r="J127" t="s">
+        <v>438</v>
+      </c>
+      <c r="K127" t="s">
+        <v>476</v>
+      </c>
+      <c r="L127" t="s">
+        <v>493</v>
+      </c>
+      <c r="M127" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="1">
+        <v>1550</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128" t="s">
+        <v>160</v>
+      </c>
+      <c r="D128" t="s">
+        <v>250</v>
+      </c>
+      <c r="E128" t="s">
+        <v>257</v>
+      </c>
+      <c r="F128" t="s">
+        <v>332</v>
+      </c>
+      <c r="G128" t="s">
+        <v>348</v>
+      </c>
+      <c r="H128" t="s">
+        <v>422</v>
+      </c>
+      <c r="I128" t="s">
+        <v>427</v>
+      </c>
+      <c r="J128" t="s">
+        <v>341</v>
+      </c>
+      <c r="K128" t="s">
+        <v>477</v>
+      </c>
+      <c r="L128" t="s">
+        <v>493</v>
+      </c>
+      <c r="M128" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="1">
+        <v>1559</v>
+      </c>
+      <c r="B129" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129" t="s">
+        <v>160</v>
+      </c>
+      <c r="D129" t="s">
+        <v>226</v>
+      </c>
+      <c r="E129" t="s">
+        <v>257</v>
+      </c>
+      <c r="F129" t="s">
+        <v>271</v>
+      </c>
+      <c r="G129" t="s">
+        <v>347</v>
+      </c>
+      <c r="H129" t="s">
+        <v>402</v>
+      </c>
+      <c r="I129" t="s">
+        <v>427</v>
+      </c>
+      <c r="J129" t="s">
+        <v>348</v>
+      </c>
+      <c r="K129" t="s">
+        <v>477</v>
+      </c>
+      <c r="L129" t="s">
+        <v>488</v>
+      </c>
+      <c r="M129" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="1">
+        <v>1560</v>
+      </c>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
+      <c r="C130" t="s">
+        <v>156</v>
+      </c>
+      <c r="D130" t="s">
+        <v>197</v>
+      </c>
+      <c r="E130" t="s">
+        <v>257</v>
+      </c>
+      <c r="F130" t="s">
+        <v>286</v>
+      </c>
+      <c r="G130" t="s">
+        <v>351</v>
+      </c>
+      <c r="H130" t="s">
+        <v>385</v>
+      </c>
+      <c r="I130" t="s">
+        <v>424</v>
+      </c>
+      <c r="J130" t="s">
+        <v>349</v>
+      </c>
+      <c r="K130" t="s">
+        <v>477</v>
+      </c>
+      <c r="L130" t="s">
+        <v>484</v>
+      </c>
+      <c r="M130" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="1">
+        <v>1562</v>
+      </c>
+      <c r="B131" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" t="s">
+        <v>157</v>
+      </c>
+      <c r="D131" t="s">
+        <v>251</v>
+      </c>
+      <c r="E131" t="s">
+        <v>256</v>
+      </c>
+      <c r="F131" t="s">
+        <v>333</v>
+      </c>
+      <c r="G131" t="s">
+        <v>354</v>
+      </c>
+      <c r="H131" t="s">
+        <v>377</v>
+      </c>
+      <c r="I131" t="s">
+        <v>425</v>
+      </c>
+      <c r="J131" t="s">
+        <v>429</v>
+      </c>
+      <c r="K131" t="s">
+        <v>477</v>
+      </c>
+      <c r="L131" t="s">
+        <v>485</v>
+      </c>
+      <c r="M131" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="1">
+        <v>1580</v>
+      </c>
+      <c r="B132" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" t="s">
+        <v>161</v>
+      </c>
+      <c r="D132" t="s">
+        <v>203</v>
+      </c>
+      <c r="E132" t="s">
+        <v>257</v>
+      </c>
+      <c r="F132" t="s">
+        <v>292</v>
+      </c>
+      <c r="G132" t="s">
+        <v>351</v>
+      </c>
+      <c r="H132" t="s">
+        <v>397</v>
+      </c>
+      <c r="I132" t="s">
+        <v>424</v>
+      </c>
+      <c r="J132" t="s">
+        <v>435</v>
+      </c>
+      <c r="K132" t="s">
+        <v>477</v>
+      </c>
+      <c r="L132" t="s">
+        <v>503</v>
+      </c>
+      <c r="M132" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="1">
+        <v>1584</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" t="s">
+        <v>159</v>
+      </c>
+      <c r="D133" t="s">
+        <v>187</v>
+      </c>
+      <c r="E133" t="s">
+        <v>257</v>
+      </c>
+      <c r="F133" t="s">
+        <v>279</v>
+      </c>
+      <c r="G133" t="s">
+        <v>353</v>
+      </c>
+      <c r="H133" t="s">
+        <v>371</v>
+      </c>
+      <c r="I133" t="s">
+        <v>424</v>
+      </c>
+      <c r="J133" t="s">
+        <v>360</v>
+      </c>
+      <c r="K133" t="s">
+        <v>477</v>
+      </c>
+      <c r="L133" t="s">
+        <v>487</v>
+      </c>
+      <c r="M133" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="1">
+        <v>1585</v>
+      </c>
+      <c r="B134" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134" t="s">
+        <v>156</v>
+      </c>
+      <c r="D134" t="s">
+        <v>207</v>
+      </c>
+      <c r="E134" t="s">
+        <v>257</v>
+      </c>
+      <c r="F134" t="s">
+        <v>296</v>
+      </c>
+      <c r="G134" t="s">
+        <v>351</v>
+      </c>
+      <c r="H134" t="s">
+        <v>399</v>
+      </c>
+      <c r="I134" t="s">
+        <v>424</v>
+      </c>
+      <c r="J134" t="s">
+        <v>355</v>
+      </c>
+      <c r="K134" t="s">
+        <v>477</v>
+      </c>
+      <c r="L134" t="s">
+        <v>484</v>
+      </c>
+      <c r="M134" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="1">
+        <v>1592</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135" t="s">
+        <v>159</v>
+      </c>
+      <c r="D135" t="s">
+        <v>217</v>
+      </c>
+      <c r="E135" t="s">
+        <v>257</v>
+      </c>
+      <c r="F135" t="s">
+        <v>304</v>
+      </c>
+      <c r="G135" t="s">
+        <v>343</v>
+      </c>
+      <c r="H135" t="s">
+        <v>403</v>
+      </c>
+      <c r="I135" t="s">
+        <v>424</v>
+      </c>
+      <c r="J135" t="s">
+        <v>437</v>
+      </c>
+      <c r="K135" t="s">
+        <v>477</v>
+      </c>
+      <c r="L135" t="s">
+        <v>487</v>
+      </c>
+      <c r="M135" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="1">
+        <v>1616</v>
+      </c>
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+      <c r="C136" t="s">
+        <v>160</v>
+      </c>
+      <c r="D136" t="s">
+        <v>175</v>
+      </c>
+      <c r="E136" t="s">
+        <v>256</v>
+      </c>
+      <c r="F136" t="s">
+        <v>268</v>
+      </c>
+      <c r="G136" t="s">
+        <v>347</v>
+      </c>
+      <c r="H136" t="s">
+        <v>373</v>
+      </c>
+      <c r="I136" t="s">
+        <v>427</v>
+      </c>
+      <c r="J136" t="s">
+        <v>341</v>
+      </c>
+      <c r="K136" t="s">
+        <v>478</v>
+      </c>
+      <c r="L136" t="s">
+        <v>490</v>
+      </c>
+      <c r="M136" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="1">
+        <v>1664</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
+      <c r="C137" t="s">
+        <v>160</v>
+      </c>
+      <c r="D137" t="s">
+        <v>178</v>
+      </c>
+      <c r="E137" t="s">
+        <v>257</v>
+      </c>
+      <c r="F137" t="s">
+        <v>271</v>
+      </c>
+      <c r="G137" t="s">
+        <v>347</v>
+      </c>
+      <c r="H137" t="s">
+        <v>376</v>
+      </c>
+      <c r="I137" t="s">
+        <v>427</v>
+      </c>
+      <c r="J137" t="s">
+        <v>348</v>
+      </c>
+      <c r="K137" t="s">
+        <v>479</v>
+      </c>
+      <c r="L137" t="s">
+        <v>488</v>
+      </c>
+      <c r="M137" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="1">
+        <v>1667</v>
+      </c>
+      <c r="B138" t="s">
+        <v>141</v>
+      </c>
+      <c r="C138" t="s">
+        <v>160</v>
+      </c>
+      <c r="D138" t="s">
+        <v>252</v>
+      </c>
+      <c r="E138" t="s">
+        <v>257</v>
+      </c>
+      <c r="F138" t="s">
+        <v>270</v>
+      </c>
+      <c r="G138" t="s">
+        <v>348</v>
+      </c>
+      <c r="H138" t="s">
+        <v>387</v>
+      </c>
+      <c r="I138" t="s">
+        <v>427</v>
+      </c>
+      <c r="J138" t="s">
+        <v>341</v>
+      </c>
+      <c r="K138" t="s">
+        <v>479</v>
+      </c>
+      <c r="L138" t="s">
+        <v>499</v>
+      </c>
+      <c r="M138" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="1">
+        <v>1690</v>
+      </c>
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
+      <c r="C139" t="s">
+        <v>160</v>
+      </c>
+      <c r="D139" t="s">
+        <v>191</v>
+      </c>
+      <c r="E139" t="s">
+        <v>257</v>
+      </c>
+      <c r="F139" t="s">
+        <v>270</v>
+      </c>
+      <c r="G139" t="s">
+        <v>348</v>
+      </c>
+      <c r="H139" t="s">
+        <v>387</v>
+      </c>
+      <c r="I139" t="s">
+        <v>427</v>
+      </c>
+      <c r="J139" t="s">
+        <v>341</v>
+      </c>
+      <c r="K139" t="s">
+        <v>480</v>
+      </c>
+      <c r="L139" t="s">
+        <v>492</v>
+      </c>
+      <c r="M139" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="1">
+        <v>1693</v>
+      </c>
+      <c r="B140" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140" t="s">
+        <v>159</v>
+      </c>
+      <c r="D140" t="s">
+        <v>169</v>
+      </c>
+      <c r="E140" t="s">
+        <v>257</v>
+      </c>
+      <c r="F140" t="s">
+        <v>262</v>
+      </c>
+      <c r="G140" t="s">
+        <v>361</v>
+      </c>
+      <c r="H140" t="s">
+        <v>367</v>
+      </c>
+      <c r="I140" t="s">
+        <v>424</v>
+      </c>
+      <c r="J140" t="s">
+        <v>353</v>
+      </c>
+      <c r="K140" t="s">
+        <v>480</v>
+      </c>
+      <c r="L140" t="s">
+        <v>487</v>
+      </c>
+      <c r="M140" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="1">
+        <v>1696</v>
+      </c>
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
+      <c r="C141" t="s">
+        <v>160</v>
+      </c>
+      <c r="D141" t="s">
+        <v>178</v>
+      </c>
+      <c r="E141" t="s">
+        <v>257</v>
+      </c>
+      <c r="F141" t="s">
+        <v>271</v>
+      </c>
+      <c r="G141" t="s">
+        <v>347</v>
+      </c>
+      <c r="H141" t="s">
+        <v>376</v>
+      </c>
+      <c r="I141" t="s">
+        <v>427</v>
+      </c>
+      <c r="J141" t="s">
+        <v>348</v>
+      </c>
+      <c r="K141" t="s">
+        <v>480</v>
+      </c>
+      <c r="L141" t="s">
+        <v>488</v>
+      </c>
+      <c r="M141" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="1">
+        <v>1697</v>
+      </c>
+      <c r="B142" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" t="s">
+        <v>160</v>
+      </c>
+      <c r="D142" t="s">
+        <v>178</v>
+      </c>
+      <c r="E142" t="s">
+        <v>257</v>
+      </c>
+      <c r="F142" t="s">
+        <v>271</v>
+      </c>
+      <c r="G142" t="s">
+        <v>347</v>
+      </c>
+      <c r="H142" t="s">
+        <v>376</v>
+      </c>
+      <c r="I142" t="s">
+        <v>427</v>
+      </c>
+      <c r="J142" t="s">
+        <v>348</v>
+      </c>
+      <c r="K142" t="s">
+        <v>480</v>
+      </c>
+      <c r="L142" t="s">
+        <v>488</v>
+      </c>
+      <c r="M142" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="1">
+        <v>1724</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143" t="s">
+        <v>160</v>
+      </c>
+      <c r="D143" t="s">
+        <v>199</v>
+      </c>
+      <c r="E143" t="s">
+        <v>257</v>
+      </c>
+      <c r="F143" t="s">
+        <v>288</v>
+      </c>
+      <c r="G143" t="s">
+        <v>350</v>
+      </c>
+      <c r="H143" t="s">
+        <v>393</v>
+      </c>
+      <c r="I143" t="s">
+        <v>427</v>
+      </c>
+      <c r="J143" t="s">
+        <v>344</v>
+      </c>
+      <c r="K143" t="s">
+        <v>480</v>
+      </c>
+      <c r="L143" t="s">
+        <v>492</v>
+      </c>
+      <c r="M143" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="1">
+        <v>1728</v>
+      </c>
+      <c r="B144" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144" t="s">
+        <v>158</v>
+      </c>
+      <c r="D144" t="s">
+        <v>167</v>
+      </c>
+      <c r="E144" t="s">
+        <v>257</v>
+      </c>
+      <c r="F144" t="s">
+        <v>260</v>
+      </c>
+      <c r="G144" t="s">
+        <v>339</v>
+      </c>
+      <c r="H144" t="s">
+        <v>365</v>
+      </c>
+      <c r="I144" t="s">
+        <v>426</v>
+      </c>
+      <c r="J144" t="s">
+        <v>430</v>
+      </c>
+      <c r="K144" t="s">
+        <v>480</v>
+      </c>
+      <c r="L144" t="s">
+        <v>486</v>
+      </c>
+      <c r="M144" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="1">
+        <v>1753</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
+      <c r="C145" t="s">
+        <v>160</v>
+      </c>
+      <c r="D145" t="s">
+        <v>191</v>
+      </c>
+      <c r="E145" t="s">
+        <v>257</v>
+      </c>
+      <c r="F145" t="s">
+        <v>270</v>
+      </c>
+      <c r="G145" t="s">
+        <v>348</v>
+      </c>
+      <c r="H145" t="s">
+        <v>387</v>
+      </c>
+      <c r="I145" t="s">
+        <v>427</v>
+      </c>
+      <c r="J145" t="s">
+        <v>341</v>
+      </c>
+      <c r="K145" t="s">
+        <v>481</v>
+      </c>
+      <c r="L145" t="s">
+        <v>499</v>
+      </c>
+      <c r="M145" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="1">
+        <v>1754</v>
+      </c>
+      <c r="B146" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146" t="s">
+        <v>157</v>
+      </c>
+      <c r="D146" t="s">
+        <v>181</v>
+      </c>
+      <c r="E146" t="s">
+        <v>257</v>
+      </c>
+      <c r="F146" t="s">
+        <v>259</v>
+      </c>
+      <c r="G146" t="s">
+        <v>338</v>
+      </c>
+      <c r="H146" t="s">
+        <v>379</v>
+      </c>
+      <c r="I146" t="s">
+        <v>425</v>
+      </c>
+      <c r="J146" t="s">
+        <v>436</v>
+      </c>
+      <c r="K146" t="s">
+        <v>481</v>
+      </c>
+      <c r="L146" t="s">
+        <v>485</v>
+      </c>
+      <c r="M146" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="1">
+        <v>1757</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147" t="s">
+        <v>156</v>
+      </c>
+      <c r="D147" t="s">
+        <v>253</v>
+      </c>
+      <c r="E147" t="s">
+        <v>257</v>
+      </c>
+      <c r="F147" t="s">
+        <v>334</v>
+      </c>
+      <c r="G147" t="s">
+        <v>351</v>
+      </c>
+      <c r="H147" t="s">
+        <v>398</v>
+      </c>
+      <c r="I147" t="s">
+        <v>424</v>
+      </c>
+      <c r="J147" t="s">
+        <v>337</v>
+      </c>
+      <c r="K147" t="s">
+        <v>481</v>
+      </c>
+      <c r="L147" t="s">
+        <v>484</v>
+      </c>
+      <c r="M147" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B148" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148" t="s">
+        <v>158</v>
+      </c>
+      <c r="D148" t="s">
+        <v>195</v>
+      </c>
+      <c r="E148" t="s">
+        <v>257</v>
+      </c>
+      <c r="F148" t="s">
+        <v>284</v>
+      </c>
+      <c r="G148" t="s">
+        <v>339</v>
+      </c>
+      <c r="H148" t="s">
+        <v>391</v>
+      </c>
+      <c r="I148" t="s">
+        <v>426</v>
+      </c>
+      <c r="J148" t="s">
+        <v>357</v>
+      </c>
+      <c r="K148" t="s">
+        <v>482</v>
+      </c>
+      <c r="L148" t="s">
+        <v>501</v>
+      </c>
+      <c r="M148" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="1">
+        <v>1801</v>
+      </c>
+      <c r="B149" t="s">
+        <v>103</v>
+      </c>
+      <c r="C149" t="s">
+        <v>158</v>
+      </c>
+      <c r="D149" t="s">
+        <v>225</v>
+      </c>
+      <c r="E149" t="s">
+        <v>257</v>
+      </c>
+      <c r="F149" t="s">
+        <v>312</v>
+      </c>
+      <c r="G149" t="s">
+        <v>359</v>
+      </c>
+      <c r="H149" t="s">
+        <v>371</v>
+      </c>
+      <c r="I149" t="s">
+        <v>426</v>
+      </c>
+      <c r="J149" t="s">
+        <v>357</v>
+      </c>
+      <c r="K149" t="s">
+        <v>482</v>
+      </c>
+      <c r="L149" t="s">
+        <v>501</v>
+      </c>
+      <c r="M149" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="1">
         <v>1802</v>
       </c>
-      <c r="B118" t="s">
-        <v>121</v>
-      </c>
-      <c r="C118" t="s">
-        <v>126</v>
-      </c>
-      <c r="D118" t="s">
-        <v>199</v>
-      </c>
-      <c r="E118" t="s">
-        <v>200</v>
-      </c>
-      <c r="F118" t="s">
-        <v>260</v>
-      </c>
-      <c r="G118" t="s">
-        <v>272</v>
-      </c>
-      <c r="H118" t="s">
-        <v>341</v>
-      </c>
-      <c r="I118" t="s">
-        <v>343</v>
-      </c>
-      <c r="J118" t="s">
+      <c r="B150" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150" t="s">
+        <v>156</v>
+      </c>
+      <c r="D150" t="s">
+        <v>254</v>
+      </c>
+      <c r="E150" t="s">
+        <v>257</v>
+      </c>
+      <c r="F150" t="s">
+        <v>335</v>
+      </c>
+      <c r="G150" t="s">
         <v>351</v>
       </c>
-      <c r="K118" t="s">
-        <v>400</v>
-      </c>
-      <c r="L118" t="s">
-        <v>413</v>
-      </c>
-      <c r="M118" t="s">
-        <v>437</v>
+      <c r="H150" t="s">
+        <v>423</v>
+      </c>
+      <c r="I150" t="s">
+        <v>424</v>
+      </c>
+      <c r="J150" t="s">
+        <v>433</v>
+      </c>
+      <c r="K150" t="s">
+        <v>482</v>
+      </c>
+      <c r="L150" t="s">
+        <v>496</v>
+      </c>
+      <c r="M150" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="1">
+        <v>1827</v>
+      </c>
+      <c r="B151" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" t="s">
+        <v>157</v>
+      </c>
+      <c r="D151" t="s">
+        <v>181</v>
+      </c>
+      <c r="E151" t="s">
+        <v>257</v>
+      </c>
+      <c r="F151" t="s">
+        <v>259</v>
+      </c>
+      <c r="G151" t="s">
+        <v>338</v>
+      </c>
+      <c r="H151" t="s">
+        <v>379</v>
+      </c>
+      <c r="I151" t="s">
+        <v>425</v>
+      </c>
+      <c r="J151" t="s">
+        <v>429</v>
+      </c>
+      <c r="K151" t="s">
+        <v>483</v>
+      </c>
+      <c r="L151" t="s">
+        <v>485</v>
+      </c>
+      <c r="M151" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="1">
+        <v>1834</v>
+      </c>
+      <c r="B152" t="s">
+        <v>154</v>
+      </c>
+      <c r="C152" t="s">
+        <v>164</v>
+      </c>
+      <c r="D152" t="s">
+        <v>181</v>
+      </c>
+      <c r="E152" t="s">
+        <v>257</v>
+      </c>
+      <c r="F152" t="s">
+        <v>259</v>
+      </c>
+      <c r="G152" t="s">
+        <v>338</v>
+      </c>
+      <c r="H152" t="s">
+        <v>379</v>
+      </c>
+      <c r="I152" t="s">
+        <v>425</v>
+      </c>
+      <c r="J152" t="s">
+        <v>439</v>
+      </c>
+      <c r="K152" t="s">
+        <v>483</v>
+      </c>
+      <c r="L152" t="s">
+        <v>511</v>
+      </c>
+      <c r="M152" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="1">
+        <v>1841</v>
+      </c>
+      <c r="B153" t="s">
+        <v>155</v>
+      </c>
+      <c r="C153" t="s">
+        <v>160</v>
+      </c>
+      <c r="D153" t="s">
+        <v>255</v>
+      </c>
+      <c r="E153" t="s">
+        <v>256</v>
+      </c>
+      <c r="F153" t="s">
+        <v>336</v>
+      </c>
+      <c r="G153" t="s">
+        <v>347</v>
+      </c>
+      <c r="H153" t="s">
+        <v>393</v>
+      </c>
+      <c r="I153" t="s">
+        <v>427</v>
+      </c>
+      <c r="J153" t="s">
+        <v>344</v>
+      </c>
+      <c r="K153" t="s">
+        <v>483</v>
+      </c>
+      <c r="L153" t="s">
+        <v>512</v>
+      </c>
+      <c r="M153" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
